--- a/spreadsheets/Games.xlsx
+++ b/spreadsheets/Games.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8130" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8130" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="315">
   <si>
     <t>Nier: Automata</t>
   </si>
@@ -1692,7 +1692,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2162,6 +2162,9 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
@@ -2180,9 +2183,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2190,6 +2190,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2714,11 +2717,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2012926832"/>
-        <c:axId val="2012925744"/>
+        <c:axId val="-1381972208"/>
+        <c:axId val="-1381968944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2012926832"/>
+        <c:axId val="-1381972208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2799,7 +2802,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2012925744"/>
+        <c:crossAx val="-1381968944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2807,7 +2810,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2012925744"/>
+        <c:axId val="-1381968944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2909,7 +2912,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2012926832"/>
+        <c:crossAx val="-1381972208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3281,11 +3284,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2012912144"/>
-        <c:axId val="2012912688"/>
+        <c:axId val="-1381976016"/>
+        <c:axId val="-1381971664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2012912144"/>
+        <c:axId val="-1381976016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3328,7 +3331,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2012912688"/>
+        <c:crossAx val="-1381971664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3336,7 +3339,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2012912688"/>
+        <c:axId val="-1381971664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3387,7 +3390,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2012912144"/>
+        <c:crossAx val="-1381976016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3774,11 +3777,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="2014545376"/>
-        <c:axId val="2014541024"/>
+        <c:axId val="-1381969488"/>
+        <c:axId val="-1381968400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2014545376"/>
+        <c:axId val="-1381969488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3835,7 +3838,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2014541024"/>
+        <c:crossAx val="-1381968400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3843,7 +3846,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2014541024"/>
+        <c:axId val="-1381968400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3853,7 +3856,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2014545376"/>
+        <c:crossAx val="-1381969488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4167,11 +4170,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="2014541568"/>
-        <c:axId val="2014535584"/>
+        <c:axId val="-1186767312"/>
+        <c:axId val="-1186756432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2014541568"/>
+        <c:axId val="-1186767312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4216,7 +4219,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2014535584"/>
+        <c:crossAx val="-1186756432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4224,7 +4227,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2014535584"/>
+        <c:axId val="-1186756432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4274,7 +4277,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2014541568"/>
+        <c:crossAx val="-1186767312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -4412,6 +4415,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4501,6 +4505,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4710,11 +4715,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="2014539392"/>
-        <c:axId val="2014542112"/>
+        <c:axId val="-1186771120"/>
+        <c:axId val="-1186758608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2014539392"/>
+        <c:axId val="-1186771120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4771,7 +4776,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2014542112"/>
+        <c:crossAx val="-1186758608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4779,7 +4784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2014542112"/>
+        <c:axId val="-1186758608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4789,7 +4794,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2014539392"/>
+        <c:crossAx val="-1186771120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5055,11 +5060,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="2014542656"/>
-        <c:axId val="2014534496"/>
+        <c:axId val="-1186760240"/>
+        <c:axId val="-1186757520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2014542656"/>
+        <c:axId val="-1186760240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5104,7 +5109,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2014534496"/>
+        <c:crossAx val="-1186757520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5112,7 +5117,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2014534496"/>
+        <c:axId val="-1186757520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5162,7 +5167,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2014542656"/>
+        <c:crossAx val="-1186760240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -15042,7 +15047,7 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:AY296"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
@@ -15210,7 +15215,7 @@
         <v>4.197916666666667</v>
       </c>
       <c r="H3" s="8"/>
-      <c r="I3" s="160" t="s">
+      <c r="I3" s="161" t="s">
         <v>124</v>
       </c>
       <c r="J3" s="84" t="s">
@@ -15281,7 +15286,7 @@
         <v>0.30138888888888887</v>
       </c>
       <c r="H4" s="8"/>
-      <c r="I4" s="161"/>
+      <c r="I4" s="162"/>
       <c r="J4" s="57" t="s">
         <v>133</v>
       </c>
@@ -15350,7 +15355,7 @@
         <v>0.2076388888888889</v>
       </c>
       <c r="H5" s="8"/>
-      <c r="I5" s="161"/>
+      <c r="I5" s="162"/>
       <c r="J5" s="77" t="s">
         <v>138</v>
       </c>
@@ -15419,7 +15424,7 @@
         <v>1.2437499999999999</v>
       </c>
       <c r="H6" s="8"/>
-      <c r="I6" s="161"/>
+      <c r="I6" s="162"/>
       <c r="J6" s="57" t="s">
         <v>135</v>
       </c>
@@ -15488,7 +15493,7 @@
         <v>0.27916666666666667</v>
       </c>
       <c r="H7" s="8"/>
-      <c r="I7" s="161"/>
+      <c r="I7" s="162"/>
       <c r="J7" s="77" t="s">
         <v>142</v>
       </c>
@@ -15557,7 +15562,7 @@
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="H8" s="8"/>
-      <c r="I8" s="161"/>
+      <c r="I8" s="162"/>
       <c r="J8" s="57" t="s">
         <v>143</v>
       </c>
@@ -15626,7 +15631,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="H9" s="8"/>
-      <c r="I9" s="160" t="s">
+      <c r="I9" s="161" t="s">
         <v>125</v>
       </c>
       <c r="J9" s="75" t="s">
@@ -15697,7 +15702,7 @@
         <v>0.19027777777777777</v>
       </c>
       <c r="H10" s="8"/>
-      <c r="I10" s="161"/>
+      <c r="I10" s="162"/>
       <c r="J10" s="57" t="s">
         <v>133</v>
       </c>
@@ -15766,7 +15771,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="H11" s="8"/>
-      <c r="I11" s="161"/>
+      <c r="I11" s="162"/>
       <c r="J11" s="77" t="s">
         <v>138</v>
       </c>
@@ -15835,7 +15840,7 @@
         <v>1.7097222222222221</v>
       </c>
       <c r="H12" s="8"/>
-      <c r="I12" s="161"/>
+      <c r="I12" s="162"/>
       <c r="J12" s="57" t="s">
         <v>135</v>
       </c>
@@ -15904,7 +15909,7 @@
         <v>0.15972222222222224</v>
       </c>
       <c r="H13" s="8"/>
-      <c r="I13" s="161"/>
+      <c r="I13" s="162"/>
       <c r="J13" s="77" t="s">
         <v>147</v>
       </c>
@@ -15973,7 +15978,7 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="H14" s="8"/>
-      <c r="I14" s="160" t="s">
+      <c r="I14" s="161" t="s">
         <v>126</v>
       </c>
       <c r="J14" s="11" t="s">
@@ -16044,7 +16049,7 @@
         <v>0.59652777777777777</v>
       </c>
       <c r="H15" s="8"/>
-      <c r="I15" s="161"/>
+      <c r="I15" s="162"/>
       <c r="J15" s="77" t="s">
         <v>133</v>
       </c>
@@ -16113,7 +16118,7 @@
         <v>14</v>
       </c>
       <c r="H16" s="8"/>
-      <c r="I16" s="161"/>
+      <c r="I16" s="162"/>
       <c r="J16" s="57" t="s">
         <v>138</v>
       </c>
@@ -16182,7 +16187,7 @@
         <v>14</v>
       </c>
       <c r="H17" s="8"/>
-      <c r="I17" s="161"/>
+      <c r="I17" s="162"/>
       <c r="J17" s="77" t="s">
         <v>135</v>
       </c>
@@ -16251,7 +16256,7 @@
         <v>0.24583333333333335</v>
       </c>
       <c r="H18" s="8"/>
-      <c r="I18" s="161"/>
+      <c r="I18" s="162"/>
       <c r="J18" s="57" t="s">
         <v>150</v>
       </c>
@@ -16320,7 +16325,7 @@
         <v>0.49513888888888885</v>
       </c>
       <c r="H19" s="8"/>
-      <c r="I19" s="162"/>
+      <c r="I19" s="163"/>
       <c r="J19" s="80" t="s">
         <v>156</v>
       </c>
@@ -16389,7 +16394,7 @@
         <v>0.20972222222222223</v>
       </c>
       <c r="H20" s="8"/>
-      <c r="I20" s="160" t="s">
+      <c r="I20" s="161" t="s">
         <v>149</v>
       </c>
       <c r="J20" s="11" t="s">
@@ -16460,7 +16465,7 @@
         <v>0.25486111111111109</v>
       </c>
       <c r="H21" s="8"/>
-      <c r="I21" s="162"/>
+      <c r="I21" s="163"/>
       <c r="J21" s="80" t="s">
         <v>147</v>
       </c>
@@ -16539,7 +16544,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="H22" s="8"/>
-      <c r="I22" s="161" t="s">
+      <c r="I22" s="162" t="s">
         <v>167</v>
       </c>
       <c r="J22" s="57" t="s">
@@ -16622,7 +16627,7 @@
         <v>0.26944444444444443</v>
       </c>
       <c r="H23" s="8"/>
-      <c r="I23" s="161"/>
+      <c r="I23" s="162"/>
       <c r="J23" s="84" t="s">
         <v>175</v>
       </c>
@@ -16703,7 +16708,7 @@
         <v>0.3263888888888889</v>
       </c>
       <c r="H24" s="40"/>
-      <c r="I24" s="161"/>
+      <c r="I24" s="162"/>
       <c r="J24" s="57" t="s">
         <v>169</v>
       </c>
@@ -16784,7 +16789,7 @@
         <v>0.32847222222222222</v>
       </c>
       <c r="H25" s="41"/>
-      <c r="I25" s="161"/>
+      <c r="I25" s="162"/>
       <c r="J25" s="77" t="s">
         <v>147</v>
       </c>
@@ -16865,7 +16870,7 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="H26" s="41"/>
-      <c r="I26" s="162"/>
+      <c r="I26" s="163"/>
       <c r="J26" s="12" t="s">
         <v>168</v>
       </c>
@@ -16946,7 +16951,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="H27" s="41"/>
-      <c r="I27" s="160" t="s">
+      <c r="I27" s="161" t="s">
         <v>177</v>
       </c>
       <c r="J27" s="77" t="s">
@@ -17029,7 +17034,7 @@
         <v>0.22291666666666665</v>
       </c>
       <c r="H28" s="41"/>
-      <c r="I28" s="161"/>
+      <c r="I28" s="162"/>
       <c r="J28" s="105" t="s">
         <v>169</v>
       </c>
@@ -17110,7 +17115,7 @@
         <v>0.13194444444444445</v>
       </c>
       <c r="H29" s="41"/>
-      <c r="I29" s="161"/>
+      <c r="I29" s="162"/>
       <c r="J29" s="77" t="s">
         <v>30</v>
       </c>
@@ -17191,7 +17196,7 @@
         <v>14</v>
       </c>
       <c r="H30" s="41"/>
-      <c r="I30" s="161"/>
+      <c r="I30" s="162"/>
       <c r="J30" s="105" t="s">
         <v>142</v>
       </c>
@@ -17272,7 +17277,7 @@
         <v>0.43888888888888888</v>
       </c>
       <c r="H31" s="41"/>
-      <c r="I31" s="162"/>
+      <c r="I31" s="163"/>
       <c r="J31" s="77" t="s">
         <v>147</v>
       </c>
@@ -17353,7 +17358,7 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="H32" s="41"/>
-      <c r="I32" s="160" t="s">
+      <c r="I32" s="161" t="s">
         <v>190</v>
       </c>
       <c r="J32" s="111" t="s">
@@ -17436,7 +17441,7 @@
         <v>2.7097222222222221</v>
       </c>
       <c r="H33" s="41"/>
-      <c r="I33" s="161"/>
+      <c r="I33" s="162"/>
       <c r="J33" s="77" t="s">
         <v>185</v>
       </c>
@@ -17519,7 +17524,7 @@
         <v>14</v>
       </c>
       <c r="H34" s="41"/>
-      <c r="I34" s="161"/>
+      <c r="I34" s="162"/>
       <c r="J34" s="57" t="s">
         <v>205</v>
       </c>
@@ -17599,7 +17604,7 @@
         <v>0.11041666666666666</v>
       </c>
       <c r="H35" s="41"/>
-      <c r="I35" s="161"/>
+      <c r="I35" s="162"/>
       <c r="J35" s="84" t="s">
         <v>204</v>
       </c>
@@ -17668,7 +17673,7 @@
         <v>0.37083333333333335</v>
       </c>
       <c r="H36" s="41"/>
-      <c r="I36" s="161"/>
+      <c r="I36" s="162"/>
       <c r="J36" s="57" t="s">
         <v>147</v>
       </c>
@@ -17676,9 +17681,9 @@
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="L36" s="41"/>
-      <c r="M36" s="163"/>
-      <c r="N36" s="163"/>
-      <c r="O36" s="163"/>
+      <c r="M36" s="157"/>
+      <c r="N36" s="157"/>
+      <c r="O36" s="157"/>
       <c r="P36" s="129"/>
       <c r="Q36" s="43"/>
       <c r="R36" s="43"/>
@@ -17737,7 +17742,7 @@
         <v>0.80694444444444446</v>
       </c>
       <c r="H37" s="41"/>
-      <c r="I37" s="161"/>
+      <c r="I37" s="162"/>
       <c r="J37" s="84" t="s">
         <v>202</v>
       </c>
@@ -17745,9 +17750,9 @@
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="L37" s="41"/>
-      <c r="M37" s="163"/>
-      <c r="N37" s="163"/>
-      <c r="O37" s="163"/>
+      <c r="M37" s="157"/>
+      <c r="N37" s="157"/>
+      <c r="O37" s="157"/>
       <c r="P37" s="129"/>
       <c r="Q37" s="43"/>
       <c r="R37" s="43"/>
@@ -17806,7 +17811,7 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="H38" s="41"/>
-      <c r="I38" s="162"/>
+      <c r="I38" s="163"/>
       <c r="J38" s="12" t="s">
         <v>208</v>
       </c>
@@ -17814,9 +17819,9 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="L38" s="41"/>
-      <c r="M38" s="163"/>
-      <c r="N38" s="163"/>
-      <c r="O38" s="163"/>
+      <c r="M38" s="157"/>
+      <c r="N38" s="157"/>
+      <c r="O38" s="157"/>
       <c r="P38" s="129"/>
       <c r="Q38" s="43"/>
       <c r="R38" s="43"/>
@@ -17863,7 +17868,7 @@
       <c r="F39" s="31"/>
       <c r="G39" s="64"/>
       <c r="H39" s="41"/>
-      <c r="I39" s="160" t="s">
+      <c r="I39" s="161" t="s">
         <v>217</v>
       </c>
       <c r="J39" s="120" t="s">
@@ -17873,9 +17878,9 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="L39" s="41"/>
-      <c r="M39" s="163"/>
-      <c r="N39" s="163"/>
-      <c r="O39" s="163"/>
+      <c r="M39" s="157"/>
+      <c r="N39" s="157"/>
+      <c r="O39" s="157"/>
       <c r="P39" s="128"/>
       <c r="Q39" s="43"/>
       <c r="R39" s="43"/>
@@ -17922,7 +17927,7 @@
       <c r="F40" s="40"/>
       <c r="G40" s="65"/>
       <c r="H40" s="41"/>
-      <c r="I40" s="161"/>
+      <c r="I40" s="162"/>
       <c r="J40" s="117" t="s">
         <v>218</v>
       </c>
@@ -17930,9 +17935,9 @@
         <v>0.3666666666666667</v>
       </c>
       <c r="L40" s="41"/>
-      <c r="M40" s="163"/>
-      <c r="N40" s="163"/>
-      <c r="O40" s="163"/>
+      <c r="M40" s="157"/>
+      <c r="N40" s="157"/>
+      <c r="O40" s="157"/>
       <c r="P40" s="128"/>
       <c r="Q40" s="43"/>
       <c r="R40" s="43"/>
@@ -17978,7 +17983,7 @@
       <c r="F41" s="31"/>
       <c r="G41" s="64"/>
       <c r="H41" s="41"/>
-      <c r="I41" s="161"/>
+      <c r="I41" s="162"/>
       <c r="J41" s="116" t="s">
         <v>185</v>
       </c>
@@ -17986,9 +17991,9 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="L41" s="41"/>
-      <c r="M41" s="163"/>
-      <c r="N41" s="163"/>
-      <c r="O41" s="163"/>
+      <c r="M41" s="157"/>
+      <c r="N41" s="157"/>
+      <c r="O41" s="157"/>
       <c r="P41" s="128"/>
       <c r="Q41" s="43"/>
       <c r="R41" s="43"/>
@@ -18035,7 +18040,7 @@
       <c r="F42" s="31"/>
       <c r="G42" s="64"/>
       <c r="H42" s="41"/>
-      <c r="I42" s="161"/>
+      <c r="I42" s="162"/>
       <c r="J42" s="118" t="s">
         <v>142</v>
       </c>
@@ -18092,7 +18097,7 @@
       <c r="F43" s="41"/>
       <c r="G43" s="66"/>
       <c r="H43" s="41"/>
-      <c r="I43" s="161"/>
+      <c r="I43" s="162"/>
       <c r="J43" s="116" t="s">
         <v>220</v>
       </c>
@@ -18149,7 +18154,7 @@
       <c r="F44" s="41"/>
       <c r="G44" s="66"/>
       <c r="H44" s="41"/>
-      <c r="I44" s="161"/>
+      <c r="I44" s="162"/>
       <c r="J44" s="117" t="s">
         <v>221</v>
       </c>
@@ -18206,7 +18211,7 @@
       <c r="F45" s="41"/>
       <c r="G45" s="66"/>
       <c r="H45" s="41"/>
-      <c r="I45" s="162"/>
+      <c r="I45" s="163"/>
       <c r="J45" s="119" t="s">
         <v>147</v>
       </c>
@@ -18263,7 +18268,7 @@
       <c r="F46" s="41"/>
       <c r="G46" s="66"/>
       <c r="H46" s="41"/>
-      <c r="I46" s="157" t="s">
+      <c r="I46" s="158" t="s">
         <v>225</v>
       </c>
       <c r="J46" s="123" t="s">
@@ -18322,7 +18327,7 @@
       <c r="F47" s="41"/>
       <c r="G47" s="66"/>
       <c r="H47" s="41"/>
-      <c r="I47" s="158"/>
+      <c r="I47" s="159"/>
       <c r="J47" s="84" t="s">
         <v>185</v>
       </c>
@@ -18379,7 +18384,7 @@
       <c r="F48" s="41"/>
       <c r="G48" s="66"/>
       <c r="H48" s="41"/>
-      <c r="I48" s="158"/>
+      <c r="I48" s="159"/>
       <c r="J48" s="105" t="s">
         <v>142</v>
       </c>
@@ -18436,7 +18441,7 @@
       <c r="F49" s="41"/>
       <c r="G49" s="66"/>
       <c r="H49" s="41"/>
-      <c r="I49" s="159"/>
+      <c r="I49" s="160"/>
       <c r="J49" s="124" t="s">
         <v>221</v>
       </c>
@@ -18493,7 +18498,7 @@
       <c r="F50" s="41"/>
       <c r="G50" s="41"/>
       <c r="H50" s="41"/>
-      <c r="I50" s="157" t="s">
+      <c r="I50" s="158" t="s">
         <v>240</v>
       </c>
       <c r="J50" s="125" t="s">
@@ -18552,7 +18557,7 @@
       <c r="F51" s="41"/>
       <c r="G51" s="41"/>
       <c r="H51" s="41"/>
-      <c r="I51" s="158"/>
+      <c r="I51" s="159"/>
       <c r="J51" s="126" t="s">
         <v>185</v>
       </c>
@@ -18609,7 +18614,7 @@
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
       <c r="H52" s="41"/>
-      <c r="I52" s="158"/>
+      <c r="I52" s="159"/>
       <c r="J52" s="118" t="s">
         <v>243</v>
       </c>
@@ -18666,7 +18671,7 @@
       <c r="F53" s="41"/>
       <c r="G53" s="41"/>
       <c r="H53" s="41"/>
-      <c r="I53" s="159"/>
+      <c r="I53" s="160"/>
       <c r="J53" s="119" t="s">
         <v>219</v>
       </c>
@@ -18723,7 +18728,7 @@
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
       <c r="H54" s="41"/>
-      <c r="I54" s="157" t="s">
+      <c r="I54" s="158" t="s">
         <v>251</v>
       </c>
       <c r="J54" s="125" t="s">
@@ -18782,7 +18787,7 @@
       <c r="F55" s="41"/>
       <c r="G55" s="41"/>
       <c r="H55" s="41"/>
-      <c r="I55" s="158"/>
+      <c r="I55" s="159"/>
       <c r="J55" s="126" t="s">
         <v>250</v>
       </c>
@@ -18839,7 +18844,7 @@
       <c r="F56" s="41"/>
       <c r="G56" s="41"/>
       <c r="H56" s="41"/>
-      <c r="I56" s="158"/>
+      <c r="I56" s="159"/>
       <c r="J56" s="118" t="s">
         <v>30</v>
       </c>
@@ -18896,7 +18901,7 @@
       <c r="F57" s="41"/>
       <c r="G57" s="41"/>
       <c r="H57" s="41"/>
-      <c r="I57" s="159"/>
+      <c r="I57" s="160"/>
       <c r="J57" s="119" t="s">
         <v>205</v>
       </c>
@@ -18953,7 +18958,7 @@
       <c r="F58" s="41"/>
       <c r="G58" s="41"/>
       <c r="H58" s="41"/>
-      <c r="I58" s="157" t="s">
+      <c r="I58" s="158" t="s">
         <v>254</v>
       </c>
       <c r="J58" s="125" t="s">
@@ -19012,7 +19017,7 @@
       <c r="F59" s="41"/>
       <c r="G59" s="41"/>
       <c r="H59" s="41"/>
-      <c r="I59" s="158"/>
+      <c r="I59" s="159"/>
       <c r="J59" s="126" t="s">
         <v>243</v>
       </c>
@@ -19069,7 +19074,7 @@
       <c r="F60" s="41"/>
       <c r="G60" s="41"/>
       <c r="H60" s="41"/>
-      <c r="I60" s="158"/>
+      <c r="I60" s="159"/>
       <c r="J60" s="118" t="s">
         <v>250</v>
       </c>
@@ -19126,7 +19131,7 @@
       <c r="F61" s="41"/>
       <c r="G61" s="41"/>
       <c r="H61" s="41"/>
-      <c r="I61" s="158"/>
+      <c r="I61" s="159"/>
       <c r="J61" s="126" t="s">
         <v>253</v>
       </c>
@@ -19183,7 +19188,7 @@
       <c r="F62" s="41"/>
       <c r="G62" s="41"/>
       <c r="H62" s="41"/>
-      <c r="I62" s="158"/>
+      <c r="I62" s="159"/>
       <c r="J62" s="118" t="s">
         <v>30</v>
       </c>
@@ -19240,7 +19245,7 @@
       <c r="F63" s="41"/>
       <c r="G63" s="41"/>
       <c r="H63" s="41"/>
-      <c r="I63" s="159"/>
+      <c r="I63" s="160"/>
       <c r="J63" s="119" t="s">
         <v>205</v>
       </c>
@@ -24894,12 +24899,6 @@
     <sortCondition ref="J33"/>
   </sortState>
   <mergeCells count="18">
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="M39:O39"/>
     <mergeCell ref="I58:I63"/>
     <mergeCell ref="I54:I57"/>
     <mergeCell ref="I50:I53"/>
@@ -24912,6 +24911,12 @@
     <mergeCell ref="I32:I38"/>
     <mergeCell ref="I27:I31"/>
     <mergeCell ref="I14:I19"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="M39:O39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24927,8 +24932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -25439,11 +25444,11 @@
       <c r="F13" s="78"/>
       <c r="G13" s="79"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="140"/>
-      <c r="K13" s="145"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="63"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="167"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="167"/>
+      <c r="M13" s="167"/>
       <c r="N13" s="41"/>
       <c r="O13" s="40"/>
       <c r="P13" s="41"/>
@@ -25465,11 +25470,15 @@
       <c r="F14" s="73"/>
       <c r="G14" s="63"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="141"/>
-      <c r="K14" s="145"/>
-      <c r="L14" s="141"/>
-      <c r="M14" s="81"/>
+      <c r="I14" s="164" t="s">
+        <v>296</v>
+      </c>
+      <c r="J14" s="166"/>
+      <c r="K14" s="144"/>
+      <c r="L14" s="164" t="s">
+        <v>297</v>
+      </c>
+      <c r="M14" s="166"/>
       <c r="N14" s="41"/>
       <c r="O14" s="40"/>
       <c r="P14" s="41"/>
@@ -25491,7 +25500,13 @@
       <c r="F15" s="78"/>
       <c r="G15" s="79"/>
       <c r="H15" s="8"/>
-      <c r="K15" s="143"/>
+      <c r="I15" s="126" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="139"/>
+      <c r="K15" s="145"/>
+      <c r="L15" s="138"/>
+      <c r="M15" s="76"/>
       <c r="N15" s="41"/>
       <c r="O15" s="40"/>
       <c r="P15" s="41"/>
@@ -25513,15 +25528,13 @@
       <c r="F16" s="73"/>
       <c r="G16" s="63"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="164" t="s">
-        <v>296</v>
-      </c>
-      <c r="J16" s="165"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="165" t="s">
-        <v>297</v>
-      </c>
-      <c r="M16" s="166"/>
+      <c r="I16" s="117" t="s">
+        <v>312</v>
+      </c>
+      <c r="J16" s="140"/>
+      <c r="K16" s="145"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="63"/>
       <c r="N16" s="41"/>
       <c r="O16" s="40"/>
       <c r="P16" s="41"/>
@@ -25543,13 +25556,13 @@
       <c r="F17" s="146"/>
       <c r="G17" s="81"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="126" t="s">
-        <v>26</v>
+      <c r="I17" s="116" t="s">
+        <v>309</v>
       </c>
       <c r="J17" s="139"/>
       <c r="K17" s="145"/>
-      <c r="L17" s="138"/>
-      <c r="M17" s="76"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="79"/>
       <c r="N17" s="41"/>
       <c r="O17" s="40"/>
       <c r="P17" s="41"/>
@@ -25569,12 +25582,10 @@
       <c r="F18" s="31"/>
       <c r="G18" s="64"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="117" t="s">
-        <v>312</v>
-      </c>
+      <c r="I18" s="117"/>
       <c r="J18" s="140"/>
       <c r="K18" s="145"/>
-      <c r="L18" s="105"/>
+      <c r="L18" s="57"/>
       <c r="M18" s="63"/>
       <c r="N18" s="41"/>
       <c r="O18" s="40"/>
@@ -25595,13 +25606,11 @@
       <c r="F19" s="31"/>
       <c r="G19" s="64"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="116" t="s">
-        <v>309</v>
-      </c>
-      <c r="J19" s="139"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="141"/>
       <c r="K19" s="145"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="79"/>
+      <c r="L19" s="141"/>
+      <c r="M19" s="81"/>
       <c r="N19" s="41"/>
       <c r="O19" s="40"/>
       <c r="P19" s="41"/>
@@ -25621,11 +25630,7 @@
       <c r="F20" s="31"/>
       <c r="G20" s="64"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="140"/>
-      <c r="K20" s="145"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="63"/>
+      <c r="K20" s="143"/>
       <c r="N20" s="41"/>
       <c r="O20" s="40"/>
       <c r="P20" s="41"/>
@@ -25645,11 +25650,15 @@
       <c r="F21" s="31"/>
       <c r="G21" s="64"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="141"/>
-      <c r="K21" s="145"/>
-      <c r="L21" s="141"/>
-      <c r="M21" s="81"/>
+      <c r="I21" s="164" t="s">
+        <v>298</v>
+      </c>
+      <c r="J21" s="166"/>
+      <c r="K21" s="144"/>
+      <c r="L21" s="164" t="s">
+        <v>299</v>
+      </c>
+      <c r="M21" s="166"/>
       <c r="N21" s="41"/>
       <c r="O21" s="93" t="s">
         <v>32</v>
@@ -25679,7 +25688,11 @@
       <c r="F22" s="31"/>
       <c r="G22" s="64"/>
       <c r="H22" s="8"/>
-      <c r="K22" s="143"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="139"/>
+      <c r="K22" s="145"/>
+      <c r="L22" s="138"/>
+      <c r="M22" s="76"/>
       <c r="N22" s="41"/>
       <c r="O22" s="67" t="s">
         <v>33</v>
@@ -25711,15 +25724,11 @@
       <c r="F23" s="31"/>
       <c r="G23" s="64"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="164" t="s">
-        <v>298</v>
-      </c>
-      <c r="J23" s="165"/>
-      <c r="K23" s="144"/>
-      <c r="L23" s="165" t="s">
-        <v>299</v>
-      </c>
-      <c r="M23" s="166"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="140"/>
+      <c r="K23" s="145"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="63"/>
       <c r="N23" s="41"/>
       <c r="O23" s="98" t="s">
         <v>34</v>
@@ -25751,11 +25760,11 @@
       <c r="F24" s="31"/>
       <c r="G24" s="64"/>
       <c r="H24" s="40"/>
-      <c r="I24" s="126"/>
+      <c r="I24" s="116"/>
       <c r="J24" s="139"/>
       <c r="K24" s="145"/>
-      <c r="L24" s="138"/>
-      <c r="M24" s="76"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="79"/>
       <c r="N24" s="41"/>
       <c r="O24" s="97" t="s">
         <v>35</v>
@@ -25773,7 +25782,7 @@
       </c>
       <c r="S24" s="41"/>
       <c r="T24" s="103" t="s">
-        <v>310</v>
+        <v>14</v>
       </c>
       <c r="U24" s="41"/>
       <c r="V24" s="41"/>
@@ -25790,7 +25799,7 @@
       <c r="I25" s="117"/>
       <c r="J25" s="140"/>
       <c r="K25" s="145"/>
-      <c r="L25" s="105"/>
+      <c r="L25" s="57"/>
       <c r="M25" s="63"/>
       <c r="N25" s="41"/>
       <c r="O25" s="98" t="s">
@@ -25808,7 +25817,9 @@
         <v>1.963888888888889</v>
       </c>
       <c r="S25" s="41"/>
-      <c r="T25" s="102"/>
+      <c r="T25" s="102" t="s">
+        <v>310</v>
+      </c>
       <c r="U25" s="41"/>
       <c r="V25" s="41"/>
     </row>
@@ -25821,11 +25832,11 @@
       <c r="F26" s="31"/>
       <c r="G26" s="64"/>
       <c r="H26" s="41"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="139"/>
+      <c r="I26" s="142"/>
+      <c r="J26" s="141"/>
       <c r="K26" s="145"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="79"/>
+      <c r="L26" s="141"/>
+      <c r="M26" s="81"/>
       <c r="N26" s="41"/>
       <c r="O26" s="97" t="s">
         <v>37</v>
@@ -25847,11 +25858,7 @@
       <c r="F27" s="31"/>
       <c r="G27" s="64"/>
       <c r="H27" s="41"/>
-      <c r="I27" s="117"/>
-      <c r="J27" s="140"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="63"/>
+      <c r="K27" s="143"/>
       <c r="N27" s="41"/>
       <c r="O27" s="98" t="s">
         <v>38</v>
@@ -25873,11 +25880,15 @@
       <c r="F28" s="31"/>
       <c r="G28" s="64"/>
       <c r="H28" s="41"/>
-      <c r="I28" s="142"/>
-      <c r="J28" s="141"/>
-      <c r="K28" s="145"/>
-      <c r="L28" s="141"/>
-      <c r="M28" s="81"/>
+      <c r="I28" s="164" t="s">
+        <v>300</v>
+      </c>
+      <c r="J28" s="166"/>
+      <c r="K28" s="144"/>
+      <c r="L28" s="164" t="s">
+        <v>301</v>
+      </c>
+      <c r="M28" s="166"/>
       <c r="N28" s="41"/>
       <c r="O28" s="97" t="s">
         <v>39</v>
@@ -25899,7 +25910,11 @@
       <c r="F29" s="31"/>
       <c r="G29" s="64"/>
       <c r="H29" s="41"/>
-      <c r="K29" s="143"/>
+      <c r="I29" s="126"/>
+      <c r="J29" s="139"/>
+      <c r="K29" s="145"/>
+      <c r="L29" s="138"/>
+      <c r="M29" s="76"/>
       <c r="N29" s="41"/>
       <c r="O29" s="98" t="s">
         <v>40</v>
@@ -25921,15 +25936,11 @@
       <c r="F30" s="31"/>
       <c r="G30" s="64"/>
       <c r="H30" s="41"/>
-      <c r="I30" s="164" t="s">
-        <v>300</v>
-      </c>
-      <c r="J30" s="165"/>
-      <c r="K30" s="144"/>
-      <c r="L30" s="165" t="s">
-        <v>301</v>
-      </c>
-      <c r="M30" s="166"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="140"/>
+      <c r="K30" s="145"/>
+      <c r="L30" s="105"/>
+      <c r="M30" s="63"/>
       <c r="N30" s="41"/>
       <c r="O30" s="97" t="s">
         <v>41</v>
@@ -25951,11 +25962,11 @@
       <c r="F31" s="31"/>
       <c r="G31" s="64"/>
       <c r="H31" s="41"/>
-      <c r="I31" s="126"/>
+      <c r="I31" s="116"/>
       <c r="J31" s="139"/>
       <c r="K31" s="145"/>
-      <c r="L31" s="138"/>
-      <c r="M31" s="76"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="79"/>
       <c r="N31" s="41"/>
       <c r="O31" s="98" t="s">
         <v>42</v>
@@ -25980,7 +25991,7 @@
       <c r="I32" s="117"/>
       <c r="J32" s="140"/>
       <c r="K32" s="145"/>
-      <c r="L32" s="105"/>
+      <c r="L32" s="57"/>
       <c r="M32" s="63"/>
       <c r="N32" s="41"/>
       <c r="O32" s="97" t="s">
@@ -26003,11 +26014,11 @@
       <c r="F33" s="31"/>
       <c r="G33" s="64"/>
       <c r="H33" s="41"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="139"/>
+      <c r="I33" s="142"/>
+      <c r="J33" s="141"/>
       <c r="K33" s="145"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="79"/>
+      <c r="L33" s="141"/>
+      <c r="M33" s="81"/>
       <c r="N33" s="41"/>
       <c r="O33" s="98" t="s">
         <v>44</v>
@@ -26031,11 +26042,7 @@
       <c r="F34" s="31"/>
       <c r="G34" s="64"/>
       <c r="H34" s="41"/>
-      <c r="I34" s="117"/>
-      <c r="J34" s="140"/>
-      <c r="K34" s="145"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="63"/>
+      <c r="K34" s="143"/>
       <c r="N34" s="41"/>
       <c r="O34" s="130" t="s">
         <v>83</v>
@@ -26066,11 +26073,15 @@
       <c r="F35" s="31"/>
       <c r="G35" s="64"/>
       <c r="H35" s="41"/>
-      <c r="I35" s="142"/>
-      <c r="J35" s="141"/>
-      <c r="K35" s="145"/>
-      <c r="L35" s="141"/>
-      <c r="M35" s="81"/>
+      <c r="I35" s="164" t="s">
+        <v>302</v>
+      </c>
+      <c r="J35" s="166"/>
+      <c r="K35" s="144"/>
+      <c r="L35" s="164" t="s">
+        <v>303</v>
+      </c>
+      <c r="M35" s="166"/>
       <c r="N35" s="41"/>
       <c r="O35" s="41"/>
       <c r="P35" s="41"/>
@@ -26090,11 +26101,15 @@
       <c r="F36" s="31"/>
       <c r="G36" s="64"/>
       <c r="H36" s="41"/>
-      <c r="K36" s="143"/>
+      <c r="I36" s="126"/>
+      <c r="J36" s="139"/>
+      <c r="K36" s="145"/>
+      <c r="L36" s="138"/>
+      <c r="M36" s="76"/>
       <c r="N36" s="41"/>
-      <c r="O36" s="163"/>
-      <c r="P36" s="163"/>
-      <c r="Q36" s="163"/>
+      <c r="O36" s="157"/>
+      <c r="P36" s="157"/>
+      <c r="Q36" s="157"/>
       <c r="R36" s="129"/>
       <c r="S36" s="43"/>
       <c r="T36" s="43"/>
@@ -26110,19 +26125,15 @@
       <c r="F37" s="31"/>
       <c r="G37" s="64"/>
       <c r="H37" s="41"/>
-      <c r="I37" s="164" t="s">
-        <v>302</v>
-      </c>
-      <c r="J37" s="165"/>
-      <c r="K37" s="144"/>
-      <c r="L37" s="165" t="s">
-        <v>303</v>
-      </c>
-      <c r="M37" s="166"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="140"/>
+      <c r="K37" s="145"/>
+      <c r="L37" s="105"/>
+      <c r="M37" s="63"/>
       <c r="N37" s="41"/>
-      <c r="O37" s="163"/>
-      <c r="P37" s="163"/>
-      <c r="Q37" s="163"/>
+      <c r="O37" s="157"/>
+      <c r="P37" s="157"/>
+      <c r="Q37" s="157"/>
       <c r="R37" s="129"/>
       <c r="S37" s="43"/>
       <c r="T37" s="43"/>
@@ -26138,15 +26149,15 @@
       <c r="F38" s="31"/>
       <c r="G38" s="64"/>
       <c r="H38" s="41"/>
-      <c r="I38" s="126"/>
+      <c r="I38" s="116"/>
       <c r="J38" s="139"/>
       <c r="K38" s="145"/>
-      <c r="L38" s="138"/>
-      <c r="M38" s="76"/>
+      <c r="L38" s="77"/>
+      <c r="M38" s="79"/>
       <c r="N38" s="41"/>
-      <c r="O38" s="163"/>
-      <c r="P38" s="163"/>
-      <c r="Q38" s="163"/>
+      <c r="O38" s="157"/>
+      <c r="P38" s="157"/>
+      <c r="Q38" s="157"/>
       <c r="R38" s="129"/>
       <c r="S38" s="43"/>
       <c r="T38" s="43"/>
@@ -26165,12 +26176,12 @@
       <c r="I39" s="117"/>
       <c r="J39" s="140"/>
       <c r="K39" s="145"/>
-      <c r="L39" s="105"/>
+      <c r="L39" s="57"/>
       <c r="M39" s="63"/>
       <c r="N39" s="41"/>
-      <c r="O39" s="163"/>
-      <c r="P39" s="163"/>
-      <c r="Q39" s="163"/>
+      <c r="O39" s="157"/>
+      <c r="P39" s="157"/>
+      <c r="Q39" s="157"/>
       <c r="R39" s="128"/>
       <c r="S39" s="43"/>
       <c r="T39" s="43"/>
@@ -26186,15 +26197,15 @@
       <c r="F40" s="40"/>
       <c r="G40" s="65"/>
       <c r="H40" s="41"/>
-      <c r="I40" s="116"/>
-      <c r="J40" s="139"/>
+      <c r="I40" s="142"/>
+      <c r="J40" s="141"/>
       <c r="K40" s="145"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="79"/>
+      <c r="L40" s="141"/>
+      <c r="M40" s="81"/>
       <c r="N40" s="41"/>
-      <c r="O40" s="163"/>
-      <c r="P40" s="163"/>
-      <c r="Q40" s="163"/>
+      <c r="O40" s="157"/>
+      <c r="P40" s="157"/>
+      <c r="Q40" s="157"/>
       <c r="R40" s="128"/>
       <c r="S40" s="43"/>
       <c r="T40" s="43"/>
@@ -26210,15 +26221,10 @@
       <c r="F41" s="31"/>
       <c r="G41" s="64"/>
       <c r="H41" s="41"/>
-      <c r="I41" s="117"/>
-      <c r="J41" s="140"/>
-      <c r="K41" s="145"/>
-      <c r="L41" s="57"/>
-      <c r="M41" s="63"/>
       <c r="N41" s="41"/>
-      <c r="O41" s="163"/>
-      <c r="P41" s="163"/>
-      <c r="Q41" s="163"/>
+      <c r="O41" s="157"/>
+      <c r="P41" s="157"/>
+      <c r="Q41" s="157"/>
       <c r="R41" s="128"/>
       <c r="S41" s="43"/>
       <c r="T41" s="43"/>
@@ -26234,11 +26240,6 @@
       <c r="F42" s="31"/>
       <c r="G42" s="64"/>
       <c r="H42" s="41"/>
-      <c r="I42" s="142"/>
-      <c r="J42" s="141"/>
-      <c r="K42" s="145"/>
-      <c r="L42" s="141"/>
-      <c r="M42" s="81"/>
       <c r="N42" s="41"/>
       <c r="O42" s="40"/>
       <c r="P42" s="40"/>
@@ -29066,24 +29067,24 @@
     <sortCondition ref="I9"/>
   </sortState>
   <mergeCells count="18">
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I35:J35"/>
     <mergeCell ref="O41:Q41"/>
     <mergeCell ref="O36:Q36"/>
     <mergeCell ref="O37:Q37"/>
     <mergeCell ref="O38:Q38"/>
     <mergeCell ref="O39:Q39"/>
     <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="L16:M16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I116" r:id="rId1"/>

--- a/spreadsheets/Games.xlsx
+++ b/spreadsheets/Games.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="317">
   <si>
     <t>Nier: Automata</t>
   </si>
@@ -1329,6 +1329,12 @@
   </si>
   <si>
     <t>9-oct.</t>
+  </si>
+  <si>
+    <t>10-may.</t>
+  </si>
+  <si>
+    <t>13 Sentinels (14h 55m)</t>
   </si>
 </sst>
 </file>
@@ -2132,6 +2138,9 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2162,9 +2171,6 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
@@ -2183,16 +2189,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2717,11 +2723,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1381972208"/>
-        <c:axId val="-1381968944"/>
+        <c:axId val="316192880"/>
+        <c:axId val="316187440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1381972208"/>
+        <c:axId val="316192880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2802,7 +2808,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1381968944"/>
+        <c:crossAx val="316187440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2810,7 +2816,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1381968944"/>
+        <c:axId val="316187440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2912,7 +2918,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1381972208"/>
+        <c:crossAx val="316192880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3284,11 +3290,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1381976016"/>
-        <c:axId val="-1381971664"/>
+        <c:axId val="316193424"/>
+        <c:axId val="316194512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1381976016"/>
+        <c:axId val="316193424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3331,7 +3337,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1381971664"/>
+        <c:crossAx val="316194512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3339,7 +3345,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1381971664"/>
+        <c:axId val="316194512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3390,7 +3396,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1381976016"/>
+        <c:crossAx val="316193424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3777,11 +3783,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="-1381969488"/>
-        <c:axId val="-1381968400"/>
+        <c:axId val="316197232"/>
+        <c:axId val="316190160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1381969488"/>
+        <c:axId val="316197232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3838,7 +3844,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1381968400"/>
+        <c:crossAx val="316190160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3846,7 +3852,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1381968400"/>
+        <c:axId val="316190160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3856,7 +3862,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1381969488"/>
+        <c:crossAx val="316197232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4170,11 +4176,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="-1186767312"/>
-        <c:axId val="-1186756432"/>
+        <c:axId val="316195056"/>
+        <c:axId val="316188528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1186767312"/>
+        <c:axId val="316195056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4219,7 +4225,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1186756432"/>
+        <c:crossAx val="316188528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4227,7 +4233,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1186756432"/>
+        <c:axId val="316188528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4277,7 +4283,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1186767312"/>
+        <c:crossAx val="316195056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -4300,7 +4306,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4415,7 +4420,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4505,7 +4509,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4715,11 +4718,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="-1186771120"/>
-        <c:axId val="-1186758608"/>
+        <c:axId val="316189072"/>
+        <c:axId val="316191792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1186771120"/>
+        <c:axId val="316189072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4776,7 +4779,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1186758608"/>
+        <c:crossAx val="316191792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4784,7 +4787,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1186758608"/>
+        <c:axId val="316191792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4794,7 +4797,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1186771120"/>
+        <c:crossAx val="316189072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5060,11 +5063,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="-1186760240"/>
-        <c:axId val="-1186757520"/>
+        <c:axId val="316185808"/>
+        <c:axId val="316189616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1186760240"/>
+        <c:axId val="316185808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5109,7 +5112,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1186757520"/>
+        <c:crossAx val="316189616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5117,7 +5120,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1186757520"/>
+        <c:axId val="316189616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5167,7 +5170,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1186760240"/>
+        <c:crossAx val="316185808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -9140,17 +9143,17 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="147">
+      <c r="B2" s="148">
         <v>2019</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
       <c r="E2" s="71"/>
-      <c r="F2" s="153" t="s">
+      <c r="F2" s="154" t="s">
         <v>269</v>
       </c>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
@@ -9181,18 +9184,18 @@
         <v>83</v>
       </c>
       <c r="E3" s="72"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="8"/>
       <c r="N3" s="30"/>
-      <c r="O3" s="152"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="152"/>
+      <c r="O3" s="153"/>
+      <c r="P3" s="153"/>
+      <c r="Q3" s="153"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
@@ -9214,18 +9217,18 @@
         <v>2004</v>
       </c>
       <c r="E4" s="27"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="31"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="152"/>
-      <c r="P4" s="152"/>
-      <c r="Q4" s="152"/>
+      <c r="O4" s="153"/>
+      <c r="P4" s="153"/>
+      <c r="Q4" s="153"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
@@ -9247,18 +9250,18 @@
         <v>2017</v>
       </c>
       <c r="E5" s="27"/>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
       <c r="I5" s="8"/>
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="152"/>
-      <c r="P5" s="152"/>
-      <c r="Q5" s="152"/>
+      <c r="O5" s="153"/>
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
@@ -9280,18 +9283,18 @@
         <v>2017</v>
       </c>
       <c r="E6" s="27"/>
-      <c r="F6" s="153"/>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
       <c r="I6" s="8"/>
       <c r="J6" s="31"/>
       <c r="K6" s="31"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="152"/>
-      <c r="P6" s="152"/>
-      <c r="Q6" s="152"/>
+      <c r="O6" s="153"/>
+      <c r="P6" s="153"/>
+      <c r="Q6" s="153"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
@@ -9313,18 +9316,18 @@
         <v>2017</v>
       </c>
       <c r="E7" s="27"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
       <c r="I7" s="8"/>
       <c r="J7" s="31"/>
       <c r="K7" s="31"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="152"/>
-      <c r="P7" s="152"/>
-      <c r="Q7" s="152"/>
+      <c r="O7" s="153"/>
+      <c r="P7" s="153"/>
+      <c r="Q7" s="153"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
@@ -9346,18 +9349,18 @@
         <v>2017</v>
       </c>
       <c r="E8" s="27"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
       <c r="I8" s="8"/>
       <c r="J8" s="31"/>
       <c r="K8" s="31"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="152"/>
-      <c r="P8" s="152"/>
-      <c r="Q8" s="152"/>
+      <c r="O8" s="153"/>
+      <c r="P8" s="153"/>
+      <c r="Q8" s="153"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
@@ -9379,18 +9382,18 @@
         <v>2016</v>
       </c>
       <c r="E9" s="27"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="154"/>
       <c r="I9" s="8"/>
       <c r="J9" s="31"/>
       <c r="K9" s="31"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="152"/>
-      <c r="P9" s="152"/>
-      <c r="Q9" s="152"/>
+      <c r="O9" s="153"/>
+      <c r="P9" s="153"/>
+      <c r="Q9" s="153"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
@@ -9412,18 +9415,18 @@
         <v>2017</v>
       </c>
       <c r="E10" s="27"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="153"/>
+      <c r="F10" s="154"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
       <c r="I10" s="8"/>
       <c r="J10" s="31"/>
       <c r="K10" s="31"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="7"/>
-      <c r="O10" s="152"/>
-      <c r="P10" s="152"/>
-      <c r="Q10" s="152"/>
+      <c r="O10" s="153"/>
+      <c r="P10" s="153"/>
+      <c r="Q10" s="153"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
@@ -9445,18 +9448,18 @@
         <v>2016</v>
       </c>
       <c r="E11" s="27"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="153"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
       <c r="I11" s="8"/>
       <c r="J11" s="31"/>
       <c r="K11" s="31"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="152"/>
-      <c r="P11" s="152"/>
-      <c r="Q11" s="152"/>
+      <c r="O11" s="153"/>
+      <c r="P11" s="153"/>
+      <c r="Q11" s="153"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
@@ -9478,18 +9481,18 @@
         <v>2017</v>
       </c>
       <c r="E12" s="27"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
       <c r="I12" s="8"/>
       <c r="J12" s="31"/>
       <c r="K12" s="31"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="152"/>
-      <c r="P12" s="152"/>
-      <c r="Q12" s="152"/>
+      <c r="O12" s="153"/>
+      <c r="P12" s="153"/>
+      <c r="Q12" s="153"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
@@ -9511,18 +9514,18 @@
         <v>2009</v>
       </c>
       <c r="E13" s="27"/>
-      <c r="F13" s="153"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="153"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
       <c r="I13" s="8"/>
       <c r="J13" s="31"/>
       <c r="K13" s="31"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="152"/>
-      <c r="P13" s="152"/>
-      <c r="Q13" s="152"/>
+      <c r="O13" s="153"/>
+      <c r="P13" s="153"/>
+      <c r="Q13" s="153"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
@@ -9544,18 +9547,18 @@
         <v>2019</v>
       </c>
       <c r="E14" s="27"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="153"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="154"/>
       <c r="I14" s="8"/>
       <c r="J14" s="31"/>
       <c r="K14" s="31"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="152"/>
-      <c r="P14" s="152"/>
-      <c r="Q14" s="152"/>
+      <c r="O14" s="153"/>
+      <c r="P14" s="153"/>
+      <c r="Q14" s="153"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
@@ -9577,18 +9580,18 @@
         <v>2019</v>
       </c>
       <c r="E15" s="27"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="153"/>
-      <c r="H15" s="153"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
       <c r="I15" s="8"/>
       <c r="J15" s="31"/>
       <c r="K15" s="31"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="152"/>
-      <c r="P15" s="152"/>
-      <c r="Q15" s="152"/>
+      <c r="O15" s="153"/>
+      <c r="P15" s="153"/>
+      <c r="Q15" s="153"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
@@ -9613,9 +9616,9 @@
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
-      <c r="O16" s="152"/>
-      <c r="P16" s="152"/>
-      <c r="Q16" s="152"/>
+      <c r="O16" s="153"/>
+      <c r="P16" s="153"/>
+      <c r="Q16" s="153"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
@@ -9626,9 +9629,9 @@
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
-      <c r="B17" s="149"/>
-      <c r="C17" s="149"/>
-      <c r="D17" s="149"/>
+      <c r="B17" s="150"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="150"/>
       <c r="E17" s="6"/>
       <c r="F17" s="8"/>
       <c r="G17" s="7"/>
@@ -9653,9 +9656,9 @@
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
-      <c r="B18" s="149"/>
-      <c r="C18" s="149"/>
-      <c r="D18" s="149"/>
+      <c r="B18" s="150"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="150"/>
       <c r="E18" s="6"/>
       <c r="F18" s="8"/>
       <c r="G18" s="7"/>
@@ -9665,8 +9668,8 @@
       <c r="K18" s="31"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
-      <c r="N18" s="150"/>
-      <c r="O18" s="151"/>
+      <c r="N18" s="151"/>
+      <c r="O18" s="152"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
@@ -9680,9 +9683,9 @@
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
-      <c r="B19" s="149"/>
-      <c r="C19" s="149"/>
-      <c r="D19" s="149"/>
+      <c r="B19" s="150"/>
+      <c r="C19" s="150"/>
+      <c r="D19" s="150"/>
       <c r="E19" s="6"/>
       <c r="F19" s="8"/>
       <c r="G19" s="7"/>
@@ -9692,8 +9695,8 @@
       <c r="K19" s="31"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
-      <c r="N19" s="151"/>
-      <c r="O19" s="151"/>
+      <c r="N19" s="152"/>
+      <c r="O19" s="152"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
@@ -9719,8 +9722,8 @@
       <c r="K20" s="31"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
-      <c r="N20" s="151"/>
-      <c r="O20" s="151"/>
+      <c r="N20" s="152"/>
+      <c r="O20" s="152"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
@@ -9746,8 +9749,8 @@
       <c r="K21" s="31"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
-      <c r="N21" s="151"/>
-      <c r="O21" s="151"/>
+      <c r="N21" s="152"/>
+      <c r="O21" s="152"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
@@ -9773,8 +9776,8 @@
       <c r="K22" s="31"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
-      <c r="N22" s="151"/>
-      <c r="O22" s="151"/>
+      <c r="N22" s="152"/>
+      <c r="O22" s="152"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
@@ -10958,8 +10961,8 @@
         <v>11</v>
       </c>
       <c r="I17" s="8"/>
-      <c r="J17" s="155"/>
-      <c r="K17" s="156"/>
+      <c r="J17" s="156"/>
+      <c r="K17" s="157"/>
       <c r="L17" s="8"/>
       <c r="M17" s="40"/>
       <c r="N17" s="41"/>
@@ -10997,8 +11000,8 @@
         <v>1</v>
       </c>
       <c r="I18" s="8"/>
-      <c r="J18" s="154"/>
-      <c r="K18" s="154"/>
+      <c r="J18" s="155"/>
+      <c r="K18" s="155"/>
       <c r="L18" s="8"/>
       <c r="M18" s="40"/>
       <c r="N18" s="41"/>
@@ -17681,9 +17684,9 @@
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="L36" s="41"/>
-      <c r="M36" s="157"/>
-      <c r="N36" s="157"/>
-      <c r="O36" s="157"/>
+      <c r="M36" s="164"/>
+      <c r="N36" s="164"/>
+      <c r="O36" s="164"/>
       <c r="P36" s="129"/>
       <c r="Q36" s="43"/>
       <c r="R36" s="43"/>
@@ -17750,9 +17753,9 @@
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="L37" s="41"/>
-      <c r="M37" s="157"/>
-      <c r="N37" s="157"/>
-      <c r="O37" s="157"/>
+      <c r="M37" s="164"/>
+      <c r="N37" s="164"/>
+      <c r="O37" s="164"/>
       <c r="P37" s="129"/>
       <c r="Q37" s="43"/>
       <c r="R37" s="43"/>
@@ -17819,9 +17822,9 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="L38" s="41"/>
-      <c r="M38" s="157"/>
-      <c r="N38" s="157"/>
-      <c r="O38" s="157"/>
+      <c r="M38" s="164"/>
+      <c r="N38" s="164"/>
+      <c r="O38" s="164"/>
       <c r="P38" s="129"/>
       <c r="Q38" s="43"/>
       <c r="R38" s="43"/>
@@ -17878,9 +17881,9 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="L39" s="41"/>
-      <c r="M39" s="157"/>
-      <c r="N39" s="157"/>
-      <c r="O39" s="157"/>
+      <c r="M39" s="164"/>
+      <c r="N39" s="164"/>
+      <c r="O39" s="164"/>
       <c r="P39" s="128"/>
       <c r="Q39" s="43"/>
       <c r="R39" s="43"/>
@@ -17935,9 +17938,9 @@
         <v>0.3666666666666667</v>
       </c>
       <c r="L40" s="41"/>
-      <c r="M40" s="157"/>
-      <c r="N40" s="157"/>
-      <c r="O40" s="157"/>
+      <c r="M40" s="164"/>
+      <c r="N40" s="164"/>
+      <c r="O40" s="164"/>
       <c r="P40" s="128"/>
       <c r="Q40" s="43"/>
       <c r="R40" s="43"/>
@@ -17991,9 +17994,9 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="L41" s="41"/>
-      <c r="M41" s="157"/>
-      <c r="N41" s="157"/>
-      <c r="O41" s="157"/>
+      <c r="M41" s="164"/>
+      <c r="N41" s="164"/>
+      <c r="O41" s="164"/>
       <c r="P41" s="128"/>
       <c r="Q41" s="43"/>
       <c r="R41" s="43"/>
@@ -24899,6 +24902,12 @@
     <sortCondition ref="J33"/>
   </sortState>
   <mergeCells count="18">
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="M39:O39"/>
     <mergeCell ref="I58:I63"/>
     <mergeCell ref="I54:I57"/>
     <mergeCell ref="I50:I53"/>
@@ -24911,12 +24920,6 @@
     <mergeCell ref="I32:I38"/>
     <mergeCell ref="I27:I31"/>
     <mergeCell ref="I14:I19"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="M39:O39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24933,7 +24936,7 @@
   <dimension ref="A1:V153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -25002,12 +25005,12 @@
         <v>21</v>
       </c>
       <c r="H2" s="8"/>
-      <c r="I2" s="164" t="s">
+      <c r="I2" s="165" t="s">
         <v>292</v>
       </c>
-      <c r="J2" s="165"/>
+      <c r="J2" s="167"/>
       <c r="K2" s="144"/>
-      <c r="L2" s="165" t="s">
+      <c r="L2" s="167" t="s">
         <v>293</v>
       </c>
       <c r="M2" s="166"/>
@@ -25290,12 +25293,12 @@
         <v>0.20416666666666669</v>
       </c>
       <c r="H9" s="8"/>
-      <c r="I9" s="164" t="s">
+      <c r="I9" s="165" t="s">
         <v>294</v>
       </c>
-      <c r="J9" s="165"/>
+      <c r="J9" s="167"/>
       <c r="K9" s="144"/>
-      <c r="L9" s="165" t="s">
+      <c r="L9" s="167" t="s">
         <v>295</v>
       </c>
       <c r="M9" s="166"/>
@@ -25408,10 +25411,10 @@
         <v>308</v>
       </c>
       <c r="F12" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="63" t="s">
-        <v>14</v>
+        <v>315</v>
+      </c>
+      <c r="G12" s="63">
+        <v>1.6291666666666667</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="116"/>
@@ -25445,10 +25448,10 @@
       <c r="G13" s="79"/>
       <c r="H13" s="8"/>
       <c r="I13" s="55"/>
-      <c r="J13" s="167"/>
+      <c r="J13" s="147"/>
       <c r="K13" s="64"/>
-      <c r="L13" s="167"/>
-      <c r="M13" s="167"/>
+      <c r="L13" s="147"/>
+      <c r="M13" s="147"/>
       <c r="N13" s="41"/>
       <c r="O13" s="40"/>
       <c r="P13" s="41"/>
@@ -25470,12 +25473,12 @@
       <c r="F14" s="73"/>
       <c r="G14" s="63"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="164" t="s">
+      <c r="I14" s="165" t="s">
         <v>296</v>
       </c>
       <c r="J14" s="166"/>
       <c r="K14" s="144"/>
-      <c r="L14" s="164" t="s">
+      <c r="L14" s="165" t="s">
         <v>297</v>
       </c>
       <c r="M14" s="166"/>
@@ -25650,12 +25653,12 @@
       <c r="F21" s="31"/>
       <c r="G21" s="64"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="164" t="s">
+      <c r="I21" s="165" t="s">
         <v>298</v>
       </c>
       <c r="J21" s="166"/>
       <c r="K21" s="144"/>
-      <c r="L21" s="164" t="s">
+      <c r="L21" s="165" t="s">
         <v>299</v>
       </c>
       <c r="M21" s="166"/>
@@ -25845,7 +25848,9 @@
       <c r="Q26" s="85"/>
       <c r="R26" s="101"/>
       <c r="S26" s="41"/>
-      <c r="T26" s="104"/>
+      <c r="T26" s="103" t="s">
+        <v>316</v>
+      </c>
       <c r="U26" s="41"/>
       <c r="V26" s="41"/>
     </row>
@@ -25880,12 +25885,12 @@
       <c r="F28" s="31"/>
       <c r="G28" s="64"/>
       <c r="H28" s="41"/>
-      <c r="I28" s="164" t="s">
+      <c r="I28" s="165" t="s">
         <v>300</v>
       </c>
       <c r="J28" s="166"/>
       <c r="K28" s="144"/>
-      <c r="L28" s="164" t="s">
+      <c r="L28" s="165" t="s">
         <v>301</v>
       </c>
       <c r="M28" s="166"/>
@@ -26073,12 +26078,12 @@
       <c r="F35" s="31"/>
       <c r="G35" s="64"/>
       <c r="H35" s="41"/>
-      <c r="I35" s="164" t="s">
+      <c r="I35" s="165" t="s">
         <v>302</v>
       </c>
       <c r="J35" s="166"/>
       <c r="K35" s="144"/>
-      <c r="L35" s="164" t="s">
+      <c r="L35" s="165" t="s">
         <v>303</v>
       </c>
       <c r="M35" s="166"/>
@@ -26107,9 +26112,9 @@
       <c r="L36" s="138"/>
       <c r="M36" s="76"/>
       <c r="N36" s="41"/>
-      <c r="O36" s="157"/>
-      <c r="P36" s="157"/>
-      <c r="Q36" s="157"/>
+      <c r="O36" s="164"/>
+      <c r="P36" s="164"/>
+      <c r="Q36" s="164"/>
       <c r="R36" s="129"/>
       <c r="S36" s="43"/>
       <c r="T36" s="43"/>
@@ -26131,9 +26136,9 @@
       <c r="L37" s="105"/>
       <c r="M37" s="63"/>
       <c r="N37" s="41"/>
-      <c r="O37" s="157"/>
-      <c r="P37" s="157"/>
-      <c r="Q37" s="157"/>
+      <c r="O37" s="164"/>
+      <c r="P37" s="164"/>
+      <c r="Q37" s="164"/>
       <c r="R37" s="129"/>
       <c r="S37" s="43"/>
       <c r="T37" s="43"/>
@@ -26155,9 +26160,9 @@
       <c r="L38" s="77"/>
       <c r="M38" s="79"/>
       <c r="N38" s="41"/>
-      <c r="O38" s="157"/>
-      <c r="P38" s="157"/>
-      <c r="Q38" s="157"/>
+      <c r="O38" s="164"/>
+      <c r="P38" s="164"/>
+      <c r="Q38" s="164"/>
       <c r="R38" s="129"/>
       <c r="S38" s="43"/>
       <c r="T38" s="43"/>
@@ -26179,9 +26184,9 @@
       <c r="L39" s="57"/>
       <c r="M39" s="63"/>
       <c r="N39" s="41"/>
-      <c r="O39" s="157"/>
-      <c r="P39" s="157"/>
-      <c r="Q39" s="157"/>
+      <c r="O39" s="164"/>
+      <c r="P39" s="164"/>
+      <c r="Q39" s="164"/>
       <c r="R39" s="128"/>
       <c r="S39" s="43"/>
       <c r="T39" s="43"/>
@@ -26203,9 +26208,9 @@
       <c r="L40" s="141"/>
       <c r="M40" s="81"/>
       <c r="N40" s="41"/>
-      <c r="O40" s="157"/>
-      <c r="P40" s="157"/>
-      <c r="Q40" s="157"/>
+      <c r="O40" s="164"/>
+      <c r="P40" s="164"/>
+      <c r="Q40" s="164"/>
       <c r="R40" s="128"/>
       <c r="S40" s="43"/>
       <c r="T40" s="43"/>
@@ -26222,9 +26227,9 @@
       <c r="G41" s="64"/>
       <c r="H41" s="41"/>
       <c r="N41" s="41"/>
-      <c r="O41" s="157"/>
-      <c r="P41" s="157"/>
-      <c r="Q41" s="157"/>
+      <c r="O41" s="164"/>
+      <c r="P41" s="164"/>
+      <c r="Q41" s="164"/>
       <c r="R41" s="128"/>
       <c r="S41" s="43"/>
       <c r="T41" s="43"/>
@@ -29067,6 +29072,12 @@
     <sortCondition ref="I9"/>
   </sortState>
   <mergeCells count="18">
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="O40:Q40"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="L21:M21"/>
@@ -29079,19 +29090,13 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="I35:J35"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="O39:Q39"/>
-    <mergeCell ref="O40:Q40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I116" r:id="rId1"/>
     <hyperlink ref="I117" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <ignoredErrors>
     <ignoredError sqref="Q146" formula="1"/>
   </ignoredErrors>

--- a/spreadsheets/Games.xlsx
+++ b/spreadsheets/Games.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="321">
   <si>
     <t>Nier: Automata</t>
   </si>
@@ -1334,7 +1334,41 @@
     <t>10-may.</t>
   </si>
   <si>
-    <t>13 Sentinels (14h 55m)</t>
+    <t>Borderlands 2</t>
+  </si>
+  <si>
+    <t>Kirby and the Forgotten Land</t>
+  </si>
+  <si>
+    <t>12-may.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">13 Sentinels (14h 55m), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>Kirby (pasarlo 12h 45m)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Portal 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Replayed]</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2171,6 +2205,9 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
@@ -2188,9 +2225,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2723,11 +2757,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="316192880"/>
-        <c:axId val="316187440"/>
+        <c:axId val="-1523412352"/>
+        <c:axId val="-1523404736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="316192880"/>
+        <c:axId val="-1523412352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2808,7 +2842,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="316187440"/>
+        <c:crossAx val="-1523404736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2816,7 +2850,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="316187440"/>
+        <c:axId val="-1523404736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2918,7 +2952,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316192880"/>
+        <c:crossAx val="-1523412352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3290,11 +3324,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="316193424"/>
-        <c:axId val="316194512"/>
+        <c:axId val="-1523409632"/>
+        <c:axId val="-1523413440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="316193424"/>
+        <c:axId val="-1523409632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3337,7 +3371,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316194512"/>
+        <c:crossAx val="-1523413440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3345,7 +3379,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="316194512"/>
+        <c:axId val="-1523413440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3396,7 +3430,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316193424"/>
+        <c:crossAx val="-1523409632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3783,11 +3817,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="316197232"/>
-        <c:axId val="316190160"/>
+        <c:axId val="-1523406912"/>
+        <c:axId val="-1523416704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="316197232"/>
+        <c:axId val="-1523406912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3844,7 +3878,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316190160"/>
+        <c:crossAx val="-1523416704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3852,7 +3886,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="316190160"/>
+        <c:axId val="-1523416704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3862,7 +3896,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="316197232"/>
+        <c:crossAx val="-1523406912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4176,11 +4210,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="316195056"/>
-        <c:axId val="316188528"/>
+        <c:axId val="-1523409088"/>
+        <c:axId val="-1523415616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="316195056"/>
+        <c:axId val="-1523409088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4225,7 +4259,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316188528"/>
+        <c:crossAx val="-1523415616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4233,7 +4267,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="316188528"/>
+        <c:axId val="-1523415616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4283,7 +4317,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316195056"/>
+        <c:crossAx val="-1523409088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -4306,6 +4340,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4653,7 +4688,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -4718,11 +4753,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="316189072"/>
-        <c:axId val="316191792"/>
+        <c:axId val="-1523408000"/>
+        <c:axId val="-1523413984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="316189072"/>
+        <c:axId val="-1523408000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4779,7 +4814,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316191792"/>
+        <c:crossAx val="-1523413984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4787,7 +4822,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="316191792"/>
+        <c:axId val="-1523413984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4797,7 +4832,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="316189072"/>
+        <c:crossAx val="-1523408000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5063,11 +5098,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="316185808"/>
-        <c:axId val="316189616"/>
+        <c:axId val="-1523411264"/>
+        <c:axId val="-1523410176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="316185808"/>
+        <c:axId val="-1523411264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5112,7 +5147,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316189616"/>
+        <c:crossAx val="-1523410176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5120,7 +5155,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="316189616"/>
+        <c:axId val="-1523410176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5170,7 +5205,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316185808"/>
+        <c:crossAx val="-1523411264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -15051,7 +15086,7 @@
   <dimension ref="A1:AY296"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15218,7 +15253,7 @@
         <v>4.197916666666667</v>
       </c>
       <c r="H3" s="8"/>
-      <c r="I3" s="161" t="s">
+      <c r="I3" s="162" t="s">
         <v>124</v>
       </c>
       <c r="J3" s="84" t="s">
@@ -15289,7 +15324,7 @@
         <v>0.30138888888888887</v>
       </c>
       <c r="H4" s="8"/>
-      <c r="I4" s="162"/>
+      <c r="I4" s="163"/>
       <c r="J4" s="57" t="s">
         <v>133</v>
       </c>
@@ -15358,7 +15393,7 @@
         <v>0.2076388888888889</v>
       </c>
       <c r="H5" s="8"/>
-      <c r="I5" s="162"/>
+      <c r="I5" s="163"/>
       <c r="J5" s="77" t="s">
         <v>138</v>
       </c>
@@ -15427,7 +15462,7 @@
         <v>1.2437499999999999</v>
       </c>
       <c r="H6" s="8"/>
-      <c r="I6" s="162"/>
+      <c r="I6" s="163"/>
       <c r="J6" s="57" t="s">
         <v>135</v>
       </c>
@@ -15496,7 +15531,7 @@
         <v>0.27916666666666667</v>
       </c>
       <c r="H7" s="8"/>
-      <c r="I7" s="162"/>
+      <c r="I7" s="163"/>
       <c r="J7" s="77" t="s">
         <v>142</v>
       </c>
@@ -15565,7 +15600,7 @@
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="H8" s="8"/>
-      <c r="I8" s="162"/>
+      <c r="I8" s="163"/>
       <c r="J8" s="57" t="s">
         <v>143</v>
       </c>
@@ -15634,7 +15669,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="H9" s="8"/>
-      <c r="I9" s="161" t="s">
+      <c r="I9" s="162" t="s">
         <v>125</v>
       </c>
       <c r="J9" s="75" t="s">
@@ -15705,7 +15740,7 @@
         <v>0.19027777777777777</v>
       </c>
       <c r="H10" s="8"/>
-      <c r="I10" s="162"/>
+      <c r="I10" s="163"/>
       <c r="J10" s="57" t="s">
         <v>133</v>
       </c>
@@ -15774,7 +15809,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="H11" s="8"/>
-      <c r="I11" s="162"/>
+      <c r="I11" s="163"/>
       <c r="J11" s="77" t="s">
         <v>138</v>
       </c>
@@ -15843,7 +15878,7 @@
         <v>1.7097222222222221</v>
       </c>
       <c r="H12" s="8"/>
-      <c r="I12" s="162"/>
+      <c r="I12" s="163"/>
       <c r="J12" s="57" t="s">
         <v>135</v>
       </c>
@@ -15912,7 +15947,7 @@
         <v>0.15972222222222224</v>
       </c>
       <c r="H13" s="8"/>
-      <c r="I13" s="162"/>
+      <c r="I13" s="163"/>
       <c r="J13" s="77" t="s">
         <v>147</v>
       </c>
@@ -15981,7 +16016,7 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="H14" s="8"/>
-      <c r="I14" s="161" t="s">
+      <c r="I14" s="162" t="s">
         <v>126</v>
       </c>
       <c r="J14" s="11" t="s">
@@ -16052,7 +16087,7 @@
         <v>0.59652777777777777</v>
       </c>
       <c r="H15" s="8"/>
-      <c r="I15" s="162"/>
+      <c r="I15" s="163"/>
       <c r="J15" s="77" t="s">
         <v>133</v>
       </c>
@@ -16121,7 +16156,7 @@
         <v>14</v>
       </c>
       <c r="H16" s="8"/>
-      <c r="I16" s="162"/>
+      <c r="I16" s="163"/>
       <c r="J16" s="57" t="s">
         <v>138</v>
       </c>
@@ -16190,7 +16225,7 @@
         <v>14</v>
       </c>
       <c r="H17" s="8"/>
-      <c r="I17" s="162"/>
+      <c r="I17" s="163"/>
       <c r="J17" s="77" t="s">
         <v>135</v>
       </c>
@@ -16259,7 +16294,7 @@
         <v>0.24583333333333335</v>
       </c>
       <c r="H18" s="8"/>
-      <c r="I18" s="162"/>
+      <c r="I18" s="163"/>
       <c r="J18" s="57" t="s">
         <v>150</v>
       </c>
@@ -16328,7 +16363,7 @@
         <v>0.49513888888888885</v>
       </c>
       <c r="H19" s="8"/>
-      <c r="I19" s="163"/>
+      <c r="I19" s="164"/>
       <c r="J19" s="80" t="s">
         <v>156</v>
       </c>
@@ -16397,7 +16432,7 @@
         <v>0.20972222222222223</v>
       </c>
       <c r="H20" s="8"/>
-      <c r="I20" s="161" t="s">
+      <c r="I20" s="162" t="s">
         <v>149</v>
       </c>
       <c r="J20" s="11" t="s">
@@ -16468,7 +16503,7 @@
         <v>0.25486111111111109</v>
       </c>
       <c r="H21" s="8"/>
-      <c r="I21" s="163"/>
+      <c r="I21" s="164"/>
       <c r="J21" s="80" t="s">
         <v>147</v>
       </c>
@@ -16547,7 +16582,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="H22" s="8"/>
-      <c r="I22" s="162" t="s">
+      <c r="I22" s="163" t="s">
         <v>167</v>
       </c>
       <c r="J22" s="57" t="s">
@@ -16630,7 +16665,7 @@
         <v>0.26944444444444443</v>
       </c>
       <c r="H23" s="8"/>
-      <c r="I23" s="162"/>
+      <c r="I23" s="163"/>
       <c r="J23" s="84" t="s">
         <v>175</v>
       </c>
@@ -16711,7 +16746,7 @@
         <v>0.3263888888888889</v>
       </c>
       <c r="H24" s="40"/>
-      <c r="I24" s="162"/>
+      <c r="I24" s="163"/>
       <c r="J24" s="57" t="s">
         <v>169</v>
       </c>
@@ -16792,7 +16827,7 @@
         <v>0.32847222222222222</v>
       </c>
       <c r="H25" s="41"/>
-      <c r="I25" s="162"/>
+      <c r="I25" s="163"/>
       <c r="J25" s="77" t="s">
         <v>147</v>
       </c>
@@ -16873,7 +16908,7 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="H26" s="41"/>
-      <c r="I26" s="163"/>
+      <c r="I26" s="164"/>
       <c r="J26" s="12" t="s">
         <v>168</v>
       </c>
@@ -16954,7 +16989,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="H27" s="41"/>
-      <c r="I27" s="161" t="s">
+      <c r="I27" s="162" t="s">
         <v>177</v>
       </c>
       <c r="J27" s="77" t="s">
@@ -17037,7 +17072,7 @@
         <v>0.22291666666666665</v>
       </c>
       <c r="H28" s="41"/>
-      <c r="I28" s="162"/>
+      <c r="I28" s="163"/>
       <c r="J28" s="105" t="s">
         <v>169</v>
       </c>
@@ -17118,7 +17153,7 @@
         <v>0.13194444444444445</v>
       </c>
       <c r="H29" s="41"/>
-      <c r="I29" s="162"/>
+      <c r="I29" s="163"/>
       <c r="J29" s="77" t="s">
         <v>30</v>
       </c>
@@ -17199,7 +17234,7 @@
         <v>14</v>
       </c>
       <c r="H30" s="41"/>
-      <c r="I30" s="162"/>
+      <c r="I30" s="163"/>
       <c r="J30" s="105" t="s">
         <v>142</v>
       </c>
@@ -17280,7 +17315,7 @@
         <v>0.43888888888888888</v>
       </c>
       <c r="H31" s="41"/>
-      <c r="I31" s="163"/>
+      <c r="I31" s="164"/>
       <c r="J31" s="77" t="s">
         <v>147</v>
       </c>
@@ -17361,7 +17396,7 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="H32" s="41"/>
-      <c r="I32" s="161" t="s">
+      <c r="I32" s="162" t="s">
         <v>190</v>
       </c>
       <c r="J32" s="111" t="s">
@@ -17444,7 +17479,7 @@
         <v>2.7097222222222221</v>
       </c>
       <c r="H33" s="41"/>
-      <c r="I33" s="162"/>
+      <c r="I33" s="163"/>
       <c r="J33" s="77" t="s">
         <v>185</v>
       </c>
@@ -17527,7 +17562,7 @@
         <v>14</v>
       </c>
       <c r="H34" s="41"/>
-      <c r="I34" s="162"/>
+      <c r="I34" s="163"/>
       <c r="J34" s="57" t="s">
         <v>205</v>
       </c>
@@ -17607,7 +17642,7 @@
         <v>0.11041666666666666</v>
       </c>
       <c r="H35" s="41"/>
-      <c r="I35" s="162"/>
+      <c r="I35" s="163"/>
       <c r="J35" s="84" t="s">
         <v>204</v>
       </c>
@@ -17676,7 +17711,7 @@
         <v>0.37083333333333335</v>
       </c>
       <c r="H36" s="41"/>
-      <c r="I36" s="162"/>
+      <c r="I36" s="163"/>
       <c r="J36" s="57" t="s">
         <v>147</v>
       </c>
@@ -17684,9 +17719,9 @@
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="L36" s="41"/>
-      <c r="M36" s="164"/>
-      <c r="N36" s="164"/>
-      <c r="O36" s="164"/>
+      <c r="M36" s="158"/>
+      <c r="N36" s="158"/>
+      <c r="O36" s="158"/>
       <c r="P36" s="129"/>
       <c r="Q36" s="43"/>
       <c r="R36" s="43"/>
@@ -17745,7 +17780,7 @@
         <v>0.80694444444444446</v>
       </c>
       <c r="H37" s="41"/>
-      <c r="I37" s="162"/>
+      <c r="I37" s="163"/>
       <c r="J37" s="84" t="s">
         <v>202</v>
       </c>
@@ -17753,9 +17788,9 @@
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="L37" s="41"/>
-      <c r="M37" s="164"/>
-      <c r="N37" s="164"/>
-      <c r="O37" s="164"/>
+      <c r="M37" s="158"/>
+      <c r="N37" s="158"/>
+      <c r="O37" s="158"/>
       <c r="P37" s="129"/>
       <c r="Q37" s="43"/>
       <c r="R37" s="43"/>
@@ -17814,7 +17849,7 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="H38" s="41"/>
-      <c r="I38" s="163"/>
+      <c r="I38" s="164"/>
       <c r="J38" s="12" t="s">
         <v>208</v>
       </c>
@@ -17822,9 +17857,9 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="L38" s="41"/>
-      <c r="M38" s="164"/>
-      <c r="N38" s="164"/>
-      <c r="O38" s="164"/>
+      <c r="M38" s="158"/>
+      <c r="N38" s="158"/>
+      <c r="O38" s="158"/>
       <c r="P38" s="129"/>
       <c r="Q38" s="43"/>
       <c r="R38" s="43"/>
@@ -17871,7 +17906,7 @@
       <c r="F39" s="31"/>
       <c r="G39" s="64"/>
       <c r="H39" s="41"/>
-      <c r="I39" s="161" t="s">
+      <c r="I39" s="162" t="s">
         <v>217</v>
       </c>
       <c r="J39" s="120" t="s">
@@ -17881,9 +17916,9 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="L39" s="41"/>
-      <c r="M39" s="164"/>
-      <c r="N39" s="164"/>
-      <c r="O39" s="164"/>
+      <c r="M39" s="158"/>
+      <c r="N39" s="158"/>
+      <c r="O39" s="158"/>
       <c r="P39" s="128"/>
       <c r="Q39" s="43"/>
       <c r="R39" s="43"/>
@@ -17930,7 +17965,7 @@
       <c r="F40" s="40"/>
       <c r="G40" s="65"/>
       <c r="H40" s="41"/>
-      <c r="I40" s="162"/>
+      <c r="I40" s="163"/>
       <c r="J40" s="117" t="s">
         <v>218</v>
       </c>
@@ -17938,9 +17973,9 @@
         <v>0.3666666666666667</v>
       </c>
       <c r="L40" s="41"/>
-      <c r="M40" s="164"/>
-      <c r="N40" s="164"/>
-      <c r="O40" s="164"/>
+      <c r="M40" s="158"/>
+      <c r="N40" s="158"/>
+      <c r="O40" s="158"/>
       <c r="P40" s="128"/>
       <c r="Q40" s="43"/>
       <c r="R40" s="43"/>
@@ -17986,7 +18021,7 @@
       <c r="F41" s="31"/>
       <c r="G41" s="64"/>
       <c r="H41" s="41"/>
-      <c r="I41" s="162"/>
+      <c r="I41" s="163"/>
       <c r="J41" s="116" t="s">
         <v>185</v>
       </c>
@@ -17994,9 +18029,9 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="L41" s="41"/>
-      <c r="M41" s="164"/>
-      <c r="N41" s="164"/>
-      <c r="O41" s="164"/>
+      <c r="M41" s="158"/>
+      <c r="N41" s="158"/>
+      <c r="O41" s="158"/>
       <c r="P41" s="128"/>
       <c r="Q41" s="43"/>
       <c r="R41" s="43"/>
@@ -18043,7 +18078,7 @@
       <c r="F42" s="31"/>
       <c r="G42" s="64"/>
       <c r="H42" s="41"/>
-      <c r="I42" s="162"/>
+      <c r="I42" s="163"/>
       <c r="J42" s="118" t="s">
         <v>142</v>
       </c>
@@ -18100,7 +18135,7 @@
       <c r="F43" s="41"/>
       <c r="G43" s="66"/>
       <c r="H43" s="41"/>
-      <c r="I43" s="162"/>
+      <c r="I43" s="163"/>
       <c r="J43" s="116" t="s">
         <v>220</v>
       </c>
@@ -18157,7 +18192,7 @@
       <c r="F44" s="41"/>
       <c r="G44" s="66"/>
       <c r="H44" s="41"/>
-      <c r="I44" s="162"/>
+      <c r="I44" s="163"/>
       <c r="J44" s="117" t="s">
         <v>221</v>
       </c>
@@ -18214,7 +18249,7 @@
       <c r="F45" s="41"/>
       <c r="G45" s="66"/>
       <c r="H45" s="41"/>
-      <c r="I45" s="163"/>
+      <c r="I45" s="164"/>
       <c r="J45" s="119" t="s">
         <v>147</v>
       </c>
@@ -18271,7 +18306,7 @@
       <c r="F46" s="41"/>
       <c r="G46" s="66"/>
       <c r="H46" s="41"/>
-      <c r="I46" s="158" t="s">
+      <c r="I46" s="159" t="s">
         <v>225</v>
       </c>
       <c r="J46" s="123" t="s">
@@ -18330,7 +18365,7 @@
       <c r="F47" s="41"/>
       <c r="G47" s="66"/>
       <c r="H47" s="41"/>
-      <c r="I47" s="159"/>
+      <c r="I47" s="160"/>
       <c r="J47" s="84" t="s">
         <v>185</v>
       </c>
@@ -18387,7 +18422,7 @@
       <c r="F48" s="41"/>
       <c r="G48" s="66"/>
       <c r="H48" s="41"/>
-      <c r="I48" s="159"/>
+      <c r="I48" s="160"/>
       <c r="J48" s="105" t="s">
         <v>142</v>
       </c>
@@ -18444,7 +18479,7 @@
       <c r="F49" s="41"/>
       <c r="G49" s="66"/>
       <c r="H49" s="41"/>
-      <c r="I49" s="160"/>
+      <c r="I49" s="161"/>
       <c r="J49" s="124" t="s">
         <v>221</v>
       </c>
@@ -18501,7 +18536,7 @@
       <c r="F50" s="41"/>
       <c r="G50" s="41"/>
       <c r="H50" s="41"/>
-      <c r="I50" s="158" t="s">
+      <c r="I50" s="159" t="s">
         <v>240</v>
       </c>
       <c r="J50" s="125" t="s">
@@ -18560,7 +18595,7 @@
       <c r="F51" s="41"/>
       <c r="G51" s="41"/>
       <c r="H51" s="41"/>
-      <c r="I51" s="159"/>
+      <c r="I51" s="160"/>
       <c r="J51" s="126" t="s">
         <v>185</v>
       </c>
@@ -18617,7 +18652,7 @@
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
       <c r="H52" s="41"/>
-      <c r="I52" s="159"/>
+      <c r="I52" s="160"/>
       <c r="J52" s="118" t="s">
         <v>243</v>
       </c>
@@ -18674,7 +18709,7 @@
       <c r="F53" s="41"/>
       <c r="G53" s="41"/>
       <c r="H53" s="41"/>
-      <c r="I53" s="160"/>
+      <c r="I53" s="161"/>
       <c r="J53" s="119" t="s">
         <v>219</v>
       </c>
@@ -18731,7 +18766,7 @@
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
       <c r="H54" s="41"/>
-      <c r="I54" s="158" t="s">
+      <c r="I54" s="159" t="s">
         <v>251</v>
       </c>
       <c r="J54" s="125" t="s">
@@ -18790,7 +18825,7 @@
       <c r="F55" s="41"/>
       <c r="G55" s="41"/>
       <c r="H55" s="41"/>
-      <c r="I55" s="159"/>
+      <c r="I55" s="160"/>
       <c r="J55" s="126" t="s">
         <v>250</v>
       </c>
@@ -18847,7 +18882,7 @@
       <c r="F56" s="41"/>
       <c r="G56" s="41"/>
       <c r="H56" s="41"/>
-      <c r="I56" s="159"/>
+      <c r="I56" s="160"/>
       <c r="J56" s="118" t="s">
         <v>30</v>
       </c>
@@ -18904,7 +18939,7 @@
       <c r="F57" s="41"/>
       <c r="G57" s="41"/>
       <c r="H57" s="41"/>
-      <c r="I57" s="160"/>
+      <c r="I57" s="161"/>
       <c r="J57" s="119" t="s">
         <v>205</v>
       </c>
@@ -18961,7 +18996,7 @@
       <c r="F58" s="41"/>
       <c r="G58" s="41"/>
       <c r="H58" s="41"/>
-      <c r="I58" s="158" t="s">
+      <c r="I58" s="159" t="s">
         <v>254</v>
       </c>
       <c r="J58" s="125" t="s">
@@ -19020,7 +19055,7 @@
       <c r="F59" s="41"/>
       <c r="G59" s="41"/>
       <c r="H59" s="41"/>
-      <c r="I59" s="159"/>
+      <c r="I59" s="160"/>
       <c r="J59" s="126" t="s">
         <v>243</v>
       </c>
@@ -19077,7 +19112,7 @@
       <c r="F60" s="41"/>
       <c r="G60" s="41"/>
       <c r="H60" s="41"/>
-      <c r="I60" s="159"/>
+      <c r="I60" s="160"/>
       <c r="J60" s="118" t="s">
         <v>250</v>
       </c>
@@ -19134,7 +19169,7 @@
       <c r="F61" s="41"/>
       <c r="G61" s="41"/>
       <c r="H61" s="41"/>
-      <c r="I61" s="159"/>
+      <c r="I61" s="160"/>
       <c r="J61" s="126" t="s">
         <v>253</v>
       </c>
@@ -19191,7 +19226,7 @@
       <c r="F62" s="41"/>
       <c r="G62" s="41"/>
       <c r="H62" s="41"/>
-      <c r="I62" s="159"/>
+      <c r="I62" s="160"/>
       <c r="J62" s="118" t="s">
         <v>30</v>
       </c>
@@ -19248,7 +19283,7 @@
       <c r="F63" s="41"/>
       <c r="G63" s="41"/>
       <c r="H63" s="41"/>
-      <c r="I63" s="160"/>
+      <c r="I63" s="161"/>
       <c r="J63" s="119" t="s">
         <v>205</v>
       </c>
@@ -24902,12 +24937,6 @@
     <sortCondition ref="J33"/>
   </sortState>
   <mergeCells count="18">
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="M39:O39"/>
     <mergeCell ref="I58:I63"/>
     <mergeCell ref="I54:I57"/>
     <mergeCell ref="I50:I53"/>
@@ -24920,6 +24949,12 @@
     <mergeCell ref="I32:I38"/>
     <mergeCell ref="I27:I31"/>
     <mergeCell ref="I14:I19"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="M39:O39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24936,7 +24971,7 @@
   <dimension ref="A1:V153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -25441,11 +25476,21 @@
       <c r="B13" s="74">
         <v>11</v>
       </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="79"/>
+      <c r="C13" s="77" t="s">
+        <v>317</v>
+      </c>
+      <c r="D13" s="77">
+        <v>2022</v>
+      </c>
+      <c r="E13" s="78" t="s">
+        <v>318</v>
+      </c>
+      <c r="F13" s="78" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13" s="79">
+        <v>0.8618055555555556</v>
+      </c>
       <c r="H13" s="8"/>
       <c r="I13" s="55"/>
       <c r="J13" s="147"/>
@@ -25467,11 +25512,21 @@
       <c r="B14" s="82">
         <v>12</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="63"/>
+      <c r="C14" s="57" t="s">
+        <v>320</v>
+      </c>
+      <c r="D14" s="57">
+        <v>2011</v>
+      </c>
+      <c r="E14" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" s="63">
+        <v>0.15208333333333332</v>
+      </c>
       <c r="H14" s="8"/>
       <c r="I14" s="165" t="s">
         <v>296</v>
@@ -25532,7 +25587,7 @@
       <c r="G16" s="63"/>
       <c r="H16" s="8"/>
       <c r="I16" s="117" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="J16" s="140"/>
       <c r="K16" s="145"/>
@@ -25560,7 +25615,7 @@
       <c r="G17" s="81"/>
       <c r="H17" s="8"/>
       <c r="I17" s="116" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="J17" s="139"/>
       <c r="K17" s="145"/>
@@ -25585,7 +25640,9 @@
       <c r="F18" s="31"/>
       <c r="G18" s="64"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="117"/>
+      <c r="I18" s="117" t="s">
+        <v>309</v>
+      </c>
       <c r="J18" s="140"/>
       <c r="K18" s="145"/>
       <c r="L18" s="57"/>
@@ -25849,7 +25906,7 @@
       <c r="R26" s="101"/>
       <c r="S26" s="41"/>
       <c r="T26" s="103" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="U26" s="41"/>
       <c r="V26" s="41"/>
@@ -26112,9 +26169,9 @@
       <c r="L36" s="138"/>
       <c r="M36" s="76"/>
       <c r="N36" s="41"/>
-      <c r="O36" s="164"/>
-      <c r="P36" s="164"/>
-      <c r="Q36" s="164"/>
+      <c r="O36" s="158"/>
+      <c r="P36" s="158"/>
+      <c r="Q36" s="158"/>
       <c r="R36" s="129"/>
       <c r="S36" s="43"/>
       <c r="T36" s="43"/>
@@ -26136,9 +26193,9 @@
       <c r="L37" s="105"/>
       <c r="M37" s="63"/>
       <c r="N37" s="41"/>
-      <c r="O37" s="164"/>
-      <c r="P37" s="164"/>
-      <c r="Q37" s="164"/>
+      <c r="O37" s="158"/>
+      <c r="P37" s="158"/>
+      <c r="Q37" s="158"/>
       <c r="R37" s="129"/>
       <c r="S37" s="43"/>
       <c r="T37" s="43"/>
@@ -26160,9 +26217,9 @@
       <c r="L38" s="77"/>
       <c r="M38" s="79"/>
       <c r="N38" s="41"/>
-      <c r="O38" s="164"/>
-      <c r="P38" s="164"/>
-      <c r="Q38" s="164"/>
+      <c r="O38" s="158"/>
+      <c r="P38" s="158"/>
+      <c r="Q38" s="158"/>
       <c r="R38" s="129"/>
       <c r="S38" s="43"/>
       <c r="T38" s="43"/>
@@ -26184,9 +26241,9 @@
       <c r="L39" s="57"/>
       <c r="M39" s="63"/>
       <c r="N39" s="41"/>
-      <c r="O39" s="164"/>
-      <c r="P39" s="164"/>
-      <c r="Q39" s="164"/>
+      <c r="O39" s="158"/>
+      <c r="P39" s="158"/>
+      <c r="Q39" s="158"/>
       <c r="R39" s="128"/>
       <c r="S39" s="43"/>
       <c r="T39" s="43"/>
@@ -26208,9 +26265,9 @@
       <c r="L40" s="141"/>
       <c r="M40" s="81"/>
       <c r="N40" s="41"/>
-      <c r="O40" s="164"/>
-      <c r="P40" s="164"/>
-      <c r="Q40" s="164"/>
+      <c r="O40" s="158"/>
+      <c r="P40" s="158"/>
+      <c r="Q40" s="158"/>
       <c r="R40" s="128"/>
       <c r="S40" s="43"/>
       <c r="T40" s="43"/>
@@ -26227,9 +26284,9 @@
       <c r="G41" s="64"/>
       <c r="H41" s="41"/>
       <c r="N41" s="41"/>
-      <c r="O41" s="164"/>
-      <c r="P41" s="164"/>
-      <c r="Q41" s="164"/>
+      <c r="O41" s="158"/>
+      <c r="P41" s="158"/>
+      <c r="Q41" s="158"/>
       <c r="R41" s="128"/>
       <c r="S41" s="43"/>
       <c r="T41" s="43"/>
@@ -28446,7 +28503,7 @@
       </c>
       <c r="Q131" s="49">
         <f>COUNTIF(D3:D59,P131)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R131" s="41"/>
       <c r="S131" s="41"/>
@@ -28939,7 +28996,7 @@
       </c>
       <c r="Q148" s="45">
         <f>SUM(Q121:Q147)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R148" s="41"/>
       <c r="S148" s="41"/>
@@ -29072,12 +29129,6 @@
     <sortCondition ref="I9"/>
   </sortState>
   <mergeCells count="18">
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="O39:Q39"/>
-    <mergeCell ref="O40:Q40"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="L21:M21"/>
@@ -29090,6 +29141,12 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="I35:J35"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="O40:Q40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I116" r:id="rId1"/>

--- a/spreadsheets/Games.xlsx
+++ b/spreadsheets/Games.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="323">
   <si>
     <t>Nier: Automata</t>
   </si>
@@ -1369,6 +1369,12 @@
       </rPr>
       <t>[Replayed]</t>
     </r>
+  </si>
+  <si>
+    <t>Planet Laika</t>
+  </si>
+  <si>
+    <t>25-may.</t>
   </si>
 </sst>
 </file>
@@ -2205,9 +2211,6 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
@@ -2225,6 +2228,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2757,11 +2763,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1523412352"/>
-        <c:axId val="-1523404736"/>
+        <c:axId val="1846740304"/>
+        <c:axId val="1846728880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1523412352"/>
+        <c:axId val="1846740304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2842,7 +2848,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1523404736"/>
+        <c:crossAx val="1846728880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2850,7 +2856,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1523404736"/>
+        <c:axId val="1846728880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2952,7 +2958,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1523412352"/>
+        <c:crossAx val="1846740304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3324,11 +3330,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1523409632"/>
-        <c:axId val="-1523413440"/>
+        <c:axId val="1846734864"/>
+        <c:axId val="1846737584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1523409632"/>
+        <c:axId val="1846734864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3371,7 +3377,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1523413440"/>
+        <c:crossAx val="1846737584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3379,7 +3385,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1523413440"/>
+        <c:axId val="1846737584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3430,7 +3436,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1523409632"/>
+        <c:crossAx val="1846734864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3817,11 +3823,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="-1523406912"/>
-        <c:axId val="-1523416704"/>
+        <c:axId val="1846735408"/>
+        <c:axId val="1846735952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1523406912"/>
+        <c:axId val="1846735408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3878,7 +3884,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1523416704"/>
+        <c:crossAx val="1846735952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3886,7 +3892,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1523416704"/>
+        <c:axId val="1846735952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3896,7 +3902,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1523406912"/>
+        <c:crossAx val="1846735408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4210,11 +4216,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="-1523409088"/>
-        <c:axId val="-1523415616"/>
+        <c:axId val="1846741936"/>
+        <c:axId val="1846727248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1523409088"/>
+        <c:axId val="1846741936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4259,7 +4265,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1523415616"/>
+        <c:crossAx val="1846727248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4267,7 +4273,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1523415616"/>
+        <c:axId val="1846727248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4317,7 +4323,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1523409088"/>
+        <c:crossAx val="1846741936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -4340,7 +4346,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4724,7 +4729,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -4753,11 +4758,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="-1523408000"/>
-        <c:axId val="-1523413984"/>
+        <c:axId val="1846730512"/>
+        <c:axId val="1691302544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1523408000"/>
+        <c:axId val="1846730512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4814,7 +4819,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1523413984"/>
+        <c:crossAx val="1691302544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4822,7 +4827,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1523413984"/>
+        <c:axId val="1691302544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4832,7 +4837,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1523408000"/>
+        <c:crossAx val="1846730512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5098,11 +5103,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="-1523411264"/>
-        <c:axId val="-1523410176"/>
+        <c:axId val="1850086544"/>
+        <c:axId val="1850088720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1523411264"/>
+        <c:axId val="1850086544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5147,7 +5152,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1523410176"/>
+        <c:crossAx val="1850088720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5155,7 +5160,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1523410176"/>
+        <c:axId val="1850088720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5205,7 +5210,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1523411264"/>
+        <c:crossAx val="1850086544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -15253,7 +15258,7 @@
         <v>4.197916666666667</v>
       </c>
       <c r="H3" s="8"/>
-      <c r="I3" s="162" t="s">
+      <c r="I3" s="161" t="s">
         <v>124</v>
       </c>
       <c r="J3" s="84" t="s">
@@ -15324,7 +15329,7 @@
         <v>0.30138888888888887</v>
       </c>
       <c r="H4" s="8"/>
-      <c r="I4" s="163"/>
+      <c r="I4" s="162"/>
       <c r="J4" s="57" t="s">
         <v>133</v>
       </c>
@@ -15393,7 +15398,7 @@
         <v>0.2076388888888889</v>
       </c>
       <c r="H5" s="8"/>
-      <c r="I5" s="163"/>
+      <c r="I5" s="162"/>
       <c r="J5" s="77" t="s">
         <v>138</v>
       </c>
@@ -15462,7 +15467,7 @@
         <v>1.2437499999999999</v>
       </c>
       <c r="H6" s="8"/>
-      <c r="I6" s="163"/>
+      <c r="I6" s="162"/>
       <c r="J6" s="57" t="s">
         <v>135</v>
       </c>
@@ -15531,7 +15536,7 @@
         <v>0.27916666666666667</v>
       </c>
       <c r="H7" s="8"/>
-      <c r="I7" s="163"/>
+      <c r="I7" s="162"/>
       <c r="J7" s="77" t="s">
         <v>142</v>
       </c>
@@ -15600,7 +15605,7 @@
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="H8" s="8"/>
-      <c r="I8" s="163"/>
+      <c r="I8" s="162"/>
       <c r="J8" s="57" t="s">
         <v>143</v>
       </c>
@@ -15669,7 +15674,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="H9" s="8"/>
-      <c r="I9" s="162" t="s">
+      <c r="I9" s="161" t="s">
         <v>125</v>
       </c>
       <c r="J9" s="75" t="s">
@@ -15740,7 +15745,7 @@
         <v>0.19027777777777777</v>
       </c>
       <c r="H10" s="8"/>
-      <c r="I10" s="163"/>
+      <c r="I10" s="162"/>
       <c r="J10" s="57" t="s">
         <v>133</v>
       </c>
@@ -15809,7 +15814,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="H11" s="8"/>
-      <c r="I11" s="163"/>
+      <c r="I11" s="162"/>
       <c r="J11" s="77" t="s">
         <v>138</v>
       </c>
@@ -15878,7 +15883,7 @@
         <v>1.7097222222222221</v>
       </c>
       <c r="H12" s="8"/>
-      <c r="I12" s="163"/>
+      <c r="I12" s="162"/>
       <c r="J12" s="57" t="s">
         <v>135</v>
       </c>
@@ -15947,7 +15952,7 @@
         <v>0.15972222222222224</v>
       </c>
       <c r="H13" s="8"/>
-      <c r="I13" s="163"/>
+      <c r="I13" s="162"/>
       <c r="J13" s="77" t="s">
         <v>147</v>
       </c>
@@ -16016,7 +16021,7 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="H14" s="8"/>
-      <c r="I14" s="162" t="s">
+      <c r="I14" s="161" t="s">
         <v>126</v>
       </c>
       <c r="J14" s="11" t="s">
@@ -16087,7 +16092,7 @@
         <v>0.59652777777777777</v>
       </c>
       <c r="H15" s="8"/>
-      <c r="I15" s="163"/>
+      <c r="I15" s="162"/>
       <c r="J15" s="77" t="s">
         <v>133</v>
       </c>
@@ -16156,7 +16161,7 @@
         <v>14</v>
       </c>
       <c r="H16" s="8"/>
-      <c r="I16" s="163"/>
+      <c r="I16" s="162"/>
       <c r="J16" s="57" t="s">
         <v>138</v>
       </c>
@@ -16225,7 +16230,7 @@
         <v>14</v>
       </c>
       <c r="H17" s="8"/>
-      <c r="I17" s="163"/>
+      <c r="I17" s="162"/>
       <c r="J17" s="77" t="s">
         <v>135</v>
       </c>
@@ -16294,7 +16299,7 @@
         <v>0.24583333333333335</v>
       </c>
       <c r="H18" s="8"/>
-      <c r="I18" s="163"/>
+      <c r="I18" s="162"/>
       <c r="J18" s="57" t="s">
         <v>150</v>
       </c>
@@ -16363,7 +16368,7 @@
         <v>0.49513888888888885</v>
       </c>
       <c r="H19" s="8"/>
-      <c r="I19" s="164"/>
+      <c r="I19" s="163"/>
       <c r="J19" s="80" t="s">
         <v>156</v>
       </c>
@@ -16432,7 +16437,7 @@
         <v>0.20972222222222223</v>
       </c>
       <c r="H20" s="8"/>
-      <c r="I20" s="162" t="s">
+      <c r="I20" s="161" t="s">
         <v>149</v>
       </c>
       <c r="J20" s="11" t="s">
@@ -16503,7 +16508,7 @@
         <v>0.25486111111111109</v>
       </c>
       <c r="H21" s="8"/>
-      <c r="I21" s="164"/>
+      <c r="I21" s="163"/>
       <c r="J21" s="80" t="s">
         <v>147</v>
       </c>
@@ -16582,7 +16587,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="H22" s="8"/>
-      <c r="I22" s="163" t="s">
+      <c r="I22" s="162" t="s">
         <v>167</v>
       </c>
       <c r="J22" s="57" t="s">
@@ -16665,7 +16670,7 @@
         <v>0.26944444444444443</v>
       </c>
       <c r="H23" s="8"/>
-      <c r="I23" s="163"/>
+      <c r="I23" s="162"/>
       <c r="J23" s="84" t="s">
         <v>175</v>
       </c>
@@ -16746,7 +16751,7 @@
         <v>0.3263888888888889</v>
       </c>
       <c r="H24" s="40"/>
-      <c r="I24" s="163"/>
+      <c r="I24" s="162"/>
       <c r="J24" s="57" t="s">
         <v>169</v>
       </c>
@@ -16827,7 +16832,7 @@
         <v>0.32847222222222222</v>
       </c>
       <c r="H25" s="41"/>
-      <c r="I25" s="163"/>
+      <c r="I25" s="162"/>
       <c r="J25" s="77" t="s">
         <v>147</v>
       </c>
@@ -16908,7 +16913,7 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="H26" s="41"/>
-      <c r="I26" s="164"/>
+      <c r="I26" s="163"/>
       <c r="J26" s="12" t="s">
         <v>168</v>
       </c>
@@ -16989,7 +16994,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="H27" s="41"/>
-      <c r="I27" s="162" t="s">
+      <c r="I27" s="161" t="s">
         <v>177</v>
       </c>
       <c r="J27" s="77" t="s">
@@ -17072,7 +17077,7 @@
         <v>0.22291666666666665</v>
       </c>
       <c r="H28" s="41"/>
-      <c r="I28" s="163"/>
+      <c r="I28" s="162"/>
       <c r="J28" s="105" t="s">
         <v>169</v>
       </c>
@@ -17153,7 +17158,7 @@
         <v>0.13194444444444445</v>
       </c>
       <c r="H29" s="41"/>
-      <c r="I29" s="163"/>
+      <c r="I29" s="162"/>
       <c r="J29" s="77" t="s">
         <v>30</v>
       </c>
@@ -17234,7 +17239,7 @@
         <v>14</v>
       </c>
       <c r="H30" s="41"/>
-      <c r="I30" s="163"/>
+      <c r="I30" s="162"/>
       <c r="J30" s="105" t="s">
         <v>142</v>
       </c>
@@ -17315,7 +17320,7 @@
         <v>0.43888888888888888</v>
       </c>
       <c r="H31" s="41"/>
-      <c r="I31" s="164"/>
+      <c r="I31" s="163"/>
       <c r="J31" s="77" t="s">
         <v>147</v>
       </c>
@@ -17396,7 +17401,7 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="H32" s="41"/>
-      <c r="I32" s="162" t="s">
+      <c r="I32" s="161" t="s">
         <v>190</v>
       </c>
       <c r="J32" s="111" t="s">
@@ -17479,7 +17484,7 @@
         <v>2.7097222222222221</v>
       </c>
       <c r="H33" s="41"/>
-      <c r="I33" s="163"/>
+      <c r="I33" s="162"/>
       <c r="J33" s="77" t="s">
         <v>185</v>
       </c>
@@ -17562,7 +17567,7 @@
         <v>14</v>
       </c>
       <c r="H34" s="41"/>
-      <c r="I34" s="163"/>
+      <c r="I34" s="162"/>
       <c r="J34" s="57" t="s">
         <v>205</v>
       </c>
@@ -17642,7 +17647,7 @@
         <v>0.11041666666666666</v>
       </c>
       <c r="H35" s="41"/>
-      <c r="I35" s="163"/>
+      <c r="I35" s="162"/>
       <c r="J35" s="84" t="s">
         <v>204</v>
       </c>
@@ -17711,7 +17716,7 @@
         <v>0.37083333333333335</v>
       </c>
       <c r="H36" s="41"/>
-      <c r="I36" s="163"/>
+      <c r="I36" s="162"/>
       <c r="J36" s="57" t="s">
         <v>147</v>
       </c>
@@ -17719,9 +17724,9 @@
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="L36" s="41"/>
-      <c r="M36" s="158"/>
-      <c r="N36" s="158"/>
-      <c r="O36" s="158"/>
+      <c r="M36" s="164"/>
+      <c r="N36" s="164"/>
+      <c r="O36" s="164"/>
       <c r="P36" s="129"/>
       <c r="Q36" s="43"/>
       <c r="R36" s="43"/>
@@ -17780,7 +17785,7 @@
         <v>0.80694444444444446</v>
       </c>
       <c r="H37" s="41"/>
-      <c r="I37" s="163"/>
+      <c r="I37" s="162"/>
       <c r="J37" s="84" t="s">
         <v>202</v>
       </c>
@@ -17788,9 +17793,9 @@
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="L37" s="41"/>
-      <c r="M37" s="158"/>
-      <c r="N37" s="158"/>
-      <c r="O37" s="158"/>
+      <c r="M37" s="164"/>
+      <c r="N37" s="164"/>
+      <c r="O37" s="164"/>
       <c r="P37" s="129"/>
       <c r="Q37" s="43"/>
       <c r="R37" s="43"/>
@@ -17849,7 +17854,7 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="H38" s="41"/>
-      <c r="I38" s="164"/>
+      <c r="I38" s="163"/>
       <c r="J38" s="12" t="s">
         <v>208</v>
       </c>
@@ -17857,9 +17862,9 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="L38" s="41"/>
-      <c r="M38" s="158"/>
-      <c r="N38" s="158"/>
-      <c r="O38" s="158"/>
+      <c r="M38" s="164"/>
+      <c r="N38" s="164"/>
+      <c r="O38" s="164"/>
       <c r="P38" s="129"/>
       <c r="Q38" s="43"/>
       <c r="R38" s="43"/>
@@ -17906,7 +17911,7 @@
       <c r="F39" s="31"/>
       <c r="G39" s="64"/>
       <c r="H39" s="41"/>
-      <c r="I39" s="162" t="s">
+      <c r="I39" s="161" t="s">
         <v>217</v>
       </c>
       <c r="J39" s="120" t="s">
@@ -17916,9 +17921,9 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="L39" s="41"/>
-      <c r="M39" s="158"/>
-      <c r="N39" s="158"/>
-      <c r="O39" s="158"/>
+      <c r="M39" s="164"/>
+      <c r="N39" s="164"/>
+      <c r="O39" s="164"/>
       <c r="P39" s="128"/>
       <c r="Q39" s="43"/>
       <c r="R39" s="43"/>
@@ -17965,7 +17970,7 @@
       <c r="F40" s="40"/>
       <c r="G40" s="65"/>
       <c r="H40" s="41"/>
-      <c r="I40" s="163"/>
+      <c r="I40" s="162"/>
       <c r="J40" s="117" t="s">
         <v>218</v>
       </c>
@@ -17973,9 +17978,9 @@
         <v>0.3666666666666667</v>
       </c>
       <c r="L40" s="41"/>
-      <c r="M40" s="158"/>
-      <c r="N40" s="158"/>
-      <c r="O40" s="158"/>
+      <c r="M40" s="164"/>
+      <c r="N40" s="164"/>
+      <c r="O40" s="164"/>
       <c r="P40" s="128"/>
       <c r="Q40" s="43"/>
       <c r="R40" s="43"/>
@@ -18021,7 +18026,7 @@
       <c r="F41" s="31"/>
       <c r="G41" s="64"/>
       <c r="H41" s="41"/>
-      <c r="I41" s="163"/>
+      <c r="I41" s="162"/>
       <c r="J41" s="116" t="s">
         <v>185</v>
       </c>
@@ -18029,9 +18034,9 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="L41" s="41"/>
-      <c r="M41" s="158"/>
-      <c r="N41" s="158"/>
-      <c r="O41" s="158"/>
+      <c r="M41" s="164"/>
+      <c r="N41" s="164"/>
+      <c r="O41" s="164"/>
       <c r="P41" s="128"/>
       <c r="Q41" s="43"/>
       <c r="R41" s="43"/>
@@ -18078,7 +18083,7 @@
       <c r="F42" s="31"/>
       <c r="G42" s="64"/>
       <c r="H42" s="41"/>
-      <c r="I42" s="163"/>
+      <c r="I42" s="162"/>
       <c r="J42" s="118" t="s">
         <v>142</v>
       </c>
@@ -18135,7 +18140,7 @@
       <c r="F43" s="41"/>
       <c r="G43" s="66"/>
       <c r="H43" s="41"/>
-      <c r="I43" s="163"/>
+      <c r="I43" s="162"/>
       <c r="J43" s="116" t="s">
         <v>220</v>
       </c>
@@ -18192,7 +18197,7 @@
       <c r="F44" s="41"/>
       <c r="G44" s="66"/>
       <c r="H44" s="41"/>
-      <c r="I44" s="163"/>
+      <c r="I44" s="162"/>
       <c r="J44" s="117" t="s">
         <v>221</v>
       </c>
@@ -18249,7 +18254,7 @@
       <c r="F45" s="41"/>
       <c r="G45" s="66"/>
       <c r="H45" s="41"/>
-      <c r="I45" s="164"/>
+      <c r="I45" s="163"/>
       <c r="J45" s="119" t="s">
         <v>147</v>
       </c>
@@ -18306,7 +18311,7 @@
       <c r="F46" s="41"/>
       <c r="G46" s="66"/>
       <c r="H46" s="41"/>
-      <c r="I46" s="159" t="s">
+      <c r="I46" s="158" t="s">
         <v>225</v>
       </c>
       <c r="J46" s="123" t="s">
@@ -18365,7 +18370,7 @@
       <c r="F47" s="41"/>
       <c r="G47" s="66"/>
       <c r="H47" s="41"/>
-      <c r="I47" s="160"/>
+      <c r="I47" s="159"/>
       <c r="J47" s="84" t="s">
         <v>185</v>
       </c>
@@ -18422,7 +18427,7 @@
       <c r="F48" s="41"/>
       <c r="G48" s="66"/>
       <c r="H48" s="41"/>
-      <c r="I48" s="160"/>
+      <c r="I48" s="159"/>
       <c r="J48" s="105" t="s">
         <v>142</v>
       </c>
@@ -18479,7 +18484,7 @@
       <c r="F49" s="41"/>
       <c r="G49" s="66"/>
       <c r="H49" s="41"/>
-      <c r="I49" s="161"/>
+      <c r="I49" s="160"/>
       <c r="J49" s="124" t="s">
         <v>221</v>
       </c>
@@ -18536,7 +18541,7 @@
       <c r="F50" s="41"/>
       <c r="G50" s="41"/>
       <c r="H50" s="41"/>
-      <c r="I50" s="159" t="s">
+      <c r="I50" s="158" t="s">
         <v>240</v>
       </c>
       <c r="J50" s="125" t="s">
@@ -18595,7 +18600,7 @@
       <c r="F51" s="41"/>
       <c r="G51" s="41"/>
       <c r="H51" s="41"/>
-      <c r="I51" s="160"/>
+      <c r="I51" s="159"/>
       <c r="J51" s="126" t="s">
         <v>185</v>
       </c>
@@ -18652,7 +18657,7 @@
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
       <c r="H52" s="41"/>
-      <c r="I52" s="160"/>
+      <c r="I52" s="159"/>
       <c r="J52" s="118" t="s">
         <v>243</v>
       </c>
@@ -18709,7 +18714,7 @@
       <c r="F53" s="41"/>
       <c r="G53" s="41"/>
       <c r="H53" s="41"/>
-      <c r="I53" s="161"/>
+      <c r="I53" s="160"/>
       <c r="J53" s="119" t="s">
         <v>219</v>
       </c>
@@ -18766,7 +18771,7 @@
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
       <c r="H54" s="41"/>
-      <c r="I54" s="159" t="s">
+      <c r="I54" s="158" t="s">
         <v>251</v>
       </c>
       <c r="J54" s="125" t="s">
@@ -18825,7 +18830,7 @@
       <c r="F55" s="41"/>
       <c r="G55" s="41"/>
       <c r="H55" s="41"/>
-      <c r="I55" s="160"/>
+      <c r="I55" s="159"/>
       <c r="J55" s="126" t="s">
         <v>250</v>
       </c>
@@ -18882,7 +18887,7 @@
       <c r="F56" s="41"/>
       <c r="G56" s="41"/>
       <c r="H56" s="41"/>
-      <c r="I56" s="160"/>
+      <c r="I56" s="159"/>
       <c r="J56" s="118" t="s">
         <v>30</v>
       </c>
@@ -18939,7 +18944,7 @@
       <c r="F57" s="41"/>
       <c r="G57" s="41"/>
       <c r="H57" s="41"/>
-      <c r="I57" s="161"/>
+      <c r="I57" s="160"/>
       <c r="J57" s="119" t="s">
         <v>205</v>
       </c>
@@ -18996,7 +19001,7 @@
       <c r="F58" s="41"/>
       <c r="G58" s="41"/>
       <c r="H58" s="41"/>
-      <c r="I58" s="159" t="s">
+      <c r="I58" s="158" t="s">
         <v>254</v>
       </c>
       <c r="J58" s="125" t="s">
@@ -19055,7 +19060,7 @@
       <c r="F59" s="41"/>
       <c r="G59" s="41"/>
       <c r="H59" s="41"/>
-      <c r="I59" s="160"/>
+      <c r="I59" s="159"/>
       <c r="J59" s="126" t="s">
         <v>243</v>
       </c>
@@ -19112,7 +19117,7 @@
       <c r="F60" s="41"/>
       <c r="G60" s="41"/>
       <c r="H60" s="41"/>
-      <c r="I60" s="160"/>
+      <c r="I60" s="159"/>
       <c r="J60" s="118" t="s">
         <v>250</v>
       </c>
@@ -19169,7 +19174,7 @@
       <c r="F61" s="41"/>
       <c r="G61" s="41"/>
       <c r="H61" s="41"/>
-      <c r="I61" s="160"/>
+      <c r="I61" s="159"/>
       <c r="J61" s="126" t="s">
         <v>253</v>
       </c>
@@ -19226,7 +19231,7 @@
       <c r="F62" s="41"/>
       <c r="G62" s="41"/>
       <c r="H62" s="41"/>
-      <c r="I62" s="160"/>
+      <c r="I62" s="159"/>
       <c r="J62" s="118" t="s">
         <v>30</v>
       </c>
@@ -19283,7 +19288,7 @@
       <c r="F63" s="41"/>
       <c r="G63" s="41"/>
       <c r="H63" s="41"/>
-      <c r="I63" s="161"/>
+      <c r="I63" s="160"/>
       <c r="J63" s="119" t="s">
         <v>205</v>
       </c>
@@ -24937,6 +24942,12 @@
     <sortCondition ref="J33"/>
   </sortState>
   <mergeCells count="18">
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="M39:O39"/>
     <mergeCell ref="I58:I63"/>
     <mergeCell ref="I54:I57"/>
     <mergeCell ref="I50:I53"/>
@@ -24949,12 +24960,6 @@
     <mergeCell ref="I32:I38"/>
     <mergeCell ref="I27:I31"/>
     <mergeCell ref="I14:I19"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="M39:O39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24971,7 +24976,7 @@
   <dimension ref="A1:V153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -25552,11 +25557,21 @@
       <c r="B15" s="74">
         <v>13</v>
       </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="79"/>
+      <c r="C15" s="77" t="s">
+        <v>321</v>
+      </c>
+      <c r="D15" s="77">
+        <v>1999</v>
+      </c>
+      <c r="E15" s="78" t="s">
+        <v>322</v>
+      </c>
+      <c r="F15" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="79" t="s">
+        <v>14</v>
+      </c>
       <c r="H15" s="8"/>
       <c r="I15" s="126" t="s">
         <v>26</v>
@@ -26169,9 +26184,9 @@
       <c r="L36" s="138"/>
       <c r="M36" s="76"/>
       <c r="N36" s="41"/>
-      <c r="O36" s="158"/>
-      <c r="P36" s="158"/>
-      <c r="Q36" s="158"/>
+      <c r="O36" s="164"/>
+      <c r="P36" s="164"/>
+      <c r="Q36" s="164"/>
       <c r="R36" s="129"/>
       <c r="S36" s="43"/>
       <c r="T36" s="43"/>
@@ -26193,9 +26208,9 @@
       <c r="L37" s="105"/>
       <c r="M37" s="63"/>
       <c r="N37" s="41"/>
-      <c r="O37" s="158"/>
-      <c r="P37" s="158"/>
-      <c r="Q37" s="158"/>
+      <c r="O37" s="164"/>
+      <c r="P37" s="164"/>
+      <c r="Q37" s="164"/>
       <c r="R37" s="129"/>
       <c r="S37" s="43"/>
       <c r="T37" s="43"/>
@@ -26217,9 +26232,9 @@
       <c r="L38" s="77"/>
       <c r="M38" s="79"/>
       <c r="N38" s="41"/>
-      <c r="O38" s="158"/>
-      <c r="P38" s="158"/>
-      <c r="Q38" s="158"/>
+      <c r="O38" s="164"/>
+      <c r="P38" s="164"/>
+      <c r="Q38" s="164"/>
       <c r="R38" s="129"/>
       <c r="S38" s="43"/>
       <c r="T38" s="43"/>
@@ -26241,9 +26256,9 @@
       <c r="L39" s="57"/>
       <c r="M39" s="63"/>
       <c r="N39" s="41"/>
-      <c r="O39" s="158"/>
-      <c r="P39" s="158"/>
-      <c r="Q39" s="158"/>
+      <c r="O39" s="164"/>
+      <c r="P39" s="164"/>
+      <c r="Q39" s="164"/>
       <c r="R39" s="128"/>
       <c r="S39" s="43"/>
       <c r="T39" s="43"/>
@@ -26265,9 +26280,9 @@
       <c r="L40" s="141"/>
       <c r="M40" s="81"/>
       <c r="N40" s="41"/>
-      <c r="O40" s="158"/>
-      <c r="P40" s="158"/>
-      <c r="Q40" s="158"/>
+      <c r="O40" s="164"/>
+      <c r="P40" s="164"/>
+      <c r="Q40" s="164"/>
       <c r="R40" s="128"/>
       <c r="S40" s="43"/>
       <c r="T40" s="43"/>
@@ -26284,9 +26299,9 @@
       <c r="G41" s="64"/>
       <c r="H41" s="41"/>
       <c r="N41" s="41"/>
-      <c r="O41" s="158"/>
-      <c r="P41" s="158"/>
-      <c r="Q41" s="158"/>
+      <c r="O41" s="164"/>
+      <c r="P41" s="164"/>
+      <c r="Q41" s="164"/>
       <c r="R41" s="128"/>
       <c r="S41" s="43"/>
       <c r="T41" s="43"/>
@@ -28851,7 +28866,7 @@
       </c>
       <c r="Q143" s="49">
         <f>COUNTIF(D3:D59,P143)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R143" s="41"/>
       <c r="S143" s="41"/>
@@ -28996,7 +29011,7 @@
       </c>
       <c r="Q148" s="45">
         <f>SUM(Q121:Q147)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R148" s="41"/>
       <c r="S148" s="41"/>
@@ -29129,6 +29144,12 @@
     <sortCondition ref="I9"/>
   </sortState>
   <mergeCells count="18">
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="O40:Q40"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="L21:M21"/>
@@ -29141,12 +29162,6 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="I35:J35"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="O39:Q39"/>
-    <mergeCell ref="O40:Q40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I116" r:id="rId1"/>

--- a/spreadsheets/Games.xlsx
+++ b/spreadsheets/Games.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="326">
   <si>
     <t>Nier: Automata</t>
   </si>
@@ -1344,20 +1344,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">13 Sentinels (14h 55m), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Ubuntu"/>
-        <family val="2"/>
-      </rPr>
-      <t>Kirby (pasarlo 12h 45m)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Portal 2 </t>
     </r>
     <r>
@@ -1375,6 +1361,29 @@
   </si>
   <si>
     <t>25-may.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">13 Sentinels (14h 55m), Laika (5h 3m), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>Kirby (pasarlo 12h 45m)</t>
+    </r>
+  </si>
+  <si>
+    <t>Iron Lung</t>
+  </si>
+  <si>
+    <t>2-jun.</t>
+  </si>
+  <si>
+    <t>Laika (4h 53m)</t>
   </si>
 </sst>
 </file>
@@ -2763,11 +2772,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1846740304"/>
-        <c:axId val="1846728880"/>
+        <c:axId val="-656969888"/>
+        <c:axId val="-656974784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1846740304"/>
+        <c:axId val="-656969888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2848,7 +2857,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1846728880"/>
+        <c:crossAx val="-656974784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2856,7 +2865,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1846728880"/>
+        <c:axId val="-656974784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2958,7 +2967,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1846740304"/>
+        <c:crossAx val="-656969888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3330,11 +3339,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1846734864"/>
-        <c:axId val="1846737584"/>
+        <c:axId val="-656965536"/>
+        <c:axId val="-656966624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1846734864"/>
+        <c:axId val="-656965536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3377,7 +3386,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1846737584"/>
+        <c:crossAx val="-656966624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3385,7 +3394,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1846737584"/>
+        <c:axId val="-656966624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3436,7 +3445,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1846734864"/>
+        <c:crossAx val="-656965536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3823,11 +3832,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="1846735408"/>
-        <c:axId val="1846735952"/>
+        <c:axId val="-656972064"/>
+        <c:axId val="-656974240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1846735408"/>
+        <c:axId val="-656972064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3884,7 +3893,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1846735952"/>
+        <c:crossAx val="-656974240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3892,7 +3901,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1846735952"/>
+        <c:axId val="-656974240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3902,7 +3911,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1846735408"/>
+        <c:crossAx val="-656972064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4216,11 +4225,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="1846741936"/>
-        <c:axId val="1846727248"/>
+        <c:axId val="-656964992"/>
+        <c:axId val="-656960096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1846741936"/>
+        <c:axId val="-656964992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4265,7 +4274,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1846727248"/>
+        <c:crossAx val="-656960096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4273,7 +4282,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1846727248"/>
+        <c:axId val="-656960096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4323,7 +4332,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1846741936"/>
+        <c:crossAx val="-656964992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -4758,11 +4767,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="1846730512"/>
-        <c:axId val="1691302544"/>
+        <c:axId val="-656970976"/>
+        <c:axId val="-656963360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1846730512"/>
+        <c:axId val="-656970976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4819,7 +4828,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1691302544"/>
+        <c:crossAx val="-656963360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4827,7 +4836,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1691302544"/>
+        <c:axId val="-656963360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4837,7 +4846,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1846730512"/>
+        <c:crossAx val="-656970976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4996,6 +5005,9 @@
                 <c:pt idx="3">
                   <c:v>1.007638888888889</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8458333333333332</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5089,6 +5101,9 @@
                 <c:pt idx="3">
                   <c:v>0.95625000000000004</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67847222222222214</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5103,11 +5118,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="1850086544"/>
-        <c:axId val="1850088720"/>
+        <c:axId val="-657972800"/>
+        <c:axId val="-657985312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1850086544"/>
+        <c:axId val="-657972800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5152,7 +5167,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1850088720"/>
+        <c:crossAx val="-657985312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5160,7 +5175,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1850088720"/>
+        <c:axId val="-657985312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5210,7 +5225,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1850086544"/>
+        <c:crossAx val="-657972800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -24976,7 +24991,7 @@
   <dimension ref="A1:V153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -24997,7 +25012,8 @@
     <col min="16" max="18" width="10" style="137" customWidth="1"/>
     <col min="19" max="19" width="3.140625" style="137" customWidth="1"/>
     <col min="20" max="20" width="42.85546875" style="137" customWidth="1"/>
-    <col min="21" max="16384" width="11.42578125" style="137"/>
+    <col min="21" max="21" width="3.140625" style="137" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="137"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25518,7 +25534,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D14" s="57">
         <v>2011</v>
@@ -25558,27 +25574,31 @@
         <v>13</v>
       </c>
       <c r="C15" s="77" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D15" s="77">
         <v>1999</v>
       </c>
       <c r="E15" s="78" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F15" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="79" t="s">
-        <v>14</v>
+        <v>108</v>
+      </c>
+      <c r="G15" s="79">
+        <v>0.41388888888888892</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="139"/>
+      <c r="J15" s="139">
+        <v>9.9999999999999992E-2</v>
+      </c>
       <c r="K15" s="145"/>
-      <c r="L15" s="138"/>
+      <c r="L15" s="138" t="s">
+        <v>312</v>
+      </c>
       <c r="M15" s="76"/>
       <c r="N15" s="41"/>
       <c r="O15" s="40"/>
@@ -25595,16 +25615,28 @@
       <c r="B16" s="82">
         <v>14</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="63"/>
+      <c r="C16" s="57" t="s">
+        <v>323</v>
+      </c>
+      <c r="D16" s="57">
+        <v>2022</v>
+      </c>
+      <c r="E16" s="73" t="s">
+        <v>324</v>
+      </c>
+      <c r="F16" s="73" t="s">
+        <v>324</v>
+      </c>
+      <c r="G16" s="63">
+        <v>7.013888888888889E-2</v>
+      </c>
       <c r="H16" s="8"/>
       <c r="I16" s="117" t="s">
         <v>316</v>
       </c>
-      <c r="J16" s="140"/>
+      <c r="J16" s="140">
+        <v>5.8333333333333327E-2</v>
+      </c>
       <c r="K16" s="145"/>
       <c r="L16" s="105"/>
       <c r="M16" s="63"/>
@@ -25632,7 +25664,9 @@
       <c r="I17" s="116" t="s">
         <v>312</v>
       </c>
-      <c r="J17" s="139"/>
+      <c r="J17" s="139">
+        <v>0.35138888888888892</v>
+      </c>
       <c r="K17" s="145"/>
       <c r="L17" s="77"/>
       <c r="M17" s="79"/>
@@ -25658,7 +25692,9 @@
       <c r="I18" s="117" t="s">
         <v>309</v>
       </c>
-      <c r="J18" s="140"/>
+      <c r="J18" s="140">
+        <v>4.5138888888888888E-2</v>
+      </c>
       <c r="K18" s="145"/>
       <c r="L18" s="57"/>
       <c r="M18" s="63"/>
@@ -25681,8 +25717,12 @@
       <c r="F19" s="31"/>
       <c r="G19" s="64"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="141"/>
+      <c r="I19" s="142" t="s">
+        <v>147</v>
+      </c>
+      <c r="J19" s="141">
+        <v>0.12361111111111112</v>
+      </c>
       <c r="K19" s="145"/>
       <c r="L19" s="141"/>
       <c r="M19" s="81"/>
@@ -25916,12 +25956,20 @@
       <c r="O26" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="P26" s="85"/>
-      <c r="Q26" s="85"/>
-      <c r="R26" s="101"/>
+      <c r="P26" s="85">
+        <v>1.8458333333333332</v>
+      </c>
+      <c r="Q26" s="85">
+        <f>SUM(J15:J19)</f>
+        <v>0.67847222222222214</v>
+      </c>
+      <c r="R26" s="101">
+        <f>P26+Q26</f>
+        <v>2.5243055555555554</v>
+      </c>
       <c r="S26" s="41"/>
       <c r="T26" s="103" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="U26" s="41"/>
       <c r="V26" s="41"/>
@@ -25944,7 +25992,9 @@
       <c r="Q27" s="68"/>
       <c r="R27" s="94"/>
       <c r="S27" s="41"/>
-      <c r="T27" s="102"/>
+      <c r="T27" s="102" t="s">
+        <v>325</v>
+      </c>
       <c r="U27" s="41"/>
       <c r="V27" s="41"/>
     </row>
@@ -26126,15 +26176,15 @@
       </c>
       <c r="P34" s="131">
         <f t="shared" ref="P34:Q34" si="0">SUM(P22:P33)</f>
-        <v>3.1888888888888891</v>
+        <v>5.0347222222222223</v>
       </c>
       <c r="Q34" s="131">
         <f t="shared" si="0"/>
-        <v>4.9416666666666664</v>
+        <v>5.6201388888888886</v>
       </c>
       <c r="R34" s="132">
         <f>SUM(R22:R33)</f>
-        <v>8.1305555555555564</v>
+        <v>10.654861111111112</v>
       </c>
       <c r="S34" s="41"/>
       <c r="T34" s="41"/>

--- a/spreadsheets/Games.xlsx
+++ b/spreadsheets/Games.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="327">
   <si>
     <t>Nier: Automata</t>
   </si>
@@ -1384,6 +1384,9 @@
   </si>
   <si>
     <t>Laika (4h 53m)</t>
+  </si>
+  <si>
+    <t>Link's Awakening</t>
   </si>
 </sst>
 </file>
@@ -1747,7 +1750,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2148,9 +2151,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2182,9 +2182,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2772,11 +2769,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-656969888"/>
-        <c:axId val="-656974784"/>
+        <c:axId val="-714656304"/>
+        <c:axId val="-714653584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-656969888"/>
+        <c:axId val="-714656304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2857,7 +2854,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-656974784"/>
+        <c:crossAx val="-714653584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2865,7 +2862,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-656974784"/>
+        <c:axId val="-714653584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2967,7 +2964,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-656969888"/>
+        <c:crossAx val="-714656304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3339,11 +3336,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-656965536"/>
-        <c:axId val="-656966624"/>
+        <c:axId val="-714663920"/>
+        <c:axId val="-714661200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-656965536"/>
+        <c:axId val="-714663920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3386,7 +3383,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-656966624"/>
+        <c:crossAx val="-714661200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3394,7 +3391,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-656966624"/>
+        <c:axId val="-714661200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3445,7 +3442,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-656965536"/>
+        <c:crossAx val="-714663920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3832,11 +3829,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="-656972064"/>
-        <c:axId val="-656974240"/>
+        <c:axId val="-714654672"/>
+        <c:axId val="-716093280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-656972064"/>
+        <c:axId val="-714654672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3893,7 +3890,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-656974240"/>
+        <c:crossAx val="-716093280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3901,7 +3898,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-656974240"/>
+        <c:axId val="-716093280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3911,7 +3908,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-656972064"/>
+        <c:crossAx val="-714654672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4225,11 +4222,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="-656964992"/>
-        <c:axId val="-656960096"/>
+        <c:axId val="-712137808"/>
+        <c:axId val="-712135632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-656964992"/>
+        <c:axId val="-712137808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4274,7 +4271,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-656960096"/>
+        <c:crossAx val="-712135632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4282,7 +4279,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-656960096"/>
+        <c:axId val="-712135632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4332,7 +4329,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-656964992"/>
+        <c:crossAx val="-712137808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -4355,6 +4352,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4678,7 +4676,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -4767,11 +4765,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="-656970976"/>
-        <c:axId val="-656963360"/>
+        <c:axId val="-712130192"/>
+        <c:axId val="-712133456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-656970976"/>
+        <c:axId val="-712130192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4828,7 +4826,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-656963360"/>
+        <c:crossAx val="-712133456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4836,7 +4834,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-656963360"/>
+        <c:axId val="-712133456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4846,7 +4844,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-656970976"/>
+        <c:crossAx val="-712130192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5118,11 +5116,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="-657972800"/>
-        <c:axId val="-657985312"/>
+        <c:axId val="-712142704"/>
+        <c:axId val="-712130736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-657972800"/>
+        <c:axId val="-712142704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5167,7 +5165,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-657985312"/>
+        <c:crossAx val="-712130736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5175,7 +5173,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-657985312"/>
+        <c:axId val="-712130736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5225,7 +5223,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-657972800"/>
+        <c:crossAx val="-712142704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -9198,17 +9196,17 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="148">
+      <c r="B2" s="146">
         <v>2019</v>
       </c>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
       <c r="E2" s="71"/>
-      <c r="F2" s="154" t="s">
+      <c r="F2" s="152" t="s">
         <v>269</v>
       </c>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
@@ -9239,18 +9237,18 @@
         <v>83</v>
       </c>
       <c r="E3" s="72"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="8"/>
       <c r="N3" s="30"/>
-      <c r="O3" s="153"/>
-      <c r="P3" s="153"/>
-      <c r="Q3" s="153"/>
+      <c r="O3" s="151"/>
+      <c r="P3" s="151"/>
+      <c r="Q3" s="151"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
@@ -9272,18 +9270,18 @@
         <v>2004</v>
       </c>
       <c r="E4" s="27"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="31"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="153"/>
-      <c r="P4" s="153"/>
-      <c r="Q4" s="153"/>
+      <c r="O4" s="151"/>
+      <c r="P4" s="151"/>
+      <c r="Q4" s="151"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
@@ -9305,18 +9303,18 @@
         <v>2017</v>
       </c>
       <c r="E5" s="27"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="154"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
       <c r="I5" s="8"/>
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="153"/>
-      <c r="P5" s="153"/>
-      <c r="Q5" s="153"/>
+      <c r="O5" s="151"/>
+      <c r="P5" s="151"/>
+      <c r="Q5" s="151"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
@@ -9338,18 +9336,18 @@
         <v>2017</v>
       </c>
       <c r="E6" s="27"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="152"/>
       <c r="I6" s="8"/>
       <c r="J6" s="31"/>
       <c r="K6" s="31"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="153"/>
-      <c r="P6" s="153"/>
-      <c r="Q6" s="153"/>
+      <c r="O6" s="151"/>
+      <c r="P6" s="151"/>
+      <c r="Q6" s="151"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
@@ -9371,18 +9369,18 @@
         <v>2017</v>
       </c>
       <c r="E7" s="27"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="154"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="152"/>
       <c r="I7" s="8"/>
       <c r="J7" s="31"/>
       <c r="K7" s="31"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="153"/>
-      <c r="P7" s="153"/>
-      <c r="Q7" s="153"/>
+      <c r="O7" s="151"/>
+      <c r="P7" s="151"/>
+      <c r="Q7" s="151"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
@@ -9404,18 +9402,18 @@
         <v>2017</v>
       </c>
       <c r="E8" s="27"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="152"/>
       <c r="I8" s="8"/>
       <c r="J8" s="31"/>
       <c r="K8" s="31"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="153"/>
-      <c r="P8" s="153"/>
-      <c r="Q8" s="153"/>
+      <c r="O8" s="151"/>
+      <c r="P8" s="151"/>
+      <c r="Q8" s="151"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
@@ -9437,18 +9435,18 @@
         <v>2016</v>
       </c>
       <c r="E9" s="27"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="154"/>
-      <c r="H9" s="154"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="152"/>
       <c r="I9" s="8"/>
       <c r="J9" s="31"/>
       <c r="K9" s="31"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="153"/>
-      <c r="P9" s="153"/>
-      <c r="Q9" s="153"/>
+      <c r="O9" s="151"/>
+      <c r="P9" s="151"/>
+      <c r="Q9" s="151"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
@@ -9470,18 +9468,18 @@
         <v>2017</v>
       </c>
       <c r="E10" s="27"/>
-      <c r="F10" s="154"/>
-      <c r="G10" s="154"/>
-      <c r="H10" s="154"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="152"/>
       <c r="I10" s="8"/>
       <c r="J10" s="31"/>
       <c r="K10" s="31"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="7"/>
-      <c r="O10" s="153"/>
-      <c r="P10" s="153"/>
-      <c r="Q10" s="153"/>
+      <c r="O10" s="151"/>
+      <c r="P10" s="151"/>
+      <c r="Q10" s="151"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
@@ -9503,18 +9501,18 @@
         <v>2016</v>
       </c>
       <c r="E11" s="27"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="154"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="152"/>
       <c r="I11" s="8"/>
       <c r="J11" s="31"/>
       <c r="K11" s="31"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="153"/>
-      <c r="P11" s="153"/>
-      <c r="Q11" s="153"/>
+      <c r="O11" s="151"/>
+      <c r="P11" s="151"/>
+      <c r="Q11" s="151"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
@@ -9536,18 +9534,18 @@
         <v>2017</v>
       </c>
       <c r="E12" s="27"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="154"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="152"/>
       <c r="I12" s="8"/>
       <c r="J12" s="31"/>
       <c r="K12" s="31"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="153"/>
-      <c r="P12" s="153"/>
-      <c r="Q12" s="153"/>
+      <c r="O12" s="151"/>
+      <c r="P12" s="151"/>
+      <c r="Q12" s="151"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
@@ -9569,18 +9567,18 @@
         <v>2009</v>
       </c>
       <c r="E13" s="27"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="154"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="152"/>
       <c r="I13" s="8"/>
       <c r="J13" s="31"/>
       <c r="K13" s="31"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="153"/>
-      <c r="P13" s="153"/>
-      <c r="Q13" s="153"/>
+      <c r="O13" s="151"/>
+      <c r="P13" s="151"/>
+      <c r="Q13" s="151"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
@@ -9602,18 +9600,18 @@
         <v>2019</v>
       </c>
       <c r="E14" s="27"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="154"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
       <c r="I14" s="8"/>
       <c r="J14" s="31"/>
       <c r="K14" s="31"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="153"/>
-      <c r="P14" s="153"/>
-      <c r="Q14" s="153"/>
+      <c r="O14" s="151"/>
+      <c r="P14" s="151"/>
+      <c r="Q14" s="151"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
@@ -9635,18 +9633,18 @@
         <v>2019</v>
       </c>
       <c r="E15" s="27"/>
-      <c r="F15" s="154"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="154"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
       <c r="I15" s="8"/>
       <c r="J15" s="31"/>
       <c r="K15" s="31"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="153"/>
-      <c r="P15" s="153"/>
-      <c r="Q15" s="153"/>
+      <c r="O15" s="151"/>
+      <c r="P15" s="151"/>
+      <c r="Q15" s="151"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
@@ -9671,9 +9669,9 @@
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
-      <c r="O16" s="153"/>
-      <c r="P16" s="153"/>
-      <c r="Q16" s="153"/>
+      <c r="O16" s="151"/>
+      <c r="P16" s="151"/>
+      <c r="Q16" s="151"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
@@ -9684,9 +9682,9 @@
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
-      <c r="B17" s="150"/>
-      <c r="C17" s="150"/>
-      <c r="D17" s="150"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="148"/>
       <c r="E17" s="6"/>
       <c r="F17" s="8"/>
       <c r="G17" s="7"/>
@@ -9711,9 +9709,9 @@
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
-      <c r="B18" s="150"/>
-      <c r="C18" s="150"/>
-      <c r="D18" s="150"/>
+      <c r="B18" s="148"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="148"/>
       <c r="E18" s="6"/>
       <c r="F18" s="8"/>
       <c r="G18" s="7"/>
@@ -9723,8 +9721,8 @@
       <c r="K18" s="31"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
-      <c r="N18" s="151"/>
-      <c r="O18" s="152"/>
+      <c r="N18" s="149"/>
+      <c r="O18" s="150"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
@@ -9738,9 +9736,9 @@
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
-      <c r="B19" s="150"/>
-      <c r="C19" s="150"/>
-      <c r="D19" s="150"/>
+      <c r="B19" s="148"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="148"/>
       <c r="E19" s="6"/>
       <c r="F19" s="8"/>
       <c r="G19" s="7"/>
@@ -9750,8 +9748,8 @@
       <c r="K19" s="31"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
-      <c r="N19" s="152"/>
-      <c r="O19" s="152"/>
+      <c r="N19" s="150"/>
+      <c r="O19" s="150"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
@@ -9777,8 +9775,8 @@
       <c r="K20" s="31"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
-      <c r="N20" s="152"/>
-      <c r="O20" s="152"/>
+      <c r="N20" s="150"/>
+      <c r="O20" s="150"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
@@ -9804,8 +9802,8 @@
       <c r="K21" s="31"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
-      <c r="N21" s="152"/>
-      <c r="O21" s="152"/>
+      <c r="N21" s="150"/>
+      <c r="O21" s="150"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
@@ -9831,8 +9829,8 @@
       <c r="K22" s="31"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
-      <c r="N22" s="152"/>
-      <c r="O22" s="152"/>
+      <c r="N22" s="150"/>
+      <c r="O22" s="150"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
@@ -10319,7 +10317,7 @@
   <dimension ref="A1:Y159"/>
   <sheetViews>
     <sheetView topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11016,8 +11014,8 @@
         <v>11</v>
       </c>
       <c r="I17" s="8"/>
-      <c r="J17" s="156"/>
-      <c r="K17" s="157"/>
+      <c r="J17" s="154"/>
+      <c r="K17" s="155"/>
       <c r="L17" s="8"/>
       <c r="M17" s="40"/>
       <c r="N17" s="41"/>
@@ -11055,8 +11053,8 @@
         <v>1</v>
       </c>
       <c r="I18" s="8"/>
-      <c r="J18" s="155"/>
-      <c r="K18" s="155"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="153"/>
       <c r="L18" s="8"/>
       <c r="M18" s="40"/>
       <c r="N18" s="41"/>
@@ -15105,8 +15103,8 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:AY296"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15273,7 +15271,7 @@
         <v>4.197916666666667</v>
       </c>
       <c r="H3" s="8"/>
-      <c r="I3" s="161" t="s">
+      <c r="I3" s="159" t="s">
         <v>124</v>
       </c>
       <c r="J3" s="84" t="s">
@@ -15344,7 +15342,7 @@
         <v>0.30138888888888887</v>
       </c>
       <c r="H4" s="8"/>
-      <c r="I4" s="162"/>
+      <c r="I4" s="160"/>
       <c r="J4" s="57" t="s">
         <v>133</v>
       </c>
@@ -15413,7 +15411,7 @@
         <v>0.2076388888888889</v>
       </c>
       <c r="H5" s="8"/>
-      <c r="I5" s="162"/>
+      <c r="I5" s="160"/>
       <c r="J5" s="77" t="s">
         <v>138</v>
       </c>
@@ -15482,7 +15480,7 @@
         <v>1.2437499999999999</v>
       </c>
       <c r="H6" s="8"/>
-      <c r="I6" s="162"/>
+      <c r="I6" s="160"/>
       <c r="J6" s="57" t="s">
         <v>135</v>
       </c>
@@ -15551,7 +15549,7 @@
         <v>0.27916666666666667</v>
       </c>
       <c r="H7" s="8"/>
-      <c r="I7" s="162"/>
+      <c r="I7" s="160"/>
       <c r="J7" s="77" t="s">
         <v>142</v>
       </c>
@@ -15620,7 +15618,7 @@
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="H8" s="8"/>
-      <c r="I8" s="162"/>
+      <c r="I8" s="160"/>
       <c r="J8" s="57" t="s">
         <v>143</v>
       </c>
@@ -15689,7 +15687,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="H9" s="8"/>
-      <c r="I9" s="161" t="s">
+      <c r="I9" s="159" t="s">
         <v>125</v>
       </c>
       <c r="J9" s="75" t="s">
@@ -15760,7 +15758,7 @@
         <v>0.19027777777777777</v>
       </c>
       <c r="H10" s="8"/>
-      <c r="I10" s="162"/>
+      <c r="I10" s="160"/>
       <c r="J10" s="57" t="s">
         <v>133</v>
       </c>
@@ -15829,7 +15827,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="H11" s="8"/>
-      <c r="I11" s="162"/>
+      <c r="I11" s="160"/>
       <c r="J11" s="77" t="s">
         <v>138</v>
       </c>
@@ -15898,7 +15896,7 @@
         <v>1.7097222222222221</v>
       </c>
       <c r="H12" s="8"/>
-      <c r="I12" s="162"/>
+      <c r="I12" s="160"/>
       <c r="J12" s="57" t="s">
         <v>135</v>
       </c>
@@ -15967,7 +15965,7 @@
         <v>0.15972222222222224</v>
       </c>
       <c r="H13" s="8"/>
-      <c r="I13" s="162"/>
+      <c r="I13" s="160"/>
       <c r="J13" s="77" t="s">
         <v>147</v>
       </c>
@@ -16036,7 +16034,7 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="H14" s="8"/>
-      <c r="I14" s="161" t="s">
+      <c r="I14" s="159" t="s">
         <v>126</v>
       </c>
       <c r="J14" s="11" t="s">
@@ -16107,7 +16105,7 @@
         <v>0.59652777777777777</v>
       </c>
       <c r="H15" s="8"/>
-      <c r="I15" s="162"/>
+      <c r="I15" s="160"/>
       <c r="J15" s="77" t="s">
         <v>133</v>
       </c>
@@ -16176,7 +16174,7 @@
         <v>14</v>
       </c>
       <c r="H16" s="8"/>
-      <c r="I16" s="162"/>
+      <c r="I16" s="160"/>
       <c r="J16" s="57" t="s">
         <v>138</v>
       </c>
@@ -16245,7 +16243,7 @@
         <v>14</v>
       </c>
       <c r="H17" s="8"/>
-      <c r="I17" s="162"/>
+      <c r="I17" s="160"/>
       <c r="J17" s="77" t="s">
         <v>135</v>
       </c>
@@ -16314,7 +16312,7 @@
         <v>0.24583333333333335</v>
       </c>
       <c r="H18" s="8"/>
-      <c r="I18" s="162"/>
+      <c r="I18" s="160"/>
       <c r="J18" s="57" t="s">
         <v>150</v>
       </c>
@@ -16383,7 +16381,7 @@
         <v>0.49513888888888885</v>
       </c>
       <c r="H19" s="8"/>
-      <c r="I19" s="163"/>
+      <c r="I19" s="161"/>
       <c r="J19" s="80" t="s">
         <v>156</v>
       </c>
@@ -16452,7 +16450,7 @@
         <v>0.20972222222222223</v>
       </c>
       <c r="H20" s="8"/>
-      <c r="I20" s="161" t="s">
+      <c r="I20" s="159" t="s">
         <v>149</v>
       </c>
       <c r="J20" s="11" t="s">
@@ -16523,7 +16521,7 @@
         <v>0.25486111111111109</v>
       </c>
       <c r="H21" s="8"/>
-      <c r="I21" s="163"/>
+      <c r="I21" s="161"/>
       <c r="J21" s="80" t="s">
         <v>147</v>
       </c>
@@ -16602,7 +16600,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="H22" s="8"/>
-      <c r="I22" s="162" t="s">
+      <c r="I22" s="160" t="s">
         <v>167</v>
       </c>
       <c r="J22" s="57" t="s">
@@ -16685,7 +16683,7 @@
         <v>0.26944444444444443</v>
       </c>
       <c r="H23" s="8"/>
-      <c r="I23" s="162"/>
+      <c r="I23" s="160"/>
       <c r="J23" s="84" t="s">
         <v>175</v>
       </c>
@@ -16766,7 +16764,7 @@
         <v>0.3263888888888889</v>
       </c>
       <c r="H24" s="40"/>
-      <c r="I24" s="162"/>
+      <c r="I24" s="160"/>
       <c r="J24" s="57" t="s">
         <v>169</v>
       </c>
@@ -16847,7 +16845,7 @@
         <v>0.32847222222222222</v>
       </c>
       <c r="H25" s="41"/>
-      <c r="I25" s="162"/>
+      <c r="I25" s="160"/>
       <c r="J25" s="77" t="s">
         <v>147</v>
       </c>
@@ -16928,7 +16926,7 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="H26" s="41"/>
-      <c r="I26" s="163"/>
+      <c r="I26" s="161"/>
       <c r="J26" s="12" t="s">
         <v>168</v>
       </c>
@@ -17009,7 +17007,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="H27" s="41"/>
-      <c r="I27" s="161" t="s">
+      <c r="I27" s="159" t="s">
         <v>177</v>
       </c>
       <c r="J27" s="77" t="s">
@@ -17092,7 +17090,7 @@
         <v>0.22291666666666665</v>
       </c>
       <c r="H28" s="41"/>
-      <c r="I28" s="162"/>
+      <c r="I28" s="160"/>
       <c r="J28" s="105" t="s">
         <v>169</v>
       </c>
@@ -17173,7 +17171,7 @@
         <v>0.13194444444444445</v>
       </c>
       <c r="H29" s="41"/>
-      <c r="I29" s="162"/>
+      <c r="I29" s="160"/>
       <c r="J29" s="77" t="s">
         <v>30</v>
       </c>
@@ -17254,7 +17252,7 @@
         <v>14</v>
       </c>
       <c r="H30" s="41"/>
-      <c r="I30" s="162"/>
+      <c r="I30" s="160"/>
       <c r="J30" s="105" t="s">
         <v>142</v>
       </c>
@@ -17335,7 +17333,7 @@
         <v>0.43888888888888888</v>
       </c>
       <c r="H31" s="41"/>
-      <c r="I31" s="163"/>
+      <c r="I31" s="161"/>
       <c r="J31" s="77" t="s">
         <v>147</v>
       </c>
@@ -17416,7 +17414,7 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="H32" s="41"/>
-      <c r="I32" s="161" t="s">
+      <c r="I32" s="159" t="s">
         <v>190</v>
       </c>
       <c r="J32" s="111" t="s">
@@ -17499,7 +17497,7 @@
         <v>2.7097222222222221</v>
       </c>
       <c r="H33" s="41"/>
-      <c r="I33" s="162"/>
+      <c r="I33" s="160"/>
       <c r="J33" s="77" t="s">
         <v>185</v>
       </c>
@@ -17582,7 +17580,7 @@
         <v>14</v>
       </c>
       <c r="H34" s="41"/>
-      <c r="I34" s="162"/>
+      <c r="I34" s="160"/>
       <c r="J34" s="57" t="s">
         <v>205</v>
       </c>
@@ -17662,7 +17660,7 @@
         <v>0.11041666666666666</v>
       </c>
       <c r="H35" s="41"/>
-      <c r="I35" s="162"/>
+      <c r="I35" s="160"/>
       <c r="J35" s="84" t="s">
         <v>204</v>
       </c>
@@ -17731,7 +17729,7 @@
         <v>0.37083333333333335</v>
       </c>
       <c r="H36" s="41"/>
-      <c r="I36" s="162"/>
+      <c r="I36" s="160"/>
       <c r="J36" s="57" t="s">
         <v>147</v>
       </c>
@@ -17739,9 +17737,9 @@
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="L36" s="41"/>
-      <c r="M36" s="164"/>
-      <c r="N36" s="164"/>
-      <c r="O36" s="164"/>
+      <c r="M36" s="162"/>
+      <c r="N36" s="162"/>
+      <c r="O36" s="162"/>
       <c r="P36" s="129"/>
       <c r="Q36" s="43"/>
       <c r="R36" s="43"/>
@@ -17800,7 +17798,7 @@
         <v>0.80694444444444446</v>
       </c>
       <c r="H37" s="41"/>
-      <c r="I37" s="162"/>
+      <c r="I37" s="160"/>
       <c r="J37" s="84" t="s">
         <v>202</v>
       </c>
@@ -17808,9 +17806,9 @@
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="L37" s="41"/>
-      <c r="M37" s="164"/>
-      <c r="N37" s="164"/>
-      <c r="O37" s="164"/>
+      <c r="M37" s="162"/>
+      <c r="N37" s="162"/>
+      <c r="O37" s="162"/>
       <c r="P37" s="129"/>
       <c r="Q37" s="43"/>
       <c r="R37" s="43"/>
@@ -17869,7 +17867,7 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="H38" s="41"/>
-      <c r="I38" s="163"/>
+      <c r="I38" s="161"/>
       <c r="J38" s="12" t="s">
         <v>208</v>
       </c>
@@ -17877,9 +17875,9 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="L38" s="41"/>
-      <c r="M38" s="164"/>
-      <c r="N38" s="164"/>
-      <c r="O38" s="164"/>
+      <c r="M38" s="162"/>
+      <c r="N38" s="162"/>
+      <c r="O38" s="162"/>
       <c r="P38" s="129"/>
       <c r="Q38" s="43"/>
       <c r="R38" s="43"/>
@@ -17926,7 +17924,7 @@
       <c r="F39" s="31"/>
       <c r="G39" s="64"/>
       <c r="H39" s="41"/>
-      <c r="I39" s="161" t="s">
+      <c r="I39" s="159" t="s">
         <v>217</v>
       </c>
       <c r="J39" s="120" t="s">
@@ -17936,9 +17934,9 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="L39" s="41"/>
-      <c r="M39" s="164"/>
-      <c r="N39" s="164"/>
-      <c r="O39" s="164"/>
+      <c r="M39" s="162"/>
+      <c r="N39" s="162"/>
+      <c r="O39" s="162"/>
       <c r="P39" s="128"/>
       <c r="Q39" s="43"/>
       <c r="R39" s="43"/>
@@ -17985,7 +17983,7 @@
       <c r="F40" s="40"/>
       <c r="G40" s="65"/>
       <c r="H40" s="41"/>
-      <c r="I40" s="162"/>
+      <c r="I40" s="160"/>
       <c r="J40" s="117" t="s">
         <v>218</v>
       </c>
@@ -17993,9 +17991,9 @@
         <v>0.3666666666666667</v>
       </c>
       <c r="L40" s="41"/>
-      <c r="M40" s="164"/>
-      <c r="N40" s="164"/>
-      <c r="O40" s="164"/>
+      <c r="M40" s="162"/>
+      <c r="N40" s="162"/>
+      <c r="O40" s="162"/>
       <c r="P40" s="128"/>
       <c r="Q40" s="43"/>
       <c r="R40" s="43"/>
@@ -18041,7 +18039,7 @@
       <c r="F41" s="31"/>
       <c r="G41" s="64"/>
       <c r="H41" s="41"/>
-      <c r="I41" s="162"/>
+      <c r="I41" s="160"/>
       <c r="J41" s="116" t="s">
         <v>185</v>
       </c>
@@ -18049,9 +18047,9 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="L41" s="41"/>
-      <c r="M41" s="164"/>
-      <c r="N41" s="164"/>
-      <c r="O41" s="164"/>
+      <c r="M41" s="162"/>
+      <c r="N41" s="162"/>
+      <c r="O41" s="162"/>
       <c r="P41" s="128"/>
       <c r="Q41" s="43"/>
       <c r="R41" s="43"/>
@@ -18098,7 +18096,7 @@
       <c r="F42" s="31"/>
       <c r="G42" s="64"/>
       <c r="H42" s="41"/>
-      <c r="I42" s="162"/>
+      <c r="I42" s="160"/>
       <c r="J42" s="118" t="s">
         <v>142</v>
       </c>
@@ -18155,7 +18153,7 @@
       <c r="F43" s="41"/>
       <c r="G43" s="66"/>
       <c r="H43" s="41"/>
-      <c r="I43" s="162"/>
+      <c r="I43" s="160"/>
       <c r="J43" s="116" t="s">
         <v>220</v>
       </c>
@@ -18212,7 +18210,7 @@
       <c r="F44" s="41"/>
       <c r="G44" s="66"/>
       <c r="H44" s="41"/>
-      <c r="I44" s="162"/>
+      <c r="I44" s="160"/>
       <c r="J44" s="117" t="s">
         <v>221</v>
       </c>
@@ -18269,7 +18267,7 @@
       <c r="F45" s="41"/>
       <c r="G45" s="66"/>
       <c r="H45" s="41"/>
-      <c r="I45" s="163"/>
+      <c r="I45" s="161"/>
       <c r="J45" s="119" t="s">
         <v>147</v>
       </c>
@@ -18326,7 +18324,7 @@
       <c r="F46" s="41"/>
       <c r="G46" s="66"/>
       <c r="H46" s="41"/>
-      <c r="I46" s="158" t="s">
+      <c r="I46" s="156" t="s">
         <v>225</v>
       </c>
       <c r="J46" s="123" t="s">
@@ -18385,7 +18383,7 @@
       <c r="F47" s="41"/>
       <c r="G47" s="66"/>
       <c r="H47" s="41"/>
-      <c r="I47" s="159"/>
+      <c r="I47" s="157"/>
       <c r="J47" s="84" t="s">
         <v>185</v>
       </c>
@@ -18442,7 +18440,7 @@
       <c r="F48" s="41"/>
       <c r="G48" s="66"/>
       <c r="H48" s="41"/>
-      <c r="I48" s="159"/>
+      <c r="I48" s="157"/>
       <c r="J48" s="105" t="s">
         <v>142</v>
       </c>
@@ -18499,7 +18497,7 @@
       <c r="F49" s="41"/>
       <c r="G49" s="66"/>
       <c r="H49" s="41"/>
-      <c r="I49" s="160"/>
+      <c r="I49" s="158"/>
       <c r="J49" s="124" t="s">
         <v>221</v>
       </c>
@@ -18556,7 +18554,7 @@
       <c r="F50" s="41"/>
       <c r="G50" s="41"/>
       <c r="H50" s="41"/>
-      <c r="I50" s="158" t="s">
+      <c r="I50" s="156" t="s">
         <v>240</v>
       </c>
       <c r="J50" s="125" t="s">
@@ -18615,7 +18613,7 @@
       <c r="F51" s="41"/>
       <c r="G51" s="41"/>
       <c r="H51" s="41"/>
-      <c r="I51" s="159"/>
+      <c r="I51" s="157"/>
       <c r="J51" s="126" t="s">
         <v>185</v>
       </c>
@@ -18672,7 +18670,7 @@
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
       <c r="H52" s="41"/>
-      <c r="I52" s="159"/>
+      <c r="I52" s="157"/>
       <c r="J52" s="118" t="s">
         <v>243</v>
       </c>
@@ -18729,7 +18727,7 @@
       <c r="F53" s="41"/>
       <c r="G53" s="41"/>
       <c r="H53" s="41"/>
-      <c r="I53" s="160"/>
+      <c r="I53" s="158"/>
       <c r="J53" s="119" t="s">
         <v>219</v>
       </c>
@@ -18786,7 +18784,7 @@
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
       <c r="H54" s="41"/>
-      <c r="I54" s="158" t="s">
+      <c r="I54" s="156" t="s">
         <v>251</v>
       </c>
       <c r="J54" s="125" t="s">
@@ -18845,7 +18843,7 @@
       <c r="F55" s="41"/>
       <c r="G55" s="41"/>
       <c r="H55" s="41"/>
-      <c r="I55" s="159"/>
+      <c r="I55" s="157"/>
       <c r="J55" s="126" t="s">
         <v>250</v>
       </c>
@@ -18902,7 +18900,7 @@
       <c r="F56" s="41"/>
       <c r="G56" s="41"/>
       <c r="H56" s="41"/>
-      <c r="I56" s="159"/>
+      <c r="I56" s="157"/>
       <c r="J56" s="118" t="s">
         <v>30</v>
       </c>
@@ -18959,7 +18957,7 @@
       <c r="F57" s="41"/>
       <c r="G57" s="41"/>
       <c r="H57" s="41"/>
-      <c r="I57" s="160"/>
+      <c r="I57" s="158"/>
       <c r="J57" s="119" t="s">
         <v>205</v>
       </c>
@@ -19016,7 +19014,7 @@
       <c r="F58" s="41"/>
       <c r="G58" s="41"/>
       <c r="H58" s="41"/>
-      <c r="I58" s="158" t="s">
+      <c r="I58" s="156" t="s">
         <v>254</v>
       </c>
       <c r="J58" s="125" t="s">
@@ -19075,7 +19073,7 @@
       <c r="F59" s="41"/>
       <c r="G59" s="41"/>
       <c r="H59" s="41"/>
-      <c r="I59" s="159"/>
+      <c r="I59" s="157"/>
       <c r="J59" s="126" t="s">
         <v>243</v>
       </c>
@@ -19132,7 +19130,7 @@
       <c r="F60" s="41"/>
       <c r="G60" s="41"/>
       <c r="H60" s="41"/>
-      <c r="I60" s="159"/>
+      <c r="I60" s="157"/>
       <c r="J60" s="118" t="s">
         <v>250</v>
       </c>
@@ -19189,7 +19187,7 @@
       <c r="F61" s="41"/>
       <c r="G61" s="41"/>
       <c r="H61" s="41"/>
-      <c r="I61" s="159"/>
+      <c r="I61" s="157"/>
       <c r="J61" s="126" t="s">
         <v>253</v>
       </c>
@@ -19246,7 +19244,7 @@
       <c r="F62" s="41"/>
       <c r="G62" s="41"/>
       <c r="H62" s="41"/>
-      <c r="I62" s="159"/>
+      <c r="I62" s="157"/>
       <c r="J62" s="118" t="s">
         <v>30</v>
       </c>
@@ -19303,7 +19301,7 @@
       <c r="F63" s="41"/>
       <c r="G63" s="41"/>
       <c r="H63" s="41"/>
-      <c r="I63" s="160"/>
+      <c r="I63" s="158"/>
       <c r="J63" s="119" t="s">
         <v>205</v>
       </c>
@@ -24991,29 +24989,29 @@
   <dimension ref="A1:V153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="3.140625" style="137" customWidth="1"/>
-    <col min="3" max="3" width="30" style="137" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="137" customWidth="1"/>
-    <col min="5" max="6" width="12.85546875" style="137" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="137" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" style="137" customWidth="1"/>
-    <col min="9" max="9" width="30" style="137" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="137" customWidth="1"/>
-    <col min="11" max="11" width="3.140625" style="137" customWidth="1"/>
-    <col min="12" max="12" width="30" style="137" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" style="137" customWidth="1"/>
-    <col min="14" max="14" width="3.140625" style="137" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" style="137" customWidth="1"/>
-    <col min="16" max="18" width="10" style="137" customWidth="1"/>
-    <col min="19" max="19" width="3.140625" style="137" customWidth="1"/>
-    <col min="20" max="20" width="42.85546875" style="137" customWidth="1"/>
-    <col min="21" max="21" width="3.140625" style="137" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="137"/>
+    <col min="1" max="2" width="3.140625" style="136" customWidth="1"/>
+    <col min="3" max="3" width="30" style="136" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="136" customWidth="1"/>
+    <col min="5" max="6" width="12.85546875" style="136" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="136" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" style="136" customWidth="1"/>
+    <col min="9" max="9" width="30" style="136" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="136" customWidth="1"/>
+    <col min="11" max="11" width="3.140625" style="136" customWidth="1"/>
+    <col min="12" max="12" width="30" style="136" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="136" customWidth="1"/>
+    <col min="14" max="14" width="3.140625" style="136" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" style="136" customWidth="1"/>
+    <col min="16" max="18" width="10" style="136" customWidth="1"/>
+    <col min="19" max="19" width="3.140625" style="136" customWidth="1"/>
+    <col min="20" max="20" width="42.85546875" style="136" customWidth="1"/>
+    <col min="21" max="21" width="3.140625" style="136" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="136"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25061,15 +25059,15 @@
         <v>21</v>
       </c>
       <c r="H2" s="8"/>
-      <c r="I2" s="165" t="s">
+      <c r="I2" s="163" t="s">
         <v>292</v>
       </c>
-      <c r="J2" s="167"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="167" t="s">
+      <c r="J2" s="165"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="165" t="s">
         <v>293</v>
       </c>
-      <c r="M2" s="166"/>
+      <c r="M2" s="164"/>
       <c r="N2" s="41"/>
       <c r="O2" s="40"/>
       <c r="P2" s="41"/>
@@ -25104,11 +25102,11 @@
       <c r="I3" s="126" t="s">
         <v>185</v>
       </c>
-      <c r="J3" s="139">
+      <c r="J3" s="138">
         <v>4.5833333333333337E-2</v>
       </c>
-      <c r="K3" s="145"/>
-      <c r="L3" s="138" t="s">
+      <c r="K3" s="144"/>
+      <c r="L3" s="137" t="s">
         <v>26</v>
       </c>
       <c r="M3" s="76">
@@ -25148,10 +25146,10 @@
       <c r="I4" s="117" t="s">
         <v>250</v>
       </c>
-      <c r="J4" s="140">
+      <c r="J4" s="139">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K4" s="145"/>
+      <c r="K4" s="144"/>
       <c r="L4" s="105" t="s">
         <v>218</v>
       </c>
@@ -25192,10 +25190,10 @@
       <c r="I5" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="139">
+      <c r="J5" s="138">
         <v>0.72986111111111107</v>
       </c>
-      <c r="K5" s="145"/>
+      <c r="K5" s="144"/>
       <c r="L5" s="77" t="s">
         <v>142</v>
       </c>
@@ -25236,10 +25234,10 @@
       <c r="I6" s="117" t="s">
         <v>202</v>
       </c>
-      <c r="J6" s="140">
+      <c r="J6" s="139">
         <v>6.5972222222222224E-2</v>
       </c>
-      <c r="K6" s="145"/>
+      <c r="K6" s="144"/>
       <c r="L6" s="57" t="s">
         <v>277</v>
       </c>
@@ -25277,14 +25275,14 @@
         <v>2.7097222222222221</v>
       </c>
       <c r="H7" s="8"/>
-      <c r="I7" s="142" t="s">
+      <c r="I7" s="141" t="s">
         <v>277</v>
       </c>
-      <c r="J7" s="141">
+      <c r="J7" s="140">
         <v>0.1763888888888889</v>
       </c>
-      <c r="K7" s="145"/>
-      <c r="L7" s="141"/>
+      <c r="K7" s="144"/>
+      <c r="L7" s="140"/>
       <c r="M7" s="81"/>
       <c r="N7" s="41"/>
       <c r="O7" s="40"/>
@@ -25317,7 +25315,7 @@
         <v>0.32083333333333336</v>
       </c>
       <c r="H8" s="8"/>
-      <c r="K8" s="143"/>
+      <c r="K8" s="142"/>
       <c r="N8" s="41"/>
       <c r="O8" s="40"/>
       <c r="P8" s="41"/>
@@ -25349,15 +25347,15 @@
         <v>0.20416666666666669</v>
       </c>
       <c r="H9" s="8"/>
-      <c r="I9" s="165" t="s">
+      <c r="I9" s="163" t="s">
         <v>294</v>
       </c>
-      <c r="J9" s="167"/>
-      <c r="K9" s="144"/>
-      <c r="L9" s="167" t="s">
+      <c r="J9" s="165"/>
+      <c r="K9" s="143"/>
+      <c r="L9" s="165" t="s">
         <v>295</v>
       </c>
-      <c r="M9" s="166"/>
+      <c r="M9" s="164"/>
       <c r="N9" s="41"/>
       <c r="O9" s="40"/>
       <c r="P9" s="41"/>
@@ -25392,11 +25390,11 @@
       <c r="I10" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="139">
+      <c r="J10" s="138">
         <v>2.1409722222222221</v>
       </c>
-      <c r="K10" s="145"/>
-      <c r="L10" s="138" t="s">
+      <c r="K10" s="144"/>
+      <c r="L10" s="137" t="s">
         <v>26</v>
       </c>
       <c r="M10" s="76">
@@ -25434,8 +25432,8 @@
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="117"/>
-      <c r="J11" s="140"/>
-      <c r="K11" s="145"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="144"/>
       <c r="L11" s="105" t="s">
         <v>185</v>
       </c>
@@ -25474,8 +25472,8 @@
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="116"/>
-      <c r="J12" s="139"/>
-      <c r="K12" s="145"/>
+      <c r="J12" s="138"/>
+      <c r="K12" s="144"/>
       <c r="L12" s="77" t="s">
         <v>309</v>
       </c>
@@ -25514,10 +25512,10 @@
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="55"/>
-      <c r="J13" s="147"/>
+      <c r="J13" s="145"/>
       <c r="K13" s="64"/>
-      <c r="L13" s="147"/>
-      <c r="M13" s="147"/>
+      <c r="L13" s="145"/>
+      <c r="M13" s="145"/>
       <c r="N13" s="41"/>
       <c r="O13" s="40"/>
       <c r="P13" s="41"/>
@@ -25549,15 +25547,15 @@
         <v>0.15208333333333332</v>
       </c>
       <c r="H14" s="8"/>
-      <c r="I14" s="165" t="s">
+      <c r="I14" s="163" t="s">
         <v>296</v>
       </c>
-      <c r="J14" s="166"/>
-      <c r="K14" s="144"/>
-      <c r="L14" s="165" t="s">
+      <c r="J14" s="164"/>
+      <c r="K14" s="143"/>
+      <c r="L14" s="163" t="s">
         <v>297</v>
       </c>
-      <c r="M14" s="166"/>
+      <c r="M14" s="164"/>
       <c r="N14" s="41"/>
       <c r="O14" s="40"/>
       <c r="P14" s="41"/>
@@ -25592,11 +25590,11 @@
       <c r="I15" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="139">
+      <c r="J15" s="138">
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="K15" s="145"/>
-      <c r="L15" s="138" t="s">
+      <c r="K15" s="144"/>
+      <c r="L15" s="137" t="s">
         <v>312</v>
       </c>
       <c r="M15" s="76"/>
@@ -25634,10 +25632,10 @@
       <c r="I16" s="117" t="s">
         <v>316</v>
       </c>
-      <c r="J16" s="140">
+      <c r="J16" s="139">
         <v>5.8333333333333327E-2</v>
       </c>
-      <c r="K16" s="145"/>
+      <c r="K16" s="144"/>
       <c r="L16" s="105"/>
       <c r="M16" s="63"/>
       <c r="N16" s="41"/>
@@ -25652,22 +25650,32 @@
     </row>
     <row r="17" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
-      <c r="B17" s="70">
+      <c r="B17" s="74">
         <v>15</v>
       </c>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="81"/>
+      <c r="C17" s="77" t="s">
+        <v>326</v>
+      </c>
+      <c r="D17" s="77">
+        <v>2019</v>
+      </c>
+      <c r="E17" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="79">
+        <v>0.56944444444444442</v>
+      </c>
       <c r="H17" s="8"/>
       <c r="I17" s="116" t="s">
         <v>312</v>
       </c>
-      <c r="J17" s="139">
+      <c r="J17" s="138">
         <v>0.35138888888888892</v>
       </c>
-      <c r="K17" s="145"/>
+      <c r="K17" s="144"/>
       <c r="L17" s="77"/>
       <c r="M17" s="79"/>
       <c r="N17" s="41"/>
@@ -25682,20 +25690,22 @@
     </row>
     <row r="18" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="64"/>
+      <c r="B18" s="82">
+        <v>16</v>
+      </c>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="63"/>
       <c r="H18" s="8"/>
       <c r="I18" s="117" t="s">
         <v>309</v>
       </c>
-      <c r="J18" s="140">
+      <c r="J18" s="139">
         <v>4.5138888888888888E-2</v>
       </c>
-      <c r="K18" s="145"/>
+      <c r="K18" s="144"/>
       <c r="L18" s="57"/>
       <c r="M18" s="63"/>
       <c r="N18" s="41"/>
@@ -25710,21 +25720,23 @@
     </row>
     <row r="19" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="64"/>
+      <c r="B19" s="74">
+        <v>17</v>
+      </c>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="79"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="142" t="s">
+      <c r="I19" s="141" t="s">
         <v>147</v>
       </c>
-      <c r="J19" s="141">
+      <c r="J19" s="140">
         <v>0.12361111111111112</v>
       </c>
-      <c r="K19" s="145"/>
-      <c r="L19" s="141"/>
+      <c r="K19" s="144"/>
+      <c r="L19" s="140"/>
       <c r="M19" s="81"/>
       <c r="N19" s="41"/>
       <c r="O19" s="40"/>
@@ -25738,14 +25750,16 @@
     </row>
     <row r="20" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="64"/>
+      <c r="B20" s="82">
+        <v>18</v>
+      </c>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="63"/>
       <c r="H20" s="8"/>
-      <c r="K20" s="143"/>
+      <c r="K20" s="142"/>
       <c r="N20" s="41"/>
       <c r="O20" s="40"/>
       <c r="P20" s="41"/>
@@ -25758,22 +25772,24 @@
     </row>
     <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="64"/>
+      <c r="B21" s="74">
+        <v>19</v>
+      </c>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="79"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="165" t="s">
+      <c r="I21" s="163" t="s">
         <v>298</v>
       </c>
-      <c r="J21" s="166"/>
-      <c r="K21" s="144"/>
-      <c r="L21" s="165" t="s">
+      <c r="J21" s="164"/>
+      <c r="K21" s="143"/>
+      <c r="L21" s="163" t="s">
         <v>299</v>
       </c>
-      <c r="M21" s="166"/>
+      <c r="M21" s="164"/>
       <c r="N21" s="41"/>
       <c r="O21" s="93" t="s">
         <v>32</v>
@@ -25796,17 +25812,19 @@
     </row>
     <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="64"/>
+      <c r="B22" s="127">
+        <v>20</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="106"/>
       <c r="H22" s="8"/>
       <c r="I22" s="126"/>
-      <c r="J22" s="139"/>
-      <c r="K22" s="145"/>
-      <c r="L22" s="138"/>
+      <c r="J22" s="138"/>
+      <c r="K22" s="144"/>
+      <c r="L22" s="137"/>
       <c r="M22" s="76"/>
       <c r="N22" s="41"/>
       <c r="O22" s="67" t="s">
@@ -25840,8 +25858,8 @@
       <c r="G23" s="64"/>
       <c r="H23" s="8"/>
       <c r="I23" s="117"/>
-      <c r="J23" s="140"/>
-      <c r="K23" s="145"/>
+      <c r="J23" s="139"/>
+      <c r="K23" s="144"/>
       <c r="L23" s="105"/>
       <c r="M23" s="63"/>
       <c r="N23" s="41"/>
@@ -25876,8 +25894,8 @@
       <c r="G24" s="64"/>
       <c r="H24" s="40"/>
       <c r="I24" s="116"/>
-      <c r="J24" s="139"/>
-      <c r="K24" s="145"/>
+      <c r="J24" s="138"/>
+      <c r="K24" s="144"/>
       <c r="L24" s="77"/>
       <c r="M24" s="79"/>
       <c r="N24" s="41"/>
@@ -25912,8 +25930,8 @@
       <c r="G25" s="64"/>
       <c r="H25" s="41"/>
       <c r="I25" s="117"/>
-      <c r="J25" s="140"/>
-      <c r="K25" s="145"/>
+      <c r="J25" s="139"/>
+      <c r="K25" s="144"/>
       <c r="L25" s="57"/>
       <c r="M25" s="63"/>
       <c r="N25" s="41"/>
@@ -25947,10 +25965,10 @@
       <c r="F26" s="31"/>
       <c r="G26" s="64"/>
       <c r="H26" s="41"/>
-      <c r="I26" s="142"/>
-      <c r="J26" s="141"/>
-      <c r="K26" s="145"/>
-      <c r="L26" s="141"/>
+      <c r="I26" s="141"/>
+      <c r="J26" s="140"/>
+      <c r="K26" s="144"/>
+      <c r="L26" s="140"/>
       <c r="M26" s="81"/>
       <c r="N26" s="41"/>
       <c r="O26" s="97" t="s">
@@ -25983,7 +26001,7 @@
       <c r="F27" s="31"/>
       <c r="G27" s="64"/>
       <c r="H27" s="41"/>
-      <c r="K27" s="143"/>
+      <c r="K27" s="142"/>
       <c r="N27" s="41"/>
       <c r="O27" s="98" t="s">
         <v>38</v>
@@ -26007,15 +26025,15 @@
       <c r="F28" s="31"/>
       <c r="G28" s="64"/>
       <c r="H28" s="41"/>
-      <c r="I28" s="165" t="s">
+      <c r="I28" s="163" t="s">
         <v>300</v>
       </c>
-      <c r="J28" s="166"/>
-      <c r="K28" s="144"/>
-      <c r="L28" s="165" t="s">
+      <c r="J28" s="164"/>
+      <c r="K28" s="143"/>
+      <c r="L28" s="163" t="s">
         <v>301</v>
       </c>
-      <c r="M28" s="166"/>
+      <c r="M28" s="164"/>
       <c r="N28" s="41"/>
       <c r="O28" s="97" t="s">
         <v>39</v>
@@ -26038,9 +26056,9 @@
       <c r="G29" s="64"/>
       <c r="H29" s="41"/>
       <c r="I29" s="126"/>
-      <c r="J29" s="139"/>
-      <c r="K29" s="145"/>
-      <c r="L29" s="138"/>
+      <c r="J29" s="138"/>
+      <c r="K29" s="144"/>
+      <c r="L29" s="137"/>
       <c r="M29" s="76"/>
       <c r="N29" s="41"/>
       <c r="O29" s="98" t="s">
@@ -26064,8 +26082,8 @@
       <c r="G30" s="64"/>
       <c r="H30" s="41"/>
       <c r="I30" s="117"/>
-      <c r="J30" s="140"/>
-      <c r="K30" s="145"/>
+      <c r="J30" s="139"/>
+      <c r="K30" s="144"/>
       <c r="L30" s="105"/>
       <c r="M30" s="63"/>
       <c r="N30" s="41"/>
@@ -26090,8 +26108,8 @@
       <c r="G31" s="64"/>
       <c r="H31" s="41"/>
       <c r="I31" s="116"/>
-      <c r="J31" s="139"/>
-      <c r="K31" s="145"/>
+      <c r="J31" s="138"/>
+      <c r="K31" s="144"/>
       <c r="L31" s="77"/>
       <c r="M31" s="79"/>
       <c r="N31" s="41"/>
@@ -26116,8 +26134,8 @@
       <c r="G32" s="64"/>
       <c r="H32" s="41"/>
       <c r="I32" s="117"/>
-      <c r="J32" s="140"/>
-      <c r="K32" s="145"/>
+      <c r="J32" s="139"/>
+      <c r="K32" s="144"/>
       <c r="L32" s="57"/>
       <c r="M32" s="63"/>
       <c r="N32" s="41"/>
@@ -26141,10 +26159,10 @@
       <c r="F33" s="31"/>
       <c r="G33" s="64"/>
       <c r="H33" s="41"/>
-      <c r="I33" s="142"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="145"/>
-      <c r="L33" s="141"/>
+      <c r="I33" s="141"/>
+      <c r="J33" s="140"/>
+      <c r="K33" s="144"/>
+      <c r="L33" s="140"/>
       <c r="M33" s="81"/>
       <c r="N33" s="41"/>
       <c r="O33" s="98" t="s">
@@ -26169,7 +26187,7 @@
       <c r="F34" s="31"/>
       <c r="G34" s="64"/>
       <c r="H34" s="41"/>
-      <c r="K34" s="143"/>
+      <c r="K34" s="142"/>
       <c r="N34" s="41"/>
       <c r="O34" s="130" t="s">
         <v>83</v>
@@ -26200,15 +26218,15 @@
       <c r="F35" s="31"/>
       <c r="G35" s="64"/>
       <c r="H35" s="41"/>
-      <c r="I35" s="165" t="s">
+      <c r="I35" s="163" t="s">
         <v>302</v>
       </c>
-      <c r="J35" s="166"/>
-      <c r="K35" s="144"/>
-      <c r="L35" s="165" t="s">
+      <c r="J35" s="164"/>
+      <c r="K35" s="143"/>
+      <c r="L35" s="163" t="s">
         <v>303</v>
       </c>
-      <c r="M35" s="166"/>
+      <c r="M35" s="164"/>
       <c r="N35" s="41"/>
       <c r="O35" s="41"/>
       <c r="P35" s="41"/>
@@ -26229,14 +26247,14 @@
       <c r="G36" s="64"/>
       <c r="H36" s="41"/>
       <c r="I36" s="126"/>
-      <c r="J36" s="139"/>
-      <c r="K36" s="145"/>
-      <c r="L36" s="138"/>
+      <c r="J36" s="138"/>
+      <c r="K36" s="144"/>
+      <c r="L36" s="137"/>
       <c r="M36" s="76"/>
       <c r="N36" s="41"/>
-      <c r="O36" s="164"/>
-      <c r="P36" s="164"/>
-      <c r="Q36" s="164"/>
+      <c r="O36" s="162"/>
+      <c r="P36" s="162"/>
+      <c r="Q36" s="162"/>
       <c r="R36" s="129"/>
       <c r="S36" s="43"/>
       <c r="T36" s="43"/>
@@ -26253,14 +26271,14 @@
       <c r="G37" s="64"/>
       <c r="H37" s="41"/>
       <c r="I37" s="117"/>
-      <c r="J37" s="140"/>
-      <c r="K37" s="145"/>
+      <c r="J37" s="139"/>
+      <c r="K37" s="144"/>
       <c r="L37" s="105"/>
       <c r="M37" s="63"/>
       <c r="N37" s="41"/>
-      <c r="O37" s="164"/>
-      <c r="P37" s="164"/>
-      <c r="Q37" s="164"/>
+      <c r="O37" s="162"/>
+      <c r="P37" s="162"/>
+      <c r="Q37" s="162"/>
       <c r="R37" s="129"/>
       <c r="S37" s="43"/>
       <c r="T37" s="43"/>
@@ -26277,14 +26295,14 @@
       <c r="G38" s="64"/>
       <c r="H38" s="41"/>
       <c r="I38" s="116"/>
-      <c r="J38" s="139"/>
-      <c r="K38" s="145"/>
+      <c r="J38" s="138"/>
+      <c r="K38" s="144"/>
       <c r="L38" s="77"/>
       <c r="M38" s="79"/>
       <c r="N38" s="41"/>
-      <c r="O38" s="164"/>
-      <c r="P38" s="164"/>
-      <c r="Q38" s="164"/>
+      <c r="O38" s="162"/>
+      <c r="P38" s="162"/>
+      <c r="Q38" s="162"/>
       <c r="R38" s="129"/>
       <c r="S38" s="43"/>
       <c r="T38" s="43"/>
@@ -26301,14 +26319,14 @@
       <c r="G39" s="64"/>
       <c r="H39" s="41"/>
       <c r="I39" s="117"/>
-      <c r="J39" s="140"/>
-      <c r="K39" s="145"/>
+      <c r="J39" s="139"/>
+      <c r="K39" s="144"/>
       <c r="L39" s="57"/>
       <c r="M39" s="63"/>
       <c r="N39" s="41"/>
-      <c r="O39" s="164"/>
-      <c r="P39" s="164"/>
-      <c r="Q39" s="164"/>
+      <c r="O39" s="162"/>
+      <c r="P39" s="162"/>
+      <c r="Q39" s="162"/>
       <c r="R39" s="128"/>
       <c r="S39" s="43"/>
       <c r="T39" s="43"/>
@@ -26324,15 +26342,15 @@
       <c r="F40" s="40"/>
       <c r="G40" s="65"/>
       <c r="H40" s="41"/>
-      <c r="I40" s="142"/>
-      <c r="J40" s="141"/>
-      <c r="K40" s="145"/>
-      <c r="L40" s="141"/>
+      <c r="I40" s="141"/>
+      <c r="J40" s="140"/>
+      <c r="K40" s="144"/>
+      <c r="L40" s="140"/>
       <c r="M40" s="81"/>
       <c r="N40" s="41"/>
-      <c r="O40" s="164"/>
-      <c r="P40" s="164"/>
-      <c r="Q40" s="164"/>
+      <c r="O40" s="162"/>
+      <c r="P40" s="162"/>
+      <c r="Q40" s="162"/>
       <c r="R40" s="128"/>
       <c r="S40" s="43"/>
       <c r="T40" s="43"/>
@@ -26349,9 +26367,9 @@
       <c r="G41" s="64"/>
       <c r="H41" s="41"/>
       <c r="N41" s="41"/>
-      <c r="O41" s="164"/>
-      <c r="P41" s="164"/>
-      <c r="Q41" s="164"/>
+      <c r="O41" s="162"/>
+      <c r="P41" s="162"/>
+      <c r="Q41" s="162"/>
       <c r="R41" s="128"/>
       <c r="S41" s="43"/>
       <c r="T41" s="43"/>
@@ -26434,7 +26452,7 @@
       <c r="F45" s="41"/>
       <c r="G45" s="66"/>
       <c r="H45" s="41"/>
-      <c r="I45" s="136"/>
+      <c r="I45" s="135"/>
       <c r="J45" s="129"/>
       <c r="K45" s="129"/>
       <c r="L45" s="129"/>
@@ -26458,7 +26476,7 @@
       <c r="F46" s="41"/>
       <c r="G46" s="66"/>
       <c r="H46" s="41"/>
-      <c r="I46" s="136"/>
+      <c r="I46" s="135"/>
       <c r="J46" s="129"/>
       <c r="K46" s="129"/>
       <c r="L46" s="129"/>
@@ -26482,7 +26500,7 @@
       <c r="F47" s="41"/>
       <c r="G47" s="66"/>
       <c r="H47" s="41"/>
-      <c r="I47" s="136"/>
+      <c r="I47" s="135"/>
       <c r="J47" s="129"/>
       <c r="K47" s="129"/>
       <c r="L47" s="129"/>
@@ -26506,7 +26524,7 @@
       <c r="F48" s="41"/>
       <c r="G48" s="66"/>
       <c r="H48" s="41"/>
-      <c r="I48" s="136"/>
+      <c r="I48" s="135"/>
       <c r="J48" s="129"/>
       <c r="K48" s="129"/>
       <c r="L48" s="129"/>
@@ -26530,7 +26548,7 @@
       <c r="F49" s="41"/>
       <c r="G49" s="66"/>
       <c r="H49" s="41"/>
-      <c r="I49" s="136"/>
+      <c r="I49" s="135"/>
       <c r="J49" s="129"/>
       <c r="K49" s="129"/>
       <c r="L49" s="129"/>
@@ -26554,7 +26572,7 @@
       <c r="F50" s="41"/>
       <c r="G50" s="41"/>
       <c r="H50" s="41"/>
-      <c r="I50" s="136"/>
+      <c r="I50" s="135"/>
       <c r="J50" s="129"/>
       <c r="K50" s="129"/>
       <c r="L50" s="129"/>
@@ -26578,7 +26596,7 @@
       <c r="F51" s="41"/>
       <c r="G51" s="41"/>
       <c r="H51" s="41"/>
-      <c r="I51" s="136"/>
+      <c r="I51" s="135"/>
       <c r="J51" s="129"/>
       <c r="K51" s="129"/>
       <c r="L51" s="129"/>
@@ -26602,7 +26620,7 @@
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
       <c r="H52" s="41"/>
-      <c r="I52" s="136"/>
+      <c r="I52" s="135"/>
       <c r="J52" s="129"/>
       <c r="K52" s="129"/>
       <c r="L52" s="129"/>
@@ -26626,7 +26644,7 @@
       <c r="F53" s="41"/>
       <c r="G53" s="41"/>
       <c r="H53" s="41"/>
-      <c r="I53" s="136"/>
+      <c r="I53" s="135"/>
       <c r="J53" s="129"/>
       <c r="K53" s="129"/>
       <c r="L53" s="129"/>
@@ -26650,7 +26668,7 @@
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
       <c r="H54" s="41"/>
-      <c r="I54" s="136"/>
+      <c r="I54" s="135"/>
       <c r="J54" s="129"/>
       <c r="K54" s="129"/>
       <c r="L54" s="129"/>
@@ -26674,7 +26692,7 @@
       <c r="F55" s="41"/>
       <c r="G55" s="41"/>
       <c r="H55" s="41"/>
-      <c r="I55" s="136"/>
+      <c r="I55" s="135"/>
       <c r="J55" s="129"/>
       <c r="K55" s="129"/>
       <c r="L55" s="129"/>
@@ -26698,7 +26716,7 @@
       <c r="F56" s="41"/>
       <c r="G56" s="41"/>
       <c r="H56" s="41"/>
-      <c r="I56" s="136"/>
+      <c r="I56" s="135"/>
       <c r="J56" s="129"/>
       <c r="K56" s="129"/>
       <c r="L56" s="129"/>
@@ -26722,7 +26740,7 @@
       <c r="F57" s="41"/>
       <c r="G57" s="41"/>
       <c r="H57" s="41"/>
-      <c r="I57" s="136"/>
+      <c r="I57" s="135"/>
       <c r="J57" s="129"/>
       <c r="K57" s="129"/>
       <c r="L57" s="129"/>
@@ -26746,7 +26764,7 @@
       <c r="F58" s="41"/>
       <c r="G58" s="41"/>
       <c r="H58" s="41"/>
-      <c r="I58" s="136"/>
+      <c r="I58" s="135"/>
       <c r="J58" s="129"/>
       <c r="K58" s="129"/>
       <c r="L58" s="129"/>
@@ -26770,7 +26788,7 @@
       <c r="F59" s="41"/>
       <c r="G59" s="41"/>
       <c r="H59" s="41"/>
-      <c r="I59" s="136"/>
+      <c r="I59" s="135"/>
       <c r="J59" s="129"/>
       <c r="K59" s="129"/>
       <c r="L59" s="129"/>
@@ -26794,7 +26812,7 @@
       <c r="F60" s="41"/>
       <c r="G60" s="41"/>
       <c r="H60" s="41"/>
-      <c r="I60" s="136"/>
+      <c r="I60" s="135"/>
       <c r="J60" s="129"/>
       <c r="K60" s="129"/>
       <c r="L60" s="129"/>
@@ -26818,7 +26836,7 @@
       <c r="F61" s="41"/>
       <c r="G61" s="41"/>
       <c r="H61" s="41"/>
-      <c r="I61" s="136"/>
+      <c r="I61" s="135"/>
       <c r="J61" s="129"/>
       <c r="K61" s="129"/>
       <c r="L61" s="129"/>
@@ -26842,7 +26860,7 @@
       <c r="F62" s="41"/>
       <c r="G62" s="41"/>
       <c r="H62" s="41"/>
-      <c r="I62" s="136"/>
+      <c r="I62" s="135"/>
       <c r="J62" s="129"/>
       <c r="K62" s="129"/>
       <c r="L62" s="129"/>
@@ -26866,7 +26884,7 @@
       <c r="F63" s="41"/>
       <c r="G63" s="41"/>
       <c r="H63" s="41"/>
-      <c r="I63" s="136"/>
+      <c r="I63" s="135"/>
       <c r="J63" s="129"/>
       <c r="K63" s="129"/>
       <c r="L63" s="129"/>
@@ -28138,7 +28156,7 @@
       <c r="F116" s="41"/>
       <c r="G116" s="66"/>
       <c r="H116" s="41"/>
-      <c r="I116" s="135" t="s">
+      <c r="I116" s="134" t="s">
         <v>213</v>
       </c>
       <c r="J116" s="115"/>
@@ -28164,7 +28182,7 @@
       <c r="F117" s="41"/>
       <c r="G117" s="66"/>
       <c r="H117" s="41"/>
-      <c r="I117" s="135" t="s">
+      <c r="I117" s="134" t="s">
         <v>214</v>
       </c>
       <c r="J117" s="115"/>
@@ -28336,7 +28354,7 @@
       </c>
       <c r="Q123" s="49">
         <f>COUNTIF(D3:D59,P123)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R123" s="41"/>
       <c r="S123" s="41"/>
@@ -29061,7 +29079,7 @@
       </c>
       <c r="Q148" s="45">
         <f>SUM(Q121:Q147)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R148" s="41"/>
       <c r="S148" s="41"/>

--- a/spreadsheets/Games.xlsx
+++ b/spreadsheets/Games.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="340">
   <si>
     <t>Nier: Automata</t>
   </si>
@@ -220,38 +220,10 @@
     <t>Spring Falls</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">DYO </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="8"/>
-        <rFont val="Ubuntu"/>
-        <family val="2"/>
-      </rPr>
-      <t>(w/Agus)</t>
-    </r>
-  </si>
-  <si>
     <t>11-jun.</t>
   </si>
   <si>
     <t>12-jun.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">We Were Here </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="8"/>
-        <rFont val="Ubuntu"/>
-        <family val="2"/>
-      </rPr>
-      <t>(w/Agus)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -265,34 +237,6 @@
         <family val="2"/>
       </rPr>
       <t>(w/Dani &amp; Nico)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">WWZ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="8"/>
-        <rFont val="Ubuntu"/>
-        <family val="2"/>
-      </rPr>
-      <t>(w/Dani, Alberto &amp; Agus)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">We Were Here Too </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="8"/>
-        <rFont val="Ubuntu"/>
-        <family val="2"/>
-      </rPr>
-      <t>(w/Agus)</t>
     </r>
   </si>
   <si>
@@ -361,20 +305,6 @@
   </si>
   <si>
     <t>19-jul.</t>
-  </si>
-  <si>
-    <r>
-      <t>Deathtrap</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="8"/>
-        <rFont val="Ubuntu"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (w/Agus)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -931,20 +861,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">A Way Out </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="8"/>
-        <rFont val="Ubuntu"/>
-        <family val="2"/>
-      </rPr>
-      <t>(w/Agus)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Streets of Rage 4 </t>
     </r>
     <r>
@@ -955,20 +871,6 @@
         <family val="2"/>
       </rPr>
       <t>(w/Sergio)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>We Were Here Together</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="8"/>
-        <rFont val="Ubuntu"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (w/Agus)</t>
     </r>
   </si>
   <si>
@@ -1282,6 +1184,195 @@
   </si>
   <si>
     <t>11-mar.</t>
+  </si>
+  <si>
+    <t>13 Sentinels: Aegis Rim</t>
+  </si>
+  <si>
+    <t>12-abr.</t>
+  </si>
+  <si>
+    <t>Overwatch 2</t>
+  </si>
+  <si>
+    <t>13 Sentinels (24h 11m)</t>
+  </si>
+  <si>
+    <t>4-dic.</t>
+  </si>
+  <si>
+    <t>Dungeon of the Endless</t>
+  </si>
+  <si>
+    <t>3-nov.</t>
+  </si>
+  <si>
+    <t>9-oct.</t>
+  </si>
+  <si>
+    <t>10-may.</t>
+  </si>
+  <si>
+    <t>Borderlands 2</t>
+  </si>
+  <si>
+    <t>Kirby and the Forgotten Land</t>
+  </si>
+  <si>
+    <t>12-may.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Portal 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Replayed]</t>
+    </r>
+  </si>
+  <si>
+    <t>Planet Laika</t>
+  </si>
+  <si>
+    <t>25-may.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">13 Sentinels (14h 55m), Laika (5h 3m), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>Kirby (pasarlo 12h 45m)</t>
+    </r>
+  </si>
+  <si>
+    <t>Iron Lung</t>
+  </si>
+  <si>
+    <t>2-jun.</t>
+  </si>
+  <si>
+    <t>Link's Awakening</t>
+  </si>
+  <si>
+    <t>Street Fighter V</t>
+  </si>
+  <si>
+    <t>Citizen Sleeper</t>
+  </si>
+  <si>
+    <t>19-jun.</t>
+  </si>
+  <si>
+    <t>MonHun Rise Sunbreak Demo</t>
+  </si>
+  <si>
+    <t>20-jun.</t>
+  </si>
+  <si>
+    <t>Castlevania: Aria of Sorrow</t>
+  </si>
+  <si>
+    <t>25-jun.</t>
+  </si>
+  <si>
+    <t>Castlevania: Dawn of Sorrow</t>
+  </si>
+  <si>
+    <t>HoloCure</t>
+  </si>
+  <si>
+    <r>
+      <t>Laika (4h 53m), TMNT (1h 48m), DoS (3h 39m),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AoS 1er final (5h 20m)</t>
+    </r>
+  </si>
+  <si>
+    <t>Endless Dungeon OpenDev</t>
+  </si>
+  <si>
+    <t>26-jun.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>DoS (4h 47m)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>, DoW 1er final (5h 47m)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TMNT: Shredder's Revenge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (w/ Agu &amp; Sergio)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>We Were Here Together</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (w/Agu)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A Way Out </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>(w/Agu)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1303,90 +1394,78 @@
         <rFont val="Ubuntu"/>
         <family val="2"/>
       </rPr>
-      <t>(w/Agus)</t>
+      <t>(w/Agu)</t>
     </r>
   </si>
   <si>
-    <t>13 Sentinels: Aegis Rim</t>
-  </si>
-  <si>
-    <t>12-abr.</t>
-  </si>
-  <si>
-    <t>Overwatch 2</t>
-  </si>
-  <si>
-    <t>13 Sentinels (24h 11m)</t>
-  </si>
-  <si>
-    <t>4-dic.</t>
-  </si>
-  <si>
-    <t>Dungeon of the Endless</t>
-  </si>
-  <si>
-    <t>3-nov.</t>
-  </si>
-  <si>
-    <t>9-oct.</t>
-  </si>
-  <si>
-    <t>10-may.</t>
-  </si>
-  <si>
-    <t>Borderlands 2</t>
-  </si>
-  <si>
-    <t>Kirby and the Forgotten Land</t>
-  </si>
-  <si>
-    <t>12-may.</t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">Portal 2 </t>
+      <t>Deathtrap</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF7030A0"/>
+        <color theme="8"/>
         <rFont val="Ubuntu"/>
         <family val="2"/>
       </rPr>
-      <t>[Replayed]</t>
+      <t xml:space="preserve"> (w/Agu)</t>
     </r>
   </si>
   <si>
-    <t>Planet Laika</t>
-  </si>
-  <si>
-    <t>25-may.</t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">13 Sentinels (14h 55m), Laika (5h 3m), </t>
+      <t xml:space="preserve">We Were Here Too </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color theme="8"/>
         <rFont val="Ubuntu"/>
         <family val="2"/>
       </rPr>
-      <t>Kirby (pasarlo 12h 45m)</t>
+      <t>(w/Agu)</t>
     </r>
   </si>
   <si>
-    <t>Iron Lung</t>
-  </si>
-  <si>
-    <t>2-jun.</t>
-  </si>
-  <si>
-    <t>Laika (4h 53m)</t>
-  </si>
-  <si>
-    <t>Link's Awakening</t>
+    <r>
+      <t xml:space="preserve">We Were Here </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>(w/Agu)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DYO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>(w/Agu)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WWZ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>(w/Dani, Alberto &amp; Agu)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2217,6 +2296,9 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
@@ -2234,9 +2316,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2769,11 +2848,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-714656304"/>
-        <c:axId val="-714653584"/>
+        <c:axId val="993640768"/>
+        <c:axId val="993629344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-714656304"/>
+        <c:axId val="993640768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2854,7 +2933,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-714653584"/>
+        <c:crossAx val="993629344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2862,7 +2941,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-714653584"/>
+        <c:axId val="993629344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2964,7 +3043,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-714656304"/>
+        <c:crossAx val="993640768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3336,11 +3415,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-714663920"/>
-        <c:axId val="-714661200"/>
+        <c:axId val="993628256"/>
+        <c:axId val="993635872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-714663920"/>
+        <c:axId val="993628256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3383,7 +3462,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-714661200"/>
+        <c:crossAx val="993635872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3391,7 +3470,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-714661200"/>
+        <c:axId val="993635872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3442,7 +3521,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-714663920"/>
+        <c:crossAx val="993628256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3829,11 +3908,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="-714654672"/>
-        <c:axId val="-716093280"/>
+        <c:axId val="993628800"/>
+        <c:axId val="993633152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-714654672"/>
+        <c:axId val="993628800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3890,7 +3969,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-716093280"/>
+        <c:crossAx val="993633152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3898,7 +3977,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-716093280"/>
+        <c:axId val="993633152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3908,7 +3987,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-714654672"/>
+        <c:crossAx val="993628800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4222,11 +4301,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="-712137808"/>
-        <c:axId val="-712135632"/>
+        <c:axId val="993638592"/>
+        <c:axId val="993639136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-712137808"/>
+        <c:axId val="993638592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4271,7 +4350,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-712135632"/>
+        <c:crossAx val="993639136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4279,7 +4358,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-712135632"/>
+        <c:axId val="993639136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4329,7 +4408,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-712137808"/>
+        <c:crossAx val="993638592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -4718,13 +4797,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -4765,11 +4844,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="-712130192"/>
-        <c:axId val="-712133456"/>
+        <c:axId val="993639680"/>
+        <c:axId val="993642400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-712130192"/>
+        <c:axId val="993639680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4826,7 +4905,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-712133456"/>
+        <c:crossAx val="993642400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4834,7 +4913,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-712133456"/>
+        <c:axId val="993642400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4844,7 +4923,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-712130192"/>
+        <c:crossAx val="993639680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5006,6 +5085,9 @@
                 <c:pt idx="4">
                   <c:v>1.8458333333333332</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7430555555555556</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5102,6 +5184,9 @@
                 <c:pt idx="4">
                   <c:v>0.67847222222222214</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8090277777777777</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5116,11 +5201,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="-712142704"/>
-        <c:axId val="-712130736"/>
+        <c:axId val="993640224"/>
+        <c:axId val="993630432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-712142704"/>
+        <c:axId val="993640224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5165,7 +5250,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-712130736"/>
+        <c:crossAx val="993630432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5173,7 +5258,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-712130736"/>
+        <c:axId val="993630432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5223,7 +5308,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-712142704"/>
+        <c:crossAx val="993640224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -9203,7 +9288,7 @@
       <c r="D2" s="147"/>
       <c r="E2" s="71"/>
       <c r="F2" s="152" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G2" s="152"/>
       <c r="H2" s="152"/>
@@ -9234,7 +9319,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E3" s="72"/>
       <c r="F3" s="152"/>
@@ -9594,7 +9679,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D14" s="10">
         <v>2019</v>
@@ -10316,8 +10401,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:Y159"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="B11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10404,7 +10489,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>13</v>
@@ -10592,7 +10677,7 @@
         <v>36</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="40"/>
@@ -10635,7 +10720,7 @@
         <v>37</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="40"/>
@@ -10659,7 +10744,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E9" s="10">
         <v>2016</v>
@@ -10678,7 +10763,7 @@
         <v>38</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="40"/>
@@ -10721,7 +10806,7 @@
         <v>39</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="40"/>
@@ -10764,7 +10849,7 @@
         <v>40</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="40"/>
@@ -10807,7 +10892,7 @@
         <v>41</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="40"/>
@@ -10850,7 +10935,7 @@
         <v>42</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="40"/>
@@ -10893,7 +10978,7 @@
         <v>43</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="40"/>
@@ -10917,7 +11002,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>54</v>
+        <v>339</v>
       </c>
       <c r="E15" s="12">
         <v>2019</v>
@@ -10936,7 +11021,7 @@
         <v>44</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="40"/>
@@ -11086,7 +11171,7 @@
         <v>43983</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H19" s="5">
         <v>43</v>
@@ -11122,7 +11207,7 @@
         <v>2019</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G20" s="20">
         <v>43990</v>
@@ -11155,7 +11240,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>49</v>
+        <v>338</v>
       </c>
       <c r="E21" s="10">
         <v>2018</v>
@@ -11164,7 +11249,7 @@
         <v>43991</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H21" s="5">
         <v>4</v>
@@ -11194,16 +11279,16 @@
         <v>19</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>52</v>
+        <v>337</v>
       </c>
       <c r="E22" s="10">
         <v>2017</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H22" s="5">
         <v>2</v>
@@ -11221,7 +11306,7 @@
       </c>
       <c r="P22" s="29"/>
       <c r="Q22" s="25" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="R22" s="41"/>
       <c r="S22" s="41"/>
@@ -11239,16 +11324,16 @@
         <v>20</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>55</v>
+        <v>336</v>
       </c>
       <c r="E23" s="10">
         <v>2018</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H23" s="5">
         <v>4</v>
@@ -11284,16 +11369,16 @@
         <v>21</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E24" s="10">
         <v>2015</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H24" s="5">
         <v>62</v>
@@ -11329,16 +11414,16 @@
         <v>22</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E25" s="10">
         <v>2018</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H25" s="5">
         <v>5</v>
@@ -11356,7 +11441,7 @@
       </c>
       <c r="P25" s="17"/>
       <c r="Q25" s="37" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R25" s="41"/>
       <c r="S25" s="41"/>
@@ -11374,13 +11459,13 @@
         <v>23</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>66</v>
+        <v>335</v>
       </c>
       <c r="E26" s="10">
         <v>2015</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G26" s="20">
         <v>44049</v>
@@ -11401,7 +11486,7 @@
       </c>
       <c r="P26" s="17"/>
       <c r="Q26" s="37" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R26" s="41"/>
       <c r="S26" s="41"/>
@@ -11419,16 +11504,16 @@
         <v>24</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E27" s="10">
         <v>2017</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H27" s="5">
         <v>5</v>
@@ -11464,16 +11549,16 @@
         <v>25</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E28" s="10">
         <v>2017</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H28" s="5">
         <v>2</v>
@@ -11491,7 +11576,7 @@
       </c>
       <c r="P28" s="17"/>
       <c r="Q28" s="19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="R28" s="41"/>
       <c r="S28" s="41"/>
@@ -11509,16 +11594,16 @@
         <v>26</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E29" s="10">
         <v>2020</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H29" s="5">
         <v>1</v>
@@ -11536,7 +11621,7 @@
       </c>
       <c r="P29" s="17"/>
       <c r="Q29" s="37" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="R29" s="41"/>
       <c r="S29" s="41"/>
@@ -11554,16 +11639,16 @@
         <v>27</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E30" s="10">
         <v>2014</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H30" s="5">
         <v>3</v>
@@ -11581,7 +11666,7 @@
       </c>
       <c r="P30" s="17"/>
       <c r="Q30" s="38" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R30" s="41"/>
       <c r="S30" s="41"/>
@@ -11599,16 +11684,16 @@
         <v>28</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E31" s="10">
         <v>2017</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H31" s="5">
         <v>29</v>
@@ -11626,7 +11711,7 @@
       </c>
       <c r="P31" s="17"/>
       <c r="Q31" s="38" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R31" s="41"/>
       <c r="S31" s="41"/>
@@ -11644,13 +11729,13 @@
         <v>29</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E32" s="10">
         <v>1997</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G32" s="20">
         <v>44078</v>
@@ -11671,7 +11756,7 @@
       </c>
       <c r="P32" s="17"/>
       <c r="Q32" s="38" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R32" s="41"/>
       <c r="S32" s="41"/>
@@ -11689,16 +11774,16 @@
         <v>30</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E33" s="10">
         <v>1999</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H33" s="5">
         <v>11</v>
@@ -11716,7 +11801,7 @@
       </c>
       <c r="P33" s="17"/>
       <c r="Q33" s="19" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R33" s="41"/>
       <c r="S33" s="41"/>
@@ -11734,16 +11819,16 @@
         <v>31</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E34" s="10">
         <v>2020</v>
       </c>
       <c r="F34" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34" s="20" t="s">
         <v>94</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>99</v>
       </c>
       <c r="H34" s="5">
         <v>47</v>
@@ -11761,7 +11846,7 @@
       </c>
       <c r="P34" s="17"/>
       <c r="Q34" s="19" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="R34" s="41"/>
       <c r="S34" s="41"/>
@@ -11779,13 +11864,13 @@
         <v>32</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E35" s="10">
         <v>2014</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G35" s="20">
         <v>44138</v>
@@ -11821,16 +11906,16 @@
         <v>33</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E36" s="10">
         <v>2011</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H36" s="5">
         <v>7</v>
@@ -11860,16 +11945,16 @@
         <v>34</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E37" s="10">
         <v>2020</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H37" s="5">
         <v>17</v>
@@ -11899,16 +11984,16 @@
         <v>35</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E38" s="10">
         <v>2018</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H38" s="5">
         <v>8</v>
@@ -11938,16 +12023,16 @@
         <v>36</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E39" s="10">
         <v>2020</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H39" s="5">
         <v>5</v>
@@ -11977,16 +12062,16 @@
         <v>37</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E40" s="10">
         <v>2020</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H40" s="5">
         <v>4</v>
@@ -12015,13 +12100,13 @@
         <v>38</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E41" s="11">
         <v>2017</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G41" s="58">
         <v>44206</v>
@@ -12428,10 +12513,10 @@
       <c r="P56" s="41"/>
       <c r="Q56" s="41"/>
       <c r="R56" s="44" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="S56" s="45" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="T56" s="41"/>
       <c r="U56" s="41"/>
@@ -13225,7 +13310,7 @@
       <c r="P82" s="41"/>
       <c r="Q82" s="41"/>
       <c r="R82" s="44" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="S82" s="45">
         <f>SUM(S57:S81)</f>
@@ -15103,8 +15188,8 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:AY296"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15188,7 +15273,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="90" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E2" s="90" t="s">
         <v>13</v>
@@ -15256,7 +15341,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="77" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D3" s="77">
         <v>2017</v>
@@ -15271,8 +15356,8 @@
         <v>4.197916666666667</v>
       </c>
       <c r="H3" s="8"/>
-      <c r="I3" s="159" t="s">
-        <v>124</v>
+      <c r="I3" s="160" t="s">
+        <v>119</v>
       </c>
       <c r="J3" s="84" t="s">
         <v>26</v>
@@ -15327,24 +15412,24 @@
         <v>2</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D4" s="57">
         <v>2019</v>
       </c>
       <c r="E4" s="73" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F4" s="73" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G4" s="63">
         <v>0.30138888888888887</v>
       </c>
       <c r="H4" s="8"/>
-      <c r="I4" s="160"/>
+      <c r="I4" s="161"/>
       <c r="J4" s="57" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K4" s="63">
         <v>1.9791666666666667</v>
@@ -15396,7 +15481,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="77" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D5" s="77">
         <v>2016</v>
@@ -15405,15 +15490,15 @@
         <v>44228</v>
       </c>
       <c r="F5" s="78" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G5" s="79">
         <v>0.2076388888888889</v>
       </c>
       <c r="H5" s="8"/>
-      <c r="I5" s="160"/>
+      <c r="I5" s="161"/>
       <c r="J5" s="77" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K5" s="79">
         <v>0.46180555555555558</v>
@@ -15465,24 +15550,24 @@
         <v>4</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D6" s="57">
         <v>2021</v>
       </c>
       <c r="E6" s="73" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F6" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G6" s="63">
         <v>1.2437499999999999</v>
       </c>
       <c r="H6" s="8"/>
-      <c r="I6" s="160"/>
+      <c r="I6" s="161"/>
       <c r="J6" s="57" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K6" s="63">
         <v>0.27777777777777779</v>
@@ -15534,24 +15619,24 @@
         <v>5</v>
       </c>
       <c r="C7" s="77" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D7" s="77">
         <v>2021</v>
       </c>
       <c r="E7" s="78" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F7" s="78" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G7" s="79">
         <v>0.27916666666666667</v>
       </c>
       <c r="H7" s="8"/>
-      <c r="I7" s="160"/>
+      <c r="I7" s="161"/>
       <c r="J7" s="77" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="K7" s="79">
         <v>8.1944444444444445E-2</v>
@@ -15603,24 +15688,24 @@
         <v>6</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D8" s="57">
         <v>2011</v>
       </c>
       <c r="E8" s="73" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F8" s="73" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G8" s="63">
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="H8" s="8"/>
-      <c r="I8" s="160"/>
+      <c r="I8" s="161"/>
       <c r="J8" s="57" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="K8" s="63">
         <v>7.1527777777777787E-2</v>
@@ -15672,26 +15757,26 @@
         <v>7</v>
       </c>
       <c r="C9" s="77" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D9" s="77">
         <v>2020</v>
       </c>
       <c r="E9" s="78" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F9" s="78" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G9" s="79">
         <v>0.11180555555555556</v>
       </c>
       <c r="H9" s="8"/>
-      <c r="I9" s="159" t="s">
-        <v>125</v>
+      <c r="I9" s="160" t="s">
+        <v>120</v>
       </c>
       <c r="J9" s="75" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="K9" s="76">
         <v>0.17986111111111111</v>
@@ -15743,24 +15828,24 @@
         <v>8</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D10" s="57">
         <v>2021</v>
       </c>
       <c r="E10" s="73" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F10" s="73" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G10" s="63">
         <v>0.19027777777777777</v>
       </c>
       <c r="H10" s="8"/>
-      <c r="I10" s="160"/>
+      <c r="I10" s="161"/>
       <c r="J10" s="57" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K10" s="63">
         <v>0.72569444444444453</v>
@@ -15812,24 +15897,24 @@
         <v>9</v>
       </c>
       <c r="C11" s="77" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D11" s="77">
         <v>2021</v>
       </c>
       <c r="E11" s="78" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F11" s="78" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G11" s="79">
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="H11" s="8"/>
-      <c r="I11" s="160"/>
+      <c r="I11" s="161"/>
       <c r="J11" s="77" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K11" s="79">
         <v>0.32430555555555557</v>
@@ -15881,24 +15966,24 @@
         <v>10</v>
       </c>
       <c r="C12" s="57" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D12" s="57">
         <v>2021</v>
       </c>
       <c r="E12" s="73" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F12" s="73" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G12" s="63">
         <v>1.7097222222222221</v>
       </c>
       <c r="H12" s="8"/>
-      <c r="I12" s="160"/>
+      <c r="I12" s="161"/>
       <c r="J12" s="57" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K12" s="63">
         <v>2.2222222222222223E-2</v>
@@ -15950,24 +16035,24 @@
         <v>11</v>
       </c>
       <c r="C13" s="77" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D13" s="77">
         <v>2016</v>
       </c>
       <c r="E13" s="78" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F13" s="78" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G13" s="79">
         <v>0.15972222222222224</v>
       </c>
       <c r="H13" s="8"/>
-      <c r="I13" s="160"/>
+      <c r="I13" s="161"/>
       <c r="J13" s="77" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K13" s="79">
         <v>5.9027777777777783E-2</v>
@@ -16019,26 +16104,26 @@
         <v>12</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D14" s="57">
         <v>2013</v>
       </c>
       <c r="E14" s="73" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F14" s="73" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G14" s="63">
         <v>0.14722222222222223</v>
       </c>
       <c r="H14" s="8"/>
-      <c r="I14" s="159" t="s">
-        <v>126</v>
+      <c r="I14" s="160" t="s">
+        <v>121</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="K14" s="62">
         <v>7.1527777777777787E-2</v>
@@ -16090,24 +16175,24 @@
         <v>13</v>
       </c>
       <c r="C15" s="77" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D15" s="77">
         <v>2007</v>
       </c>
       <c r="E15" s="78" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F15" s="78" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G15" s="79">
         <v>0.59652777777777777</v>
       </c>
       <c r="H15" s="8"/>
-      <c r="I15" s="160"/>
+      <c r="I15" s="161"/>
       <c r="J15" s="77" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K15" s="79">
         <v>7.9166666666666663E-2</v>
@@ -16159,13 +16244,13 @@
         <v>14</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D16" s="57">
         <v>2013</v>
       </c>
       <c r="E16" s="73" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F16" s="73" t="s">
         <v>14</v>
@@ -16174,9 +16259,9 @@
         <v>14</v>
       </c>
       <c r="H16" s="8"/>
-      <c r="I16" s="160"/>
+      <c r="I16" s="161"/>
       <c r="J16" s="57" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K16" s="63">
         <v>0.27013888888888887</v>
@@ -16228,13 +16313,13 @@
         <v>15</v>
       </c>
       <c r="C17" s="77" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D17" s="77">
         <v>2004</v>
       </c>
       <c r="E17" s="78" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F17" s="78" t="s">
         <v>14</v>
@@ -16243,9 +16328,9 @@
         <v>14</v>
       </c>
       <c r="H17" s="8"/>
-      <c r="I17" s="160"/>
+      <c r="I17" s="161"/>
       <c r="J17" s="77" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K17" s="79">
         <v>6.8749999999999992E-2</v>
@@ -16297,24 +16382,24 @@
         <v>16</v>
       </c>
       <c r="C18" s="107" t="s">
-        <v>212</v>
+        <v>332</v>
       </c>
       <c r="D18" s="57">
         <v>2019</v>
       </c>
       <c r="E18" s="73" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F18" s="73" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G18" s="63">
         <v>0.24583333333333335</v>
       </c>
       <c r="H18" s="8"/>
-      <c r="I18" s="160"/>
+      <c r="I18" s="161"/>
       <c r="J18" s="57" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="K18" s="63">
         <v>0.11041666666666666</v>
@@ -16366,24 +16451,24 @@
         <v>17</v>
       </c>
       <c r="C19" s="77" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D19" s="77">
         <v>2020</v>
       </c>
       <c r="E19" s="78" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F19" s="78" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G19" s="79">
         <v>0.49513888888888885</v>
       </c>
       <c r="H19" s="8"/>
-      <c r="I19" s="161"/>
+      <c r="I19" s="162"/>
       <c r="J19" s="80" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K19" s="81">
         <v>0.11388888888888889</v>
@@ -16435,26 +16520,26 @@
         <v>18</v>
       </c>
       <c r="C20" s="57" t="s">
-        <v>210</v>
+        <v>333</v>
       </c>
       <c r="D20" s="57">
         <v>2018</v>
       </c>
       <c r="E20" s="73" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F20" s="73" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G20" s="63">
         <v>0.20972222222222223</v>
       </c>
       <c r="H20" s="8"/>
-      <c r="I20" s="159" t="s">
-        <v>149</v>
+      <c r="I20" s="160" t="s">
+        <v>144</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K20" s="62">
         <v>6.5277777777777782E-2</v>
@@ -16506,24 +16591,24 @@
         <v>19</v>
       </c>
       <c r="C21" s="77" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D21" s="77">
         <v>2015</v>
       </c>
       <c r="E21" s="78" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F21" s="78" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G21" s="79">
         <v>0.25486111111111109</v>
       </c>
       <c r="H21" s="8"/>
-      <c r="I21" s="161"/>
+      <c r="I21" s="162"/>
       <c r="J21" s="80" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K21" s="81">
         <v>0.18194444444444444</v>
@@ -16533,17 +16618,17 @@
         <v>32</v>
       </c>
       <c r="N21" s="95" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="O21" s="95" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="P21" s="96" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="Q21" s="41"/>
       <c r="R21" s="92" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="S21" s="41"/>
       <c r="T21" s="41"/>
@@ -16585,26 +16670,26 @@
         <v>20</v>
       </c>
       <c r="C22" s="57" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D22" s="57">
         <v>2018</v>
       </c>
       <c r="E22" s="73" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F22" s="73" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G22" s="63">
         <v>0.26666666666666666</v>
       </c>
       <c r="H22" s="8"/>
-      <c r="I22" s="160" t="s">
-        <v>167</v>
+      <c r="I22" s="161" t="s">
+        <v>162</v>
       </c>
       <c r="J22" s="57" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K22" s="63">
         <v>2.2916666666666669E-2</v>
@@ -16626,7 +16711,7 @@
       </c>
       <c r="Q22" s="41"/>
       <c r="R22" s="108" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="S22" s="41"/>
       <c r="T22" s="41"/>
@@ -16668,24 +16753,24 @@
         <v>21</v>
       </c>
       <c r="C23" s="77" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D23" s="77">
         <v>1997</v>
       </c>
       <c r="E23" s="78" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F23" s="78" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G23" s="79">
         <v>0.26944444444444443</v>
       </c>
       <c r="H23" s="8"/>
-      <c r="I23" s="160"/>
+      <c r="I23" s="161"/>
       <c r="J23" s="84" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="K23" s="86">
         <v>5.2777777777777778E-2</v>
@@ -16749,24 +16834,24 @@
         <v>22</v>
       </c>
       <c r="C24" s="57" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D24" s="57">
         <v>2019</v>
       </c>
       <c r="E24" s="73" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F24" s="73" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G24" s="63">
         <v>0.3263888888888889</v>
       </c>
       <c r="H24" s="40"/>
-      <c r="I24" s="160"/>
+      <c r="I24" s="161"/>
       <c r="J24" s="57" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="K24" s="63">
         <v>7.2222222222222229E-2</v>
@@ -16788,7 +16873,7 @@
       </c>
       <c r="Q24" s="41"/>
       <c r="R24" s="103" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="S24" s="41"/>
       <c r="T24" s="41"/>
@@ -16830,24 +16915,24 @@
         <v>23</v>
       </c>
       <c r="C25" s="77" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D25" s="77">
         <v>2020</v>
       </c>
       <c r="E25" s="78" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F25" s="78" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G25" s="79">
         <v>0.32847222222222222</v>
       </c>
       <c r="H25" s="41"/>
-      <c r="I25" s="160"/>
+      <c r="I25" s="161"/>
       <c r="J25" s="77" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K25" s="79">
         <v>0.23472222222222219</v>
@@ -16869,7 +16954,7 @@
       </c>
       <c r="Q25" s="41"/>
       <c r="R25" s="102" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="S25" s="41"/>
       <c r="T25" s="41"/>
@@ -16911,24 +16996,24 @@
         <v>24</v>
       </c>
       <c r="C26" s="57" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D26" s="57">
         <v>2019</v>
       </c>
       <c r="E26" s="73" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F26" s="73" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G26" s="63">
         <v>0.67013888888888884</v>
       </c>
       <c r="H26" s="41"/>
-      <c r="I26" s="161"/>
+      <c r="I26" s="162"/>
       <c r="J26" s="12" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="K26" s="91">
         <v>6.3888888888888884E-2</v>
@@ -16992,13 +17077,13 @@
         <v>25</v>
       </c>
       <c r="C27" s="77" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D27" s="77">
         <v>2018</v>
       </c>
       <c r="E27" s="78" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F27" s="78">
         <v>44456</v>
@@ -17007,11 +17092,11 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="H27" s="41"/>
-      <c r="I27" s="159" t="s">
-        <v>177</v>
+      <c r="I27" s="160" t="s">
+        <v>172</v>
       </c>
       <c r="J27" s="77" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="K27" s="79">
         <v>0.59166666666666667</v>
@@ -17033,7 +17118,7 @@
       </c>
       <c r="Q27" s="41"/>
       <c r="R27" s="102" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="S27" s="41"/>
       <c r="T27" s="41"/>
@@ -17075,24 +17160,24 @@
         <v>26</v>
       </c>
       <c r="C28" s="57" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D28" s="57">
         <v>2021</v>
       </c>
       <c r="E28" s="73" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F28" s="73" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G28" s="63">
         <v>0.22291666666666665</v>
       </c>
       <c r="H28" s="41"/>
-      <c r="I28" s="160"/>
+      <c r="I28" s="161"/>
       <c r="J28" s="105" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="K28" s="87">
         <v>0.18958333333333333</v>
@@ -17114,7 +17199,7 @@
       </c>
       <c r="Q28" s="41"/>
       <c r="R28" s="103" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="S28" s="41"/>
       <c r="T28" s="41"/>
@@ -17156,22 +17241,22 @@
         <v>27</v>
       </c>
       <c r="C29" s="77" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D29" s="77">
         <v>2019</v>
       </c>
       <c r="E29" s="78" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F29" s="78" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G29" s="79">
         <v>0.13194444444444445</v>
       </c>
       <c r="H29" s="41"/>
-      <c r="I29" s="160"/>
+      <c r="I29" s="161"/>
       <c r="J29" s="77" t="s">
         <v>30</v>
       </c>
@@ -17195,7 +17280,7 @@
       </c>
       <c r="Q29" s="41"/>
       <c r="R29" s="102" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="S29" s="41"/>
       <c r="T29" s="41"/>
@@ -17237,13 +17322,13 @@
         <v>28</v>
       </c>
       <c r="C30" s="57" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D30" s="57">
         <v>2008</v>
       </c>
       <c r="E30" s="73" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F30" s="73" t="s">
         <v>14</v>
@@ -17252,9 +17337,9 @@
         <v>14</v>
       </c>
       <c r="H30" s="41"/>
-      <c r="I30" s="160"/>
+      <c r="I30" s="161"/>
       <c r="J30" s="105" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="K30" s="87">
         <v>5.486111111111111E-2</v>
@@ -17276,7 +17361,7 @@
       </c>
       <c r="Q30" s="41"/>
       <c r="R30" s="103" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="S30" s="41"/>
       <c r="T30" s="41"/>
@@ -17318,24 +17403,24 @@
         <v>29</v>
       </c>
       <c r="C31" s="77" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D31" s="77">
         <v>2021</v>
       </c>
       <c r="E31" s="78" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="F31" s="78" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G31" s="79">
         <v>0.43888888888888888</v>
       </c>
       <c r="H31" s="41"/>
-      <c r="I31" s="161"/>
+      <c r="I31" s="162"/>
       <c r="J31" s="77" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K31" s="79">
         <v>0.55208333333333337</v>
@@ -17357,7 +17442,7 @@
       </c>
       <c r="Q31" s="41"/>
       <c r="R31" s="102" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="S31" s="41"/>
       <c r="T31" s="41"/>
@@ -17399,26 +17484,26 @@
         <v>30</v>
       </c>
       <c r="C32" s="57" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D32" s="57">
         <v>1995</v>
       </c>
       <c r="E32" s="73" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F32" s="73" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="G32" s="63">
         <v>0.42083333333333334</v>
       </c>
       <c r="H32" s="41"/>
-      <c r="I32" s="159" t="s">
-        <v>190</v>
+      <c r="I32" s="160" t="s">
+        <v>185</v>
       </c>
       <c r="J32" s="111" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K32" s="110">
         <v>0.17569444444444446</v>
@@ -17440,7 +17525,7 @@
       </c>
       <c r="Q32" s="41"/>
       <c r="R32" s="103" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="S32" s="41"/>
       <c r="T32" s="41"/>
@@ -17482,24 +17567,24 @@
         <v>31</v>
       </c>
       <c r="C33" s="77" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D33" s="77">
         <v>2021</v>
       </c>
       <c r="E33" s="78" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F33" s="78" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="G33" s="79">
         <v>2.7097222222222221</v>
       </c>
       <c r="H33" s="41"/>
-      <c r="I33" s="160"/>
+      <c r="I33" s="161"/>
       <c r="J33" s="77" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="K33" s="79">
         <v>0.87083333333333324</v>
@@ -17520,10 +17605,10 @@
         <v>5.4847222222222216</v>
       </c>
       <c r="Q33" s="41" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="R33" s="133" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="S33" s="41"/>
       <c r="T33" s="41"/>
@@ -17565,13 +17650,13 @@
         <v>32</v>
       </c>
       <c r="C34" s="57" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D34" s="57">
         <v>2021</v>
       </c>
       <c r="E34" s="73" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F34" s="73" t="s">
         <v>14</v>
@@ -17580,16 +17665,16 @@
         <v>14</v>
       </c>
       <c r="H34" s="41"/>
-      <c r="I34" s="160"/>
+      <c r="I34" s="161"/>
       <c r="J34" s="57" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="K34" s="87">
         <v>4.9999999999999996E-2</v>
       </c>
       <c r="L34" s="41"/>
       <c r="M34" s="130" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="N34" s="131">
         <f>SUM(N22:N33)</f>
@@ -17645,24 +17730,24 @@
         <v>33</v>
       </c>
       <c r="C35" s="77" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D35" s="77">
         <v>2019</v>
       </c>
       <c r="E35" s="78" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F35" s="78" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G35" s="79">
         <v>0.11041666666666666</v>
       </c>
       <c r="H35" s="41"/>
-      <c r="I35" s="160"/>
+      <c r="I35" s="161"/>
       <c r="J35" s="84" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="K35" s="79">
         <v>0.23750000000000002</v>
@@ -17714,32 +17799,32 @@
         <v>34</v>
       </c>
       <c r="C36" s="57" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D36" s="57">
         <v>2021</v>
       </c>
       <c r="E36" s="73" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F36" s="73" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G36" s="63">
         <v>0.37083333333333335</v>
       </c>
       <c r="H36" s="41"/>
-      <c r="I36" s="160"/>
+      <c r="I36" s="161"/>
       <c r="J36" s="57" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K36" s="63">
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="L36" s="41"/>
-      <c r="M36" s="162"/>
-      <c r="N36" s="162"/>
-      <c r="O36" s="162"/>
+      <c r="M36" s="156"/>
+      <c r="N36" s="156"/>
+      <c r="O36" s="156"/>
       <c r="P36" s="129"/>
       <c r="Q36" s="43"/>
       <c r="R36" s="43"/>
@@ -17783,32 +17868,32 @@
         <v>35</v>
       </c>
       <c r="C37" s="77" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D37" s="77">
         <v>2019</v>
       </c>
       <c r="E37" s="78" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F37" s="78" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G37" s="79">
         <v>0.80694444444444446</v>
       </c>
       <c r="H37" s="41"/>
-      <c r="I37" s="160"/>
+      <c r="I37" s="161"/>
       <c r="J37" s="84" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="K37" s="79">
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="L37" s="41"/>
-      <c r="M37" s="162"/>
-      <c r="N37" s="162"/>
-      <c r="O37" s="162"/>
+      <c r="M37" s="156"/>
+      <c r="N37" s="156"/>
+      <c r="O37" s="156"/>
       <c r="P37" s="129"/>
       <c r="Q37" s="43"/>
       <c r="R37" s="43"/>
@@ -17852,32 +17937,32 @@
         <v>36</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="D38" s="12">
         <v>2021</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G38" s="106">
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="H38" s="41"/>
-      <c r="I38" s="161"/>
+      <c r="I38" s="162"/>
       <c r="J38" s="12" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="K38" s="106">
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="L38" s="41"/>
-      <c r="M38" s="162"/>
-      <c r="N38" s="162"/>
-      <c r="O38" s="162"/>
+      <c r="M38" s="156"/>
+      <c r="N38" s="156"/>
+      <c r="O38" s="156"/>
       <c r="P38" s="129"/>
       <c r="Q38" s="43"/>
       <c r="R38" s="43"/>
@@ -17924,19 +18009,19 @@
       <c r="F39" s="31"/>
       <c r="G39" s="64"/>
       <c r="H39" s="41"/>
-      <c r="I39" s="159" t="s">
-        <v>217</v>
+      <c r="I39" s="160" t="s">
+        <v>210</v>
       </c>
       <c r="J39" s="120" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="K39" s="76">
         <v>0.14583333333333334</v>
       </c>
       <c r="L39" s="41"/>
-      <c r="M39" s="162"/>
-      <c r="N39" s="162"/>
-      <c r="O39" s="162"/>
+      <c r="M39" s="156"/>
+      <c r="N39" s="156"/>
+      <c r="O39" s="156"/>
       <c r="P39" s="128"/>
       <c r="Q39" s="43"/>
       <c r="R39" s="43"/>
@@ -17983,17 +18068,17 @@
       <c r="F40" s="40"/>
       <c r="G40" s="65"/>
       <c r="H40" s="41"/>
-      <c r="I40" s="160"/>
+      <c r="I40" s="161"/>
       <c r="J40" s="117" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="K40" s="87">
         <v>0.3666666666666667</v>
       </c>
       <c r="L40" s="41"/>
-      <c r="M40" s="162"/>
-      <c r="N40" s="162"/>
-      <c r="O40" s="162"/>
+      <c r="M40" s="156"/>
+      <c r="N40" s="156"/>
+      <c r="O40" s="156"/>
       <c r="P40" s="128"/>
       <c r="Q40" s="43"/>
       <c r="R40" s="43"/>
@@ -18039,17 +18124,17 @@
       <c r="F41" s="31"/>
       <c r="G41" s="64"/>
       <c r="H41" s="41"/>
-      <c r="I41" s="160"/>
+      <c r="I41" s="161"/>
       <c r="J41" s="116" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="K41" s="79">
         <v>0.53333333333333333</v>
       </c>
       <c r="L41" s="41"/>
-      <c r="M41" s="162"/>
-      <c r="N41" s="162"/>
-      <c r="O41" s="162"/>
+      <c r="M41" s="156"/>
+      <c r="N41" s="156"/>
+      <c r="O41" s="156"/>
       <c r="P41" s="128"/>
       <c r="Q41" s="43"/>
       <c r="R41" s="43"/>
@@ -18096,9 +18181,9 @@
       <c r="F42" s="31"/>
       <c r="G42" s="64"/>
       <c r="H42" s="41"/>
-      <c r="I42" s="160"/>
+      <c r="I42" s="161"/>
       <c r="J42" s="118" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="K42" s="63">
         <v>0.11388888888888889</v>
@@ -18153,9 +18238,9 @@
       <c r="F43" s="41"/>
       <c r="G43" s="66"/>
       <c r="H43" s="41"/>
-      <c r="I43" s="160"/>
+      <c r="I43" s="161"/>
       <c r="J43" s="116" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="K43" s="79">
         <v>0.22083333333333333</v>
@@ -18210,9 +18295,9 @@
       <c r="F44" s="41"/>
       <c r="G44" s="66"/>
       <c r="H44" s="41"/>
-      <c r="I44" s="160"/>
+      <c r="I44" s="161"/>
       <c r="J44" s="117" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="K44" s="87">
         <v>0.87916666666666676</v>
@@ -18267,9 +18352,9 @@
       <c r="F45" s="41"/>
       <c r="G45" s="66"/>
       <c r="H45" s="41"/>
-      <c r="I45" s="161"/>
+      <c r="I45" s="162"/>
       <c r="J45" s="119" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K45" s="114">
         <v>4.4444444444444446E-2</v>
@@ -18324,11 +18409,11 @@
       <c r="F46" s="41"/>
       <c r="G46" s="66"/>
       <c r="H46" s="41"/>
-      <c r="I46" s="156" t="s">
-        <v>225</v>
+      <c r="I46" s="157" t="s">
+        <v>218</v>
       </c>
       <c r="J46" s="123" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="K46" s="110">
         <v>4.9999999999999996E-2</v>
@@ -18383,9 +18468,9 @@
       <c r="F47" s="41"/>
       <c r="G47" s="66"/>
       <c r="H47" s="41"/>
-      <c r="I47" s="157"/>
+      <c r="I47" s="158"/>
       <c r="J47" s="84" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="K47" s="86">
         <v>0.1875</v>
@@ -18440,9 +18525,9 @@
       <c r="F48" s="41"/>
       <c r="G48" s="66"/>
       <c r="H48" s="41"/>
-      <c r="I48" s="157"/>
+      <c r="I48" s="158"/>
       <c r="J48" s="105" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="K48" s="87">
         <v>0.3923611111111111</v>
@@ -18497,9 +18582,9 @@
       <c r="F49" s="41"/>
       <c r="G49" s="66"/>
       <c r="H49" s="41"/>
-      <c r="I49" s="158"/>
+      <c r="I49" s="159"/>
       <c r="J49" s="124" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="K49" s="114">
         <v>0.17222222222222225</v>
@@ -18554,11 +18639,11 @@
       <c r="F50" s="41"/>
       <c r="G50" s="41"/>
       <c r="H50" s="41"/>
-      <c r="I50" s="156" t="s">
-        <v>240</v>
+      <c r="I50" s="157" t="s">
+        <v>233</v>
       </c>
       <c r="J50" s="125" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="K50" s="110">
         <v>8.5416666666666655E-2</v>
@@ -18613,9 +18698,9 @@
       <c r="F51" s="41"/>
       <c r="G51" s="41"/>
       <c r="H51" s="41"/>
-      <c r="I51" s="157"/>
+      <c r="I51" s="158"/>
       <c r="J51" s="126" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="K51" s="86">
         <v>0.16666666666666666</v>
@@ -18670,9 +18755,9 @@
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
       <c r="H52" s="41"/>
-      <c r="I52" s="157"/>
+      <c r="I52" s="158"/>
       <c r="J52" s="118" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="K52" s="87">
         <v>0.75</v>
@@ -18727,9 +18812,9 @@
       <c r="F53" s="41"/>
       <c r="G53" s="41"/>
       <c r="H53" s="41"/>
-      <c r="I53" s="158"/>
+      <c r="I53" s="159"/>
       <c r="J53" s="119" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="K53" s="114">
         <v>6.5277777777777782E-2</v>
@@ -18784,11 +18869,11 @@
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
       <c r="H54" s="41"/>
-      <c r="I54" s="156" t="s">
-        <v>251</v>
+      <c r="I54" s="157" t="s">
+        <v>244</v>
       </c>
       <c r="J54" s="125" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="K54" s="110">
         <v>0.20416666666666669</v>
@@ -18843,9 +18928,9 @@
       <c r="F55" s="41"/>
       <c r="G55" s="41"/>
       <c r="H55" s="41"/>
-      <c r="I55" s="157"/>
+      <c r="I55" s="158"/>
       <c r="J55" s="126" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="K55" s="86">
         <v>0.25</v>
@@ -18900,7 +18985,7 @@
       <c r="F56" s="41"/>
       <c r="G56" s="41"/>
       <c r="H56" s="41"/>
-      <c r="I56" s="157"/>
+      <c r="I56" s="158"/>
       <c r="J56" s="118" t="s">
         <v>30</v>
       </c>
@@ -18957,9 +19042,9 @@
       <c r="F57" s="41"/>
       <c r="G57" s="41"/>
       <c r="H57" s="41"/>
-      <c r="I57" s="158"/>
+      <c r="I57" s="159"/>
       <c r="J57" s="119" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="K57" s="114">
         <v>3.8194444444444441E-2</v>
@@ -19014,11 +19099,11 @@
       <c r="F58" s="41"/>
       <c r="G58" s="41"/>
       <c r="H58" s="41"/>
-      <c r="I58" s="156" t="s">
-        <v>254</v>
+      <c r="I58" s="157" t="s">
+        <v>247</v>
       </c>
       <c r="J58" s="125" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K58" s="110">
         <v>0.25486111111111109</v>
@@ -19073,9 +19158,9 @@
       <c r="F59" s="41"/>
       <c r="G59" s="41"/>
       <c r="H59" s="41"/>
-      <c r="I59" s="157"/>
+      <c r="I59" s="158"/>
       <c r="J59" s="126" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="K59" s="86">
         <v>0.11944444444444445</v>
@@ -19130,9 +19215,9 @@
       <c r="F60" s="41"/>
       <c r="G60" s="41"/>
       <c r="H60" s="41"/>
-      <c r="I60" s="157"/>
+      <c r="I60" s="158"/>
       <c r="J60" s="118" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="K60" s="87">
         <v>0.19097222222222221</v>
@@ -19187,9 +19272,9 @@
       <c r="F61" s="41"/>
       <c r="G61" s="41"/>
       <c r="H61" s="41"/>
-      <c r="I61" s="157"/>
+      <c r="I61" s="158"/>
       <c r="J61" s="126" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="K61" s="86">
         <v>0.18611111111111112</v>
@@ -19244,7 +19329,7 @@
       <c r="F62" s="41"/>
       <c r="G62" s="41"/>
       <c r="H62" s="41"/>
-      <c r="I62" s="157"/>
+      <c r="I62" s="158"/>
       <c r="J62" s="118" t="s">
         <v>30</v>
       </c>
@@ -19301,9 +19386,9 @@
       <c r="F63" s="41"/>
       <c r="G63" s="41"/>
       <c r="H63" s="41"/>
-      <c r="I63" s="158"/>
+      <c r="I63" s="159"/>
       <c r="J63" s="119" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="K63" s="114">
         <v>3.888888888888889E-2</v>
@@ -22116,7 +22201,7 @@
       <c r="H116" s="41"/>
       <c r="I116" s="121"/>
       <c r="J116" s="43" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="K116" s="115"/>
       <c r="L116" s="41"/>
@@ -22171,7 +22256,7 @@
       <c r="H117" s="41"/>
       <c r="I117" s="121"/>
       <c r="J117" s="43" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="K117" s="115"/>
       <c r="L117" s="41"/>
@@ -22336,10 +22421,10 @@
       <c r="L120" s="41"/>
       <c r="M120" s="41"/>
       <c r="N120" s="46" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="O120" s="59" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="P120" s="41"/>
       <c r="Q120" s="41"/>
@@ -23201,7 +23286,7 @@
       <c r="H135" s="41"/>
       <c r="I135" s="121"/>
       <c r="J135" s="43" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K135" s="43"/>
       <c r="L135" s="41"/>
@@ -23261,7 +23346,7 @@
       <c r="H136" s="41"/>
       <c r="I136" s="121"/>
       <c r="J136" s="43" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K136" s="43"/>
       <c r="L136" s="41"/>
@@ -23963,7 +24048,7 @@
       <c r="L148" s="41"/>
       <c r="M148" s="41"/>
       <c r="N148" s="44" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="O148" s="45">
         <f>SUM(O121:O147)</f>
@@ -24955,12 +25040,6 @@
     <sortCondition ref="J33"/>
   </sortState>
   <mergeCells count="18">
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="M39:O39"/>
     <mergeCell ref="I58:I63"/>
     <mergeCell ref="I54:I57"/>
     <mergeCell ref="I50:I53"/>
@@ -24973,6 +25052,12 @@
     <mergeCell ref="I32:I38"/>
     <mergeCell ref="I27:I31"/>
     <mergeCell ref="I14:I19"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="M39:O39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24989,7 +25074,7 @@
   <dimension ref="A1:V153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -25047,7 +25132,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="90" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E2" s="90" t="s">
         <v>13</v>
@@ -25060,12 +25145,12 @@
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="163" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="J2" s="165"/>
       <c r="K2" s="143"/>
       <c r="L2" s="165" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="M2" s="164"/>
       <c r="N2" s="41"/>
@@ -25084,23 +25169,23 @@
         <v>1</v>
       </c>
       <c r="C3" s="77" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D3" s="77">
         <v>2019</v>
       </c>
       <c r="E3" s="78" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F3" s="78" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G3" s="79">
         <v>0.80694444444444446</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="126" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="J3" s="138">
         <v>4.5833333333333337E-2</v>
@@ -25128,30 +25213,30 @@
         <v>2</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D4" s="57">
         <v>2020</v>
       </c>
       <c r="E4" s="73" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F4" s="73" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G4" s="63">
         <v>0.17083333333333331</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="117" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J4" s="139">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="K4" s="144"/>
       <c r="L4" s="105" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="M4" s="63">
         <v>5.9722222222222225E-2</v>
@@ -25172,16 +25257,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="77" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D5" s="77">
         <v>2020</v>
       </c>
       <c r="E5" s="78" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F5" s="78" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G5" s="79">
         <v>0.33749999999999997</v>
@@ -25195,7 +25280,7 @@
       </c>
       <c r="K5" s="144"/>
       <c r="L5" s="77" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="M5" s="79">
         <v>0.19791666666666666</v>
@@ -25216,30 +25301,30 @@
         <v>4</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D6" s="57">
         <v>2012</v>
       </c>
       <c r="E6" s="73" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="F6" s="73" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G6" s="63">
         <v>0.15</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="117" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="J6" s="139">
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="K6" s="144"/>
       <c r="L6" s="57" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="M6" s="63">
         <v>5.9027777777777783E-2</v>
@@ -25260,23 +25345,23 @@
         <v>5</v>
       </c>
       <c r="C7" s="77" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D7" s="77">
         <v>2021</v>
       </c>
       <c r="E7" s="78" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F7" s="78" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G7" s="79">
         <v>2.7097222222222221</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="141" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="J7" s="140">
         <v>0.1763888888888889</v>
@@ -25300,16 +25385,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D8" s="57">
         <v>2022</v>
       </c>
       <c r="E8" s="73" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="F8" s="73" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="G8" s="63">
         <v>0.32083333333333336</v>
@@ -25332,28 +25417,28 @@
         <v>7</v>
       </c>
       <c r="C9" s="77" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D9" s="77">
         <v>2019</v>
       </c>
       <c r="E9" s="78" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F9" s="78" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G9" s="79">
         <v>0.20416666666666669</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="163" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J9" s="165"/>
       <c r="K9" s="143"/>
       <c r="L9" s="165" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="M9" s="164"/>
       <c r="N9" s="41"/>
@@ -25372,13 +25457,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D10" s="57">
         <v>2000</v>
       </c>
       <c r="E10" s="73" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F10" s="73" t="s">
         <v>14</v>
@@ -25416,16 +25501,16 @@
         <v>9</v>
       </c>
       <c r="C11" s="77" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D11" s="77">
         <v>2019</v>
       </c>
       <c r="E11" s="78" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F11" s="78" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="G11" s="79">
         <v>0.20833333333333334</v>
@@ -25435,7 +25520,7 @@
       <c r="J11" s="139"/>
       <c r="K11" s="144"/>
       <c r="L11" s="105" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="M11" s="63">
         <v>5.0694444444444452E-2</v>
@@ -25456,16 +25541,16 @@
         <v>10</v>
       </c>
       <c r="C12" s="57" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D12" s="57">
         <v>2019</v>
       </c>
       <c r="E12" s="73" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F12" s="73" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="G12" s="63">
         <v>1.6291666666666667</v>
@@ -25475,7 +25560,7 @@
       <c r="J12" s="138"/>
       <c r="K12" s="144"/>
       <c r="L12" s="77" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="M12" s="79">
         <v>4.8611111111111112E-2</v>
@@ -25496,16 +25581,16 @@
         <v>11</v>
       </c>
       <c r="C13" s="77" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D13" s="77">
         <v>2022</v>
       </c>
       <c r="E13" s="78" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="F13" s="78" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G13" s="79">
         <v>0.8618055555555556</v>
@@ -25532,28 +25617,28 @@
         <v>12</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D14" s="57">
         <v>2011</v>
       </c>
       <c r="E14" s="73" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F14" s="73" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G14" s="63">
         <v>0.15208333333333332</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="163" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="J14" s="164"/>
       <c r="K14" s="143"/>
       <c r="L14" s="163" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="M14" s="164"/>
       <c r="N14" s="41"/>
@@ -25572,16 +25657,16 @@
         <v>13</v>
       </c>
       <c r="C15" s="77" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="D15" s="77">
         <v>1999</v>
       </c>
       <c r="E15" s="78" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F15" s="78" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G15" s="79">
         <v>0.41388888888888892</v>
@@ -25595,9 +25680,11 @@
       </c>
       <c r="K15" s="144"/>
       <c r="L15" s="137" t="s">
-        <v>312</v>
-      </c>
-      <c r="M15" s="76"/>
+        <v>304</v>
+      </c>
+      <c r="M15" s="76">
+        <v>0.66319444444444442</v>
+      </c>
       <c r="N15" s="41"/>
       <c r="O15" s="40"/>
       <c r="P15" s="41"/>
@@ -25614,30 +25701,34 @@
         <v>14</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="D16" s="57">
         <v>2022</v>
       </c>
       <c r="E16" s="73" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F16" s="73" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G16" s="63">
         <v>7.013888888888889E-2</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="117" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="J16" s="139">
         <v>5.8333333333333327E-2</v>
       </c>
       <c r="K16" s="144"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="63"/>
+      <c r="L16" s="105" t="s">
+        <v>326</v>
+      </c>
+      <c r="M16" s="63">
+        <v>0.3520833333333333</v>
+      </c>
       <c r="N16" s="41"/>
       <c r="O16" s="40"/>
       <c r="P16" s="41"/>
@@ -25654,30 +25745,34 @@
         <v>15</v>
       </c>
       <c r="C17" s="77" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D17" s="77">
         <v>2019</v>
       </c>
       <c r="E17" s="78" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F17" s="78" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G17" s="79">
         <v>0.56944444444444442</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="116" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="J17" s="138">
         <v>0.35138888888888892</v>
       </c>
       <c r="K17" s="144"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="79"/>
+      <c r="L17" s="77" t="s">
+        <v>321</v>
+      </c>
+      <c r="M17" s="79">
+        <v>7.6388888888888895E-2</v>
+      </c>
       <c r="N17" s="41"/>
       <c r="O17" s="40"/>
       <c r="P17" s="41"/>
@@ -25693,21 +25788,35 @@
       <c r="B18" s="82">
         <v>16</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="63"/>
+      <c r="C18" s="57" t="s">
+        <v>319</v>
+      </c>
+      <c r="D18" s="57">
+        <v>2022</v>
+      </c>
+      <c r="E18" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="73" t="s">
+        <v>320</v>
+      </c>
+      <c r="G18" s="63">
+        <v>0.38819444444444445</v>
+      </c>
       <c r="H18" s="8"/>
       <c r="I18" s="117" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="J18" s="139">
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="K18" s="144"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="63"/>
+      <c r="L18" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="M18" s="63">
+        <v>0.59791666666666665</v>
+      </c>
       <c r="N18" s="41"/>
       <c r="O18" s="40"/>
       <c r="P18" s="41"/>
@@ -25723,21 +25832,35 @@
       <c r="B19" s="74">
         <v>17</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="79"/>
+      <c r="C19" s="77" t="s">
+        <v>331</v>
+      </c>
+      <c r="D19" s="77">
+        <v>2022</v>
+      </c>
+      <c r="E19" s="78" t="s">
+        <v>322</v>
+      </c>
+      <c r="F19" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="79" t="s">
+        <v>14</v>
+      </c>
       <c r="H19" s="8"/>
       <c r="I19" s="141" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J19" s="140">
         <v>0.12361111111111112</v>
       </c>
       <c r="K19" s="144"/>
-      <c r="L19" s="140"/>
-      <c r="M19" s="81"/>
+      <c r="L19" s="140" t="s">
+        <v>318</v>
+      </c>
+      <c r="M19" s="81">
+        <v>0.11944444444444445</v>
+      </c>
       <c r="N19" s="41"/>
       <c r="O19" s="40"/>
       <c r="P19" s="41"/>
@@ -25753,11 +25876,21 @@
       <c r="B20" s="82">
         <v>18</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="63"/>
+      <c r="C20" s="57" t="s">
+        <v>323</v>
+      </c>
+      <c r="D20" s="57">
+        <v>2003</v>
+      </c>
+      <c r="E20" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="73" t="s">
+        <v>324</v>
+      </c>
+      <c r="G20" s="63">
+        <v>0.28472222222222221</v>
+      </c>
       <c r="H20" s="8"/>
       <c r="K20" s="142"/>
       <c r="N20" s="41"/>
@@ -25775,19 +25908,29 @@
       <c r="B21" s="74">
         <v>19</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="79"/>
+      <c r="C21" s="77" t="s">
+        <v>325</v>
+      </c>
+      <c r="D21" s="77">
+        <v>2005</v>
+      </c>
+      <c r="E21" s="78" t="s">
+        <v>329</v>
+      </c>
+      <c r="F21" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" s="79">
+        <v>0.35138888888888892</v>
+      </c>
       <c r="H21" s="8"/>
       <c r="I21" s="163" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="J21" s="164"/>
       <c r="K21" s="143"/>
       <c r="L21" s="163" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="M21" s="164"/>
       <c r="N21" s="41"/>
@@ -25795,17 +25938,17 @@
         <v>32</v>
       </c>
       <c r="P21" s="95" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="Q21" s="95" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R21" s="96" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="S21" s="41"/>
       <c r="T21" s="92" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="U21" s="41"/>
       <c r="V21" s="41"/>
@@ -25821,7 +25964,9 @@
       <c r="F22" s="22"/>
       <c r="G22" s="106"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="126"/>
+      <c r="I22" s="126" t="s">
+        <v>328</v>
+      </c>
       <c r="J22" s="138"/>
       <c r="K22" s="144"/>
       <c r="L22" s="137"/>
@@ -25838,12 +25983,12 @@
         <v>1.0930555555555554</v>
       </c>
       <c r="R22" s="100">
-        <f>P22+Q22</f>
+        <f t="shared" ref="R22:R27" si="0">P22+Q22</f>
         <v>2.3708333333333336</v>
       </c>
       <c r="S22" s="41"/>
       <c r="T22" s="108" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="U22" s="41"/>
       <c r="V22" s="41"/>
@@ -25857,7 +26002,9 @@
       <c r="F23" s="31"/>
       <c r="G23" s="64"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="117"/>
+      <c r="I23" s="117" t="s">
+        <v>326</v>
+      </c>
       <c r="J23" s="139"/>
       <c r="K23" s="144"/>
       <c r="L23" s="105"/>
@@ -25874,12 +26021,12 @@
         <v>0.75138888888888888</v>
       </c>
       <c r="R23" s="94">
-        <f>P23+Q23</f>
+        <f t="shared" si="0"/>
         <v>1.4465277777777779</v>
       </c>
       <c r="S23" s="41"/>
       <c r="T23" s="102" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="U23" s="41"/>
       <c r="V23" s="41"/>
@@ -25887,13 +26034,14 @@
     <row r="24" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="31"/>
       <c r="F24" s="31"/>
       <c r="G24" s="64"/>
       <c r="H24" s="40"/>
-      <c r="I24" s="116"/>
+      <c r="I24" s="116" t="s">
+        <v>30</v>
+      </c>
       <c r="J24" s="138"/>
       <c r="K24" s="144"/>
       <c r="L24" s="77"/>
@@ -25910,7 +26058,7 @@
         <v>2.1409722222222221</v>
       </c>
       <c r="R24" s="101">
-        <f>P24+Q24</f>
+        <f t="shared" si="0"/>
         <v>2.3493055555555555</v>
       </c>
       <c r="S24" s="41"/>
@@ -25929,7 +26077,9 @@
       <c r="F25" s="31"/>
       <c r="G25" s="64"/>
       <c r="H25" s="41"/>
-      <c r="I25" s="117"/>
+      <c r="I25" s="117" t="s">
+        <v>214</v>
+      </c>
       <c r="J25" s="139"/>
       <c r="K25" s="144"/>
       <c r="L25" s="57"/>
@@ -25946,12 +26096,12 @@
         <v>0.95625000000000004</v>
       </c>
       <c r="R25" s="94">
-        <f>P25+Q25</f>
+        <f t="shared" si="0"/>
         <v>1.963888888888889</v>
       </c>
       <c r="S25" s="41"/>
       <c r="T25" s="102" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="U25" s="41"/>
       <c r="V25" s="41"/>
@@ -25982,12 +26132,12 @@
         <v>0.67847222222222214</v>
       </c>
       <c r="R26" s="101">
-        <f>P26+Q26</f>
+        <f t="shared" si="0"/>
         <v>2.5243055555555554</v>
       </c>
       <c r="S26" s="41"/>
       <c r="T26" s="103" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="U26" s="41"/>
       <c r="V26" s="41"/>
@@ -26006,12 +26156,20 @@
       <c r="O27" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="68"/>
-      <c r="R27" s="94"/>
+      <c r="P27" s="68">
+        <v>1.7430555555555556</v>
+      </c>
+      <c r="Q27" s="68">
+        <f>SUM(M15:M19)</f>
+        <v>1.8090277777777777</v>
+      </c>
+      <c r="R27" s="94">
+        <f t="shared" si="0"/>
+        <v>3.552083333333333</v>
+      </c>
       <c r="S27" s="41"/>
       <c r="T27" s="102" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="U27" s="41"/>
       <c r="V27" s="41"/>
@@ -26026,12 +26184,12 @@
       <c r="G28" s="64"/>
       <c r="H28" s="41"/>
       <c r="I28" s="163" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="J28" s="164"/>
       <c r="K28" s="143"/>
       <c r="L28" s="163" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="M28" s="164"/>
       <c r="N28" s="41"/>
@@ -26042,7 +26200,9 @@
       <c r="Q28" s="85"/>
       <c r="R28" s="101"/>
       <c r="S28" s="41"/>
-      <c r="T28" s="103"/>
+      <c r="T28" s="104" t="s">
+        <v>330</v>
+      </c>
       <c r="U28" s="41"/>
       <c r="V28" s="41"/>
     </row>
@@ -26172,7 +26332,7 @@
       <c r="Q33" s="68"/>
       <c r="R33" s="94"/>
       <c r="S33" s="41" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="T33" s="133"/>
       <c r="U33" s="41"/>
@@ -26190,19 +26350,19 @@
       <c r="K34" s="142"/>
       <c r="N34" s="41"/>
       <c r="O34" s="130" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="P34" s="131">
-        <f t="shared" ref="P34:Q34" si="0">SUM(P22:P33)</f>
-        <v>5.0347222222222223</v>
+        <f t="shared" ref="P34:Q34" si="1">SUM(P22:P33)</f>
+        <v>6.7777777777777777</v>
       </c>
       <c r="Q34" s="131">
-        <f t="shared" si="0"/>
-        <v>5.6201388888888886</v>
+        <f t="shared" si="1"/>
+        <v>7.4291666666666663</v>
       </c>
       <c r="R34" s="132">
         <f>SUM(R22:R33)</f>
-        <v>10.654861111111112</v>
+        <v>14.206944444444446</v>
       </c>
       <c r="S34" s="41"/>
       <c r="T34" s="41"/>
@@ -26219,12 +26379,12 @@
       <c r="G35" s="64"/>
       <c r="H35" s="41"/>
       <c r="I35" s="163" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="J35" s="164"/>
       <c r="K35" s="143"/>
       <c r="L35" s="163" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="M35" s="164"/>
       <c r="N35" s="41"/>
@@ -26252,9 +26412,9 @@
       <c r="L36" s="137"/>
       <c r="M36" s="76"/>
       <c r="N36" s="41"/>
-      <c r="O36" s="162"/>
-      <c r="P36" s="162"/>
-      <c r="Q36" s="162"/>
+      <c r="O36" s="156"/>
+      <c r="P36" s="156"/>
+      <c r="Q36" s="156"/>
       <c r="R36" s="129"/>
       <c r="S36" s="43"/>
       <c r="T36" s="43"/>
@@ -26276,9 +26436,9 @@
       <c r="L37" s="105"/>
       <c r="M37" s="63"/>
       <c r="N37" s="41"/>
-      <c r="O37" s="162"/>
-      <c r="P37" s="162"/>
-      <c r="Q37" s="162"/>
+      <c r="O37" s="156"/>
+      <c r="P37" s="156"/>
+      <c r="Q37" s="156"/>
       <c r="R37" s="129"/>
       <c r="S37" s="43"/>
       <c r="T37" s="43"/>
@@ -26300,9 +26460,9 @@
       <c r="L38" s="77"/>
       <c r="M38" s="79"/>
       <c r="N38" s="41"/>
-      <c r="O38" s="162"/>
-      <c r="P38" s="162"/>
-      <c r="Q38" s="162"/>
+      <c r="O38" s="156"/>
+      <c r="P38" s="156"/>
+      <c r="Q38" s="156"/>
       <c r="R38" s="129"/>
       <c r="S38" s="43"/>
       <c r="T38" s="43"/>
@@ -26324,9 +26484,9 @@
       <c r="L39" s="57"/>
       <c r="M39" s="63"/>
       <c r="N39" s="41"/>
-      <c r="O39" s="162"/>
-      <c r="P39" s="162"/>
-      <c r="Q39" s="162"/>
+      <c r="O39" s="156"/>
+      <c r="P39" s="156"/>
+      <c r="Q39" s="156"/>
       <c r="R39" s="128"/>
       <c r="S39" s="43"/>
       <c r="T39" s="43"/>
@@ -26348,9 +26508,9 @@
       <c r="L40" s="140"/>
       <c r="M40" s="81"/>
       <c r="N40" s="41"/>
-      <c r="O40" s="162"/>
-      <c r="P40" s="162"/>
-      <c r="Q40" s="162"/>
+      <c r="O40" s="156"/>
+      <c r="P40" s="156"/>
+      <c r="Q40" s="156"/>
       <c r="R40" s="128"/>
       <c r="S40" s="43"/>
       <c r="T40" s="43"/>
@@ -26367,9 +26527,9 @@
       <c r="G41" s="64"/>
       <c r="H41" s="41"/>
       <c r="N41" s="41"/>
-      <c r="O41" s="162"/>
-      <c r="P41" s="162"/>
-      <c r="Q41" s="162"/>
+      <c r="O41" s="156"/>
+      <c r="P41" s="156"/>
+      <c r="Q41" s="156"/>
       <c r="R41" s="128"/>
       <c r="S41" s="43"/>
       <c r="T41" s="43"/>
@@ -28157,7 +28317,7 @@
       <c r="G116" s="66"/>
       <c r="H116" s="41"/>
       <c r="I116" s="134" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="J116" s="115"/>
       <c r="K116" s="115"/>
@@ -28183,7 +28343,7 @@
       <c r="G117" s="66"/>
       <c r="H117" s="41"/>
       <c r="I117" s="134" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="J117" s="115"/>
       <c r="K117" s="115"/>
@@ -28264,10 +28424,10 @@
       <c r="N120" s="41"/>
       <c r="O120" s="41"/>
       <c r="P120" s="46" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Q120" s="59" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="R120" s="41"/>
       <c r="S120" s="41"/>
@@ -28760,7 +28920,7 @@
       </c>
       <c r="Q137" s="49">
         <f>COUNTIF(D3:D59,P137)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R137" s="41"/>
       <c r="S137" s="41"/>
@@ -28818,7 +28978,7 @@
       </c>
       <c r="Q139" s="49">
         <f>COUNTIF(D3:D59,P139)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R139" s="41"/>
       <c r="S139" s="41"/>
@@ -29075,11 +29235,11 @@
       <c r="N148" s="41"/>
       <c r="O148" s="41"/>
       <c r="P148" s="44" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Q148" s="45">
         <f>SUM(Q121:Q147)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R148" s="41"/>
       <c r="S148" s="41"/>
@@ -29212,12 +29372,6 @@
     <sortCondition ref="I9"/>
   </sortState>
   <mergeCells count="18">
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="O39:Q39"/>
-    <mergeCell ref="O40:Q40"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="L21:M21"/>
@@ -29230,6 +29384,12 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="I35:J35"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="O40:Q40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I116" r:id="rId1"/>

--- a/spreadsheets/Games.xlsx
+++ b/spreadsheets/Games.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="342">
   <si>
     <t>Nier: Automata</t>
   </si>
@@ -1313,27 +1313,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Ubuntu"/>
-        <family val="2"/>
-      </rPr>
-      <t>DoS (4h 47m)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Ubuntu"/>
-        <family val="2"/>
-      </rPr>
-      <t>, DoW 1er final (5h 47m)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>TMNT: Shredder's Revenge</t>
     </r>
     <r>
@@ -1466,6 +1445,33 @@
       </rPr>
       <t>(w/Dani, Alberto &amp; Agu)</t>
     </r>
+  </si>
+  <si>
+    <t>Professor Layton &amp; the Miracle Mask</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>DoS (4h 47m)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>, DoS 1er final (5h 47m), Layton5 pasarlo (23h 25m)</t>
+    </r>
+  </si>
+  <si>
+    <t>31-jul.</t>
   </si>
 </sst>
 </file>
@@ -2848,11 +2854,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="993640768"/>
-        <c:axId val="993629344"/>
+        <c:axId val="-613455584"/>
+        <c:axId val="-613450688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="993640768"/>
+        <c:axId val="-613455584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2933,7 +2939,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="993629344"/>
+        <c:crossAx val="-613450688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2941,7 +2947,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="993629344"/>
+        <c:axId val="-613450688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3043,7 +3049,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="993640768"/>
+        <c:crossAx val="-613455584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3415,11 +3421,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="993628256"/>
-        <c:axId val="993635872"/>
+        <c:axId val="-613446880"/>
+        <c:axId val="-613458848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="993628256"/>
+        <c:axId val="-613446880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3462,7 +3468,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="993635872"/>
+        <c:crossAx val="-613458848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3470,7 +3476,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="993635872"/>
+        <c:axId val="-613458848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3521,7 +3527,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="993628256"/>
+        <c:crossAx val="-613446880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3908,11 +3914,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="993628800"/>
-        <c:axId val="993633152"/>
+        <c:axId val="-613452864"/>
+        <c:axId val="-613460480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="993628800"/>
+        <c:axId val="-613452864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3969,7 +3975,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="993633152"/>
+        <c:crossAx val="-613460480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3977,7 +3983,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="993633152"/>
+        <c:axId val="-613460480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3987,7 +3993,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="993628800"/>
+        <c:crossAx val="-613452864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4301,11 +4307,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="993638592"/>
-        <c:axId val="993639136"/>
+        <c:axId val="-613450144"/>
+        <c:axId val="-613458304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="993638592"/>
+        <c:axId val="-613450144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4350,7 +4356,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="993639136"/>
+        <c:crossAx val="-613458304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4358,7 +4364,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="993639136"/>
+        <c:axId val="-613458304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4408,7 +4414,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="993638592"/>
+        <c:crossAx val="-613450144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -4431,7 +4437,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4779,7 +4784,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -4844,11 +4849,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="993639680"/>
-        <c:axId val="993642400"/>
+        <c:axId val="-613447968"/>
+        <c:axId val="-613451776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="993639680"/>
+        <c:axId val="-613447968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4905,7 +4910,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="993642400"/>
+        <c:crossAx val="-613451776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4913,7 +4918,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="993642400"/>
+        <c:axId val="-613451776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4923,7 +4928,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="993639680"/>
+        <c:crossAx val="-613447968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5088,6 +5093,9 @@
                 <c:pt idx="5">
                   <c:v>1.7430555555555556</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2506944444444443</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5187,6 +5195,9 @@
                 <c:pt idx="5">
                   <c:v>1.8090277777777777</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5152777777777775</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5201,11 +5212,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="993640224"/>
-        <c:axId val="993630432"/>
+        <c:axId val="-613457216"/>
+        <c:axId val="-613456128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="993640224"/>
+        <c:axId val="-613457216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5250,7 +5261,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="993630432"/>
+        <c:crossAx val="-613456128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5258,7 +5269,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="993630432"/>
+        <c:axId val="-613456128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5308,7 +5319,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="993640224"/>
+        <c:crossAx val="-613457216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -11002,7 +11013,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E15" s="12">
         <v>2019</v>
@@ -11240,7 +11251,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E21" s="10">
         <v>2018</v>
@@ -11279,7 +11290,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E22" s="10">
         <v>2017</v>
@@ -11324,7 +11335,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E23" s="10">
         <v>2018</v>
@@ -11459,7 +11470,7 @@
         <v>23</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E26" s="10">
         <v>2015</v>
@@ -15188,8 +15199,8 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:AY296"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16382,7 +16393,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="107" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D18" s="57">
         <v>2019</v>
@@ -16520,7 +16531,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="57" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D20" s="57">
         <v>2018</v>
@@ -17937,7 +17948,7 @@
         <v>36</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D38" s="12">
         <v>2021</v>
@@ -25074,7 +25085,7 @@
   <dimension ref="A1:V153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -25833,7 +25844,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="77" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D19" s="77">
         <v>2022</v>
@@ -25955,19 +25966,31 @@
     </row>
     <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
-      <c r="B22" s="127">
+      <c r="B22" s="82">
         <v>20</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="106"/>
+      <c r="C22" s="57" t="s">
+        <v>339</v>
+      </c>
+      <c r="D22" s="57">
+        <v>2011</v>
+      </c>
+      <c r="E22" s="73" t="s">
+        <v>193</v>
+      </c>
+      <c r="F22" s="73" t="s">
+        <v>341</v>
+      </c>
+      <c r="G22" s="63">
+        <v>1.0513888888888889</v>
+      </c>
       <c r="H22" s="8"/>
       <c r="I22" s="126" t="s">
         <v>328</v>
       </c>
-      <c r="J22" s="138"/>
+      <c r="J22" s="138">
+        <v>6.3888888888888884E-2</v>
+      </c>
       <c r="K22" s="144"/>
       <c r="L22" s="137"/>
       <c r="M22" s="76"/>
@@ -25983,7 +26006,7 @@
         <v>1.0930555555555554</v>
       </c>
       <c r="R22" s="100">
-        <f t="shared" ref="R22:R27" si="0">P22+Q22</f>
+        <f t="shared" ref="R22:R28" si="0">P22+Q22</f>
         <v>2.3708333333333336</v>
       </c>
       <c r="S22" s="41"/>
@@ -25995,17 +26018,21 @@
     </row>
     <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="64"/>
+      <c r="B23" s="74">
+        <v>21</v>
+      </c>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="79"/>
       <c r="H23" s="8"/>
       <c r="I23" s="117" t="s">
         <v>326</v>
       </c>
-      <c r="J23" s="139"/>
+      <c r="J23" s="139">
+        <v>0.3</v>
+      </c>
       <c r="K23" s="144"/>
       <c r="L23" s="105"/>
       <c r="M23" s="63"/>
@@ -26033,16 +26060,21 @@
     </row>
     <row r="24" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="8"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="64"/>
+      <c r="B24" s="82">
+        <v>22</v>
+      </c>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="63"/>
       <c r="H24" s="40"/>
       <c r="I24" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="J24" s="138"/>
+      <c r="J24" s="138">
+        <v>1.3499999999999999</v>
+      </c>
       <c r="K24" s="144"/>
       <c r="L24" s="77"/>
       <c r="M24" s="79"/>
@@ -26070,20 +26102,24 @@
     </row>
     <row r="25" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="41"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="64"/>
+      <c r="B25" s="74">
+        <v>23</v>
+      </c>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="79"/>
       <c r="H25" s="41"/>
-      <c r="I25" s="117" t="s">
+      <c r="I25" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="J25" s="139"/>
+      <c r="J25" s="106">
+        <v>0.80138888888888893</v>
+      </c>
       <c r="K25" s="144"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="63"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="106"/>
       <c r="N25" s="41"/>
       <c r="O25" s="98" t="s">
         <v>36</v>
@@ -26108,18 +26144,20 @@
     </row>
     <row r="26" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="41"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="64"/>
+      <c r="B26" s="82">
+        <v>24</v>
+      </c>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="63"/>
       <c r="H26" s="41"/>
-      <c r="I26" s="141"/>
-      <c r="J26" s="140"/>
-      <c r="K26" s="144"/>
-      <c r="L26" s="140"/>
-      <c r="M26" s="81"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
       <c r="N26" s="41"/>
       <c r="O26" s="97" t="s">
         <v>37</v>
@@ -26144,12 +26182,14 @@
     </row>
     <row r="27" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="41"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="64"/>
+      <c r="B27" s="74">
+        <v>25</v>
+      </c>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="79"/>
       <c r="H27" s="41"/>
       <c r="K27" s="142"/>
       <c r="N27" s="41"/>
@@ -26176,12 +26216,14 @@
     </row>
     <row r="28" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="41"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="64"/>
+      <c r="B28" s="82">
+        <v>26</v>
+      </c>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="63"/>
       <c r="H28" s="41"/>
       <c r="I28" s="163" t="s">
         <v>293</v>
@@ -26196,24 +26238,34 @@
       <c r="O28" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="P28" s="85"/>
-      <c r="Q28" s="85"/>
-      <c r="R28" s="101"/>
+      <c r="P28" s="85">
+        <v>1.2506944444444443</v>
+      </c>
+      <c r="Q28" s="85">
+        <f>SUM(J22:J25)</f>
+        <v>2.5152777777777775</v>
+      </c>
+      <c r="R28" s="101">
+        <f t="shared" si="0"/>
+        <v>3.7659722222222216</v>
+      </c>
       <c r="S28" s="41"/>
       <c r="T28" s="104" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="U28" s="41"/>
       <c r="V28" s="41"/>
     </row>
     <row r="29" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="41"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="64"/>
+      <c r="B29" s="74">
+        <v>27</v>
+      </c>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="79"/>
       <c r="H29" s="41"/>
       <c r="I29" s="126"/>
       <c r="J29" s="138"/>
@@ -26234,12 +26286,14 @@
     </row>
     <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="41"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="64"/>
+      <c r="B30" s="82">
+        <v>28</v>
+      </c>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="63"/>
       <c r="H30" s="41"/>
       <c r="I30" s="117"/>
       <c r="J30" s="139"/>
@@ -26260,12 +26314,14 @@
     </row>
     <row r="31" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="41"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="64"/>
+      <c r="B31" s="74">
+        <v>29</v>
+      </c>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="79"/>
       <c r="H31" s="41"/>
       <c r="I31" s="116"/>
       <c r="J31" s="138"/>
@@ -26286,12 +26342,14 @@
     </row>
     <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="41"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="64"/>
+      <c r="B32" s="127">
+        <v>30</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="106"/>
       <c r="H32" s="41"/>
       <c r="I32" s="117"/>
       <c r="J32" s="139"/>
@@ -26354,15 +26412,15 @@
       </c>
       <c r="P34" s="131">
         <f t="shared" ref="P34:Q34" si="1">SUM(P22:P33)</f>
-        <v>6.7777777777777777</v>
+        <v>8.0284722222222218</v>
       </c>
       <c r="Q34" s="131">
         <f t="shared" si="1"/>
-        <v>7.4291666666666663</v>
+        <v>9.9444444444444429</v>
       </c>
       <c r="R34" s="132">
         <f>SUM(R22:R33)</f>
-        <v>14.206944444444446</v>
+        <v>17.972916666666666</v>
       </c>
       <c r="S34" s="41"/>
       <c r="T34" s="41"/>
@@ -28746,7 +28804,7 @@
       </c>
       <c r="Q131" s="49">
         <f>COUNTIF(D3:D59,P131)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R131" s="41"/>
       <c r="S131" s="41"/>
@@ -29239,7 +29297,7 @@
       </c>
       <c r="Q148" s="45">
         <f>SUM(Q121:Q147)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R148" s="41"/>
       <c r="S148" s="41"/>

--- a/spreadsheets/Games.xlsx
+++ b/spreadsheets/Games.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ucer0.github.io\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCC1097-2C31-459D-A397-455B3C0046DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E5EA6B-C6A8-406C-B3A2-1C34CA085E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="356">
   <si>
     <t>Nier: Automata</t>
   </si>
@@ -1492,9 +1492,6 @@
     <t>Multiversus</t>
   </si>
   <si>
-    <t>Holocure</t>
-  </si>
-  <si>
     <t>Speedrunners</t>
   </si>
   <si>
@@ -1508,6 +1505,35 @@
   </si>
   <si>
     <t>Guilty Gear STRIVE</t>
+  </si>
+  <si>
+    <t>Rogue Legacy 2</t>
+  </si>
+  <si>
+    <t>Rogue Legacy 2 (pasarlo 21h 40m)</t>
+  </si>
+  <si>
+    <t>29-sep.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We Were Here Forever </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>(w/Agu)</t>
+    </r>
+  </si>
+  <si>
+    <t>10-oct.</t>
+  </si>
+  <si>
+    <t>Yakuza 0</t>
   </si>
 </sst>
 </file>
@@ -4870,7 +4896,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -5202,6 +5228,9 @@
                 <c:pt idx="7">
                   <c:v>0.54583333333333328</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.625</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5311,6 +5340,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.5993055555555555</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0631944444444446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15354,7 +15386,7 @@
   <dimension ref="A1:AY296"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -25239,7 +25271,7 @@
   <dimension ref="A1:V153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -25350,7 +25382,7 @@
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="122" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J3" s="132">
         <v>4.5833333333333337E-2</v>
@@ -25684,7 +25716,7 @@
       <c r="J11" s="133"/>
       <c r="K11" s="137"/>
       <c r="L11" s="101" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M11" s="60">
         <v>5.0694444444444452E-2</v>
@@ -26145,7 +26177,7 @@
       </c>
       <c r="K22" s="137"/>
       <c r="L22" s="131" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="M22" s="72">
         <v>0.4597222222222222</v>
@@ -26234,16 +26266,16 @@
         <v>22</v>
       </c>
       <c r="C24" s="54" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D24" s="54">
         <v>2021</v>
       </c>
       <c r="E24" s="69" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F24" s="69" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G24" s="60">
         <v>7.9166666666666663E-2</v>
@@ -26289,11 +26321,21 @@
       <c r="B25" s="70">
         <v>23</v>
       </c>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="75"/>
+      <c r="C25" s="73" t="s">
+        <v>350</v>
+      </c>
+      <c r="D25" s="73">
+        <v>2022</v>
+      </c>
+      <c r="E25" s="74" t="s">
+        <v>224</v>
+      </c>
+      <c r="F25" s="74" t="s">
+        <v>352</v>
+      </c>
+      <c r="G25" s="75">
+        <v>1.625</v>
+      </c>
       <c r="H25" s="39"/>
       <c r="I25" s="113" t="s">
         <v>214</v>
@@ -26335,17 +26377,27 @@
       <c r="B26" s="78">
         <v>24</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="60"/>
+      <c r="C26" s="54" t="s">
+        <v>353</v>
+      </c>
+      <c r="D26" s="54">
+        <v>2022</v>
+      </c>
+      <c r="E26" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="69" t="s">
+        <v>306</v>
+      </c>
+      <c r="G26" s="60">
+        <v>0.40416666666666662</v>
+      </c>
       <c r="H26" s="39"/>
       <c r="I26" s="139"/>
       <c r="J26" s="77"/>
       <c r="K26" s="61"/>
       <c r="L26" s="139" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M26" s="77">
         <v>0.13125000000000001</v>
@@ -26377,11 +26429,21 @@
       <c r="B27" s="70">
         <v>25</v>
       </c>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="75"/>
+      <c r="C27" s="73" t="s">
+        <v>355</v>
+      </c>
+      <c r="D27" s="73">
+        <v>2015</v>
+      </c>
+      <c r="E27" s="74" t="s">
+        <v>354</v>
+      </c>
+      <c r="F27" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="75" t="s">
+        <v>14</v>
+      </c>
       <c r="H27" s="39"/>
       <c r="N27" s="39"/>
       <c r="O27" s="94" t="s">
@@ -26459,11 +26521,15 @@
       <c r="G29" s="75"/>
       <c r="H29" s="39"/>
       <c r="I29" s="122" t="s">
-        <v>350</v>
-      </c>
-      <c r="J29" s="132"/>
+        <v>349</v>
+      </c>
+      <c r="J29" s="132">
+        <v>0.19791666666666666</v>
+      </c>
       <c r="K29" s="137"/>
-      <c r="L29" s="131"/>
+      <c r="L29" s="131" t="s">
+        <v>301</v>
+      </c>
       <c r="M29" s="72"/>
       <c r="N29" s="39"/>
       <c r="O29" s="94" t="s">
@@ -26482,7 +26548,7 @@
       </c>
       <c r="S29" s="39"/>
       <c r="T29" s="98" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="U29" s="39"/>
       <c r="V29" s="39"/>
@@ -26499,21 +26565,35 @@
       <c r="G30" s="60"/>
       <c r="H30" s="39"/>
       <c r="I30" s="113" t="s">
-        <v>30</v>
-      </c>
-      <c r="J30" s="133"/>
+        <v>326</v>
+      </c>
+      <c r="J30" s="133">
+        <v>0.28750000000000003</v>
+      </c>
       <c r="K30" s="137"/>
-      <c r="L30" s="101"/>
+      <c r="L30" s="101" t="s">
+        <v>137</v>
+      </c>
       <c r="M30" s="60"/>
       <c r="N30" s="39"/>
       <c r="O30" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="P30" s="81"/>
-      <c r="Q30" s="81"/>
-      <c r="R30" s="97"/>
+      <c r="P30" s="81">
+        <v>1.625</v>
+      </c>
+      <c r="Q30" s="81">
+        <f>SUM(J29:J33)</f>
+        <v>2.0631944444444446</v>
+      </c>
+      <c r="R30" s="97">
+        <f>P30+Q30</f>
+        <v>3.6881944444444446</v>
+      </c>
       <c r="S30" s="39"/>
-      <c r="T30" s="99"/>
+      <c r="T30" s="100" t="s">
+        <v>351</v>
+      </c>
       <c r="U30" s="39"/>
       <c r="V30" s="39"/>
     </row>
@@ -26529,11 +26609,15 @@
       <c r="G31" s="75"/>
       <c r="H31" s="39"/>
       <c r="I31" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" s="132">
+        <v>1.0965277777777778</v>
+      </c>
+      <c r="K31" s="137"/>
+      <c r="L31" s="73" t="s">
         <v>214</v>
       </c>
-      <c r="J31" s="132"/>
-      <c r="K31" s="137"/>
-      <c r="L31" s="73"/>
       <c r="M31" s="75"/>
       <c r="N31" s="39"/>
       <c r="O31" s="94" t="s">
@@ -26541,7 +26625,10 @@
       </c>
       <c r="P31" s="64"/>
       <c r="Q31" s="64"/>
-      <c r="R31" s="90"/>
+      <c r="R31" s="90">
+        <f>P31+Q31</f>
+        <v>0</v>
+      </c>
       <c r="S31" s="39"/>
       <c r="T31" s="98"/>
       <c r="U31" s="39"/>
@@ -26558,8 +26645,12 @@
       <c r="F32" s="21"/>
       <c r="G32" s="102"/>
       <c r="H32" s="39"/>
-      <c r="I32" s="113"/>
-      <c r="J32" s="133"/>
+      <c r="I32" s="113" t="s">
+        <v>137</v>
+      </c>
+      <c r="J32" s="133">
+        <v>0.1875</v>
+      </c>
       <c r="K32" s="137"/>
       <c r="L32" s="54"/>
       <c r="M32" s="60"/>
@@ -26569,7 +26660,10 @@
       </c>
       <c r="P32" s="81"/>
       <c r="Q32" s="81"/>
-      <c r="R32" s="97"/>
+      <c r="R32" s="97">
+        <f>P32+Q32</f>
+        <v>0</v>
+      </c>
       <c r="S32" s="39"/>
       <c r="T32" s="99"/>
       <c r="U32" s="39"/>
@@ -26584,8 +26678,12 @@
       <c r="F33" s="30"/>
       <c r="G33" s="61"/>
       <c r="H33" s="39"/>
-      <c r="I33" s="135"/>
-      <c r="J33" s="134"/>
+      <c r="I33" s="135" t="s">
+        <v>214</v>
+      </c>
+      <c r="J33" s="134">
+        <v>0.29375000000000001</v>
+      </c>
       <c r="K33" s="137"/>
       <c r="L33" s="134"/>
       <c r="M33" s="77"/>
@@ -26595,7 +26693,10 @@
       </c>
       <c r="P33" s="64"/>
       <c r="Q33" s="64"/>
-      <c r="R33" s="90"/>
+      <c r="R33" s="90">
+        <f>P33+Q33</f>
+        <v>0</v>
+      </c>
       <c r="S33" s="39" t="s">
         <v>257</v>
       </c>
@@ -26618,15 +26719,15 @@
       </c>
       <c r="P34" s="126">
         <f t="shared" ref="P34" si="1">SUM(P22:P33)</f>
-        <v>8.5743055555555543</v>
+        <v>10.199305555555554</v>
       </c>
       <c r="Q34" s="126">
         <f>SUM(Q22:Q33)</f>
-        <v>12.543749999999999</v>
+        <v>14.606944444444444</v>
       </c>
       <c r="R34" s="127">
         <f>SUM(R22:R33)</f>
-        <v>21.118055555555557</v>
+        <v>24.806250000000002</v>
       </c>
       <c r="S34" s="39"/>
       <c r="T34" s="39"/>
@@ -28894,7 +28995,7 @@
       </c>
       <c r="Q127" s="46">
         <f>COUNTIF(D3:D59,P127)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R127" s="39"/>
       <c r="S127" s="39"/>
@@ -29503,7 +29604,7 @@
       </c>
       <c r="Q148" s="42">
         <f>SUM(Q121:Q147)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R148" s="39"/>
       <c r="S148" s="39"/>

--- a/spreadsheets/Games.xlsx
+++ b/spreadsheets/Games.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ucer0.github.io\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E5EA6B-C6A8-406C-B3A2-1C34CA085E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD59C2EC-C13D-4DA4-9B68-4AB6182DF684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -23,20 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="372">
   <si>
     <t>Nier: Automata</t>
   </si>
@@ -1534,6 +1526,54 @@
   </si>
   <si>
     <t>Yakuza 0</t>
+  </si>
+  <si>
+    <t>Pkmn Emerald Rogue</t>
+  </si>
+  <si>
+    <t>Among Us</t>
+  </si>
+  <si>
+    <t>Endoparasitic</t>
+  </si>
+  <si>
+    <t>Yakuza 0 (41h 42m), Endoparasitic (33m)</t>
+  </si>
+  <si>
+    <t>Record of Lodoss War -DiWL-</t>
+  </si>
+  <si>
+    <t>13-nov.</t>
+  </si>
+  <si>
+    <t>Slay the Spire</t>
+  </si>
+  <si>
+    <t>Warzone 2</t>
+  </si>
+  <si>
+    <t>TUNIC</t>
+  </si>
+  <si>
+    <t>22-nov.</t>
+  </si>
+  <si>
+    <t>FAITH: The Unholy Trinity</t>
+  </si>
+  <si>
+    <t>27-nov.</t>
+  </si>
+  <si>
+    <t>2-dic.</t>
+  </si>
+  <si>
+    <t>Endoparasitic (2h 17m), FAITH (8h 10m)</t>
+  </si>
+  <si>
+    <t>FAITH (2h 50m)</t>
+  </si>
+  <si>
+    <t>Slice and Dice</t>
   </si>
 </sst>
 </file>
@@ -1897,7 +1937,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2316,6 +2356,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2346,6 +2395,9 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
@@ -2363,9 +2415,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4878,7 +4927,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -5231,6 +5280,12 @@
                 <c:pt idx="8">
                   <c:v>1.625</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1645833333333333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4333333333333333</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5343,6 +5398,12 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2.0631944444444446</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7729166666666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4805555555555561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9478,17 +9539,17 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="140">
+      <c r="B2" s="143">
         <v>2019</v>
       </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
       <c r="E2" s="67"/>
-      <c r="F2" s="146" t="s">
+      <c r="F2" s="149" t="s">
         <v>262</v>
       </c>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
       <c r="I2" s="35"/>
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
@@ -9519,18 +9580,18 @@
         <v>78</v>
       </c>
       <c r="E3" s="68"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="6"/>
       <c r="N3" s="29"/>
-      <c r="O3" s="145"/>
-      <c r="P3" s="145"/>
-      <c r="Q3" s="145"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="148"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
@@ -9552,18 +9613,18 @@
         <v>2004</v>
       </c>
       <c r="E4" s="26"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="30"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="145"/>
-      <c r="P4" s="145"/>
-      <c r="Q4" s="145"/>
+      <c r="O4" s="148"/>
+      <c r="P4" s="148"/>
+      <c r="Q4" s="148"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
@@ -9585,18 +9646,18 @@
         <v>2017</v>
       </c>
       <c r="E5" s="26"/>
-      <c r="F5" s="146"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
       <c r="I5" s="6"/>
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="145"/>
-      <c r="P5" s="145"/>
-      <c r="Q5" s="145"/>
+      <c r="O5" s="148"/>
+      <c r="P5" s="148"/>
+      <c r="Q5" s="148"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
@@ -9618,18 +9679,18 @@
         <v>2017</v>
       </c>
       <c r="E6" s="26"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="149"/>
       <c r="I6" s="6"/>
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="145"/>
-      <c r="P6" s="145"/>
-      <c r="Q6" s="145"/>
+      <c r="O6" s="148"/>
+      <c r="P6" s="148"/>
+      <c r="Q6" s="148"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
@@ -9651,18 +9712,18 @@
         <v>2017</v>
       </c>
       <c r="E7" s="26"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
       <c r="I7" s="6"/>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="145"/>
-      <c r="P7" s="145"/>
-      <c r="Q7" s="145"/>
+      <c r="O7" s="148"/>
+      <c r="P7" s="148"/>
+      <c r="Q7" s="148"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
@@ -9684,18 +9745,18 @@
         <v>2017</v>
       </c>
       <c r="E8" s="26"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="149"/>
       <c r="I8" s="6"/>
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="145"/>
-      <c r="P8" s="145"/>
-      <c r="Q8" s="145"/>
+      <c r="O8" s="148"/>
+      <c r="P8" s="148"/>
+      <c r="Q8" s="148"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
@@ -9717,18 +9778,18 @@
         <v>2016</v>
       </c>
       <c r="E9" s="26"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="146"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="149"/>
+      <c r="H9" s="149"/>
       <c r="I9" s="6"/>
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="145"/>
-      <c r="P9" s="145"/>
-      <c r="Q9" s="145"/>
+      <c r="O9" s="148"/>
+      <c r="P9" s="148"/>
+      <c r="Q9" s="148"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
@@ -9750,18 +9811,18 @@
         <v>2017</v>
       </c>
       <c r="E10" s="26"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="149"/>
+      <c r="H10" s="149"/>
       <c r="I10" s="6"/>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="7"/>
-      <c r="O10" s="145"/>
-      <c r="P10" s="145"/>
-      <c r="Q10" s="145"/>
+      <c r="O10" s="148"/>
+      <c r="P10" s="148"/>
+      <c r="Q10" s="148"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
@@ -9783,18 +9844,18 @@
         <v>2016</v>
       </c>
       <c r="E11" s="26"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="146"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
       <c r="I11" s="6"/>
       <c r="J11" s="30"/>
       <c r="K11" s="30"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="145"/>
-      <c r="P11" s="145"/>
-      <c r="Q11" s="145"/>
+      <c r="O11" s="148"/>
+      <c r="P11" s="148"/>
+      <c r="Q11" s="148"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
@@ -9816,18 +9877,18 @@
         <v>2017</v>
       </c>
       <c r="E12" s="26"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="149"/>
       <c r="I12" s="6"/>
       <c r="J12" s="30"/>
       <c r="K12" s="30"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="145"/>
-      <c r="P12" s="145"/>
-      <c r="Q12" s="145"/>
+      <c r="O12" s="148"/>
+      <c r="P12" s="148"/>
+      <c r="Q12" s="148"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
@@ -9849,18 +9910,18 @@
         <v>2009</v>
       </c>
       <c r="E13" s="26"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="146"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="149"/>
       <c r="I13" s="6"/>
       <c r="J13" s="30"/>
       <c r="K13" s="30"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="145"/>
-      <c r="P13" s="145"/>
-      <c r="Q13" s="145"/>
+      <c r="O13" s="148"/>
+      <c r="P13" s="148"/>
+      <c r="Q13" s="148"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
@@ -9882,18 +9943,18 @@
         <v>2019</v>
       </c>
       <c r="E14" s="26"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="146"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="149"/>
       <c r="I14" s="6"/>
       <c r="J14" s="30"/>
       <c r="K14" s="30"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="145"/>
-      <c r="P14" s="145"/>
-      <c r="Q14" s="145"/>
+      <c r="O14" s="148"/>
+      <c r="P14" s="148"/>
+      <c r="Q14" s="148"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
@@ -9915,18 +9976,18 @@
         <v>2019</v>
       </c>
       <c r="E15" s="26"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="146"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="149"/>
       <c r="I15" s="6"/>
       <c r="J15" s="30"/>
       <c r="K15" s="30"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="145"/>
-      <c r="P15" s="145"/>
-      <c r="Q15" s="145"/>
+      <c r="O15" s="148"/>
+      <c r="P15" s="148"/>
+      <c r="Q15" s="148"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
@@ -9951,9 +10012,9 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="145"/>
-      <c r="P16" s="145"/>
-      <c r="Q16" s="145"/>
+      <c r="O16" s="148"/>
+      <c r="P16" s="148"/>
+      <c r="Q16" s="148"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
@@ -9964,9 +10025,9 @@
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
-      <c r="B17" s="142"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="145"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7"/>
@@ -9991,9 +10052,9 @@
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
-      <c r="B18" s="142"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
+      <c r="B18" s="145"/>
+      <c r="C18" s="145"/>
+      <c r="D18" s="145"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="7"/>
@@ -10003,8 +10064,8 @@
       <c r="K18" s="30"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="143"/>
-      <c r="O18" s="144"/>
+      <c r="N18" s="146"/>
+      <c r="O18" s="147"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
@@ -10018,9 +10079,9 @@
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
-      <c r="B19" s="142"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
+      <c r="B19" s="145"/>
+      <c r="C19" s="145"/>
+      <c r="D19" s="145"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7"/>
@@ -10030,8 +10091,8 @@
       <c r="K19" s="30"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="144"/>
-      <c r="O19" s="144"/>
+      <c r="N19" s="147"/>
+      <c r="O19" s="147"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
@@ -10057,8 +10118,8 @@
       <c r="K20" s="30"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="144"/>
-      <c r="O20" s="144"/>
+      <c r="N20" s="147"/>
+      <c r="O20" s="147"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
@@ -10084,8 +10145,8 @@
       <c r="K21" s="30"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="144"/>
-      <c r="O21" s="144"/>
+      <c r="N21" s="147"/>
+      <c r="O21" s="147"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
@@ -10111,8 +10172,8 @@
       <c r="K22" s="30"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-      <c r="N22" s="144"/>
-      <c r="O22" s="144"/>
+      <c r="N22" s="147"/>
+      <c r="O22" s="147"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
@@ -11296,8 +11357,8 @@
         <v>11</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="148"/>
-      <c r="K17" s="149"/>
+      <c r="J17" s="151"/>
+      <c r="K17" s="152"/>
       <c r="L17" s="6"/>
       <c r="M17" s="39"/>
       <c r="N17" s="39"/>
@@ -11335,8 +11396,8 @@
         <v>1</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="147"/>
-      <c r="K18" s="147"/>
+      <c r="J18" s="150"/>
+      <c r="K18" s="150"/>
       <c r="L18" s="6"/>
       <c r="M18" s="39"/>
       <c r="N18" s="39"/>
@@ -15553,7 +15614,7 @@
         <v>4.197916666666667</v>
       </c>
       <c r="H3" s="6"/>
-      <c r="I3" s="153" t="s">
+      <c r="I3" s="157" t="s">
         <v>119</v>
       </c>
       <c r="J3" s="80" t="s">
@@ -15624,7 +15685,7 @@
         <v>0.30138888888888887</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="154"/>
+      <c r="I4" s="158"/>
       <c r="J4" s="54" t="s">
         <v>128</v>
       </c>
@@ -15693,7 +15754,7 @@
         <v>0.2076388888888889</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="154"/>
+      <c r="I5" s="158"/>
       <c r="J5" s="73" t="s">
         <v>133</v>
       </c>
@@ -15762,7 +15823,7 @@
         <v>1.2437499999999999</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="154"/>
+      <c r="I6" s="158"/>
       <c r="J6" s="54" t="s">
         <v>130</v>
       </c>
@@ -15831,7 +15892,7 @@
         <v>0.27916666666666667</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="154"/>
+      <c r="I7" s="158"/>
       <c r="J7" s="73" t="s">
         <v>137</v>
       </c>
@@ -15900,7 +15961,7 @@
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="154"/>
+      <c r="I8" s="158"/>
       <c r="J8" s="54" t="s">
         <v>138</v>
       </c>
@@ -15969,7 +16030,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="153" t="s">
+      <c r="I9" s="157" t="s">
         <v>120</v>
       </c>
       <c r="J9" s="71" t="s">
@@ -16040,7 +16101,7 @@
         <v>0.19027777777777777</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="154"/>
+      <c r="I10" s="158"/>
       <c r="J10" s="54" t="s">
         <v>128</v>
       </c>
@@ -16109,7 +16170,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="154"/>
+      <c r="I11" s="158"/>
       <c r="J11" s="73" t="s">
         <v>133</v>
       </c>
@@ -16178,7 +16239,7 @@
         <v>1.7097222222222221</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="154"/>
+      <c r="I12" s="158"/>
       <c r="J12" s="54" t="s">
         <v>130</v>
       </c>
@@ -16247,7 +16308,7 @@
         <v>0.15972222222222224</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="154"/>
+      <c r="I13" s="158"/>
       <c r="J13" s="73" t="s">
         <v>142</v>
       </c>
@@ -16316,7 +16377,7 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="153" t="s">
+      <c r="I14" s="157" t="s">
         <v>121</v>
       </c>
       <c r="J14" s="10" t="s">
@@ -16387,7 +16448,7 @@
         <v>0.59652777777777777</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="154"/>
+      <c r="I15" s="158"/>
       <c r="J15" s="73" t="s">
         <v>128</v>
       </c>
@@ -16456,7 +16517,7 @@
         <v>14</v>
       </c>
       <c r="H16" s="6"/>
-      <c r="I16" s="154"/>
+      <c r="I16" s="158"/>
       <c r="J16" s="54" t="s">
         <v>133</v>
       </c>
@@ -16525,7 +16586,7 @@
         <v>14</v>
       </c>
       <c r="H17" s="6"/>
-      <c r="I17" s="154"/>
+      <c r="I17" s="158"/>
       <c r="J17" s="73" t="s">
         <v>130</v>
       </c>
@@ -16594,7 +16655,7 @@
         <v>0.24583333333333335</v>
       </c>
       <c r="H18" s="6"/>
-      <c r="I18" s="154"/>
+      <c r="I18" s="158"/>
       <c r="J18" s="54" t="s">
         <v>145</v>
       </c>
@@ -16663,7 +16724,7 @@
         <v>0.49513888888888885</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="155"/>
+      <c r="I19" s="159"/>
       <c r="J19" s="76" t="s">
         <v>151</v>
       </c>
@@ -16732,7 +16793,7 @@
         <v>0.20972222222222223</v>
       </c>
       <c r="H20" s="6"/>
-      <c r="I20" s="153" t="s">
+      <c r="I20" s="157" t="s">
         <v>144</v>
       </c>
       <c r="J20" s="10" t="s">
@@ -16803,7 +16864,7 @@
         <v>0.25486111111111109</v>
       </c>
       <c r="H21" s="6"/>
-      <c r="I21" s="155"/>
+      <c r="I21" s="159"/>
       <c r="J21" s="76" t="s">
         <v>142</v>
       </c>
@@ -16882,7 +16943,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="H22" s="6"/>
-      <c r="I22" s="154" t="s">
+      <c r="I22" s="158" t="s">
         <v>162</v>
       </c>
       <c r="J22" s="54" t="s">
@@ -16965,7 +17026,7 @@
         <v>0.26944444444444443</v>
       </c>
       <c r="H23" s="6"/>
-      <c r="I23" s="154"/>
+      <c r="I23" s="158"/>
       <c r="J23" s="80" t="s">
         <v>170</v>
       </c>
@@ -17046,7 +17107,7 @@
         <v>0.3263888888888889</v>
       </c>
       <c r="H24" s="39"/>
-      <c r="I24" s="154"/>
+      <c r="I24" s="158"/>
       <c r="J24" s="54" t="s">
         <v>164</v>
       </c>
@@ -17127,7 +17188,7 @@
         <v>0.32847222222222222</v>
       </c>
       <c r="H25" s="39"/>
-      <c r="I25" s="154"/>
+      <c r="I25" s="158"/>
       <c r="J25" s="73" t="s">
         <v>142</v>
       </c>
@@ -17208,7 +17269,7 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="H26" s="39"/>
-      <c r="I26" s="155"/>
+      <c r="I26" s="159"/>
       <c r="J26" s="11" t="s">
         <v>163</v>
       </c>
@@ -17289,7 +17350,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="H27" s="39"/>
-      <c r="I27" s="153" t="s">
+      <c r="I27" s="157" t="s">
         <v>172</v>
       </c>
       <c r="J27" s="73" t="s">
@@ -17372,7 +17433,7 @@
         <v>0.22291666666666665</v>
       </c>
       <c r="H28" s="39"/>
-      <c r="I28" s="154"/>
+      <c r="I28" s="158"/>
       <c r="J28" s="101" t="s">
         <v>164</v>
       </c>
@@ -17453,7 +17514,7 @@
         <v>0.13194444444444445</v>
       </c>
       <c r="H29" s="39"/>
-      <c r="I29" s="154"/>
+      <c r="I29" s="158"/>
       <c r="J29" s="73" t="s">
         <v>30</v>
       </c>
@@ -17534,7 +17595,7 @@
         <v>14</v>
       </c>
       <c r="H30" s="39"/>
-      <c r="I30" s="154"/>
+      <c r="I30" s="158"/>
       <c r="J30" s="101" t="s">
         <v>137</v>
       </c>
@@ -17615,7 +17676,7 @@
         <v>0.43888888888888888</v>
       </c>
       <c r="H31" s="39"/>
-      <c r="I31" s="155"/>
+      <c r="I31" s="159"/>
       <c r="J31" s="73" t="s">
         <v>142</v>
       </c>
@@ -17696,7 +17757,7 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="H32" s="39"/>
-      <c r="I32" s="153" t="s">
+      <c r="I32" s="157" t="s">
         <v>185</v>
       </c>
       <c r="J32" s="107" t="s">
@@ -17779,7 +17840,7 @@
         <v>2.7097222222222221</v>
       </c>
       <c r="H33" s="39"/>
-      <c r="I33" s="154"/>
+      <c r="I33" s="158"/>
       <c r="J33" s="73" t="s">
         <v>180</v>
       </c>
@@ -17862,7 +17923,7 @@
         <v>14</v>
       </c>
       <c r="H34" s="39"/>
-      <c r="I34" s="154"/>
+      <c r="I34" s="158"/>
       <c r="J34" s="54" t="s">
         <v>200</v>
       </c>
@@ -17942,7 +18003,7 @@
         <v>0.11041666666666666</v>
       </c>
       <c r="H35" s="39"/>
-      <c r="I35" s="154"/>
+      <c r="I35" s="158"/>
       <c r="J35" s="80" t="s">
         <v>199</v>
       </c>
@@ -18011,7 +18072,7 @@
         <v>0.37083333333333335</v>
       </c>
       <c r="H36" s="39"/>
-      <c r="I36" s="154"/>
+      <c r="I36" s="158"/>
       <c r="J36" s="54" t="s">
         <v>142</v>
       </c>
@@ -18019,9 +18080,9 @@
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="L36" s="39"/>
-      <c r="M36" s="156"/>
-      <c r="N36" s="156"/>
-      <c r="O36" s="156"/>
+      <c r="M36" s="153"/>
+      <c r="N36" s="153"/>
+      <c r="O36" s="153"/>
       <c r="P36" s="111"/>
       <c r="Q36" s="16"/>
       <c r="R36" s="16"/>
@@ -18080,7 +18141,7 @@
         <v>0.80694444444444446</v>
       </c>
       <c r="H37" s="39"/>
-      <c r="I37" s="154"/>
+      <c r="I37" s="158"/>
       <c r="J37" s="80" t="s">
         <v>197</v>
       </c>
@@ -18088,9 +18149,9 @@
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="L37" s="39"/>
-      <c r="M37" s="156"/>
-      <c r="N37" s="156"/>
-      <c r="O37" s="156"/>
+      <c r="M37" s="153"/>
+      <c r="N37" s="153"/>
+      <c r="O37" s="153"/>
       <c r="P37" s="111"/>
       <c r="Q37" s="16"/>
       <c r="R37" s="16"/>
@@ -18149,7 +18210,7 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="H38" s="39"/>
-      <c r="I38" s="155"/>
+      <c r="I38" s="159"/>
       <c r="J38" s="11" t="s">
         <v>203</v>
       </c>
@@ -18157,9 +18218,9 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="L38" s="39"/>
-      <c r="M38" s="156"/>
-      <c r="N38" s="156"/>
-      <c r="O38" s="156"/>
+      <c r="M38" s="153"/>
+      <c r="N38" s="153"/>
+      <c r="O38" s="153"/>
       <c r="P38" s="111"/>
       <c r="Q38" s="16"/>
       <c r="R38" s="16"/>
@@ -18206,7 +18267,7 @@
       <c r="F39" s="30"/>
       <c r="G39" s="61"/>
       <c r="H39" s="39"/>
-      <c r="I39" s="153" t="s">
+      <c r="I39" s="157" t="s">
         <v>210</v>
       </c>
       <c r="J39" s="116" t="s">
@@ -18216,9 +18277,9 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="L39" s="39"/>
-      <c r="M39" s="156"/>
-      <c r="N39" s="156"/>
-      <c r="O39" s="156"/>
+      <c r="M39" s="153"/>
+      <c r="N39" s="153"/>
+      <c r="O39" s="153"/>
       <c r="P39" s="124"/>
       <c r="Q39" s="16"/>
       <c r="R39" s="16"/>
@@ -18265,7 +18326,7 @@
       <c r="F40" s="39"/>
       <c r="G40" s="62"/>
       <c r="H40" s="39"/>
-      <c r="I40" s="154"/>
+      <c r="I40" s="158"/>
       <c r="J40" s="113" t="s">
         <v>211</v>
       </c>
@@ -18273,9 +18334,9 @@
         <v>0.3666666666666667</v>
       </c>
       <c r="L40" s="39"/>
-      <c r="M40" s="156"/>
-      <c r="N40" s="156"/>
-      <c r="O40" s="156"/>
+      <c r="M40" s="153"/>
+      <c r="N40" s="153"/>
+      <c r="O40" s="153"/>
       <c r="P40" s="124"/>
       <c r="Q40" s="16"/>
       <c r="R40" s="16"/>
@@ -18321,7 +18382,7 @@
       <c r="F41" s="30"/>
       <c r="G41" s="61"/>
       <c r="H41" s="39"/>
-      <c r="I41" s="154"/>
+      <c r="I41" s="158"/>
       <c r="J41" s="112" t="s">
         <v>180</v>
       </c>
@@ -18329,9 +18390,9 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="L41" s="39"/>
-      <c r="M41" s="156"/>
-      <c r="N41" s="156"/>
-      <c r="O41" s="156"/>
+      <c r="M41" s="153"/>
+      <c r="N41" s="153"/>
+      <c r="O41" s="153"/>
       <c r="P41" s="124"/>
       <c r="Q41" s="16"/>
       <c r="R41" s="16"/>
@@ -18378,7 +18439,7 @@
       <c r="F42" s="30"/>
       <c r="G42" s="61"/>
       <c r="H42" s="39"/>
-      <c r="I42" s="154"/>
+      <c r="I42" s="158"/>
       <c r="J42" s="114" t="s">
         <v>137</v>
       </c>
@@ -18435,7 +18496,7 @@
       <c r="F43" s="39"/>
       <c r="G43" s="62"/>
       <c r="H43" s="39"/>
-      <c r="I43" s="154"/>
+      <c r="I43" s="158"/>
       <c r="J43" s="112" t="s">
         <v>213</v>
       </c>
@@ -18492,7 +18553,7 @@
       <c r="F44" s="39"/>
       <c r="G44" s="62"/>
       <c r="H44" s="39"/>
-      <c r="I44" s="154"/>
+      <c r="I44" s="158"/>
       <c r="J44" s="113" t="s">
         <v>214</v>
       </c>
@@ -18549,7 +18610,7 @@
       <c r="F45" s="39"/>
       <c r="G45" s="62"/>
       <c r="H45" s="39"/>
-      <c r="I45" s="155"/>
+      <c r="I45" s="159"/>
       <c r="J45" s="115" t="s">
         <v>142</v>
       </c>
@@ -18606,7 +18667,7 @@
       <c r="F46" s="39"/>
       <c r="G46" s="62"/>
       <c r="H46" s="39"/>
-      <c r="I46" s="150" t="s">
+      <c r="I46" s="154" t="s">
         <v>218</v>
       </c>
       <c r="J46" s="119" t="s">
@@ -18665,7 +18726,7 @@
       <c r="F47" s="39"/>
       <c r="G47" s="62"/>
       <c r="H47" s="39"/>
-      <c r="I47" s="151"/>
+      <c r="I47" s="155"/>
       <c r="J47" s="80" t="s">
         <v>180</v>
       </c>
@@ -18722,7 +18783,7 @@
       <c r="F48" s="39"/>
       <c r="G48" s="62"/>
       <c r="H48" s="39"/>
-      <c r="I48" s="151"/>
+      <c r="I48" s="155"/>
       <c r="J48" s="101" t="s">
         <v>137</v>
       </c>
@@ -18779,7 +18840,7 @@
       <c r="F49" s="39"/>
       <c r="G49" s="62"/>
       <c r="H49" s="39"/>
-      <c r="I49" s="152"/>
+      <c r="I49" s="156"/>
       <c r="J49" s="120" t="s">
         <v>214</v>
       </c>
@@ -18836,7 +18897,7 @@
       <c r="F50" s="39"/>
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
-      <c r="I50" s="150" t="s">
+      <c r="I50" s="154" t="s">
         <v>233</v>
       </c>
       <c r="J50" s="121" t="s">
@@ -18895,7 +18956,7 @@
       <c r="F51" s="39"/>
       <c r="G51" s="39"/>
       <c r="H51" s="39"/>
-      <c r="I51" s="151"/>
+      <c r="I51" s="155"/>
       <c r="J51" s="122" t="s">
         <v>180</v>
       </c>
@@ -18952,7 +19013,7 @@
       <c r="F52" s="39"/>
       <c r="G52" s="39"/>
       <c r="H52" s="39"/>
-      <c r="I52" s="151"/>
+      <c r="I52" s="155"/>
       <c r="J52" s="114" t="s">
         <v>236</v>
       </c>
@@ -19009,7 +19070,7 @@
       <c r="F53" s="39"/>
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
-      <c r="I53" s="152"/>
+      <c r="I53" s="156"/>
       <c r="J53" s="115" t="s">
         <v>212</v>
       </c>
@@ -19066,7 +19127,7 @@
       <c r="F54" s="39"/>
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
-      <c r="I54" s="150" t="s">
+      <c r="I54" s="154" t="s">
         <v>244</v>
       </c>
       <c r="J54" s="121" t="s">
@@ -19125,7 +19186,7 @@
       <c r="F55" s="39"/>
       <c r="G55" s="39"/>
       <c r="H55" s="39"/>
-      <c r="I55" s="151"/>
+      <c r="I55" s="155"/>
       <c r="J55" s="122" t="s">
         <v>243</v>
       </c>
@@ -19182,7 +19243,7 @@
       <c r="F56" s="39"/>
       <c r="G56" s="39"/>
       <c r="H56" s="39"/>
-      <c r="I56" s="151"/>
+      <c r="I56" s="155"/>
       <c r="J56" s="114" t="s">
         <v>30</v>
       </c>
@@ -19239,7 +19300,7 @@
       <c r="F57" s="39"/>
       <c r="G57" s="39"/>
       <c r="H57" s="39"/>
-      <c r="I57" s="152"/>
+      <c r="I57" s="156"/>
       <c r="J57" s="115" t="s">
         <v>200</v>
       </c>
@@ -19296,7 +19357,7 @@
       <c r="F58" s="39"/>
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
-      <c r="I58" s="150" t="s">
+      <c r="I58" s="154" t="s">
         <v>247</v>
       </c>
       <c r="J58" s="121" t="s">
@@ -19355,7 +19416,7 @@
       <c r="F59" s="39"/>
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
-      <c r="I59" s="151"/>
+      <c r="I59" s="155"/>
       <c r="J59" s="122" t="s">
         <v>236</v>
       </c>
@@ -19412,7 +19473,7 @@
       <c r="F60" s="39"/>
       <c r="G60" s="39"/>
       <c r="H60" s="39"/>
-      <c r="I60" s="151"/>
+      <c r="I60" s="155"/>
       <c r="J60" s="114" t="s">
         <v>243</v>
       </c>
@@ -19469,7 +19530,7 @@
       <c r="F61" s="39"/>
       <c r="G61" s="39"/>
       <c r="H61" s="39"/>
-      <c r="I61" s="151"/>
+      <c r="I61" s="155"/>
       <c r="J61" s="122" t="s">
         <v>246</v>
       </c>
@@ -19526,7 +19587,7 @@
       <c r="F62" s="39"/>
       <c r="G62" s="39"/>
       <c r="H62" s="39"/>
-      <c r="I62" s="151"/>
+      <c r="I62" s="155"/>
       <c r="J62" s="114" t="s">
         <v>30</v>
       </c>
@@ -19583,7 +19644,7 @@
       <c r="F63" s="39"/>
       <c r="G63" s="39"/>
       <c r="H63" s="39"/>
-      <c r="I63" s="152"/>
+      <c r="I63" s="156"/>
       <c r="J63" s="115" t="s">
         <v>200</v>
       </c>
@@ -25237,12 +25298,6 @@
     <sortCondition ref="J33"/>
   </sortState>
   <mergeCells count="18">
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="M39:O39"/>
     <mergeCell ref="I58:I63"/>
     <mergeCell ref="I54:I57"/>
     <mergeCell ref="I50:I53"/>
@@ -25255,6 +25310,12 @@
     <mergeCell ref="I32:I38"/>
     <mergeCell ref="I27:I31"/>
     <mergeCell ref="I14:I19"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="M39:O39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25270,8 +25331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -25341,15 +25402,15 @@
         <v>21</v>
       </c>
       <c r="H2" s="6"/>
-      <c r="I2" s="157" t="s">
+      <c r="I2" s="160" t="s">
         <v>285</v>
       </c>
-      <c r="J2" s="159"/>
+      <c r="J2" s="162"/>
       <c r="K2" s="136"/>
-      <c r="L2" s="159" t="s">
+      <c r="L2" s="162" t="s">
         <v>286</v>
       </c>
-      <c r="M2" s="158"/>
+      <c r="M2" s="161"/>
       <c r="N2" s="39"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
@@ -25628,15 +25689,15 @@
         <v>0.20416666666666669</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="157" t="s">
+      <c r="I9" s="160" t="s">
         <v>287</v>
       </c>
-      <c r="J9" s="159"/>
+      <c r="J9" s="162"/>
       <c r="K9" s="136"/>
-      <c r="L9" s="159" t="s">
+      <c r="L9" s="162" t="s">
         <v>288</v>
       </c>
-      <c r="M9" s="158"/>
+      <c r="M9" s="161"/>
       <c r="N9" s="39"/>
       <c r="O9" s="39"/>
       <c r="P9" s="39"/>
@@ -25828,15 +25889,15 @@
         <v>0.15208333333333332</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="157" t="s">
+      <c r="I14" s="160" t="s">
         <v>289</v>
       </c>
-      <c r="J14" s="158"/>
+      <c r="J14" s="161"/>
       <c r="K14" s="136"/>
-      <c r="L14" s="157" t="s">
+      <c r="L14" s="160" t="s">
         <v>290</v>
       </c>
-      <c r="M14" s="158"/>
+      <c r="M14" s="161"/>
       <c r="N14" s="39"/>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
@@ -26119,15 +26180,15 @@
         <v>0.35138888888888892</v>
       </c>
       <c r="H21" s="6"/>
-      <c r="I21" s="157" t="s">
+      <c r="I21" s="160" t="s">
         <v>291</v>
       </c>
-      <c r="J21" s="158"/>
+      <c r="J21" s="161"/>
       <c r="K21" s="136"/>
-      <c r="L21" s="157" t="s">
+      <c r="L21" s="160" t="s">
         <v>292</v>
       </c>
-      <c r="M21" s="158"/>
+      <c r="M21" s="161"/>
       <c r="N21" s="39"/>
       <c r="O21" s="89" t="s">
         <v>32</v>
@@ -26472,21 +26533,31 @@
       <c r="B28" s="78">
         <v>26</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="60"/>
+      <c r="C28" s="54" t="s">
+        <v>358</v>
+      </c>
+      <c r="D28" s="54">
+        <v>2022</v>
+      </c>
+      <c r="E28" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="69" t="s">
+        <v>242</v>
+      </c>
+      <c r="G28" s="60">
+        <v>0.11805555555555557</v>
+      </c>
       <c r="H28" s="39"/>
-      <c r="I28" s="157" t="s">
+      <c r="I28" s="160" t="s">
         <v>293</v>
       </c>
-      <c r="J28" s="158"/>
+      <c r="J28" s="161"/>
       <c r="K28" s="136"/>
-      <c r="L28" s="157" t="s">
+      <c r="L28" s="160" t="s">
         <v>294</v>
       </c>
-      <c r="M28" s="158"/>
+      <c r="M28" s="161"/>
       <c r="N28" s="39"/>
       <c r="O28" s="93" t="s">
         <v>39</v>
@@ -26514,11 +26585,21 @@
       <c r="B29" s="70">
         <v>27</v>
       </c>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="75"/>
+      <c r="C29" s="73" t="s">
+        <v>360</v>
+      </c>
+      <c r="D29" s="73">
+        <v>2021</v>
+      </c>
+      <c r="E29" s="74" t="s">
+        <v>242</v>
+      </c>
+      <c r="F29" s="74" t="s">
+        <v>361</v>
+      </c>
+      <c r="G29" s="75">
+        <v>0.22013888888888888</v>
+      </c>
       <c r="H29" s="39"/>
       <c r="I29" s="122" t="s">
         <v>349</v>
@@ -26527,10 +26608,12 @@
         <v>0.19791666666666666</v>
       </c>
       <c r="K29" s="137"/>
-      <c r="L29" s="131" t="s">
-        <v>301</v>
-      </c>
-      <c r="M29" s="72"/>
+      <c r="L29" s="141" t="s">
+        <v>357</v>
+      </c>
+      <c r="M29" s="72">
+        <v>0.30486111111111108</v>
+      </c>
       <c r="N29" s="39"/>
       <c r="O29" s="94" t="s">
         <v>40</v>
@@ -26558,11 +26641,21 @@
       <c r="B30" s="78">
         <v>28</v>
       </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="60"/>
+      <c r="C30" s="54" t="s">
+        <v>364</v>
+      </c>
+      <c r="D30" s="54">
+        <v>2022</v>
+      </c>
+      <c r="E30" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="G30" s="60">
+        <v>0.77777777777777779</v>
+      </c>
       <c r="H30" s="39"/>
       <c r="I30" s="113" t="s">
         <v>326</v>
@@ -26570,11 +26663,13 @@
       <c r="J30" s="133">
         <v>0.28750000000000003</v>
       </c>
-      <c r="K30" s="137"/>
-      <c r="L30" s="101" t="s">
-        <v>137</v>
-      </c>
-      <c r="M30" s="60"/>
+      <c r="K30" s="140"/>
+      <c r="L30" s="142" t="s">
+        <v>301</v>
+      </c>
+      <c r="M30" s="60">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="N30" s="39"/>
       <c r="O30" s="93" t="s">
         <v>41</v>
@@ -26602,11 +26697,21 @@
       <c r="B31" s="70">
         <v>29</v>
       </c>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="75"/>
+      <c r="C31" s="73" t="s">
+        <v>366</v>
+      </c>
+      <c r="D31" s="73">
+        <v>2022</v>
+      </c>
+      <c r="E31" s="74" t="s">
+        <v>367</v>
+      </c>
+      <c r="F31" s="74" t="s">
+        <v>368</v>
+      </c>
+      <c r="G31" s="75">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="H31" s="39"/>
       <c r="I31" s="112" t="s">
         <v>30</v>
@@ -26615,22 +26720,31 @@
         <v>1.0965277777777778</v>
       </c>
       <c r="K31" s="137"/>
-      <c r="L31" s="73" t="s">
-        <v>214</v>
-      </c>
-      <c r="M31" s="75"/>
+      <c r="L31" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="M31" s="75">
+        <v>0.21666666666666667</v>
+      </c>
       <c r="N31" s="39"/>
       <c r="O31" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="P31" s="64"/>
-      <c r="Q31" s="64"/>
+      <c r="P31" s="64">
+        <v>2.1645833333333333</v>
+      </c>
+      <c r="Q31" s="64">
+        <f>SUM(M29:M33)</f>
+        <v>1.7729166666666667</v>
+      </c>
       <c r="R31" s="90">
         <f>P31+Q31</f>
-        <v>0</v>
+        <v>3.9375</v>
       </c>
       <c r="S31" s="39"/>
-      <c r="T31" s="98"/>
+      <c r="T31" s="98" t="s">
+        <v>359</v>
+      </c>
       <c r="U31" s="39"/>
       <c r="V31" s="39"/>
     </row>
@@ -26652,20 +26766,31 @@
         <v>0.1875</v>
       </c>
       <c r="K32" s="137"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="60"/>
+      <c r="L32" s="54" t="s">
+        <v>356</v>
+      </c>
+      <c r="M32" s="60">
+        <v>0.26944444444444443</v>
+      </c>
       <c r="N32" s="39"/>
       <c r="O32" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="P32" s="81"/>
-      <c r="Q32" s="81"/>
+      <c r="P32" s="81">
+        <v>1.4333333333333333</v>
+      </c>
+      <c r="Q32" s="81">
+        <f>SUM(J36:J40)</f>
+        <v>3.4805555555555561</v>
+      </c>
       <c r="R32" s="97">
         <f>P32+Q32</f>
-        <v>0</v>
+        <v>4.9138888888888896</v>
       </c>
       <c r="S32" s="39"/>
-      <c r="T32" s="99"/>
+      <c r="T32" s="99" t="s">
+        <v>369</v>
+      </c>
       <c r="U32" s="39"/>
       <c r="V32" s="39"/>
     </row>
@@ -26685,8 +26810,12 @@
         <v>0.29375000000000001</v>
       </c>
       <c r="K33" s="137"/>
-      <c r="L33" s="134"/>
-      <c r="M33" s="77"/>
+      <c r="L33" s="135" t="s">
+        <v>214</v>
+      </c>
+      <c r="M33" s="77">
+        <v>0.77361111111111114</v>
+      </c>
       <c r="N33" s="39"/>
       <c r="O33" s="94" t="s">
         <v>44</v>
@@ -26700,7 +26829,9 @@
       <c r="S33" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="T33" s="128"/>
+      <c r="T33" s="128" t="s">
+        <v>370</v>
+      </c>
       <c r="U33" s="39"/>
       <c r="V33" s="39"/>
     </row>
@@ -26719,15 +26850,15 @@
       </c>
       <c r="P34" s="126">
         <f t="shared" ref="P34" si="1">SUM(P22:P33)</f>
-        <v>10.199305555555554</v>
+        <v>13.797222222222221</v>
       </c>
       <c r="Q34" s="126">
         <f>SUM(Q22:Q33)</f>
-        <v>14.606944444444444</v>
+        <v>19.860416666666666</v>
       </c>
       <c r="R34" s="127">
         <f>SUM(R22:R33)</f>
-        <v>24.806250000000002</v>
+        <v>33.65763888888889</v>
       </c>
       <c r="S34" s="39"/>
       <c r="T34" s="39"/>
@@ -26743,15 +26874,15 @@
       <c r="F35" s="30"/>
       <c r="G35" s="61"/>
       <c r="H35" s="39"/>
-      <c r="I35" s="157" t="s">
+      <c r="I35" s="160" t="s">
         <v>295</v>
       </c>
-      <c r="J35" s="158"/>
+      <c r="J35" s="161"/>
       <c r="K35" s="136"/>
-      <c r="L35" s="157" t="s">
+      <c r="L35" s="160" t="s">
         <v>296</v>
       </c>
-      <c r="M35" s="158"/>
+      <c r="M35" s="161"/>
       <c r="N35" s="39"/>
       <c r="O35" s="39"/>
       <c r="P35" s="39"/>
@@ -26771,15 +26902,21 @@
       <c r="F36" s="30"/>
       <c r="G36" s="61"/>
       <c r="H36" s="39"/>
-      <c r="I36" s="122"/>
-      <c r="J36" s="132"/>
+      <c r="I36" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="J36" s="132">
+        <v>0.72569444444444453</v>
+      </c>
       <c r="K36" s="137"/>
-      <c r="L36" s="131"/>
+      <c r="L36" s="131" t="s">
+        <v>357</v>
+      </c>
       <c r="M36" s="72"/>
       <c r="N36" s="39"/>
-      <c r="O36" s="156"/>
-      <c r="P36" s="156"/>
-      <c r="Q36" s="156"/>
+      <c r="O36" s="153"/>
+      <c r="P36" s="153"/>
+      <c r="Q36" s="153"/>
       <c r="R36" s="111"/>
       <c r="S36" s="16"/>
       <c r="T36" s="16"/>
@@ -26795,15 +26932,21 @@
       <c r="F37" s="30"/>
       <c r="G37" s="61"/>
       <c r="H37" s="39"/>
-      <c r="I37" s="113"/>
-      <c r="J37" s="133"/>
+      <c r="I37" s="113" t="s">
+        <v>211</v>
+      </c>
+      <c r="J37" s="133">
+        <v>6.3194444444444442E-2</v>
+      </c>
       <c r="K37" s="137"/>
-      <c r="L37" s="101"/>
+      <c r="L37" s="101" t="s">
+        <v>214</v>
+      </c>
       <c r="M37" s="60"/>
       <c r="N37" s="39"/>
-      <c r="O37" s="156"/>
-      <c r="P37" s="156"/>
-      <c r="Q37" s="156"/>
+      <c r="O37" s="153"/>
+      <c r="P37" s="153"/>
+      <c r="Q37" s="153"/>
       <c r="R37" s="111"/>
       <c r="S37" s="16"/>
       <c r="T37" s="16"/>
@@ -26819,15 +26962,21 @@
       <c r="F38" s="30"/>
       <c r="G38" s="61"/>
       <c r="H38" s="39"/>
-      <c r="I38" s="112"/>
-      <c r="J38" s="132"/>
+      <c r="I38" s="112" t="s">
+        <v>214</v>
+      </c>
+      <c r="J38" s="132">
+        <v>0.61597222222222225</v>
+      </c>
       <c r="K38" s="137"/>
-      <c r="L38" s="73"/>
+      <c r="L38" s="73" t="s">
+        <v>362</v>
+      </c>
       <c r="M38" s="75"/>
       <c r="N38" s="39"/>
-      <c r="O38" s="156"/>
-      <c r="P38" s="156"/>
-      <c r="Q38" s="156"/>
+      <c r="O38" s="153"/>
+      <c r="P38" s="153"/>
+      <c r="Q38" s="153"/>
       <c r="R38" s="111"/>
       <c r="S38" s="16"/>
       <c r="T38" s="16"/>
@@ -26843,15 +26992,21 @@
       <c r="F39" s="30"/>
       <c r="G39" s="61"/>
       <c r="H39" s="39"/>
-      <c r="I39" s="113"/>
-      <c r="J39" s="133"/>
+      <c r="I39" s="113" t="s">
+        <v>362</v>
+      </c>
+      <c r="J39" s="133">
+        <v>1.3187499999999999</v>
+      </c>
       <c r="K39" s="137"/>
-      <c r="L39" s="54"/>
+      <c r="L39" s="54" t="s">
+        <v>371</v>
+      </c>
       <c r="M39" s="60"/>
       <c r="N39" s="39"/>
-      <c r="O39" s="156"/>
-      <c r="P39" s="156"/>
-      <c r="Q39" s="156"/>
+      <c r="O39" s="153"/>
+      <c r="P39" s="153"/>
+      <c r="Q39" s="153"/>
       <c r="R39" s="124"/>
       <c r="S39" s="16"/>
       <c r="T39" s="16"/>
@@ -26867,15 +27022,21 @@
       <c r="F40" s="39"/>
       <c r="G40" s="62"/>
       <c r="H40" s="39"/>
-      <c r="I40" s="135"/>
-      <c r="J40" s="134"/>
+      <c r="I40" s="135" t="s">
+        <v>363</v>
+      </c>
+      <c r="J40" s="134">
+        <v>0.75694444444444453</v>
+      </c>
       <c r="K40" s="137"/>
-      <c r="L40" s="134"/>
+      <c r="L40" s="134" t="s">
+        <v>363</v>
+      </c>
       <c r="M40" s="77"/>
       <c r="N40" s="39"/>
-      <c r="O40" s="156"/>
-      <c r="P40" s="156"/>
-      <c r="Q40" s="156"/>
+      <c r="O40" s="153"/>
+      <c r="P40" s="153"/>
+      <c r="Q40" s="153"/>
       <c r="R40" s="124"/>
       <c r="S40" s="16"/>
       <c r="T40" s="16"/>
@@ -26892,9 +27053,9 @@
       <c r="G41" s="61"/>
       <c r="H41" s="39"/>
       <c r="N41" s="39"/>
-      <c r="O41" s="156"/>
-      <c r="P41" s="156"/>
-      <c r="Q41" s="156"/>
+      <c r="O41" s="153"/>
+      <c r="P41" s="153"/>
+      <c r="Q41" s="153"/>
       <c r="R41" s="124"/>
       <c r="S41" s="16"/>
       <c r="T41" s="16"/>
@@ -28821,7 +28982,7 @@
       </c>
       <c r="Q121" s="57">
         <f>COUNTIF(D3:D59,P121)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R121" s="39"/>
       <c r="S121" s="39"/>
@@ -29604,7 +29765,7 @@
       </c>
       <c r="Q148" s="42">
         <f>SUM(Q121:Q147)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R148" s="39"/>
       <c r="S148" s="39"/>
@@ -29737,12 +29898,6 @@
     <sortCondition ref="I9"/>
   </sortState>
   <mergeCells count="18">
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="O39:Q39"/>
-    <mergeCell ref="O40:Q40"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="L21:M21"/>
@@ -29755,6 +29910,12 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="I35:J35"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="O40:Q40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I116" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>

--- a/spreadsheets/Games.xlsx
+++ b/spreadsheets/Games.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ucer0.github.io\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD59C2EC-C13D-4DA4-9B68-4AB6182DF684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D21A6C-B469-4166-97DA-2A3D8C620494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="2020" sheetId="3" r:id="rId2"/>
     <sheet name="2021" sheetId="4" r:id="rId3"/>
     <sheet name="2022" sheetId="5" r:id="rId4"/>
+    <sheet name="2023" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="375">
   <si>
     <t>Nier: Automata</t>
   </si>
@@ -1574,6 +1575,15 @@
   </si>
   <si>
     <t>Slice and Dice</t>
+  </si>
+  <si>
+    <t>Live A Live</t>
+  </si>
+  <si>
+    <t>31-dic.</t>
+  </si>
+  <si>
+    <t>DNF Duel</t>
   </si>
 </sst>
 </file>
@@ -5286,6 +5296,9 @@
                 <c:pt idx="10">
                   <c:v>1.4333333333333333</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0798611111111112</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5405,12 +5418,903 @@
                 <c:pt idx="10">
                   <c:v>3.4805555555555561</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5166666666666666</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8964-4069-BD9F-5BADED3964DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="100"/>
+        <c:axId val="-1526709120"/>
+        <c:axId val="-1526714016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1526709120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="none" w="sm" len="sm"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Ubuntu" panose="020B0504030602030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1526714016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1526714016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="[h]&quot;h&quot;" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Ubuntu" panose="020B0504030602030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1526709120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
+        <c:minorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln cap="sq">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Ubuntu" panose="020B0504030602030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent5">
+        <a:lumMod val="60000"/>
+        <a:lumOff val="40000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="800" b="1">
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Ubuntu" panose="020B0504030602030204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>JUEGOS POR AÑO DE SALIDA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2021'!$N$121:$N$147</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2023'!$Q$121:$Q$147</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D6BF-41FA-917C-EEBABF5F7B77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="-1526708032"/>
+        <c:axId val="-1526704224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1526708032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1526704224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1526704224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-1526708032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.5891758143229659E-2"/>
+          <c:y val="3.1746031746031744E-2"/>
+          <c:w val="0.91079821426834318"/>
+          <c:h val="0.81548389784610253"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2023'!$P$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SOLO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+                <a:alpha val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2023'!$O$22:$O$33</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Ene</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ago</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2023'!$P$22:$P$33</c:f>
+              <c:numCache>
+                <c:formatCode>[h]"h"\ mm"m"</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-11A4-4C15-8D12-A4B52E7FC2AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2023'!$Q$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ONLINE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+                <a:alpha val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2023'!$O$22:$O$33</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Ene</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ago</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2023'!$Q$22:$Q$33</c:f>
+              <c:numCache>
+                <c:formatCode>[h]"h"\ mm"m"</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-11A4-4C15-8D12-A4B52E7FC2AB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5792,6 +6696,83 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
   <a:schemeClr val="accent5"/>
@@ -8984,6 +9965,1081 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="305">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:headEnd type="none" w="sm" len="sm"/>
+        <a:tailEnd type="none" w="sm" len="sm"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="46000">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="0"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:headEnd type="none" w="sm" len="sm"/>
+        <a:tailEnd type="none" w="sm" len="sm"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -9201,6 +11257,87 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC923B8B-FA3A-4CB2-80F0-0DB8FDD46CAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D56D821-5EDF-4804-96A2-479EEE12825E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10660,7 +12797,7 @@
   <dimension ref="A1:Y159"/>
   <sheetViews>
     <sheetView topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15447,7 +17584,7 @@
   <dimension ref="A1:AY296"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -25332,7 +27469,7 @@
   <dimension ref="A1:V153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26753,11 +28890,21 @@
       <c r="B32" s="123">
         <v>30</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="102"/>
+      <c r="C32" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="D32" s="11">
+        <v>2022</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="G32" s="102">
+        <v>0.96180555555555547</v>
+      </c>
       <c r="H32" s="39"/>
       <c r="I32" s="113" t="s">
         <v>137</v>
@@ -26820,11 +28967,16 @@
       <c r="O33" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="P33" s="64"/>
-      <c r="Q33" s="64"/>
+      <c r="P33" s="64">
+        <v>1.0798611111111112</v>
+      </c>
+      <c r="Q33" s="64">
+        <f>SUM(M36:M41)</f>
+        <v>2.5166666666666666</v>
+      </c>
       <c r="R33" s="90">
         <f>P33+Q33</f>
-        <v>0</v>
+        <v>3.5965277777777778</v>
       </c>
       <c r="S33" s="39" t="s">
         <v>257</v>
@@ -26850,15 +29002,15 @@
       </c>
       <c r="P34" s="126">
         <f t="shared" ref="P34" si="1">SUM(P22:P33)</f>
-        <v>13.797222222222221</v>
+        <v>14.877083333333331</v>
       </c>
       <c r="Q34" s="126">
         <f>SUM(Q22:Q33)</f>
-        <v>19.860416666666666</v>
+        <v>22.377083333333331</v>
       </c>
       <c r="R34" s="127">
         <f>SUM(R22:R33)</f>
-        <v>33.65763888888889</v>
+        <v>37.25416666666667</v>
       </c>
       <c r="S34" s="39"/>
       <c r="T34" s="39"/>
@@ -26912,7 +29064,9 @@
       <c r="L36" s="131" t="s">
         <v>357</v>
       </c>
-      <c r="M36" s="72"/>
+      <c r="M36" s="72">
+        <v>4.9305555555555554E-2</v>
+      </c>
       <c r="N36" s="39"/>
       <c r="O36" s="153"/>
       <c r="P36" s="153"/>
@@ -26940,9 +29094,11 @@
       </c>
       <c r="K37" s="137"/>
       <c r="L37" s="101" t="s">
-        <v>214</v>
-      </c>
-      <c r="M37" s="60"/>
+        <v>137</v>
+      </c>
+      <c r="M37" s="60">
+        <v>0.18472222222222223</v>
+      </c>
       <c r="N37" s="39"/>
       <c r="O37" s="153"/>
       <c r="P37" s="153"/>
@@ -26970,9 +29126,11 @@
       </c>
       <c r="K38" s="137"/>
       <c r="L38" s="73" t="s">
-        <v>362</v>
-      </c>
-      <c r="M38" s="75"/>
+        <v>214</v>
+      </c>
+      <c r="M38" s="75">
+        <v>0.21249999999999999</v>
+      </c>
       <c r="N38" s="39"/>
       <c r="O38" s="153"/>
       <c r="P38" s="153"/>
@@ -27000,9 +29158,11 @@
       </c>
       <c r="K39" s="137"/>
       <c r="L39" s="54" t="s">
-        <v>371</v>
-      </c>
-      <c r="M39" s="60"/>
+        <v>362</v>
+      </c>
+      <c r="M39" s="60">
+        <v>0.26527777777777778</v>
+      </c>
       <c r="N39" s="39"/>
       <c r="O39" s="153"/>
       <c r="P39" s="153"/>
@@ -27022,17 +29182,19 @@
       <c r="F40" s="39"/>
       <c r="G40" s="62"/>
       <c r="H40" s="39"/>
-      <c r="I40" s="135" t="s">
+      <c r="I40" s="112" t="s">
         <v>363</v>
       </c>
-      <c r="J40" s="134">
+      <c r="J40" s="132">
         <v>0.75694444444444453</v>
       </c>
       <c r="K40" s="137"/>
-      <c r="L40" s="134" t="s">
-        <v>363</v>
-      </c>
-      <c r="M40" s="77"/>
+      <c r="L40" s="132" t="s">
+        <v>371</v>
+      </c>
+      <c r="M40" s="75">
+        <v>0.75347222222222221</v>
+      </c>
       <c r="N40" s="39"/>
       <c r="O40" s="153"/>
       <c r="P40" s="153"/>
@@ -27052,6 +29214,14 @@
       <c r="F41" s="30"/>
       <c r="G41" s="61"/>
       <c r="H41" s="39"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="102"/>
+      <c r="L41" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="M41" s="102">
+        <v>1.0513888888888889</v>
+      </c>
       <c r="N41" s="39"/>
       <c r="O41" s="153"/>
       <c r="P41" s="153"/>
@@ -29928,4 +32098,3960 @@
   </ignoredErrors>
   <drawing r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2E69CA-387B-46EE-8AF5-1104FD3CA4B0}">
+  <dimension ref="A1:V153"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="3.140625" style="130" customWidth="1"/>
+    <col min="3" max="3" width="30" style="130" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="130" customWidth="1"/>
+    <col min="5" max="6" width="12.85546875" style="130" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="130" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" style="130" customWidth="1"/>
+    <col min="9" max="9" width="30" style="130" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="130" customWidth="1"/>
+    <col min="11" max="11" width="3.140625" style="130" customWidth="1"/>
+    <col min="12" max="12" width="30" style="130" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="130" customWidth="1"/>
+    <col min="14" max="14" width="3.140625" style="130" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" style="130" customWidth="1"/>
+    <col min="16" max="18" width="10" style="130" customWidth="1"/>
+    <col min="19" max="19" width="3.140625" style="130" customWidth="1"/>
+    <col min="20" max="20" width="42.85546875" style="130" customWidth="1"/>
+    <col min="21" max="21" width="3.140625" style="130" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="130"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="39"/>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39"/>
+      <c r="B2" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="86" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="160" t="s">
+        <v>285</v>
+      </c>
+      <c r="J2" s="162"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="162" t="s">
+        <v>286</v>
+      </c>
+      <c r="M2" s="161"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="39"/>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39"/>
+      <c r="B3" s="70">
+        <v>1</v>
+      </c>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="122" t="s">
+        <v>374</v>
+      </c>
+      <c r="J3" s="132"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="39"/>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39"/>
+      <c r="B4" s="78">
+        <v>2</v>
+      </c>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="39"/>
+    </row>
+    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="70">
+        <v>3</v>
+      </c>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="135"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="39"/>
+    </row>
+    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
+      <c r="B6" s="78">
+        <v>4</v>
+      </c>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="6"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="39"/>
+    </row>
+    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
+      <c r="B7" s="70">
+        <v>5</v>
+      </c>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="160" t="s">
+        <v>287</v>
+      </c>
+      <c r="J7" s="161"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="160" t="s">
+        <v>288</v>
+      </c>
+      <c r="M7" s="161"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="39"/>
+    </row>
+    <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
+      <c r="B8" s="78">
+        <v>6</v>
+      </c>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="131"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="39"/>
+    </row>
+    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="70">
+        <v>7</v>
+      </c>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="39"/>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
+      <c r="B10" s="78">
+        <v>8</v>
+      </c>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="132"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="39"/>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="70">
+        <v>9</v>
+      </c>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="138"/>
+      <c r="M11" s="138"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="39"/>
+    </row>
+    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
+      <c r="B12" s="78">
+        <v>10</v>
+      </c>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="160" t="s">
+        <v>289</v>
+      </c>
+      <c r="J12" s="161"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="160" t="s">
+        <v>290</v>
+      </c>
+      <c r="M12" s="161"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="39"/>
+    </row>
+    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="137"/>
+      <c r="L13" s="131"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="39"/>
+    </row>
+    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="137"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="39"/>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="135"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="137"/>
+      <c r="L15" s="135"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="39"/>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="6"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="39"/>
+    </row>
+    <row r="17" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="160" t="s">
+        <v>291</v>
+      </c>
+      <c r="J17" s="161"/>
+      <c r="K17" s="136"/>
+      <c r="L17" s="160" t="s">
+        <v>292</v>
+      </c>
+      <c r="M17" s="161"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="39"/>
+    </row>
+    <row r="18" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="39"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="132"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="131"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="39"/>
+    </row>
+    <row r="19" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="133"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="39"/>
+    </row>
+    <row r="20" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="39"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="135"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="137"/>
+      <c r="L20" s="135"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="39"/>
+    </row>
+    <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="39"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="6"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q21" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="R21" s="92" t="s">
+        <v>129</v>
+      </c>
+      <c r="S21" s="39"/>
+      <c r="T21" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+    </row>
+    <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="39"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="160" t="s">
+        <v>293</v>
+      </c>
+      <c r="J22" s="161"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="160" t="s">
+        <v>294</v>
+      </c>
+      <c r="M22" s="161"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="P22" s="95"/>
+      <c r="Q22" s="95"/>
+      <c r="R22" s="96">
+        <f t="shared" ref="R22:R28" si="0">P22+Q22</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="39"/>
+      <c r="T22" s="104"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+    </row>
+    <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="39"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="132"/>
+      <c r="K23" s="137"/>
+      <c r="L23" s="141"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="94" t="s">
+        <v>34</v>
+      </c>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="39"/>
+      <c r="T23" s="98"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
+    </row>
+    <row r="24" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="39"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="133"/>
+      <c r="K24" s="140"/>
+      <c r="L24" s="142"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="97">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="39"/>
+      <c r="T24" s="99"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+    </row>
+    <row r="25" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="39"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="135"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="137"/>
+      <c r="L25" s="115"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="94" t="s">
+        <v>36</v>
+      </c>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="64"/>
+      <c r="R25" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="39"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
+    </row>
+    <row r="26" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="39"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="P26" s="81"/>
+      <c r="Q26" s="81"/>
+      <c r="R26" s="97">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="39"/>
+      <c r="T26" s="99"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
+    </row>
+    <row r="27" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="39"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="160" t="s">
+        <v>295</v>
+      </c>
+      <c r="J27" s="161"/>
+      <c r="K27" s="136"/>
+      <c r="L27" s="160" t="s">
+        <v>296</v>
+      </c>
+      <c r="M27" s="161"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="39"/>
+      <c r="T27" s="98"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
+    </row>
+    <row r="28" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="39"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="132"/>
+      <c r="K28" s="137"/>
+      <c r="L28" s="131"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="P28" s="81"/>
+      <c r="Q28" s="81"/>
+      <c r="R28" s="97">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="39"/>
+      <c r="T28" s="100"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+    </row>
+    <row r="29" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="39"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="133"/>
+      <c r="K29" s="137"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="90">
+        <f>P29+Q29</f>
+        <v>0</v>
+      </c>
+      <c r="S29" s="39"/>
+      <c r="T29" s="98"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="39"/>
+    </row>
+    <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="39"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="112"/>
+      <c r="J30" s="132"/>
+      <c r="K30" s="137"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="P30" s="81"/>
+      <c r="Q30" s="81"/>
+      <c r="R30" s="97">
+        <f>P30+Q30</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="39"/>
+      <c r="T30" s="100"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="39"/>
+    </row>
+    <row r="31" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="39"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="138"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="138"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="90">
+        <f>P31+Q31</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="39"/>
+      <c r="T31" s="98"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39"/>
+    </row>
+    <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="39"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="P32" s="81"/>
+      <c r="Q32" s="81"/>
+      <c r="R32" s="97">
+        <f>P32+Q32</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="39"/>
+      <c r="T32" s="99"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
+    </row>
+    <row r="33" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="39"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="61"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="P33" s="64"/>
+      <c r="Q33" s="64"/>
+      <c r="R33" s="90">
+        <f>P33+Q33</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="T33" s="128"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="39"/>
+    </row>
+    <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="39"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="125" t="s">
+        <v>78</v>
+      </c>
+      <c r="P34" s="126">
+        <f t="shared" ref="P34" si="1">SUM(P22:P33)</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="126">
+        <f>SUM(Q22:Q33)</f>
+        <v>0</v>
+      </c>
+      <c r="R34" s="127">
+        <f>SUM(R22:R33)</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="39"/>
+      <c r="T34" s="39"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="39"/>
+    </row>
+    <row r="35" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="39"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="109"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39"/>
+    </row>
+    <row r="36" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="39"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="153"/>
+      <c r="P36" s="153"/>
+      <c r="Q36" s="153"/>
+      <c r="R36" s="111"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="39"/>
+    </row>
+    <row r="37" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="39"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="153"/>
+      <c r="P37" s="153"/>
+      <c r="Q37" s="153"/>
+      <c r="R37" s="111"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="39"/>
+      <c r="V37" s="39"/>
+    </row>
+    <row r="38" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="39"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="153"/>
+      <c r="P38" s="153"/>
+      <c r="Q38" s="153"/>
+      <c r="R38" s="111"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="39"/>
+      <c r="V38" s="39"/>
+    </row>
+    <row r="39" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="39"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="39"/>
+      <c r="N39" s="39"/>
+      <c r="O39" s="153"/>
+      <c r="P39" s="153"/>
+      <c r="Q39" s="153"/>
+      <c r="R39" s="124"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="39"/>
+      <c r="V39" s="39"/>
+    </row>
+    <row r="40" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="39"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="39"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="153"/>
+      <c r="P40" s="153"/>
+      <c r="Q40" s="153"/>
+      <c r="R40" s="124"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="39"/>
+      <c r="V40" s="39"/>
+    </row>
+    <row r="41" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="39"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="153"/>
+      <c r="P41" s="153"/>
+      <c r="Q41" s="153"/>
+      <c r="R41" s="124"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="39"/>
+      <c r="V41" s="39"/>
+    </row>
+    <row r="42" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="39"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="39"/>
+      <c r="R42" s="124"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="39"/>
+      <c r="V42" s="39"/>
+    </row>
+    <row r="43" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="39"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="61"/>
+      <c r="L43" s="61"/>
+      <c r="M43" s="61"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="39"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="39"/>
+      <c r="V43" s="39"/>
+    </row>
+    <row r="44" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="39"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="111"/>
+      <c r="K44" s="111"/>
+      <c r="L44" s="111"/>
+      <c r="M44" s="111"/>
+      <c r="N44" s="39"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="39"/>
+      <c r="V44" s="39"/>
+    </row>
+    <row r="45" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="39"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="111"/>
+      <c r="K45" s="111"/>
+      <c r="L45" s="111"/>
+      <c r="M45" s="111"/>
+      <c r="N45" s="39"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="16"/>
+      <c r="U45" s="39"/>
+      <c r="V45" s="39"/>
+    </row>
+    <row r="46" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="39"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="111"/>
+      <c r="K46" s="111"/>
+      <c r="L46" s="111"/>
+      <c r="M46" s="111"/>
+      <c r="N46" s="39"/>
+      <c r="O46" s="109"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="16"/>
+      <c r="S46" s="16"/>
+      <c r="T46" s="16"/>
+      <c r="U46" s="39"/>
+      <c r="V46" s="39"/>
+    </row>
+    <row r="47" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="39"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="111"/>
+      <c r="K47" s="111"/>
+      <c r="L47" s="111"/>
+      <c r="M47" s="111"/>
+      <c r="N47" s="39"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="16"/>
+      <c r="U47" s="39"/>
+      <c r="V47" s="39"/>
+    </row>
+    <row r="48" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="39"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="111"/>
+      <c r="K48" s="111"/>
+      <c r="L48" s="111"/>
+      <c r="M48" s="111"/>
+      <c r="N48" s="39"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="16"/>
+      <c r="U48" s="39"/>
+      <c r="V48" s="39"/>
+    </row>
+    <row r="49" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="39"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="111"/>
+      <c r="K49" s="111"/>
+      <c r="L49" s="111"/>
+      <c r="M49" s="111"/>
+      <c r="N49" s="39"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="39"/>
+      <c r="V49" s="39"/>
+    </row>
+    <row r="50" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="39"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="111"/>
+      <c r="K50" s="111"/>
+      <c r="L50" s="111"/>
+      <c r="M50" s="111"/>
+      <c r="N50" s="39"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="39"/>
+      <c r="S50" s="39"/>
+      <c r="T50" s="39"/>
+      <c r="U50" s="39"/>
+      <c r="V50" s="39"/>
+    </row>
+    <row r="51" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="39"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="111"/>
+      <c r="K51" s="111"/>
+      <c r="L51" s="111"/>
+      <c r="M51" s="111"/>
+      <c r="N51" s="39"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="39"/>
+      <c r="R51" s="39"/>
+      <c r="S51" s="39"/>
+      <c r="T51" s="39"/>
+      <c r="U51" s="39"/>
+      <c r="V51" s="39"/>
+    </row>
+    <row r="52" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="39"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="111"/>
+      <c r="K52" s="111"/>
+      <c r="L52" s="111"/>
+      <c r="M52" s="111"/>
+      <c r="N52" s="39"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="39"/>
+      <c r="S52" s="39"/>
+      <c r="T52" s="39"/>
+      <c r="U52" s="39"/>
+      <c r="V52" s="39"/>
+    </row>
+    <row r="53" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="39"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="111"/>
+      <c r="K53" s="111"/>
+      <c r="L53" s="111"/>
+      <c r="M53" s="111"/>
+      <c r="N53" s="39"/>
+      <c r="O53" s="39"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="39"/>
+      <c r="S53" s="39"/>
+      <c r="T53" s="39"/>
+      <c r="U53" s="39"/>
+      <c r="V53" s="39"/>
+    </row>
+    <row r="54" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="39"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="111"/>
+      <c r="K54" s="111"/>
+      <c r="L54" s="111"/>
+      <c r="M54" s="111"/>
+      <c r="N54" s="39"/>
+      <c r="O54" s="39"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="39"/>
+      <c r="R54" s="39"/>
+      <c r="S54" s="39"/>
+      <c r="T54" s="39"/>
+      <c r="U54" s="39"/>
+      <c r="V54" s="39"/>
+    </row>
+    <row r="55" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="39"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="111"/>
+      <c r="K55" s="111"/>
+      <c r="L55" s="111"/>
+      <c r="M55" s="111"/>
+      <c r="N55" s="39"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="39"/>
+      <c r="R55" s="39"/>
+      <c r="S55" s="39"/>
+      <c r="T55" s="39"/>
+      <c r="U55" s="39"/>
+      <c r="V55" s="39"/>
+    </row>
+    <row r="56" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="39"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="111"/>
+      <c r="K56" s="111"/>
+      <c r="L56" s="111"/>
+      <c r="M56" s="111"/>
+      <c r="N56" s="39"/>
+      <c r="O56" s="39"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="39"/>
+      <c r="R56" s="39"/>
+      <c r="S56" s="39"/>
+      <c r="T56" s="39"/>
+      <c r="U56" s="39"/>
+      <c r="V56" s="39"/>
+    </row>
+    <row r="57" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="39"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="111"/>
+      <c r="K57" s="111"/>
+      <c r="L57" s="111"/>
+      <c r="M57" s="111"/>
+      <c r="N57" s="39"/>
+      <c r="O57" s="39"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="39"/>
+      <c r="R57" s="39"/>
+      <c r="S57" s="39"/>
+      <c r="T57" s="39"/>
+      <c r="U57" s="39"/>
+      <c r="V57" s="39"/>
+    </row>
+    <row r="58" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="39"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="111"/>
+      <c r="K58" s="111"/>
+      <c r="L58" s="111"/>
+      <c r="M58" s="111"/>
+      <c r="N58" s="39"/>
+      <c r="O58" s="39"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="39"/>
+      <c r="R58" s="39"/>
+      <c r="S58" s="39"/>
+      <c r="T58" s="39"/>
+      <c r="U58" s="39"/>
+      <c r="V58" s="39"/>
+    </row>
+    <row r="59" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="39"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="111"/>
+      <c r="K59" s="111"/>
+      <c r="L59" s="111"/>
+      <c r="M59" s="111"/>
+      <c r="N59" s="39"/>
+      <c r="O59" s="39"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="39"/>
+      <c r="R59" s="39"/>
+      <c r="S59" s="39"/>
+      <c r="T59" s="39"/>
+      <c r="U59" s="39"/>
+      <c r="V59" s="39"/>
+    </row>
+    <row r="60" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="39"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="111"/>
+      <c r="K60" s="111"/>
+      <c r="L60" s="111"/>
+      <c r="M60" s="111"/>
+      <c r="N60" s="39"/>
+      <c r="O60" s="39"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="39"/>
+      <c r="R60" s="39"/>
+      <c r="S60" s="39"/>
+      <c r="T60" s="39"/>
+      <c r="U60" s="39"/>
+      <c r="V60" s="39"/>
+    </row>
+    <row r="61" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="39"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="111"/>
+      <c r="K61" s="111"/>
+      <c r="L61" s="111"/>
+      <c r="M61" s="111"/>
+      <c r="N61" s="39"/>
+      <c r="O61" s="39"/>
+      <c r="P61" s="39"/>
+      <c r="Q61" s="39"/>
+      <c r="R61" s="39"/>
+      <c r="S61" s="39"/>
+      <c r="T61" s="39"/>
+      <c r="U61" s="39"/>
+      <c r="V61" s="39"/>
+    </row>
+    <row r="62" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="39"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="111"/>
+      <c r="K62" s="111"/>
+      <c r="L62" s="111"/>
+      <c r="M62" s="111"/>
+      <c r="N62" s="39"/>
+      <c r="O62" s="39"/>
+      <c r="P62" s="39"/>
+      <c r="Q62" s="39"/>
+      <c r="R62" s="39"/>
+      <c r="S62" s="39"/>
+      <c r="T62" s="39"/>
+      <c r="U62" s="39"/>
+      <c r="V62" s="39"/>
+    </row>
+    <row r="63" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="39"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="111"/>
+      <c r="K63" s="111"/>
+      <c r="L63" s="111"/>
+      <c r="M63" s="111"/>
+      <c r="N63" s="39"/>
+      <c r="O63" s="39"/>
+      <c r="P63" s="39"/>
+      <c r="Q63" s="39"/>
+      <c r="R63" s="39"/>
+      <c r="S63" s="39"/>
+      <c r="T63" s="39"/>
+      <c r="U63" s="39"/>
+      <c r="V63" s="39"/>
+    </row>
+    <row r="64" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="39"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="111"/>
+      <c r="K64" s="111"/>
+      <c r="L64" s="111"/>
+      <c r="M64" s="111"/>
+      <c r="N64" s="39"/>
+      <c r="O64" s="39"/>
+      <c r="P64" s="39"/>
+      <c r="Q64" s="39"/>
+      <c r="R64" s="39"/>
+      <c r="S64" s="39"/>
+      <c r="T64" s="39"/>
+      <c r="U64" s="39"/>
+      <c r="V64" s="39"/>
+    </row>
+    <row r="65" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="39"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="111"/>
+      <c r="K65" s="111"/>
+      <c r="L65" s="111"/>
+      <c r="M65" s="111"/>
+      <c r="N65" s="39"/>
+      <c r="O65" s="39"/>
+      <c r="P65" s="39"/>
+      <c r="Q65" s="39"/>
+      <c r="R65" s="39"/>
+      <c r="S65" s="39"/>
+      <c r="T65" s="39"/>
+      <c r="U65" s="39"/>
+      <c r="V65" s="39"/>
+    </row>
+    <row r="66" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="39"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="111"/>
+      <c r="K66" s="111"/>
+      <c r="L66" s="111"/>
+      <c r="M66" s="111"/>
+      <c r="N66" s="39"/>
+      <c r="O66" s="39"/>
+      <c r="P66" s="39"/>
+      <c r="Q66" s="39"/>
+      <c r="R66" s="39"/>
+      <c r="S66" s="39"/>
+      <c r="T66" s="39"/>
+      <c r="U66" s="39"/>
+      <c r="V66" s="39"/>
+    </row>
+    <row r="67" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="39"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="111"/>
+      <c r="K67" s="111"/>
+      <c r="L67" s="111"/>
+      <c r="M67" s="111"/>
+      <c r="N67" s="39"/>
+      <c r="O67" s="39"/>
+      <c r="P67" s="39"/>
+      <c r="Q67" s="39"/>
+      <c r="R67" s="39"/>
+      <c r="S67" s="39"/>
+      <c r="T67" s="39"/>
+      <c r="U67" s="39"/>
+      <c r="V67" s="39"/>
+    </row>
+    <row r="68" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="39"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="111"/>
+      <c r="K68" s="111"/>
+      <c r="L68" s="111"/>
+      <c r="M68" s="111"/>
+      <c r="N68" s="39"/>
+      <c r="O68" s="39"/>
+      <c r="P68" s="39"/>
+      <c r="Q68" s="39"/>
+      <c r="R68" s="39"/>
+      <c r="S68" s="39"/>
+      <c r="T68" s="39"/>
+      <c r="U68" s="39"/>
+      <c r="V68" s="39"/>
+    </row>
+    <row r="69" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="39"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="39"/>
+      <c r="O69" s="39"/>
+      <c r="P69" s="39"/>
+      <c r="Q69" s="39"/>
+      <c r="R69" s="39"/>
+      <c r="S69" s="39"/>
+      <c r="T69" s="39"/>
+      <c r="U69" s="39"/>
+      <c r="V69" s="39"/>
+    </row>
+    <row r="70" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="39"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="39"/>
+      <c r="O70" s="39"/>
+      <c r="P70" s="39"/>
+      <c r="Q70" s="39"/>
+      <c r="R70" s="39"/>
+      <c r="S70" s="39"/>
+      <c r="T70" s="39"/>
+      <c r="U70" s="39"/>
+      <c r="V70" s="39"/>
+    </row>
+    <row r="71" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="39"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="39"/>
+      <c r="O71" s="39"/>
+      <c r="P71" s="39"/>
+      <c r="Q71" s="39"/>
+      <c r="R71" s="39"/>
+      <c r="S71" s="39"/>
+      <c r="T71" s="39"/>
+      <c r="U71" s="39"/>
+      <c r="V71" s="39"/>
+    </row>
+    <row r="72" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="39"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="39"/>
+      <c r="O72" s="39"/>
+      <c r="P72" s="39"/>
+      <c r="Q72" s="39"/>
+      <c r="R72" s="39"/>
+      <c r="S72" s="39"/>
+      <c r="T72" s="39"/>
+      <c r="U72" s="39"/>
+      <c r="V72" s="39"/>
+    </row>
+    <row r="73" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="39"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="39"/>
+      <c r="O73" s="39"/>
+      <c r="P73" s="39"/>
+      <c r="Q73" s="39"/>
+      <c r="R73" s="39"/>
+      <c r="S73" s="39"/>
+      <c r="T73" s="39"/>
+      <c r="U73" s="39"/>
+      <c r="V73" s="39"/>
+    </row>
+    <row r="74" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="39"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="16"/>
+      <c r="N74" s="39"/>
+      <c r="O74" s="39"/>
+      <c r="P74" s="39"/>
+      <c r="Q74" s="39"/>
+      <c r="R74" s="39"/>
+      <c r="S74" s="39"/>
+      <c r="T74" s="39"/>
+      <c r="U74" s="39"/>
+      <c r="V74" s="39"/>
+    </row>
+    <row r="75" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="39"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="39"/>
+      <c r="O75" s="39"/>
+      <c r="P75" s="39"/>
+      <c r="Q75" s="39"/>
+      <c r="R75" s="39"/>
+      <c r="S75" s="39"/>
+      <c r="T75" s="39"/>
+      <c r="U75" s="39"/>
+      <c r="V75" s="39"/>
+    </row>
+    <row r="76" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="39"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="39"/>
+      <c r="O76" s="39"/>
+      <c r="P76" s="39"/>
+      <c r="Q76" s="39"/>
+      <c r="R76" s="39"/>
+      <c r="S76" s="39"/>
+      <c r="T76" s="39"/>
+      <c r="U76" s="39"/>
+      <c r="V76" s="39"/>
+    </row>
+    <row r="77" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="39"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="39"/>
+      <c r="H77" s="39"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="39"/>
+      <c r="O77" s="39"/>
+      <c r="P77" s="39"/>
+      <c r="Q77" s="39"/>
+      <c r="R77" s="39"/>
+      <c r="S77" s="39"/>
+      <c r="T77" s="39"/>
+      <c r="U77" s="39"/>
+      <c r="V77" s="39"/>
+    </row>
+    <row r="78" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="39"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="16"/>
+      <c r="N78" s="39"/>
+      <c r="O78" s="39"/>
+      <c r="P78" s="39"/>
+      <c r="Q78" s="39"/>
+      <c r="R78" s="39"/>
+      <c r="S78" s="39"/>
+      <c r="T78" s="39"/>
+      <c r="U78" s="39"/>
+      <c r="V78" s="39"/>
+    </row>
+    <row r="79" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="39"/>
+      <c r="B79" s="39"/>
+      <c r="C79" s="39"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="39"/>
+      <c r="G79" s="39"/>
+      <c r="H79" s="39"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="16"/>
+      <c r="N79" s="39"/>
+      <c r="O79" s="39"/>
+      <c r="P79" s="39"/>
+      <c r="Q79" s="39"/>
+      <c r="R79" s="39"/>
+      <c r="S79" s="39"/>
+      <c r="T79" s="39"/>
+      <c r="U79" s="39"/>
+      <c r="V79" s="39"/>
+    </row>
+    <row r="80" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="39"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="39"/>
+      <c r="H80" s="39"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="16"/>
+      <c r="L80" s="16"/>
+      <c r="M80" s="16"/>
+      <c r="N80" s="39"/>
+      <c r="O80" s="39"/>
+      <c r="P80" s="39"/>
+      <c r="Q80" s="39"/>
+      <c r="R80" s="39"/>
+      <c r="S80" s="39"/>
+      <c r="T80" s="39"/>
+      <c r="U80" s="39"/>
+      <c r="V80" s="39"/>
+    </row>
+    <row r="81" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="39"/>
+      <c r="B81" s="39"/>
+      <c r="C81" s="39"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="39"/>
+      <c r="H81" s="39"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="16"/>
+      <c r="N81" s="39"/>
+      <c r="O81" s="39"/>
+      <c r="P81" s="39"/>
+      <c r="Q81" s="39"/>
+      <c r="R81" s="39"/>
+      <c r="S81" s="39"/>
+      <c r="T81" s="39"/>
+      <c r="U81" s="39"/>
+      <c r="V81" s="39"/>
+    </row>
+    <row r="82" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="39"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="39"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="39"/>
+      <c r="H82" s="39"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="16"/>
+      <c r="L82" s="16"/>
+      <c r="M82" s="16"/>
+      <c r="N82" s="39"/>
+      <c r="O82" s="39"/>
+      <c r="P82" s="39"/>
+      <c r="Q82" s="39"/>
+      <c r="R82" s="39"/>
+      <c r="S82" s="39"/>
+      <c r="T82" s="39"/>
+      <c r="U82" s="39"/>
+      <c r="V82" s="39"/>
+    </row>
+    <row r="83" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="39"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="39"/>
+      <c r="G83" s="39"/>
+      <c r="H83" s="39"/>
+      <c r="I83" s="16"/>
+      <c r="J83" s="16"/>
+      <c r="K83" s="16"/>
+      <c r="L83" s="16"/>
+      <c r="M83" s="16"/>
+      <c r="N83" s="39"/>
+      <c r="O83" s="39"/>
+      <c r="P83" s="39"/>
+      <c r="Q83" s="39"/>
+      <c r="R83" s="39"/>
+      <c r="S83" s="39"/>
+      <c r="T83" s="39"/>
+      <c r="U83" s="39"/>
+      <c r="V83" s="39"/>
+    </row>
+    <row r="84" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="39"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="39"/>
+      <c r="H84" s="39"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="16"/>
+      <c r="L84" s="16"/>
+      <c r="M84" s="16"/>
+      <c r="N84" s="39"/>
+      <c r="O84" s="39"/>
+      <c r="P84" s="39"/>
+      <c r="Q84" s="39"/>
+      <c r="R84" s="39"/>
+      <c r="S84" s="39"/>
+      <c r="T84" s="39"/>
+      <c r="U84" s="39"/>
+      <c r="V84" s="39"/>
+    </row>
+    <row r="85" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="39"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="39"/>
+      <c r="F85" s="39"/>
+      <c r="G85" s="39"/>
+      <c r="H85" s="39"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="16"/>
+      <c r="K85" s="16"/>
+      <c r="L85" s="16"/>
+      <c r="M85" s="16"/>
+      <c r="N85" s="39"/>
+      <c r="O85" s="39"/>
+      <c r="P85" s="39"/>
+      <c r="Q85" s="39"/>
+      <c r="R85" s="39"/>
+      <c r="S85" s="39"/>
+      <c r="T85" s="39"/>
+      <c r="U85" s="39"/>
+      <c r="V85" s="39"/>
+    </row>
+    <row r="86" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="39"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="39"/>
+      <c r="G86" s="39"/>
+      <c r="H86" s="39"/>
+      <c r="I86" s="16"/>
+      <c r="J86" s="16"/>
+      <c r="K86" s="16"/>
+      <c r="L86" s="16"/>
+      <c r="M86" s="16"/>
+      <c r="N86" s="39"/>
+      <c r="O86" s="39"/>
+      <c r="P86" s="39"/>
+      <c r="Q86" s="39"/>
+      <c r="R86" s="39"/>
+      <c r="S86" s="39"/>
+      <c r="T86" s="39"/>
+      <c r="U86" s="39"/>
+      <c r="V86" s="39"/>
+    </row>
+    <row r="87" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="39"/>
+      <c r="B87" s="39"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="39"/>
+      <c r="F87" s="39"/>
+      <c r="G87" s="39"/>
+      <c r="H87" s="39"/>
+      <c r="I87" s="16"/>
+      <c r="J87" s="16"/>
+      <c r="K87" s="16"/>
+      <c r="L87" s="16"/>
+      <c r="M87" s="16"/>
+      <c r="N87" s="39"/>
+      <c r="O87" s="39"/>
+      <c r="P87" s="39"/>
+      <c r="Q87" s="39"/>
+      <c r="R87" s="39"/>
+      <c r="S87" s="39"/>
+      <c r="T87" s="39"/>
+      <c r="U87" s="39"/>
+      <c r="V87" s="39"/>
+    </row>
+    <row r="88" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="39"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="39"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="39"/>
+      <c r="G88" s="39"/>
+      <c r="H88" s="39"/>
+      <c r="I88" s="16"/>
+      <c r="J88" s="16"/>
+      <c r="K88" s="16"/>
+      <c r="L88" s="16"/>
+      <c r="M88" s="16"/>
+      <c r="N88" s="39"/>
+      <c r="O88" s="39"/>
+      <c r="P88" s="39"/>
+      <c r="Q88" s="39"/>
+      <c r="R88" s="39"/>
+      <c r="S88" s="39"/>
+      <c r="T88" s="39"/>
+      <c r="U88" s="39"/>
+      <c r="V88" s="39"/>
+    </row>
+    <row r="89" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="39"/>
+      <c r="B89" s="39"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="39"/>
+      <c r="F89" s="39"/>
+      <c r="G89" s="39"/>
+      <c r="H89" s="39"/>
+      <c r="I89" s="16"/>
+      <c r="J89" s="16"/>
+      <c r="K89" s="16"/>
+      <c r="L89" s="16"/>
+      <c r="M89" s="16"/>
+      <c r="N89" s="39"/>
+      <c r="O89" s="39"/>
+      <c r="P89" s="39"/>
+      <c r="Q89" s="39"/>
+      <c r="R89" s="39"/>
+      <c r="S89" s="39"/>
+      <c r="T89" s="39"/>
+      <c r="U89" s="39"/>
+      <c r="V89" s="39"/>
+    </row>
+    <row r="90" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="39"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="39"/>
+      <c r="F90" s="39"/>
+      <c r="G90" s="39"/>
+      <c r="H90" s="39"/>
+      <c r="I90" s="16"/>
+      <c r="J90" s="16"/>
+      <c r="K90" s="16"/>
+      <c r="L90" s="16"/>
+      <c r="M90" s="16"/>
+      <c r="N90" s="39"/>
+      <c r="O90" s="39"/>
+      <c r="P90" s="39"/>
+      <c r="Q90" s="39"/>
+      <c r="R90" s="39"/>
+      <c r="S90" s="39"/>
+      <c r="T90" s="39"/>
+      <c r="U90" s="39"/>
+      <c r="V90" s="39"/>
+    </row>
+    <row r="91" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="39"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="39"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="16"/>
+      <c r="J91" s="16"/>
+      <c r="K91" s="16"/>
+      <c r="L91" s="16"/>
+      <c r="M91" s="16"/>
+      <c r="N91" s="39"/>
+      <c r="O91" s="39"/>
+      <c r="P91" s="39"/>
+      <c r="Q91" s="39"/>
+      <c r="R91" s="39"/>
+      <c r="S91" s="39"/>
+      <c r="T91" s="39"/>
+      <c r="U91" s="39"/>
+      <c r="V91" s="39"/>
+    </row>
+    <row r="92" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="39"/>
+      <c r="B92" s="39"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="39"/>
+      <c r="G92" s="39"/>
+      <c r="H92" s="39"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="16"/>
+      <c r="K92" s="16"/>
+      <c r="L92" s="16"/>
+      <c r="M92" s="16"/>
+      <c r="N92" s="39"/>
+      <c r="O92" s="39"/>
+      <c r="P92" s="39"/>
+      <c r="Q92" s="39"/>
+      <c r="R92" s="39"/>
+      <c r="S92" s="39"/>
+      <c r="T92" s="39"/>
+      <c r="U92" s="39"/>
+      <c r="V92" s="39"/>
+    </row>
+    <row r="93" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="39"/>
+      <c r="B93" s="39"/>
+      <c r="C93" s="39"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="39"/>
+      <c r="F93" s="39"/>
+      <c r="G93" s="39"/>
+      <c r="H93" s="39"/>
+      <c r="I93" s="16"/>
+      <c r="J93" s="16"/>
+      <c r="K93" s="16"/>
+      <c r="L93" s="16"/>
+      <c r="M93" s="16"/>
+      <c r="N93" s="39"/>
+      <c r="O93" s="39"/>
+      <c r="P93" s="39"/>
+      <c r="Q93" s="39"/>
+      <c r="R93" s="39"/>
+      <c r="S93" s="39"/>
+      <c r="T93" s="39"/>
+      <c r="U93" s="39"/>
+      <c r="V93" s="39"/>
+    </row>
+    <row r="94" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="39"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="39"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="39"/>
+      <c r="F94" s="39"/>
+      <c r="G94" s="39"/>
+      <c r="H94" s="39"/>
+      <c r="I94" s="16"/>
+      <c r="J94" s="16"/>
+      <c r="K94" s="16"/>
+      <c r="L94" s="16"/>
+      <c r="M94" s="16"/>
+      <c r="N94" s="39"/>
+      <c r="O94" s="39"/>
+      <c r="P94" s="39"/>
+      <c r="Q94" s="39"/>
+      <c r="R94" s="39"/>
+      <c r="S94" s="39"/>
+      <c r="T94" s="39"/>
+      <c r="U94" s="39"/>
+      <c r="V94" s="39"/>
+    </row>
+    <row r="95" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="39"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="39"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="39"/>
+      <c r="F95" s="39"/>
+      <c r="G95" s="39"/>
+      <c r="H95" s="39"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="16"/>
+      <c r="L95" s="16"/>
+      <c r="M95" s="16"/>
+      <c r="N95" s="39"/>
+      <c r="O95" s="39"/>
+      <c r="P95" s="39"/>
+      <c r="Q95" s="39"/>
+      <c r="R95" s="39"/>
+      <c r="S95" s="39"/>
+      <c r="T95" s="39"/>
+      <c r="U95" s="39"/>
+      <c r="V95" s="39"/>
+    </row>
+    <row r="96" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="39"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="39"/>
+      <c r="F96" s="39"/>
+      <c r="G96" s="39"/>
+      <c r="H96" s="39"/>
+      <c r="I96" s="16"/>
+      <c r="J96" s="16"/>
+      <c r="K96" s="16"/>
+      <c r="L96" s="16"/>
+      <c r="M96" s="16"/>
+      <c r="N96" s="39"/>
+      <c r="O96" s="39"/>
+      <c r="P96" s="39"/>
+      <c r="Q96" s="39"/>
+      <c r="R96" s="39"/>
+      <c r="S96" s="39"/>
+      <c r="T96" s="39"/>
+      <c r="U96" s="39"/>
+      <c r="V96" s="39"/>
+    </row>
+    <row r="97" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="39"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="39"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="39"/>
+      <c r="F97" s="39"/>
+      <c r="G97" s="39"/>
+      <c r="H97" s="39"/>
+      <c r="I97" s="16"/>
+      <c r="J97" s="16"/>
+      <c r="K97" s="16"/>
+      <c r="L97" s="16"/>
+      <c r="M97" s="16"/>
+      <c r="N97" s="39"/>
+      <c r="O97" s="39"/>
+      <c r="P97" s="39"/>
+      <c r="Q97" s="39"/>
+      <c r="R97" s="39"/>
+      <c r="S97" s="39"/>
+      <c r="T97" s="39"/>
+      <c r="U97" s="39"/>
+      <c r="V97" s="39"/>
+    </row>
+    <row r="98" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="39"/>
+      <c r="B98" s="39"/>
+      <c r="C98" s="39"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="39"/>
+      <c r="F98" s="39"/>
+      <c r="G98" s="39"/>
+      <c r="H98" s="39"/>
+      <c r="I98" s="16"/>
+      <c r="J98" s="16"/>
+      <c r="K98" s="16"/>
+      <c r="L98" s="16"/>
+      <c r="M98" s="16"/>
+      <c r="N98" s="39"/>
+      <c r="O98" s="39"/>
+      <c r="P98" s="39"/>
+      <c r="Q98" s="39"/>
+      <c r="R98" s="39"/>
+      <c r="S98" s="39"/>
+      <c r="T98" s="39"/>
+      <c r="U98" s="39"/>
+      <c r="V98" s="39"/>
+    </row>
+    <row r="99" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="39"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="39"/>
+      <c r="D99" s="39"/>
+      <c r="E99" s="39"/>
+      <c r="F99" s="39"/>
+      <c r="G99" s="39"/>
+      <c r="H99" s="39"/>
+      <c r="I99" s="16"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="16"/>
+      <c r="L99" s="16"/>
+      <c r="M99" s="16"/>
+      <c r="N99" s="39"/>
+      <c r="O99" s="39"/>
+      <c r="P99" s="39"/>
+      <c r="Q99" s="39"/>
+      <c r="R99" s="39"/>
+      <c r="S99" s="39"/>
+      <c r="T99" s="39"/>
+      <c r="U99" s="39"/>
+      <c r="V99" s="39"/>
+    </row>
+    <row r="100" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="39"/>
+      <c r="B100" s="39"/>
+      <c r="C100" s="39"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="39"/>
+      <c r="F100" s="39"/>
+      <c r="G100" s="39"/>
+      <c r="H100" s="39"/>
+      <c r="I100" s="16"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="16"/>
+      <c r="L100" s="16"/>
+      <c r="M100" s="16"/>
+      <c r="N100" s="39"/>
+      <c r="O100" s="39"/>
+      <c r="P100" s="39"/>
+      <c r="Q100" s="39"/>
+      <c r="R100" s="39"/>
+      <c r="S100" s="39"/>
+      <c r="T100" s="39"/>
+      <c r="U100" s="39"/>
+      <c r="V100" s="39"/>
+    </row>
+    <row r="101" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="39"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="39"/>
+      <c r="D101" s="39"/>
+      <c r="E101" s="39"/>
+      <c r="F101" s="39"/>
+      <c r="G101" s="39"/>
+      <c r="H101" s="39"/>
+      <c r="I101" s="16"/>
+      <c r="J101" s="16"/>
+      <c r="K101" s="16"/>
+      <c r="L101" s="16"/>
+      <c r="M101" s="16"/>
+      <c r="N101" s="39"/>
+      <c r="O101" s="39"/>
+      <c r="P101" s="39"/>
+      <c r="Q101" s="39"/>
+      <c r="R101" s="39"/>
+      <c r="S101" s="39"/>
+      <c r="T101" s="39"/>
+      <c r="U101" s="39"/>
+      <c r="V101" s="39"/>
+    </row>
+    <row r="102" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="39"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="39"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="39"/>
+      <c r="F102" s="39"/>
+      <c r="G102" s="39"/>
+      <c r="H102" s="39"/>
+      <c r="I102" s="16"/>
+      <c r="J102" s="16"/>
+      <c r="K102" s="16"/>
+      <c r="L102" s="16"/>
+      <c r="M102" s="16"/>
+      <c r="N102" s="39"/>
+      <c r="O102" s="39"/>
+      <c r="P102" s="39"/>
+      <c r="Q102" s="39"/>
+      <c r="R102" s="39"/>
+      <c r="S102" s="39"/>
+      <c r="T102" s="39"/>
+      <c r="U102" s="39"/>
+      <c r="V102" s="39"/>
+    </row>
+    <row r="103" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="39"/>
+      <c r="B103" s="39"/>
+      <c r="C103" s="39"/>
+      <c r="D103" s="39"/>
+      <c r="E103" s="39"/>
+      <c r="F103" s="39"/>
+      <c r="G103" s="39"/>
+      <c r="H103" s="39"/>
+      <c r="I103" s="16"/>
+      <c r="J103" s="16"/>
+      <c r="K103" s="16"/>
+      <c r="L103" s="16"/>
+      <c r="M103" s="16"/>
+      <c r="N103" s="39"/>
+      <c r="O103" s="39"/>
+      <c r="P103" s="39"/>
+      <c r="Q103" s="39"/>
+      <c r="R103" s="39"/>
+      <c r="S103" s="39"/>
+      <c r="T103" s="39"/>
+      <c r="U103" s="39"/>
+      <c r="V103" s="39"/>
+    </row>
+    <row r="104" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="39"/>
+      <c r="B104" s="39"/>
+      <c r="C104" s="39"/>
+      <c r="D104" s="39"/>
+      <c r="E104" s="39"/>
+      <c r="F104" s="39"/>
+      <c r="G104" s="39"/>
+      <c r="H104" s="39"/>
+      <c r="I104" s="16"/>
+      <c r="J104" s="16"/>
+      <c r="K104" s="16"/>
+      <c r="L104" s="16"/>
+      <c r="M104" s="16"/>
+      <c r="N104" s="39"/>
+      <c r="O104" s="39"/>
+      <c r="P104" s="39"/>
+      <c r="Q104" s="39"/>
+      <c r="R104" s="39"/>
+      <c r="S104" s="39"/>
+      <c r="T104" s="39"/>
+      <c r="U104" s="39"/>
+      <c r="V104" s="39"/>
+    </row>
+    <row r="105" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="39"/>
+      <c r="B105" s="39"/>
+      <c r="C105" s="39"/>
+      <c r="D105" s="39"/>
+      <c r="E105" s="39"/>
+      <c r="F105" s="39"/>
+      <c r="G105" s="39"/>
+      <c r="H105" s="39"/>
+      <c r="I105" s="16"/>
+      <c r="J105" s="16"/>
+      <c r="K105" s="16"/>
+      <c r="L105" s="16"/>
+      <c r="M105" s="16"/>
+      <c r="N105" s="39"/>
+      <c r="O105" s="39"/>
+      <c r="P105" s="39"/>
+      <c r="Q105" s="39"/>
+      <c r="R105" s="39"/>
+      <c r="S105" s="39"/>
+      <c r="T105" s="39"/>
+      <c r="U105" s="39"/>
+      <c r="V105" s="39"/>
+    </row>
+    <row r="106" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="39"/>
+      <c r="B106" s="39"/>
+      <c r="C106" s="39"/>
+      <c r="D106" s="39"/>
+      <c r="E106" s="39"/>
+      <c r="F106" s="39"/>
+      <c r="G106" s="39"/>
+      <c r="H106" s="39"/>
+      <c r="I106" s="16"/>
+      <c r="J106" s="16"/>
+      <c r="K106" s="16"/>
+      <c r="L106" s="16"/>
+      <c r="M106" s="16"/>
+      <c r="N106" s="39"/>
+      <c r="O106" s="39"/>
+      <c r="P106" s="39"/>
+      <c r="Q106" s="39"/>
+      <c r="R106" s="39"/>
+      <c r="S106" s="39"/>
+      <c r="T106" s="39"/>
+      <c r="U106" s="39"/>
+      <c r="V106" s="39"/>
+    </row>
+    <row r="107" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="39"/>
+      <c r="B107" s="39"/>
+      <c r="C107" s="39"/>
+      <c r="D107" s="39"/>
+      <c r="E107" s="39"/>
+      <c r="F107" s="39"/>
+      <c r="G107" s="39"/>
+      <c r="H107" s="39"/>
+      <c r="I107" s="16"/>
+      <c r="J107" s="16"/>
+      <c r="K107" s="16"/>
+      <c r="L107" s="16"/>
+      <c r="M107" s="16"/>
+      <c r="N107" s="39"/>
+      <c r="O107" s="39"/>
+      <c r="P107" s="39"/>
+      <c r="Q107" s="39"/>
+      <c r="R107" s="39"/>
+      <c r="S107" s="39"/>
+      <c r="T107" s="39"/>
+      <c r="U107" s="39"/>
+      <c r="V107" s="39"/>
+    </row>
+    <row r="108" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="39"/>
+      <c r="B108" s="39"/>
+      <c r="C108" s="39"/>
+      <c r="D108" s="39"/>
+      <c r="E108" s="39"/>
+      <c r="F108" s="39"/>
+      <c r="G108" s="39"/>
+      <c r="H108" s="39"/>
+      <c r="I108" s="16"/>
+      <c r="J108" s="16"/>
+      <c r="K108" s="16"/>
+      <c r="L108" s="16"/>
+      <c r="M108" s="16"/>
+      <c r="N108" s="39"/>
+      <c r="O108" s="39"/>
+      <c r="P108" s="39"/>
+      <c r="Q108" s="39"/>
+      <c r="R108" s="39"/>
+      <c r="S108" s="39"/>
+      <c r="T108" s="39"/>
+      <c r="U108" s="39"/>
+      <c r="V108" s="39"/>
+    </row>
+    <row r="109" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="39"/>
+      <c r="B109" s="39"/>
+      <c r="C109" s="39"/>
+      <c r="D109" s="39"/>
+      <c r="E109" s="39"/>
+      <c r="F109" s="39"/>
+      <c r="G109" s="39"/>
+      <c r="H109" s="39"/>
+      <c r="I109" s="16"/>
+      <c r="J109" s="16"/>
+      <c r="K109" s="16"/>
+      <c r="L109" s="16"/>
+      <c r="M109" s="16"/>
+      <c r="N109" s="39"/>
+      <c r="O109" s="39"/>
+      <c r="P109" s="39"/>
+      <c r="Q109" s="39"/>
+      <c r="R109" s="39"/>
+      <c r="S109" s="39"/>
+      <c r="T109" s="39"/>
+      <c r="U109" s="39"/>
+      <c r="V109" s="39"/>
+    </row>
+    <row r="110" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="39"/>
+      <c r="B110" s="39"/>
+      <c r="C110" s="39"/>
+      <c r="D110" s="39"/>
+      <c r="E110" s="39"/>
+      <c r="F110" s="39"/>
+      <c r="G110" s="39"/>
+      <c r="H110" s="39"/>
+      <c r="I110" s="16"/>
+      <c r="J110" s="16"/>
+      <c r="K110" s="16"/>
+      <c r="L110" s="16"/>
+      <c r="M110" s="16"/>
+      <c r="N110" s="39"/>
+      <c r="O110" s="39"/>
+      <c r="P110" s="39"/>
+      <c r="Q110" s="39"/>
+      <c r="R110" s="39"/>
+      <c r="S110" s="39"/>
+      <c r="T110" s="39"/>
+      <c r="U110" s="39"/>
+      <c r="V110" s="39"/>
+    </row>
+    <row r="111" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="39"/>
+      <c r="B111" s="39"/>
+      <c r="C111" s="39"/>
+      <c r="D111" s="39"/>
+      <c r="E111" s="39"/>
+      <c r="F111" s="39"/>
+      <c r="G111" s="39"/>
+      <c r="H111" s="39"/>
+      <c r="I111" s="16"/>
+      <c r="J111" s="16"/>
+      <c r="K111" s="16"/>
+      <c r="L111" s="16"/>
+      <c r="M111" s="16"/>
+      <c r="N111" s="39"/>
+      <c r="O111" s="39"/>
+      <c r="P111" s="39"/>
+      <c r="Q111" s="39"/>
+      <c r="R111" s="39"/>
+      <c r="S111" s="39"/>
+      <c r="T111" s="39"/>
+      <c r="U111" s="39"/>
+      <c r="V111" s="39"/>
+    </row>
+    <row r="112" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="39"/>
+      <c r="B112" s="39"/>
+      <c r="C112" s="39"/>
+      <c r="D112" s="39"/>
+      <c r="E112" s="39"/>
+      <c r="F112" s="39"/>
+      <c r="G112" s="39"/>
+      <c r="H112" s="39"/>
+      <c r="I112" s="16"/>
+      <c r="J112" s="16"/>
+      <c r="K112" s="16"/>
+      <c r="L112" s="16"/>
+      <c r="M112" s="16"/>
+      <c r="N112" s="39"/>
+      <c r="O112" s="39"/>
+      <c r="P112" s="39"/>
+      <c r="Q112" s="39"/>
+      <c r="R112" s="39"/>
+      <c r="S112" s="39"/>
+      <c r="T112" s="39"/>
+      <c r="U112" s="39"/>
+      <c r="V112" s="39"/>
+    </row>
+    <row r="113" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="39"/>
+      <c r="B113" s="39"/>
+      <c r="C113" s="39"/>
+      <c r="D113" s="39"/>
+      <c r="E113" s="39"/>
+      <c r="F113" s="39"/>
+      <c r="G113" s="39"/>
+      <c r="H113" s="39"/>
+      <c r="I113" s="16"/>
+      <c r="J113" s="16"/>
+      <c r="K113" s="16"/>
+      <c r="L113" s="16"/>
+      <c r="M113" s="16"/>
+      <c r="N113" s="39"/>
+      <c r="O113" s="39"/>
+      <c r="P113" s="39"/>
+      <c r="Q113" s="39"/>
+      <c r="R113" s="39"/>
+      <c r="S113" s="39"/>
+      <c r="T113" s="39"/>
+      <c r="U113" s="39"/>
+      <c r="V113" s="39"/>
+    </row>
+    <row r="114" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="39"/>
+      <c r="B114" s="39"/>
+      <c r="C114" s="39"/>
+      <c r="D114" s="39"/>
+      <c r="E114" s="39"/>
+      <c r="F114" s="39"/>
+      <c r="G114" s="39"/>
+      <c r="H114" s="39"/>
+      <c r="I114" s="16"/>
+      <c r="J114" s="16"/>
+      <c r="K114" s="16"/>
+      <c r="L114" s="16"/>
+      <c r="M114" s="16"/>
+      <c r="N114" s="39"/>
+      <c r="O114" s="39"/>
+      <c r="P114" s="39"/>
+      <c r="Q114" s="39"/>
+      <c r="R114" s="39"/>
+      <c r="S114" s="39"/>
+      <c r="T114" s="39"/>
+      <c r="U114" s="39"/>
+      <c r="V114" s="39"/>
+    </row>
+    <row r="115" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="39"/>
+      <c r="B115" s="39"/>
+      <c r="C115" s="39"/>
+      <c r="D115" s="39"/>
+      <c r="E115" s="39"/>
+      <c r="F115" s="39"/>
+      <c r="G115" s="62"/>
+      <c r="H115" s="39"/>
+      <c r="I115" s="16"/>
+      <c r="J115" s="111"/>
+      <c r="K115" s="111"/>
+      <c r="L115" s="111"/>
+      <c r="M115" s="111"/>
+      <c r="N115" s="39"/>
+      <c r="O115" s="39"/>
+      <c r="P115" s="39"/>
+      <c r="Q115" s="39"/>
+      <c r="R115" s="39"/>
+      <c r="S115" s="39"/>
+      <c r="T115" s="39"/>
+      <c r="U115" s="39"/>
+      <c r="V115" s="39"/>
+    </row>
+    <row r="116" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="39"/>
+      <c r="B116" s="39"/>
+      <c r="C116" s="39"/>
+      <c r="D116" s="39"/>
+      <c r="E116" s="39"/>
+      <c r="F116" s="39"/>
+      <c r="G116" s="62"/>
+      <c r="H116" s="39"/>
+      <c r="I116" s="129" t="s">
+        <v>206</v>
+      </c>
+      <c r="J116" s="111"/>
+      <c r="K116" s="111"/>
+      <c r="L116" s="111"/>
+      <c r="M116" s="111"/>
+      <c r="N116" s="39"/>
+      <c r="O116" s="39"/>
+      <c r="P116" s="39"/>
+      <c r="Q116" s="39"/>
+      <c r="R116" s="39"/>
+      <c r="S116" s="39"/>
+      <c r="T116" s="39"/>
+      <c r="U116" s="39"/>
+      <c r="V116" s="39"/>
+    </row>
+    <row r="117" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="39"/>
+      <c r="B117" s="39"/>
+      <c r="C117" s="39"/>
+      <c r="D117" s="39"/>
+      <c r="E117" s="39"/>
+      <c r="F117" s="39"/>
+      <c r="G117" s="62"/>
+      <c r="H117" s="39"/>
+      <c r="I117" s="129" t="s">
+        <v>207</v>
+      </c>
+      <c r="J117" s="111"/>
+      <c r="K117" s="111"/>
+      <c r="L117" s="111"/>
+      <c r="M117" s="111"/>
+      <c r="N117" s="39"/>
+      <c r="O117" s="39"/>
+      <c r="P117" s="39"/>
+      <c r="Q117" s="39"/>
+      <c r="R117" s="39"/>
+      <c r="S117" s="39"/>
+      <c r="T117" s="39"/>
+      <c r="U117" s="39"/>
+      <c r="V117" s="39"/>
+    </row>
+    <row r="118" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="39"/>
+      <c r="B118" s="39"/>
+      <c r="C118" s="39"/>
+      <c r="D118" s="39"/>
+      <c r="E118" s="39"/>
+      <c r="F118" s="39"/>
+      <c r="G118" s="62"/>
+      <c r="H118" s="39"/>
+      <c r="I118" s="16"/>
+      <c r="J118" s="111"/>
+      <c r="K118" s="111"/>
+      <c r="L118" s="111"/>
+      <c r="M118" s="111"/>
+      <c r="N118" s="39"/>
+      <c r="O118" s="39"/>
+      <c r="P118" s="39"/>
+      <c r="Q118" s="39"/>
+      <c r="R118" s="39"/>
+      <c r="S118" s="39"/>
+      <c r="T118" s="39"/>
+      <c r="U118" s="39"/>
+      <c r="V118" s="39"/>
+    </row>
+    <row r="119" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="39"/>
+      <c r="B119" s="39"/>
+      <c r="C119" s="39"/>
+      <c r="D119" s="39"/>
+      <c r="E119" s="39"/>
+      <c r="F119" s="39"/>
+      <c r="G119" s="62"/>
+      <c r="H119" s="39"/>
+      <c r="I119" s="16"/>
+      <c r="J119" s="111"/>
+      <c r="K119" s="111"/>
+      <c r="L119" s="111"/>
+      <c r="M119" s="111"/>
+      <c r="N119" s="39"/>
+      <c r="O119" s="39"/>
+      <c r="P119" s="39"/>
+      <c r="Q119" s="39"/>
+      <c r="R119" s="39"/>
+      <c r="S119" s="39"/>
+      <c r="T119" s="39"/>
+      <c r="U119" s="39"/>
+      <c r="V119" s="39"/>
+    </row>
+    <row r="120" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="39"/>
+      <c r="B120" s="39"/>
+      <c r="C120" s="39"/>
+      <c r="D120" s="39"/>
+      <c r="E120" s="39"/>
+      <c r="F120" s="39"/>
+      <c r="G120" s="62"/>
+      <c r="H120" s="39"/>
+      <c r="I120" s="16"/>
+      <c r="J120" s="111"/>
+      <c r="K120" s="111"/>
+      <c r="L120" s="111"/>
+      <c r="M120" s="111"/>
+      <c r="N120" s="39"/>
+      <c r="O120" s="39"/>
+      <c r="P120" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q120" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="R120" s="39"/>
+      <c r="S120" s="39"/>
+      <c r="T120" s="39"/>
+      <c r="U120" s="39"/>
+      <c r="V120" s="39"/>
+    </row>
+    <row r="121" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="39"/>
+      <c r="B121" s="39"/>
+      <c r="C121" s="39"/>
+      <c r="D121" s="39"/>
+      <c r="E121" s="39"/>
+      <c r="F121" s="39"/>
+      <c r="G121" s="62"/>
+      <c r="H121" s="39"/>
+      <c r="I121" s="16"/>
+      <c r="J121" s="111"/>
+      <c r="K121" s="111"/>
+      <c r="L121" s="111"/>
+      <c r="M121" s="111"/>
+      <c r="N121" s="39"/>
+      <c r="O121" s="39"/>
+      <c r="P121" s="58">
+        <v>2021</v>
+      </c>
+      <c r="Q121" s="57">
+        <f>COUNTIF(D3:D59,P121)</f>
+        <v>0</v>
+      </c>
+      <c r="R121" s="39"/>
+      <c r="S121" s="39"/>
+      <c r="T121" s="39"/>
+      <c r="U121" s="39"/>
+      <c r="V121" s="39"/>
+    </row>
+    <row r="122" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="39"/>
+      <c r="B122" s="39"/>
+      <c r="C122" s="39"/>
+      <c r="D122" s="39"/>
+      <c r="E122" s="39"/>
+      <c r="F122" s="39"/>
+      <c r="G122" s="62"/>
+      <c r="H122" s="39"/>
+      <c r="I122" s="16"/>
+      <c r="J122" s="111"/>
+      <c r="K122" s="111"/>
+      <c r="L122" s="111"/>
+      <c r="M122" s="111"/>
+      <c r="N122" s="39"/>
+      <c r="O122" s="39"/>
+      <c r="P122" s="45">
+        <v>2020</v>
+      </c>
+      <c r="Q122" s="46">
+        <f>COUNTIF(D3:D59,P122)</f>
+        <v>0</v>
+      </c>
+      <c r="R122" s="39"/>
+      <c r="S122" s="39"/>
+      <c r="T122" s="39"/>
+      <c r="U122" s="39"/>
+      <c r="V122" s="39"/>
+    </row>
+    <row r="123" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="39"/>
+      <c r="B123" s="39"/>
+      <c r="C123" s="39"/>
+      <c r="D123" s="39"/>
+      <c r="E123" s="39"/>
+      <c r="F123" s="39"/>
+      <c r="G123" s="62"/>
+      <c r="H123" s="39"/>
+      <c r="I123" s="16"/>
+      <c r="J123" s="111"/>
+      <c r="K123" s="111"/>
+      <c r="L123" s="111"/>
+      <c r="M123" s="111"/>
+      <c r="N123" s="39"/>
+      <c r="O123" s="39"/>
+      <c r="P123" s="45">
+        <v>2019</v>
+      </c>
+      <c r="Q123" s="46">
+        <f>COUNTIF(D3:D59,P123)</f>
+        <v>0</v>
+      </c>
+      <c r="R123" s="39"/>
+      <c r="S123" s="39"/>
+      <c r="T123" s="39"/>
+      <c r="U123" s="39"/>
+      <c r="V123" s="39"/>
+    </row>
+    <row r="124" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="39"/>
+      <c r="B124" s="39"/>
+      <c r="C124" s="39"/>
+      <c r="D124" s="39"/>
+      <c r="E124" s="39"/>
+      <c r="F124" s="39"/>
+      <c r="G124" s="62"/>
+      <c r="H124" s="39"/>
+      <c r="I124" s="16"/>
+      <c r="J124" s="111"/>
+      <c r="K124" s="111"/>
+      <c r="L124" s="111"/>
+      <c r="M124" s="111"/>
+      <c r="N124" s="39"/>
+      <c r="O124" s="39"/>
+      <c r="P124" s="45">
+        <v>2018</v>
+      </c>
+      <c r="Q124" s="46">
+        <f>COUNTIF(D3:D59,P124)</f>
+        <v>0</v>
+      </c>
+      <c r="R124" s="39"/>
+      <c r="S124" s="39"/>
+      <c r="T124" s="39"/>
+      <c r="U124" s="39"/>
+      <c r="V124" s="39"/>
+    </row>
+    <row r="125" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="39"/>
+      <c r="B125" s="39"/>
+      <c r="C125" s="39"/>
+      <c r="D125" s="39"/>
+      <c r="E125" s="39"/>
+      <c r="F125" s="39"/>
+      <c r="G125" s="39"/>
+      <c r="H125" s="39"/>
+      <c r="I125" s="16"/>
+      <c r="J125" s="16"/>
+      <c r="K125" s="16"/>
+      <c r="L125" s="16"/>
+      <c r="M125" s="16"/>
+      <c r="N125" s="39"/>
+      <c r="O125" s="39"/>
+      <c r="P125" s="45">
+        <v>2017</v>
+      </c>
+      <c r="Q125" s="46">
+        <f>COUNTIF(D3:D59,P125)</f>
+        <v>0</v>
+      </c>
+      <c r="R125" s="39"/>
+      <c r="S125" s="39"/>
+      <c r="T125" s="39"/>
+      <c r="U125" s="39"/>
+      <c r="V125" s="39"/>
+    </row>
+    <row r="126" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="39"/>
+      <c r="B126" s="39"/>
+      <c r="C126" s="39"/>
+      <c r="D126" s="39"/>
+      <c r="E126" s="39"/>
+      <c r="F126" s="39"/>
+      <c r="G126" s="39"/>
+      <c r="H126" s="39"/>
+      <c r="I126" s="16"/>
+      <c r="J126" s="16"/>
+      <c r="K126" s="16"/>
+      <c r="L126" s="16"/>
+      <c r="M126" s="16"/>
+      <c r="N126" s="39"/>
+      <c r="O126" s="39"/>
+      <c r="P126" s="45">
+        <v>2016</v>
+      </c>
+      <c r="Q126" s="46">
+        <f>COUNTIF(D3:D59,P126)</f>
+        <v>0</v>
+      </c>
+      <c r="R126" s="39"/>
+      <c r="S126" s="39"/>
+      <c r="T126" s="39"/>
+      <c r="U126" s="39"/>
+      <c r="V126" s="39"/>
+    </row>
+    <row r="127" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="39"/>
+      <c r="B127" s="39"/>
+      <c r="C127" s="39"/>
+      <c r="D127" s="39"/>
+      <c r="E127" s="39"/>
+      <c r="F127" s="39"/>
+      <c r="G127" s="39"/>
+      <c r="H127" s="39"/>
+      <c r="I127" s="16"/>
+      <c r="J127" s="16"/>
+      <c r="K127" s="16"/>
+      <c r="L127" s="16"/>
+      <c r="M127" s="16"/>
+      <c r="N127" s="39"/>
+      <c r="O127" s="39"/>
+      <c r="P127" s="45">
+        <v>2015</v>
+      </c>
+      <c r="Q127" s="46">
+        <f>COUNTIF(D3:D59,P127)</f>
+        <v>0</v>
+      </c>
+      <c r="R127" s="39"/>
+      <c r="S127" s="39"/>
+      <c r="T127" s="39"/>
+      <c r="U127" s="39"/>
+      <c r="V127" s="39"/>
+    </row>
+    <row r="128" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="39"/>
+      <c r="B128" s="39"/>
+      <c r="C128" s="39"/>
+      <c r="D128" s="39"/>
+      <c r="E128" s="39"/>
+      <c r="F128" s="39"/>
+      <c r="G128" s="39"/>
+      <c r="H128" s="39"/>
+      <c r="I128" s="16"/>
+      <c r="J128" s="16"/>
+      <c r="K128" s="16"/>
+      <c r="L128" s="16"/>
+      <c r="M128" s="16"/>
+      <c r="N128" s="39"/>
+      <c r="O128" s="39"/>
+      <c r="P128" s="45">
+        <v>2014</v>
+      </c>
+      <c r="Q128" s="46">
+        <f>COUNTIF(D3:D59,P128)</f>
+        <v>0</v>
+      </c>
+      <c r="R128" s="39"/>
+      <c r="S128" s="39"/>
+      <c r="T128" s="39"/>
+      <c r="U128" s="39"/>
+      <c r="V128" s="39"/>
+    </row>
+    <row r="129" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="39"/>
+      <c r="B129" s="39"/>
+      <c r="C129" s="39"/>
+      <c r="D129" s="39"/>
+      <c r="E129" s="39"/>
+      <c r="F129" s="39"/>
+      <c r="G129" s="39"/>
+      <c r="H129" s="39"/>
+      <c r="I129" s="16"/>
+      <c r="J129" s="16"/>
+      <c r="K129" s="16"/>
+      <c r="L129" s="16"/>
+      <c r="M129" s="16"/>
+      <c r="N129" s="39"/>
+      <c r="O129" s="39"/>
+      <c r="P129" s="45">
+        <v>2013</v>
+      </c>
+      <c r="Q129" s="46">
+        <f>COUNTIF(D3:D59,P129)</f>
+        <v>0</v>
+      </c>
+      <c r="R129" s="39"/>
+      <c r="S129" s="39"/>
+      <c r="T129" s="39"/>
+      <c r="U129" s="39"/>
+      <c r="V129" s="39"/>
+    </row>
+    <row r="130" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="39"/>
+      <c r="B130" s="39"/>
+      <c r="C130" s="39"/>
+      <c r="D130" s="39"/>
+      <c r="E130" s="39"/>
+      <c r="F130" s="39"/>
+      <c r="G130" s="39"/>
+      <c r="H130" s="39"/>
+      <c r="I130" s="16"/>
+      <c r="J130" s="16"/>
+      <c r="K130" s="16"/>
+      <c r="L130" s="16"/>
+      <c r="M130" s="16"/>
+      <c r="N130" s="39"/>
+      <c r="O130" s="39"/>
+      <c r="P130" s="45">
+        <v>2012</v>
+      </c>
+      <c r="Q130" s="46">
+        <f>COUNTIF(D3:D59,P130)</f>
+        <v>0</v>
+      </c>
+      <c r="R130" s="39"/>
+      <c r="S130" s="39"/>
+      <c r="T130" s="39"/>
+      <c r="U130" s="39"/>
+      <c r="V130" s="39"/>
+    </row>
+    <row r="131" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="39"/>
+      <c r="B131" s="39"/>
+      <c r="C131" s="39"/>
+      <c r="D131" s="39"/>
+      <c r="E131" s="39"/>
+      <c r="F131" s="39"/>
+      <c r="G131" s="39"/>
+      <c r="H131" s="39"/>
+      <c r="I131" s="16"/>
+      <c r="J131" s="16"/>
+      <c r="K131" s="16"/>
+      <c r="L131" s="16"/>
+      <c r="M131" s="16"/>
+      <c r="N131" s="39"/>
+      <c r="O131" s="39"/>
+      <c r="P131" s="45">
+        <v>2011</v>
+      </c>
+      <c r="Q131" s="46">
+        <f>COUNTIF(D3:D59,P131)</f>
+        <v>0</v>
+      </c>
+      <c r="R131" s="39"/>
+      <c r="S131" s="39"/>
+      <c r="T131" s="39"/>
+      <c r="U131" s="39"/>
+      <c r="V131" s="39"/>
+    </row>
+    <row r="132" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="39"/>
+      <c r="B132" s="39"/>
+      <c r="C132" s="39"/>
+      <c r="D132" s="39"/>
+      <c r="E132" s="39"/>
+      <c r="F132" s="39"/>
+      <c r="G132" s="39"/>
+      <c r="H132" s="39"/>
+      <c r="I132" s="16"/>
+      <c r="J132" s="16"/>
+      <c r="K132" s="16"/>
+      <c r="L132" s="16"/>
+      <c r="M132" s="16"/>
+      <c r="N132" s="39"/>
+      <c r="O132" s="39"/>
+      <c r="P132" s="45">
+        <v>2010</v>
+      </c>
+      <c r="Q132" s="46">
+        <f>COUNTIF(D3:D59,P132)</f>
+        <v>0</v>
+      </c>
+      <c r="R132" s="39"/>
+      <c r="S132" s="39"/>
+      <c r="T132" s="39"/>
+      <c r="U132" s="39"/>
+      <c r="V132" s="39"/>
+    </row>
+    <row r="133" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="39"/>
+      <c r="B133" s="39"/>
+      <c r="C133" s="39"/>
+      <c r="D133" s="39"/>
+      <c r="E133" s="39"/>
+      <c r="F133" s="39"/>
+      <c r="G133" s="39"/>
+      <c r="H133" s="39"/>
+      <c r="I133" s="16"/>
+      <c r="J133" s="16"/>
+      <c r="K133" s="16"/>
+      <c r="L133" s="16"/>
+      <c r="M133" s="16"/>
+      <c r="N133" s="39"/>
+      <c r="O133" s="39"/>
+      <c r="P133" s="45">
+        <v>2009</v>
+      </c>
+      <c r="Q133" s="46">
+        <f>COUNTIF(D3:D59,P133)</f>
+        <v>0</v>
+      </c>
+      <c r="R133" s="39"/>
+      <c r="S133" s="39"/>
+      <c r="T133" s="39"/>
+      <c r="U133" s="39"/>
+      <c r="V133" s="39"/>
+    </row>
+    <row r="134" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="39"/>
+      <c r="B134" s="39"/>
+      <c r="C134" s="39"/>
+      <c r="D134" s="39"/>
+      <c r="E134" s="39"/>
+      <c r="F134" s="39"/>
+      <c r="G134" s="39"/>
+      <c r="H134" s="39"/>
+      <c r="I134" s="16"/>
+      <c r="J134" s="16"/>
+      <c r="K134" s="16"/>
+      <c r="L134" s="16"/>
+      <c r="M134" s="16"/>
+      <c r="N134" s="39"/>
+      <c r="O134" s="39"/>
+      <c r="P134" s="45">
+        <v>2008</v>
+      </c>
+      <c r="Q134" s="46">
+        <f>COUNTIF(D3:D59,P134)</f>
+        <v>0</v>
+      </c>
+      <c r="R134" s="39"/>
+      <c r="S134" s="39"/>
+      <c r="T134" s="39"/>
+      <c r="U134" s="39"/>
+      <c r="V134" s="39"/>
+    </row>
+    <row r="135" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="39"/>
+      <c r="B135" s="39"/>
+      <c r="C135" s="39"/>
+      <c r="D135" s="39"/>
+      <c r="E135" s="39"/>
+      <c r="F135" s="39"/>
+      <c r="G135" s="39"/>
+      <c r="H135" s="39"/>
+      <c r="I135" s="16"/>
+      <c r="J135" s="16"/>
+      <c r="K135" s="16"/>
+      <c r="L135" s="16"/>
+      <c r="M135" s="16"/>
+      <c r="N135" s="39"/>
+      <c r="O135" s="39"/>
+      <c r="P135" s="45">
+        <v>2007</v>
+      </c>
+      <c r="Q135" s="46">
+        <f>COUNTIF(D3:D59,P135)</f>
+        <v>0</v>
+      </c>
+      <c r="R135" s="39"/>
+      <c r="S135" s="39"/>
+      <c r="T135" s="39"/>
+      <c r="U135" s="39"/>
+      <c r="V135" s="39"/>
+    </row>
+    <row r="136" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="39"/>
+      <c r="B136" s="39"/>
+      <c r="C136" s="39"/>
+      <c r="D136" s="39"/>
+      <c r="E136" s="39"/>
+      <c r="F136" s="39"/>
+      <c r="G136" s="39"/>
+      <c r="H136" s="39"/>
+      <c r="I136" s="16"/>
+      <c r="J136" s="16"/>
+      <c r="K136" s="16"/>
+      <c r="L136" s="16"/>
+      <c r="M136" s="16"/>
+      <c r="N136" s="39"/>
+      <c r="O136" s="39"/>
+      <c r="P136" s="45">
+        <v>2006</v>
+      </c>
+      <c r="Q136" s="46">
+        <f>COUNTIF(D3:D59,P136)</f>
+        <v>0</v>
+      </c>
+      <c r="R136" s="39"/>
+      <c r="S136" s="39"/>
+      <c r="T136" s="39"/>
+      <c r="U136" s="39"/>
+      <c r="V136" s="39"/>
+    </row>
+    <row r="137" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="39"/>
+      <c r="B137" s="39"/>
+      <c r="C137" s="39"/>
+      <c r="D137" s="39"/>
+      <c r="E137" s="39"/>
+      <c r="F137" s="39"/>
+      <c r="G137" s="39"/>
+      <c r="H137" s="39"/>
+      <c r="I137" s="16"/>
+      <c r="J137" s="16"/>
+      <c r="K137" s="16"/>
+      <c r="L137" s="16"/>
+      <c r="M137" s="16"/>
+      <c r="N137" s="39"/>
+      <c r="O137" s="39"/>
+      <c r="P137" s="45">
+        <v>2005</v>
+      </c>
+      <c r="Q137" s="46">
+        <f>COUNTIF(D3:D59,P137)</f>
+        <v>0</v>
+      </c>
+      <c r="R137" s="39"/>
+      <c r="S137" s="39"/>
+      <c r="T137" s="39"/>
+      <c r="U137" s="39"/>
+      <c r="V137" s="39"/>
+    </row>
+    <row r="138" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="39"/>
+      <c r="B138" s="39"/>
+      <c r="C138" s="39"/>
+      <c r="D138" s="39"/>
+      <c r="E138" s="39"/>
+      <c r="F138" s="39"/>
+      <c r="G138" s="39"/>
+      <c r="H138" s="39"/>
+      <c r="I138" s="16"/>
+      <c r="J138" s="16"/>
+      <c r="K138" s="16"/>
+      <c r="L138" s="16"/>
+      <c r="M138" s="16"/>
+      <c r="N138" s="39"/>
+      <c r="O138" s="39"/>
+      <c r="P138" s="45">
+        <v>2004</v>
+      </c>
+      <c r="Q138" s="46">
+        <f>COUNTIF(D3:D59,P138)</f>
+        <v>0</v>
+      </c>
+      <c r="R138" s="39"/>
+      <c r="S138" s="39"/>
+      <c r="T138" s="39"/>
+      <c r="U138" s="39"/>
+      <c r="V138" s="39"/>
+    </row>
+    <row r="139" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="39"/>
+      <c r="B139" s="39"/>
+      <c r="C139" s="39"/>
+      <c r="D139" s="39"/>
+      <c r="E139" s="39"/>
+      <c r="F139" s="39"/>
+      <c r="G139" s="39"/>
+      <c r="H139" s="39"/>
+      <c r="I139" s="16"/>
+      <c r="J139" s="16"/>
+      <c r="K139" s="16"/>
+      <c r="L139" s="16"/>
+      <c r="M139" s="16"/>
+      <c r="N139" s="39"/>
+      <c r="O139" s="39"/>
+      <c r="P139" s="45">
+        <v>2003</v>
+      </c>
+      <c r="Q139" s="46">
+        <f>COUNTIF(D3:D59,P139)</f>
+        <v>0</v>
+      </c>
+      <c r="R139" s="39"/>
+      <c r="S139" s="39"/>
+      <c r="T139" s="39"/>
+      <c r="U139" s="39"/>
+      <c r="V139" s="39"/>
+    </row>
+    <row r="140" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="39"/>
+      <c r="B140" s="39"/>
+      <c r="C140" s="39"/>
+      <c r="D140" s="39"/>
+      <c r="E140" s="39"/>
+      <c r="F140" s="39"/>
+      <c r="G140" s="39"/>
+      <c r="H140" s="39"/>
+      <c r="I140" s="16"/>
+      <c r="J140" s="16"/>
+      <c r="K140" s="16"/>
+      <c r="L140" s="16"/>
+      <c r="M140" s="16"/>
+      <c r="N140" s="39"/>
+      <c r="O140" s="39"/>
+      <c r="P140" s="45">
+        <v>2002</v>
+      </c>
+      <c r="Q140" s="46">
+        <f>COUNTIF(D3:D59,P140)</f>
+        <v>0</v>
+      </c>
+      <c r="R140" s="39"/>
+      <c r="S140" s="39"/>
+      <c r="T140" s="39"/>
+      <c r="U140" s="39"/>
+      <c r="V140" s="39"/>
+    </row>
+    <row r="141" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="39"/>
+      <c r="B141" s="39"/>
+      <c r="C141" s="39"/>
+      <c r="D141" s="39"/>
+      <c r="E141" s="39"/>
+      <c r="F141" s="39"/>
+      <c r="G141" s="39"/>
+      <c r="H141" s="39"/>
+      <c r="I141" s="16"/>
+      <c r="J141" s="16"/>
+      <c r="K141" s="16"/>
+      <c r="L141" s="16"/>
+      <c r="M141" s="16"/>
+      <c r="N141" s="39"/>
+      <c r="O141" s="39"/>
+      <c r="P141" s="45">
+        <v>2001</v>
+      </c>
+      <c r="Q141" s="46">
+        <f>COUNTIF(D3:D59,P141)</f>
+        <v>0</v>
+      </c>
+      <c r="R141" s="39"/>
+      <c r="S141" s="39"/>
+      <c r="T141" s="39"/>
+      <c r="U141" s="39"/>
+      <c r="V141" s="39"/>
+    </row>
+    <row r="142" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="39"/>
+      <c r="B142" s="39"/>
+      <c r="C142" s="39"/>
+      <c r="D142" s="39"/>
+      <c r="E142" s="39"/>
+      <c r="F142" s="39"/>
+      <c r="G142" s="39"/>
+      <c r="H142" s="39"/>
+      <c r="I142" s="16"/>
+      <c r="J142" s="16"/>
+      <c r="K142" s="16"/>
+      <c r="L142" s="16"/>
+      <c r="M142" s="16"/>
+      <c r="N142" s="39"/>
+      <c r="O142" s="39"/>
+      <c r="P142" s="45">
+        <v>2000</v>
+      </c>
+      <c r="Q142" s="46">
+        <f>COUNTIF(D3:D59,P142)</f>
+        <v>0</v>
+      </c>
+      <c r="R142" s="39"/>
+      <c r="S142" s="39"/>
+      <c r="T142" s="39"/>
+      <c r="U142" s="39"/>
+      <c r="V142" s="39"/>
+    </row>
+    <row r="143" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="39"/>
+      <c r="B143" s="39"/>
+      <c r="C143" s="39"/>
+      <c r="D143" s="39"/>
+      <c r="E143" s="39"/>
+      <c r="F143" s="39"/>
+      <c r="G143" s="39"/>
+      <c r="H143" s="39"/>
+      <c r="I143" s="16"/>
+      <c r="J143" s="16"/>
+      <c r="K143" s="16"/>
+      <c r="L143" s="16"/>
+      <c r="M143" s="16"/>
+      <c r="N143" s="39"/>
+      <c r="O143" s="39"/>
+      <c r="P143" s="45">
+        <v>1999</v>
+      </c>
+      <c r="Q143" s="46">
+        <f>COUNTIF(D3:D59,P143)</f>
+        <v>0</v>
+      </c>
+      <c r="R143" s="39"/>
+      <c r="S143" s="39"/>
+      <c r="T143" s="39"/>
+      <c r="U143" s="39"/>
+      <c r="V143" s="39"/>
+    </row>
+    <row r="144" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="39"/>
+      <c r="B144" s="39"/>
+      <c r="C144" s="39"/>
+      <c r="D144" s="39"/>
+      <c r="E144" s="39"/>
+      <c r="F144" s="39"/>
+      <c r="G144" s="39"/>
+      <c r="H144" s="39"/>
+      <c r="I144" s="16"/>
+      <c r="J144" s="16"/>
+      <c r="K144" s="16"/>
+      <c r="L144" s="16"/>
+      <c r="M144" s="16"/>
+      <c r="N144" s="39"/>
+      <c r="O144" s="39"/>
+      <c r="P144" s="45">
+        <v>1998</v>
+      </c>
+      <c r="Q144" s="46">
+        <f>COUNTIF(D3:D59,P144)</f>
+        <v>0</v>
+      </c>
+      <c r="R144" s="39"/>
+      <c r="S144" s="39"/>
+      <c r="T144" s="39"/>
+      <c r="U144" s="39"/>
+      <c r="V144" s="39"/>
+    </row>
+    <row r="145" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="39"/>
+      <c r="B145" s="39"/>
+      <c r="C145" s="39"/>
+      <c r="D145" s="39"/>
+      <c r="E145" s="39"/>
+      <c r="F145" s="39"/>
+      <c r="G145" s="39"/>
+      <c r="H145" s="39"/>
+      <c r="I145" s="16"/>
+      <c r="J145" s="16"/>
+      <c r="K145" s="16"/>
+      <c r="L145" s="16"/>
+      <c r="M145" s="16"/>
+      <c r="N145" s="39"/>
+      <c r="O145" s="39"/>
+      <c r="P145" s="45">
+        <v>1997</v>
+      </c>
+      <c r="Q145" s="46">
+        <f>COUNTIF(D3:D45,P145)</f>
+        <v>0</v>
+      </c>
+      <c r="R145" s="39"/>
+      <c r="S145" s="39"/>
+      <c r="T145" s="39"/>
+      <c r="U145" s="39"/>
+      <c r="V145" s="39"/>
+    </row>
+    <row r="146" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="39"/>
+      <c r="B146" s="39"/>
+      <c r="C146" s="39"/>
+      <c r="D146" s="39"/>
+      <c r="E146" s="39"/>
+      <c r="F146" s="39"/>
+      <c r="G146" s="39"/>
+      <c r="H146" s="39"/>
+      <c r="I146" s="16"/>
+      <c r="J146" s="16"/>
+      <c r="K146" s="16"/>
+      <c r="L146" s="16"/>
+      <c r="M146" s="16"/>
+      <c r="N146" s="39"/>
+      <c r="O146" s="39"/>
+      <c r="P146" s="45">
+        <v>1996</v>
+      </c>
+      <c r="Q146" s="46">
+        <f>COUNTIF(D3:D46,P146)</f>
+        <v>0</v>
+      </c>
+      <c r="R146" s="39"/>
+      <c r="S146" s="39"/>
+      <c r="T146" s="39"/>
+      <c r="U146" s="39"/>
+      <c r="V146" s="39"/>
+    </row>
+    <row r="147" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="39"/>
+      <c r="B147" s="39"/>
+      <c r="C147" s="39"/>
+      <c r="D147" s="39"/>
+      <c r="E147" s="39"/>
+      <c r="F147" s="39"/>
+      <c r="G147" s="39"/>
+      <c r="H147" s="39"/>
+      <c r="I147" s="16"/>
+      <c r="J147" s="16"/>
+      <c r="K147" s="16"/>
+      <c r="L147" s="16"/>
+      <c r="M147" s="16"/>
+      <c r="N147" s="39"/>
+      <c r="O147" s="39"/>
+      <c r="P147" s="47">
+        <v>1995</v>
+      </c>
+      <c r="Q147" s="48">
+        <f>COUNTIF(D3:D47,P147)</f>
+        <v>0</v>
+      </c>
+      <c r="R147" s="39"/>
+      <c r="S147" s="39"/>
+      <c r="T147" s="39"/>
+      <c r="U147" s="39"/>
+      <c r="V147" s="39"/>
+    </row>
+    <row r="148" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="39"/>
+      <c r="B148" s="39"/>
+      <c r="C148" s="39"/>
+      <c r="D148" s="39"/>
+      <c r="E148" s="39"/>
+      <c r="F148" s="39"/>
+      <c r="G148" s="39"/>
+      <c r="H148" s="39"/>
+      <c r="I148" s="16"/>
+      <c r="J148" s="16"/>
+      <c r="K148" s="16"/>
+      <c r="L148" s="16"/>
+      <c r="M148" s="16"/>
+      <c r="N148" s="39"/>
+      <c r="O148" s="39"/>
+      <c r="P148" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q148" s="42">
+        <f>SUM(Q121:Q147)</f>
+        <v>0</v>
+      </c>
+      <c r="R148" s="39"/>
+      <c r="S148" s="39"/>
+      <c r="T148" s="39"/>
+      <c r="U148" s="39"/>
+      <c r="V148" s="39"/>
+    </row>
+    <row r="149" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="39"/>
+      <c r="B149" s="39"/>
+      <c r="C149" s="39"/>
+      <c r="D149" s="39"/>
+      <c r="E149" s="39"/>
+      <c r="F149" s="39"/>
+      <c r="G149" s="39"/>
+      <c r="H149" s="39"/>
+      <c r="I149" s="16"/>
+      <c r="J149" s="16"/>
+      <c r="K149" s="16"/>
+      <c r="L149" s="16"/>
+      <c r="M149" s="16"/>
+      <c r="N149" s="39"/>
+      <c r="O149" s="39"/>
+      <c r="P149" s="39"/>
+      <c r="Q149" s="39"/>
+      <c r="R149" s="39"/>
+      <c r="S149" s="39"/>
+      <c r="T149" s="39"/>
+      <c r="U149" s="39"/>
+      <c r="V149" s="39"/>
+    </row>
+    <row r="150" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="39"/>
+      <c r="B150" s="39"/>
+      <c r="C150" s="39"/>
+      <c r="D150" s="39"/>
+      <c r="E150" s="39"/>
+      <c r="F150" s="39"/>
+      <c r="G150" s="39"/>
+      <c r="H150" s="39"/>
+      <c r="I150" s="16"/>
+      <c r="J150" s="16"/>
+      <c r="K150" s="16"/>
+      <c r="L150" s="16"/>
+      <c r="M150" s="16"/>
+      <c r="N150" s="39"/>
+      <c r="O150" s="39"/>
+      <c r="P150" s="39"/>
+      <c r="Q150" s="39"/>
+      <c r="R150" s="39"/>
+      <c r="S150" s="39"/>
+      <c r="T150" s="39"/>
+      <c r="U150" s="39"/>
+      <c r="V150" s="39"/>
+    </row>
+    <row r="151" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="39"/>
+      <c r="B151" s="39"/>
+      <c r="C151" s="39"/>
+      <c r="D151" s="39"/>
+      <c r="E151" s="39"/>
+      <c r="F151" s="39"/>
+      <c r="G151" s="39"/>
+      <c r="H151" s="39"/>
+      <c r="I151" s="16"/>
+      <c r="J151" s="16"/>
+      <c r="K151" s="16"/>
+      <c r="L151" s="16"/>
+      <c r="M151" s="16"/>
+      <c r="N151" s="39"/>
+      <c r="O151" s="39"/>
+      <c r="P151" s="39"/>
+      <c r="Q151" s="39"/>
+      <c r="R151" s="39"/>
+      <c r="S151" s="39"/>
+      <c r="T151" s="39"/>
+      <c r="U151" s="39"/>
+      <c r="V151" s="39"/>
+    </row>
+    <row r="152" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="39"/>
+      <c r="B152" s="39"/>
+      <c r="C152" s="39"/>
+      <c r="D152" s="39"/>
+      <c r="E152" s="39"/>
+      <c r="F152" s="39"/>
+      <c r="G152" s="39"/>
+      <c r="H152" s="39"/>
+      <c r="I152" s="16"/>
+      <c r="J152" s="16"/>
+      <c r="K152" s="16"/>
+      <c r="L152" s="16"/>
+      <c r="M152" s="16"/>
+      <c r="N152" s="39"/>
+      <c r="O152" s="39"/>
+      <c r="P152" s="39"/>
+      <c r="Q152" s="39"/>
+      <c r="R152" s="39"/>
+      <c r="S152" s="39"/>
+      <c r="T152" s="39"/>
+      <c r="U152" s="39"/>
+      <c r="V152" s="39"/>
+    </row>
+    <row r="153" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="39"/>
+      <c r="B153" s="39"/>
+      <c r="C153" s="39"/>
+      <c r="D153" s="39"/>
+      <c r="E153" s="39"/>
+      <c r="F153" s="39"/>
+      <c r="G153" s="39"/>
+      <c r="H153" s="39"/>
+      <c r="I153" s="16"/>
+      <c r="J153" s="16"/>
+      <c r="K153" s="16"/>
+      <c r="L153" s="16"/>
+      <c r="M153" s="16"/>
+      <c r="N153" s="39"/>
+      <c r="O153" s="39"/>
+      <c r="P153" s="39"/>
+      <c r="Q153" s="39"/>
+      <c r="R153" s="39"/>
+      <c r="S153" s="39"/>
+      <c r="T153" s="39"/>
+      <c r="U153" s="39"/>
+      <c r="V153" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="L12:M12"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I116" r:id="rId1" xr:uid="{AF214621-6DBE-4A60-B95B-7446F146F284}"/>
+    <hyperlink ref="I117" r:id="rId2" xr:uid="{8D93375C-E9A2-46CE-BA33-5DD53AE76369}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
 </file>
--- a/spreadsheets/Games.xlsx
+++ b/spreadsheets/Games.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ucer0.github.io\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D21A6C-B469-4166-97DA-2A3D8C620494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7DF2AD-2E36-4320-9308-643FC81FCC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="378">
   <si>
     <t>Nier: Automata</t>
   </si>
@@ -1584,6 +1584,15 @@
   </si>
   <si>
     <t>DNF Duel</t>
+  </si>
+  <si>
+    <t>Radiant Historia: Perfect Chronology</t>
+  </si>
+  <si>
+    <t>Stalcraft</t>
+  </si>
+  <si>
+    <t>Radiant Historia (4h 20m)</t>
   </si>
 </sst>
 </file>
@@ -2405,9 +2414,6 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
@@ -2425,6 +2431,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5899,7 +5908,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -6223,6 +6232,9 @@
               <c:numCache>
                 <c:formatCode>[h]"h"\ mm"m"</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.18055555555555555</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6309,6 +6321,9 @@
               <c:numCache>
                 <c:formatCode>[h]"h"\ mm"m"</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.65763888888888888</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -17751,7 +17766,7 @@
         <v>4.197916666666667</v>
       </c>
       <c r="H3" s="6"/>
-      <c r="I3" s="157" t="s">
+      <c r="I3" s="156" t="s">
         <v>119</v>
       </c>
       <c r="J3" s="80" t="s">
@@ -17822,7 +17837,7 @@
         <v>0.30138888888888887</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="158"/>
+      <c r="I4" s="157"/>
       <c r="J4" s="54" t="s">
         <v>128</v>
       </c>
@@ -17891,7 +17906,7 @@
         <v>0.2076388888888889</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="158"/>
+      <c r="I5" s="157"/>
       <c r="J5" s="73" t="s">
         <v>133</v>
       </c>
@@ -17960,7 +17975,7 @@
         <v>1.2437499999999999</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="158"/>
+      <c r="I6" s="157"/>
       <c r="J6" s="54" t="s">
         <v>130</v>
       </c>
@@ -18029,7 +18044,7 @@
         <v>0.27916666666666667</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="158"/>
+      <c r="I7" s="157"/>
       <c r="J7" s="73" t="s">
         <v>137</v>
       </c>
@@ -18098,7 +18113,7 @@
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="158"/>
+      <c r="I8" s="157"/>
       <c r="J8" s="54" t="s">
         <v>138</v>
       </c>
@@ -18167,7 +18182,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="157" t="s">
+      <c r="I9" s="156" t="s">
         <v>120</v>
       </c>
       <c r="J9" s="71" t="s">
@@ -18238,7 +18253,7 @@
         <v>0.19027777777777777</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="158"/>
+      <c r="I10" s="157"/>
       <c r="J10" s="54" t="s">
         <v>128</v>
       </c>
@@ -18307,7 +18322,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="158"/>
+      <c r="I11" s="157"/>
       <c r="J11" s="73" t="s">
         <v>133</v>
       </c>
@@ -18376,7 +18391,7 @@
         <v>1.7097222222222221</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="158"/>
+      <c r="I12" s="157"/>
       <c r="J12" s="54" t="s">
         <v>130</v>
       </c>
@@ -18445,7 +18460,7 @@
         <v>0.15972222222222224</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="158"/>
+      <c r="I13" s="157"/>
       <c r="J13" s="73" t="s">
         <v>142</v>
       </c>
@@ -18514,7 +18529,7 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="157" t="s">
+      <c r="I14" s="156" t="s">
         <v>121</v>
       </c>
       <c r="J14" s="10" t="s">
@@ -18585,7 +18600,7 @@
         <v>0.59652777777777777</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="158"/>
+      <c r="I15" s="157"/>
       <c r="J15" s="73" t="s">
         <v>128</v>
       </c>
@@ -18654,7 +18669,7 @@
         <v>14</v>
       </c>
       <c r="H16" s="6"/>
-      <c r="I16" s="158"/>
+      <c r="I16" s="157"/>
       <c r="J16" s="54" t="s">
         <v>133</v>
       </c>
@@ -18723,7 +18738,7 @@
         <v>14</v>
       </c>
       <c r="H17" s="6"/>
-      <c r="I17" s="158"/>
+      <c r="I17" s="157"/>
       <c r="J17" s="73" t="s">
         <v>130</v>
       </c>
@@ -18792,7 +18807,7 @@
         <v>0.24583333333333335</v>
       </c>
       <c r="H18" s="6"/>
-      <c r="I18" s="158"/>
+      <c r="I18" s="157"/>
       <c r="J18" s="54" t="s">
         <v>145</v>
       </c>
@@ -18861,7 +18876,7 @@
         <v>0.49513888888888885</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="159"/>
+      <c r="I19" s="158"/>
       <c r="J19" s="76" t="s">
         <v>151</v>
       </c>
@@ -18930,7 +18945,7 @@
         <v>0.20972222222222223</v>
       </c>
       <c r="H20" s="6"/>
-      <c r="I20" s="157" t="s">
+      <c r="I20" s="156" t="s">
         <v>144</v>
       </c>
       <c r="J20" s="10" t="s">
@@ -19001,7 +19016,7 @@
         <v>0.25486111111111109</v>
       </c>
       <c r="H21" s="6"/>
-      <c r="I21" s="159"/>
+      <c r="I21" s="158"/>
       <c r="J21" s="76" t="s">
         <v>142</v>
       </c>
@@ -19080,7 +19095,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="H22" s="6"/>
-      <c r="I22" s="158" t="s">
+      <c r="I22" s="157" t="s">
         <v>162</v>
       </c>
       <c r="J22" s="54" t="s">
@@ -19163,7 +19178,7 @@
         <v>0.26944444444444443</v>
       </c>
       <c r="H23" s="6"/>
-      <c r="I23" s="158"/>
+      <c r="I23" s="157"/>
       <c r="J23" s="80" t="s">
         <v>170</v>
       </c>
@@ -19244,7 +19259,7 @@
         <v>0.3263888888888889</v>
       </c>
       <c r="H24" s="39"/>
-      <c r="I24" s="158"/>
+      <c r="I24" s="157"/>
       <c r="J24" s="54" t="s">
         <v>164</v>
       </c>
@@ -19325,7 +19340,7 @@
         <v>0.32847222222222222</v>
       </c>
       <c r="H25" s="39"/>
-      <c r="I25" s="158"/>
+      <c r="I25" s="157"/>
       <c r="J25" s="73" t="s">
         <v>142</v>
       </c>
@@ -19406,7 +19421,7 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="H26" s="39"/>
-      <c r="I26" s="159"/>
+      <c r="I26" s="158"/>
       <c r="J26" s="11" t="s">
         <v>163</v>
       </c>
@@ -19487,7 +19502,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="H27" s="39"/>
-      <c r="I27" s="157" t="s">
+      <c r="I27" s="156" t="s">
         <v>172</v>
       </c>
       <c r="J27" s="73" t="s">
@@ -19570,7 +19585,7 @@
         <v>0.22291666666666665</v>
       </c>
       <c r="H28" s="39"/>
-      <c r="I28" s="158"/>
+      <c r="I28" s="157"/>
       <c r="J28" s="101" t="s">
         <v>164</v>
       </c>
@@ -19651,7 +19666,7 @@
         <v>0.13194444444444445</v>
       </c>
       <c r="H29" s="39"/>
-      <c r="I29" s="158"/>
+      <c r="I29" s="157"/>
       <c r="J29" s="73" t="s">
         <v>30</v>
       </c>
@@ -19732,7 +19747,7 @@
         <v>14</v>
       </c>
       <c r="H30" s="39"/>
-      <c r="I30" s="158"/>
+      <c r="I30" s="157"/>
       <c r="J30" s="101" t="s">
         <v>137</v>
       </c>
@@ -19813,7 +19828,7 @@
         <v>0.43888888888888888</v>
       </c>
       <c r="H31" s="39"/>
-      <c r="I31" s="159"/>
+      <c r="I31" s="158"/>
       <c r="J31" s="73" t="s">
         <v>142</v>
       </c>
@@ -19894,7 +19909,7 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="H32" s="39"/>
-      <c r="I32" s="157" t="s">
+      <c r="I32" s="156" t="s">
         <v>185</v>
       </c>
       <c r="J32" s="107" t="s">
@@ -19977,7 +19992,7 @@
         <v>2.7097222222222221</v>
       </c>
       <c r="H33" s="39"/>
-      <c r="I33" s="158"/>
+      <c r="I33" s="157"/>
       <c r="J33" s="73" t="s">
         <v>180</v>
       </c>
@@ -20060,7 +20075,7 @@
         <v>14</v>
       </c>
       <c r="H34" s="39"/>
-      <c r="I34" s="158"/>
+      <c r="I34" s="157"/>
       <c r="J34" s="54" t="s">
         <v>200</v>
       </c>
@@ -20140,7 +20155,7 @@
         <v>0.11041666666666666</v>
       </c>
       <c r="H35" s="39"/>
-      <c r="I35" s="158"/>
+      <c r="I35" s="157"/>
       <c r="J35" s="80" t="s">
         <v>199</v>
       </c>
@@ -20209,7 +20224,7 @@
         <v>0.37083333333333335</v>
       </c>
       <c r="H36" s="39"/>
-      <c r="I36" s="158"/>
+      <c r="I36" s="157"/>
       <c r="J36" s="54" t="s">
         <v>142</v>
       </c>
@@ -20217,9 +20232,9 @@
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="L36" s="39"/>
-      <c r="M36" s="153"/>
-      <c r="N36" s="153"/>
-      <c r="O36" s="153"/>
+      <c r="M36" s="159"/>
+      <c r="N36" s="159"/>
+      <c r="O36" s="159"/>
       <c r="P36" s="111"/>
       <c r="Q36" s="16"/>
       <c r="R36" s="16"/>
@@ -20278,7 +20293,7 @@
         <v>0.80694444444444446</v>
       </c>
       <c r="H37" s="39"/>
-      <c r="I37" s="158"/>
+      <c r="I37" s="157"/>
       <c r="J37" s="80" t="s">
         <v>197</v>
       </c>
@@ -20286,9 +20301,9 @@
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="L37" s="39"/>
-      <c r="M37" s="153"/>
-      <c r="N37" s="153"/>
-      <c r="O37" s="153"/>
+      <c r="M37" s="159"/>
+      <c r="N37" s="159"/>
+      <c r="O37" s="159"/>
       <c r="P37" s="111"/>
       <c r="Q37" s="16"/>
       <c r="R37" s="16"/>
@@ -20347,7 +20362,7 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="H38" s="39"/>
-      <c r="I38" s="159"/>
+      <c r="I38" s="158"/>
       <c r="J38" s="11" t="s">
         <v>203</v>
       </c>
@@ -20355,9 +20370,9 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="L38" s="39"/>
-      <c r="M38" s="153"/>
-      <c r="N38" s="153"/>
-      <c r="O38" s="153"/>
+      <c r="M38" s="159"/>
+      <c r="N38" s="159"/>
+      <c r="O38" s="159"/>
       <c r="P38" s="111"/>
       <c r="Q38" s="16"/>
       <c r="R38" s="16"/>
@@ -20404,7 +20419,7 @@
       <c r="F39" s="30"/>
       <c r="G39" s="61"/>
       <c r="H39" s="39"/>
-      <c r="I39" s="157" t="s">
+      <c r="I39" s="156" t="s">
         <v>210</v>
       </c>
       <c r="J39" s="116" t="s">
@@ -20414,9 +20429,9 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="L39" s="39"/>
-      <c r="M39" s="153"/>
-      <c r="N39" s="153"/>
-      <c r="O39" s="153"/>
+      <c r="M39" s="159"/>
+      <c r="N39" s="159"/>
+      <c r="O39" s="159"/>
       <c r="P39" s="124"/>
       <c r="Q39" s="16"/>
       <c r="R39" s="16"/>
@@ -20463,7 +20478,7 @@
       <c r="F40" s="39"/>
       <c r="G40" s="62"/>
       <c r="H40" s="39"/>
-      <c r="I40" s="158"/>
+      <c r="I40" s="157"/>
       <c r="J40" s="113" t="s">
         <v>211</v>
       </c>
@@ -20471,9 +20486,9 @@
         <v>0.3666666666666667</v>
       </c>
       <c r="L40" s="39"/>
-      <c r="M40" s="153"/>
-      <c r="N40" s="153"/>
-      <c r="O40" s="153"/>
+      <c r="M40" s="159"/>
+      <c r="N40" s="159"/>
+      <c r="O40" s="159"/>
       <c r="P40" s="124"/>
       <c r="Q40" s="16"/>
       <c r="R40" s="16"/>
@@ -20519,7 +20534,7 @@
       <c r="F41" s="30"/>
       <c r="G41" s="61"/>
       <c r="H41" s="39"/>
-      <c r="I41" s="158"/>
+      <c r="I41" s="157"/>
       <c r="J41" s="112" t="s">
         <v>180</v>
       </c>
@@ -20527,9 +20542,9 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="L41" s="39"/>
-      <c r="M41" s="153"/>
-      <c r="N41" s="153"/>
-      <c r="O41" s="153"/>
+      <c r="M41" s="159"/>
+      <c r="N41" s="159"/>
+      <c r="O41" s="159"/>
       <c r="P41" s="124"/>
       <c r="Q41" s="16"/>
       <c r="R41" s="16"/>
@@ -20576,7 +20591,7 @@
       <c r="F42" s="30"/>
       <c r="G42" s="61"/>
       <c r="H42" s="39"/>
-      <c r="I42" s="158"/>
+      <c r="I42" s="157"/>
       <c r="J42" s="114" t="s">
         <v>137</v>
       </c>
@@ -20633,7 +20648,7 @@
       <c r="F43" s="39"/>
       <c r="G43" s="62"/>
       <c r="H43" s="39"/>
-      <c r="I43" s="158"/>
+      <c r="I43" s="157"/>
       <c r="J43" s="112" t="s">
         <v>213</v>
       </c>
@@ -20690,7 +20705,7 @@
       <c r="F44" s="39"/>
       <c r="G44" s="62"/>
       <c r="H44" s="39"/>
-      <c r="I44" s="158"/>
+      <c r="I44" s="157"/>
       <c r="J44" s="113" t="s">
         <v>214</v>
       </c>
@@ -20747,7 +20762,7 @@
       <c r="F45" s="39"/>
       <c r="G45" s="62"/>
       <c r="H45" s="39"/>
-      <c r="I45" s="159"/>
+      <c r="I45" s="158"/>
       <c r="J45" s="115" t="s">
         <v>142</v>
       </c>
@@ -20804,7 +20819,7 @@
       <c r="F46" s="39"/>
       <c r="G46" s="62"/>
       <c r="H46" s="39"/>
-      <c r="I46" s="154" t="s">
+      <c r="I46" s="153" t="s">
         <v>218</v>
       </c>
       <c r="J46" s="119" t="s">
@@ -20863,7 +20878,7 @@
       <c r="F47" s="39"/>
       <c r="G47" s="62"/>
       <c r="H47" s="39"/>
-      <c r="I47" s="155"/>
+      <c r="I47" s="154"/>
       <c r="J47" s="80" t="s">
         <v>180</v>
       </c>
@@ -20920,7 +20935,7 @@
       <c r="F48" s="39"/>
       <c r="G48" s="62"/>
       <c r="H48" s="39"/>
-      <c r="I48" s="155"/>
+      <c r="I48" s="154"/>
       <c r="J48" s="101" t="s">
         <v>137</v>
       </c>
@@ -20977,7 +20992,7 @@
       <c r="F49" s="39"/>
       <c r="G49" s="62"/>
       <c r="H49" s="39"/>
-      <c r="I49" s="156"/>
+      <c r="I49" s="155"/>
       <c r="J49" s="120" t="s">
         <v>214</v>
       </c>
@@ -21034,7 +21049,7 @@
       <c r="F50" s="39"/>
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
-      <c r="I50" s="154" t="s">
+      <c r="I50" s="153" t="s">
         <v>233</v>
       </c>
       <c r="J50" s="121" t="s">
@@ -21093,7 +21108,7 @@
       <c r="F51" s="39"/>
       <c r="G51" s="39"/>
       <c r="H51" s="39"/>
-      <c r="I51" s="155"/>
+      <c r="I51" s="154"/>
       <c r="J51" s="122" t="s">
         <v>180</v>
       </c>
@@ -21150,7 +21165,7 @@
       <c r="F52" s="39"/>
       <c r="G52" s="39"/>
       <c r="H52" s="39"/>
-      <c r="I52" s="155"/>
+      <c r="I52" s="154"/>
       <c r="J52" s="114" t="s">
         <v>236</v>
       </c>
@@ -21207,7 +21222,7 @@
       <c r="F53" s="39"/>
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
-      <c r="I53" s="156"/>
+      <c r="I53" s="155"/>
       <c r="J53" s="115" t="s">
         <v>212</v>
       </c>
@@ -21264,7 +21279,7 @@
       <c r="F54" s="39"/>
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
-      <c r="I54" s="154" t="s">
+      <c r="I54" s="153" t="s">
         <v>244</v>
       </c>
       <c r="J54" s="121" t="s">
@@ -21323,7 +21338,7 @@
       <c r="F55" s="39"/>
       <c r="G55" s="39"/>
       <c r="H55" s="39"/>
-      <c r="I55" s="155"/>
+      <c r="I55" s="154"/>
       <c r="J55" s="122" t="s">
         <v>243</v>
       </c>
@@ -21380,7 +21395,7 @@
       <c r="F56" s="39"/>
       <c r="G56" s="39"/>
       <c r="H56" s="39"/>
-      <c r="I56" s="155"/>
+      <c r="I56" s="154"/>
       <c r="J56" s="114" t="s">
         <v>30</v>
       </c>
@@ -21437,7 +21452,7 @@
       <c r="F57" s="39"/>
       <c r="G57" s="39"/>
       <c r="H57" s="39"/>
-      <c r="I57" s="156"/>
+      <c r="I57" s="155"/>
       <c r="J57" s="115" t="s">
         <v>200</v>
       </c>
@@ -21494,7 +21509,7 @@
       <c r="F58" s="39"/>
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
-      <c r="I58" s="154" t="s">
+      <c r="I58" s="153" t="s">
         <v>247</v>
       </c>
       <c r="J58" s="121" t="s">
@@ -21553,7 +21568,7 @@
       <c r="F59" s="39"/>
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
-      <c r="I59" s="155"/>
+      <c r="I59" s="154"/>
       <c r="J59" s="122" t="s">
         <v>236</v>
       </c>
@@ -21610,7 +21625,7 @@
       <c r="F60" s="39"/>
       <c r="G60" s="39"/>
       <c r="H60" s="39"/>
-      <c r="I60" s="155"/>
+      <c r="I60" s="154"/>
       <c r="J60" s="114" t="s">
         <v>243</v>
       </c>
@@ -21667,7 +21682,7 @@
       <c r="F61" s="39"/>
       <c r="G61" s="39"/>
       <c r="H61" s="39"/>
-      <c r="I61" s="155"/>
+      <c r="I61" s="154"/>
       <c r="J61" s="122" t="s">
         <v>246</v>
       </c>
@@ -21724,7 +21739,7 @@
       <c r="F62" s="39"/>
       <c r="G62" s="39"/>
       <c r="H62" s="39"/>
-      <c r="I62" s="155"/>
+      <c r="I62" s="154"/>
       <c r="J62" s="114" t="s">
         <v>30</v>
       </c>
@@ -21781,7 +21796,7 @@
       <c r="F63" s="39"/>
       <c r="G63" s="39"/>
       <c r="H63" s="39"/>
-      <c r="I63" s="156"/>
+      <c r="I63" s="155"/>
       <c r="J63" s="115" t="s">
         <v>200</v>
       </c>
@@ -27435,6 +27450,12 @@
     <sortCondition ref="J33"/>
   </sortState>
   <mergeCells count="18">
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="M39:O39"/>
     <mergeCell ref="I58:I63"/>
     <mergeCell ref="I54:I57"/>
     <mergeCell ref="I50:I53"/>
@@ -27447,12 +27468,6 @@
     <mergeCell ref="I32:I38"/>
     <mergeCell ref="I27:I31"/>
     <mergeCell ref="I14:I19"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="M39:O39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -27468,8 +27483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29068,9 +29083,9 @@
         <v>4.9305555555555554E-2</v>
       </c>
       <c r="N36" s="39"/>
-      <c r="O36" s="153"/>
-      <c r="P36" s="153"/>
-      <c r="Q36" s="153"/>
+      <c r="O36" s="159"/>
+      <c r="P36" s="159"/>
+      <c r="Q36" s="159"/>
       <c r="R36" s="111"/>
       <c r="S36" s="16"/>
       <c r="T36" s="16"/>
@@ -29100,9 +29115,9 @@
         <v>0.18472222222222223</v>
       </c>
       <c r="N37" s="39"/>
-      <c r="O37" s="153"/>
-      <c r="P37" s="153"/>
-      <c r="Q37" s="153"/>
+      <c r="O37" s="159"/>
+      <c r="P37" s="159"/>
+      <c r="Q37" s="159"/>
       <c r="R37" s="111"/>
       <c r="S37" s="16"/>
       <c r="T37" s="16"/>
@@ -29132,9 +29147,9 @@
         <v>0.21249999999999999</v>
       </c>
       <c r="N38" s="39"/>
-      <c r="O38" s="153"/>
-      <c r="P38" s="153"/>
-      <c r="Q38" s="153"/>
+      <c r="O38" s="159"/>
+      <c r="P38" s="159"/>
+      <c r="Q38" s="159"/>
       <c r="R38" s="111"/>
       <c r="S38" s="16"/>
       <c r="T38" s="16"/>
@@ -29164,9 +29179,9 @@
         <v>0.26527777777777778</v>
       </c>
       <c r="N39" s="39"/>
-      <c r="O39" s="153"/>
-      <c r="P39" s="153"/>
-      <c r="Q39" s="153"/>
+      <c r="O39" s="159"/>
+      <c r="P39" s="159"/>
+      <c r="Q39" s="159"/>
       <c r="R39" s="124"/>
       <c r="S39" s="16"/>
       <c r="T39" s="16"/>
@@ -29196,9 +29211,9 @@
         <v>0.75347222222222221</v>
       </c>
       <c r="N40" s="39"/>
-      <c r="O40" s="153"/>
-      <c r="P40" s="153"/>
-      <c r="Q40" s="153"/>
+      <c r="O40" s="159"/>
+      <c r="P40" s="159"/>
+      <c r="Q40" s="159"/>
       <c r="R40" s="124"/>
       <c r="S40" s="16"/>
       <c r="T40" s="16"/>
@@ -29223,9 +29238,9 @@
         <v>1.0513888888888889</v>
       </c>
       <c r="N41" s="39"/>
-      <c r="O41" s="153"/>
-      <c r="P41" s="153"/>
-      <c r="Q41" s="153"/>
+      <c r="O41" s="159"/>
+      <c r="P41" s="159"/>
+      <c r="Q41" s="159"/>
       <c r="R41" s="124"/>
       <c r="S41" s="16"/>
       <c r="T41" s="16"/>
@@ -32068,6 +32083,12 @@
     <sortCondition ref="I9"/>
   </sortState>
   <mergeCells count="18">
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="O40:Q40"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="L21:M21"/>
@@ -32080,12 +32101,6 @@
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="I35:J35"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="O39:Q39"/>
-    <mergeCell ref="O40:Q40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I116" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -32104,8 +32119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2E69CA-387B-46EE-8AF5-1104FD3CA4B0}">
   <dimension ref="A1:V153"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32199,16 +32214,28 @@
       <c r="B3" s="70">
         <v>1</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="75"/>
+      <c r="C3" s="73" t="s">
+        <v>375</v>
+      </c>
+      <c r="D3" s="73">
+        <v>2017</v>
+      </c>
+      <c r="E3" s="74" t="s">
+        <v>266</v>
+      </c>
+      <c r="F3" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="75" t="s">
+        <v>14</v>
+      </c>
       <c r="H3" s="6"/>
       <c r="I3" s="122" t="s">
         <v>374</v>
       </c>
-      <c r="J3" s="132"/>
+      <c r="J3" s="132">
+        <v>0.24652777777777779</v>
+      </c>
       <c r="K3" s="137"/>
       <c r="L3" s="131"/>
       <c r="M3" s="72"/>
@@ -32233,8 +32260,12 @@
       <c r="F4" s="69"/>
       <c r="G4" s="60"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="133"/>
+      <c r="I4" s="113" t="s">
+        <v>371</v>
+      </c>
+      <c r="J4" s="133">
+        <v>0.22361111111111109</v>
+      </c>
       <c r="K4" s="137"/>
       <c r="L4" s="101"/>
       <c r="M4" s="60"/>
@@ -32259,8 +32290,12 @@
       <c r="F5" s="74"/>
       <c r="G5" s="75"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="77"/>
+      <c r="I5" s="135" t="s">
+        <v>376</v>
+      </c>
+      <c r="J5" s="77">
+        <v>0.1875</v>
+      </c>
       <c r="K5" s="137"/>
       <c r="L5" s="135"/>
       <c r="M5" s="77"/>
@@ -32701,14 +32736,21 @@
       <c r="O22" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="P22" s="95"/>
-      <c r="Q22" s="95"/>
+      <c r="P22" s="95">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="Q22" s="95">
+        <f>SUM(J3:J5)</f>
+        <v>0.65763888888888888</v>
+      </c>
       <c r="R22" s="96">
         <f t="shared" ref="R22:R28" si="0">P22+Q22</f>
-        <v>0</v>
+        <v>0.83819444444444446</v>
       </c>
       <c r="S22" s="39"/>
-      <c r="T22" s="104"/>
+      <c r="T22" s="104" t="s">
+        <v>377</v>
+      </c>
       <c r="U22" s="39"/>
       <c r="V22" s="39"/>
     </row>
@@ -33046,15 +33088,15 @@
       </c>
       <c r="P34" s="126">
         <f t="shared" ref="P34" si="1">SUM(P22:P33)</f>
-        <v>0</v>
+        <v>0.18055555555555555</v>
       </c>
       <c r="Q34" s="126">
         <f>SUM(Q22:Q33)</f>
-        <v>0</v>
+        <v>0.65763888888888888</v>
       </c>
       <c r="R34" s="127">
         <f>SUM(R22:R33)</f>
-        <v>0</v>
+        <v>0.83819444444444446</v>
       </c>
       <c r="S34" s="39"/>
       <c r="T34" s="39"/>
@@ -33090,9 +33132,9 @@
       <c r="G36" s="61"/>
       <c r="H36" s="39"/>
       <c r="N36" s="39"/>
-      <c r="O36" s="153"/>
-      <c r="P36" s="153"/>
-      <c r="Q36" s="153"/>
+      <c r="O36" s="159"/>
+      <c r="P36" s="159"/>
+      <c r="Q36" s="159"/>
       <c r="R36" s="111"/>
       <c r="S36" s="16"/>
       <c r="T36" s="16"/>
@@ -33109,9 +33151,9 @@
       <c r="G37" s="61"/>
       <c r="H37" s="39"/>
       <c r="N37" s="39"/>
-      <c r="O37" s="153"/>
-      <c r="P37" s="153"/>
-      <c r="Q37" s="153"/>
+      <c r="O37" s="159"/>
+      <c r="P37" s="159"/>
+      <c r="Q37" s="159"/>
       <c r="R37" s="111"/>
       <c r="S37" s="16"/>
       <c r="T37" s="16"/>
@@ -33128,9 +33170,9 @@
       <c r="G38" s="61"/>
       <c r="H38" s="39"/>
       <c r="N38" s="39"/>
-      <c r="O38" s="153"/>
-      <c r="P38" s="153"/>
-      <c r="Q38" s="153"/>
+      <c r="O38" s="159"/>
+      <c r="P38" s="159"/>
+      <c r="Q38" s="159"/>
       <c r="R38" s="111"/>
       <c r="S38" s="16"/>
       <c r="T38" s="16"/>
@@ -33147,9 +33189,9 @@
       <c r="G39" s="61"/>
       <c r="H39" s="39"/>
       <c r="N39" s="39"/>
-      <c r="O39" s="153"/>
-      <c r="P39" s="153"/>
-      <c r="Q39" s="153"/>
+      <c r="O39" s="159"/>
+      <c r="P39" s="159"/>
+      <c r="Q39" s="159"/>
       <c r="R39" s="124"/>
       <c r="S39" s="16"/>
       <c r="T39" s="16"/>
@@ -33166,9 +33208,9 @@
       <c r="G40" s="62"/>
       <c r="H40" s="39"/>
       <c r="N40" s="39"/>
-      <c r="O40" s="153"/>
-      <c r="P40" s="153"/>
-      <c r="Q40" s="153"/>
+      <c r="O40" s="159"/>
+      <c r="P40" s="159"/>
+      <c r="Q40" s="159"/>
       <c r="R40" s="124"/>
       <c r="S40" s="16"/>
       <c r="T40" s="16"/>
@@ -33185,9 +33227,9 @@
       <c r="G41" s="61"/>
       <c r="H41" s="39"/>
       <c r="N41" s="39"/>
-      <c r="O41" s="153"/>
-      <c r="P41" s="153"/>
-      <c r="Q41" s="153"/>
+      <c r="O41" s="159"/>
+      <c r="P41" s="159"/>
+      <c r="Q41" s="159"/>
       <c r="R41" s="124"/>
       <c r="S41" s="16"/>
       <c r="T41" s="16"/>
@@ -35230,7 +35272,7 @@
       </c>
       <c r="Q125" s="46">
         <f>COUNTIF(D3:D59,P125)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R125" s="39"/>
       <c r="S125" s="39"/>
@@ -35897,7 +35939,7 @@
       </c>
       <c r="Q148" s="42">
         <f>SUM(Q121:Q147)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R148" s="39"/>
       <c r="S148" s="39"/>
@@ -36027,10 +36069,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="L12:M12"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="I17:J17"/>
     <mergeCell ref="O41:Q41"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="I27:J27"/>
@@ -36041,10 +36087,6 @@
     <mergeCell ref="O38:Q38"/>
     <mergeCell ref="O39:Q39"/>
     <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="L12:M12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I116" r:id="rId1" xr:uid="{AF214621-6DBE-4A60-B95B-7446F146F284}"/>

--- a/spreadsheets/Games.xlsx
+++ b/spreadsheets/Games.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ucer0.github.io\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7DF2AD-2E36-4320-9308-643FC81FCC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB16899-22B4-4194-8944-86A67308A4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="412">
   <si>
     <t>Nier: Automata</t>
   </si>
@@ -1594,6 +1594,159 @@
   <si>
     <t>Radiant Historia (4h 20m)</t>
   </si>
+  <si>
+    <t>Holocure</t>
+  </si>
+  <si>
+    <t>Dark and Darker</t>
+  </si>
+  <si>
+    <t>14-feb.</t>
+  </si>
+  <si>
+    <t>16-feb.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wario Land 4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Replayed]</t>
+    </r>
+  </si>
+  <si>
+    <t>Iconoclasts</t>
+  </si>
+  <si>
+    <t>21-feb.</t>
+  </si>
+  <si>
+    <t>23-feb.</t>
+  </si>
+  <si>
+    <t>Iconoclasts (In-game: 10h 55m)</t>
+  </si>
+  <si>
+    <t>Smash Bros Ultimate</t>
+  </si>
+  <si>
+    <t>6-mar.</t>
+  </si>
+  <si>
+    <t>8-mar.</t>
+  </si>
+  <si>
+    <t>Metroid (In-game: 13h 43m)</t>
+  </si>
+  <si>
+    <t>Pokémon Mystery Dungeon DX</t>
+  </si>
+  <si>
+    <t>10-mar.</t>
+  </si>
+  <si>
+    <t>Worms Ultimate Mayhem</t>
+  </si>
+  <si>
+    <t>If On A Winter's Night 4 Travelers</t>
+  </si>
+  <si>
+    <t>15-mar.</t>
+  </si>
+  <si>
+    <t>Astro's Playroom</t>
+  </si>
+  <si>
+    <t>21-mar.</t>
+  </si>
+  <si>
+    <t>27-mar.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Minecraft Dungeon </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>(w/Agu)</t>
+    </r>
+  </si>
+  <si>
+    <t>Demon's Souls</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
+  </si>
+  <si>
+    <t>31-mar.</t>
+  </si>
+  <si>
+    <t>20-mar.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>MC Dungeons (3h 57m)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>, SotC (pasarlo 6h26m)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Castlevania: Symphony of the Night </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Replayed]</t>
+    </r>
+  </si>
+  <si>
+    <t>1-abr.</t>
+  </si>
+  <si>
+    <t>Castlevania: Rondo of Blood</t>
+  </si>
+  <si>
+    <t>5-abr.</t>
+  </si>
+  <si>
+    <t>SotN (pasarlo 11h 46m, Richter 1h 12m), Rondo (pasarlo 2h27m 10 conts)</t>
+  </si>
+  <si>
+    <t>Metroid Prime Remastered</t>
+  </si>
+  <si>
+    <t>Gravity Rush Remastered</t>
+  </si>
 </sst>
 </file>
 
@@ -1604,7 +1757,7 @@
     <numFmt numFmtId="165" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="[h]&quot;h&quot;\ mm&quot;m&quot;"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1738,6 +1891,25 @@
     <font>
       <sz val="10"/>
       <color theme="8" tint="-0.249977111117893"/>
+      <name val="Ubuntu"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="Ubuntu"/>
       <family val="2"/>
     </font>
@@ -1956,7 +2128,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2384,6 +2556,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5896,22 +6077,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -5956,7 +6137,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
@@ -5968,7 +6149,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -6235,6 +6416,12 @@
                 <c:pt idx="0">
                   <c:v>0.18055555555555555</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82638888888888884</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4152777777777779</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6323,6 +6510,12 @@
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.65763888888888888</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1472222222222221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65347222222222223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11641,8 +11834,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C37" sqref="C36:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11691,17 +11884,17 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="143">
+      <c r="B2" s="146">
         <v>2019</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
       <c r="E2" s="67"/>
-      <c r="F2" s="149" t="s">
+      <c r="F2" s="152" t="s">
         <v>262</v>
       </c>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
       <c r="I2" s="35"/>
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
@@ -11732,18 +11925,18 @@
         <v>78</v>
       </c>
       <c r="E3" s="68"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="6"/>
       <c r="N3" s="29"/>
-      <c r="O3" s="148"/>
-      <c r="P3" s="148"/>
-      <c r="Q3" s="148"/>
+      <c r="O3" s="151"/>
+      <c r="P3" s="151"/>
+      <c r="Q3" s="151"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
@@ -11765,18 +11958,18 @@
         <v>2004</v>
       </c>
       <c r="E4" s="26"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="30"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="148"/>
-      <c r="P4" s="148"/>
-      <c r="Q4" s="148"/>
+      <c r="O4" s="151"/>
+      <c r="P4" s="151"/>
+      <c r="Q4" s="151"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
@@ -11798,18 +11991,18 @@
         <v>2017</v>
       </c>
       <c r="E5" s="26"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
       <c r="I5" s="6"/>
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="148"/>
-      <c r="P5" s="148"/>
-      <c r="Q5" s="148"/>
+      <c r="O5" s="151"/>
+      <c r="P5" s="151"/>
+      <c r="Q5" s="151"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
@@ -11831,18 +12024,18 @@
         <v>2017</v>
       </c>
       <c r="E6" s="26"/>
-      <c r="F6" s="149"/>
-      <c r="G6" s="149"/>
-      <c r="H6" s="149"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="152"/>
       <c r="I6" s="6"/>
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="148"/>
-      <c r="P6" s="148"/>
-      <c r="Q6" s="148"/>
+      <c r="O6" s="151"/>
+      <c r="P6" s="151"/>
+      <c r="Q6" s="151"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
@@ -11864,18 +12057,18 @@
         <v>2017</v>
       </c>
       <c r="E7" s="26"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="152"/>
       <c r="I7" s="6"/>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="148"/>
-      <c r="P7" s="148"/>
-      <c r="Q7" s="148"/>
+      <c r="O7" s="151"/>
+      <c r="P7" s="151"/>
+      <c r="Q7" s="151"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
@@ -11897,18 +12090,18 @@
         <v>2017</v>
       </c>
       <c r="E8" s="26"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="149"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="152"/>
       <c r="I8" s="6"/>
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="148"/>
-      <c r="P8" s="148"/>
-      <c r="Q8" s="148"/>
+      <c r="O8" s="151"/>
+      <c r="P8" s="151"/>
+      <c r="Q8" s="151"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
@@ -11930,18 +12123,18 @@
         <v>2016</v>
       </c>
       <c r="E9" s="26"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="152"/>
       <c r="I9" s="6"/>
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="148"/>
-      <c r="P9" s="148"/>
-      <c r="Q9" s="148"/>
+      <c r="O9" s="151"/>
+      <c r="P9" s="151"/>
+      <c r="Q9" s="151"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
@@ -11963,18 +12156,18 @@
         <v>2017</v>
       </c>
       <c r="E10" s="26"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="149"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="152"/>
       <c r="I10" s="6"/>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="7"/>
-      <c r="O10" s="148"/>
-      <c r="P10" s="148"/>
-      <c r="Q10" s="148"/>
+      <c r="O10" s="151"/>
+      <c r="P10" s="151"/>
+      <c r="Q10" s="151"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
@@ -11996,18 +12189,18 @@
         <v>2016</v>
       </c>
       <c r="E11" s="26"/>
-      <c r="F11" s="149"/>
-      <c r="G11" s="149"/>
-      <c r="H11" s="149"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="152"/>
       <c r="I11" s="6"/>
       <c r="J11" s="30"/>
       <c r="K11" s="30"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="148"/>
-      <c r="P11" s="148"/>
-      <c r="Q11" s="148"/>
+      <c r="O11" s="151"/>
+      <c r="P11" s="151"/>
+      <c r="Q11" s="151"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
@@ -12029,18 +12222,18 @@
         <v>2017</v>
       </c>
       <c r="E12" s="26"/>
-      <c r="F12" s="149"/>
-      <c r="G12" s="149"/>
-      <c r="H12" s="149"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="152"/>
       <c r="I12" s="6"/>
       <c r="J12" s="30"/>
       <c r="K12" s="30"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="148"/>
-      <c r="P12" s="148"/>
-      <c r="Q12" s="148"/>
+      <c r="O12" s="151"/>
+      <c r="P12" s="151"/>
+      <c r="Q12" s="151"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
@@ -12062,18 +12255,18 @@
         <v>2009</v>
       </c>
       <c r="E13" s="26"/>
-      <c r="F13" s="149"/>
-      <c r="G13" s="149"/>
-      <c r="H13" s="149"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="152"/>
       <c r="I13" s="6"/>
       <c r="J13" s="30"/>
       <c r="K13" s="30"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="148"/>
-      <c r="P13" s="148"/>
-      <c r="Q13" s="148"/>
+      <c r="O13" s="151"/>
+      <c r="P13" s="151"/>
+      <c r="Q13" s="151"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
@@ -12095,18 +12288,18 @@
         <v>2019</v>
       </c>
       <c r="E14" s="26"/>
-      <c r="F14" s="149"/>
-      <c r="G14" s="149"/>
-      <c r="H14" s="149"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
       <c r="I14" s="6"/>
       <c r="J14" s="30"/>
       <c r="K14" s="30"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="148"/>
-      <c r="P14" s="148"/>
-      <c r="Q14" s="148"/>
+      <c r="O14" s="151"/>
+      <c r="P14" s="151"/>
+      <c r="Q14" s="151"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
@@ -12128,18 +12321,18 @@
         <v>2019</v>
       </c>
       <c r="E15" s="26"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="149"/>
-      <c r="H15" s="149"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
       <c r="I15" s="6"/>
       <c r="J15" s="30"/>
       <c r="K15" s="30"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="148"/>
-      <c r="P15" s="148"/>
-      <c r="Q15" s="148"/>
+      <c r="O15" s="151"/>
+      <c r="P15" s="151"/>
+      <c r="Q15" s="151"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
@@ -12164,9 +12357,9 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="148"/>
-      <c r="P16" s="148"/>
-      <c r="Q16" s="148"/>
+      <c r="O16" s="151"/>
+      <c r="P16" s="151"/>
+      <c r="Q16" s="151"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
@@ -12177,9 +12370,9 @@
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
-      <c r="B17" s="145"/>
-      <c r="C17" s="145"/>
-      <c r="D17" s="145"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="148"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7"/>
@@ -12204,9 +12397,9 @@
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
-      <c r="B18" s="145"/>
-      <c r="C18" s="145"/>
-      <c r="D18" s="145"/>
+      <c r="B18" s="148"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="148"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="7"/>
@@ -12216,8 +12409,8 @@
       <c r="K18" s="30"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="146"/>
-      <c r="O18" s="147"/>
+      <c r="N18" s="149"/>
+      <c r="O18" s="150"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
@@ -12231,9 +12424,9 @@
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
-      <c r="B19" s="145"/>
-      <c r="C19" s="145"/>
-      <c r="D19" s="145"/>
+      <c r="B19" s="148"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="148"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7"/>
@@ -12243,8 +12436,8 @@
       <c r="K19" s="30"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="147"/>
-      <c r="O19" s="147"/>
+      <c r="N19" s="150"/>
+      <c r="O19" s="150"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
@@ -12270,8 +12463,8 @@
       <c r="K20" s="30"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="147"/>
-      <c r="O20" s="147"/>
+      <c r="N20" s="150"/>
+      <c r="O20" s="150"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
@@ -12297,8 +12490,8 @@
       <c r="K21" s="30"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="147"/>
-      <c r="O21" s="147"/>
+      <c r="N21" s="150"/>
+      <c r="O21" s="150"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
@@ -12324,8 +12517,8 @@
       <c r="K22" s="30"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-      <c r="N22" s="147"/>
-      <c r="O22" s="147"/>
+      <c r="N22" s="150"/>
+      <c r="O22" s="150"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
@@ -12812,7 +13005,7 @@
   <dimension ref="A1:Y159"/>
   <sheetViews>
     <sheetView topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13509,8 +13702,8 @@
         <v>11</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="151"/>
-      <c r="K17" s="152"/>
+      <c r="J17" s="154"/>
+      <c r="K17" s="155"/>
       <c r="L17" s="6"/>
       <c r="M17" s="39"/>
       <c r="N17" s="39"/>
@@ -13548,8 +13741,8 @@
         <v>1</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="150"/>
-      <c r="K18" s="150"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="153"/>
       <c r="L18" s="6"/>
       <c r="M18" s="39"/>
       <c r="N18" s="39"/>
@@ -17599,7 +17792,7 @@
   <dimension ref="A1:AY296"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -17766,7 +17959,7 @@
         <v>4.197916666666667</v>
       </c>
       <c r="H3" s="6"/>
-      <c r="I3" s="156" t="s">
+      <c r="I3" s="159" t="s">
         <v>119</v>
       </c>
       <c r="J3" s="80" t="s">
@@ -17837,7 +18030,7 @@
         <v>0.30138888888888887</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="157"/>
+      <c r="I4" s="160"/>
       <c r="J4" s="54" t="s">
         <v>128</v>
       </c>
@@ -17906,7 +18099,7 @@
         <v>0.2076388888888889</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="157"/>
+      <c r="I5" s="160"/>
       <c r="J5" s="73" t="s">
         <v>133</v>
       </c>
@@ -17975,7 +18168,7 @@
         <v>1.2437499999999999</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="157"/>
+      <c r="I6" s="160"/>
       <c r="J6" s="54" t="s">
         <v>130</v>
       </c>
@@ -18044,7 +18237,7 @@
         <v>0.27916666666666667</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="157"/>
+      <c r="I7" s="160"/>
       <c r="J7" s="73" t="s">
         <v>137</v>
       </c>
@@ -18113,7 +18306,7 @@
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="157"/>
+      <c r="I8" s="160"/>
       <c r="J8" s="54" t="s">
         <v>138</v>
       </c>
@@ -18182,7 +18375,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="156" t="s">
+      <c r="I9" s="159" t="s">
         <v>120</v>
       </c>
       <c r="J9" s="71" t="s">
@@ -18253,7 +18446,7 @@
         <v>0.19027777777777777</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="157"/>
+      <c r="I10" s="160"/>
       <c r="J10" s="54" t="s">
         <v>128</v>
       </c>
@@ -18322,7 +18515,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="157"/>
+      <c r="I11" s="160"/>
       <c r="J11" s="73" t="s">
         <v>133</v>
       </c>
@@ -18391,7 +18584,7 @@
         <v>1.7097222222222221</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="157"/>
+      <c r="I12" s="160"/>
       <c r="J12" s="54" t="s">
         <v>130</v>
       </c>
@@ -18460,7 +18653,7 @@
         <v>0.15972222222222224</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="157"/>
+      <c r="I13" s="160"/>
       <c r="J13" s="73" t="s">
         <v>142</v>
       </c>
@@ -18529,7 +18722,7 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="156" t="s">
+      <c r="I14" s="159" t="s">
         <v>121</v>
       </c>
       <c r="J14" s="10" t="s">
@@ -18600,7 +18793,7 @@
         <v>0.59652777777777777</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="157"/>
+      <c r="I15" s="160"/>
       <c r="J15" s="73" t="s">
         <v>128</v>
       </c>
@@ -18669,7 +18862,7 @@
         <v>14</v>
       </c>
       <c r="H16" s="6"/>
-      <c r="I16" s="157"/>
+      <c r="I16" s="160"/>
       <c r="J16" s="54" t="s">
         <v>133</v>
       </c>
@@ -18738,7 +18931,7 @@
         <v>14</v>
       </c>
       <c r="H17" s="6"/>
-      <c r="I17" s="157"/>
+      <c r="I17" s="160"/>
       <c r="J17" s="73" t="s">
         <v>130</v>
       </c>
@@ -18807,7 +19000,7 @@
         <v>0.24583333333333335</v>
       </c>
       <c r="H18" s="6"/>
-      <c r="I18" s="157"/>
+      <c r="I18" s="160"/>
       <c r="J18" s="54" t="s">
         <v>145</v>
       </c>
@@ -18876,7 +19069,7 @@
         <v>0.49513888888888885</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="158"/>
+      <c r="I19" s="161"/>
       <c r="J19" s="76" t="s">
         <v>151</v>
       </c>
@@ -18945,7 +19138,7 @@
         <v>0.20972222222222223</v>
       </c>
       <c r="H20" s="6"/>
-      <c r="I20" s="156" t="s">
+      <c r="I20" s="159" t="s">
         <v>144</v>
       </c>
       <c r="J20" s="10" t="s">
@@ -19016,7 +19209,7 @@
         <v>0.25486111111111109</v>
       </c>
       <c r="H21" s="6"/>
-      <c r="I21" s="158"/>
+      <c r="I21" s="161"/>
       <c r="J21" s="76" t="s">
         <v>142</v>
       </c>
@@ -19095,7 +19288,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="H22" s="6"/>
-      <c r="I22" s="157" t="s">
+      <c r="I22" s="160" t="s">
         <v>162</v>
       </c>
       <c r="J22" s="54" t="s">
@@ -19178,7 +19371,7 @@
         <v>0.26944444444444443</v>
       </c>
       <c r="H23" s="6"/>
-      <c r="I23" s="157"/>
+      <c r="I23" s="160"/>
       <c r="J23" s="80" t="s">
         <v>170</v>
       </c>
@@ -19259,7 +19452,7 @@
         <v>0.3263888888888889</v>
       </c>
       <c r="H24" s="39"/>
-      <c r="I24" s="157"/>
+      <c r="I24" s="160"/>
       <c r="J24" s="54" t="s">
         <v>164</v>
       </c>
@@ -19340,7 +19533,7 @@
         <v>0.32847222222222222</v>
       </c>
       <c r="H25" s="39"/>
-      <c r="I25" s="157"/>
+      <c r="I25" s="160"/>
       <c r="J25" s="73" t="s">
         <v>142</v>
       </c>
@@ -19421,7 +19614,7 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="H26" s="39"/>
-      <c r="I26" s="158"/>
+      <c r="I26" s="161"/>
       <c r="J26" s="11" t="s">
         <v>163</v>
       </c>
@@ -19502,7 +19695,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="H27" s="39"/>
-      <c r="I27" s="156" t="s">
+      <c r="I27" s="159" t="s">
         <v>172</v>
       </c>
       <c r="J27" s="73" t="s">
@@ -19585,7 +19778,7 @@
         <v>0.22291666666666665</v>
       </c>
       <c r="H28" s="39"/>
-      <c r="I28" s="157"/>
+      <c r="I28" s="160"/>
       <c r="J28" s="101" t="s">
         <v>164</v>
       </c>
@@ -19666,7 +19859,7 @@
         <v>0.13194444444444445</v>
       </c>
       <c r="H29" s="39"/>
-      <c r="I29" s="157"/>
+      <c r="I29" s="160"/>
       <c r="J29" s="73" t="s">
         <v>30</v>
       </c>
@@ -19747,7 +19940,7 @@
         <v>14</v>
       </c>
       <c r="H30" s="39"/>
-      <c r="I30" s="157"/>
+      <c r="I30" s="160"/>
       <c r="J30" s="101" t="s">
         <v>137</v>
       </c>
@@ -19828,7 +20021,7 @@
         <v>0.43888888888888888</v>
       </c>
       <c r="H31" s="39"/>
-      <c r="I31" s="158"/>
+      <c r="I31" s="161"/>
       <c r="J31" s="73" t="s">
         <v>142</v>
       </c>
@@ -19909,7 +20102,7 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="H32" s="39"/>
-      <c r="I32" s="156" t="s">
+      <c r="I32" s="159" t="s">
         <v>185</v>
       </c>
       <c r="J32" s="107" t="s">
@@ -19992,7 +20185,7 @@
         <v>2.7097222222222221</v>
       </c>
       <c r="H33" s="39"/>
-      <c r="I33" s="157"/>
+      <c r="I33" s="160"/>
       <c r="J33" s="73" t="s">
         <v>180</v>
       </c>
@@ -20075,7 +20268,7 @@
         <v>14</v>
       </c>
       <c r="H34" s="39"/>
-      <c r="I34" s="157"/>
+      <c r="I34" s="160"/>
       <c r="J34" s="54" t="s">
         <v>200</v>
       </c>
@@ -20155,7 +20348,7 @@
         <v>0.11041666666666666</v>
       </c>
       <c r="H35" s="39"/>
-      <c r="I35" s="157"/>
+      <c r="I35" s="160"/>
       <c r="J35" s="80" t="s">
         <v>199</v>
       </c>
@@ -20224,7 +20417,7 @@
         <v>0.37083333333333335</v>
       </c>
       <c r="H36" s="39"/>
-      <c r="I36" s="157"/>
+      <c r="I36" s="160"/>
       <c r="J36" s="54" t="s">
         <v>142</v>
       </c>
@@ -20232,9 +20425,9 @@
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="L36" s="39"/>
-      <c r="M36" s="159"/>
-      <c r="N36" s="159"/>
-      <c r="O36" s="159"/>
+      <c r="M36" s="162"/>
+      <c r="N36" s="162"/>
+      <c r="O36" s="162"/>
       <c r="P36" s="111"/>
       <c r="Q36" s="16"/>
       <c r="R36" s="16"/>
@@ -20293,7 +20486,7 @@
         <v>0.80694444444444446</v>
       </c>
       <c r="H37" s="39"/>
-      <c r="I37" s="157"/>
+      <c r="I37" s="160"/>
       <c r="J37" s="80" t="s">
         <v>197</v>
       </c>
@@ -20301,9 +20494,9 @@
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="L37" s="39"/>
-      <c r="M37" s="159"/>
-      <c r="N37" s="159"/>
-      <c r="O37" s="159"/>
+      <c r="M37" s="162"/>
+      <c r="N37" s="162"/>
+      <c r="O37" s="162"/>
       <c r="P37" s="111"/>
       <c r="Q37" s="16"/>
       <c r="R37" s="16"/>
@@ -20362,7 +20555,7 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="H38" s="39"/>
-      <c r="I38" s="158"/>
+      <c r="I38" s="161"/>
       <c r="J38" s="11" t="s">
         <v>203</v>
       </c>
@@ -20370,9 +20563,9 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="L38" s="39"/>
-      <c r="M38" s="159"/>
-      <c r="N38" s="159"/>
-      <c r="O38" s="159"/>
+      <c r="M38" s="162"/>
+      <c r="N38" s="162"/>
+      <c r="O38" s="162"/>
       <c r="P38" s="111"/>
       <c r="Q38" s="16"/>
       <c r="R38" s="16"/>
@@ -20419,7 +20612,7 @@
       <c r="F39" s="30"/>
       <c r="G39" s="61"/>
       <c r="H39" s="39"/>
-      <c r="I39" s="156" t="s">
+      <c r="I39" s="159" t="s">
         <v>210</v>
       </c>
       <c r="J39" s="116" t="s">
@@ -20429,9 +20622,9 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="L39" s="39"/>
-      <c r="M39" s="159"/>
-      <c r="N39" s="159"/>
-      <c r="O39" s="159"/>
+      <c r="M39" s="162"/>
+      <c r="N39" s="162"/>
+      <c r="O39" s="162"/>
       <c r="P39" s="124"/>
       <c r="Q39" s="16"/>
       <c r="R39" s="16"/>
@@ -20478,7 +20671,7 @@
       <c r="F40" s="39"/>
       <c r="G40" s="62"/>
       <c r="H40" s="39"/>
-      <c r="I40" s="157"/>
+      <c r="I40" s="160"/>
       <c r="J40" s="113" t="s">
         <v>211</v>
       </c>
@@ -20486,9 +20679,9 @@
         <v>0.3666666666666667</v>
       </c>
       <c r="L40" s="39"/>
-      <c r="M40" s="159"/>
-      <c r="N40" s="159"/>
-      <c r="O40" s="159"/>
+      <c r="M40" s="162"/>
+      <c r="N40" s="162"/>
+      <c r="O40" s="162"/>
       <c r="P40" s="124"/>
       <c r="Q40" s="16"/>
       <c r="R40" s="16"/>
@@ -20534,7 +20727,7 @@
       <c r="F41" s="30"/>
       <c r="G41" s="61"/>
       <c r="H41" s="39"/>
-      <c r="I41" s="157"/>
+      <c r="I41" s="160"/>
       <c r="J41" s="112" t="s">
         <v>180</v>
       </c>
@@ -20542,9 +20735,9 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="L41" s="39"/>
-      <c r="M41" s="159"/>
-      <c r="N41" s="159"/>
-      <c r="O41" s="159"/>
+      <c r="M41" s="162"/>
+      <c r="N41" s="162"/>
+      <c r="O41" s="162"/>
       <c r="P41" s="124"/>
       <c r="Q41" s="16"/>
       <c r="R41" s="16"/>
@@ -20591,7 +20784,7 @@
       <c r="F42" s="30"/>
       <c r="G42" s="61"/>
       <c r="H42" s="39"/>
-      <c r="I42" s="157"/>
+      <c r="I42" s="160"/>
       <c r="J42" s="114" t="s">
         <v>137</v>
       </c>
@@ -20648,7 +20841,7 @@
       <c r="F43" s="39"/>
       <c r="G43" s="62"/>
       <c r="H43" s="39"/>
-      <c r="I43" s="157"/>
+      <c r="I43" s="160"/>
       <c r="J43" s="112" t="s">
         <v>213</v>
       </c>
@@ -20705,7 +20898,7 @@
       <c r="F44" s="39"/>
       <c r="G44" s="62"/>
       <c r="H44" s="39"/>
-      <c r="I44" s="157"/>
+      <c r="I44" s="160"/>
       <c r="J44" s="113" t="s">
         <v>214</v>
       </c>
@@ -20762,7 +20955,7 @@
       <c r="F45" s="39"/>
       <c r="G45" s="62"/>
       <c r="H45" s="39"/>
-      <c r="I45" s="158"/>
+      <c r="I45" s="161"/>
       <c r="J45" s="115" t="s">
         <v>142</v>
       </c>
@@ -20819,7 +21012,7 @@
       <c r="F46" s="39"/>
       <c r="G46" s="62"/>
       <c r="H46" s="39"/>
-      <c r="I46" s="153" t="s">
+      <c r="I46" s="156" t="s">
         <v>218</v>
       </c>
       <c r="J46" s="119" t="s">
@@ -20878,7 +21071,7 @@
       <c r="F47" s="39"/>
       <c r="G47" s="62"/>
       <c r="H47" s="39"/>
-      <c r="I47" s="154"/>
+      <c r="I47" s="157"/>
       <c r="J47" s="80" t="s">
         <v>180</v>
       </c>
@@ -20935,7 +21128,7 @@
       <c r="F48" s="39"/>
       <c r="G48" s="62"/>
       <c r="H48" s="39"/>
-      <c r="I48" s="154"/>
+      <c r="I48" s="157"/>
       <c r="J48" s="101" t="s">
         <v>137</v>
       </c>
@@ -20992,7 +21185,7 @@
       <c r="F49" s="39"/>
       <c r="G49" s="62"/>
       <c r="H49" s="39"/>
-      <c r="I49" s="155"/>
+      <c r="I49" s="158"/>
       <c r="J49" s="120" t="s">
         <v>214</v>
       </c>
@@ -21049,7 +21242,7 @@
       <c r="F50" s="39"/>
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
-      <c r="I50" s="153" t="s">
+      <c r="I50" s="156" t="s">
         <v>233</v>
       </c>
       <c r="J50" s="121" t="s">
@@ -21108,7 +21301,7 @@
       <c r="F51" s="39"/>
       <c r="G51" s="39"/>
       <c r="H51" s="39"/>
-      <c r="I51" s="154"/>
+      <c r="I51" s="157"/>
       <c r="J51" s="122" t="s">
         <v>180</v>
       </c>
@@ -21165,7 +21358,7 @@
       <c r="F52" s="39"/>
       <c r="G52" s="39"/>
       <c r="H52" s="39"/>
-      <c r="I52" s="154"/>
+      <c r="I52" s="157"/>
       <c r="J52" s="114" t="s">
         <v>236</v>
       </c>
@@ -21222,7 +21415,7 @@
       <c r="F53" s="39"/>
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
-      <c r="I53" s="155"/>
+      <c r="I53" s="158"/>
       <c r="J53" s="115" t="s">
         <v>212</v>
       </c>
@@ -21279,7 +21472,7 @@
       <c r="F54" s="39"/>
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
-      <c r="I54" s="153" t="s">
+      <c r="I54" s="156" t="s">
         <v>244</v>
       </c>
       <c r="J54" s="121" t="s">
@@ -21338,7 +21531,7 @@
       <c r="F55" s="39"/>
       <c r="G55" s="39"/>
       <c r="H55" s="39"/>
-      <c r="I55" s="154"/>
+      <c r="I55" s="157"/>
       <c r="J55" s="122" t="s">
         <v>243</v>
       </c>
@@ -21395,7 +21588,7 @@
       <c r="F56" s="39"/>
       <c r="G56" s="39"/>
       <c r="H56" s="39"/>
-      <c r="I56" s="154"/>
+      <c r="I56" s="157"/>
       <c r="J56" s="114" t="s">
         <v>30</v>
       </c>
@@ -21452,7 +21645,7 @@
       <c r="F57" s="39"/>
       <c r="G57" s="39"/>
       <c r="H57" s="39"/>
-      <c r="I57" s="155"/>
+      <c r="I57" s="158"/>
       <c r="J57" s="115" t="s">
         <v>200</v>
       </c>
@@ -21509,7 +21702,7 @@
       <c r="F58" s="39"/>
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
-      <c r="I58" s="153" t="s">
+      <c r="I58" s="156" t="s">
         <v>247</v>
       </c>
       <c r="J58" s="121" t="s">
@@ -21568,7 +21761,7 @@
       <c r="F59" s="39"/>
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
-      <c r="I59" s="154"/>
+      <c r="I59" s="157"/>
       <c r="J59" s="122" t="s">
         <v>236</v>
       </c>
@@ -21625,7 +21818,7 @@
       <c r="F60" s="39"/>
       <c r="G60" s="39"/>
       <c r="H60" s="39"/>
-      <c r="I60" s="154"/>
+      <c r="I60" s="157"/>
       <c r="J60" s="114" t="s">
         <v>243</v>
       </c>
@@ -21682,7 +21875,7 @@
       <c r="F61" s="39"/>
       <c r="G61" s="39"/>
       <c r="H61" s="39"/>
-      <c r="I61" s="154"/>
+      <c r="I61" s="157"/>
       <c r="J61" s="122" t="s">
         <v>246</v>
       </c>
@@ -21739,7 +21932,7 @@
       <c r="F62" s="39"/>
       <c r="G62" s="39"/>
       <c r="H62" s="39"/>
-      <c r="I62" s="154"/>
+      <c r="I62" s="157"/>
       <c r="J62" s="114" t="s">
         <v>30</v>
       </c>
@@ -21796,7 +21989,7 @@
       <c r="F63" s="39"/>
       <c r="G63" s="39"/>
       <c r="H63" s="39"/>
-      <c r="I63" s="155"/>
+      <c r="I63" s="158"/>
       <c r="J63" s="115" t="s">
         <v>200</v>
       </c>
@@ -27484,7 +27677,7 @@
   <dimension ref="A1:V153"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -27554,15 +27747,15 @@
         <v>21</v>
       </c>
       <c r="H2" s="6"/>
-      <c r="I2" s="160" t="s">
+      <c r="I2" s="163" t="s">
         <v>285</v>
       </c>
-      <c r="J2" s="162"/>
+      <c r="J2" s="165"/>
       <c r="K2" s="136"/>
-      <c r="L2" s="162" t="s">
+      <c r="L2" s="165" t="s">
         <v>286</v>
       </c>
-      <c r="M2" s="161"/>
+      <c r="M2" s="164"/>
       <c r="N2" s="39"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
@@ -27841,15 +28034,15 @@
         <v>0.20416666666666669</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="160" t="s">
+      <c r="I9" s="163" t="s">
         <v>287</v>
       </c>
-      <c r="J9" s="162"/>
+      <c r="J9" s="165"/>
       <c r="K9" s="136"/>
-      <c r="L9" s="162" t="s">
+      <c r="L9" s="165" t="s">
         <v>288</v>
       </c>
-      <c r="M9" s="161"/>
+      <c r="M9" s="164"/>
       <c r="N9" s="39"/>
       <c r="O9" s="39"/>
       <c r="P9" s="39"/>
@@ -28041,15 +28234,15 @@
         <v>0.15208333333333332</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="160" t="s">
+      <c r="I14" s="163" t="s">
         <v>289</v>
       </c>
-      <c r="J14" s="161"/>
+      <c r="J14" s="164"/>
       <c r="K14" s="136"/>
-      <c r="L14" s="160" t="s">
+      <c r="L14" s="163" t="s">
         <v>290</v>
       </c>
-      <c r="M14" s="161"/>
+      <c r="M14" s="164"/>
       <c r="N14" s="39"/>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
@@ -28332,15 +28525,15 @@
         <v>0.35138888888888892</v>
       </c>
       <c r="H21" s="6"/>
-      <c r="I21" s="160" t="s">
+      <c r="I21" s="163" t="s">
         <v>291</v>
       </c>
-      <c r="J21" s="161"/>
+      <c r="J21" s="164"/>
       <c r="K21" s="136"/>
-      <c r="L21" s="160" t="s">
+      <c r="L21" s="163" t="s">
         <v>292</v>
       </c>
-      <c r="M21" s="161"/>
+      <c r="M21" s="164"/>
       <c r="N21" s="39"/>
       <c r="O21" s="89" t="s">
         <v>32</v>
@@ -28701,15 +28894,15 @@
         <v>0.11805555555555557</v>
       </c>
       <c r="H28" s="39"/>
-      <c r="I28" s="160" t="s">
+      <c r="I28" s="163" t="s">
         <v>293</v>
       </c>
-      <c r="J28" s="161"/>
+      <c r="J28" s="164"/>
       <c r="K28" s="136"/>
-      <c r="L28" s="160" t="s">
+      <c r="L28" s="163" t="s">
         <v>294</v>
       </c>
-      <c r="M28" s="161"/>
+      <c r="M28" s="164"/>
       <c r="N28" s="39"/>
       <c r="O28" s="93" t="s">
         <v>39</v>
@@ -29041,15 +29234,15 @@
       <c r="F35" s="30"/>
       <c r="G35" s="61"/>
       <c r="H35" s="39"/>
-      <c r="I35" s="160" t="s">
+      <c r="I35" s="163" t="s">
         <v>295</v>
       </c>
-      <c r="J35" s="161"/>
+      <c r="J35" s="164"/>
       <c r="K35" s="136"/>
-      <c r="L35" s="160" t="s">
+      <c r="L35" s="163" t="s">
         <v>296</v>
       </c>
-      <c r="M35" s="161"/>
+      <c r="M35" s="164"/>
       <c r="N35" s="39"/>
       <c r="O35" s="39"/>
       <c r="P35" s="39"/>
@@ -29083,9 +29276,9 @@
         <v>4.9305555555555554E-2</v>
       </c>
       <c r="N36" s="39"/>
-      <c r="O36" s="159"/>
-      <c r="P36" s="159"/>
-      <c r="Q36" s="159"/>
+      <c r="O36" s="162"/>
+      <c r="P36" s="162"/>
+      <c r="Q36" s="162"/>
       <c r="R36" s="111"/>
       <c r="S36" s="16"/>
       <c r="T36" s="16"/>
@@ -29115,9 +29308,9 @@
         <v>0.18472222222222223</v>
       </c>
       <c r="N37" s="39"/>
-      <c r="O37" s="159"/>
-      <c r="P37" s="159"/>
-      <c r="Q37" s="159"/>
+      <c r="O37" s="162"/>
+      <c r="P37" s="162"/>
+      <c r="Q37" s="162"/>
       <c r="R37" s="111"/>
       <c r="S37" s="16"/>
       <c r="T37" s="16"/>
@@ -29147,9 +29340,9 @@
         <v>0.21249999999999999</v>
       </c>
       <c r="N38" s="39"/>
-      <c r="O38" s="159"/>
-      <c r="P38" s="159"/>
-      <c r="Q38" s="159"/>
+      <c r="O38" s="162"/>
+      <c r="P38" s="162"/>
+      <c r="Q38" s="162"/>
       <c r="R38" s="111"/>
       <c r="S38" s="16"/>
       <c r="T38" s="16"/>
@@ -29179,9 +29372,9 @@
         <v>0.26527777777777778</v>
       </c>
       <c r="N39" s="39"/>
-      <c r="O39" s="159"/>
-      <c r="P39" s="159"/>
-      <c r="Q39" s="159"/>
+      <c r="O39" s="162"/>
+      <c r="P39" s="162"/>
+      <c r="Q39" s="162"/>
       <c r="R39" s="124"/>
       <c r="S39" s="16"/>
       <c r="T39" s="16"/>
@@ -29211,9 +29404,9 @@
         <v>0.75347222222222221</v>
       </c>
       <c r="N40" s="39"/>
-      <c r="O40" s="159"/>
-      <c r="P40" s="159"/>
-      <c r="Q40" s="159"/>
+      <c r="O40" s="162"/>
+      <c r="P40" s="162"/>
+      <c r="Q40" s="162"/>
       <c r="R40" s="124"/>
       <c r="S40" s="16"/>
       <c r="T40" s="16"/>
@@ -29238,9 +29431,9 @@
         <v>1.0513888888888889</v>
       </c>
       <c r="N41" s="39"/>
-      <c r="O41" s="159"/>
-      <c r="P41" s="159"/>
-      <c r="Q41" s="159"/>
+      <c r="O41" s="162"/>
+      <c r="P41" s="162"/>
+      <c r="Q41" s="162"/>
       <c r="R41" s="124"/>
       <c r="S41" s="16"/>
       <c r="T41" s="16"/>
@@ -32117,10 +32310,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2E69CA-387B-46EE-8AF5-1104FD3CA4B0}">
-  <dimension ref="A1:V153"/>
+  <dimension ref="A1:W153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32190,15 +32383,15 @@
         <v>21</v>
       </c>
       <c r="H2" s="6"/>
-      <c r="I2" s="160" t="s">
+      <c r="I2" s="163" t="s">
         <v>285</v>
       </c>
-      <c r="J2" s="162"/>
+      <c r="J2" s="165"/>
       <c r="K2" s="136"/>
-      <c r="L2" s="162" t="s">
+      <c r="L2" s="165" t="s">
         <v>286</v>
       </c>
-      <c r="M2" s="161"/>
+      <c r="M2" s="164"/>
       <c r="N2" s="39"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
@@ -32237,8 +32430,12 @@
         <v>0.24652777777777779</v>
       </c>
       <c r="K3" s="137"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="72"/>
+      <c r="L3" s="131" t="s">
+        <v>379</v>
+      </c>
+      <c r="M3" s="72">
+        <v>0.24305555555555555</v>
+      </c>
       <c r="N3" s="39"/>
       <c r="O3" s="39"/>
       <c r="P3" s="39"/>
@@ -32254,11 +32451,21 @@
       <c r="B4" s="78">
         <v>2</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="60"/>
+      <c r="C4" s="54" t="s">
+        <v>382</v>
+      </c>
+      <c r="D4" s="54">
+        <v>2001</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>380</v>
+      </c>
+      <c r="F4" s="69" t="s">
+        <v>381</v>
+      </c>
+      <c r="G4" s="60">
+        <v>0.25555555555555559</v>
+      </c>
       <c r="H4" s="6"/>
       <c r="I4" s="113" t="s">
         <v>371</v>
@@ -32267,8 +32474,12 @@
         <v>0.22361111111111109</v>
       </c>
       <c r="K4" s="137"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="60"/>
+      <c r="L4" s="101" t="s">
+        <v>378</v>
+      </c>
+      <c r="M4" s="60">
+        <v>1.1048611111111111</v>
+      </c>
       <c r="N4" s="39"/>
       <c r="O4" s="39"/>
       <c r="P4" s="39"/>
@@ -32284,11 +32495,21 @@
       <c r="B5" s="70">
         <v>3</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
+      <c r="C5" s="73" t="s">
+        <v>383</v>
+      </c>
+      <c r="D5" s="73">
+        <v>2018</v>
+      </c>
+      <c r="E5" s="74" t="s">
+        <v>384</v>
+      </c>
+      <c r="F5" s="74" t="s">
+        <v>385</v>
+      </c>
+      <c r="G5" s="75">
+        <v>0.5708333333333333</v>
+      </c>
       <c r="H5" s="6"/>
       <c r="I5" s="135" t="s">
         <v>376</v>
@@ -32297,8 +32518,12 @@
         <v>0.1875</v>
       </c>
       <c r="K5" s="137"/>
-      <c r="L5" s="135"/>
-      <c r="M5" s="77"/>
+      <c r="L5" s="112" t="s">
+        <v>214</v>
+      </c>
+      <c r="M5" s="75">
+        <v>9.9999999999999992E-2</v>
+      </c>
       <c r="N5" s="39"/>
       <c r="O5" s="39"/>
       <c r="P5" s="39"/>
@@ -32314,12 +32539,28 @@
       <c r="B6" s="78">
         <v>4</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="60"/>
+      <c r="C6" s="54" t="s">
+        <v>410</v>
+      </c>
+      <c r="D6" s="54">
+        <v>2023</v>
+      </c>
+      <c r="E6" s="69" t="s">
+        <v>388</v>
+      </c>
+      <c r="F6" s="69" t="s">
+        <v>389</v>
+      </c>
+      <c r="G6" s="60">
+        <v>0.71388888888888891</v>
+      </c>
       <c r="H6" s="6"/>
+      <c r="L6" s="114" t="s">
+        <v>371</v>
+      </c>
+      <c r="M6" s="60">
+        <v>2.9861111111111113E-2</v>
+      </c>
       <c r="N6" s="39"/>
       <c r="O6" s="39"/>
       <c r="P6" s="39"/>
@@ -32335,21 +32576,28 @@
       <c r="B7" s="70">
         <v>5</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="75"/>
+      <c r="C7" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="D7" s="73">
+        <v>2020</v>
+      </c>
+      <c r="E7" s="74" t="s">
+        <v>392</v>
+      </c>
+      <c r="F7" s="74" t="s">
+        <v>403</v>
+      </c>
+      <c r="G7" s="75">
+        <v>0.80555555555555547</v>
+      </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="160" t="s">
-        <v>287</v>
-      </c>
-      <c r="J7" s="161"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="160" t="s">
-        <v>288</v>
-      </c>
-      <c r="M7" s="161"/>
+      <c r="L7" s="112" t="s">
+        <v>345</v>
+      </c>
+      <c r="M7" s="75">
+        <v>0.13125000000000001</v>
+      </c>
       <c r="N7" s="39"/>
       <c r="O7" s="39"/>
       <c r="P7" s="39"/>
@@ -32365,17 +32613,28 @@
       <c r="B8" s="78">
         <v>6</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="60"/>
+      <c r="C8" s="54" t="s">
+        <v>394</v>
+      </c>
+      <c r="D8" s="54">
+        <v>2021</v>
+      </c>
+      <c r="E8" s="69" t="s">
+        <v>395</v>
+      </c>
+      <c r="F8" s="69" t="s">
+        <v>395</v>
+      </c>
+      <c r="G8" s="60">
+        <v>8.5416666666666655E-2</v>
+      </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="132"/>
-      <c r="K8" s="137"/>
-      <c r="L8" s="131"/>
-      <c r="M8" s="72"/>
+      <c r="L8" s="143" t="s">
+        <v>363</v>
+      </c>
+      <c r="M8" s="102">
+        <v>0.53819444444444442</v>
+      </c>
       <c r="N8" s="39"/>
       <c r="O8" s="39"/>
       <c r="P8" s="39"/>
@@ -32391,17 +32650,22 @@
       <c r="B9" s="70">
         <v>7</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="75"/>
+      <c r="C9" s="73" t="s">
+        <v>396</v>
+      </c>
+      <c r="D9" s="73">
+        <v>2020</v>
+      </c>
+      <c r="E9" s="74" t="s">
+        <v>397</v>
+      </c>
+      <c r="F9" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="G9" s="75">
+        <v>0.15972222222222224</v>
+      </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="137"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="60"/>
       <c r="N9" s="39"/>
       <c r="O9" s="39"/>
       <c r="P9" s="39"/>
@@ -32417,17 +32681,31 @@
       <c r="B10" s="78">
         <v>8</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="60"/>
+      <c r="C10" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="D10" s="54">
+        <v>2020</v>
+      </c>
+      <c r="E10" s="69" t="s">
+        <v>397</v>
+      </c>
+      <c r="F10" s="69" t="s">
+        <v>398</v>
+      </c>
+      <c r="G10" s="60">
+        <v>1.1847222222222222</v>
+      </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="132"/>
-      <c r="K10" s="137"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="75"/>
+      <c r="I10" s="163" t="s">
+        <v>287</v>
+      </c>
+      <c r="J10" s="164"/>
+      <c r="K10" s="136"/>
+      <c r="L10" s="163" t="s">
+        <v>288</v>
+      </c>
+      <c r="M10" s="164"/>
       <c r="N10" s="39"/>
       <c r="O10" s="39"/>
       <c r="P10" s="39"/>
@@ -32443,17 +32721,33 @@
       <c r="B11" s="70">
         <v>9</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="75"/>
+      <c r="C11" s="73" t="s">
+        <v>399</v>
+      </c>
+      <c r="D11" s="73">
+        <v>2020</v>
+      </c>
+      <c r="E11" s="74" t="s">
+        <v>398</v>
+      </c>
+      <c r="F11" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="75" t="s">
+        <v>14</v>
+      </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="138"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="138"/>
-      <c r="M11" s="138"/>
+      <c r="I11" s="122" t="s">
+        <v>137</v>
+      </c>
+      <c r="J11" s="132">
+        <v>4.7222222222222221E-2</v>
+      </c>
+      <c r="K11" s="137"/>
+      <c r="L11" s="131" t="s">
+        <v>137</v>
+      </c>
+      <c r="M11" s="72"/>
       <c r="N11" s="39"/>
       <c r="O11" s="39"/>
       <c r="P11" s="39"/>
@@ -32469,21 +32763,33 @@
       <c r="B12" s="78">
         <v>10</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="60"/>
+      <c r="C12" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="D12" s="54">
+        <v>2018</v>
+      </c>
+      <c r="E12" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="69" t="s">
+        <v>402</v>
+      </c>
+      <c r="G12" s="60">
+        <v>0.30138888888888887</v>
+      </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="160" t="s">
-        <v>289</v>
-      </c>
-      <c r="J12" s="161"/>
-      <c r="K12" s="136"/>
-      <c r="L12" s="160" t="s">
-        <v>290</v>
-      </c>
-      <c r="M12" s="161"/>
+      <c r="I12" s="113" t="s">
+        <v>387</v>
+      </c>
+      <c r="J12" s="133">
+        <v>8.819444444444445E-2</v>
+      </c>
+      <c r="K12" s="137"/>
+      <c r="L12" s="101" t="s">
+        <v>203</v>
+      </c>
+      <c r="M12" s="60"/>
       <c r="N12" s="39"/>
       <c r="O12" s="39"/>
       <c r="P12" s="39"/>
@@ -32496,18 +32802,34 @@
     </row>
     <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="39"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="138"/>
+      <c r="B13" s="70">
+        <v>11</v>
+      </c>
+      <c r="C13" s="73" t="s">
+        <v>405</v>
+      </c>
+      <c r="D13" s="73">
+        <v>1997</v>
+      </c>
+      <c r="E13" s="74" t="s">
+        <v>406</v>
+      </c>
+      <c r="F13" s="74" t="s">
+        <v>408</v>
+      </c>
+      <c r="G13" s="75">
+        <v>0.64166666666666672</v>
+      </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="132"/>
+      <c r="I13" s="112" t="s">
+        <v>363</v>
+      </c>
+      <c r="J13" s="132">
+        <v>0.32291666666666669</v>
+      </c>
       <c r="K13" s="137"/>
-      <c r="L13" s="131"/>
-      <c r="M13" s="72"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="75"/>
       <c r="N13" s="39"/>
       <c r="O13" s="39"/>
       <c r="P13" s="39"/>
@@ -32520,18 +32842,34 @@
     </row>
     <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="39"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="61"/>
+      <c r="B14" s="78">
+        <v>12</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>407</v>
+      </c>
+      <c r="D14" s="54">
+        <v>1993</v>
+      </c>
+      <c r="E14" s="69" t="s">
+        <v>408</v>
+      </c>
+      <c r="F14" s="69" t="s">
+        <v>408</v>
+      </c>
+      <c r="G14" s="60">
+        <v>0.21319444444444444</v>
+      </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="137"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="60"/>
+      <c r="I14" s="113" t="s">
+        <v>203</v>
+      </c>
+      <c r="J14" s="60">
+        <v>0.16180555555555556</v>
+      </c>
+      <c r="K14" s="61"/>
+      <c r="L14" s="138"/>
+      <c r="M14" s="138"/>
       <c r="N14" s="39"/>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
@@ -32544,18 +32882,31 @@
     </row>
     <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="39"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="61"/>
+      <c r="B15" s="70">
+        <v>13</v>
+      </c>
+      <c r="C15" s="73" t="s">
+        <v>411</v>
+      </c>
+      <c r="D15" s="73">
+        <v>2016</v>
+      </c>
+      <c r="E15" s="74" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="75" t="s">
+        <v>14</v>
+      </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="137"/>
-      <c r="L15" s="135"/>
-      <c r="M15" s="77"/>
+      <c r="I15" s="135" t="s">
+        <v>393</v>
+      </c>
+      <c r="J15" s="77">
+        <v>3.3333333333333333E-2</v>
+      </c>
       <c r="N15" s="39"/>
       <c r="O15" s="39"/>
       <c r="P15" s="39"/>
@@ -32568,12 +32919,14 @@
     </row>
     <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="61"/>
+      <c r="B16" s="78">
+        <v>14</v>
+      </c>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="60"/>
       <c r="H16" s="6"/>
       <c r="N16" s="39"/>
       <c r="O16" s="39"/>
@@ -32585,24 +32938,26 @@
       <c r="U16" s="6"/>
       <c r="V16" s="39"/>
     </row>
-    <row r="17" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="39"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="61"/>
+      <c r="B17" s="70">
+        <v>15</v>
+      </c>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="75"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="160" t="s">
-        <v>291</v>
-      </c>
-      <c r="J17" s="161"/>
+      <c r="I17" s="163" t="s">
+        <v>289</v>
+      </c>
+      <c r="J17" s="164"/>
       <c r="K17" s="136"/>
-      <c r="L17" s="160" t="s">
-        <v>292</v>
-      </c>
-      <c r="M17" s="161"/>
+      <c r="L17" s="163" t="s">
+        <v>290</v>
+      </c>
+      <c r="M17" s="164"/>
       <c r="N17" s="39"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
@@ -32613,14 +32968,16 @@
       <c r="U17" s="6"/>
       <c r="V17" s="39"/>
     </row>
-    <row r="18" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="39"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="61"/>
+      <c r="B18" s="78">
+        <v>16</v>
+      </c>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="60"/>
       <c r="H18" s="6"/>
       <c r="I18" s="122"/>
       <c r="J18" s="132"/>
@@ -32637,14 +32994,16 @@
       <c r="U18" s="6"/>
       <c r="V18" s="39"/>
     </row>
-    <row r="19" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="39"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="61"/>
+      <c r="B19" s="70">
+        <v>17</v>
+      </c>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="75"/>
       <c r="H19" s="6"/>
       <c r="I19" s="113"/>
       <c r="J19" s="133"/>
@@ -32661,14 +33020,16 @@
       <c r="U19" s="6"/>
       <c r="V19" s="39"/>
     </row>
-    <row r="20" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="39"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="61"/>
+      <c r="B20" s="78">
+        <v>18</v>
+      </c>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="60"/>
       <c r="H20" s="6"/>
       <c r="I20" s="135"/>
       <c r="J20" s="77"/>
@@ -32685,14 +33046,16 @@
       <c r="U20" s="6"/>
       <c r="V20" s="39"/>
     </row>
-    <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="39"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="61"/>
+      <c r="B21" s="70">
+        <v>19</v>
+      </c>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="75"/>
       <c r="H21" s="6"/>
       <c r="N21" s="39"/>
       <c r="O21" s="89" t="s">
@@ -32714,24 +33077,26 @@
       <c r="U21" s="39"/>
       <c r="V21" s="39"/>
     </row>
-    <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="39"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="61"/>
+      <c r="B22" s="123">
+        <v>20</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="102"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="160" t="s">
-        <v>293</v>
-      </c>
-      <c r="J22" s="161"/>
+      <c r="I22" s="163" t="s">
+        <v>291</v>
+      </c>
+      <c r="J22" s="164"/>
       <c r="K22" s="136"/>
-      <c r="L22" s="160" t="s">
-        <v>294</v>
-      </c>
-      <c r="M22" s="161"/>
+      <c r="L22" s="163" t="s">
+        <v>292</v>
+      </c>
+      <c r="M22" s="164"/>
       <c r="N22" s="39"/>
       <c r="O22" s="63" t="s">
         <v>33</v>
@@ -32752,9 +33117,10 @@
         <v>377</v>
       </c>
       <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
-    </row>
-    <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V22" s="111"/>
+      <c r="W22" s="144"/>
+    </row>
+    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="39"/>
       <c r="B23" s="7"/>
       <c r="C23" s="6"/>
@@ -32766,24 +33132,33 @@
       <c r="I23" s="122"/>
       <c r="J23" s="132"/>
       <c r="K23" s="137"/>
-      <c r="L23" s="141"/>
+      <c r="L23" s="131"/>
       <c r="M23" s="72"/>
       <c r="N23" s="39"/>
       <c r="O23" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="64"/>
+      <c r="P23" s="64">
+        <f>SUM(G4:G5)</f>
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="Q23" s="64">
+        <f>SUM(M3:M8)</f>
+        <v>2.1472222222222221</v>
+      </c>
       <c r="R23" s="90">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.973611111111111</v>
       </c>
       <c r="S23" s="39"/>
-      <c r="T23" s="98"/>
+      <c r="T23" s="105" t="s">
+        <v>386</v>
+      </c>
       <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
-    </row>
-    <row r="24" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V23" s="111"/>
+      <c r="W23" s="144"/>
+    </row>
+    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="39"/>
       <c r="B24" s="7"/>
       <c r="C24" s="6"/>
@@ -32794,25 +33169,34 @@
       <c r="H24" s="39"/>
       <c r="I24" s="113"/>
       <c r="J24" s="133"/>
-      <c r="K24" s="140"/>
-      <c r="L24" s="142"/>
+      <c r="K24" s="137"/>
+      <c r="L24" s="101"/>
       <c r="M24" s="60"/>
       <c r="N24" s="39"/>
       <c r="O24" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="P24" s="81"/>
-      <c r="Q24" s="81"/>
+      <c r="P24" s="81">
+        <f>SUM(G6:G10,G12,V25)</f>
+        <v>3.4152777777777779</v>
+      </c>
+      <c r="Q24" s="81">
+        <f>SUM(J11:J15)</f>
+        <v>0.65347222222222223</v>
+      </c>
       <c r="R24" s="97">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.0687499999999996</v>
       </c>
       <c r="S24" s="39"/>
-      <c r="T24" s="99"/>
+      <c r="T24" s="100" t="s">
+        <v>390</v>
+      </c>
       <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
-    </row>
-    <row r="25" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V24" s="111"/>
+      <c r="W24" s="144"/>
+    </row>
+    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="39"/>
       <c r="B25" s="7"/>
       <c r="C25" s="6"/>
@@ -32824,7 +33208,7 @@
       <c r="I25" s="135"/>
       <c r="J25" s="77"/>
       <c r="K25" s="137"/>
-      <c r="L25" s="115"/>
+      <c r="L25" s="135"/>
       <c r="M25" s="77"/>
       <c r="N25" s="39"/>
       <c r="O25" s="94" t="s">
@@ -32837,11 +33221,16 @@
         <v>0</v>
       </c>
       <c r="S25" s="39"/>
-      <c r="T25" s="98"/>
+      <c r="T25" s="105" t="s">
+        <v>404</v>
+      </c>
       <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
-    </row>
-    <row r="26" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V25" s="145">
+        <v>0.16458333333333333</v>
+      </c>
+      <c r="W25" s="144"/>
+    </row>
+    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39"/>
       <c r="B26" s="7"/>
       <c r="C26" s="6"/>
@@ -32861,11 +33250,14 @@
         <v>0</v>
       </c>
       <c r="S26" s="39"/>
-      <c r="T26" s="99"/>
+      <c r="T26" s="100" t="s">
+        <v>409</v>
+      </c>
       <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
-    </row>
-    <row r="27" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V26" s="111"/>
+      <c r="W26" s="144"/>
+    </row>
+    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39"/>
       <c r="B27" s="7"/>
       <c r="C27" s="6"/>
@@ -32874,15 +33266,15 @@
       <c r="F27" s="30"/>
       <c r="G27" s="61"/>
       <c r="H27" s="39"/>
-      <c r="I27" s="160" t="s">
-        <v>295</v>
-      </c>
-      <c r="J27" s="161"/>
+      <c r="I27" s="163" t="s">
+        <v>293</v>
+      </c>
+      <c r="J27" s="164"/>
       <c r="K27" s="136"/>
-      <c r="L27" s="160" t="s">
-        <v>296</v>
-      </c>
-      <c r="M27" s="161"/>
+      <c r="L27" s="163" t="s">
+        <v>294</v>
+      </c>
+      <c r="M27" s="164"/>
       <c r="N27" s="39"/>
       <c r="O27" s="94" t="s">
         <v>38</v>
@@ -32896,9 +33288,10 @@
       <c r="S27" s="39"/>
       <c r="T27" s="98"/>
       <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
-    </row>
-    <row r="28" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V27" s="111"/>
+      <c r="W27" s="144"/>
+    </row>
+    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
       <c r="B28" s="7"/>
       <c r="C28" s="6"/>
@@ -32910,7 +33303,7 @@
       <c r="I28" s="122"/>
       <c r="J28" s="132"/>
       <c r="K28" s="137"/>
-      <c r="L28" s="131"/>
+      <c r="L28" s="141"/>
       <c r="M28" s="72"/>
       <c r="N28" s="39"/>
       <c r="O28" s="93" t="s">
@@ -32925,9 +33318,10 @@
       <c r="S28" s="39"/>
       <c r="T28" s="100"/>
       <c r="U28" s="39"/>
-      <c r="V28" s="39"/>
-    </row>
-    <row r="29" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V28" s="111"/>
+      <c r="W28" s="144"/>
+    </row>
+    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39"/>
       <c r="B29" s="7"/>
       <c r="C29" s="6"/>
@@ -32938,8 +33332,8 @@
       <c r="H29" s="39"/>
       <c r="I29" s="113"/>
       <c r="J29" s="133"/>
-      <c r="K29" s="137"/>
-      <c r="L29" s="101"/>
+      <c r="K29" s="140"/>
+      <c r="L29" s="142"/>
       <c r="M29" s="60"/>
       <c r="N29" s="39"/>
       <c r="O29" s="94" t="s">
@@ -32954,9 +33348,10 @@
       <c r="S29" s="39"/>
       <c r="T29" s="98"/>
       <c r="U29" s="39"/>
-      <c r="V29" s="39"/>
-    </row>
-    <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V29" s="111"/>
+      <c r="W29" s="144"/>
+    </row>
+    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="39"/>
       <c r="B30" s="7"/>
       <c r="C30" s="6"/>
@@ -32965,11 +33360,11 @@
       <c r="F30" s="30"/>
       <c r="G30" s="61"/>
       <c r="H30" s="39"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="132"/>
+      <c r="I30" s="135"/>
+      <c r="J30" s="77"/>
       <c r="K30" s="137"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="75"/>
+      <c r="L30" s="115"/>
+      <c r="M30" s="77"/>
       <c r="N30" s="39"/>
       <c r="O30" s="93" t="s">
         <v>41</v>
@@ -32983,9 +33378,10 @@
       <c r="S30" s="39"/>
       <c r="T30" s="100"/>
       <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
-    </row>
-    <row r="31" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V30" s="111"/>
+      <c r="W30" s="144"/>
+    </row>
+    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="39"/>
       <c r="B31" s="7"/>
       <c r="C31" s="6"/>
@@ -32994,11 +33390,6 @@
       <c r="F31" s="30"/>
       <c r="G31" s="61"/>
       <c r="H31" s="39"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="138"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="138"/>
       <c r="N31" s="39"/>
       <c r="O31" s="94" t="s">
         <v>42</v>
@@ -33012,9 +33403,10 @@
       <c r="S31" s="39"/>
       <c r="T31" s="98"/>
       <c r="U31" s="39"/>
-      <c r="V31" s="39"/>
-    </row>
-    <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V31" s="111"/>
+      <c r="W31" s="144"/>
+    </row>
+    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="39"/>
       <c r="B32" s="7"/>
       <c r="C32" s="6"/>
@@ -33023,11 +33415,15 @@
       <c r="F32" s="30"/>
       <c r="G32" s="61"/>
       <c r="H32" s="39"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
+      <c r="I32" s="163" t="s">
+        <v>295</v>
+      </c>
+      <c r="J32" s="164"/>
+      <c r="K32" s="136"/>
+      <c r="L32" s="163" t="s">
+        <v>296</v>
+      </c>
+      <c r="M32" s="164"/>
       <c r="N32" s="39"/>
       <c r="O32" s="93" t="s">
         <v>43</v>
@@ -33041,9 +33437,10 @@
       <c r="S32" s="39"/>
       <c r="T32" s="99"/>
       <c r="U32" s="39"/>
-      <c r="V32" s="39"/>
-    </row>
-    <row r="33" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V32" s="111"/>
+      <c r="W32" s="144"/>
+    </row>
+    <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
       <c r="B33" s="7"/>
       <c r="C33" s="6"/>
@@ -33052,10 +33449,11 @@
       <c r="F33" s="30"/>
       <c r="G33" s="61"/>
       <c r="H33" s="39"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="61"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="61"/>
+      <c r="I33" s="122"/>
+      <c r="J33" s="132"/>
+      <c r="K33" s="137"/>
+      <c r="L33" s="131"/>
+      <c r="M33" s="72"/>
       <c r="N33" s="39"/>
       <c r="O33" s="94" t="s">
         <v>44</v>
@@ -33071,9 +33469,10 @@
       </c>
       <c r="T33" s="128"/>
       <c r="U33" s="39"/>
-      <c r="V33" s="39"/>
-    </row>
-    <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V33" s="111"/>
+      <c r="W33" s="144"/>
+    </row>
+    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="7"/>
       <c r="C34" s="6"/>
@@ -33082,28 +33481,33 @@
       <c r="F34" s="30"/>
       <c r="G34" s="61"/>
       <c r="H34" s="39"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="133"/>
+      <c r="K34" s="137"/>
+      <c r="L34" s="101"/>
+      <c r="M34" s="60"/>
       <c r="N34" s="39"/>
       <c r="O34" s="125" t="s">
         <v>78</v>
       </c>
       <c r="P34" s="126">
         <f t="shared" ref="P34" si="1">SUM(P22:P33)</f>
-        <v>0.18055555555555555</v>
+        <v>4.4222222222222225</v>
       </c>
       <c r="Q34" s="126">
         <f>SUM(Q22:Q33)</f>
-        <v>0.65763888888888888</v>
+        <v>3.4583333333333335</v>
       </c>
       <c r="R34" s="127">
         <f>SUM(R22:R33)</f>
-        <v>0.83819444444444446</v>
+        <v>7.8805555555555546</v>
       </c>
       <c r="S34" s="39"/>
       <c r="T34" s="39"/>
       <c r="U34" s="39"/>
       <c r="V34" s="39"/>
     </row>
-    <row r="35" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="7"/>
       <c r="C35" s="6"/>
@@ -33112,6 +33516,11 @@
       <c r="F35" s="30"/>
       <c r="G35" s="61"/>
       <c r="H35" s="39"/>
+      <c r="I35" s="135"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="137"/>
+      <c r="L35" s="135"/>
+      <c r="M35" s="77"/>
       <c r="N35" s="39"/>
       <c r="O35" s="39"/>
       <c r="P35" s="39"/>
@@ -33122,7 +33531,7 @@
       <c r="U35" s="39"/>
       <c r="V35" s="39"/>
     </row>
-    <row r="36" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="39"/>
       <c r="B36" s="7"/>
       <c r="C36" s="6"/>
@@ -33132,16 +33541,16 @@
       <c r="G36" s="61"/>
       <c r="H36" s="39"/>
       <c r="N36" s="39"/>
-      <c r="O36" s="159"/>
-      <c r="P36" s="159"/>
-      <c r="Q36" s="159"/>
+      <c r="O36" s="162"/>
+      <c r="P36" s="162"/>
+      <c r="Q36" s="162"/>
       <c r="R36" s="111"/>
       <c r="S36" s="16"/>
       <c r="T36" s="16"/>
       <c r="U36" s="39"/>
       <c r="V36" s="39"/>
     </row>
-    <row r="37" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
       <c r="B37" s="7"/>
       <c r="C37" s="6"/>
@@ -33151,16 +33560,16 @@
       <c r="G37" s="61"/>
       <c r="H37" s="39"/>
       <c r="N37" s="39"/>
-      <c r="O37" s="159"/>
-      <c r="P37" s="159"/>
-      <c r="Q37" s="159"/>
+      <c r="O37" s="162"/>
+      <c r="P37" s="162"/>
+      <c r="Q37" s="162"/>
       <c r="R37" s="111"/>
       <c r="S37" s="16"/>
       <c r="T37" s="16"/>
       <c r="U37" s="39"/>
       <c r="V37" s="39"/>
     </row>
-    <row r="38" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="39"/>
       <c r="B38" s="7"/>
       <c r="C38" s="6"/>
@@ -33170,16 +33579,16 @@
       <c r="G38" s="61"/>
       <c r="H38" s="39"/>
       <c r="N38" s="39"/>
-      <c r="O38" s="159"/>
-      <c r="P38" s="159"/>
-      <c r="Q38" s="159"/>
+      <c r="O38" s="162"/>
+      <c r="P38" s="162"/>
+      <c r="Q38" s="162"/>
       <c r="R38" s="111"/>
       <c r="S38" s="16"/>
       <c r="T38" s="16"/>
       <c r="U38" s="39"/>
       <c r="V38" s="39"/>
     </row>
-    <row r="39" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="39"/>
       <c r="B39" s="7"/>
       <c r="C39" s="6"/>
@@ -33189,16 +33598,16 @@
       <c r="G39" s="61"/>
       <c r="H39" s="39"/>
       <c r="N39" s="39"/>
-      <c r="O39" s="159"/>
-      <c r="P39" s="159"/>
-      <c r="Q39" s="159"/>
+      <c r="O39" s="162"/>
+      <c r="P39" s="162"/>
+      <c r="Q39" s="162"/>
       <c r="R39" s="124"/>
       <c r="S39" s="16"/>
       <c r="T39" s="16"/>
       <c r="U39" s="39"/>
       <c r="V39" s="39"/>
     </row>
-    <row r="40" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="39"/>
       <c r="B40" s="7"/>
       <c r="C40" s="39"/>
@@ -33208,16 +33617,16 @@
       <c r="G40" s="62"/>
       <c r="H40" s="39"/>
       <c r="N40" s="39"/>
-      <c r="O40" s="159"/>
-      <c r="P40" s="159"/>
-      <c r="Q40" s="159"/>
+      <c r="O40" s="162"/>
+      <c r="P40" s="162"/>
+      <c r="Q40" s="162"/>
       <c r="R40" s="124"/>
       <c r="S40" s="16"/>
       <c r="T40" s="16"/>
       <c r="U40" s="39"/>
       <c r="V40" s="39"/>
     </row>
-    <row r="41" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="39"/>
       <c r="B41" s="7"/>
       <c r="C41" s="6"/>
@@ -33227,16 +33636,16 @@
       <c r="G41" s="61"/>
       <c r="H41" s="39"/>
       <c r="N41" s="39"/>
-      <c r="O41" s="159"/>
-      <c r="P41" s="159"/>
-      <c r="Q41" s="159"/>
+      <c r="O41" s="162"/>
+      <c r="P41" s="162"/>
+      <c r="Q41" s="162"/>
       <c r="R41" s="124"/>
       <c r="S41" s="16"/>
       <c r="T41" s="16"/>
       <c r="U41" s="39"/>
       <c r="V41" s="39"/>
     </row>
-    <row r="42" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="39"/>
       <c r="B42" s="7"/>
       <c r="C42" s="6"/>
@@ -33255,7 +33664,7 @@
       <c r="U42" s="39"/>
       <c r="V42" s="39"/>
     </row>
-    <row r="43" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="39"/>
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
@@ -33279,7 +33688,7 @@
       <c r="U43" s="39"/>
       <c r="V43" s="39"/>
     </row>
-    <row r="44" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="39"/>
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
@@ -33303,7 +33712,7 @@
       <c r="U44" s="39"/>
       <c r="V44" s="39"/>
     </row>
-    <row r="45" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="39"/>
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
@@ -33327,7 +33736,7 @@
       <c r="U45" s="39"/>
       <c r="V45" s="39"/>
     </row>
-    <row r="46" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="39"/>
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
@@ -33351,7 +33760,7 @@
       <c r="U46" s="39"/>
       <c r="V46" s="39"/>
     </row>
-    <row r="47" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="39"/>
       <c r="B47" s="39"/>
       <c r="C47" s="39"/>
@@ -33375,7 +33784,7 @@
       <c r="U47" s="39"/>
       <c r="V47" s="39"/>
     </row>
-    <row r="48" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="39"/>
       <c r="B48" s="39"/>
       <c r="C48" s="39"/>
@@ -35156,7 +35565,7 @@
       </c>
       <c r="Q121" s="57">
         <f>COUNTIF(D3:D59,P121)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R121" s="39"/>
       <c r="S121" s="39"/>
@@ -35185,7 +35594,7 @@
       </c>
       <c r="Q122" s="46">
         <f>COUNTIF(D3:D59,P122)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R122" s="39"/>
       <c r="S122" s="39"/>
@@ -35243,7 +35652,7 @@
       </c>
       <c r="Q124" s="46">
         <f>COUNTIF(D3:D59,P124)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R124" s="39"/>
       <c r="S124" s="39"/>
@@ -35301,7 +35710,7 @@
       </c>
       <c r="Q126" s="46">
         <f>COUNTIF(D3:D59,P126)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R126" s="39"/>
       <c r="S126" s="39"/>
@@ -35736,7 +36145,7 @@
       </c>
       <c r="Q141" s="46">
         <f>COUNTIF(D3:D59,P141)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R141" s="39"/>
       <c r="S141" s="39"/>
@@ -35852,7 +36261,7 @@
       </c>
       <c r="Q145" s="46">
         <f>COUNTIF(D3:D45,P145)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R145" s="39"/>
       <c r="S145" s="39"/>
@@ -35939,7 +36348,7 @@
       </c>
       <c r="Q148" s="42">
         <f>SUM(Q121:Q147)</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R148" s="39"/>
       <c r="S148" s="39"/>
@@ -36069,31 +36478,35 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L10:M10"/>
     <mergeCell ref="L17:M17"/>
-    <mergeCell ref="I17:J17"/>
     <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="L22:M22"/>
     <mergeCell ref="O36:Q36"/>
     <mergeCell ref="O37:Q37"/>
     <mergeCell ref="O38:Q38"/>
     <mergeCell ref="O39:Q39"/>
     <mergeCell ref="O40:Q40"/>
   </mergeCells>
+  <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I116" r:id="rId1" xr:uid="{AF214621-6DBE-4A60-B95B-7446F146F284}"/>
     <hyperlink ref="I117" r:id="rId2" xr:uid="{8D93375C-E9A2-46CE-BA33-5DD53AE76369}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <ignoredErrors>
+    <ignoredError sqref="P23:P24" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/spreadsheets/Games.xlsx
+++ b/spreadsheets/Games.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ucer0.github.io\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181F2CB6-4278-4880-8344-89BAA27937C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC130CC1-536E-4481-9390-1BF75130BA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="486">
   <si>
     <t>Nier: Automata</t>
   </si>
@@ -3001,9 +3001,6 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
@@ -3022,7 +3019,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3033,6 +3030,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -20706,7 +20706,7 @@
         <v>4.197916666666667</v>
       </c>
       <c r="I3" s="6"/>
-      <c r="J3" s="177" t="s">
+      <c r="J3" s="176" t="s">
         <v>118</v>
       </c>
       <c r="K3" s="80" t="s">
@@ -20780,7 +20780,7 @@
         <v>0.30138888888888887</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="178"/>
+      <c r="J4" s="177"/>
       <c r="K4" s="54" t="s">
         <v>127</v>
       </c>
@@ -20852,7 +20852,7 @@
         <v>0.2076388888888889</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="178"/>
+      <c r="J5" s="177"/>
       <c r="K5" s="73" t="s">
         <v>132</v>
       </c>
@@ -20924,7 +20924,7 @@
         <v>1.2437499999999999</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="178"/>
+      <c r="J6" s="177"/>
       <c r="K6" s="54" t="s">
         <v>129</v>
       </c>
@@ -20996,7 +20996,7 @@
         <v>0.27916666666666667</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="178"/>
+      <c r="J7" s="177"/>
       <c r="K7" s="73" t="s">
         <v>136</v>
       </c>
@@ -21068,7 +21068,7 @@
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="178"/>
+      <c r="J8" s="177"/>
       <c r="K8" s="54" t="s">
         <v>137</v>
       </c>
@@ -21140,7 +21140,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="177" t="s">
+      <c r="J9" s="176" t="s">
         <v>119</v>
       </c>
       <c r="K9" s="71" t="s">
@@ -21214,7 +21214,7 @@
         <v>0.19027777777777777</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="178"/>
+      <c r="J10" s="177"/>
       <c r="K10" s="54" t="s">
         <v>127</v>
       </c>
@@ -21286,7 +21286,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="178"/>
+      <c r="J11" s="177"/>
       <c r="K11" s="73" t="s">
         <v>132</v>
       </c>
@@ -21358,7 +21358,7 @@
         <v>1.7097222222222221</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="178"/>
+      <c r="J12" s="177"/>
       <c r="K12" s="54" t="s">
         <v>129</v>
       </c>
@@ -21430,7 +21430,7 @@
         <v>0.15972222222222224</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="178"/>
+      <c r="J13" s="177"/>
       <c r="K13" s="73" t="s">
         <v>141</v>
       </c>
@@ -21502,7 +21502,7 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="177" t="s">
+      <c r="J14" s="176" t="s">
         <v>120</v>
       </c>
       <c r="K14" s="10" t="s">
@@ -21576,7 +21576,7 @@
         <v>0.59652777777777777</v>
       </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="178"/>
+      <c r="J15" s="177"/>
       <c r="K15" s="73" t="s">
         <v>127</v>
       </c>
@@ -21648,7 +21648,7 @@
         <v>13</v>
       </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="178"/>
+      <c r="J16" s="177"/>
       <c r="K16" s="54" t="s">
         <v>132</v>
       </c>
@@ -21720,7 +21720,7 @@
         <v>13</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="178"/>
+      <c r="J17" s="177"/>
       <c r="K17" s="73" t="s">
         <v>129</v>
       </c>
@@ -21792,7 +21792,7 @@
         <v>0.24583333333333335</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="178"/>
+      <c r="J18" s="177"/>
       <c r="K18" s="54" t="s">
         <v>144</v>
       </c>
@@ -21864,7 +21864,7 @@
         <v>0.49513888888888885</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="179"/>
+      <c r="J19" s="178"/>
       <c r="K19" s="76" t="s">
         <v>150</v>
       </c>
@@ -21936,7 +21936,7 @@
         <v>0.20972222222222223</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="J20" s="177" t="s">
+      <c r="J20" s="176" t="s">
         <v>143</v>
       </c>
       <c r="K20" s="10" t="s">
@@ -22010,7 +22010,7 @@
         <v>0.25486111111111109</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="179"/>
+      <c r="J21" s="178"/>
       <c r="K21" s="76" t="s">
         <v>141</v>
       </c>
@@ -22092,7 +22092,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="178" t="s">
+      <c r="J22" s="177" t="s">
         <v>161</v>
       </c>
       <c r="K22" s="54" t="s">
@@ -22178,7 +22178,7 @@
         <v>0.26944444444444443</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="178"/>
+      <c r="J23" s="177"/>
       <c r="K23" s="80" t="s">
         <v>169</v>
       </c>
@@ -22262,7 +22262,7 @@
         <v>0.3263888888888889</v>
       </c>
       <c r="I24" s="39"/>
-      <c r="J24" s="178"/>
+      <c r="J24" s="177"/>
       <c r="K24" s="54" t="s">
         <v>163</v>
       </c>
@@ -22346,7 +22346,7 @@
         <v>0.32847222222222222</v>
       </c>
       <c r="I25" s="39"/>
-      <c r="J25" s="178"/>
+      <c r="J25" s="177"/>
       <c r="K25" s="73" t="s">
         <v>141</v>
       </c>
@@ -22430,7 +22430,7 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="I26" s="39"/>
-      <c r="J26" s="179"/>
+      <c r="J26" s="178"/>
       <c r="K26" s="11" t="s">
         <v>162</v>
       </c>
@@ -22514,7 +22514,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="I27" s="39"/>
-      <c r="J27" s="177" t="s">
+      <c r="J27" s="176" t="s">
         <v>171</v>
       </c>
       <c r="K27" s="73" t="s">
@@ -22600,7 +22600,7 @@
         <v>0.22291666666666665</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="178"/>
+      <c r="J28" s="177"/>
       <c r="K28" s="101" t="s">
         <v>163</v>
       </c>
@@ -22684,7 +22684,7 @@
         <v>0.13194444444444445</v>
       </c>
       <c r="I29" s="39"/>
-      <c r="J29" s="178"/>
+      <c r="J29" s="177"/>
       <c r="K29" s="73" t="s">
         <v>29</v>
       </c>
@@ -22768,7 +22768,7 @@
         <v>13</v>
       </c>
       <c r="I30" s="39"/>
-      <c r="J30" s="178"/>
+      <c r="J30" s="177"/>
       <c r="K30" s="101" t="s">
         <v>136</v>
       </c>
@@ -22852,7 +22852,7 @@
         <v>0.43888888888888888</v>
       </c>
       <c r="I31" s="39"/>
-      <c r="J31" s="179"/>
+      <c r="J31" s="178"/>
       <c r="K31" s="73" t="s">
         <v>141</v>
       </c>
@@ -22936,7 +22936,7 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="I32" s="39"/>
-      <c r="J32" s="177" t="s">
+      <c r="J32" s="176" t="s">
         <v>184</v>
       </c>
       <c r="K32" s="107" t="s">
@@ -23022,7 +23022,7 @@
         <v>2.7097222222222221</v>
       </c>
       <c r="I33" s="39"/>
-      <c r="J33" s="178"/>
+      <c r="J33" s="177"/>
       <c r="K33" s="73" t="s">
         <v>179</v>
       </c>
@@ -23108,7 +23108,7 @@
         <v>13</v>
       </c>
       <c r="I34" s="39"/>
-      <c r="J34" s="178"/>
+      <c r="J34" s="177"/>
       <c r="K34" s="54" t="s">
         <v>199</v>
       </c>
@@ -23191,7 +23191,7 @@
         <v>0.11041666666666666</v>
       </c>
       <c r="I35" s="39"/>
-      <c r="J35" s="178"/>
+      <c r="J35" s="177"/>
       <c r="K35" s="80" t="s">
         <v>198</v>
       </c>
@@ -23263,7 +23263,7 @@
         <v>0.37083333333333335</v>
       </c>
       <c r="I36" s="39"/>
-      <c r="J36" s="178"/>
+      <c r="J36" s="177"/>
       <c r="K36" s="54" t="s">
         <v>141</v>
       </c>
@@ -23271,9 +23271,9 @@
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="M36" s="39"/>
-      <c r="N36" s="173"/>
-      <c r="O36" s="173"/>
-      <c r="P36" s="173"/>
+      <c r="N36" s="179"/>
+      <c r="O36" s="179"/>
+      <c r="P36" s="179"/>
       <c r="Q36" s="111"/>
       <c r="R36" s="16"/>
       <c r="S36" s="16"/>
@@ -23335,7 +23335,7 @@
         <v>0.80694444444444446</v>
       </c>
       <c r="I37" s="39"/>
-      <c r="J37" s="178"/>
+      <c r="J37" s="177"/>
       <c r="K37" s="80" t="s">
         <v>196</v>
       </c>
@@ -23343,9 +23343,9 @@
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="M37" s="39"/>
-      <c r="N37" s="173"/>
-      <c r="O37" s="173"/>
-      <c r="P37" s="173"/>
+      <c r="N37" s="179"/>
+      <c r="O37" s="179"/>
+      <c r="P37" s="179"/>
       <c r="Q37" s="111"/>
       <c r="R37" s="16"/>
       <c r="S37" s="16"/>
@@ -23407,7 +23407,7 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="I38" s="39"/>
-      <c r="J38" s="179"/>
+      <c r="J38" s="178"/>
       <c r="K38" s="11" t="s">
         <v>202</v>
       </c>
@@ -23415,9 +23415,9 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="M38" s="39"/>
-      <c r="N38" s="173"/>
-      <c r="O38" s="173"/>
-      <c r="P38" s="173"/>
+      <c r="N38" s="179"/>
+      <c r="O38" s="179"/>
+      <c r="P38" s="179"/>
       <c r="Q38" s="111"/>
       <c r="R38" s="16"/>
       <c r="S38" s="16"/>
@@ -23465,7 +23465,7 @@
       <c r="G39" s="30"/>
       <c r="H39" s="61"/>
       <c r="I39" s="39"/>
-      <c r="J39" s="177" t="s">
+      <c r="J39" s="176" t="s">
         <v>209</v>
       </c>
       <c r="K39" s="116" t="s">
@@ -23475,9 +23475,9 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="M39" s="39"/>
-      <c r="N39" s="173"/>
-      <c r="O39" s="173"/>
-      <c r="P39" s="173"/>
+      <c r="N39" s="179"/>
+      <c r="O39" s="179"/>
+      <c r="P39" s="179"/>
       <c r="Q39" s="124"/>
       <c r="R39" s="16"/>
       <c r="S39" s="16"/>
@@ -23525,7 +23525,7 @@
       <c r="G40" s="39"/>
       <c r="H40" s="62"/>
       <c r="I40" s="39"/>
-      <c r="J40" s="178"/>
+      <c r="J40" s="177"/>
       <c r="K40" s="113" t="s">
         <v>210</v>
       </c>
@@ -23533,9 +23533,9 @@
         <v>0.3666666666666667</v>
       </c>
       <c r="M40" s="39"/>
-      <c r="N40" s="173"/>
-      <c r="O40" s="173"/>
-      <c r="P40" s="173"/>
+      <c r="N40" s="179"/>
+      <c r="O40" s="179"/>
+      <c r="P40" s="179"/>
       <c r="Q40" s="124"/>
       <c r="R40" s="16"/>
       <c r="S40" s="16"/>
@@ -23582,7 +23582,7 @@
       <c r="G41" s="30"/>
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
-      <c r="J41" s="178"/>
+      <c r="J41" s="177"/>
       <c r="K41" s="112" t="s">
         <v>179</v>
       </c>
@@ -23590,9 +23590,9 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="M41" s="39"/>
-      <c r="N41" s="173"/>
-      <c r="O41" s="173"/>
-      <c r="P41" s="173"/>
+      <c r="N41" s="179"/>
+      <c r="O41" s="179"/>
+      <c r="P41" s="179"/>
       <c r="Q41" s="124"/>
       <c r="R41" s="16"/>
       <c r="S41" s="16"/>
@@ -23640,7 +23640,7 @@
       <c r="G42" s="30"/>
       <c r="H42" s="61"/>
       <c r="I42" s="39"/>
-      <c r="J42" s="178"/>
+      <c r="J42" s="177"/>
       <c r="K42" s="114" t="s">
         <v>136</v>
       </c>
@@ -23698,7 +23698,7 @@
       <c r="G43" s="39"/>
       <c r="H43" s="62"/>
       <c r="I43" s="39"/>
-      <c r="J43" s="178"/>
+      <c r="J43" s="177"/>
       <c r="K43" s="112" t="s">
         <v>212</v>
       </c>
@@ -23756,7 +23756,7 @@
       <c r="G44" s="39"/>
       <c r="H44" s="62"/>
       <c r="I44" s="39"/>
-      <c r="J44" s="178"/>
+      <c r="J44" s="177"/>
       <c r="K44" s="113" t="s">
         <v>213</v>
       </c>
@@ -23814,7 +23814,7 @@
       <c r="G45" s="39"/>
       <c r="H45" s="62"/>
       <c r="I45" s="39"/>
-      <c r="J45" s="179"/>
+      <c r="J45" s="178"/>
       <c r="K45" s="115" t="s">
         <v>141</v>
       </c>
@@ -23872,7 +23872,7 @@
       <c r="G46" s="39"/>
       <c r="H46" s="62"/>
       <c r="I46" s="39"/>
-      <c r="J46" s="174" t="s">
+      <c r="J46" s="173" t="s">
         <v>217</v>
       </c>
       <c r="K46" s="119" t="s">
@@ -23932,7 +23932,7 @@
       <c r="G47" s="39"/>
       <c r="H47" s="62"/>
       <c r="I47" s="39"/>
-      <c r="J47" s="175"/>
+      <c r="J47" s="174"/>
       <c r="K47" s="80" t="s">
         <v>179</v>
       </c>
@@ -23990,7 +23990,7 @@
       <c r="G48" s="39"/>
       <c r="H48" s="62"/>
       <c r="I48" s="39"/>
-      <c r="J48" s="175"/>
+      <c r="J48" s="174"/>
       <c r="K48" s="101" t="s">
         <v>136</v>
       </c>
@@ -24048,7 +24048,7 @@
       <c r="G49" s="39"/>
       <c r="H49" s="62"/>
       <c r="I49" s="39"/>
-      <c r="J49" s="176"/>
+      <c r="J49" s="175"/>
       <c r="K49" s="120" t="s">
         <v>213</v>
       </c>
@@ -24106,7 +24106,7 @@
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
       <c r="I50" s="39"/>
-      <c r="J50" s="174" t="s">
+      <c r="J50" s="173" t="s">
         <v>232</v>
       </c>
       <c r="K50" s="121" t="s">
@@ -24166,7 +24166,7 @@
       <c r="G51" s="39"/>
       <c r="H51" s="39"/>
       <c r="I51" s="39"/>
-      <c r="J51" s="175"/>
+      <c r="J51" s="174"/>
       <c r="K51" s="122" t="s">
         <v>179</v>
       </c>
@@ -24224,7 +24224,7 @@
       <c r="G52" s="39"/>
       <c r="H52" s="39"/>
       <c r="I52" s="39"/>
-      <c r="J52" s="175"/>
+      <c r="J52" s="174"/>
       <c r="K52" s="114" t="s">
         <v>235</v>
       </c>
@@ -24282,7 +24282,7 @@
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
       <c r="I53" s="39"/>
-      <c r="J53" s="176"/>
+      <c r="J53" s="175"/>
       <c r="K53" s="115" t="s">
         <v>211</v>
       </c>
@@ -24340,7 +24340,7 @@
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
       <c r="I54" s="39"/>
-      <c r="J54" s="174" t="s">
+      <c r="J54" s="173" t="s">
         <v>243</v>
       </c>
       <c r="K54" s="121" t="s">
@@ -24400,7 +24400,7 @@
       <c r="G55" s="39"/>
       <c r="H55" s="39"/>
       <c r="I55" s="39"/>
-      <c r="J55" s="175"/>
+      <c r="J55" s="174"/>
       <c r="K55" s="122" t="s">
         <v>242</v>
       </c>
@@ -24458,7 +24458,7 @@
       <c r="G56" s="39"/>
       <c r="H56" s="39"/>
       <c r="I56" s="39"/>
-      <c r="J56" s="175"/>
+      <c r="J56" s="174"/>
       <c r="K56" s="114" t="s">
         <v>29</v>
       </c>
@@ -24516,7 +24516,7 @@
       <c r="G57" s="39"/>
       <c r="H57" s="39"/>
       <c r="I57" s="39"/>
-      <c r="J57" s="176"/>
+      <c r="J57" s="175"/>
       <c r="K57" s="115" t="s">
         <v>199</v>
       </c>
@@ -24574,7 +24574,7 @@
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
       <c r="I58" s="39"/>
-      <c r="J58" s="174" t="s">
+      <c r="J58" s="173" t="s">
         <v>246</v>
       </c>
       <c r="K58" s="121" t="s">
@@ -24634,7 +24634,7 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
       <c r="I59" s="39"/>
-      <c r="J59" s="175"/>
+      <c r="J59" s="174"/>
       <c r="K59" s="122" t="s">
         <v>235</v>
       </c>
@@ -24692,7 +24692,7 @@
       <c r="G60" s="39"/>
       <c r="H60" s="39"/>
       <c r="I60" s="39"/>
-      <c r="J60" s="175"/>
+      <c r="J60" s="174"/>
       <c r="K60" s="114" t="s">
         <v>242</v>
       </c>
@@ -24750,7 +24750,7 @@
       <c r="G61" s="39"/>
       <c r="H61" s="39"/>
       <c r="I61" s="39"/>
-      <c r="J61" s="175"/>
+      <c r="J61" s="174"/>
       <c r="K61" s="122" t="s">
         <v>245</v>
       </c>
@@ -24808,7 +24808,7 @@
       <c r="G62" s="39"/>
       <c r="H62" s="39"/>
       <c r="I62" s="39"/>
-      <c r="J62" s="175"/>
+      <c r="J62" s="174"/>
       <c r="K62" s="114" t="s">
         <v>29</v>
       </c>
@@ -24866,7 +24866,7 @@
       <c r="G63" s="39"/>
       <c r="H63" s="39"/>
       <c r="I63" s="39"/>
-      <c r="J63" s="176"/>
+      <c r="J63" s="175"/>
       <c r="K63" s="115" t="s">
         <v>199</v>
       </c>
@@ -30615,6 +30615,12 @@
     <sortCondition ref="K33"/>
   </sortState>
   <mergeCells count="18">
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="N39:P39"/>
     <mergeCell ref="J58:J63"/>
     <mergeCell ref="J54:J57"/>
     <mergeCell ref="J50:J53"/>
@@ -30627,12 +30633,6 @@
     <mergeCell ref="J32:J38"/>
     <mergeCell ref="J27:J31"/>
     <mergeCell ref="J14:J19"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="N39:P39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -30724,15 +30724,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="181" t="s">
+      <c r="J2" s="180" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="183"/>
+      <c r="K2" s="182"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="183" t="s">
+      <c r="M2" s="182" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="182"/>
+      <c r="N2" s="181"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -31032,15 +31032,15 @@
         <v>0.20416666666666669</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="181" t="s">
+      <c r="J9" s="180" t="s">
         <v>286</v>
       </c>
-      <c r="K9" s="183"/>
+      <c r="K9" s="182"/>
       <c r="L9" s="136"/>
-      <c r="M9" s="183" t="s">
+      <c r="M9" s="182" t="s">
         <v>287</v>
       </c>
-      <c r="N9" s="182"/>
+      <c r="N9" s="181"/>
       <c r="O9" s="39"/>
       <c r="P9" s="39"/>
       <c r="Q9" s="39"/>
@@ -31247,15 +31247,15 @@
         <v>0.15208333333333332</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="181" t="s">
+      <c r="J14" s="180" t="s">
         <v>288</v>
       </c>
-      <c r="K14" s="182"/>
+      <c r="K14" s="181"/>
       <c r="L14" s="136"/>
-      <c r="M14" s="181" t="s">
+      <c r="M14" s="180" t="s">
         <v>289</v>
       </c>
-      <c r="N14" s="182"/>
+      <c r="N14" s="181"/>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
@@ -31559,15 +31559,15 @@
         <v>0.35138888888888892</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="181" t="s">
+      <c r="J21" s="180" t="s">
         <v>290</v>
       </c>
-      <c r="K21" s="182"/>
+      <c r="K21" s="181"/>
       <c r="L21" s="136"/>
-      <c r="M21" s="181" t="s">
+      <c r="M21" s="180" t="s">
         <v>291</v>
       </c>
-      <c r="N21" s="182"/>
+      <c r="N21" s="181"/>
       <c r="O21" s="39"/>
       <c r="P21" s="89" t="s">
         <v>31</v>
@@ -31949,15 +31949,15 @@
         <v>0.11805555555555557</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="181" t="s">
+      <c r="J28" s="180" t="s">
         <v>292</v>
       </c>
-      <c r="K28" s="182"/>
+      <c r="K28" s="181"/>
       <c r="L28" s="136"/>
-      <c r="M28" s="181" t="s">
+      <c r="M28" s="180" t="s">
         <v>293</v>
       </c>
-      <c r="N28" s="182"/>
+      <c r="N28" s="181"/>
       <c r="O28" s="39"/>
       <c r="P28" s="93" t="s">
         <v>38</v>
@@ -32304,15 +32304,15 @@
       <c r="G35" s="30"/>
       <c r="H35" s="61"/>
       <c r="I35" s="39"/>
-      <c r="J35" s="181" t="s">
+      <c r="J35" s="180" t="s">
         <v>294</v>
       </c>
-      <c r="K35" s="182"/>
+      <c r="K35" s="181"/>
       <c r="L35" s="136"/>
-      <c r="M35" s="181" t="s">
+      <c r="M35" s="180" t="s">
         <v>295</v>
       </c>
-      <c r="N35" s="182"/>
+      <c r="N35" s="181"/>
       <c r="O35" s="39"/>
       <c r="P35" s="39"/>
       <c r="Q35" s="39"/>
@@ -32347,9 +32347,9 @@
         <v>4.9305555555555554E-2</v>
       </c>
       <c r="O36" s="39"/>
-      <c r="P36" s="173"/>
-      <c r="Q36" s="173"/>
-      <c r="R36" s="173"/>
+      <c r="P36" s="179"/>
+      <c r="Q36" s="179"/>
+      <c r="R36" s="179"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -32380,9 +32380,9 @@
         <v>0.18472222222222223</v>
       </c>
       <c r="O37" s="39"/>
-      <c r="P37" s="180"/>
-      <c r="Q37" s="180"/>
-      <c r="R37" s="180"/>
+      <c r="P37" s="183"/>
+      <c r="Q37" s="183"/>
+      <c r="R37" s="183"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -32413,9 +32413,9 @@
         <v>0.21249999999999999</v>
       </c>
       <c r="O38" s="39"/>
-      <c r="P38" s="173"/>
-      <c r="Q38" s="173"/>
-      <c r="R38" s="173"/>
+      <c r="P38" s="179"/>
+      <c r="Q38" s="179"/>
+      <c r="R38" s="179"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -32446,9 +32446,9 @@
         <v>0.26527777777777778</v>
       </c>
       <c r="O39" s="39"/>
-      <c r="P39" s="173"/>
-      <c r="Q39" s="173"/>
-      <c r="R39" s="173"/>
+      <c r="P39" s="179"/>
+      <c r="Q39" s="179"/>
+      <c r="R39" s="179"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -32479,9 +32479,9 @@
         <v>0.75347222222222221</v>
       </c>
       <c r="O40" s="39"/>
-      <c r="P40" s="173"/>
-      <c r="Q40" s="173"/>
-      <c r="R40" s="173"/>
+      <c r="P40" s="179"/>
+      <c r="Q40" s="179"/>
+      <c r="R40" s="179"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -32507,9 +32507,9 @@
         <v>1.0513888888888889</v>
       </c>
       <c r="O41" s="39"/>
-      <c r="P41" s="173"/>
-      <c r="Q41" s="173"/>
-      <c r="R41" s="173"/>
+      <c r="P41" s="179"/>
+      <c r="Q41" s="179"/>
+      <c r="R41" s="179"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -35474,6 +35474,12 @@
     <sortCondition ref="J9"/>
   </sortState>
   <mergeCells count="18">
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
     <mergeCell ref="M35:N35"/>
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="M21:N21"/>
@@ -35486,12 +35492,6 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="J35:K35"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J116" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -35584,15 +35584,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="181" t="s">
+      <c r="J2" s="180" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="183"/>
+      <c r="K2" s="182"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="183" t="s">
+      <c r="M2" s="182" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="182"/>
+      <c r="N2" s="181"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -35922,15 +35922,15 @@
         <v>1.1847222222222222</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="181" t="s">
+      <c r="J10" s="180" t="s">
         <v>286</v>
       </c>
-      <c r="K10" s="182"/>
+      <c r="K10" s="181"/>
       <c r="L10" s="136"/>
-      <c r="M10" s="181" t="s">
+      <c r="M10" s="180" t="s">
         <v>287</v>
       </c>
-      <c r="N10" s="182"/>
+      <c r="N10" s="181"/>
       <c r="O10" s="39"/>
       <c r="P10" s="39"/>
       <c r="Q10" s="39"/>
@@ -36227,15 +36227,15 @@
         <v>6.063194444444445</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="181" t="s">
+      <c r="J17" s="180" t="s">
         <v>288</v>
       </c>
-      <c r="K17" s="182"/>
+      <c r="K17" s="181"/>
       <c r="L17" s="136"/>
-      <c r="M17" s="181" t="s">
+      <c r="M17" s="180" t="s">
         <v>289</v>
       </c>
-      <c r="N17" s="182"/>
+      <c r="N17" s="181"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
@@ -36457,15 +36457,15 @@
         <v>0.50555555555555554</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="181" t="s">
+      <c r="J22" s="180" t="s">
         <v>290</v>
       </c>
-      <c r="K22" s="182"/>
+      <c r="K22" s="181"/>
       <c r="L22" s="136"/>
-      <c r="M22" s="181" t="s">
+      <c r="M22" s="180" t="s">
         <v>291</v>
       </c>
-      <c r="N22" s="182"/>
+      <c r="N22" s="181"/>
       <c r="O22" s="39"/>
       <c r="P22" s="63" t="s">
         <v>32</v>
@@ -36816,15 +36816,15 @@
         <v>2.6388888888888889E-2</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="181" t="s">
+      <c r="J28" s="180" t="s">
         <v>292</v>
       </c>
-      <c r="K28" s="182"/>
+      <c r="K28" s="181"/>
       <c r="L28" s="136"/>
-      <c r="M28" s="181" t="s">
+      <c r="M28" s="180" t="s">
         <v>293</v>
       </c>
-      <c r="N28" s="182"/>
+      <c r="N28" s="181"/>
       <c r="O28" s="39"/>
       <c r="P28" s="93" t="s">
         <v>38</v>
@@ -37190,15 +37190,15 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="I34" s="39"/>
-      <c r="J34" s="181" t="s">
+      <c r="J34" s="180" t="s">
         <v>294</v>
       </c>
-      <c r="K34" s="182"/>
+      <c r="K34" s="181"/>
       <c r="L34" s="136"/>
-      <c r="M34" s="181" t="s">
+      <c r="M34" s="180" t="s">
         <v>295</v>
       </c>
-      <c r="N34" s="182"/>
+      <c r="N34" s="181"/>
       <c r="O34" s="39"/>
       <c r="P34" s="125" t="s">
         <v>77</v>
@@ -37305,9 +37305,9 @@
         <v>0.36944444444444446</v>
       </c>
       <c r="O36" s="39"/>
-      <c r="P36" s="173"/>
-      <c r="Q36" s="173"/>
-      <c r="R36" s="173"/>
+      <c r="P36" s="179"/>
+      <c r="Q36" s="179"/>
+      <c r="R36" s="179"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -37352,9 +37352,9 @@
         <v>7.9166666666666663E-2</v>
       </c>
       <c r="O37" s="39"/>
-      <c r="P37" s="180"/>
-      <c r="Q37" s="173"/>
-      <c r="R37" s="173"/>
+      <c r="P37" s="183"/>
+      <c r="Q37" s="179"/>
+      <c r="R37" s="179"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -37386,9 +37386,9 @@
       </c>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="173"/>
-      <c r="Q38" s="173"/>
-      <c r="R38" s="173"/>
+      <c r="P38" s="179"/>
+      <c r="Q38" s="179"/>
+      <c r="R38" s="179"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -37406,9 +37406,9 @@
       <c r="H39" s="138"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="173"/>
-      <c r="Q39" s="173"/>
-      <c r="R39" s="173"/>
+      <c r="P39" s="179"/>
+      <c r="Q39" s="179"/>
+      <c r="R39" s="179"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -37426,9 +37426,9 @@
       <c r="H40" s="61"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="173"/>
-      <c r="Q40" s="173"/>
-      <c r="R40" s="173"/>
+      <c r="P40" s="179"/>
+      <c r="Q40" s="179"/>
+      <c r="R40" s="179"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -37446,9 +37446,9 @@
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="173"/>
-      <c r="Q41" s="173"/>
-      <c r="R41" s="173"/>
+      <c r="P41" s="179"/>
+      <c r="Q41" s="179"/>
+      <c r="R41" s="179"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -40400,24 +40400,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M17:N17"/>
     <mergeCell ref="P41:R41"/>
     <mergeCell ref="P36:R36"/>
     <mergeCell ref="P37:R37"/>
     <mergeCell ref="P38:R38"/>
     <mergeCell ref="P39:R39"/>
     <mergeCell ref="P40:R40"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="J22:K22"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
@@ -40439,7 +40439,7 @@
   <dimension ref="A1:Z153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -40515,15 +40515,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="181" t="s">
+      <c r="J2" s="180" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="182"/>
+      <c r="K2" s="181"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="181" t="s">
+      <c r="M2" s="180" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="182"/>
+      <c r="N2" s="181"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -40559,7 +40559,7 @@
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="122" t="s">
-        <v>136</v>
+        <v>465</v>
       </c>
       <c r="K3" s="132"/>
       <c r="L3" s="137"/>
@@ -40599,7 +40599,9 @@
         <v>13</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="113"/>
+      <c r="J4" s="113" t="s">
+        <v>136</v>
+      </c>
       <c r="K4" s="133"/>
       <c r="L4" s="137"/>
       <c r="M4" s="101"/>
@@ -40675,15 +40677,15 @@
       <c r="G7" s="74"/>
       <c r="H7" s="75"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="181" t="s">
+      <c r="J7" s="180" t="s">
         <v>286</v>
       </c>
-      <c r="K7" s="182"/>
+      <c r="K7" s="181"/>
       <c r="L7" s="136"/>
-      <c r="M7" s="181" t="s">
+      <c r="M7" s="180" t="s">
         <v>287</v>
       </c>
-      <c r="N7" s="182"/>
+      <c r="N7" s="181"/>
       <c r="O7" s="39"/>
       <c r="P7" s="39"/>
       <c r="Q7" s="39"/>
@@ -40809,15 +40811,15 @@
       <c r="G12" s="69"/>
       <c r="H12" s="60"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="181" t="s">
+      <c r="J12" s="180" t="s">
         <v>288</v>
       </c>
-      <c r="K12" s="182"/>
+      <c r="K12" s="181"/>
       <c r="L12" s="136"/>
-      <c r="M12" s="181" t="s">
+      <c r="M12" s="180" t="s">
         <v>289</v>
       </c>
-      <c r="N12" s="182"/>
+      <c r="N12" s="181"/>
       <c r="O12" s="39"/>
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
@@ -40943,15 +40945,15 @@
       <c r="G17" s="74"/>
       <c r="H17" s="75"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="181" t="s">
+      <c r="J17" s="180" t="s">
         <v>290</v>
       </c>
-      <c r="K17" s="182"/>
+      <c r="K17" s="181"/>
       <c r="L17" s="136"/>
-      <c r="M17" s="181" t="s">
+      <c r="M17" s="180" t="s">
         <v>291</v>
       </c>
-      <c r="N17" s="182"/>
+      <c r="N17" s="181"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
@@ -41089,15 +41091,15 @@
       <c r="G22" s="69"/>
       <c r="H22" s="60"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="181" t="s">
+      <c r="J22" s="180" t="s">
         <v>292</v>
       </c>
-      <c r="K22" s="182"/>
+      <c r="K22" s="181"/>
       <c r="L22" s="136"/>
-      <c r="M22" s="181" t="s">
+      <c r="M22" s="180" t="s">
         <v>293</v>
       </c>
-      <c r="N22" s="182"/>
+      <c r="N22" s="181"/>
       <c r="O22" s="39"/>
       <c r="P22" s="63" t="s">
         <v>32</v>
@@ -41265,15 +41267,15 @@
       <c r="G27" s="74"/>
       <c r="H27" s="75"/>
       <c r="I27" s="39"/>
-      <c r="J27" s="181" t="s">
+      <c r="J27" s="180" t="s">
         <v>294</v>
       </c>
-      <c r="K27" s="182"/>
+      <c r="K27" s="181"/>
       <c r="L27" s="136"/>
-      <c r="M27" s="181" t="s">
+      <c r="M27" s="180" t="s">
         <v>295</v>
       </c>
-      <c r="N27" s="182"/>
+      <c r="N27" s="181"/>
       <c r="O27" s="39"/>
       <c r="P27" s="94" t="s">
         <v>37</v>
@@ -41549,9 +41551,9 @@
       <c r="H36" s="61"/>
       <c r="I36" s="39"/>
       <c r="O36" s="39"/>
-      <c r="P36" s="173"/>
-      <c r="Q36" s="173"/>
-      <c r="R36" s="173"/>
+      <c r="P36" s="179"/>
+      <c r="Q36" s="179"/>
+      <c r="R36" s="179"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -41569,9 +41571,9 @@
       <c r="H37" s="61"/>
       <c r="I37" s="39"/>
       <c r="O37" s="39"/>
-      <c r="P37" s="180"/>
-      <c r="Q37" s="173"/>
-      <c r="R37" s="173"/>
+      <c r="P37" s="183"/>
+      <c r="Q37" s="179"/>
+      <c r="R37" s="179"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -41589,9 +41591,9 @@
       <c r="H38" s="61"/>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="173"/>
-      <c r="Q38" s="173"/>
-      <c r="R38" s="173"/>
+      <c r="P38" s="179"/>
+      <c r="Q38" s="179"/>
+      <c r="R38" s="179"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -41609,9 +41611,9 @@
       <c r="H39" s="61"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="173"/>
-      <c r="Q39" s="173"/>
-      <c r="R39" s="173"/>
+      <c r="P39" s="179"/>
+      <c r="Q39" s="179"/>
+      <c r="R39" s="179"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -41629,9 +41631,9 @@
       <c r="H40" s="62"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="173"/>
-      <c r="Q40" s="173"/>
-      <c r="R40" s="173"/>
+      <c r="P40" s="179"/>
+      <c r="Q40" s="179"/>
+      <c r="R40" s="179"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -41649,9 +41651,9 @@
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="173"/>
-      <c r="Q41" s="173"/>
-      <c r="R41" s="173"/>
+      <c r="P41" s="179"/>
+      <c r="Q41" s="179"/>
+      <c r="R41" s="179"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -44603,6 +44605,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="P36:R36"/>
@@ -44616,11 +44623,6 @@
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="M17:N17"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J116" r:id="rId1" xr:uid="{24F98E59-04E2-4995-A47A-0D179F9D60FA}"/>

--- a/spreadsheets/Games.xlsx
+++ b/spreadsheets/Games.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ucer0.github.io\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC130CC1-536E-4481-9390-1BF75130BA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA6FFAB-C01E-477A-B154-AC69EF20E5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="500">
   <si>
     <t>Nier: Automata</t>
   </si>
@@ -2052,10 +2052,52 @@
     <t>2-ene.-24</t>
   </si>
   <si>
-    <t>Rabi-Ribi (6h 32m)</t>
-  </si>
-  <si>
     <t>Super Mario RPG</t>
+  </si>
+  <si>
+    <t>Outer Wilds: Echoes of the Eye</t>
+  </si>
+  <si>
+    <t>10-ene.</t>
+  </si>
+  <si>
+    <t>Khimera: Puzzle Island</t>
+  </si>
+  <si>
+    <t>12-ene.</t>
+  </si>
+  <si>
+    <t>Momodora: Moonlit Farewell</t>
+  </si>
+  <si>
+    <t>14-ene.</t>
+  </si>
+  <si>
+    <t>Another Code: Recollection</t>
+  </si>
+  <si>
+    <t>30-ene.</t>
+  </si>
+  <si>
+    <t>Rabi-Ribi (6h 32m), Khimera(10h 20m)</t>
+  </si>
+  <si>
+    <t>Balatro Demo</t>
+  </si>
+  <si>
+    <t>Star Ocean: The Second Story R</t>
+  </si>
+  <si>
+    <t>12-feb.</t>
+  </si>
+  <si>
+    <t>4-feb.</t>
+  </si>
+  <si>
+    <t>Balatro</t>
+  </si>
+  <si>
+    <t>Khimera(4h 18m), Star Ocean (27h 58m)</t>
   </si>
 </sst>
 </file>
@@ -2483,7 +2525,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2971,6 +3013,9 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4018,6 +4063,12 @@
               <c:numCache>
                 <c:formatCode>[h]"h"\ mm"m"</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.759722222222222</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3444444444444443</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4104,6 +4155,12 @@
               <c:numCache>
                 <c:formatCode>[h]"h"\ mm"m"</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.4159722222222223</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0076388888888888</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8006,16 +8063,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -14574,7 +14631,7 @@
   <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:D19"/>
+      <selection activeCell="C15" sqref="C15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14623,17 +14680,17 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="163">
+      <c r="B2" s="164">
         <v>2019</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
       <c r="E2" s="67"/>
-      <c r="F2" s="169" t="s">
+      <c r="F2" s="170" t="s">
         <v>261</v>
       </c>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
       <c r="I2" s="35"/>
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
@@ -14664,18 +14721,18 @@
         <v>77</v>
       </c>
       <c r="E3" s="68"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="6"/>
       <c r="N3" s="29"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="168"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="169"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
@@ -14697,18 +14754,18 @@
         <v>2004</v>
       </c>
       <c r="E4" s="26"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="30"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="168"/>
-      <c r="P4" s="168"/>
-      <c r="Q4" s="168"/>
+      <c r="O4" s="169"/>
+      <c r="P4" s="169"/>
+      <c r="Q4" s="169"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
@@ -14730,18 +14787,18 @@
         <v>2017</v>
       </c>
       <c r="E5" s="26"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
-      <c r="H5" s="169"/>
+      <c r="F5" s="170"/>
+      <c r="G5" s="170"/>
+      <c r="H5" s="170"/>
       <c r="I5" s="6"/>
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="168"/>
-      <c r="P5" s="168"/>
-      <c r="Q5" s="168"/>
+      <c r="O5" s="169"/>
+      <c r="P5" s="169"/>
+      <c r="Q5" s="169"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
@@ -14763,18 +14820,18 @@
         <v>2017</v>
       </c>
       <c r="E6" s="26"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="169"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
       <c r="I6" s="6"/>
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="168"/>
-      <c r="P6" s="168"/>
-      <c r="Q6" s="168"/>
+      <c r="O6" s="169"/>
+      <c r="P6" s="169"/>
+      <c r="Q6" s="169"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
@@ -14796,18 +14853,18 @@
         <v>2017</v>
       </c>
       <c r="E7" s="26"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="169"/>
-      <c r="H7" s="169"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
       <c r="I7" s="6"/>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="168"/>
-      <c r="P7" s="168"/>
-      <c r="Q7" s="168"/>
+      <c r="O7" s="169"/>
+      <c r="P7" s="169"/>
+      <c r="Q7" s="169"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
@@ -14829,18 +14886,18 @@
         <v>2017</v>
       </c>
       <c r="E8" s="26"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="169"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
       <c r="I8" s="6"/>
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="168"/>
-      <c r="P8" s="168"/>
-      <c r="Q8" s="168"/>
+      <c r="O8" s="169"/>
+      <c r="P8" s="169"/>
+      <c r="Q8" s="169"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
@@ -14862,18 +14919,18 @@
         <v>2016</v>
       </c>
       <c r="E9" s="26"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="169"/>
-      <c r="H9" s="169"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="170"/>
+      <c r="H9" s="170"/>
       <c r="I9" s="6"/>
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="168"/>
-      <c r="P9" s="168"/>
-      <c r="Q9" s="168"/>
+      <c r="O9" s="169"/>
+      <c r="P9" s="169"/>
+      <c r="Q9" s="169"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
@@ -14895,18 +14952,18 @@
         <v>2017</v>
       </c>
       <c r="E10" s="26"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="169"/>
-      <c r="H10" s="169"/>
+      <c r="F10" s="170"/>
+      <c r="G10" s="170"/>
+      <c r="H10" s="170"/>
       <c r="I10" s="6"/>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="7"/>
-      <c r="O10" s="168"/>
-      <c r="P10" s="168"/>
-      <c r="Q10" s="168"/>
+      <c r="O10" s="169"/>
+      <c r="P10" s="169"/>
+      <c r="Q10" s="169"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
@@ -14928,18 +14985,18 @@
         <v>2016</v>
       </c>
       <c r="E11" s="26"/>
-      <c r="F11" s="169"/>
-      <c r="G11" s="169"/>
-      <c r="H11" s="169"/>
+      <c r="F11" s="170"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="170"/>
       <c r="I11" s="6"/>
       <c r="J11" s="30"/>
       <c r="K11" s="30"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="168"/>
-      <c r="P11" s="168"/>
-      <c r="Q11" s="168"/>
+      <c r="O11" s="169"/>
+      <c r="P11" s="169"/>
+      <c r="Q11" s="169"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
@@ -14961,18 +15018,18 @@
         <v>2017</v>
       </c>
       <c r="E12" s="26"/>
-      <c r="F12" s="169"/>
-      <c r="G12" s="169"/>
-      <c r="H12" s="169"/>
+      <c r="F12" s="170"/>
+      <c r="G12" s="170"/>
+      <c r="H12" s="170"/>
       <c r="I12" s="6"/>
       <c r="J12" s="30"/>
       <c r="K12" s="30"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="168"/>
-      <c r="P12" s="168"/>
-      <c r="Q12" s="168"/>
+      <c r="O12" s="169"/>
+      <c r="P12" s="169"/>
+      <c r="Q12" s="169"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
@@ -14994,18 +15051,18 @@
         <v>2009</v>
       </c>
       <c r="E13" s="26"/>
-      <c r="F13" s="169"/>
-      <c r="G13" s="169"/>
-      <c r="H13" s="169"/>
+      <c r="F13" s="170"/>
+      <c r="G13" s="170"/>
+      <c r="H13" s="170"/>
       <c r="I13" s="6"/>
       <c r="J13" s="30"/>
       <c r="K13" s="30"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="168"/>
-      <c r="P13" s="168"/>
-      <c r="Q13" s="168"/>
+      <c r="O13" s="169"/>
+      <c r="P13" s="169"/>
+      <c r="Q13" s="169"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
@@ -15027,18 +15084,18 @@
         <v>2019</v>
       </c>
       <c r="E14" s="26"/>
-      <c r="F14" s="169"/>
-      <c r="G14" s="169"/>
-      <c r="H14" s="169"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="170"/>
       <c r="I14" s="6"/>
       <c r="J14" s="30"/>
       <c r="K14" s="30"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="168"/>
-      <c r="P14" s="168"/>
-      <c r="Q14" s="168"/>
+      <c r="O14" s="169"/>
+      <c r="P14" s="169"/>
+      <c r="Q14" s="169"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
@@ -15060,18 +15117,18 @@
         <v>2019</v>
       </c>
       <c r="E15" s="26"/>
-      <c r="F15" s="169"/>
-      <c r="G15" s="169"/>
-      <c r="H15" s="169"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="170"/>
       <c r="I15" s="6"/>
       <c r="J15" s="30"/>
       <c r="K15" s="30"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="168"/>
-      <c r="P15" s="168"/>
-      <c r="Q15" s="168"/>
+      <c r="O15" s="169"/>
+      <c r="P15" s="169"/>
+      <c r="Q15" s="169"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
@@ -15096,9 +15153,9 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="168"/>
-      <c r="P16" s="168"/>
-      <c r="Q16" s="168"/>
+      <c r="O16" s="169"/>
+      <c r="P16" s="169"/>
+      <c r="Q16" s="169"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
@@ -15109,9 +15166,9 @@
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
-      <c r="B17" s="165"/>
-      <c r="C17" s="165"/>
-      <c r="D17" s="165"/>
+      <c r="B17" s="166"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="166"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7"/>
@@ -15136,9 +15193,9 @@
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
-      <c r="B18" s="165"/>
-      <c r="C18" s="165"/>
-      <c r="D18" s="165"/>
+      <c r="B18" s="166"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="166"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="7"/>
@@ -15148,8 +15205,8 @@
       <c r="K18" s="30"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="166"/>
-      <c r="O18" s="167"/>
+      <c r="N18" s="167"/>
+      <c r="O18" s="168"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
@@ -15163,9 +15220,9 @@
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
-      <c r="B19" s="165"/>
-      <c r="C19" s="165"/>
-      <c r="D19" s="165"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="166"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7"/>
@@ -15175,8 +15232,8 @@
       <c r="K19" s="30"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="167"/>
-      <c r="O19" s="167"/>
+      <c r="N19" s="168"/>
+      <c r="O19" s="168"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
@@ -15202,8 +15259,8 @@
       <c r="K20" s="30"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="167"/>
-      <c r="O20" s="167"/>
+      <c r="N20" s="168"/>
+      <c r="O20" s="168"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
@@ -15229,8 +15286,8 @@
       <c r="K21" s="30"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="167"/>
-      <c r="O21" s="167"/>
+      <c r="N21" s="168"/>
+      <c r="O21" s="168"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
@@ -15256,8 +15313,8 @@
       <c r="K22" s="30"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-      <c r="N22" s="167"/>
-      <c r="O22" s="167"/>
+      <c r="N22" s="168"/>
+      <c r="O22" s="168"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
@@ -15744,7 +15801,7 @@
   <dimension ref="A1:Y159"/>
   <sheetViews>
     <sheetView topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16441,8 +16498,8 @@
         <v>11</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="171"/>
-      <c r="K17" s="172"/>
+      <c r="J17" s="172"/>
+      <c r="K17" s="173"/>
       <c r="L17" s="6"/>
       <c r="M17" s="39"/>
       <c r="N17" s="39"/>
@@ -16480,8 +16537,8 @@
         <v>1</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="170"/>
-      <c r="K18" s="170"/>
+      <c r="J18" s="171"/>
+      <c r="K18" s="171"/>
       <c r="L18" s="6"/>
       <c r="M18" s="39"/>
       <c r="N18" s="39"/>
@@ -20531,7 +20588,7 @@
   <dimension ref="A1:AZ296"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -20706,7 +20763,7 @@
         <v>4.197916666666667</v>
       </c>
       <c r="I3" s="6"/>
-      <c r="J3" s="176" t="s">
+      <c r="J3" s="177" t="s">
         <v>118</v>
       </c>
       <c r="K3" s="80" t="s">
@@ -20780,7 +20837,7 @@
         <v>0.30138888888888887</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="177"/>
+      <c r="J4" s="178"/>
       <c r="K4" s="54" t="s">
         <v>127</v>
       </c>
@@ -20852,7 +20909,7 @@
         <v>0.2076388888888889</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="177"/>
+      <c r="J5" s="178"/>
       <c r="K5" s="73" t="s">
         <v>132</v>
       </c>
@@ -20924,7 +20981,7 @@
         <v>1.2437499999999999</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="177"/>
+      <c r="J6" s="178"/>
       <c r="K6" s="54" t="s">
         <v>129</v>
       </c>
@@ -20996,7 +21053,7 @@
         <v>0.27916666666666667</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="177"/>
+      <c r="J7" s="178"/>
       <c r="K7" s="73" t="s">
         <v>136</v>
       </c>
@@ -21068,7 +21125,7 @@
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="177"/>
+      <c r="J8" s="178"/>
       <c r="K8" s="54" t="s">
         <v>137</v>
       </c>
@@ -21140,7 +21197,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="176" t="s">
+      <c r="J9" s="177" t="s">
         <v>119</v>
       </c>
       <c r="K9" s="71" t="s">
@@ -21214,7 +21271,7 @@
         <v>0.19027777777777777</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="177"/>
+      <c r="J10" s="178"/>
       <c r="K10" s="54" t="s">
         <v>127</v>
       </c>
@@ -21286,7 +21343,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="177"/>
+      <c r="J11" s="178"/>
       <c r="K11" s="73" t="s">
         <v>132</v>
       </c>
@@ -21358,7 +21415,7 @@
         <v>1.7097222222222221</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="177"/>
+      <c r="J12" s="178"/>
       <c r="K12" s="54" t="s">
         <v>129</v>
       </c>
@@ -21430,7 +21487,7 @@
         <v>0.15972222222222224</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="177"/>
+      <c r="J13" s="178"/>
       <c r="K13" s="73" t="s">
         <v>141</v>
       </c>
@@ -21502,7 +21559,7 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="176" t="s">
+      <c r="J14" s="177" t="s">
         <v>120</v>
       </c>
       <c r="K14" s="10" t="s">
@@ -21576,7 +21633,7 @@
         <v>0.59652777777777777</v>
       </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="177"/>
+      <c r="J15" s="178"/>
       <c r="K15" s="73" t="s">
         <v>127</v>
       </c>
@@ -21648,7 +21705,7 @@
         <v>13</v>
       </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="177"/>
+      <c r="J16" s="178"/>
       <c r="K16" s="54" t="s">
         <v>132</v>
       </c>
@@ -21720,7 +21777,7 @@
         <v>13</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="177"/>
+      <c r="J17" s="178"/>
       <c r="K17" s="73" t="s">
         <v>129</v>
       </c>
@@ -21792,7 +21849,7 @@
         <v>0.24583333333333335</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="177"/>
+      <c r="J18" s="178"/>
       <c r="K18" s="54" t="s">
         <v>144</v>
       </c>
@@ -21864,7 +21921,7 @@
         <v>0.49513888888888885</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="178"/>
+      <c r="J19" s="179"/>
       <c r="K19" s="76" t="s">
         <v>150</v>
       </c>
@@ -21936,7 +21993,7 @@
         <v>0.20972222222222223</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="J20" s="176" t="s">
+      <c r="J20" s="177" t="s">
         <v>143</v>
       </c>
       <c r="K20" s="10" t="s">
@@ -22010,7 +22067,7 @@
         <v>0.25486111111111109</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="178"/>
+      <c r="J21" s="179"/>
       <c r="K21" s="76" t="s">
         <v>141</v>
       </c>
@@ -22092,7 +22149,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="177" t="s">
+      <c r="J22" s="178" t="s">
         <v>161</v>
       </c>
       <c r="K22" s="54" t="s">
@@ -22178,7 +22235,7 @@
         <v>0.26944444444444443</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="177"/>
+      <c r="J23" s="178"/>
       <c r="K23" s="80" t="s">
         <v>169</v>
       </c>
@@ -22262,7 +22319,7 @@
         <v>0.3263888888888889</v>
       </c>
       <c r="I24" s="39"/>
-      <c r="J24" s="177"/>
+      <c r="J24" s="178"/>
       <c r="K24" s="54" t="s">
         <v>163</v>
       </c>
@@ -22346,7 +22403,7 @@
         <v>0.32847222222222222</v>
       </c>
       <c r="I25" s="39"/>
-      <c r="J25" s="177"/>
+      <c r="J25" s="178"/>
       <c r="K25" s="73" t="s">
         <v>141</v>
       </c>
@@ -22430,7 +22487,7 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="I26" s="39"/>
-      <c r="J26" s="178"/>
+      <c r="J26" s="179"/>
       <c r="K26" s="11" t="s">
         <v>162</v>
       </c>
@@ -22514,7 +22571,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="I27" s="39"/>
-      <c r="J27" s="176" t="s">
+      <c r="J27" s="177" t="s">
         <v>171</v>
       </c>
       <c r="K27" s="73" t="s">
@@ -22600,7 +22657,7 @@
         <v>0.22291666666666665</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="177"/>
+      <c r="J28" s="178"/>
       <c r="K28" s="101" t="s">
         <v>163</v>
       </c>
@@ -22684,7 +22741,7 @@
         <v>0.13194444444444445</v>
       </c>
       <c r="I29" s="39"/>
-      <c r="J29" s="177"/>
+      <c r="J29" s="178"/>
       <c r="K29" s="73" t="s">
         <v>29</v>
       </c>
@@ -22768,7 +22825,7 @@
         <v>13</v>
       </c>
       <c r="I30" s="39"/>
-      <c r="J30" s="177"/>
+      <c r="J30" s="178"/>
       <c r="K30" s="101" t="s">
         <v>136</v>
       </c>
@@ -22852,7 +22909,7 @@
         <v>0.43888888888888888</v>
       </c>
       <c r="I31" s="39"/>
-      <c r="J31" s="178"/>
+      <c r="J31" s="179"/>
       <c r="K31" s="73" t="s">
         <v>141</v>
       </c>
@@ -22936,7 +22993,7 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="I32" s="39"/>
-      <c r="J32" s="176" t="s">
+      <c r="J32" s="177" t="s">
         <v>184</v>
       </c>
       <c r="K32" s="107" t="s">
@@ -23022,7 +23079,7 @@
         <v>2.7097222222222221</v>
       </c>
       <c r="I33" s="39"/>
-      <c r="J33" s="177"/>
+      <c r="J33" s="178"/>
       <c r="K33" s="73" t="s">
         <v>179</v>
       </c>
@@ -23108,7 +23165,7 @@
         <v>13</v>
       </c>
       <c r="I34" s="39"/>
-      <c r="J34" s="177"/>
+      <c r="J34" s="178"/>
       <c r="K34" s="54" t="s">
         <v>199</v>
       </c>
@@ -23191,7 +23248,7 @@
         <v>0.11041666666666666</v>
       </c>
       <c r="I35" s="39"/>
-      <c r="J35" s="177"/>
+      <c r="J35" s="178"/>
       <c r="K35" s="80" t="s">
         <v>198</v>
       </c>
@@ -23263,7 +23320,7 @@
         <v>0.37083333333333335</v>
       </c>
       <c r="I36" s="39"/>
-      <c r="J36" s="177"/>
+      <c r="J36" s="178"/>
       <c r="K36" s="54" t="s">
         <v>141</v>
       </c>
@@ -23271,9 +23328,9 @@
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="M36" s="39"/>
-      <c r="N36" s="179"/>
-      <c r="O36" s="179"/>
-      <c r="P36" s="179"/>
+      <c r="N36" s="180"/>
+      <c r="O36" s="180"/>
+      <c r="P36" s="180"/>
       <c r="Q36" s="111"/>
       <c r="R36" s="16"/>
       <c r="S36" s="16"/>
@@ -23335,7 +23392,7 @@
         <v>0.80694444444444446</v>
       </c>
       <c r="I37" s="39"/>
-      <c r="J37" s="177"/>
+      <c r="J37" s="178"/>
       <c r="K37" s="80" t="s">
         <v>196</v>
       </c>
@@ -23343,9 +23400,9 @@
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="M37" s="39"/>
-      <c r="N37" s="179"/>
-      <c r="O37" s="179"/>
-      <c r="P37" s="179"/>
+      <c r="N37" s="180"/>
+      <c r="O37" s="180"/>
+      <c r="P37" s="180"/>
       <c r="Q37" s="111"/>
       <c r="R37" s="16"/>
       <c r="S37" s="16"/>
@@ -23407,7 +23464,7 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="I38" s="39"/>
-      <c r="J38" s="178"/>
+      <c r="J38" s="179"/>
       <c r="K38" s="11" t="s">
         <v>202</v>
       </c>
@@ -23415,9 +23472,9 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="M38" s="39"/>
-      <c r="N38" s="179"/>
-      <c r="O38" s="179"/>
-      <c r="P38" s="179"/>
+      <c r="N38" s="180"/>
+      <c r="O38" s="180"/>
+      <c r="P38" s="180"/>
       <c r="Q38" s="111"/>
       <c r="R38" s="16"/>
       <c r="S38" s="16"/>
@@ -23465,7 +23522,7 @@
       <c r="G39" s="30"/>
       <c r="H39" s="61"/>
       <c r="I39" s="39"/>
-      <c r="J39" s="176" t="s">
+      <c r="J39" s="177" t="s">
         <v>209</v>
       </c>
       <c r="K39" s="116" t="s">
@@ -23475,9 +23532,9 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="M39" s="39"/>
-      <c r="N39" s="179"/>
-      <c r="O39" s="179"/>
-      <c r="P39" s="179"/>
+      <c r="N39" s="180"/>
+      <c r="O39" s="180"/>
+      <c r="P39" s="180"/>
       <c r="Q39" s="124"/>
       <c r="R39" s="16"/>
       <c r="S39" s="16"/>
@@ -23525,7 +23582,7 @@
       <c r="G40" s="39"/>
       <c r="H40" s="62"/>
       <c r="I40" s="39"/>
-      <c r="J40" s="177"/>
+      <c r="J40" s="178"/>
       <c r="K40" s="113" t="s">
         <v>210</v>
       </c>
@@ -23533,9 +23590,9 @@
         <v>0.3666666666666667</v>
       </c>
       <c r="M40" s="39"/>
-      <c r="N40" s="179"/>
-      <c r="O40" s="179"/>
-      <c r="P40" s="179"/>
+      <c r="N40" s="180"/>
+      <c r="O40" s="180"/>
+      <c r="P40" s="180"/>
       <c r="Q40" s="124"/>
       <c r="R40" s="16"/>
       <c r="S40" s="16"/>
@@ -23582,7 +23639,7 @@
       <c r="G41" s="30"/>
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
-      <c r="J41" s="177"/>
+      <c r="J41" s="178"/>
       <c r="K41" s="112" t="s">
         <v>179</v>
       </c>
@@ -23590,9 +23647,9 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="M41" s="39"/>
-      <c r="N41" s="179"/>
-      <c r="O41" s="179"/>
-      <c r="P41" s="179"/>
+      <c r="N41" s="180"/>
+      <c r="O41" s="180"/>
+      <c r="P41" s="180"/>
       <c r="Q41" s="124"/>
       <c r="R41" s="16"/>
       <c r="S41" s="16"/>
@@ -23640,7 +23697,7 @@
       <c r="G42" s="30"/>
       <c r="H42" s="61"/>
       <c r="I42" s="39"/>
-      <c r="J42" s="177"/>
+      <c r="J42" s="178"/>
       <c r="K42" s="114" t="s">
         <v>136</v>
       </c>
@@ -23698,7 +23755,7 @@
       <c r="G43" s="39"/>
       <c r="H43" s="62"/>
       <c r="I43" s="39"/>
-      <c r="J43" s="177"/>
+      <c r="J43" s="178"/>
       <c r="K43" s="112" t="s">
         <v>212</v>
       </c>
@@ -23756,7 +23813,7 @@
       <c r="G44" s="39"/>
       <c r="H44" s="62"/>
       <c r="I44" s="39"/>
-      <c r="J44" s="177"/>
+      <c r="J44" s="178"/>
       <c r="K44" s="113" t="s">
         <v>213</v>
       </c>
@@ -23814,7 +23871,7 @@
       <c r="G45" s="39"/>
       <c r="H45" s="62"/>
       <c r="I45" s="39"/>
-      <c r="J45" s="178"/>
+      <c r="J45" s="179"/>
       <c r="K45" s="115" t="s">
         <v>141</v>
       </c>
@@ -23872,7 +23929,7 @@
       <c r="G46" s="39"/>
       <c r="H46" s="62"/>
       <c r="I46" s="39"/>
-      <c r="J46" s="173" t="s">
+      <c r="J46" s="174" t="s">
         <v>217</v>
       </c>
       <c r="K46" s="119" t="s">
@@ -23932,7 +23989,7 @@
       <c r="G47" s="39"/>
       <c r="H47" s="62"/>
       <c r="I47" s="39"/>
-      <c r="J47" s="174"/>
+      <c r="J47" s="175"/>
       <c r="K47" s="80" t="s">
         <v>179</v>
       </c>
@@ -23990,7 +24047,7 @@
       <c r="G48" s="39"/>
       <c r="H48" s="62"/>
       <c r="I48" s="39"/>
-      <c r="J48" s="174"/>
+      <c r="J48" s="175"/>
       <c r="K48" s="101" t="s">
         <v>136</v>
       </c>
@@ -24048,7 +24105,7 @@
       <c r="G49" s="39"/>
       <c r="H49" s="62"/>
       <c r="I49" s="39"/>
-      <c r="J49" s="175"/>
+      <c r="J49" s="176"/>
       <c r="K49" s="120" t="s">
         <v>213</v>
       </c>
@@ -24106,7 +24163,7 @@
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
       <c r="I50" s="39"/>
-      <c r="J50" s="173" t="s">
+      <c r="J50" s="174" t="s">
         <v>232</v>
       </c>
       <c r="K50" s="121" t="s">
@@ -24166,7 +24223,7 @@
       <c r="G51" s="39"/>
       <c r="H51" s="39"/>
       <c r="I51" s="39"/>
-      <c r="J51" s="174"/>
+      <c r="J51" s="175"/>
       <c r="K51" s="122" t="s">
         <v>179</v>
       </c>
@@ -24224,7 +24281,7 @@
       <c r="G52" s="39"/>
       <c r="H52" s="39"/>
       <c r="I52" s="39"/>
-      <c r="J52" s="174"/>
+      <c r="J52" s="175"/>
       <c r="K52" s="114" t="s">
         <v>235</v>
       </c>
@@ -24282,7 +24339,7 @@
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
       <c r="I53" s="39"/>
-      <c r="J53" s="175"/>
+      <c r="J53" s="176"/>
       <c r="K53" s="115" t="s">
         <v>211</v>
       </c>
@@ -24340,7 +24397,7 @@
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
       <c r="I54" s="39"/>
-      <c r="J54" s="173" t="s">
+      <c r="J54" s="174" t="s">
         <v>243</v>
       </c>
       <c r="K54" s="121" t="s">
@@ -24400,7 +24457,7 @@
       <c r="G55" s="39"/>
       <c r="H55" s="39"/>
       <c r="I55" s="39"/>
-      <c r="J55" s="174"/>
+      <c r="J55" s="175"/>
       <c r="K55" s="122" t="s">
         <v>242</v>
       </c>
@@ -24458,7 +24515,7 @@
       <c r="G56" s="39"/>
       <c r="H56" s="39"/>
       <c r="I56" s="39"/>
-      <c r="J56" s="174"/>
+      <c r="J56" s="175"/>
       <c r="K56" s="114" t="s">
         <v>29</v>
       </c>
@@ -24516,7 +24573,7 @@
       <c r="G57" s="39"/>
       <c r="H57" s="39"/>
       <c r="I57" s="39"/>
-      <c r="J57" s="175"/>
+      <c r="J57" s="176"/>
       <c r="K57" s="115" t="s">
         <v>199</v>
       </c>
@@ -24574,7 +24631,7 @@
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
       <c r="I58" s="39"/>
-      <c r="J58" s="173" t="s">
+      <c r="J58" s="174" t="s">
         <v>246</v>
       </c>
       <c r="K58" s="121" t="s">
@@ -24634,7 +24691,7 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
       <c r="I59" s="39"/>
-      <c r="J59" s="174"/>
+      <c r="J59" s="175"/>
       <c r="K59" s="122" t="s">
         <v>235</v>
       </c>
@@ -24692,7 +24749,7 @@
       <c r="G60" s="39"/>
       <c r="H60" s="39"/>
       <c r="I60" s="39"/>
-      <c r="J60" s="174"/>
+      <c r="J60" s="175"/>
       <c r="K60" s="114" t="s">
         <v>242</v>
       </c>
@@ -24750,7 +24807,7 @@
       <c r="G61" s="39"/>
       <c r="H61" s="39"/>
       <c r="I61" s="39"/>
-      <c r="J61" s="174"/>
+      <c r="J61" s="175"/>
       <c r="K61" s="122" t="s">
         <v>245</v>
       </c>
@@ -24808,7 +24865,7 @@
       <c r="G62" s="39"/>
       <c r="H62" s="39"/>
       <c r="I62" s="39"/>
-      <c r="J62" s="174"/>
+      <c r="J62" s="175"/>
       <c r="K62" s="114" t="s">
         <v>29</v>
       </c>
@@ -24866,7 +24923,7 @@
       <c r="G63" s="39"/>
       <c r="H63" s="39"/>
       <c r="I63" s="39"/>
-      <c r="J63" s="175"/>
+      <c r="J63" s="176"/>
       <c r="K63" s="115" t="s">
         <v>199</v>
       </c>
@@ -30649,7 +30706,7 @@
   <dimension ref="A1:W153"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37:R37"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30724,15 +30781,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="180" t="s">
+      <c r="J2" s="181" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="182"/>
+      <c r="K2" s="183"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="182" t="s">
+      <c r="M2" s="183" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="181"/>
+      <c r="N2" s="182"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -31032,15 +31089,15 @@
         <v>0.20416666666666669</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="180" t="s">
+      <c r="J9" s="181" t="s">
         <v>286</v>
       </c>
-      <c r="K9" s="182"/>
+      <c r="K9" s="183"/>
       <c r="L9" s="136"/>
-      <c r="M9" s="182" t="s">
+      <c r="M9" s="183" t="s">
         <v>287</v>
       </c>
-      <c r="N9" s="181"/>
+      <c r="N9" s="182"/>
       <c r="O9" s="39"/>
       <c r="P9" s="39"/>
       <c r="Q9" s="39"/>
@@ -31247,15 +31304,15 @@
         <v>0.15208333333333332</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="180" t="s">
+      <c r="J14" s="181" t="s">
         <v>288</v>
       </c>
-      <c r="K14" s="181"/>
+      <c r="K14" s="182"/>
       <c r="L14" s="136"/>
-      <c r="M14" s="180" t="s">
+      <c r="M14" s="181" t="s">
         <v>289</v>
       </c>
-      <c r="N14" s="181"/>
+      <c r="N14" s="182"/>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
@@ -31559,15 +31616,15 @@
         <v>0.35138888888888892</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="180" t="s">
+      <c r="J21" s="181" t="s">
         <v>290</v>
       </c>
-      <c r="K21" s="181"/>
+      <c r="K21" s="182"/>
       <c r="L21" s="136"/>
-      <c r="M21" s="180" t="s">
+      <c r="M21" s="181" t="s">
         <v>291</v>
       </c>
-      <c r="N21" s="181"/>
+      <c r="N21" s="182"/>
       <c r="O21" s="39"/>
       <c r="P21" s="89" t="s">
         <v>31</v>
@@ -31949,15 +32006,15 @@
         <v>0.11805555555555557</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="180" t="s">
+      <c r="J28" s="181" t="s">
         <v>292</v>
       </c>
-      <c r="K28" s="181"/>
+      <c r="K28" s="182"/>
       <c r="L28" s="136"/>
-      <c r="M28" s="180" t="s">
+      <c r="M28" s="181" t="s">
         <v>293</v>
       </c>
-      <c r="N28" s="181"/>
+      <c r="N28" s="182"/>
       <c r="O28" s="39"/>
       <c r="P28" s="93" t="s">
         <v>38</v>
@@ -32304,15 +32361,15 @@
       <c r="G35" s="30"/>
       <c r="H35" s="61"/>
       <c r="I35" s="39"/>
-      <c r="J35" s="180" t="s">
+      <c r="J35" s="181" t="s">
         <v>294</v>
       </c>
-      <c r="K35" s="181"/>
+      <c r="K35" s="182"/>
       <c r="L35" s="136"/>
-      <c r="M35" s="180" t="s">
+      <c r="M35" s="181" t="s">
         <v>295</v>
       </c>
-      <c r="N35" s="181"/>
+      <c r="N35" s="182"/>
       <c r="O35" s="39"/>
       <c r="P35" s="39"/>
       <c r="Q35" s="39"/>
@@ -32347,9 +32404,9 @@
         <v>4.9305555555555554E-2</v>
       </c>
       <c r="O36" s="39"/>
-      <c r="P36" s="179"/>
-      <c r="Q36" s="179"/>
-      <c r="R36" s="179"/>
+      <c r="P36" s="180"/>
+      <c r="Q36" s="180"/>
+      <c r="R36" s="180"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -32380,9 +32437,9 @@
         <v>0.18472222222222223</v>
       </c>
       <c r="O37" s="39"/>
-      <c r="P37" s="183"/>
-      <c r="Q37" s="183"/>
-      <c r="R37" s="183"/>
+      <c r="P37" s="184"/>
+      <c r="Q37" s="184"/>
+      <c r="R37" s="184"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -32413,9 +32470,9 @@
         <v>0.21249999999999999</v>
       </c>
       <c r="O38" s="39"/>
-      <c r="P38" s="179"/>
-      <c r="Q38" s="179"/>
-      <c r="R38" s="179"/>
+      <c r="P38" s="180"/>
+      <c r="Q38" s="180"/>
+      <c r="R38" s="180"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -32446,9 +32503,9 @@
         <v>0.26527777777777778</v>
       </c>
       <c r="O39" s="39"/>
-      <c r="P39" s="179"/>
-      <c r="Q39" s="179"/>
-      <c r="R39" s="179"/>
+      <c r="P39" s="180"/>
+      <c r="Q39" s="180"/>
+      <c r="R39" s="180"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -32479,9 +32536,9 @@
         <v>0.75347222222222221</v>
       </c>
       <c r="O40" s="39"/>
-      <c r="P40" s="179"/>
-      <c r="Q40" s="179"/>
-      <c r="R40" s="179"/>
+      <c r="P40" s="180"/>
+      <c r="Q40" s="180"/>
+      <c r="R40" s="180"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -32507,9 +32564,9 @@
         <v>1.0513888888888889</v>
       </c>
       <c r="O41" s="39"/>
-      <c r="P41" s="179"/>
-      <c r="Q41" s="179"/>
-      <c r="R41" s="179"/>
+      <c r="P41" s="180"/>
+      <c r="Q41" s="180"/>
+      <c r="R41" s="180"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -35507,8 +35564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2E69CA-387B-46EE-8AF5-1104FD3CA4B0}">
   <dimension ref="A1:Z153"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -35584,15 +35641,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="180" t="s">
+      <c r="J2" s="181" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="182"/>
+      <c r="K2" s="183"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="182" t="s">
+      <c r="M2" s="183" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="181"/>
+      <c r="N2" s="182"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -35922,15 +35979,15 @@
         <v>1.1847222222222222</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="180" t="s">
+      <c r="J10" s="181" t="s">
         <v>286</v>
       </c>
-      <c r="K10" s="181"/>
+      <c r="K10" s="182"/>
       <c r="L10" s="136"/>
-      <c r="M10" s="180" t="s">
+      <c r="M10" s="181" t="s">
         <v>287</v>
       </c>
-      <c r="N10" s="181"/>
+      <c r="N10" s="182"/>
       <c r="O10" s="39"/>
       <c r="P10" s="39"/>
       <c r="Q10" s="39"/>
@@ -36227,15 +36284,15 @@
         <v>6.063194444444445</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="180" t="s">
+      <c r="J17" s="181" t="s">
         <v>288</v>
       </c>
-      <c r="K17" s="181"/>
+      <c r="K17" s="182"/>
       <c r="L17" s="136"/>
-      <c r="M17" s="180" t="s">
+      <c r="M17" s="181" t="s">
         <v>289</v>
       </c>
-      <c r="N17" s="181"/>
+      <c r="N17" s="182"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
@@ -36457,15 +36514,15 @@
         <v>0.50555555555555554</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="180" t="s">
+      <c r="J22" s="181" t="s">
         <v>290</v>
       </c>
-      <c r="K22" s="181"/>
+      <c r="K22" s="182"/>
       <c r="L22" s="136"/>
-      <c r="M22" s="180" t="s">
+      <c r="M22" s="181" t="s">
         <v>291</v>
       </c>
-      <c r="N22" s="181"/>
+      <c r="N22" s="182"/>
       <c r="O22" s="39"/>
       <c r="P22" s="63" t="s">
         <v>32</v>
@@ -36816,15 +36873,15 @@
         <v>2.6388888888888889E-2</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="180" t="s">
+      <c r="J28" s="181" t="s">
         <v>292</v>
       </c>
-      <c r="K28" s="181"/>
+      <c r="K28" s="182"/>
       <c r="L28" s="136"/>
-      <c r="M28" s="180" t="s">
+      <c r="M28" s="181" t="s">
         <v>293</v>
       </c>
-      <c r="N28" s="181"/>
+      <c r="N28" s="182"/>
       <c r="O28" s="39"/>
       <c r="P28" s="93" t="s">
         <v>38</v>
@@ -37190,15 +37247,15 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="I34" s="39"/>
-      <c r="J34" s="180" t="s">
+      <c r="J34" s="181" t="s">
         <v>294</v>
       </c>
-      <c r="K34" s="181"/>
+      <c r="K34" s="182"/>
       <c r="L34" s="136"/>
-      <c r="M34" s="180" t="s">
+      <c r="M34" s="181" t="s">
         <v>295</v>
       </c>
-      <c r="N34" s="181"/>
+      <c r="N34" s="182"/>
       <c r="O34" s="39"/>
       <c r="P34" s="125" t="s">
         <v>77</v>
@@ -37305,9 +37362,9 @@
         <v>0.36944444444444446</v>
       </c>
       <c r="O36" s="39"/>
-      <c r="P36" s="179"/>
-      <c r="Q36" s="179"/>
-      <c r="R36" s="179"/>
+      <c r="P36" s="180"/>
+      <c r="Q36" s="180"/>
+      <c r="R36" s="180"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -37352,9 +37409,9 @@
         <v>7.9166666666666663E-2</v>
       </c>
       <c r="O37" s="39"/>
-      <c r="P37" s="183"/>
-      <c r="Q37" s="179"/>
-      <c r="R37" s="179"/>
+      <c r="P37" s="184"/>
+      <c r="Q37" s="180"/>
+      <c r="R37" s="180"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -37386,9 +37443,9 @@
       </c>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="179"/>
-      <c r="Q38" s="179"/>
-      <c r="R38" s="179"/>
+      <c r="P38" s="180"/>
+      <c r="Q38" s="180"/>
+      <c r="R38" s="180"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -37406,9 +37463,9 @@
       <c r="H39" s="138"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="179"/>
-      <c r="Q39" s="179"/>
-      <c r="R39" s="179"/>
+      <c r="P39" s="180"/>
+      <c r="Q39" s="180"/>
+      <c r="R39" s="180"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -37426,9 +37483,9 @@
       <c r="H40" s="61"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="179"/>
-      <c r="Q40" s="179"/>
-      <c r="R40" s="179"/>
+      <c r="P40" s="180"/>
+      <c r="Q40" s="180"/>
+      <c r="R40" s="180"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -37446,9 +37503,9 @@
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="179"/>
-      <c r="Q41" s="179"/>
-      <c r="R41" s="179"/>
+      <c r="P41" s="180"/>
+      <c r="Q41" s="180"/>
+      <c r="R41" s="180"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -40438,8 +40495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{945572C7-9529-4441-AC5C-E60B6D0FDFB2}">
   <dimension ref="A1:Z153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -40515,15 +40572,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="180" t="s">
+      <c r="J2" s="181" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="181"/>
+      <c r="K2" s="182"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="180" t="s">
+      <c r="M2" s="181" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="181"/>
+      <c r="N2" s="182"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -40561,10 +40618,16 @@
       <c r="J3" s="122" t="s">
         <v>465</v>
       </c>
-      <c r="K3" s="132"/>
+      <c r="K3" s="132">
+        <v>0.28750000000000003</v>
+      </c>
       <c r="L3" s="137"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="72"/>
+      <c r="M3" s="131" t="s">
+        <v>498</v>
+      </c>
+      <c r="N3" s="72">
+        <v>0.60833333333333328</v>
+      </c>
       <c r="O3" s="39"/>
       <c r="P3" s="39"/>
       <c r="Q3" s="39"/>
@@ -40581,7 +40644,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D4" s="54">
         <v>2023</v>
@@ -40593,19 +40656,25 @@
         <v>482</v>
       </c>
       <c r="G4" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="60" t="s">
-        <v>13</v>
+        <v>265</v>
+      </c>
+      <c r="H4" s="60">
+        <v>0.64722222222222225</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="113" t="s">
         <v>136</v>
       </c>
-      <c r="K4" s="133"/>
+      <c r="K4" s="133">
+        <v>0.12847222222222224</v>
+      </c>
       <c r="L4" s="137"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="60"/>
+      <c r="M4" s="101" t="s">
+        <v>494</v>
+      </c>
+      <c r="N4" s="60">
+        <v>0.36249999999999999</v>
+      </c>
       <c r="O4" s="39"/>
       <c r="P4" s="39"/>
       <c r="Q4" s="39"/>
@@ -40621,18 +40690,34 @@
       <c r="B5" s="70">
         <v>3</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="75"/>
+      <c r="C5" s="73" t="s">
+        <v>485</v>
+      </c>
+      <c r="D5" s="73">
+        <v>2021</v>
+      </c>
+      <c r="E5" s="152" t="s">
+        <v>440</v>
+      </c>
+      <c r="F5" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="G5" s="74" t="s">
+        <v>486</v>
+      </c>
+      <c r="H5" s="75">
+        <v>0.48194444444444445</v>
+      </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="135"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="135"/>
-      <c r="N5" s="77"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="135" t="s">
+        <v>465</v>
+      </c>
+      <c r="N5" s="77">
+        <v>3.6805555555555557E-2</v>
+      </c>
       <c r="O5" s="39"/>
       <c r="P5" s="39"/>
       <c r="Q5" s="39"/>
@@ -40648,12 +40733,24 @@
       <c r="B6" s="78">
         <v>4</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="60"/>
+      <c r="C6" s="54" t="s">
+        <v>487</v>
+      </c>
+      <c r="D6" s="54">
+        <v>2020</v>
+      </c>
+      <c r="E6" s="153" t="s">
+        <v>440</v>
+      </c>
+      <c r="F6" s="69" t="s">
+        <v>486</v>
+      </c>
+      <c r="G6" s="69" t="s">
+        <v>496</v>
+      </c>
+      <c r="H6" s="60">
+        <v>0.60972222222222217</v>
+      </c>
       <c r="I6" s="6"/>
       <c r="O6" s="39"/>
       <c r="P6" s="39"/>
@@ -40670,22 +40767,34 @@
       <c r="B7" s="70">
         <v>5</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="152"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="75"/>
+      <c r="C7" s="73" t="s">
+        <v>489</v>
+      </c>
+      <c r="D7" s="73">
+        <v>2024</v>
+      </c>
+      <c r="E7" s="152" t="s">
+        <v>440</v>
+      </c>
+      <c r="F7" s="74" t="s">
+        <v>488</v>
+      </c>
+      <c r="G7" s="74" t="s">
+        <v>490</v>
+      </c>
+      <c r="H7" s="75">
+        <v>0.33749999999999997</v>
+      </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="180" t="s">
+      <c r="J7" s="181" t="s">
         <v>286</v>
       </c>
-      <c r="K7" s="181"/>
+      <c r="K7" s="182"/>
       <c r="L7" s="136"/>
-      <c r="M7" s="180" t="s">
+      <c r="M7" s="181" t="s">
         <v>287</v>
       </c>
-      <c r="N7" s="181"/>
+      <c r="N7" s="182"/>
       <c r="O7" s="39"/>
       <c r="P7" s="39"/>
       <c r="Q7" s="39"/>
@@ -40701,12 +40810,24 @@
       <c r="B8" s="78">
         <v>6</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="60"/>
+      <c r="C8" s="54" t="s">
+        <v>491</v>
+      </c>
+      <c r="D8" s="54">
+        <v>2024</v>
+      </c>
+      <c r="E8" s="153" t="s">
+        <v>441</v>
+      </c>
+      <c r="F8" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="G8" s="69" t="s">
+        <v>492</v>
+      </c>
+      <c r="H8" s="60">
+        <v>0.59027777777777779</v>
+      </c>
       <c r="I8" s="6"/>
       <c r="J8" s="122"/>
       <c r="K8" s="132"/>
@@ -40728,12 +40849,24 @@
       <c r="B9" s="70">
         <v>7</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="75"/>
+      <c r="C9" s="73" t="s">
+        <v>495</v>
+      </c>
+      <c r="D9" s="73">
+        <v>2023</v>
+      </c>
+      <c r="E9" s="152" t="s">
+        <v>442</v>
+      </c>
+      <c r="F9" s="74" t="s">
+        <v>497</v>
+      </c>
+      <c r="G9" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="75" t="s">
+        <v>13</v>
+      </c>
       <c r="I9" s="6"/>
       <c r="J9" s="113"/>
       <c r="K9" s="133"/>
@@ -40811,15 +40944,15 @@
       <c r="G12" s="69"/>
       <c r="H12" s="60"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="180" t="s">
+      <c r="J12" s="181" t="s">
         <v>288</v>
       </c>
-      <c r="K12" s="181"/>
+      <c r="K12" s="182"/>
       <c r="L12" s="136"/>
-      <c r="M12" s="180" t="s">
+      <c r="M12" s="181" t="s">
         <v>289</v>
       </c>
-      <c r="N12" s="181"/>
+      <c r="N12" s="182"/>
       <c r="O12" s="39"/>
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
@@ -40945,15 +41078,15 @@
       <c r="G17" s="74"/>
       <c r="H17" s="75"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="180" t="s">
+      <c r="J17" s="181" t="s">
         <v>290</v>
       </c>
-      <c r="K17" s="181"/>
+      <c r="K17" s="182"/>
       <c r="L17" s="136"/>
-      <c r="M17" s="180" t="s">
+      <c r="M17" s="181" t="s">
         <v>291</v>
       </c>
-      <c r="N17" s="181"/>
+      <c r="N17" s="182"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
@@ -41091,32 +41224,42 @@
       <c r="G22" s="69"/>
       <c r="H22" s="60"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="180" t="s">
+      <c r="J22" s="181" t="s">
         <v>292</v>
       </c>
-      <c r="K22" s="181"/>
+      <c r="K22" s="182"/>
       <c r="L22" s="136"/>
-      <c r="M22" s="180" t="s">
+      <c r="M22" s="181" t="s">
         <v>293</v>
       </c>
-      <c r="N22" s="181"/>
+      <c r="N22" s="182"/>
       <c r="O22" s="39"/>
       <c r="P22" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="95"/>
+      <c r="Q22" s="95">
+        <f>SUM(H4:H5,H7:H8,W22:X22)</f>
+        <v>2.759722222222222</v>
+      </c>
+      <c r="R22" s="95">
+        <f>SUM(K3:K4)</f>
+        <v>0.4159722222222223</v>
+      </c>
       <c r="S22" s="96">
         <f t="shared" ref="S22:S28" si="0">Q22+R22</f>
-        <v>0</v>
+        <v>3.1756944444444444</v>
       </c>
       <c r="T22" s="39"/>
       <c r="U22" s="104" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="V22" s="146"/>
-      <c r="W22" s="147"/>
-      <c r="X22" s="147"/>
+      <c r="W22" s="147">
+        <v>0.2722222222222222</v>
+      </c>
+      <c r="X22" s="147">
+        <v>0.43055555555555558</v>
+      </c>
       <c r="Y22" s="146"/>
       <c r="Z22" s="39"/>
     </row>
@@ -41141,17 +41284,29 @@
       <c r="P23" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="64"/>
+      <c r="Q23" s="64">
+        <f>SUM(W23:X23)</f>
+        <v>1.3444444444444443</v>
+      </c>
+      <c r="R23" s="64">
+        <f>SUM(N3:N5)</f>
+        <v>1.0076388888888888</v>
+      </c>
       <c r="S23" s="90">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.3520833333333329</v>
       </c>
       <c r="T23" s="39"/>
-      <c r="U23" s="105"/>
+      <c r="U23" s="98" t="s">
+        <v>499</v>
+      </c>
       <c r="V23" s="146"/>
-      <c r="W23" s="147"/>
-      <c r="X23" s="147"/>
+      <c r="W23" s="147">
+        <v>0.17916666666666667</v>
+      </c>
+      <c r="X23" s="147">
+        <v>1.1652777777777776</v>
+      </c>
       <c r="Y23" s="146"/>
       <c r="Z23" s="39"/>
     </row>
@@ -41267,15 +41422,15 @@
       <c r="G27" s="74"/>
       <c r="H27" s="75"/>
       <c r="I27" s="39"/>
-      <c r="J27" s="180" t="s">
+      <c r="J27" s="181" t="s">
         <v>294</v>
       </c>
-      <c r="K27" s="181"/>
+      <c r="K27" s="182"/>
       <c r="L27" s="136"/>
-      <c r="M27" s="180" t="s">
+      <c r="M27" s="181" t="s">
         <v>295</v>
       </c>
-      <c r="N27" s="181"/>
+      <c r="N27" s="182"/>
       <c r="O27" s="39"/>
       <c r="P27" s="94" t="s">
         <v>37</v>
@@ -41505,15 +41660,15 @@
       </c>
       <c r="Q34" s="126">
         <f t="shared" ref="Q34" si="1">SUM(Q22:Q33)</f>
-        <v>0</v>
+        <v>4.1041666666666661</v>
       </c>
       <c r="R34" s="126">
         <f>SUM(R22:R33)</f>
-        <v>0</v>
+        <v>1.4236111111111112</v>
       </c>
       <c r="S34" s="127">
         <f>SUM(S22:S33)</f>
-        <v>0</v>
+        <v>5.5277777777777768</v>
       </c>
       <c r="T34" s="39"/>
       <c r="U34" s="39"/>
@@ -41551,9 +41706,9 @@
       <c r="H36" s="61"/>
       <c r="I36" s="39"/>
       <c r="O36" s="39"/>
-      <c r="P36" s="179"/>
-      <c r="Q36" s="179"/>
-      <c r="R36" s="179"/>
+      <c r="P36" s="180"/>
+      <c r="Q36" s="180"/>
+      <c r="R36" s="180"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -41571,9 +41726,9 @@
       <c r="H37" s="61"/>
       <c r="I37" s="39"/>
       <c r="O37" s="39"/>
-      <c r="P37" s="183"/>
-      <c r="Q37" s="179"/>
-      <c r="R37" s="179"/>
+      <c r="P37" s="184"/>
+      <c r="Q37" s="180"/>
+      <c r="R37" s="180"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -41591,9 +41746,9 @@
       <c r="H38" s="61"/>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="179"/>
-      <c r="Q38" s="179"/>
-      <c r="R38" s="179"/>
+      <c r="P38" s="180"/>
+      <c r="Q38" s="180"/>
+      <c r="R38" s="180"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -41611,9 +41766,9 @@
       <c r="H39" s="61"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="179"/>
-      <c r="Q39" s="179"/>
-      <c r="R39" s="179"/>
+      <c r="P39" s="180"/>
+      <c r="Q39" s="180"/>
+      <c r="R39" s="180"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -41631,9 +41786,9 @@
       <c r="H40" s="62"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="179"/>
-      <c r="Q40" s="179"/>
-      <c r="R40" s="179"/>
+      <c r="P40" s="180"/>
+      <c r="Q40" s="180"/>
+      <c r="R40" s="180"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -41651,9 +41806,9 @@
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="179"/>
-      <c r="Q41" s="179"/>
-      <c r="R41" s="179"/>
+      <c r="P41" s="180"/>
+      <c r="Q41" s="180"/>
+      <c r="R41" s="180"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -43590,7 +43745,7 @@
       </c>
       <c r="R119" s="57">
         <f>COUNTIF(D3:D59,Q119)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S119" s="39"/>
       <c r="T119" s="39"/>
@@ -43650,7 +43805,7 @@
       </c>
       <c r="R121" s="145">
         <f>COUNTIF(D3:D59,Q121)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S121" s="39"/>
       <c r="T121" s="39"/>
@@ -43680,7 +43835,7 @@
       </c>
       <c r="R122" s="46">
         <f>COUNTIF(D3:D59,Q122)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S122" s="39"/>
       <c r="T122" s="39"/>
@@ -44520,7 +44675,7 @@
       </c>
       <c r="R150" s="42">
         <f>SUM(R119:R149)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S150" s="39"/>
       <c r="T150" s="39"/>
@@ -44630,6 +44785,9 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <ignoredErrors>
+    <ignoredError sqref="Q22" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/spreadsheets/Games.xlsx
+++ b/spreadsheets/Games.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ucer0.github.io\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA6FFAB-C01E-477A-B154-AC69EF20E5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DF01B2-8A67-455E-A74E-BDF581BEB3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="503">
   <si>
     <t>Nier: Automata</t>
   </si>
@@ -2098,6 +2098,15 @@
   </si>
   <si>
     <t>Khimera(4h 18m), Star Ocean (27h 58m)</t>
+  </si>
+  <si>
+    <t>7-mar.</t>
+  </si>
+  <si>
+    <t>Star Ocean (17h 23m)</t>
+  </si>
+  <si>
+    <t>Okami</t>
   </si>
 </sst>
 </file>
@@ -4069,6 +4078,9 @@
                 <c:pt idx="1">
                   <c:v>1.3444444444444443</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0375000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4160,6 +4172,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0076388888888888</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0875000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8114,7 +8129,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -30706,7 +30721,7 @@
   <dimension ref="A1:W153"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -35565,7 +35580,7 @@
   <dimension ref="A1:Z153"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -40495,8 +40510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{945572C7-9529-4441-AC5C-E60B6D0FDFB2}">
   <dimension ref="A1:Z153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -40829,8 +40844,12 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="122"/>
-      <c r="K8" s="132"/>
+      <c r="J8" s="122" t="s">
+        <v>498</v>
+      </c>
+      <c r="K8" s="132">
+        <v>1.0229166666666667</v>
+      </c>
       <c r="L8" s="137"/>
       <c r="M8" s="131"/>
       <c r="N8" s="72"/>
@@ -40862,14 +40881,19 @@
         <v>497</v>
       </c>
       <c r="G9" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="75" t="s">
-        <v>13</v>
+        <v>500</v>
+      </c>
+      <c r="H9" s="75">
+        <f>SUM(W24,X23)</f>
+        <v>1.8895833333333332</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="133"/>
+      <c r="J9" s="113" t="s">
+        <v>136</v>
+      </c>
+      <c r="K9" s="133">
+        <v>6.458333333333334E-2</v>
+      </c>
       <c r="L9" s="137"/>
       <c r="M9" s="101"/>
       <c r="N9" s="60"/>
@@ -40888,16 +40912,28 @@
       <c r="B10" s="78">
         <v>8</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="60"/>
+      <c r="C10" s="54" t="s">
+        <v>502</v>
+      </c>
+      <c r="D10" s="54">
+        <v>2006</v>
+      </c>
+      <c r="E10" s="153" t="s">
+        <v>440</v>
+      </c>
+      <c r="F10" s="69" t="s">
+        <v>297</v>
+      </c>
+      <c r="G10" s="69" t="s">
+        <v>399</v>
+      </c>
+      <c r="H10" s="60">
+        <v>1.3131944444444446</v>
+      </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="135"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="137"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="163"/>
       <c r="M10" s="135"/>
       <c r="N10" s="77"/>
       <c r="O10" s="39"/>
@@ -41331,16 +41367,26 @@
       <c r="P24" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="81"/>
+      <c r="Q24" s="81">
+        <f>SUM(H10,W24)</f>
+        <v>2.0375000000000001</v>
+      </c>
+      <c r="R24" s="81">
+        <f>SUM(K8:K9)</f>
+        <v>1.0875000000000001</v>
+      </c>
       <c r="S24" s="97">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125</v>
       </c>
       <c r="T24" s="39"/>
-      <c r="U24" s="100"/>
+      <c r="U24" s="99" t="s">
+        <v>501</v>
+      </c>
       <c r="V24" s="146"/>
-      <c r="W24" s="147"/>
+      <c r="W24" s="147">
+        <v>0.72430555555555554</v>
+      </c>
       <c r="X24" s="147"/>
       <c r="Y24" s="146"/>
       <c r="Z24" s="39"/>
@@ -41660,15 +41706,15 @@
       </c>
       <c r="Q34" s="126">
         <f t="shared" ref="Q34" si="1">SUM(Q22:Q33)</f>
-        <v>4.1041666666666661</v>
+        <v>6.1416666666666657</v>
       </c>
       <c r="R34" s="126">
         <f>SUM(R22:R33)</f>
-        <v>1.4236111111111112</v>
+        <v>2.5111111111111111</v>
       </c>
       <c r="S34" s="127">
         <f>SUM(S22:S33)</f>
-        <v>5.5277777777777768</v>
+        <v>8.6527777777777768</v>
       </c>
       <c r="T34" s="39"/>
       <c r="U34" s="39"/>
@@ -44255,7 +44301,7 @@
       </c>
       <c r="R136" s="46">
         <f>COUNTIF(D3:D59,Q136)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S136" s="39"/>
       <c r="T136" s="39"/>
@@ -44675,7 +44721,7 @@
       </c>
       <c r="R150" s="42">
         <f>SUM(R119:R149)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S150" s="39"/>
       <c r="T150" s="39"/>

--- a/spreadsheets/Games.xlsx
+++ b/spreadsheets/Games.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ucer0.github.io\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DF01B2-8A67-455E-A74E-BDF581BEB3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5527AA93-474F-4819-A2A8-B6CEB22E231F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="511">
   <si>
     <t>Nier: Automata</t>
   </si>
@@ -2107,6 +2107,30 @@
   </si>
   <si>
     <t>Okami</t>
+  </si>
+  <si>
+    <t>Pepper Grinder</t>
+  </si>
+  <si>
+    <t>2-abr.</t>
+  </si>
+  <si>
+    <t>3-abr.</t>
+  </si>
+  <si>
+    <t>Parasite Eve</t>
+  </si>
+  <si>
+    <t>Content Warning</t>
+  </si>
+  <si>
+    <t>ZeroRanger</t>
+  </si>
+  <si>
+    <t>22-abr.</t>
+  </si>
+  <si>
+    <t>ZeroRanger (3h 42m)</t>
   </si>
 </sst>
 </file>
@@ -3055,6 +3079,9 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
@@ -3073,7 +3100,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3084,9 +3111,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4081,6 +4105,9 @@
                 <c:pt idx="2">
                   <c:v>2.0375000000000001</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77777777777777779</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4175,6 +4202,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.0875000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48888888888888893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8093,7 +8123,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -8153,7 +8183,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0</c:v>
@@ -20778,7 +20808,7 @@
         <v>4.197916666666667</v>
       </c>
       <c r="I3" s="6"/>
-      <c r="J3" s="177" t="s">
+      <c r="J3" s="178" t="s">
         <v>118</v>
       </c>
       <c r="K3" s="80" t="s">
@@ -20852,7 +20882,7 @@
         <v>0.30138888888888887</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="178"/>
+      <c r="J4" s="179"/>
       <c r="K4" s="54" t="s">
         <v>127</v>
       </c>
@@ -20924,7 +20954,7 @@
         <v>0.2076388888888889</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="178"/>
+      <c r="J5" s="179"/>
       <c r="K5" s="73" t="s">
         <v>132</v>
       </c>
@@ -20996,7 +21026,7 @@
         <v>1.2437499999999999</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="178"/>
+      <c r="J6" s="179"/>
       <c r="K6" s="54" t="s">
         <v>129</v>
       </c>
@@ -21068,7 +21098,7 @@
         <v>0.27916666666666667</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="178"/>
+      <c r="J7" s="179"/>
       <c r="K7" s="73" t="s">
         <v>136</v>
       </c>
@@ -21140,7 +21170,7 @@
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="178"/>
+      <c r="J8" s="179"/>
       <c r="K8" s="54" t="s">
         <v>137</v>
       </c>
@@ -21212,7 +21242,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="177" t="s">
+      <c r="J9" s="178" t="s">
         <v>119</v>
       </c>
       <c r="K9" s="71" t="s">
@@ -21286,7 +21316,7 @@
         <v>0.19027777777777777</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="178"/>
+      <c r="J10" s="179"/>
       <c r="K10" s="54" t="s">
         <v>127</v>
       </c>
@@ -21358,7 +21388,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="178"/>
+      <c r="J11" s="179"/>
       <c r="K11" s="73" t="s">
         <v>132</v>
       </c>
@@ -21430,7 +21460,7 @@
         <v>1.7097222222222221</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="178"/>
+      <c r="J12" s="179"/>
       <c r="K12" s="54" t="s">
         <v>129</v>
       </c>
@@ -21502,7 +21532,7 @@
         <v>0.15972222222222224</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="178"/>
+      <c r="J13" s="179"/>
       <c r="K13" s="73" t="s">
         <v>141</v>
       </c>
@@ -21574,7 +21604,7 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="177" t="s">
+      <c r="J14" s="178" t="s">
         <v>120</v>
       </c>
       <c r="K14" s="10" t="s">
@@ -21648,7 +21678,7 @@
         <v>0.59652777777777777</v>
       </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="178"/>
+      <c r="J15" s="179"/>
       <c r="K15" s="73" t="s">
         <v>127</v>
       </c>
@@ -21720,7 +21750,7 @@
         <v>13</v>
       </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="178"/>
+      <c r="J16" s="179"/>
       <c r="K16" s="54" t="s">
         <v>132</v>
       </c>
@@ -21792,7 +21822,7 @@
         <v>13</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="178"/>
+      <c r="J17" s="179"/>
       <c r="K17" s="73" t="s">
         <v>129</v>
       </c>
@@ -21864,7 +21894,7 @@
         <v>0.24583333333333335</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="178"/>
+      <c r="J18" s="179"/>
       <c r="K18" s="54" t="s">
         <v>144</v>
       </c>
@@ -21936,7 +21966,7 @@
         <v>0.49513888888888885</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="179"/>
+      <c r="J19" s="180"/>
       <c r="K19" s="76" t="s">
         <v>150</v>
       </c>
@@ -22008,7 +22038,7 @@
         <v>0.20972222222222223</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="J20" s="177" t="s">
+      <c r="J20" s="178" t="s">
         <v>143</v>
       </c>
       <c r="K20" s="10" t="s">
@@ -22082,7 +22112,7 @@
         <v>0.25486111111111109</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="179"/>
+      <c r="J21" s="180"/>
       <c r="K21" s="76" t="s">
         <v>141</v>
       </c>
@@ -22164,7 +22194,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="178" t="s">
+      <c r="J22" s="179" t="s">
         <v>161</v>
       </c>
       <c r="K22" s="54" t="s">
@@ -22250,7 +22280,7 @@
         <v>0.26944444444444443</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="178"/>
+      <c r="J23" s="179"/>
       <c r="K23" s="80" t="s">
         <v>169</v>
       </c>
@@ -22334,7 +22364,7 @@
         <v>0.3263888888888889</v>
       </c>
       <c r="I24" s="39"/>
-      <c r="J24" s="178"/>
+      <c r="J24" s="179"/>
       <c r="K24" s="54" t="s">
         <v>163</v>
       </c>
@@ -22418,7 +22448,7 @@
         <v>0.32847222222222222</v>
       </c>
       <c r="I25" s="39"/>
-      <c r="J25" s="178"/>
+      <c r="J25" s="179"/>
       <c r="K25" s="73" t="s">
         <v>141</v>
       </c>
@@ -22502,7 +22532,7 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="I26" s="39"/>
-      <c r="J26" s="179"/>
+      <c r="J26" s="180"/>
       <c r="K26" s="11" t="s">
         <v>162</v>
       </c>
@@ -22586,7 +22616,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="I27" s="39"/>
-      <c r="J27" s="177" t="s">
+      <c r="J27" s="178" t="s">
         <v>171</v>
       </c>
       <c r="K27" s="73" t="s">
@@ -22672,7 +22702,7 @@
         <v>0.22291666666666665</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="178"/>
+      <c r="J28" s="179"/>
       <c r="K28" s="101" t="s">
         <v>163</v>
       </c>
@@ -22756,7 +22786,7 @@
         <v>0.13194444444444445</v>
       </c>
       <c r="I29" s="39"/>
-      <c r="J29" s="178"/>
+      <c r="J29" s="179"/>
       <c r="K29" s="73" t="s">
         <v>29</v>
       </c>
@@ -22840,7 +22870,7 @@
         <v>13</v>
       </c>
       <c r="I30" s="39"/>
-      <c r="J30" s="178"/>
+      <c r="J30" s="179"/>
       <c r="K30" s="101" t="s">
         <v>136</v>
       </c>
@@ -22924,7 +22954,7 @@
         <v>0.43888888888888888</v>
       </c>
       <c r="I31" s="39"/>
-      <c r="J31" s="179"/>
+      <c r="J31" s="180"/>
       <c r="K31" s="73" t="s">
         <v>141</v>
       </c>
@@ -23008,7 +23038,7 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="I32" s="39"/>
-      <c r="J32" s="177" t="s">
+      <c r="J32" s="178" t="s">
         <v>184</v>
       </c>
       <c r="K32" s="107" t="s">
@@ -23094,7 +23124,7 @@
         <v>2.7097222222222221</v>
       </c>
       <c r="I33" s="39"/>
-      <c r="J33" s="178"/>
+      <c r="J33" s="179"/>
       <c r="K33" s="73" t="s">
         <v>179</v>
       </c>
@@ -23180,7 +23210,7 @@
         <v>13</v>
       </c>
       <c r="I34" s="39"/>
-      <c r="J34" s="178"/>
+      <c r="J34" s="179"/>
       <c r="K34" s="54" t="s">
         <v>199</v>
       </c>
@@ -23263,7 +23293,7 @@
         <v>0.11041666666666666</v>
       </c>
       <c r="I35" s="39"/>
-      <c r="J35" s="178"/>
+      <c r="J35" s="179"/>
       <c r="K35" s="80" t="s">
         <v>198</v>
       </c>
@@ -23335,7 +23365,7 @@
         <v>0.37083333333333335</v>
       </c>
       <c r="I36" s="39"/>
-      <c r="J36" s="178"/>
+      <c r="J36" s="179"/>
       <c r="K36" s="54" t="s">
         <v>141</v>
       </c>
@@ -23343,9 +23373,9 @@
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="M36" s="39"/>
-      <c r="N36" s="180"/>
-      <c r="O36" s="180"/>
-      <c r="P36" s="180"/>
+      <c r="N36" s="174"/>
+      <c r="O36" s="174"/>
+      <c r="P36" s="174"/>
       <c r="Q36" s="111"/>
       <c r="R36" s="16"/>
       <c r="S36" s="16"/>
@@ -23407,7 +23437,7 @@
         <v>0.80694444444444446</v>
       </c>
       <c r="I37" s="39"/>
-      <c r="J37" s="178"/>
+      <c r="J37" s="179"/>
       <c r="K37" s="80" t="s">
         <v>196</v>
       </c>
@@ -23415,9 +23445,9 @@
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="M37" s="39"/>
-      <c r="N37" s="180"/>
-      <c r="O37" s="180"/>
-      <c r="P37" s="180"/>
+      <c r="N37" s="174"/>
+      <c r="O37" s="174"/>
+      <c r="P37" s="174"/>
       <c r="Q37" s="111"/>
       <c r="R37" s="16"/>
       <c r="S37" s="16"/>
@@ -23479,7 +23509,7 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="I38" s="39"/>
-      <c r="J38" s="179"/>
+      <c r="J38" s="180"/>
       <c r="K38" s="11" t="s">
         <v>202</v>
       </c>
@@ -23487,9 +23517,9 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="M38" s="39"/>
-      <c r="N38" s="180"/>
-      <c r="O38" s="180"/>
-      <c r="P38" s="180"/>
+      <c r="N38" s="174"/>
+      <c r="O38" s="174"/>
+      <c r="P38" s="174"/>
       <c r="Q38" s="111"/>
       <c r="R38" s="16"/>
       <c r="S38" s="16"/>
@@ -23537,7 +23567,7 @@
       <c r="G39" s="30"/>
       <c r="H39" s="61"/>
       <c r="I39" s="39"/>
-      <c r="J39" s="177" t="s">
+      <c r="J39" s="178" t="s">
         <v>209</v>
       </c>
       <c r="K39" s="116" t="s">
@@ -23547,9 +23577,9 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="M39" s="39"/>
-      <c r="N39" s="180"/>
-      <c r="O39" s="180"/>
-      <c r="P39" s="180"/>
+      <c r="N39" s="174"/>
+      <c r="O39" s="174"/>
+      <c r="P39" s="174"/>
       <c r="Q39" s="124"/>
       <c r="R39" s="16"/>
       <c r="S39" s="16"/>
@@ -23597,7 +23627,7 @@
       <c r="G40" s="39"/>
       <c r="H40" s="62"/>
       <c r="I40" s="39"/>
-      <c r="J40" s="178"/>
+      <c r="J40" s="179"/>
       <c r="K40" s="113" t="s">
         <v>210</v>
       </c>
@@ -23605,9 +23635,9 @@
         <v>0.3666666666666667</v>
       </c>
       <c r="M40" s="39"/>
-      <c r="N40" s="180"/>
-      <c r="O40" s="180"/>
-      <c r="P40" s="180"/>
+      <c r="N40" s="174"/>
+      <c r="O40" s="174"/>
+      <c r="P40" s="174"/>
       <c r="Q40" s="124"/>
       <c r="R40" s="16"/>
       <c r="S40" s="16"/>
@@ -23654,7 +23684,7 @@
       <c r="G41" s="30"/>
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
-      <c r="J41" s="178"/>
+      <c r="J41" s="179"/>
       <c r="K41" s="112" t="s">
         <v>179</v>
       </c>
@@ -23662,9 +23692,9 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="M41" s="39"/>
-      <c r="N41" s="180"/>
-      <c r="O41" s="180"/>
-      <c r="P41" s="180"/>
+      <c r="N41" s="174"/>
+      <c r="O41" s="174"/>
+      <c r="P41" s="174"/>
       <c r="Q41" s="124"/>
       <c r="R41" s="16"/>
       <c r="S41" s="16"/>
@@ -23712,7 +23742,7 @@
       <c r="G42" s="30"/>
       <c r="H42" s="61"/>
       <c r="I42" s="39"/>
-      <c r="J42" s="178"/>
+      <c r="J42" s="179"/>
       <c r="K42" s="114" t="s">
         <v>136</v>
       </c>
@@ -23770,7 +23800,7 @@
       <c r="G43" s="39"/>
       <c r="H43" s="62"/>
       <c r="I43" s="39"/>
-      <c r="J43" s="178"/>
+      <c r="J43" s="179"/>
       <c r="K43" s="112" t="s">
         <v>212</v>
       </c>
@@ -23828,7 +23858,7 @@
       <c r="G44" s="39"/>
       <c r="H44" s="62"/>
       <c r="I44" s="39"/>
-      <c r="J44" s="178"/>
+      <c r="J44" s="179"/>
       <c r="K44" s="113" t="s">
         <v>213</v>
       </c>
@@ -23886,7 +23916,7 @@
       <c r="G45" s="39"/>
       <c r="H45" s="62"/>
       <c r="I45" s="39"/>
-      <c r="J45" s="179"/>
+      <c r="J45" s="180"/>
       <c r="K45" s="115" t="s">
         <v>141</v>
       </c>
@@ -23944,7 +23974,7 @@
       <c r="G46" s="39"/>
       <c r="H46" s="62"/>
       <c r="I46" s="39"/>
-      <c r="J46" s="174" t="s">
+      <c r="J46" s="175" t="s">
         <v>217</v>
       </c>
       <c r="K46" s="119" t="s">
@@ -24004,7 +24034,7 @@
       <c r="G47" s="39"/>
       <c r="H47" s="62"/>
       <c r="I47" s="39"/>
-      <c r="J47" s="175"/>
+      <c r="J47" s="176"/>
       <c r="K47" s="80" t="s">
         <v>179</v>
       </c>
@@ -24062,7 +24092,7 @@
       <c r="G48" s="39"/>
       <c r="H48" s="62"/>
       <c r="I48" s="39"/>
-      <c r="J48" s="175"/>
+      <c r="J48" s="176"/>
       <c r="K48" s="101" t="s">
         <v>136</v>
       </c>
@@ -24120,7 +24150,7 @@
       <c r="G49" s="39"/>
       <c r="H49" s="62"/>
       <c r="I49" s="39"/>
-      <c r="J49" s="176"/>
+      <c r="J49" s="177"/>
       <c r="K49" s="120" t="s">
         <v>213</v>
       </c>
@@ -24178,7 +24208,7 @@
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
       <c r="I50" s="39"/>
-      <c r="J50" s="174" t="s">
+      <c r="J50" s="175" t="s">
         <v>232</v>
       </c>
       <c r="K50" s="121" t="s">
@@ -24238,7 +24268,7 @@
       <c r="G51" s="39"/>
       <c r="H51" s="39"/>
       <c r="I51" s="39"/>
-      <c r="J51" s="175"/>
+      <c r="J51" s="176"/>
       <c r="K51" s="122" t="s">
         <v>179</v>
       </c>
@@ -24296,7 +24326,7 @@
       <c r="G52" s="39"/>
       <c r="H52" s="39"/>
       <c r="I52" s="39"/>
-      <c r="J52" s="175"/>
+      <c r="J52" s="176"/>
       <c r="K52" s="114" t="s">
         <v>235</v>
       </c>
@@ -24354,7 +24384,7 @@
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
       <c r="I53" s="39"/>
-      <c r="J53" s="176"/>
+      <c r="J53" s="177"/>
       <c r="K53" s="115" t="s">
         <v>211</v>
       </c>
@@ -24412,7 +24442,7 @@
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
       <c r="I54" s="39"/>
-      <c r="J54" s="174" t="s">
+      <c r="J54" s="175" t="s">
         <v>243</v>
       </c>
       <c r="K54" s="121" t="s">
@@ -24472,7 +24502,7 @@
       <c r="G55" s="39"/>
       <c r="H55" s="39"/>
       <c r="I55" s="39"/>
-      <c r="J55" s="175"/>
+      <c r="J55" s="176"/>
       <c r="K55" s="122" t="s">
         <v>242</v>
       </c>
@@ -24530,7 +24560,7 @@
       <c r="G56" s="39"/>
       <c r="H56" s="39"/>
       <c r="I56" s="39"/>
-      <c r="J56" s="175"/>
+      <c r="J56" s="176"/>
       <c r="K56" s="114" t="s">
         <v>29</v>
       </c>
@@ -24588,7 +24618,7 @@
       <c r="G57" s="39"/>
       <c r="H57" s="39"/>
       <c r="I57" s="39"/>
-      <c r="J57" s="176"/>
+      <c r="J57" s="177"/>
       <c r="K57" s="115" t="s">
         <v>199</v>
       </c>
@@ -24646,7 +24676,7 @@
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
       <c r="I58" s="39"/>
-      <c r="J58" s="174" t="s">
+      <c r="J58" s="175" t="s">
         <v>246</v>
       </c>
       <c r="K58" s="121" t="s">
@@ -24706,7 +24736,7 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
       <c r="I59" s="39"/>
-      <c r="J59" s="175"/>
+      <c r="J59" s="176"/>
       <c r="K59" s="122" t="s">
         <v>235</v>
       </c>
@@ -24764,7 +24794,7 @@
       <c r="G60" s="39"/>
       <c r="H60" s="39"/>
       <c r="I60" s="39"/>
-      <c r="J60" s="175"/>
+      <c r="J60" s="176"/>
       <c r="K60" s="114" t="s">
         <v>242</v>
       </c>
@@ -24822,7 +24852,7 @@
       <c r="G61" s="39"/>
       <c r="H61" s="39"/>
       <c r="I61" s="39"/>
-      <c r="J61" s="175"/>
+      <c r="J61" s="176"/>
       <c r="K61" s="122" t="s">
         <v>245</v>
       </c>
@@ -24880,7 +24910,7 @@
       <c r="G62" s="39"/>
       <c r="H62" s="39"/>
       <c r="I62" s="39"/>
-      <c r="J62" s="175"/>
+      <c r="J62" s="176"/>
       <c r="K62" s="114" t="s">
         <v>29</v>
       </c>
@@ -24938,7 +24968,7 @@
       <c r="G63" s="39"/>
       <c r="H63" s="39"/>
       <c r="I63" s="39"/>
-      <c r="J63" s="176"/>
+      <c r="J63" s="177"/>
       <c r="K63" s="115" t="s">
         <v>199</v>
       </c>
@@ -30687,12 +30717,6 @@
     <sortCondition ref="K33"/>
   </sortState>
   <mergeCells count="18">
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="N39:P39"/>
     <mergeCell ref="J58:J63"/>
     <mergeCell ref="J54:J57"/>
     <mergeCell ref="J50:J53"/>
@@ -30705,6 +30729,12 @@
     <mergeCell ref="J32:J38"/>
     <mergeCell ref="J27:J31"/>
     <mergeCell ref="J14:J19"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="N39:P39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -30796,15 +30826,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="181" t="s">
+      <c r="J2" s="182" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="183"/>
+      <c r="K2" s="184"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="183" t="s">
+      <c r="M2" s="184" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="182"/>
+      <c r="N2" s="183"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -31104,15 +31134,15 @@
         <v>0.20416666666666669</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="181" t="s">
+      <c r="J9" s="182" t="s">
         <v>286</v>
       </c>
-      <c r="K9" s="183"/>
+      <c r="K9" s="184"/>
       <c r="L9" s="136"/>
-      <c r="M9" s="183" t="s">
+      <c r="M9" s="184" t="s">
         <v>287</v>
       </c>
-      <c r="N9" s="182"/>
+      <c r="N9" s="183"/>
       <c r="O9" s="39"/>
       <c r="P9" s="39"/>
       <c r="Q9" s="39"/>
@@ -31319,15 +31349,15 @@
         <v>0.15208333333333332</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="181" t="s">
+      <c r="J14" s="182" t="s">
         <v>288</v>
       </c>
-      <c r="K14" s="182"/>
+      <c r="K14" s="183"/>
       <c r="L14" s="136"/>
-      <c r="M14" s="181" t="s">
+      <c r="M14" s="182" t="s">
         <v>289</v>
       </c>
-      <c r="N14" s="182"/>
+      <c r="N14" s="183"/>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
@@ -31631,15 +31661,15 @@
         <v>0.35138888888888892</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="181" t="s">
+      <c r="J21" s="182" t="s">
         <v>290</v>
       </c>
-      <c r="K21" s="182"/>
+      <c r="K21" s="183"/>
       <c r="L21" s="136"/>
-      <c r="M21" s="181" t="s">
+      <c r="M21" s="182" t="s">
         <v>291</v>
       </c>
-      <c r="N21" s="182"/>
+      <c r="N21" s="183"/>
       <c r="O21" s="39"/>
       <c r="P21" s="89" t="s">
         <v>31</v>
@@ -32021,15 +32051,15 @@
         <v>0.11805555555555557</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="181" t="s">
+      <c r="J28" s="182" t="s">
         <v>292</v>
       </c>
-      <c r="K28" s="182"/>
+      <c r="K28" s="183"/>
       <c r="L28" s="136"/>
-      <c r="M28" s="181" t="s">
+      <c r="M28" s="182" t="s">
         <v>293</v>
       </c>
-      <c r="N28" s="182"/>
+      <c r="N28" s="183"/>
       <c r="O28" s="39"/>
       <c r="P28" s="93" t="s">
         <v>38</v>
@@ -32376,15 +32406,15 @@
       <c r="G35" s="30"/>
       <c r="H35" s="61"/>
       <c r="I35" s="39"/>
-      <c r="J35" s="181" t="s">
+      <c r="J35" s="182" t="s">
         <v>294</v>
       </c>
-      <c r="K35" s="182"/>
+      <c r="K35" s="183"/>
       <c r="L35" s="136"/>
-      <c r="M35" s="181" t="s">
+      <c r="M35" s="182" t="s">
         <v>295</v>
       </c>
-      <c r="N35" s="182"/>
+      <c r="N35" s="183"/>
       <c r="O35" s="39"/>
       <c r="P35" s="39"/>
       <c r="Q35" s="39"/>
@@ -32419,9 +32449,9 @@
         <v>4.9305555555555554E-2</v>
       </c>
       <c r="O36" s="39"/>
-      <c r="P36" s="180"/>
-      <c r="Q36" s="180"/>
-      <c r="R36" s="180"/>
+      <c r="P36" s="174"/>
+      <c r="Q36" s="174"/>
+      <c r="R36" s="174"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -32452,9 +32482,9 @@
         <v>0.18472222222222223</v>
       </c>
       <c r="O37" s="39"/>
-      <c r="P37" s="184"/>
-      <c r="Q37" s="184"/>
-      <c r="R37" s="184"/>
+      <c r="P37" s="181"/>
+      <c r="Q37" s="181"/>
+      <c r="R37" s="181"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -32485,9 +32515,9 @@
         <v>0.21249999999999999</v>
       </c>
       <c r="O38" s="39"/>
-      <c r="P38" s="180"/>
-      <c r="Q38" s="180"/>
-      <c r="R38" s="180"/>
+      <c r="P38" s="174"/>
+      <c r="Q38" s="174"/>
+      <c r="R38" s="174"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -32518,9 +32548,9 @@
         <v>0.26527777777777778</v>
       </c>
       <c r="O39" s="39"/>
-      <c r="P39" s="180"/>
-      <c r="Q39" s="180"/>
-      <c r="R39" s="180"/>
+      <c r="P39" s="174"/>
+      <c r="Q39" s="174"/>
+      <c r="R39" s="174"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -32551,9 +32581,9 @@
         <v>0.75347222222222221</v>
       </c>
       <c r="O40" s="39"/>
-      <c r="P40" s="180"/>
-      <c r="Q40" s="180"/>
-      <c r="R40" s="180"/>
+      <c r="P40" s="174"/>
+      <c r="Q40" s="174"/>
+      <c r="R40" s="174"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -32579,9 +32609,9 @@
         <v>1.0513888888888889</v>
       </c>
       <c r="O41" s="39"/>
-      <c r="P41" s="180"/>
-      <c r="Q41" s="180"/>
-      <c r="R41" s="180"/>
+      <c r="P41" s="174"/>
+      <c r="Q41" s="174"/>
+      <c r="R41" s="174"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -35546,12 +35576,6 @@
     <sortCondition ref="J9"/>
   </sortState>
   <mergeCells count="18">
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
     <mergeCell ref="M35:N35"/>
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="M21:N21"/>
@@ -35564,6 +35588,12 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="J35:K35"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J116" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -35580,7 +35610,7 @@
   <dimension ref="A1:Z153"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -35656,15 +35686,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="181" t="s">
+      <c r="J2" s="182" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="183"/>
+      <c r="K2" s="184"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="183" t="s">
+      <c r="M2" s="184" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="182"/>
+      <c r="N2" s="183"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -35994,15 +36024,15 @@
         <v>1.1847222222222222</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="181" t="s">
+      <c r="J10" s="182" t="s">
         <v>286</v>
       </c>
-      <c r="K10" s="182"/>
+      <c r="K10" s="183"/>
       <c r="L10" s="136"/>
-      <c r="M10" s="181" t="s">
+      <c r="M10" s="182" t="s">
         <v>287</v>
       </c>
-      <c r="N10" s="182"/>
+      <c r="N10" s="183"/>
       <c r="O10" s="39"/>
       <c r="P10" s="39"/>
       <c r="Q10" s="39"/>
@@ -36299,15 +36329,15 @@
         <v>6.063194444444445</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="181" t="s">
+      <c r="J17" s="182" t="s">
         <v>288</v>
       </c>
-      <c r="K17" s="182"/>
+      <c r="K17" s="183"/>
       <c r="L17" s="136"/>
-      <c r="M17" s="181" t="s">
+      <c r="M17" s="182" t="s">
         <v>289</v>
       </c>
-      <c r="N17" s="182"/>
+      <c r="N17" s="183"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
@@ -36529,15 +36559,15 @@
         <v>0.50555555555555554</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="181" t="s">
+      <c r="J22" s="182" t="s">
         <v>290</v>
       </c>
-      <c r="K22" s="182"/>
+      <c r="K22" s="183"/>
       <c r="L22" s="136"/>
-      <c r="M22" s="181" t="s">
+      <c r="M22" s="182" t="s">
         <v>291</v>
       </c>
-      <c r="N22" s="182"/>
+      <c r="N22" s="183"/>
       <c r="O22" s="39"/>
       <c r="P22" s="63" t="s">
         <v>32</v>
@@ -36888,15 +36918,15 @@
         <v>2.6388888888888889E-2</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="181" t="s">
+      <c r="J28" s="182" t="s">
         <v>292</v>
       </c>
-      <c r="K28" s="182"/>
+      <c r="K28" s="183"/>
       <c r="L28" s="136"/>
-      <c r="M28" s="181" t="s">
+      <c r="M28" s="182" t="s">
         <v>293</v>
       </c>
-      <c r="N28" s="182"/>
+      <c r="N28" s="183"/>
       <c r="O28" s="39"/>
       <c r="P28" s="93" t="s">
         <v>38</v>
@@ -37262,15 +37292,15 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="I34" s="39"/>
-      <c r="J34" s="181" t="s">
+      <c r="J34" s="182" t="s">
         <v>294</v>
       </c>
-      <c r="K34" s="182"/>
+      <c r="K34" s="183"/>
       <c r="L34" s="136"/>
-      <c r="M34" s="181" t="s">
+      <c r="M34" s="182" t="s">
         <v>295</v>
       </c>
-      <c r="N34" s="182"/>
+      <c r="N34" s="183"/>
       <c r="O34" s="39"/>
       <c r="P34" s="125" t="s">
         <v>77</v>
@@ -37377,9 +37407,9 @@
         <v>0.36944444444444446</v>
       </c>
       <c r="O36" s="39"/>
-      <c r="P36" s="180"/>
-      <c r="Q36" s="180"/>
-      <c r="R36" s="180"/>
+      <c r="P36" s="174"/>
+      <c r="Q36" s="174"/>
+      <c r="R36" s="174"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -37424,9 +37454,9 @@
         <v>7.9166666666666663E-2</v>
       </c>
       <c r="O37" s="39"/>
-      <c r="P37" s="184"/>
-      <c r="Q37" s="180"/>
-      <c r="R37" s="180"/>
+      <c r="P37" s="181"/>
+      <c r="Q37" s="174"/>
+      <c r="R37" s="174"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -37458,9 +37488,9 @@
       </c>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="180"/>
-      <c r="Q38" s="180"/>
-      <c r="R38" s="180"/>
+      <c r="P38" s="174"/>
+      <c r="Q38" s="174"/>
+      <c r="R38" s="174"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -37478,9 +37508,9 @@
       <c r="H39" s="138"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="180"/>
-      <c r="Q39" s="180"/>
-      <c r="R39" s="180"/>
+      <c r="P39" s="174"/>
+      <c r="Q39" s="174"/>
+      <c r="R39" s="174"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -37498,9 +37528,9 @@
       <c r="H40" s="61"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="180"/>
-      <c r="Q40" s="180"/>
-      <c r="R40" s="180"/>
+      <c r="P40" s="174"/>
+      <c r="Q40" s="174"/>
+      <c r="R40" s="174"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -37518,9 +37548,9 @@
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="180"/>
-      <c r="Q41" s="180"/>
-      <c r="R41" s="180"/>
+      <c r="P41" s="174"/>
+      <c r="Q41" s="174"/>
+      <c r="R41" s="174"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -40472,24 +40502,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M17:N17"/>
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
@@ -40511,7 +40541,7 @@
   <dimension ref="A1:Z153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -40587,15 +40617,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="181" t="s">
+      <c r="J2" s="182" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="182"/>
+      <c r="K2" s="183"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="181" t="s">
+      <c r="M2" s="182" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="182"/>
+      <c r="N2" s="183"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -40801,15 +40831,15 @@
         <v>0.33749999999999997</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="181" t="s">
+      <c r="J7" s="182" t="s">
         <v>286</v>
       </c>
-      <c r="K7" s="182"/>
+      <c r="K7" s="183"/>
       <c r="L7" s="136"/>
-      <c r="M7" s="181" t="s">
+      <c r="M7" s="182" t="s">
         <v>287</v>
       </c>
-      <c r="N7" s="182"/>
+      <c r="N7" s="183"/>
       <c r="O7" s="39"/>
       <c r="P7" s="39"/>
       <c r="Q7" s="39"/>
@@ -40851,8 +40881,12 @@
         <v>1.0229166666666667</v>
       </c>
       <c r="L8" s="137"/>
-      <c r="M8" s="131"/>
-      <c r="N8" s="72"/>
+      <c r="M8" s="131" t="s">
+        <v>498</v>
+      </c>
+      <c r="N8" s="72">
+        <v>0.40486111111111112</v>
+      </c>
       <c r="O8" s="39"/>
       <c r="P8" s="39"/>
       <c r="Q8" s="39"/>
@@ -40895,8 +40929,12 @@
         <v>6.458333333333334E-2</v>
       </c>
       <c r="L9" s="137"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="60"/>
+      <c r="M9" s="101" t="s">
+        <v>507</v>
+      </c>
+      <c r="N9" s="60">
+        <v>2.7083333333333334E-2</v>
+      </c>
       <c r="O9" s="39"/>
       <c r="P9" s="39"/>
       <c r="Q9" s="39"/>
@@ -40934,8 +40972,12 @@
       <c r="J10" s="52"/>
       <c r="K10" s="138"/>
       <c r="L10" s="163"/>
-      <c r="M10" s="135"/>
-      <c r="N10" s="77"/>
+      <c r="M10" s="135" t="s">
+        <v>465</v>
+      </c>
+      <c r="N10" s="77">
+        <v>5.6944444444444443E-2</v>
+      </c>
       <c r="O10" s="39"/>
       <c r="P10" s="39"/>
       <c r="Q10" s="39"/>
@@ -40951,12 +40993,24 @@
       <c r="B11" s="70">
         <v>9</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="75"/>
+      <c r="C11" s="73" t="s">
+        <v>503</v>
+      </c>
+      <c r="D11" s="73">
+        <v>2024</v>
+      </c>
+      <c r="E11" s="152" t="s">
+        <v>440</v>
+      </c>
+      <c r="F11" s="74" t="s">
+        <v>504</v>
+      </c>
+      <c r="G11" s="74" t="s">
+        <v>505</v>
+      </c>
+      <c r="H11" s="75">
+        <v>0.13541666666666666</v>
+      </c>
       <c r="I11" s="6"/>
       <c r="O11" s="39"/>
       <c r="P11" s="39"/>
@@ -40973,22 +41027,34 @@
       <c r="B12" s="78">
         <v>10</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="153"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="60"/>
+      <c r="C12" s="54" t="s">
+        <v>506</v>
+      </c>
+      <c r="D12" s="54">
+        <v>1998</v>
+      </c>
+      <c r="E12" s="153" t="s">
+        <v>443</v>
+      </c>
+      <c r="F12" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="H12" s="60">
+        <v>0.48819444444444443</v>
+      </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="181" t="s">
+      <c r="J12" s="182" t="s">
         <v>288</v>
       </c>
-      <c r="K12" s="182"/>
+      <c r="K12" s="183"/>
       <c r="L12" s="136"/>
-      <c r="M12" s="181" t="s">
+      <c r="M12" s="182" t="s">
         <v>289</v>
       </c>
-      <c r="N12" s="182"/>
+      <c r="N12" s="183"/>
       <c r="O12" s="39"/>
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
@@ -41004,12 +41070,24 @@
       <c r="B13" s="70">
         <v>11</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="75"/>
+      <c r="C13" s="73" t="s">
+        <v>508</v>
+      </c>
+      <c r="D13" s="73">
+        <v>2018</v>
+      </c>
+      <c r="E13" s="152" t="s">
+        <v>440</v>
+      </c>
+      <c r="F13" s="74" t="s">
+        <v>509</v>
+      </c>
+      <c r="G13" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="75" t="s">
+        <v>13</v>
+      </c>
       <c r="I13" s="6"/>
       <c r="J13" s="122"/>
       <c r="K13" s="132"/>
@@ -41114,15 +41192,15 @@
       <c r="G17" s="74"/>
       <c r="H17" s="75"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="181" t="s">
+      <c r="J17" s="182" t="s">
         <v>290</v>
       </c>
-      <c r="K17" s="182"/>
+      <c r="K17" s="183"/>
       <c r="L17" s="136"/>
-      <c r="M17" s="181" t="s">
+      <c r="M17" s="182" t="s">
         <v>291</v>
       </c>
-      <c r="N17" s="182"/>
+      <c r="N17" s="183"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
@@ -41260,15 +41338,15 @@
       <c r="G22" s="69"/>
       <c r="H22" s="60"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="181" t="s">
+      <c r="J22" s="182" t="s">
         <v>292</v>
       </c>
-      <c r="K22" s="182"/>
+      <c r="K22" s="183"/>
       <c r="L22" s="136"/>
-      <c r="M22" s="181" t="s">
+      <c r="M22" s="182" t="s">
         <v>293</v>
       </c>
-      <c r="N22" s="182"/>
+      <c r="N22" s="183"/>
       <c r="O22" s="39"/>
       <c r="P22" s="63" t="s">
         <v>32</v>
@@ -41412,16 +41490,26 @@
       <c r="P25" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="Q25" s="64"/>
-      <c r="R25" s="64"/>
+      <c r="Q25" s="64">
+        <f>SUM(H11:H12,W25)</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="R25" s="64">
+        <f>SUM(N8:N10)</f>
+        <v>0.48888888888888893</v>
+      </c>
       <c r="S25" s="90">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2666666666666666</v>
       </c>
       <c r="T25" s="39"/>
-      <c r="U25" s="105"/>
+      <c r="U25" s="98" t="s">
+        <v>510</v>
+      </c>
       <c r="V25" s="146"/>
-      <c r="W25" s="147"/>
+      <c r="W25" s="147">
+        <v>0.15416666666666667</v>
+      </c>
       <c r="X25" s="147"/>
       <c r="Y25" s="146"/>
       <c r="Z25" s="39"/>
@@ -41468,15 +41556,15 @@
       <c r="G27" s="74"/>
       <c r="H27" s="75"/>
       <c r="I27" s="39"/>
-      <c r="J27" s="181" t="s">
+      <c r="J27" s="182" t="s">
         <v>294</v>
       </c>
-      <c r="K27" s="182"/>
+      <c r="K27" s="183"/>
       <c r="L27" s="136"/>
-      <c r="M27" s="181" t="s">
+      <c r="M27" s="182" t="s">
         <v>295</v>
       </c>
-      <c r="N27" s="182"/>
+      <c r="N27" s="183"/>
       <c r="O27" s="39"/>
       <c r="P27" s="94" t="s">
         <v>37</v>
@@ -41706,15 +41794,15 @@
       </c>
       <c r="Q34" s="126">
         <f t="shared" ref="Q34" si="1">SUM(Q22:Q33)</f>
-        <v>6.1416666666666657</v>
+        <v>6.9194444444444434</v>
       </c>
       <c r="R34" s="126">
         <f>SUM(R22:R33)</f>
-        <v>2.5111111111111111</v>
+        <v>3</v>
       </c>
       <c r="S34" s="127">
         <f>SUM(S22:S33)</f>
-        <v>8.6527777777777768</v>
+        <v>9.9194444444444443</v>
       </c>
       <c r="T34" s="39"/>
       <c r="U34" s="39"/>
@@ -41752,9 +41840,9 @@
       <c r="H36" s="61"/>
       <c r="I36" s="39"/>
       <c r="O36" s="39"/>
-      <c r="P36" s="180"/>
-      <c r="Q36" s="180"/>
-      <c r="R36" s="180"/>
+      <c r="P36" s="174"/>
+      <c r="Q36" s="174"/>
+      <c r="R36" s="174"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -41772,9 +41860,9 @@
       <c r="H37" s="61"/>
       <c r="I37" s="39"/>
       <c r="O37" s="39"/>
-      <c r="P37" s="184"/>
-      <c r="Q37" s="180"/>
-      <c r="R37" s="180"/>
+      <c r="P37" s="181"/>
+      <c r="Q37" s="174"/>
+      <c r="R37" s="174"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -41792,9 +41880,9 @@
       <c r="H38" s="61"/>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="180"/>
-      <c r="Q38" s="180"/>
-      <c r="R38" s="180"/>
+      <c r="P38" s="174"/>
+      <c r="Q38" s="174"/>
+      <c r="R38" s="174"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -41812,9 +41900,9 @@
       <c r="H39" s="61"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="180"/>
-      <c r="Q39" s="180"/>
-      <c r="R39" s="180"/>
+      <c r="P39" s="174"/>
+      <c r="Q39" s="174"/>
+      <c r="R39" s="174"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -41832,9 +41920,9 @@
       <c r="H40" s="62"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="180"/>
-      <c r="Q40" s="180"/>
-      <c r="R40" s="180"/>
+      <c r="P40" s="174"/>
+      <c r="Q40" s="174"/>
+      <c r="R40" s="174"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -41852,9 +41940,9 @@
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="180"/>
-      <c r="Q41" s="180"/>
-      <c r="R41" s="180"/>
+      <c r="P41" s="174"/>
+      <c r="Q41" s="174"/>
+      <c r="R41" s="174"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -43941,7 +44029,7 @@
       </c>
       <c r="R124" s="46">
         <f>COUNTIF(D3:D59,Q124)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S124" s="39"/>
       <c r="T124" s="39"/>
@@ -44541,7 +44629,7 @@
       </c>
       <c r="R144" s="46">
         <f>COUNTIF(D3:D59,Q144)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S144" s="39"/>
       <c r="T144" s="39"/>
@@ -44721,7 +44809,7 @@
       </c>
       <c r="R150" s="42">
         <f>SUM(R119:R149)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S150" s="39"/>
       <c r="T150" s="39"/>
@@ -44806,11 +44894,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="P36:R36"/>
@@ -44824,6 +44907,11 @@
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="M17:N17"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J116" r:id="rId1" xr:uid="{24F98E59-04E2-4995-A47A-0D179F9D60FA}"/>
@@ -44832,7 +44920,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <ignoredErrors>
-    <ignoredError sqref="Q22" formulaRange="1"/>
+    <ignoredError sqref="Q22 Q25" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId4"/>
 </worksheet>

--- a/spreadsheets/Games.xlsx
+++ b/spreadsheets/Games.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ucer0.github.io\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5527AA93-474F-4819-A2A8-B6CEB22E231F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B01CDB4-34B6-478C-BA4C-CA2A5AF88069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="516">
   <si>
     <t>Nier: Automata</t>
   </si>
@@ -2131,6 +2131,21 @@
   </si>
   <si>
     <t>ZeroRanger (3h 42m)</t>
+  </si>
+  <si>
+    <t>3-may.</t>
+  </si>
+  <si>
+    <t>ZeroRanger (7h 13m)</t>
+  </si>
+  <si>
+    <t>The Big Catch DEMO</t>
+  </si>
+  <si>
+    <t>Cryptmaster</t>
+  </si>
+  <si>
+    <t>Star Vaders DEMO</t>
   </si>
 </sst>
 </file>
@@ -3079,9 +3094,6 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
@@ -3100,7 +3112,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3111,6 +3123,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4108,6 +4123,9 @@
                 <c:pt idx="3">
                   <c:v>0.77777777777777779</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30069444444444443</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4205,6 +4223,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.48888888888888893</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29097222222222224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20633,7 +20654,7 @@
   <dimension ref="A1:AZ296"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -20808,7 +20829,7 @@
         <v>4.197916666666667</v>
       </c>
       <c r="I3" s="6"/>
-      <c r="J3" s="178" t="s">
+      <c r="J3" s="177" t="s">
         <v>118</v>
       </c>
       <c r="K3" s="80" t="s">
@@ -20882,7 +20903,7 @@
         <v>0.30138888888888887</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="179"/>
+      <c r="J4" s="178"/>
       <c r="K4" s="54" t="s">
         <v>127</v>
       </c>
@@ -20954,7 +20975,7 @@
         <v>0.2076388888888889</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="179"/>
+      <c r="J5" s="178"/>
       <c r="K5" s="73" t="s">
         <v>132</v>
       </c>
@@ -21026,7 +21047,7 @@
         <v>1.2437499999999999</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="179"/>
+      <c r="J6" s="178"/>
       <c r="K6" s="54" t="s">
         <v>129</v>
       </c>
@@ -21098,7 +21119,7 @@
         <v>0.27916666666666667</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="179"/>
+      <c r="J7" s="178"/>
       <c r="K7" s="73" t="s">
         <v>136</v>
       </c>
@@ -21170,7 +21191,7 @@
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="179"/>
+      <c r="J8" s="178"/>
       <c r="K8" s="54" t="s">
         <v>137</v>
       </c>
@@ -21242,7 +21263,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="178" t="s">
+      <c r="J9" s="177" t="s">
         <v>119</v>
       </c>
       <c r="K9" s="71" t="s">
@@ -21316,7 +21337,7 @@
         <v>0.19027777777777777</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="179"/>
+      <c r="J10" s="178"/>
       <c r="K10" s="54" t="s">
         <v>127</v>
       </c>
@@ -21388,7 +21409,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="179"/>
+      <c r="J11" s="178"/>
       <c r="K11" s="73" t="s">
         <v>132</v>
       </c>
@@ -21460,7 +21481,7 @@
         <v>1.7097222222222221</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="179"/>
+      <c r="J12" s="178"/>
       <c r="K12" s="54" t="s">
         <v>129</v>
       </c>
@@ -21532,7 +21553,7 @@
         <v>0.15972222222222224</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="179"/>
+      <c r="J13" s="178"/>
       <c r="K13" s="73" t="s">
         <v>141</v>
       </c>
@@ -21604,7 +21625,7 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="178" t="s">
+      <c r="J14" s="177" t="s">
         <v>120</v>
       </c>
       <c r="K14" s="10" t="s">
@@ -21678,7 +21699,7 @@
         <v>0.59652777777777777</v>
       </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="179"/>
+      <c r="J15" s="178"/>
       <c r="K15" s="73" t="s">
         <v>127</v>
       </c>
@@ -21750,7 +21771,7 @@
         <v>13</v>
       </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="179"/>
+      <c r="J16" s="178"/>
       <c r="K16" s="54" t="s">
         <v>132</v>
       </c>
@@ -21822,7 +21843,7 @@
         <v>13</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="179"/>
+      <c r="J17" s="178"/>
       <c r="K17" s="73" t="s">
         <v>129</v>
       </c>
@@ -21894,7 +21915,7 @@
         <v>0.24583333333333335</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="179"/>
+      <c r="J18" s="178"/>
       <c r="K18" s="54" t="s">
         <v>144</v>
       </c>
@@ -21966,7 +21987,7 @@
         <v>0.49513888888888885</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="180"/>
+      <c r="J19" s="179"/>
       <c r="K19" s="76" t="s">
         <v>150</v>
       </c>
@@ -22038,7 +22059,7 @@
         <v>0.20972222222222223</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="J20" s="178" t="s">
+      <c r="J20" s="177" t="s">
         <v>143</v>
       </c>
       <c r="K20" s="10" t="s">
@@ -22112,7 +22133,7 @@
         <v>0.25486111111111109</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="180"/>
+      <c r="J21" s="179"/>
       <c r="K21" s="76" t="s">
         <v>141</v>
       </c>
@@ -22194,7 +22215,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="179" t="s">
+      <c r="J22" s="178" t="s">
         <v>161</v>
       </c>
       <c r="K22" s="54" t="s">
@@ -22280,7 +22301,7 @@
         <v>0.26944444444444443</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="179"/>
+      <c r="J23" s="178"/>
       <c r="K23" s="80" t="s">
         <v>169</v>
       </c>
@@ -22364,7 +22385,7 @@
         <v>0.3263888888888889</v>
       </c>
       <c r="I24" s="39"/>
-      <c r="J24" s="179"/>
+      <c r="J24" s="178"/>
       <c r="K24" s="54" t="s">
         <v>163</v>
       </c>
@@ -22448,7 +22469,7 @@
         <v>0.32847222222222222</v>
       </c>
       <c r="I25" s="39"/>
-      <c r="J25" s="179"/>
+      <c r="J25" s="178"/>
       <c r="K25" s="73" t="s">
         <v>141</v>
       </c>
@@ -22532,7 +22553,7 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="I26" s="39"/>
-      <c r="J26" s="180"/>
+      <c r="J26" s="179"/>
       <c r="K26" s="11" t="s">
         <v>162</v>
       </c>
@@ -22616,7 +22637,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="I27" s="39"/>
-      <c r="J27" s="178" t="s">
+      <c r="J27" s="177" t="s">
         <v>171</v>
       </c>
       <c r="K27" s="73" t="s">
@@ -22702,7 +22723,7 @@
         <v>0.22291666666666665</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="179"/>
+      <c r="J28" s="178"/>
       <c r="K28" s="101" t="s">
         <v>163</v>
       </c>
@@ -22786,7 +22807,7 @@
         <v>0.13194444444444445</v>
       </c>
       <c r="I29" s="39"/>
-      <c r="J29" s="179"/>
+      <c r="J29" s="178"/>
       <c r="K29" s="73" t="s">
         <v>29</v>
       </c>
@@ -22870,7 +22891,7 @@
         <v>13</v>
       </c>
       <c r="I30" s="39"/>
-      <c r="J30" s="179"/>
+      <c r="J30" s="178"/>
       <c r="K30" s="101" t="s">
         <v>136</v>
       </c>
@@ -22954,7 +22975,7 @@
         <v>0.43888888888888888</v>
       </c>
       <c r="I31" s="39"/>
-      <c r="J31" s="180"/>
+      <c r="J31" s="179"/>
       <c r="K31" s="73" t="s">
         <v>141</v>
       </c>
@@ -23038,7 +23059,7 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="I32" s="39"/>
-      <c r="J32" s="178" t="s">
+      <c r="J32" s="177" t="s">
         <v>184</v>
       </c>
       <c r="K32" s="107" t="s">
@@ -23124,7 +23145,7 @@
         <v>2.7097222222222221</v>
       </c>
       <c r="I33" s="39"/>
-      <c r="J33" s="179"/>
+      <c r="J33" s="178"/>
       <c r="K33" s="73" t="s">
         <v>179</v>
       </c>
@@ -23210,7 +23231,7 @@
         <v>13</v>
       </c>
       <c r="I34" s="39"/>
-      <c r="J34" s="179"/>
+      <c r="J34" s="178"/>
       <c r="K34" s="54" t="s">
         <v>199</v>
       </c>
@@ -23293,7 +23314,7 @@
         <v>0.11041666666666666</v>
       </c>
       <c r="I35" s="39"/>
-      <c r="J35" s="179"/>
+      <c r="J35" s="178"/>
       <c r="K35" s="80" t="s">
         <v>198</v>
       </c>
@@ -23365,7 +23386,7 @@
         <v>0.37083333333333335</v>
       </c>
       <c r="I36" s="39"/>
-      <c r="J36" s="179"/>
+      <c r="J36" s="178"/>
       <c r="K36" s="54" t="s">
         <v>141</v>
       </c>
@@ -23373,9 +23394,9 @@
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="M36" s="39"/>
-      <c r="N36" s="174"/>
-      <c r="O36" s="174"/>
-      <c r="P36" s="174"/>
+      <c r="N36" s="180"/>
+      <c r="O36" s="180"/>
+      <c r="P36" s="180"/>
       <c r="Q36" s="111"/>
       <c r="R36" s="16"/>
       <c r="S36" s="16"/>
@@ -23437,7 +23458,7 @@
         <v>0.80694444444444446</v>
       </c>
       <c r="I37" s="39"/>
-      <c r="J37" s="179"/>
+      <c r="J37" s="178"/>
       <c r="K37" s="80" t="s">
         <v>196</v>
       </c>
@@ -23445,9 +23466,9 @@
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="M37" s="39"/>
-      <c r="N37" s="174"/>
-      <c r="O37" s="174"/>
-      <c r="P37" s="174"/>
+      <c r="N37" s="180"/>
+      <c r="O37" s="180"/>
+      <c r="P37" s="180"/>
       <c r="Q37" s="111"/>
       <c r="R37" s="16"/>
       <c r="S37" s="16"/>
@@ -23509,7 +23530,7 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="I38" s="39"/>
-      <c r="J38" s="180"/>
+      <c r="J38" s="179"/>
       <c r="K38" s="11" t="s">
         <v>202</v>
       </c>
@@ -23517,9 +23538,9 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="M38" s="39"/>
-      <c r="N38" s="174"/>
-      <c r="O38" s="174"/>
-      <c r="P38" s="174"/>
+      <c r="N38" s="180"/>
+      <c r="O38" s="180"/>
+      <c r="P38" s="180"/>
       <c r="Q38" s="111"/>
       <c r="R38" s="16"/>
       <c r="S38" s="16"/>
@@ -23567,7 +23588,7 @@
       <c r="G39" s="30"/>
       <c r="H39" s="61"/>
       <c r="I39" s="39"/>
-      <c r="J39" s="178" t="s">
+      <c r="J39" s="177" t="s">
         <v>209</v>
       </c>
       <c r="K39" s="116" t="s">
@@ -23577,9 +23598,9 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="M39" s="39"/>
-      <c r="N39" s="174"/>
-      <c r="O39" s="174"/>
-      <c r="P39" s="174"/>
+      <c r="N39" s="180"/>
+      <c r="O39" s="180"/>
+      <c r="P39" s="180"/>
       <c r="Q39" s="124"/>
       <c r="R39" s="16"/>
       <c r="S39" s="16"/>
@@ -23627,7 +23648,7 @@
       <c r="G40" s="39"/>
       <c r="H40" s="62"/>
       <c r="I40" s="39"/>
-      <c r="J40" s="179"/>
+      <c r="J40" s="178"/>
       <c r="K40" s="113" t="s">
         <v>210</v>
       </c>
@@ -23635,9 +23656,9 @@
         <v>0.3666666666666667</v>
       </c>
       <c r="M40" s="39"/>
-      <c r="N40" s="174"/>
-      <c r="O40" s="174"/>
-      <c r="P40" s="174"/>
+      <c r="N40" s="180"/>
+      <c r="O40" s="180"/>
+      <c r="P40" s="180"/>
       <c r="Q40" s="124"/>
       <c r="R40" s="16"/>
       <c r="S40" s="16"/>
@@ -23684,7 +23705,7 @@
       <c r="G41" s="30"/>
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
-      <c r="J41" s="179"/>
+      <c r="J41" s="178"/>
       <c r="K41" s="112" t="s">
         <v>179</v>
       </c>
@@ -23692,9 +23713,9 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="M41" s="39"/>
-      <c r="N41" s="174"/>
-      <c r="O41" s="174"/>
-      <c r="P41" s="174"/>
+      <c r="N41" s="180"/>
+      <c r="O41" s="180"/>
+      <c r="P41" s="180"/>
       <c r="Q41" s="124"/>
       <c r="R41" s="16"/>
       <c r="S41" s="16"/>
@@ -23742,7 +23763,7 @@
       <c r="G42" s="30"/>
       <c r="H42" s="61"/>
       <c r="I42" s="39"/>
-      <c r="J42" s="179"/>
+      <c r="J42" s="178"/>
       <c r="K42" s="114" t="s">
         <v>136</v>
       </c>
@@ -23800,7 +23821,7 @@
       <c r="G43" s="39"/>
       <c r="H43" s="62"/>
       <c r="I43" s="39"/>
-      <c r="J43" s="179"/>
+      <c r="J43" s="178"/>
       <c r="K43" s="112" t="s">
         <v>212</v>
       </c>
@@ -23858,7 +23879,7 @@
       <c r="G44" s="39"/>
       <c r="H44" s="62"/>
       <c r="I44" s="39"/>
-      <c r="J44" s="179"/>
+      <c r="J44" s="178"/>
       <c r="K44" s="113" t="s">
         <v>213</v>
       </c>
@@ -23916,7 +23937,7 @@
       <c r="G45" s="39"/>
       <c r="H45" s="62"/>
       <c r="I45" s="39"/>
-      <c r="J45" s="180"/>
+      <c r="J45" s="179"/>
       <c r="K45" s="115" t="s">
         <v>141</v>
       </c>
@@ -23974,7 +23995,7 @@
       <c r="G46" s="39"/>
       <c r="H46" s="62"/>
       <c r="I46" s="39"/>
-      <c r="J46" s="175" t="s">
+      <c r="J46" s="174" t="s">
         <v>217</v>
       </c>
       <c r="K46" s="119" t="s">
@@ -24034,7 +24055,7 @@
       <c r="G47" s="39"/>
       <c r="H47" s="62"/>
       <c r="I47" s="39"/>
-      <c r="J47" s="176"/>
+      <c r="J47" s="175"/>
       <c r="K47" s="80" t="s">
         <v>179</v>
       </c>
@@ -24092,7 +24113,7 @@
       <c r="G48" s="39"/>
       <c r="H48" s="62"/>
       <c r="I48" s="39"/>
-      <c r="J48" s="176"/>
+      <c r="J48" s="175"/>
       <c r="K48" s="101" t="s">
         <v>136</v>
       </c>
@@ -24150,7 +24171,7 @@
       <c r="G49" s="39"/>
       <c r="H49" s="62"/>
       <c r="I49" s="39"/>
-      <c r="J49" s="177"/>
+      <c r="J49" s="176"/>
       <c r="K49" s="120" t="s">
         <v>213</v>
       </c>
@@ -24208,7 +24229,7 @@
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
       <c r="I50" s="39"/>
-      <c r="J50" s="175" t="s">
+      <c r="J50" s="174" t="s">
         <v>232</v>
       </c>
       <c r="K50" s="121" t="s">
@@ -24268,7 +24289,7 @@
       <c r="G51" s="39"/>
       <c r="H51" s="39"/>
       <c r="I51" s="39"/>
-      <c r="J51" s="176"/>
+      <c r="J51" s="175"/>
       <c r="K51" s="122" t="s">
         <v>179</v>
       </c>
@@ -24326,7 +24347,7 @@
       <c r="G52" s="39"/>
       <c r="H52" s="39"/>
       <c r="I52" s="39"/>
-      <c r="J52" s="176"/>
+      <c r="J52" s="175"/>
       <c r="K52" s="114" t="s">
         <v>235</v>
       </c>
@@ -24384,7 +24405,7 @@
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
       <c r="I53" s="39"/>
-      <c r="J53" s="177"/>
+      <c r="J53" s="176"/>
       <c r="K53" s="115" t="s">
         <v>211</v>
       </c>
@@ -24442,7 +24463,7 @@
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
       <c r="I54" s="39"/>
-      <c r="J54" s="175" t="s">
+      <c r="J54" s="174" t="s">
         <v>243</v>
       </c>
       <c r="K54" s="121" t="s">
@@ -24502,7 +24523,7 @@
       <c r="G55" s="39"/>
       <c r="H55" s="39"/>
       <c r="I55" s="39"/>
-      <c r="J55" s="176"/>
+      <c r="J55" s="175"/>
       <c r="K55" s="122" t="s">
         <v>242</v>
       </c>
@@ -24560,7 +24581,7 @@
       <c r="G56" s="39"/>
       <c r="H56" s="39"/>
       <c r="I56" s="39"/>
-      <c r="J56" s="176"/>
+      <c r="J56" s="175"/>
       <c r="K56" s="114" t="s">
         <v>29</v>
       </c>
@@ -24618,7 +24639,7 @@
       <c r="G57" s="39"/>
       <c r="H57" s="39"/>
       <c r="I57" s="39"/>
-      <c r="J57" s="177"/>
+      <c r="J57" s="176"/>
       <c r="K57" s="115" t="s">
         <v>199</v>
       </c>
@@ -24676,7 +24697,7 @@
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
       <c r="I58" s="39"/>
-      <c r="J58" s="175" t="s">
+      <c r="J58" s="174" t="s">
         <v>246</v>
       </c>
       <c r="K58" s="121" t="s">
@@ -24736,7 +24757,7 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
       <c r="I59" s="39"/>
-      <c r="J59" s="176"/>
+      <c r="J59" s="175"/>
       <c r="K59" s="122" t="s">
         <v>235</v>
       </c>
@@ -24794,7 +24815,7 @@
       <c r="G60" s="39"/>
       <c r="H60" s="39"/>
       <c r="I60" s="39"/>
-      <c r="J60" s="176"/>
+      <c r="J60" s="175"/>
       <c r="K60" s="114" t="s">
         <v>242</v>
       </c>
@@ -24852,7 +24873,7 @@
       <c r="G61" s="39"/>
       <c r="H61" s="39"/>
       <c r="I61" s="39"/>
-      <c r="J61" s="176"/>
+      <c r="J61" s="175"/>
       <c r="K61" s="122" t="s">
         <v>245</v>
       </c>
@@ -24910,7 +24931,7 @@
       <c r="G62" s="39"/>
       <c r="H62" s="39"/>
       <c r="I62" s="39"/>
-      <c r="J62" s="176"/>
+      <c r="J62" s="175"/>
       <c r="K62" s="114" t="s">
         <v>29</v>
       </c>
@@ -24968,7 +24989,7 @@
       <c r="G63" s="39"/>
       <c r="H63" s="39"/>
       <c r="I63" s="39"/>
-      <c r="J63" s="177"/>
+      <c r="J63" s="176"/>
       <c r="K63" s="115" t="s">
         <v>199</v>
       </c>
@@ -30717,6 +30738,12 @@
     <sortCondition ref="K33"/>
   </sortState>
   <mergeCells count="18">
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="N39:P39"/>
     <mergeCell ref="J58:J63"/>
     <mergeCell ref="J54:J57"/>
     <mergeCell ref="J50:J53"/>
@@ -30729,12 +30756,6 @@
     <mergeCell ref="J32:J38"/>
     <mergeCell ref="J27:J31"/>
     <mergeCell ref="J14:J19"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="N39:P39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -30826,15 +30847,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="182" t="s">
+      <c r="J2" s="181" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="184"/>
+      <c r="K2" s="183"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="184" t="s">
+      <c r="M2" s="183" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="183"/>
+      <c r="N2" s="182"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -31134,15 +31155,15 @@
         <v>0.20416666666666669</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="182" t="s">
+      <c r="J9" s="181" t="s">
         <v>286</v>
       </c>
-      <c r="K9" s="184"/>
+      <c r="K9" s="183"/>
       <c r="L9" s="136"/>
-      <c r="M9" s="184" t="s">
+      <c r="M9" s="183" t="s">
         <v>287</v>
       </c>
-      <c r="N9" s="183"/>
+      <c r="N9" s="182"/>
       <c r="O9" s="39"/>
       <c r="P9" s="39"/>
       <c r="Q9" s="39"/>
@@ -31349,15 +31370,15 @@
         <v>0.15208333333333332</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="182" t="s">
+      <c r="J14" s="181" t="s">
         <v>288</v>
       </c>
-      <c r="K14" s="183"/>
+      <c r="K14" s="182"/>
       <c r="L14" s="136"/>
-      <c r="M14" s="182" t="s">
+      <c r="M14" s="181" t="s">
         <v>289</v>
       </c>
-      <c r="N14" s="183"/>
+      <c r="N14" s="182"/>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
@@ -31661,15 +31682,15 @@
         <v>0.35138888888888892</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="182" t="s">
+      <c r="J21" s="181" t="s">
         <v>290</v>
       </c>
-      <c r="K21" s="183"/>
+      <c r="K21" s="182"/>
       <c r="L21" s="136"/>
-      <c r="M21" s="182" t="s">
+      <c r="M21" s="181" t="s">
         <v>291</v>
       </c>
-      <c r="N21" s="183"/>
+      <c r="N21" s="182"/>
       <c r="O21" s="39"/>
       <c r="P21" s="89" t="s">
         <v>31</v>
@@ -32051,15 +32072,15 @@
         <v>0.11805555555555557</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="182" t="s">
+      <c r="J28" s="181" t="s">
         <v>292</v>
       </c>
-      <c r="K28" s="183"/>
+      <c r="K28" s="182"/>
       <c r="L28" s="136"/>
-      <c r="M28" s="182" t="s">
+      <c r="M28" s="181" t="s">
         <v>293</v>
       </c>
-      <c r="N28" s="183"/>
+      <c r="N28" s="182"/>
       <c r="O28" s="39"/>
       <c r="P28" s="93" t="s">
         <v>38</v>
@@ -32406,15 +32427,15 @@
       <c r="G35" s="30"/>
       <c r="H35" s="61"/>
       <c r="I35" s="39"/>
-      <c r="J35" s="182" t="s">
+      <c r="J35" s="181" t="s">
         <v>294</v>
       </c>
-      <c r="K35" s="183"/>
+      <c r="K35" s="182"/>
       <c r="L35" s="136"/>
-      <c r="M35" s="182" t="s">
+      <c r="M35" s="181" t="s">
         <v>295</v>
       </c>
-      <c r="N35" s="183"/>
+      <c r="N35" s="182"/>
       <c r="O35" s="39"/>
       <c r="P35" s="39"/>
       <c r="Q35" s="39"/>
@@ -32449,9 +32470,9 @@
         <v>4.9305555555555554E-2</v>
       </c>
       <c r="O36" s="39"/>
-      <c r="P36" s="174"/>
-      <c r="Q36" s="174"/>
-      <c r="R36" s="174"/>
+      <c r="P36" s="180"/>
+      <c r="Q36" s="180"/>
+      <c r="R36" s="180"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -32482,9 +32503,9 @@
         <v>0.18472222222222223</v>
       </c>
       <c r="O37" s="39"/>
-      <c r="P37" s="181"/>
-      <c r="Q37" s="181"/>
-      <c r="R37" s="181"/>
+      <c r="P37" s="184"/>
+      <c r="Q37" s="184"/>
+      <c r="R37" s="184"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -32515,9 +32536,9 @@
         <v>0.21249999999999999</v>
       </c>
       <c r="O38" s="39"/>
-      <c r="P38" s="174"/>
-      <c r="Q38" s="174"/>
-      <c r="R38" s="174"/>
+      <c r="P38" s="180"/>
+      <c r="Q38" s="180"/>
+      <c r="R38" s="180"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -32548,9 +32569,9 @@
         <v>0.26527777777777778</v>
       </c>
       <c r="O39" s="39"/>
-      <c r="P39" s="174"/>
-      <c r="Q39" s="174"/>
-      <c r="R39" s="174"/>
+      <c r="P39" s="180"/>
+      <c r="Q39" s="180"/>
+      <c r="R39" s="180"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -32581,9 +32602,9 @@
         <v>0.75347222222222221</v>
       </c>
       <c r="O40" s="39"/>
-      <c r="P40" s="174"/>
-      <c r="Q40" s="174"/>
-      <c r="R40" s="174"/>
+      <c r="P40" s="180"/>
+      <c r="Q40" s="180"/>
+      <c r="R40" s="180"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -32609,9 +32630,9 @@
         <v>1.0513888888888889</v>
       </c>
       <c r="O41" s="39"/>
-      <c r="P41" s="174"/>
-      <c r="Q41" s="174"/>
-      <c r="R41" s="174"/>
+      <c r="P41" s="180"/>
+      <c r="Q41" s="180"/>
+      <c r="R41" s="180"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -35576,6 +35597,12 @@
     <sortCondition ref="J9"/>
   </sortState>
   <mergeCells count="18">
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
     <mergeCell ref="M35:N35"/>
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="M21:N21"/>
@@ -35588,12 +35615,6 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="J35:K35"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J116" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -35610,7 +35631,7 @@
   <dimension ref="A1:Z153"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -35686,15 +35707,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="182" t="s">
+      <c r="J2" s="181" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="184"/>
+      <c r="K2" s="183"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="184" t="s">
+      <c r="M2" s="183" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="183"/>
+      <c r="N2" s="182"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -36024,15 +36045,15 @@
         <v>1.1847222222222222</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="182" t="s">
+      <c r="J10" s="181" t="s">
         <v>286</v>
       </c>
-      <c r="K10" s="183"/>
+      <c r="K10" s="182"/>
       <c r="L10" s="136"/>
-      <c r="M10" s="182" t="s">
+      <c r="M10" s="181" t="s">
         <v>287</v>
       </c>
-      <c r="N10" s="183"/>
+      <c r="N10" s="182"/>
       <c r="O10" s="39"/>
       <c r="P10" s="39"/>
       <c r="Q10" s="39"/>
@@ -36329,15 +36350,15 @@
         <v>6.063194444444445</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="182" t="s">
+      <c r="J17" s="181" t="s">
         <v>288</v>
       </c>
-      <c r="K17" s="183"/>
+      <c r="K17" s="182"/>
       <c r="L17" s="136"/>
-      <c r="M17" s="182" t="s">
+      <c r="M17" s="181" t="s">
         <v>289</v>
       </c>
-      <c r="N17" s="183"/>
+      <c r="N17" s="182"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
@@ -36559,15 +36580,15 @@
         <v>0.50555555555555554</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="182" t="s">
+      <c r="J22" s="181" t="s">
         <v>290</v>
       </c>
-      <c r="K22" s="183"/>
+      <c r="K22" s="182"/>
       <c r="L22" s="136"/>
-      <c r="M22" s="182" t="s">
+      <c r="M22" s="181" t="s">
         <v>291</v>
       </c>
-      <c r="N22" s="183"/>
+      <c r="N22" s="182"/>
       <c r="O22" s="39"/>
       <c r="P22" s="63" t="s">
         <v>32</v>
@@ -36918,15 +36939,15 @@
         <v>2.6388888888888889E-2</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="182" t="s">
+      <c r="J28" s="181" t="s">
         <v>292</v>
       </c>
-      <c r="K28" s="183"/>
+      <c r="K28" s="182"/>
       <c r="L28" s="136"/>
-      <c r="M28" s="182" t="s">
+      <c r="M28" s="181" t="s">
         <v>293</v>
       </c>
-      <c r="N28" s="183"/>
+      <c r="N28" s="182"/>
       <c r="O28" s="39"/>
       <c r="P28" s="93" t="s">
         <v>38</v>
@@ -37292,15 +37313,15 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="I34" s="39"/>
-      <c r="J34" s="182" t="s">
+      <c r="J34" s="181" t="s">
         <v>294</v>
       </c>
-      <c r="K34" s="183"/>
+      <c r="K34" s="182"/>
       <c r="L34" s="136"/>
-      <c r="M34" s="182" t="s">
+      <c r="M34" s="181" t="s">
         <v>295</v>
       </c>
-      <c r="N34" s="183"/>
+      <c r="N34" s="182"/>
       <c r="O34" s="39"/>
       <c r="P34" s="125" t="s">
         <v>77</v>
@@ -37407,9 +37428,9 @@
         <v>0.36944444444444446</v>
       </c>
       <c r="O36" s="39"/>
-      <c r="P36" s="174"/>
-      <c r="Q36" s="174"/>
-      <c r="R36" s="174"/>
+      <c r="P36" s="180"/>
+      <c r="Q36" s="180"/>
+      <c r="R36" s="180"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -37454,9 +37475,9 @@
         <v>7.9166666666666663E-2</v>
       </c>
       <c r="O37" s="39"/>
-      <c r="P37" s="181"/>
-      <c r="Q37" s="174"/>
-      <c r="R37" s="174"/>
+      <c r="P37" s="184"/>
+      <c r="Q37" s="180"/>
+      <c r="R37" s="180"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -37488,9 +37509,9 @@
       </c>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="174"/>
-      <c r="Q38" s="174"/>
-      <c r="R38" s="174"/>
+      <c r="P38" s="180"/>
+      <c r="Q38" s="180"/>
+      <c r="R38" s="180"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -37508,9 +37529,9 @@
       <c r="H39" s="138"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="174"/>
-      <c r="Q39" s="174"/>
-      <c r="R39" s="174"/>
+      <c r="P39" s="180"/>
+      <c r="Q39" s="180"/>
+      <c r="R39" s="180"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -37528,9 +37549,9 @@
       <c r="H40" s="61"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="174"/>
-      <c r="Q40" s="174"/>
-      <c r="R40" s="174"/>
+      <c r="P40" s="180"/>
+      <c r="Q40" s="180"/>
+      <c r="R40" s="180"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -37548,9 +37569,9 @@
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="174"/>
-      <c r="Q41" s="174"/>
-      <c r="R41" s="174"/>
+      <c r="P41" s="180"/>
+      <c r="Q41" s="180"/>
+      <c r="R41" s="180"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -40502,24 +40523,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M17:N17"/>
     <mergeCell ref="P41:R41"/>
     <mergeCell ref="P36:R36"/>
     <mergeCell ref="P37:R37"/>
     <mergeCell ref="P38:R38"/>
     <mergeCell ref="P39:R39"/>
     <mergeCell ref="P40:R40"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="J22:K22"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
@@ -40541,7 +40562,7 @@
   <dimension ref="A1:Z153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -40617,15 +40638,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="182" t="s">
+      <c r="J2" s="181" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="183"/>
+      <c r="K2" s="182"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="182" t="s">
+      <c r="M2" s="181" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="183"/>
+      <c r="N2" s="182"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -40831,15 +40852,15 @@
         <v>0.33749999999999997</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="182" t="s">
+      <c r="J7" s="181" t="s">
         <v>286</v>
       </c>
-      <c r="K7" s="183"/>
+      <c r="K7" s="182"/>
       <c r="L7" s="136"/>
-      <c r="M7" s="182" t="s">
+      <c r="M7" s="181" t="s">
         <v>287</v>
       </c>
-      <c r="N7" s="183"/>
+      <c r="N7" s="182"/>
       <c r="O7" s="39"/>
       <c r="P7" s="39"/>
       <c r="Q7" s="39"/>
@@ -41046,15 +41067,15 @@
         <v>0.48819444444444443</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="182" t="s">
+      <c r="J12" s="181" t="s">
         <v>288</v>
       </c>
-      <c r="K12" s="183"/>
+      <c r="K12" s="182"/>
       <c r="L12" s="136"/>
-      <c r="M12" s="182" t="s">
+      <c r="M12" s="181" t="s">
         <v>289</v>
       </c>
-      <c r="N12" s="183"/>
+      <c r="N12" s="182"/>
       <c r="O12" s="39"/>
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
@@ -41083,16 +41104,22 @@
         <v>509</v>
       </c>
       <c r="G13" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="75" t="s">
-        <v>13</v>
+        <v>511</v>
+      </c>
+      <c r="H13" s="75">
+        <v>0.4548611111111111</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="132"/>
+      <c r="J13" s="122" t="s">
+        <v>498</v>
+      </c>
+      <c r="K13" s="132">
+        <v>0.18472222222222223</v>
+      </c>
       <c r="L13" s="137"/>
-      <c r="M13" s="131"/>
+      <c r="M13" s="131" t="s">
+        <v>498</v>
+      </c>
       <c r="N13" s="72"/>
       <c r="O13" s="39"/>
       <c r="P13" s="39"/>
@@ -41109,18 +41136,38 @@
       <c r="B14" s="78">
         <v>12</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="60"/>
+      <c r="C14" s="54" t="s">
+        <v>514</v>
+      </c>
+      <c r="D14" s="54">
+        <v>2024</v>
+      </c>
+      <c r="E14" s="153" t="s">
+        <v>440</v>
+      </c>
+      <c r="F14" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="60" t="s">
+        <v>13</v>
+      </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="133"/>
+      <c r="J14" s="113" t="s">
+        <v>465</v>
+      </c>
+      <c r="K14" s="133">
+        <v>6.0416666666666667E-2</v>
+      </c>
       <c r="L14" s="137"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="60"/>
+      <c r="M14" s="101" t="s">
+        <v>515</v>
+      </c>
+      <c r="N14" s="60">
+        <v>4.0972222222222222E-2</v>
+      </c>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
@@ -41143,11 +41190,19 @@
       <c r="G15" s="74"/>
       <c r="H15" s="75"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="135"/>
-      <c r="K15" s="77"/>
+      <c r="J15" s="135" t="s">
+        <v>413</v>
+      </c>
+      <c r="K15" s="77">
+        <v>4.583333333333333E-2</v>
+      </c>
       <c r="L15" s="137"/>
-      <c r="M15" s="135"/>
-      <c r="N15" s="77"/>
+      <c r="M15" s="135" t="s">
+        <v>513</v>
+      </c>
+      <c r="N15" s="77">
+        <v>7.9166666666666663E-2</v>
+      </c>
       <c r="O15" s="39"/>
       <c r="P15" s="39"/>
       <c r="Q15" s="39"/>
@@ -41192,15 +41247,15 @@
       <c r="G17" s="74"/>
       <c r="H17" s="75"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="182" t="s">
+      <c r="J17" s="181" t="s">
         <v>290</v>
       </c>
-      <c r="K17" s="183"/>
+      <c r="K17" s="182"/>
       <c r="L17" s="136"/>
-      <c r="M17" s="182" t="s">
+      <c r="M17" s="181" t="s">
         <v>291</v>
       </c>
-      <c r="N17" s="183"/>
+      <c r="N17" s="182"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
@@ -41338,15 +41393,15 @@
       <c r="G22" s="69"/>
       <c r="H22" s="60"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="182" t="s">
+      <c r="J22" s="181" t="s">
         <v>292</v>
       </c>
-      <c r="K22" s="183"/>
+      <c r="K22" s="182"/>
       <c r="L22" s="136"/>
-      <c r="M22" s="182" t="s">
+      <c r="M22" s="181" t="s">
         <v>293</v>
       </c>
-      <c r="N22" s="183"/>
+      <c r="N22" s="182"/>
       <c r="O22" s="39"/>
       <c r="P22" s="63" t="s">
         <v>32</v>
@@ -41530,16 +41585,26 @@
       <c r="P26" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="Q26" s="81"/>
-      <c r="R26" s="81"/>
+      <c r="Q26" s="81">
+        <f>SUM(W26)</f>
+        <v>0.30069444444444443</v>
+      </c>
+      <c r="R26" s="81">
+        <f>SUM(K13:K15)</f>
+        <v>0.29097222222222224</v>
+      </c>
       <c r="S26" s="97">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.59166666666666667</v>
       </c>
       <c r="T26" s="39"/>
-      <c r="U26" s="99"/>
+      <c r="U26" s="99" t="s">
+        <v>512</v>
+      </c>
       <c r="V26" s="146"/>
-      <c r="W26" s="147"/>
+      <c r="W26" s="147">
+        <v>0.30069444444444443</v>
+      </c>
       <c r="X26" s="147"/>
       <c r="Y26" s="146"/>
       <c r="Z26" s="39"/>
@@ -41556,15 +41621,15 @@
       <c r="G27" s="74"/>
       <c r="H27" s="75"/>
       <c r="I27" s="39"/>
-      <c r="J27" s="182" t="s">
+      <c r="J27" s="181" t="s">
         <v>294</v>
       </c>
-      <c r="K27" s="183"/>
+      <c r="K27" s="182"/>
       <c r="L27" s="136"/>
-      <c r="M27" s="182" t="s">
+      <c r="M27" s="181" t="s">
         <v>295</v>
       </c>
-      <c r="N27" s="183"/>
+      <c r="N27" s="182"/>
       <c r="O27" s="39"/>
       <c r="P27" s="94" t="s">
         <v>37</v>
@@ -41794,15 +41859,15 @@
       </c>
       <c r="Q34" s="126">
         <f t="shared" ref="Q34" si="1">SUM(Q22:Q33)</f>
-        <v>6.9194444444444434</v>
+        <v>7.2201388888888882</v>
       </c>
       <c r="R34" s="126">
         <f>SUM(R22:R33)</f>
-        <v>3</v>
+        <v>3.2909722222222224</v>
       </c>
       <c r="S34" s="127">
         <f>SUM(S22:S33)</f>
-        <v>9.9194444444444443</v>
+        <v>10.511111111111111</v>
       </c>
       <c r="T34" s="39"/>
       <c r="U34" s="39"/>
@@ -41840,9 +41905,9 @@
       <c r="H36" s="61"/>
       <c r="I36" s="39"/>
       <c r="O36" s="39"/>
-      <c r="P36" s="174"/>
-      <c r="Q36" s="174"/>
-      <c r="R36" s="174"/>
+      <c r="P36" s="180"/>
+      <c r="Q36" s="180"/>
+      <c r="R36" s="180"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -41860,9 +41925,9 @@
       <c r="H37" s="61"/>
       <c r="I37" s="39"/>
       <c r="O37" s="39"/>
-      <c r="P37" s="181"/>
-      <c r="Q37" s="174"/>
-      <c r="R37" s="174"/>
+      <c r="P37" s="184"/>
+      <c r="Q37" s="180"/>
+      <c r="R37" s="180"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -41880,9 +41945,9 @@
       <c r="H38" s="61"/>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="174"/>
-      <c r="Q38" s="174"/>
-      <c r="R38" s="174"/>
+      <c r="P38" s="180"/>
+      <c r="Q38" s="180"/>
+      <c r="R38" s="180"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -41900,9 +41965,9 @@
       <c r="H39" s="61"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="174"/>
-      <c r="Q39" s="174"/>
-      <c r="R39" s="174"/>
+      <c r="P39" s="180"/>
+      <c r="Q39" s="180"/>
+      <c r="R39" s="180"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -41920,9 +41985,9 @@
       <c r="H40" s="62"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="174"/>
-      <c r="Q40" s="174"/>
-      <c r="R40" s="174"/>
+      <c r="P40" s="180"/>
+      <c r="Q40" s="180"/>
+      <c r="R40" s="180"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -41940,9 +42005,9 @@
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="174"/>
-      <c r="Q41" s="174"/>
-      <c r="R41" s="174"/>
+      <c r="P41" s="180"/>
+      <c r="Q41" s="180"/>
+      <c r="R41" s="180"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -44894,6 +44959,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="P36:R36"/>
@@ -44907,11 +44977,6 @@
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="M17:N17"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J116" r:id="rId1" xr:uid="{24F98E59-04E2-4995-A47A-0D179F9D60FA}"/>

--- a/spreadsheets/Games.xlsx
+++ b/spreadsheets/Games.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ucer0.github.io\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B01CDB4-34B6-478C-BA4C-CA2A5AF88069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C7872C-F9EE-47A2-BD8A-1EBA0ED462F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="519">
   <si>
     <t>Nier: Automata</t>
   </si>
@@ -2146,6 +2146,15 @@
   </si>
   <si>
     <t>Star Vaders DEMO</t>
+  </si>
+  <si>
+    <t>22-jun.</t>
+  </si>
+  <si>
+    <t>1000xRESIST</t>
+  </si>
+  <si>
+    <t>1000xRESIST (5h 42m)</t>
   </si>
 </sst>
 </file>
@@ -2573,7 +2582,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3127,6 +3136,9 @@
     <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4126,6 +4138,9 @@
                 <c:pt idx="4">
                   <c:v>0.30069444444444443</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78333333333333321</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4226,6 +4241,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.29097222222222224</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34930555555555554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -40561,8 +40579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{945572C7-9529-4441-AC5C-E60B6D0FDFB2}">
   <dimension ref="A1:Z153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -41120,7 +41138,9 @@
       <c r="M13" s="131" t="s">
         <v>498</v>
       </c>
-      <c r="N13" s="72"/>
+      <c r="N13" s="72">
+        <v>3.9583333333333331E-2</v>
+      </c>
       <c r="O13" s="39"/>
       <c r="P13" s="39"/>
       <c r="Q13" s="39"/>
@@ -41149,10 +41169,10 @@
         <v>49</v>
       </c>
       <c r="G14" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="60" t="s">
-        <v>13</v>
+        <v>516</v>
+      </c>
+      <c r="H14" s="60">
+        <v>0.54583333333333328</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="113" t="s">
@@ -41162,11 +41182,11 @@
         <v>6.0416666666666667E-2</v>
       </c>
       <c r="L14" s="137"/>
-      <c r="M14" s="101" t="s">
-        <v>515</v>
-      </c>
-      <c r="N14" s="60">
-        <v>4.0972222222222222E-2</v>
+      <c r="M14" s="142" t="s">
+        <v>136</v>
+      </c>
+      <c r="N14" s="185">
+        <v>0.18958333333333333</v>
       </c>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
@@ -41183,12 +41203,24 @@
       <c r="B15" s="70">
         <v>13</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="75"/>
+      <c r="C15" s="73" t="s">
+        <v>517</v>
+      </c>
+      <c r="D15" s="73">
+        <v>2024</v>
+      </c>
+      <c r="E15" s="152" t="s">
+        <v>440</v>
+      </c>
+      <c r="F15" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="75" t="s">
+        <v>13</v>
+      </c>
       <c r="I15" s="6"/>
       <c r="J15" s="135" t="s">
         <v>413</v>
@@ -41197,11 +41229,11 @@
         <v>4.583333333333333E-2</v>
       </c>
       <c r="L15" s="137"/>
-      <c r="M15" s="135" t="s">
-        <v>513</v>
-      </c>
-      <c r="N15" s="77">
-        <v>7.9166666666666663E-2</v>
+      <c r="M15" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="N15" s="75">
+        <v>4.0972222222222222E-2</v>
       </c>
       <c r="O15" s="39"/>
       <c r="P15" s="39"/>
@@ -41225,6 +41257,12 @@
       <c r="G16" s="69"/>
       <c r="H16" s="60"/>
       <c r="I16" s="6"/>
+      <c r="M16" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="N16" s="102">
+        <v>7.9166666666666663E-2</v>
+      </c>
       <c r="O16" s="39"/>
       <c r="P16" s="39"/>
       <c r="Q16" s="39"/>
@@ -41247,15 +41285,6 @@
       <c r="G17" s="74"/>
       <c r="H17" s="75"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="181" t="s">
-        <v>290</v>
-      </c>
-      <c r="K17" s="182"/>
-      <c r="L17" s="136"/>
-      <c r="M17" s="181" t="s">
-        <v>291</v>
-      </c>
-      <c r="N17" s="182"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
@@ -41278,11 +41307,15 @@
       <c r="G18" s="69"/>
       <c r="H18" s="60"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="122"/>
-      <c r="K18" s="132"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="131"/>
-      <c r="N18" s="72"/>
+      <c r="J18" s="181" t="s">
+        <v>290</v>
+      </c>
+      <c r="K18" s="182"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="181" t="s">
+        <v>291</v>
+      </c>
+      <c r="N18" s="182"/>
       <c r="O18" s="39"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="39"/>
@@ -41305,11 +41338,11 @@
       <c r="G19" s="74"/>
       <c r="H19" s="75"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="133"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="132"/>
       <c r="L19" s="137"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="60"/>
+      <c r="M19" s="131"/>
+      <c r="N19" s="72"/>
       <c r="O19" s="39"/>
       <c r="P19" s="39"/>
       <c r="Q19" s="39"/>
@@ -41332,11 +41365,11 @@
       <c r="G20" s="69"/>
       <c r="H20" s="60"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="135"/>
-      <c r="K20" s="77"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="133"/>
       <c r="L20" s="137"/>
-      <c r="M20" s="135"/>
-      <c r="N20" s="77"/>
+      <c r="M20" s="101"/>
+      <c r="N20" s="60"/>
       <c r="O20" s="39"/>
       <c r="P20" s="39"/>
       <c r="Q20" s="39"/>
@@ -41359,6 +41392,11 @@
       <c r="G21" s="74"/>
       <c r="H21" s="75"/>
       <c r="I21" s="6"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="137"/>
+      <c r="M21" s="135"/>
+      <c r="N21" s="77"/>
       <c r="O21" s="39"/>
       <c r="P21" s="89" t="s">
         <v>31</v>
@@ -41393,15 +41431,6 @@
       <c r="G22" s="69"/>
       <c r="H22" s="60"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="181" t="s">
-        <v>292</v>
-      </c>
-      <c r="K22" s="182"/>
-      <c r="L22" s="136"/>
-      <c r="M22" s="181" t="s">
-        <v>293</v>
-      </c>
-      <c r="N22" s="182"/>
       <c r="O22" s="39"/>
       <c r="P22" s="63" t="s">
         <v>32</v>
@@ -41444,11 +41473,15 @@
       <c r="G23" s="74"/>
       <c r="H23" s="75"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="122"/>
-      <c r="K23" s="132"/>
-      <c r="L23" s="137"/>
-      <c r="M23" s="131"/>
-      <c r="N23" s="72"/>
+      <c r="J23" s="181" t="s">
+        <v>292</v>
+      </c>
+      <c r="K23" s="182"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="181" t="s">
+        <v>293</v>
+      </c>
+      <c r="N23" s="182"/>
       <c r="O23" s="39"/>
       <c r="P23" s="94" t="s">
         <v>33</v>
@@ -41491,11 +41524,11 @@
       <c r="G24" s="69"/>
       <c r="H24" s="60"/>
       <c r="I24" s="39"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="133"/>
+      <c r="J24" s="122"/>
+      <c r="K24" s="132"/>
       <c r="L24" s="137"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="60"/>
+      <c r="M24" s="131"/>
+      <c r="N24" s="72"/>
       <c r="O24" s="39"/>
       <c r="P24" s="93" t="s">
         <v>34</v>
@@ -41536,11 +41569,11 @@
       <c r="G25" s="74"/>
       <c r="H25" s="75"/>
       <c r="I25" s="39"/>
-      <c r="J25" s="135"/>
-      <c r="K25" s="77"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="133"/>
       <c r="L25" s="137"/>
-      <c r="M25" s="135"/>
-      <c r="N25" s="77"/>
+      <c r="M25" s="101"/>
+      <c r="N25" s="60"/>
       <c r="O25" s="39"/>
       <c r="P25" s="94" t="s">
         <v>35</v>
@@ -41581,6 +41614,11 @@
       <c r="G26" s="69"/>
       <c r="H26" s="60"/>
       <c r="I26" s="39"/>
+      <c r="J26" s="135"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="137"/>
+      <c r="M26" s="135"/>
+      <c r="N26" s="77"/>
       <c r="O26" s="39"/>
       <c r="P26" s="93" t="s">
         <v>36</v>
@@ -41621,29 +41659,30 @@
       <c r="G27" s="74"/>
       <c r="H27" s="75"/>
       <c r="I27" s="39"/>
-      <c r="J27" s="181" t="s">
-        <v>294</v>
-      </c>
-      <c r="K27" s="182"/>
-      <c r="L27" s="136"/>
-      <c r="M27" s="181" t="s">
-        <v>295</v>
-      </c>
-      <c r="N27" s="182"/>
       <c r="O27" s="39"/>
       <c r="P27" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="Q27" s="64"/>
-      <c r="R27" s="64"/>
+      <c r="Q27" s="64">
+        <f>SUM(H14,W27)</f>
+        <v>0.78333333333333321</v>
+      </c>
+      <c r="R27" s="64">
+        <f>SUM(N13:N16)</f>
+        <v>0.34930555555555554</v>
+      </c>
       <c r="S27" s="90">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.1326388888888888</v>
       </c>
       <c r="T27" s="39"/>
-      <c r="U27" s="98"/>
+      <c r="U27" s="98" t="s">
+        <v>518</v>
+      </c>
       <c r="V27" s="146"/>
-      <c r="W27" s="147"/>
+      <c r="W27" s="147">
+        <v>0.23749999999999999</v>
+      </c>
       <c r="X27" s="111"/>
       <c r="Y27" s="146"/>
       <c r="Z27" s="39"/>
@@ -41660,11 +41699,15 @@
       <c r="G28" s="69"/>
       <c r="H28" s="60"/>
       <c r="I28" s="39"/>
-      <c r="J28" s="122"/>
-      <c r="K28" s="132"/>
-      <c r="L28" s="137"/>
-      <c r="M28" s="131"/>
-      <c r="N28" s="72"/>
+      <c r="J28" s="181" t="s">
+        <v>294</v>
+      </c>
+      <c r="K28" s="182"/>
+      <c r="L28" s="136"/>
+      <c r="M28" s="181" t="s">
+        <v>295</v>
+      </c>
+      <c r="N28" s="182"/>
       <c r="O28" s="39"/>
       <c r="P28" s="93" t="s">
         <v>38</v>
@@ -41695,11 +41738,11 @@
       <c r="G29" s="74"/>
       <c r="H29" s="75"/>
       <c r="I29" s="39"/>
-      <c r="J29" s="113"/>
-      <c r="K29" s="133"/>
+      <c r="J29" s="122"/>
+      <c r="K29" s="132"/>
       <c r="L29" s="137"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="60"/>
+      <c r="M29" s="131"/>
+      <c r="N29" s="72"/>
       <c r="O29" s="39"/>
       <c r="P29" s="94" t="s">
         <v>39</v>
@@ -41730,11 +41773,11 @@
       <c r="G30" s="69"/>
       <c r="H30" s="60"/>
       <c r="I30" s="39"/>
-      <c r="J30" s="135"/>
-      <c r="K30" s="77"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="133"/>
       <c r="L30" s="137"/>
-      <c r="M30" s="135"/>
-      <c r="N30" s="77"/>
+      <c r="M30" s="101"/>
+      <c r="N30" s="60"/>
       <c r="O30" s="39"/>
       <c r="P30" s="93" t="s">
         <v>40</v>
@@ -41765,6 +41808,11 @@
       <c r="G31" s="74"/>
       <c r="H31" s="75"/>
       <c r="I31" s="39"/>
+      <c r="J31" s="135"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="137"/>
+      <c r="M31" s="135"/>
+      <c r="N31" s="77"/>
       <c r="O31" s="39"/>
       <c r="P31" s="94" t="s">
         <v>41</v>
@@ -41859,15 +41907,15 @@
       </c>
       <c r="Q34" s="126">
         <f t="shared" ref="Q34" si="1">SUM(Q22:Q33)</f>
-        <v>7.2201388888888882</v>
+        <v>8.0034722222222214</v>
       </c>
       <c r="R34" s="126">
         <f>SUM(R22:R33)</f>
-        <v>3.2909722222222224</v>
+        <v>3.6402777777777779</v>
       </c>
       <c r="S34" s="127">
         <f>SUM(S22:S33)</f>
-        <v>10.511111111111111</v>
+        <v>11.643750000000001</v>
       </c>
       <c r="T34" s="39"/>
       <c r="U34" s="39"/>
@@ -44960,23 +45008,23 @@
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="P41:R41"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="M22:N22"/>
     <mergeCell ref="P39:R39"/>
     <mergeCell ref="P40:R40"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P37:R37"/>
     <mergeCell ref="P38:R38"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P37:R37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J116" r:id="rId1" xr:uid="{24F98E59-04E2-4995-A47A-0D179F9D60FA}"/>

--- a/spreadsheets/Games.xlsx
+++ b/spreadsheets/Games.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ucer0.github.io\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C7872C-F9EE-47A2-BD8A-1EBA0ED462F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528080F1-27B7-4D0D-B2C5-4A2FCAC0F8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29415" yWindow="3360" windowWidth="24465" windowHeight="11625" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="524">
   <si>
     <t>Nier: Automata</t>
   </si>
@@ -2155,6 +2155,21 @@
   </si>
   <si>
     <t>1000xRESIST (5h 42m)</t>
+  </si>
+  <si>
+    <t>Kero Blaster</t>
+  </si>
+  <si>
+    <t>5-jul.</t>
+  </si>
+  <si>
+    <t>Tiny Echo</t>
+  </si>
+  <si>
+    <t>Unicorn Overlord</t>
+  </si>
+  <si>
+    <t>1000xRESIST (5h 24m), Unicorn Overlord (38h 14m)</t>
   </si>
 </sst>
 </file>
@@ -3073,6 +3088,9 @@
     <xf numFmtId="166" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3103,6 +3121,9 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
@@ -3121,7 +3142,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3131,12 +3152,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4141,6 +4156,9 @@
                 <c:pt idx="5">
                   <c:v>0.78333333333333321</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1541666666666668</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4244,6 +4262,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.34930555555555554</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27986111111111112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8165,13 +8186,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -14764,17 +14785,17 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="164">
+      <c r="B2" s="165">
         <v>2019</v>
       </c>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
       <c r="E2" s="67"/>
-      <c r="F2" s="170" t="s">
+      <c r="F2" s="171" t="s">
         <v>261</v>
       </c>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
       <c r="I2" s="35"/>
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
@@ -14805,18 +14826,18 @@
         <v>77</v>
       </c>
       <c r="E3" s="68"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="6"/>
       <c r="N3" s="29"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
@@ -14838,18 +14859,18 @@
         <v>2004</v>
       </c>
       <c r="E4" s="26"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="171"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="30"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="169"/>
-      <c r="P4" s="169"/>
-      <c r="Q4" s="169"/>
+      <c r="O4" s="170"/>
+      <c r="P4" s="170"/>
+      <c r="Q4" s="170"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
@@ -14871,18 +14892,18 @@
         <v>2017</v>
       </c>
       <c r="E5" s="26"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
       <c r="I5" s="6"/>
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="169"/>
-      <c r="P5" s="169"/>
-      <c r="Q5" s="169"/>
+      <c r="O5" s="170"/>
+      <c r="P5" s="170"/>
+      <c r="Q5" s="170"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
@@ -14904,18 +14925,18 @@
         <v>2017</v>
       </c>
       <c r="E6" s="26"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="171"/>
       <c r="I6" s="6"/>
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="169"/>
-      <c r="P6" s="169"/>
-      <c r="Q6" s="169"/>
+      <c r="O6" s="170"/>
+      <c r="P6" s="170"/>
+      <c r="Q6" s="170"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
@@ -14937,18 +14958,18 @@
         <v>2017</v>
       </c>
       <c r="E7" s="26"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="171"/>
       <c r="I7" s="6"/>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="169"/>
-      <c r="P7" s="169"/>
-      <c r="Q7" s="169"/>
+      <c r="O7" s="170"/>
+      <c r="P7" s="170"/>
+      <c r="Q7" s="170"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
@@ -14970,18 +14991,18 @@
         <v>2017</v>
       </c>
       <c r="E8" s="26"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="171"/>
       <c r="I8" s="6"/>
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="169"/>
-      <c r="P8" s="169"/>
-      <c r="Q8" s="169"/>
+      <c r="O8" s="170"/>
+      <c r="P8" s="170"/>
+      <c r="Q8" s="170"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
@@ -15003,18 +15024,18 @@
         <v>2016</v>
       </c>
       <c r="E9" s="26"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="170"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="171"/>
+      <c r="H9" s="171"/>
       <c r="I9" s="6"/>
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="169"/>
-      <c r="P9" s="169"/>
-      <c r="Q9" s="169"/>
+      <c r="O9" s="170"/>
+      <c r="P9" s="170"/>
+      <c r="Q9" s="170"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
@@ -15036,18 +15057,18 @@
         <v>2017</v>
       </c>
       <c r="E10" s="26"/>
-      <c r="F10" s="170"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="170"/>
+      <c r="F10" s="171"/>
+      <c r="G10" s="171"/>
+      <c r="H10" s="171"/>
       <c r="I10" s="6"/>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="7"/>
-      <c r="O10" s="169"/>
-      <c r="P10" s="169"/>
-      <c r="Q10" s="169"/>
+      <c r="O10" s="170"/>
+      <c r="P10" s="170"/>
+      <c r="Q10" s="170"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
@@ -15069,18 +15090,18 @@
         <v>2016</v>
       </c>
       <c r="E11" s="26"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="170"/>
+      <c r="F11" s="171"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="171"/>
       <c r="I11" s="6"/>
       <c r="J11" s="30"/>
       <c r="K11" s="30"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="169"/>
-      <c r="P11" s="169"/>
-      <c r="Q11" s="169"/>
+      <c r="O11" s="170"/>
+      <c r="P11" s="170"/>
+      <c r="Q11" s="170"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
@@ -15102,18 +15123,18 @@
         <v>2017</v>
       </c>
       <c r="E12" s="26"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="170"/>
-      <c r="H12" s="170"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="171"/>
+      <c r="H12" s="171"/>
       <c r="I12" s="6"/>
       <c r="J12" s="30"/>
       <c r="K12" s="30"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="169"/>
-      <c r="P12" s="169"/>
-      <c r="Q12" s="169"/>
+      <c r="O12" s="170"/>
+      <c r="P12" s="170"/>
+      <c r="Q12" s="170"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
@@ -15135,18 +15156,18 @@
         <v>2009</v>
       </c>
       <c r="E13" s="26"/>
-      <c r="F13" s="170"/>
-      <c r="G13" s="170"/>
-      <c r="H13" s="170"/>
+      <c r="F13" s="171"/>
+      <c r="G13" s="171"/>
+      <c r="H13" s="171"/>
       <c r="I13" s="6"/>
       <c r="J13" s="30"/>
       <c r="K13" s="30"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="169"/>
-      <c r="P13" s="169"/>
-      <c r="Q13" s="169"/>
+      <c r="O13" s="170"/>
+      <c r="P13" s="170"/>
+      <c r="Q13" s="170"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
@@ -15168,18 +15189,18 @@
         <v>2019</v>
       </c>
       <c r="E14" s="26"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="170"/>
+      <c r="F14" s="171"/>
+      <c r="G14" s="171"/>
+      <c r="H14" s="171"/>
       <c r="I14" s="6"/>
       <c r="J14" s="30"/>
       <c r="K14" s="30"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="169"/>
-      <c r="P14" s="169"/>
-      <c r="Q14" s="169"/>
+      <c r="O14" s="170"/>
+      <c r="P14" s="170"/>
+      <c r="Q14" s="170"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
@@ -15201,18 +15222,18 @@
         <v>2019</v>
       </c>
       <c r="E15" s="26"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="170"/>
+      <c r="F15" s="171"/>
+      <c r="G15" s="171"/>
+      <c r="H15" s="171"/>
       <c r="I15" s="6"/>
       <c r="J15" s="30"/>
       <c r="K15" s="30"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="169"/>
-      <c r="P15" s="169"/>
-      <c r="Q15" s="169"/>
+      <c r="O15" s="170"/>
+      <c r="P15" s="170"/>
+      <c r="Q15" s="170"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
@@ -15237,9 +15258,9 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="169"/>
-      <c r="P16" s="169"/>
-      <c r="Q16" s="169"/>
+      <c r="O16" s="170"/>
+      <c r="P16" s="170"/>
+      <c r="Q16" s="170"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
@@ -15250,9 +15271,9 @@
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
-      <c r="B17" s="166"/>
-      <c r="C17" s="166"/>
-      <c r="D17" s="166"/>
+      <c r="B17" s="167"/>
+      <c r="C17" s="167"/>
+      <c r="D17" s="167"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7"/>
@@ -15277,9 +15298,9 @@
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
-      <c r="B18" s="166"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="166"/>
+      <c r="B18" s="167"/>
+      <c r="C18" s="167"/>
+      <c r="D18" s="167"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="7"/>
@@ -15289,8 +15310,8 @@
       <c r="K18" s="30"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="167"/>
-      <c r="O18" s="168"/>
+      <c r="N18" s="168"/>
+      <c r="O18" s="169"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
@@ -15304,9 +15325,9 @@
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
-      <c r="B19" s="166"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="166"/>
+      <c r="B19" s="167"/>
+      <c r="C19" s="167"/>
+      <c r="D19" s="167"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7"/>
@@ -15316,8 +15337,8 @@
       <c r="K19" s="30"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="168"/>
-      <c r="O19" s="168"/>
+      <c r="N19" s="169"/>
+      <c r="O19" s="169"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
@@ -15343,8 +15364,8 @@
       <c r="K20" s="30"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="168"/>
-      <c r="O20" s="168"/>
+      <c r="N20" s="169"/>
+      <c r="O20" s="169"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
@@ -15370,8 +15391,8 @@
       <c r="K21" s="30"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="168"/>
-      <c r="O21" s="168"/>
+      <c r="N21" s="169"/>
+      <c r="O21" s="169"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
@@ -15397,8 +15418,8 @@
       <c r="K22" s="30"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-      <c r="N22" s="168"/>
-      <c r="O22" s="168"/>
+      <c r="N22" s="169"/>
+      <c r="O22" s="169"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
@@ -16582,8 +16603,8 @@
         <v>11</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="172"/>
-      <c r="K17" s="173"/>
+      <c r="J17" s="173"/>
+      <c r="K17" s="174"/>
       <c r="L17" s="6"/>
       <c r="M17" s="39"/>
       <c r="N17" s="39"/>
@@ -16621,8 +16642,8 @@
         <v>1</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="171"/>
-      <c r="K18" s="171"/>
+      <c r="J18" s="172"/>
+      <c r="K18" s="172"/>
       <c r="L18" s="6"/>
       <c r="M18" s="39"/>
       <c r="N18" s="39"/>
@@ -20847,7 +20868,7 @@
         <v>4.197916666666667</v>
       </c>
       <c r="I3" s="6"/>
-      <c r="J3" s="177" t="s">
+      <c r="J3" s="179" t="s">
         <v>118</v>
       </c>
       <c r="K3" s="80" t="s">
@@ -20921,7 +20942,7 @@
         <v>0.30138888888888887</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="178"/>
+      <c r="J4" s="180"/>
       <c r="K4" s="54" t="s">
         <v>127</v>
       </c>
@@ -20993,7 +21014,7 @@
         <v>0.2076388888888889</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="178"/>
+      <c r="J5" s="180"/>
       <c r="K5" s="73" t="s">
         <v>132</v>
       </c>
@@ -21065,7 +21086,7 @@
         <v>1.2437499999999999</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="178"/>
+      <c r="J6" s="180"/>
       <c r="K6" s="54" t="s">
         <v>129</v>
       </c>
@@ -21137,7 +21158,7 @@
         <v>0.27916666666666667</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="178"/>
+      <c r="J7" s="180"/>
       <c r="K7" s="73" t="s">
         <v>136</v>
       </c>
@@ -21209,7 +21230,7 @@
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="178"/>
+      <c r="J8" s="180"/>
       <c r="K8" s="54" t="s">
         <v>137</v>
       </c>
@@ -21281,7 +21302,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="177" t="s">
+      <c r="J9" s="179" t="s">
         <v>119</v>
       </c>
       <c r="K9" s="71" t="s">
@@ -21355,7 +21376,7 @@
         <v>0.19027777777777777</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="178"/>
+      <c r="J10" s="180"/>
       <c r="K10" s="54" t="s">
         <v>127</v>
       </c>
@@ -21427,7 +21448,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="178"/>
+      <c r="J11" s="180"/>
       <c r="K11" s="73" t="s">
         <v>132</v>
       </c>
@@ -21499,7 +21520,7 @@
         <v>1.7097222222222221</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="178"/>
+      <c r="J12" s="180"/>
       <c r="K12" s="54" t="s">
         <v>129</v>
       </c>
@@ -21571,7 +21592,7 @@
         <v>0.15972222222222224</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="178"/>
+      <c r="J13" s="180"/>
       <c r="K13" s="73" t="s">
         <v>141</v>
       </c>
@@ -21643,7 +21664,7 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="177" t="s">
+      <c r="J14" s="179" t="s">
         <v>120</v>
       </c>
       <c r="K14" s="10" t="s">
@@ -21717,7 +21738,7 @@
         <v>0.59652777777777777</v>
       </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="178"/>
+      <c r="J15" s="180"/>
       <c r="K15" s="73" t="s">
         <v>127</v>
       </c>
@@ -21789,7 +21810,7 @@
         <v>13</v>
       </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="178"/>
+      <c r="J16" s="180"/>
       <c r="K16" s="54" t="s">
         <v>132</v>
       </c>
@@ -21861,7 +21882,7 @@
         <v>13</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="178"/>
+      <c r="J17" s="180"/>
       <c r="K17" s="73" t="s">
         <v>129</v>
       </c>
@@ -21933,7 +21954,7 @@
         <v>0.24583333333333335</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="178"/>
+      <c r="J18" s="180"/>
       <c r="K18" s="54" t="s">
         <v>144</v>
       </c>
@@ -22005,7 +22026,7 @@
         <v>0.49513888888888885</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="179"/>
+      <c r="J19" s="181"/>
       <c r="K19" s="76" t="s">
         <v>150</v>
       </c>
@@ -22077,7 +22098,7 @@
         <v>0.20972222222222223</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="J20" s="177" t="s">
+      <c r="J20" s="179" t="s">
         <v>143</v>
       </c>
       <c r="K20" s="10" t="s">
@@ -22151,7 +22172,7 @@
         <v>0.25486111111111109</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="179"/>
+      <c r="J21" s="181"/>
       <c r="K21" s="76" t="s">
         <v>141</v>
       </c>
@@ -22233,7 +22254,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="178" t="s">
+      <c r="J22" s="180" t="s">
         <v>161</v>
       </c>
       <c r="K22" s="54" t="s">
@@ -22319,7 +22340,7 @@
         <v>0.26944444444444443</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="178"/>
+      <c r="J23" s="180"/>
       <c r="K23" s="80" t="s">
         <v>169</v>
       </c>
@@ -22403,7 +22424,7 @@
         <v>0.3263888888888889</v>
       </c>
       <c r="I24" s="39"/>
-      <c r="J24" s="178"/>
+      <c r="J24" s="180"/>
       <c r="K24" s="54" t="s">
         <v>163</v>
       </c>
@@ -22487,7 +22508,7 @@
         <v>0.32847222222222222</v>
       </c>
       <c r="I25" s="39"/>
-      <c r="J25" s="178"/>
+      <c r="J25" s="180"/>
       <c r="K25" s="73" t="s">
         <v>141</v>
       </c>
@@ -22571,7 +22592,7 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="I26" s="39"/>
-      <c r="J26" s="179"/>
+      <c r="J26" s="181"/>
       <c r="K26" s="11" t="s">
         <v>162</v>
       </c>
@@ -22655,7 +22676,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="I27" s="39"/>
-      <c r="J27" s="177" t="s">
+      <c r="J27" s="179" t="s">
         <v>171</v>
       </c>
       <c r="K27" s="73" t="s">
@@ -22741,7 +22762,7 @@
         <v>0.22291666666666665</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="178"/>
+      <c r="J28" s="180"/>
       <c r="K28" s="101" t="s">
         <v>163</v>
       </c>
@@ -22825,7 +22846,7 @@
         <v>0.13194444444444445</v>
       </c>
       <c r="I29" s="39"/>
-      <c r="J29" s="178"/>
+      <c r="J29" s="180"/>
       <c r="K29" s="73" t="s">
         <v>29</v>
       </c>
@@ -22909,7 +22930,7 @@
         <v>13</v>
       </c>
       <c r="I30" s="39"/>
-      <c r="J30" s="178"/>
+      <c r="J30" s="180"/>
       <c r="K30" s="101" t="s">
         <v>136</v>
       </c>
@@ -22993,7 +23014,7 @@
         <v>0.43888888888888888</v>
       </c>
       <c r="I31" s="39"/>
-      <c r="J31" s="179"/>
+      <c r="J31" s="181"/>
       <c r="K31" s="73" t="s">
         <v>141</v>
       </c>
@@ -23077,7 +23098,7 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="I32" s="39"/>
-      <c r="J32" s="177" t="s">
+      <c r="J32" s="179" t="s">
         <v>184</v>
       </c>
       <c r="K32" s="107" t="s">
@@ -23163,7 +23184,7 @@
         <v>2.7097222222222221</v>
       </c>
       <c r="I33" s="39"/>
-      <c r="J33" s="178"/>
+      <c r="J33" s="180"/>
       <c r="K33" s="73" t="s">
         <v>179</v>
       </c>
@@ -23249,7 +23270,7 @@
         <v>13</v>
       </c>
       <c r="I34" s="39"/>
-      <c r="J34" s="178"/>
+      <c r="J34" s="180"/>
       <c r="K34" s="54" t="s">
         <v>199</v>
       </c>
@@ -23332,7 +23353,7 @@
         <v>0.11041666666666666</v>
       </c>
       <c r="I35" s="39"/>
-      <c r="J35" s="178"/>
+      <c r="J35" s="180"/>
       <c r="K35" s="80" t="s">
         <v>198</v>
       </c>
@@ -23404,7 +23425,7 @@
         <v>0.37083333333333335</v>
       </c>
       <c r="I36" s="39"/>
-      <c r="J36" s="178"/>
+      <c r="J36" s="180"/>
       <c r="K36" s="54" t="s">
         <v>141</v>
       </c>
@@ -23412,9 +23433,9 @@
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="M36" s="39"/>
-      <c r="N36" s="180"/>
-      <c r="O36" s="180"/>
-      <c r="P36" s="180"/>
+      <c r="N36" s="175"/>
+      <c r="O36" s="175"/>
+      <c r="P36" s="175"/>
       <c r="Q36" s="111"/>
       <c r="R36" s="16"/>
       <c r="S36" s="16"/>
@@ -23476,7 +23497,7 @@
         <v>0.80694444444444446</v>
       </c>
       <c r="I37" s="39"/>
-      <c r="J37" s="178"/>
+      <c r="J37" s="180"/>
       <c r="K37" s="80" t="s">
         <v>196</v>
       </c>
@@ -23484,9 +23505,9 @@
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="M37" s="39"/>
-      <c r="N37" s="180"/>
-      <c r="O37" s="180"/>
-      <c r="P37" s="180"/>
+      <c r="N37" s="175"/>
+      <c r="O37" s="175"/>
+      <c r="P37" s="175"/>
       <c r="Q37" s="111"/>
       <c r="R37" s="16"/>
       <c r="S37" s="16"/>
@@ -23548,7 +23569,7 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="I38" s="39"/>
-      <c r="J38" s="179"/>
+      <c r="J38" s="181"/>
       <c r="K38" s="11" t="s">
         <v>202</v>
       </c>
@@ -23556,9 +23577,9 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="M38" s="39"/>
-      <c r="N38" s="180"/>
-      <c r="O38" s="180"/>
-      <c r="P38" s="180"/>
+      <c r="N38" s="175"/>
+      <c r="O38" s="175"/>
+      <c r="P38" s="175"/>
       <c r="Q38" s="111"/>
       <c r="R38" s="16"/>
       <c r="S38" s="16"/>
@@ -23606,7 +23627,7 @@
       <c r="G39" s="30"/>
       <c r="H39" s="61"/>
       <c r="I39" s="39"/>
-      <c r="J39" s="177" t="s">
+      <c r="J39" s="179" t="s">
         <v>209</v>
       </c>
       <c r="K39" s="116" t="s">
@@ -23616,9 +23637,9 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="M39" s="39"/>
-      <c r="N39" s="180"/>
-      <c r="O39" s="180"/>
-      <c r="P39" s="180"/>
+      <c r="N39" s="175"/>
+      <c r="O39" s="175"/>
+      <c r="P39" s="175"/>
       <c r="Q39" s="124"/>
       <c r="R39" s="16"/>
       <c r="S39" s="16"/>
@@ -23666,7 +23687,7 @@
       <c r="G40" s="39"/>
       <c r="H40" s="62"/>
       <c r="I40" s="39"/>
-      <c r="J40" s="178"/>
+      <c r="J40" s="180"/>
       <c r="K40" s="113" t="s">
         <v>210</v>
       </c>
@@ -23674,9 +23695,9 @@
         <v>0.3666666666666667</v>
       </c>
       <c r="M40" s="39"/>
-      <c r="N40" s="180"/>
-      <c r="O40" s="180"/>
-      <c r="P40" s="180"/>
+      <c r="N40" s="175"/>
+      <c r="O40" s="175"/>
+      <c r="P40" s="175"/>
       <c r="Q40" s="124"/>
       <c r="R40" s="16"/>
       <c r="S40" s="16"/>
@@ -23723,7 +23744,7 @@
       <c r="G41" s="30"/>
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
-      <c r="J41" s="178"/>
+      <c r="J41" s="180"/>
       <c r="K41" s="112" t="s">
         <v>179</v>
       </c>
@@ -23731,9 +23752,9 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="M41" s="39"/>
-      <c r="N41" s="180"/>
-      <c r="O41" s="180"/>
-      <c r="P41" s="180"/>
+      <c r="N41" s="175"/>
+      <c r="O41" s="175"/>
+      <c r="P41" s="175"/>
       <c r="Q41" s="124"/>
       <c r="R41" s="16"/>
       <c r="S41" s="16"/>
@@ -23781,7 +23802,7 @@
       <c r="G42" s="30"/>
       <c r="H42" s="61"/>
       <c r="I42" s="39"/>
-      <c r="J42" s="178"/>
+      <c r="J42" s="180"/>
       <c r="K42" s="114" t="s">
         <v>136</v>
       </c>
@@ -23839,7 +23860,7 @@
       <c r="G43" s="39"/>
       <c r="H43" s="62"/>
       <c r="I43" s="39"/>
-      <c r="J43" s="178"/>
+      <c r="J43" s="180"/>
       <c r="K43" s="112" t="s">
         <v>212</v>
       </c>
@@ -23897,7 +23918,7 @@
       <c r="G44" s="39"/>
       <c r="H44" s="62"/>
       <c r="I44" s="39"/>
-      <c r="J44" s="178"/>
+      <c r="J44" s="180"/>
       <c r="K44" s="113" t="s">
         <v>213</v>
       </c>
@@ -23955,7 +23976,7 @@
       <c r="G45" s="39"/>
       <c r="H45" s="62"/>
       <c r="I45" s="39"/>
-      <c r="J45" s="179"/>
+      <c r="J45" s="181"/>
       <c r="K45" s="115" t="s">
         <v>141</v>
       </c>
@@ -24013,7 +24034,7 @@
       <c r="G46" s="39"/>
       <c r="H46" s="62"/>
       <c r="I46" s="39"/>
-      <c r="J46" s="174" t="s">
+      <c r="J46" s="176" t="s">
         <v>217</v>
       </c>
       <c r="K46" s="119" t="s">
@@ -24073,7 +24094,7 @@
       <c r="G47" s="39"/>
       <c r="H47" s="62"/>
       <c r="I47" s="39"/>
-      <c r="J47" s="175"/>
+      <c r="J47" s="177"/>
       <c r="K47" s="80" t="s">
         <v>179</v>
       </c>
@@ -24131,7 +24152,7 @@
       <c r="G48" s="39"/>
       <c r="H48" s="62"/>
       <c r="I48" s="39"/>
-      <c r="J48" s="175"/>
+      <c r="J48" s="177"/>
       <c r="K48" s="101" t="s">
         <v>136</v>
       </c>
@@ -24189,7 +24210,7 @@
       <c r="G49" s="39"/>
       <c r="H49" s="62"/>
       <c r="I49" s="39"/>
-      <c r="J49" s="176"/>
+      <c r="J49" s="178"/>
       <c r="K49" s="120" t="s">
         <v>213</v>
       </c>
@@ -24247,7 +24268,7 @@
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
       <c r="I50" s="39"/>
-      <c r="J50" s="174" t="s">
+      <c r="J50" s="176" t="s">
         <v>232</v>
       </c>
       <c r="K50" s="121" t="s">
@@ -24307,7 +24328,7 @@
       <c r="G51" s="39"/>
       <c r="H51" s="39"/>
       <c r="I51" s="39"/>
-      <c r="J51" s="175"/>
+      <c r="J51" s="177"/>
       <c r="K51" s="122" t="s">
         <v>179</v>
       </c>
@@ -24365,7 +24386,7 @@
       <c r="G52" s="39"/>
       <c r="H52" s="39"/>
       <c r="I52" s="39"/>
-      <c r="J52" s="175"/>
+      <c r="J52" s="177"/>
       <c r="K52" s="114" t="s">
         <v>235</v>
       </c>
@@ -24423,7 +24444,7 @@
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
       <c r="I53" s="39"/>
-      <c r="J53" s="176"/>
+      <c r="J53" s="178"/>
       <c r="K53" s="115" t="s">
         <v>211</v>
       </c>
@@ -24481,7 +24502,7 @@
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
       <c r="I54" s="39"/>
-      <c r="J54" s="174" t="s">
+      <c r="J54" s="176" t="s">
         <v>243</v>
       </c>
       <c r="K54" s="121" t="s">
@@ -24541,7 +24562,7 @@
       <c r="G55" s="39"/>
       <c r="H55" s="39"/>
       <c r="I55" s="39"/>
-      <c r="J55" s="175"/>
+      <c r="J55" s="177"/>
       <c r="K55" s="122" t="s">
         <v>242</v>
       </c>
@@ -24599,7 +24620,7 @@
       <c r="G56" s="39"/>
       <c r="H56" s="39"/>
       <c r="I56" s="39"/>
-      <c r="J56" s="175"/>
+      <c r="J56" s="177"/>
       <c r="K56" s="114" t="s">
         <v>29</v>
       </c>
@@ -24657,7 +24678,7 @@
       <c r="G57" s="39"/>
       <c r="H57" s="39"/>
       <c r="I57" s="39"/>
-      <c r="J57" s="176"/>
+      <c r="J57" s="178"/>
       <c r="K57" s="115" t="s">
         <v>199</v>
       </c>
@@ -24715,7 +24736,7 @@
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
       <c r="I58" s="39"/>
-      <c r="J58" s="174" t="s">
+      <c r="J58" s="176" t="s">
         <v>246</v>
       </c>
       <c r="K58" s="121" t="s">
@@ -24775,7 +24796,7 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
       <c r="I59" s="39"/>
-      <c r="J59" s="175"/>
+      <c r="J59" s="177"/>
       <c r="K59" s="122" t="s">
         <v>235</v>
       </c>
@@ -24833,7 +24854,7 @@
       <c r="G60" s="39"/>
       <c r="H60" s="39"/>
       <c r="I60" s="39"/>
-      <c r="J60" s="175"/>
+      <c r="J60" s="177"/>
       <c r="K60" s="114" t="s">
         <v>242</v>
       </c>
@@ -24891,7 +24912,7 @@
       <c r="G61" s="39"/>
       <c r="H61" s="39"/>
       <c r="I61" s="39"/>
-      <c r="J61" s="175"/>
+      <c r="J61" s="177"/>
       <c r="K61" s="122" t="s">
         <v>245</v>
       </c>
@@ -24949,7 +24970,7 @@
       <c r="G62" s="39"/>
       <c r="H62" s="39"/>
       <c r="I62" s="39"/>
-      <c r="J62" s="175"/>
+      <c r="J62" s="177"/>
       <c r="K62" s="114" t="s">
         <v>29</v>
       </c>
@@ -25007,7 +25028,7 @@
       <c r="G63" s="39"/>
       <c r="H63" s="39"/>
       <c r="I63" s="39"/>
-      <c r="J63" s="176"/>
+      <c r="J63" s="178"/>
       <c r="K63" s="115" t="s">
         <v>199</v>
       </c>
@@ -30756,12 +30777,6 @@
     <sortCondition ref="K33"/>
   </sortState>
   <mergeCells count="18">
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="N39:P39"/>
     <mergeCell ref="J58:J63"/>
     <mergeCell ref="J54:J57"/>
     <mergeCell ref="J50:J53"/>
@@ -30774,6 +30789,12 @@
     <mergeCell ref="J32:J38"/>
     <mergeCell ref="J27:J31"/>
     <mergeCell ref="J14:J19"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="N39:P39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -30865,15 +30886,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="181" t="s">
+      <c r="J2" s="183" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="183"/>
+      <c r="K2" s="185"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="183" t="s">
+      <c r="M2" s="185" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="182"/>
+      <c r="N2" s="184"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -31173,15 +31194,15 @@
         <v>0.20416666666666669</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="181" t="s">
+      <c r="J9" s="183" t="s">
         <v>286</v>
       </c>
-      <c r="K9" s="183"/>
+      <c r="K9" s="185"/>
       <c r="L9" s="136"/>
-      <c r="M9" s="183" t="s">
+      <c r="M9" s="185" t="s">
         <v>287</v>
       </c>
-      <c r="N9" s="182"/>
+      <c r="N9" s="184"/>
       <c r="O9" s="39"/>
       <c r="P9" s="39"/>
       <c r="Q9" s="39"/>
@@ -31388,15 +31409,15 @@
         <v>0.15208333333333332</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="181" t="s">
+      <c r="J14" s="183" t="s">
         <v>288</v>
       </c>
-      <c r="K14" s="182"/>
+      <c r="K14" s="184"/>
       <c r="L14" s="136"/>
-      <c r="M14" s="181" t="s">
+      <c r="M14" s="183" t="s">
         <v>289</v>
       </c>
-      <c r="N14" s="182"/>
+      <c r="N14" s="184"/>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
@@ -31700,15 +31721,15 @@
         <v>0.35138888888888892</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="181" t="s">
+      <c r="J21" s="183" t="s">
         <v>290</v>
       </c>
-      <c r="K21" s="182"/>
+      <c r="K21" s="184"/>
       <c r="L21" s="136"/>
-      <c r="M21" s="181" t="s">
+      <c r="M21" s="183" t="s">
         <v>291</v>
       </c>
-      <c r="N21" s="182"/>
+      <c r="N21" s="184"/>
       <c r="O21" s="39"/>
       <c r="P21" s="89" t="s">
         <v>31</v>
@@ -32090,15 +32111,15 @@
         <v>0.11805555555555557</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="181" t="s">
+      <c r="J28" s="183" t="s">
         <v>292</v>
       </c>
-      <c r="K28" s="182"/>
+      <c r="K28" s="184"/>
       <c r="L28" s="136"/>
-      <c r="M28" s="181" t="s">
+      <c r="M28" s="183" t="s">
         <v>293</v>
       </c>
-      <c r="N28" s="182"/>
+      <c r="N28" s="184"/>
       <c r="O28" s="39"/>
       <c r="P28" s="93" t="s">
         <v>38</v>
@@ -32445,15 +32466,15 @@
       <c r="G35" s="30"/>
       <c r="H35" s="61"/>
       <c r="I35" s="39"/>
-      <c r="J35" s="181" t="s">
+      <c r="J35" s="183" t="s">
         <v>294</v>
       </c>
-      <c r="K35" s="182"/>
+      <c r="K35" s="184"/>
       <c r="L35" s="136"/>
-      <c r="M35" s="181" t="s">
+      <c r="M35" s="183" t="s">
         <v>295</v>
       </c>
-      <c r="N35" s="182"/>
+      <c r="N35" s="184"/>
       <c r="O35" s="39"/>
       <c r="P35" s="39"/>
       <c r="Q35" s="39"/>
@@ -32488,9 +32509,9 @@
         <v>4.9305555555555554E-2</v>
       </c>
       <c r="O36" s="39"/>
-      <c r="P36" s="180"/>
-      <c r="Q36" s="180"/>
-      <c r="R36" s="180"/>
+      <c r="P36" s="175"/>
+      <c r="Q36" s="175"/>
+      <c r="R36" s="175"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -32521,9 +32542,9 @@
         <v>0.18472222222222223</v>
       </c>
       <c r="O37" s="39"/>
-      <c r="P37" s="184"/>
-      <c r="Q37" s="184"/>
-      <c r="R37" s="184"/>
+      <c r="P37" s="182"/>
+      <c r="Q37" s="182"/>
+      <c r="R37" s="182"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -32554,9 +32575,9 @@
         <v>0.21249999999999999</v>
       </c>
       <c r="O38" s="39"/>
-      <c r="P38" s="180"/>
-      <c r="Q38" s="180"/>
-      <c r="R38" s="180"/>
+      <c r="P38" s="175"/>
+      <c r="Q38" s="175"/>
+      <c r="R38" s="175"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -32587,9 +32608,9 @@
         <v>0.26527777777777778</v>
       </c>
       <c r="O39" s="39"/>
-      <c r="P39" s="180"/>
-      <c r="Q39" s="180"/>
-      <c r="R39" s="180"/>
+      <c r="P39" s="175"/>
+      <c r="Q39" s="175"/>
+      <c r="R39" s="175"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -32620,9 +32641,9 @@
         <v>0.75347222222222221</v>
       </c>
       <c r="O40" s="39"/>
-      <c r="P40" s="180"/>
-      <c r="Q40" s="180"/>
-      <c r="R40" s="180"/>
+      <c r="P40" s="175"/>
+      <c r="Q40" s="175"/>
+      <c r="R40" s="175"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -32648,9 +32669,9 @@
         <v>1.0513888888888889</v>
       </c>
       <c r="O41" s="39"/>
-      <c r="P41" s="180"/>
-      <c r="Q41" s="180"/>
-      <c r="R41" s="180"/>
+      <c r="P41" s="175"/>
+      <c r="Q41" s="175"/>
+      <c r="R41" s="175"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -35615,12 +35636,6 @@
     <sortCondition ref="J9"/>
   </sortState>
   <mergeCells count="18">
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
     <mergeCell ref="M35:N35"/>
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="M21:N21"/>
@@ -35633,6 +35648,12 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="J35:K35"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J116" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -35649,7 +35670,7 @@
   <dimension ref="A1:Z153"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -35725,15 +35746,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="181" t="s">
+      <c r="J2" s="183" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="183"/>
+      <c r="K2" s="185"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="183" t="s">
+      <c r="M2" s="185" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="182"/>
+      <c r="N2" s="184"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -36063,15 +36084,15 @@
         <v>1.1847222222222222</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="181" t="s">
+      <c r="J10" s="183" t="s">
         <v>286</v>
       </c>
-      <c r="K10" s="182"/>
+      <c r="K10" s="184"/>
       <c r="L10" s="136"/>
-      <c r="M10" s="181" t="s">
+      <c r="M10" s="183" t="s">
         <v>287</v>
       </c>
-      <c r="N10" s="182"/>
+      <c r="N10" s="184"/>
       <c r="O10" s="39"/>
       <c r="P10" s="39"/>
       <c r="Q10" s="39"/>
@@ -36368,15 +36389,15 @@
         <v>6.063194444444445</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="181" t="s">
+      <c r="J17" s="183" t="s">
         <v>288</v>
       </c>
-      <c r="K17" s="182"/>
+      <c r="K17" s="184"/>
       <c r="L17" s="136"/>
-      <c r="M17" s="181" t="s">
+      <c r="M17" s="183" t="s">
         <v>289</v>
       </c>
-      <c r="N17" s="182"/>
+      <c r="N17" s="184"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
@@ -36598,15 +36619,15 @@
         <v>0.50555555555555554</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="181" t="s">
+      <c r="J22" s="183" t="s">
         <v>290</v>
       </c>
-      <c r="K22" s="182"/>
+      <c r="K22" s="184"/>
       <c r="L22" s="136"/>
-      <c r="M22" s="181" t="s">
+      <c r="M22" s="183" t="s">
         <v>291</v>
       </c>
-      <c r="N22" s="182"/>
+      <c r="N22" s="184"/>
       <c r="O22" s="39"/>
       <c r="P22" s="63" t="s">
         <v>32</v>
@@ -36957,15 +36978,15 @@
         <v>2.6388888888888889E-2</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="181" t="s">
+      <c r="J28" s="183" t="s">
         <v>292</v>
       </c>
-      <c r="K28" s="182"/>
+      <c r="K28" s="184"/>
       <c r="L28" s="136"/>
-      <c r="M28" s="181" t="s">
+      <c r="M28" s="183" t="s">
         <v>293</v>
       </c>
-      <c r="N28" s="182"/>
+      <c r="N28" s="184"/>
       <c r="O28" s="39"/>
       <c r="P28" s="93" t="s">
         <v>38</v>
@@ -37331,15 +37352,15 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="I34" s="39"/>
-      <c r="J34" s="181" t="s">
+      <c r="J34" s="183" t="s">
         <v>294</v>
       </c>
-      <c r="K34" s="182"/>
+      <c r="K34" s="184"/>
       <c r="L34" s="136"/>
-      <c r="M34" s="181" t="s">
+      <c r="M34" s="183" t="s">
         <v>295</v>
       </c>
-      <c r="N34" s="182"/>
+      <c r="N34" s="184"/>
       <c r="O34" s="39"/>
       <c r="P34" s="125" t="s">
         <v>77</v>
@@ -37446,9 +37467,9 @@
         <v>0.36944444444444446</v>
       </c>
       <c r="O36" s="39"/>
-      <c r="P36" s="180"/>
-      <c r="Q36" s="180"/>
-      <c r="R36" s="180"/>
+      <c r="P36" s="175"/>
+      <c r="Q36" s="175"/>
+      <c r="R36" s="175"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -37493,9 +37514,9 @@
         <v>7.9166666666666663E-2</v>
       </c>
       <c r="O37" s="39"/>
-      <c r="P37" s="184"/>
-      <c r="Q37" s="180"/>
-      <c r="R37" s="180"/>
+      <c r="P37" s="182"/>
+      <c r="Q37" s="175"/>
+      <c r="R37" s="175"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -37527,9 +37548,9 @@
       </c>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="180"/>
-      <c r="Q38" s="180"/>
-      <c r="R38" s="180"/>
+      <c r="P38" s="175"/>
+      <c r="Q38" s="175"/>
+      <c r="R38" s="175"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -37547,9 +37568,9 @@
       <c r="H39" s="138"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="180"/>
-      <c r="Q39" s="180"/>
-      <c r="R39" s="180"/>
+      <c r="P39" s="175"/>
+      <c r="Q39" s="175"/>
+      <c r="R39" s="175"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -37567,9 +37588,9 @@
       <c r="H40" s="61"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="180"/>
-      <c r="Q40" s="180"/>
-      <c r="R40" s="180"/>
+      <c r="P40" s="175"/>
+      <c r="Q40" s="175"/>
+      <c r="R40" s="175"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -37587,9 +37608,9 @@
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="180"/>
-      <c r="Q41" s="180"/>
-      <c r="R41" s="180"/>
+      <c r="P41" s="175"/>
+      <c r="Q41" s="175"/>
+      <c r="R41" s="175"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -40541,24 +40562,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M17:N17"/>
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
@@ -40579,7 +40600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{945572C7-9529-4441-AC5C-E60B6D0FDFB2}">
   <dimension ref="A1:Z153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
@@ -40656,15 +40677,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="181" t="s">
+      <c r="J2" s="183" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="182"/>
+      <c r="K2" s="184"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="181" t="s">
+      <c r="M2" s="183" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="182"/>
+      <c r="N2" s="184"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -40870,15 +40891,15 @@
         <v>0.33749999999999997</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="181" t="s">
+      <c r="J7" s="183" t="s">
         <v>286</v>
       </c>
-      <c r="K7" s="182"/>
+      <c r="K7" s="184"/>
       <c r="L7" s="136"/>
-      <c r="M7" s="181" t="s">
+      <c r="M7" s="183" t="s">
         <v>287</v>
       </c>
-      <c r="N7" s="182"/>
+      <c r="N7" s="184"/>
       <c r="O7" s="39"/>
       <c r="P7" s="39"/>
       <c r="Q7" s="39"/>
@@ -41085,15 +41106,15 @@
         <v>0.48819444444444443</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="181" t="s">
+      <c r="J12" s="183" t="s">
         <v>288</v>
       </c>
-      <c r="K12" s="182"/>
+      <c r="K12" s="184"/>
       <c r="L12" s="136"/>
-      <c r="M12" s="181" t="s">
+      <c r="M12" s="183" t="s">
         <v>289</v>
       </c>
-      <c r="N12" s="182"/>
+      <c r="N12" s="184"/>
       <c r="O12" s="39"/>
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
@@ -41185,7 +41206,7 @@
       <c r="M14" s="142" t="s">
         <v>136</v>
       </c>
-      <c r="N14" s="185">
+      <c r="N14" s="164">
         <v>0.18958333333333333</v>
       </c>
       <c r="O14" s="39"/>
@@ -41216,10 +41237,10 @@
         <v>54</v>
       </c>
       <c r="G15" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="75" t="s">
-        <v>13</v>
+        <v>520</v>
+      </c>
+      <c r="H15" s="75">
+        <v>0.46250000000000002</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="135" t="s">
@@ -41250,12 +41271,24 @@
       <c r="B16" s="78">
         <v>14</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="60"/>
+      <c r="C16" s="54" t="s">
+        <v>519</v>
+      </c>
+      <c r="D16" s="54">
+        <v>2015</v>
+      </c>
+      <c r="E16" s="153" t="s">
+        <v>440</v>
+      </c>
+      <c r="F16" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="69" t="s">
+        <v>188</v>
+      </c>
+      <c r="H16" s="60">
+        <v>0.29166666666666669</v>
+      </c>
       <c r="I16" s="6"/>
       <c r="M16" s="14" t="s">
         <v>513</v>
@@ -41278,12 +41311,24 @@
       <c r="B17" s="70">
         <v>15</v>
       </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="152"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="75"/>
+      <c r="C17" s="73" t="s">
+        <v>521</v>
+      </c>
+      <c r="D17" s="73">
+        <v>2017</v>
+      </c>
+      <c r="E17" s="152" t="s">
+        <v>440</v>
+      </c>
+      <c r="F17" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="G17" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="H17" s="75">
+        <v>4.4444444444444446E-2</v>
+      </c>
       <c r="I17" s="6"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
@@ -41300,22 +41345,34 @@
       <c r="B18" s="78">
         <v>16</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="153"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="60"/>
+      <c r="C18" s="54" t="s">
+        <v>522</v>
+      </c>
+      <c r="D18" s="54">
+        <v>2024</v>
+      </c>
+      <c r="E18" s="153" t="s">
+        <v>442</v>
+      </c>
+      <c r="F18" s="69" t="s">
+        <v>192</v>
+      </c>
+      <c r="G18" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="60" t="s">
+        <v>13</v>
+      </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="181" t="s">
+      <c r="J18" s="183" t="s">
         <v>290</v>
       </c>
-      <c r="K18" s="182"/>
+      <c r="K18" s="184"/>
       <c r="L18" s="136"/>
-      <c r="M18" s="181" t="s">
+      <c r="M18" s="183" t="s">
         <v>291</v>
       </c>
-      <c r="N18" s="182"/>
+      <c r="N18" s="184"/>
       <c r="O18" s="39"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="39"/>
@@ -41338,8 +41395,12 @@
       <c r="G19" s="74"/>
       <c r="H19" s="75"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="122"/>
-      <c r="K19" s="132"/>
+      <c r="J19" s="122" t="s">
+        <v>377</v>
+      </c>
+      <c r="K19" s="132">
+        <v>0.23194444444444445</v>
+      </c>
       <c r="L19" s="137"/>
       <c r="M19" s="131"/>
       <c r="N19" s="72"/>
@@ -41365,8 +41426,12 @@
       <c r="G20" s="69"/>
       <c r="H20" s="60"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="133"/>
+      <c r="J20" s="113" t="s">
+        <v>465</v>
+      </c>
+      <c r="K20" s="133">
+        <v>4.791666666666667E-2</v>
+      </c>
       <c r="L20" s="137"/>
       <c r="M20" s="101"/>
       <c r="N20" s="60"/>
@@ -41473,15 +41538,15 @@
       <c r="G23" s="74"/>
       <c r="H23" s="75"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="181" t="s">
+      <c r="J23" s="183" t="s">
         <v>292</v>
       </c>
-      <c r="K23" s="182"/>
+      <c r="K23" s="184"/>
       <c r="L23" s="136"/>
-      <c r="M23" s="181" t="s">
+      <c r="M23" s="183" t="s">
         <v>293</v>
       </c>
-      <c r="N23" s="182"/>
+      <c r="N23" s="184"/>
       <c r="O23" s="39"/>
       <c r="P23" s="94" t="s">
         <v>33</v>
@@ -41699,30 +41764,42 @@
       <c r="G28" s="69"/>
       <c r="H28" s="60"/>
       <c r="I28" s="39"/>
-      <c r="J28" s="181" t="s">
+      <c r="J28" s="183" t="s">
         <v>294</v>
       </c>
-      <c r="K28" s="182"/>
+      <c r="K28" s="184"/>
       <c r="L28" s="136"/>
-      <c r="M28" s="181" t="s">
+      <c r="M28" s="183" t="s">
         <v>295</v>
       </c>
-      <c r="N28" s="182"/>
+      <c r="N28" s="184"/>
       <c r="O28" s="39"/>
       <c r="P28" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="81"/>
-      <c r="R28" s="81"/>
+      <c r="Q28" s="81">
+        <f>SUM(H16:H17,W28:X28)</f>
+        <v>2.1541666666666668</v>
+      </c>
+      <c r="R28" s="81">
+        <f>SUM(K19:K20)</f>
+        <v>0.27986111111111112</v>
+      </c>
       <c r="S28" s="97">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.4340277777777777</v>
       </c>
       <c r="T28" s="39"/>
-      <c r="U28" s="99"/>
+      <c r="U28" s="99" t="s">
+        <v>523</v>
+      </c>
       <c r="V28" s="146"/>
-      <c r="W28" s="147"/>
-      <c r="X28" s="147"/>
+      <c r="W28" s="147">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="X28" s="147">
+        <v>1.5930555555555554</v>
+      </c>
       <c r="Y28" s="146"/>
       <c r="Z28" s="39"/>
     </row>
@@ -41907,15 +41984,15 @@
       </c>
       <c r="Q34" s="126">
         <f t="shared" ref="Q34" si="1">SUM(Q22:Q33)</f>
-        <v>8.0034722222222214</v>
+        <v>10.157638888888888</v>
       </c>
       <c r="R34" s="126">
         <f>SUM(R22:R33)</f>
-        <v>3.6402777777777779</v>
+        <v>3.9201388888888893</v>
       </c>
       <c r="S34" s="127">
         <f>SUM(S22:S33)</f>
-        <v>11.643750000000001</v>
+        <v>14.077777777777779</v>
       </c>
       <c r="T34" s="39"/>
       <c r="U34" s="39"/>
@@ -41953,9 +42030,9 @@
       <c r="H36" s="61"/>
       <c r="I36" s="39"/>
       <c r="O36" s="39"/>
-      <c r="P36" s="180"/>
-      <c r="Q36" s="180"/>
-      <c r="R36" s="180"/>
+      <c r="P36" s="175"/>
+      <c r="Q36" s="175"/>
+      <c r="R36" s="175"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -41973,9 +42050,9 @@
       <c r="H37" s="61"/>
       <c r="I37" s="39"/>
       <c r="O37" s="39"/>
-      <c r="P37" s="184"/>
-      <c r="Q37" s="180"/>
-      <c r="R37" s="180"/>
+      <c r="P37" s="182"/>
+      <c r="Q37" s="175"/>
+      <c r="R37" s="175"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -41993,9 +42070,9 @@
       <c r="H38" s="61"/>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="180"/>
-      <c r="Q38" s="180"/>
-      <c r="R38" s="180"/>
+      <c r="P38" s="175"/>
+      <c r="Q38" s="175"/>
+      <c r="R38" s="175"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -42013,9 +42090,9 @@
       <c r="H39" s="61"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="180"/>
-      <c r="Q39" s="180"/>
-      <c r="R39" s="180"/>
+      <c r="P39" s="175"/>
+      <c r="Q39" s="175"/>
+      <c r="R39" s="175"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -42033,9 +42110,9 @@
       <c r="H40" s="62"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="180"/>
-      <c r="Q40" s="180"/>
-      <c r="R40" s="180"/>
+      <c r="P40" s="175"/>
+      <c r="Q40" s="175"/>
+      <c r="R40" s="175"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -42053,9 +42130,9 @@
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="180"/>
-      <c r="Q41" s="180"/>
-      <c r="R41" s="180"/>
+      <c r="P41" s="175"/>
+      <c r="Q41" s="175"/>
+      <c r="R41" s="175"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -44172,7 +44249,7 @@
       </c>
       <c r="R125" s="46">
         <f>COUNTIF(D3:D59,Q125)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S125" s="39"/>
       <c r="T125" s="39"/>
@@ -44232,7 +44309,7 @@
       </c>
       <c r="R127" s="46">
         <f>COUNTIF(D3:D59,Q127)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S127" s="39"/>
       <c r="T127" s="39"/>
@@ -44922,7 +44999,7 @@
       </c>
       <c r="R150" s="42">
         <f>SUM(R119:R149)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S150" s="39"/>
       <c r="T150" s="39"/>
@@ -45007,10 +45084,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P37:R37"/>
     <mergeCell ref="P41:R41"/>
     <mergeCell ref="P39:R39"/>
     <mergeCell ref="P40:R40"/>
     <mergeCell ref="P38:R38"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P36:R36"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="J12:K12"/>
@@ -45019,12 +45102,6 @@
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="M23:N23"/>
     <mergeCell ref="M28:N28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P37:R37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J116" r:id="rId1" xr:uid="{24F98E59-04E2-4995-A47A-0D179F9D60FA}"/>
@@ -45033,7 +45110,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <ignoredErrors>
-    <ignoredError sqref="Q22 Q25" formulaRange="1"/>
+    <ignoredError sqref="Q22 Q25 Q28" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId4"/>
 </worksheet>

--- a/spreadsheets/Games.xlsx
+++ b/spreadsheets/Games.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ucer0.github.io\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528080F1-27B7-4D0D-B2C5-4A2FCAC0F8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8914E9E-FA9B-4598-B281-039E4D53E884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29415" yWindow="3360" windowWidth="24465" windowHeight="11625" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="533">
   <si>
     <t>Nier: Automata</t>
   </si>
@@ -2170,6 +2170,33 @@
   </si>
   <si>
     <t>1000xRESIST (5h 24m), Unicorn Overlord (38h 14m)</t>
+  </si>
+  <si>
+    <t>Boku no Natsuyasumi 2</t>
+  </si>
+  <si>
+    <t>PS2 [EMU]</t>
+  </si>
+  <si>
+    <t>20-ago.</t>
+  </si>
+  <si>
+    <t>Prince of Persia: The Lost Crown</t>
+  </si>
+  <si>
+    <t>Deathlock</t>
+  </si>
+  <si>
+    <t>28-ago.</t>
+  </si>
+  <si>
+    <t>31-ago.</t>
+  </si>
+  <si>
+    <t>The Last Guardian</t>
+  </si>
+  <si>
+    <t>Unicorn Overlord (25h 45m), Last Guardian (2h 44m)</t>
   </si>
 </sst>
 </file>
@@ -3121,9 +3148,6 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
@@ -3142,7 +3166,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3153,6 +3177,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4159,6 +4186,9 @@
                 <c:pt idx="6">
                   <c:v>2.1541666666666668</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6993055555555561</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4265,6 +4295,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.27986111111111112</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36388888888888893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8189,7 +8222,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
@@ -8231,7 +8264,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -20868,7 +20901,7 @@
         <v>4.197916666666667</v>
       </c>
       <c r="I3" s="6"/>
-      <c r="J3" s="179" t="s">
+      <c r="J3" s="178" t="s">
         <v>118</v>
       </c>
       <c r="K3" s="80" t="s">
@@ -20942,7 +20975,7 @@
         <v>0.30138888888888887</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="180"/>
+      <c r="J4" s="179"/>
       <c r="K4" s="54" t="s">
         <v>127</v>
       </c>
@@ -21014,7 +21047,7 @@
         <v>0.2076388888888889</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="180"/>
+      <c r="J5" s="179"/>
       <c r="K5" s="73" t="s">
         <v>132</v>
       </c>
@@ -21086,7 +21119,7 @@
         <v>1.2437499999999999</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="180"/>
+      <c r="J6" s="179"/>
       <c r="K6" s="54" t="s">
         <v>129</v>
       </c>
@@ -21158,7 +21191,7 @@
         <v>0.27916666666666667</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="180"/>
+      <c r="J7" s="179"/>
       <c r="K7" s="73" t="s">
         <v>136</v>
       </c>
@@ -21230,7 +21263,7 @@
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="180"/>
+      <c r="J8" s="179"/>
       <c r="K8" s="54" t="s">
         <v>137</v>
       </c>
@@ -21302,7 +21335,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="179" t="s">
+      <c r="J9" s="178" t="s">
         <v>119</v>
       </c>
       <c r="K9" s="71" t="s">
@@ -21376,7 +21409,7 @@
         <v>0.19027777777777777</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="180"/>
+      <c r="J10" s="179"/>
       <c r="K10" s="54" t="s">
         <v>127</v>
       </c>
@@ -21448,7 +21481,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="180"/>
+      <c r="J11" s="179"/>
       <c r="K11" s="73" t="s">
         <v>132</v>
       </c>
@@ -21520,7 +21553,7 @@
         <v>1.7097222222222221</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="180"/>
+      <c r="J12" s="179"/>
       <c r="K12" s="54" t="s">
         <v>129</v>
       </c>
@@ -21592,7 +21625,7 @@
         <v>0.15972222222222224</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="180"/>
+      <c r="J13" s="179"/>
       <c r="K13" s="73" t="s">
         <v>141</v>
       </c>
@@ -21664,7 +21697,7 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="179" t="s">
+      <c r="J14" s="178" t="s">
         <v>120</v>
       </c>
       <c r="K14" s="10" t="s">
@@ -21738,7 +21771,7 @@
         <v>0.59652777777777777</v>
       </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="180"/>
+      <c r="J15" s="179"/>
       <c r="K15" s="73" t="s">
         <v>127</v>
       </c>
@@ -21810,7 +21843,7 @@
         <v>13</v>
       </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="180"/>
+      <c r="J16" s="179"/>
       <c r="K16" s="54" t="s">
         <v>132</v>
       </c>
@@ -21882,7 +21915,7 @@
         <v>13</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="180"/>
+      <c r="J17" s="179"/>
       <c r="K17" s="73" t="s">
         <v>129</v>
       </c>
@@ -21954,7 +21987,7 @@
         <v>0.24583333333333335</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="180"/>
+      <c r="J18" s="179"/>
       <c r="K18" s="54" t="s">
         <v>144</v>
       </c>
@@ -22026,7 +22059,7 @@
         <v>0.49513888888888885</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="181"/>
+      <c r="J19" s="180"/>
       <c r="K19" s="76" t="s">
         <v>150</v>
       </c>
@@ -22098,7 +22131,7 @@
         <v>0.20972222222222223</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="J20" s="179" t="s">
+      <c r="J20" s="178" t="s">
         <v>143</v>
       </c>
       <c r="K20" s="10" t="s">
@@ -22172,7 +22205,7 @@
         <v>0.25486111111111109</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="181"/>
+      <c r="J21" s="180"/>
       <c r="K21" s="76" t="s">
         <v>141</v>
       </c>
@@ -22254,7 +22287,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="180" t="s">
+      <c r="J22" s="179" t="s">
         <v>161</v>
       </c>
       <c r="K22" s="54" t="s">
@@ -22340,7 +22373,7 @@
         <v>0.26944444444444443</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="180"/>
+      <c r="J23" s="179"/>
       <c r="K23" s="80" t="s">
         <v>169</v>
       </c>
@@ -22424,7 +22457,7 @@
         <v>0.3263888888888889</v>
       </c>
       <c r="I24" s="39"/>
-      <c r="J24" s="180"/>
+      <c r="J24" s="179"/>
       <c r="K24" s="54" t="s">
         <v>163</v>
       </c>
@@ -22508,7 +22541,7 @@
         <v>0.32847222222222222</v>
       </c>
       <c r="I25" s="39"/>
-      <c r="J25" s="180"/>
+      <c r="J25" s="179"/>
       <c r="K25" s="73" t="s">
         <v>141</v>
       </c>
@@ -22592,7 +22625,7 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="I26" s="39"/>
-      <c r="J26" s="181"/>
+      <c r="J26" s="180"/>
       <c r="K26" s="11" t="s">
         <v>162</v>
       </c>
@@ -22676,7 +22709,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="I27" s="39"/>
-      <c r="J27" s="179" t="s">
+      <c r="J27" s="178" t="s">
         <v>171</v>
       </c>
       <c r="K27" s="73" t="s">
@@ -22762,7 +22795,7 @@
         <v>0.22291666666666665</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="180"/>
+      <c r="J28" s="179"/>
       <c r="K28" s="101" t="s">
         <v>163</v>
       </c>
@@ -22846,7 +22879,7 @@
         <v>0.13194444444444445</v>
       </c>
       <c r="I29" s="39"/>
-      <c r="J29" s="180"/>
+      <c r="J29" s="179"/>
       <c r="K29" s="73" t="s">
         <v>29</v>
       </c>
@@ -22930,7 +22963,7 @@
         <v>13</v>
       </c>
       <c r="I30" s="39"/>
-      <c r="J30" s="180"/>
+      <c r="J30" s="179"/>
       <c r="K30" s="101" t="s">
         <v>136</v>
       </c>
@@ -23014,7 +23047,7 @@
         <v>0.43888888888888888</v>
       </c>
       <c r="I31" s="39"/>
-      <c r="J31" s="181"/>
+      <c r="J31" s="180"/>
       <c r="K31" s="73" t="s">
         <v>141</v>
       </c>
@@ -23098,7 +23131,7 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="I32" s="39"/>
-      <c r="J32" s="179" t="s">
+      <c r="J32" s="178" t="s">
         <v>184</v>
       </c>
       <c r="K32" s="107" t="s">
@@ -23184,7 +23217,7 @@
         <v>2.7097222222222221</v>
       </c>
       <c r="I33" s="39"/>
-      <c r="J33" s="180"/>
+      <c r="J33" s="179"/>
       <c r="K33" s="73" t="s">
         <v>179</v>
       </c>
@@ -23270,7 +23303,7 @@
         <v>13</v>
       </c>
       <c r="I34" s="39"/>
-      <c r="J34" s="180"/>
+      <c r="J34" s="179"/>
       <c r="K34" s="54" t="s">
         <v>199</v>
       </c>
@@ -23353,7 +23386,7 @@
         <v>0.11041666666666666</v>
       </c>
       <c r="I35" s="39"/>
-      <c r="J35" s="180"/>
+      <c r="J35" s="179"/>
       <c r="K35" s="80" t="s">
         <v>198</v>
       </c>
@@ -23425,7 +23458,7 @@
         <v>0.37083333333333335</v>
       </c>
       <c r="I36" s="39"/>
-      <c r="J36" s="180"/>
+      <c r="J36" s="179"/>
       <c r="K36" s="54" t="s">
         <v>141</v>
       </c>
@@ -23433,9 +23466,9 @@
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="M36" s="39"/>
-      <c r="N36" s="175"/>
-      <c r="O36" s="175"/>
-      <c r="P36" s="175"/>
+      <c r="N36" s="181"/>
+      <c r="O36" s="181"/>
+      <c r="P36" s="181"/>
       <c r="Q36" s="111"/>
       <c r="R36" s="16"/>
       <c r="S36" s="16"/>
@@ -23497,7 +23530,7 @@
         <v>0.80694444444444446</v>
       </c>
       <c r="I37" s="39"/>
-      <c r="J37" s="180"/>
+      <c r="J37" s="179"/>
       <c r="K37" s="80" t="s">
         <v>196</v>
       </c>
@@ -23505,9 +23538,9 @@
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="M37" s="39"/>
-      <c r="N37" s="175"/>
-      <c r="O37" s="175"/>
-      <c r="P37" s="175"/>
+      <c r="N37" s="181"/>
+      <c r="O37" s="181"/>
+      <c r="P37" s="181"/>
       <c r="Q37" s="111"/>
       <c r="R37" s="16"/>
       <c r="S37" s="16"/>
@@ -23569,7 +23602,7 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="I38" s="39"/>
-      <c r="J38" s="181"/>
+      <c r="J38" s="180"/>
       <c r="K38" s="11" t="s">
         <v>202</v>
       </c>
@@ -23577,9 +23610,9 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="M38" s="39"/>
-      <c r="N38" s="175"/>
-      <c r="O38" s="175"/>
-      <c r="P38" s="175"/>
+      <c r="N38" s="181"/>
+      <c r="O38" s="181"/>
+      <c r="P38" s="181"/>
       <c r="Q38" s="111"/>
       <c r="R38" s="16"/>
       <c r="S38" s="16"/>
@@ -23627,7 +23660,7 @@
       <c r="G39" s="30"/>
       <c r="H39" s="61"/>
       <c r="I39" s="39"/>
-      <c r="J39" s="179" t="s">
+      <c r="J39" s="178" t="s">
         <v>209</v>
       </c>
       <c r="K39" s="116" t="s">
@@ -23637,9 +23670,9 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="M39" s="39"/>
-      <c r="N39" s="175"/>
-      <c r="O39" s="175"/>
-      <c r="P39" s="175"/>
+      <c r="N39" s="181"/>
+      <c r="O39" s="181"/>
+      <c r="P39" s="181"/>
       <c r="Q39" s="124"/>
       <c r="R39" s="16"/>
       <c r="S39" s="16"/>
@@ -23687,7 +23720,7 @@
       <c r="G40" s="39"/>
       <c r="H40" s="62"/>
       <c r="I40" s="39"/>
-      <c r="J40" s="180"/>
+      <c r="J40" s="179"/>
       <c r="K40" s="113" t="s">
         <v>210</v>
       </c>
@@ -23695,9 +23728,9 @@
         <v>0.3666666666666667</v>
       </c>
       <c r="M40" s="39"/>
-      <c r="N40" s="175"/>
-      <c r="O40" s="175"/>
-      <c r="P40" s="175"/>
+      <c r="N40" s="181"/>
+      <c r="O40" s="181"/>
+      <c r="P40" s="181"/>
       <c r="Q40" s="124"/>
       <c r="R40" s="16"/>
       <c r="S40" s="16"/>
@@ -23744,7 +23777,7 @@
       <c r="G41" s="30"/>
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
-      <c r="J41" s="180"/>
+      <c r="J41" s="179"/>
       <c r="K41" s="112" t="s">
         <v>179</v>
       </c>
@@ -23752,9 +23785,9 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="M41" s="39"/>
-      <c r="N41" s="175"/>
-      <c r="O41" s="175"/>
-      <c r="P41" s="175"/>
+      <c r="N41" s="181"/>
+      <c r="O41" s="181"/>
+      <c r="P41" s="181"/>
       <c r="Q41" s="124"/>
       <c r="R41" s="16"/>
       <c r="S41" s="16"/>
@@ -23802,7 +23835,7 @@
       <c r="G42" s="30"/>
       <c r="H42" s="61"/>
       <c r="I42" s="39"/>
-      <c r="J42" s="180"/>
+      <c r="J42" s="179"/>
       <c r="K42" s="114" t="s">
         <v>136</v>
       </c>
@@ -23860,7 +23893,7 @@
       <c r="G43" s="39"/>
       <c r="H43" s="62"/>
       <c r="I43" s="39"/>
-      <c r="J43" s="180"/>
+      <c r="J43" s="179"/>
       <c r="K43" s="112" t="s">
         <v>212</v>
       </c>
@@ -23918,7 +23951,7 @@
       <c r="G44" s="39"/>
       <c r="H44" s="62"/>
       <c r="I44" s="39"/>
-      <c r="J44" s="180"/>
+      <c r="J44" s="179"/>
       <c r="K44" s="113" t="s">
         <v>213</v>
       </c>
@@ -23976,7 +24009,7 @@
       <c r="G45" s="39"/>
       <c r="H45" s="62"/>
       <c r="I45" s="39"/>
-      <c r="J45" s="181"/>
+      <c r="J45" s="180"/>
       <c r="K45" s="115" t="s">
         <v>141</v>
       </c>
@@ -24034,7 +24067,7 @@
       <c r="G46" s="39"/>
       <c r="H46" s="62"/>
       <c r="I46" s="39"/>
-      <c r="J46" s="176" t="s">
+      <c r="J46" s="175" t="s">
         <v>217</v>
       </c>
       <c r="K46" s="119" t="s">
@@ -24094,7 +24127,7 @@
       <c r="G47" s="39"/>
       <c r="H47" s="62"/>
       <c r="I47" s="39"/>
-      <c r="J47" s="177"/>
+      <c r="J47" s="176"/>
       <c r="K47" s="80" t="s">
         <v>179</v>
       </c>
@@ -24152,7 +24185,7 @@
       <c r="G48" s="39"/>
       <c r="H48" s="62"/>
       <c r="I48" s="39"/>
-      <c r="J48" s="177"/>
+      <c r="J48" s="176"/>
       <c r="K48" s="101" t="s">
         <v>136</v>
       </c>
@@ -24210,7 +24243,7 @@
       <c r="G49" s="39"/>
       <c r="H49" s="62"/>
       <c r="I49" s="39"/>
-      <c r="J49" s="178"/>
+      <c r="J49" s="177"/>
       <c r="K49" s="120" t="s">
         <v>213</v>
       </c>
@@ -24268,7 +24301,7 @@
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
       <c r="I50" s="39"/>
-      <c r="J50" s="176" t="s">
+      <c r="J50" s="175" t="s">
         <v>232</v>
       </c>
       <c r="K50" s="121" t="s">
@@ -24328,7 +24361,7 @@
       <c r="G51" s="39"/>
       <c r="H51" s="39"/>
       <c r="I51" s="39"/>
-      <c r="J51" s="177"/>
+      <c r="J51" s="176"/>
       <c r="K51" s="122" t="s">
         <v>179</v>
       </c>
@@ -24386,7 +24419,7 @@
       <c r="G52" s="39"/>
       <c r="H52" s="39"/>
       <c r="I52" s="39"/>
-      <c r="J52" s="177"/>
+      <c r="J52" s="176"/>
       <c r="K52" s="114" t="s">
         <v>235</v>
       </c>
@@ -24444,7 +24477,7 @@
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
       <c r="I53" s="39"/>
-      <c r="J53" s="178"/>
+      <c r="J53" s="177"/>
       <c r="K53" s="115" t="s">
         <v>211</v>
       </c>
@@ -24502,7 +24535,7 @@
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
       <c r="I54" s="39"/>
-      <c r="J54" s="176" t="s">
+      <c r="J54" s="175" t="s">
         <v>243</v>
       </c>
       <c r="K54" s="121" t="s">
@@ -24562,7 +24595,7 @@
       <c r="G55" s="39"/>
       <c r="H55" s="39"/>
       <c r="I55" s="39"/>
-      <c r="J55" s="177"/>
+      <c r="J55" s="176"/>
       <c r="K55" s="122" t="s">
         <v>242</v>
       </c>
@@ -24620,7 +24653,7 @@
       <c r="G56" s="39"/>
       <c r="H56" s="39"/>
       <c r="I56" s="39"/>
-      <c r="J56" s="177"/>
+      <c r="J56" s="176"/>
       <c r="K56" s="114" t="s">
         <v>29</v>
       </c>
@@ -24678,7 +24711,7 @@
       <c r="G57" s="39"/>
       <c r="H57" s="39"/>
       <c r="I57" s="39"/>
-      <c r="J57" s="178"/>
+      <c r="J57" s="177"/>
       <c r="K57" s="115" t="s">
         <v>199</v>
       </c>
@@ -24736,7 +24769,7 @@
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
       <c r="I58" s="39"/>
-      <c r="J58" s="176" t="s">
+      <c r="J58" s="175" t="s">
         <v>246</v>
       </c>
       <c r="K58" s="121" t="s">
@@ -24796,7 +24829,7 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
       <c r="I59" s="39"/>
-      <c r="J59" s="177"/>
+      <c r="J59" s="176"/>
       <c r="K59" s="122" t="s">
         <v>235</v>
       </c>
@@ -24854,7 +24887,7 @@
       <c r="G60" s="39"/>
       <c r="H60" s="39"/>
       <c r="I60" s="39"/>
-      <c r="J60" s="177"/>
+      <c r="J60" s="176"/>
       <c r="K60" s="114" t="s">
         <v>242</v>
       </c>
@@ -24912,7 +24945,7 @@
       <c r="G61" s="39"/>
       <c r="H61" s="39"/>
       <c r="I61" s="39"/>
-      <c r="J61" s="177"/>
+      <c r="J61" s="176"/>
       <c r="K61" s="122" t="s">
         <v>245</v>
       </c>
@@ -24970,7 +25003,7 @@
       <c r="G62" s="39"/>
       <c r="H62" s="39"/>
       <c r="I62" s="39"/>
-      <c r="J62" s="177"/>
+      <c r="J62" s="176"/>
       <c r="K62" s="114" t="s">
         <v>29</v>
       </c>
@@ -25028,7 +25061,7 @@
       <c r="G63" s="39"/>
       <c r="H63" s="39"/>
       <c r="I63" s="39"/>
-      <c r="J63" s="178"/>
+      <c r="J63" s="177"/>
       <c r="K63" s="115" t="s">
         <v>199</v>
       </c>
@@ -30777,6 +30810,12 @@
     <sortCondition ref="K33"/>
   </sortState>
   <mergeCells count="18">
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="N39:P39"/>
     <mergeCell ref="J58:J63"/>
     <mergeCell ref="J54:J57"/>
     <mergeCell ref="J50:J53"/>
@@ -30789,12 +30828,6 @@
     <mergeCell ref="J32:J38"/>
     <mergeCell ref="J27:J31"/>
     <mergeCell ref="J14:J19"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="N39:P39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -30886,15 +30919,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="183" t="s">
+      <c r="J2" s="182" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="185"/>
+      <c r="K2" s="184"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="185" t="s">
+      <c r="M2" s="184" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="184"/>
+      <c r="N2" s="183"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -31194,15 +31227,15 @@
         <v>0.20416666666666669</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="183" t="s">
+      <c r="J9" s="182" t="s">
         <v>286</v>
       </c>
-      <c r="K9" s="185"/>
+      <c r="K9" s="184"/>
       <c r="L9" s="136"/>
-      <c r="M9" s="185" t="s">
+      <c r="M9" s="184" t="s">
         <v>287</v>
       </c>
-      <c r="N9" s="184"/>
+      <c r="N9" s="183"/>
       <c r="O9" s="39"/>
       <c r="P9" s="39"/>
       <c r="Q9" s="39"/>
@@ -31409,15 +31442,15 @@
         <v>0.15208333333333332</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="183" t="s">
+      <c r="J14" s="182" t="s">
         <v>288</v>
       </c>
-      <c r="K14" s="184"/>
+      <c r="K14" s="183"/>
       <c r="L14" s="136"/>
-      <c r="M14" s="183" t="s">
+      <c r="M14" s="182" t="s">
         <v>289</v>
       </c>
-      <c r="N14" s="184"/>
+      <c r="N14" s="183"/>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
@@ -31721,15 +31754,15 @@
         <v>0.35138888888888892</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="183" t="s">
+      <c r="J21" s="182" t="s">
         <v>290</v>
       </c>
-      <c r="K21" s="184"/>
+      <c r="K21" s="183"/>
       <c r="L21" s="136"/>
-      <c r="M21" s="183" t="s">
+      <c r="M21" s="182" t="s">
         <v>291</v>
       </c>
-      <c r="N21" s="184"/>
+      <c r="N21" s="183"/>
       <c r="O21" s="39"/>
       <c r="P21" s="89" t="s">
         <v>31</v>
@@ -32111,15 +32144,15 @@
         <v>0.11805555555555557</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="183" t="s">
+      <c r="J28" s="182" t="s">
         <v>292</v>
       </c>
-      <c r="K28" s="184"/>
+      <c r="K28" s="183"/>
       <c r="L28" s="136"/>
-      <c r="M28" s="183" t="s">
+      <c r="M28" s="182" t="s">
         <v>293</v>
       </c>
-      <c r="N28" s="184"/>
+      <c r="N28" s="183"/>
       <c r="O28" s="39"/>
       <c r="P28" s="93" t="s">
         <v>38</v>
@@ -32466,15 +32499,15 @@
       <c r="G35" s="30"/>
       <c r="H35" s="61"/>
       <c r="I35" s="39"/>
-      <c r="J35" s="183" t="s">
+      <c r="J35" s="182" t="s">
         <v>294</v>
       </c>
-      <c r="K35" s="184"/>
+      <c r="K35" s="183"/>
       <c r="L35" s="136"/>
-      <c r="M35" s="183" t="s">
+      <c r="M35" s="182" t="s">
         <v>295</v>
       </c>
-      <c r="N35" s="184"/>
+      <c r="N35" s="183"/>
       <c r="O35" s="39"/>
       <c r="P35" s="39"/>
       <c r="Q35" s="39"/>
@@ -32509,9 +32542,9 @@
         <v>4.9305555555555554E-2</v>
       </c>
       <c r="O36" s="39"/>
-      <c r="P36" s="175"/>
-      <c r="Q36" s="175"/>
-      <c r="R36" s="175"/>
+      <c r="P36" s="181"/>
+      <c r="Q36" s="181"/>
+      <c r="R36" s="181"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -32542,9 +32575,9 @@
         <v>0.18472222222222223</v>
       </c>
       <c r="O37" s="39"/>
-      <c r="P37" s="182"/>
-      <c r="Q37" s="182"/>
-      <c r="R37" s="182"/>
+      <c r="P37" s="185"/>
+      <c r="Q37" s="185"/>
+      <c r="R37" s="185"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -32575,9 +32608,9 @@
         <v>0.21249999999999999</v>
       </c>
       <c r="O38" s="39"/>
-      <c r="P38" s="175"/>
-      <c r="Q38" s="175"/>
-      <c r="R38" s="175"/>
+      <c r="P38" s="181"/>
+      <c r="Q38" s="181"/>
+      <c r="R38" s="181"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -32608,9 +32641,9 @@
         <v>0.26527777777777778</v>
       </c>
       <c r="O39" s="39"/>
-      <c r="P39" s="175"/>
-      <c r="Q39" s="175"/>
-      <c r="R39" s="175"/>
+      <c r="P39" s="181"/>
+      <c r="Q39" s="181"/>
+      <c r="R39" s="181"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -32641,9 +32674,9 @@
         <v>0.75347222222222221</v>
       </c>
       <c r="O40" s="39"/>
-      <c r="P40" s="175"/>
-      <c r="Q40" s="175"/>
-      <c r="R40" s="175"/>
+      <c r="P40" s="181"/>
+      <c r="Q40" s="181"/>
+      <c r="R40" s="181"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -32669,9 +32702,9 @@
         <v>1.0513888888888889</v>
       </c>
       <c r="O41" s="39"/>
-      <c r="P41" s="175"/>
-      <c r="Q41" s="175"/>
-      <c r="R41" s="175"/>
+      <c r="P41" s="181"/>
+      <c r="Q41" s="181"/>
+      <c r="R41" s="181"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -35636,6 +35669,12 @@
     <sortCondition ref="J9"/>
   </sortState>
   <mergeCells count="18">
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
     <mergeCell ref="M35:N35"/>
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="M21:N21"/>
@@ -35648,12 +35687,6 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="J35:K35"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J116" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -35746,15 +35779,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="183" t="s">
+      <c r="J2" s="182" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="185"/>
+      <c r="K2" s="184"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="185" t="s">
+      <c r="M2" s="184" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="184"/>
+      <c r="N2" s="183"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -36084,15 +36117,15 @@
         <v>1.1847222222222222</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="183" t="s">
+      <c r="J10" s="182" t="s">
         <v>286</v>
       </c>
-      <c r="K10" s="184"/>
+      <c r="K10" s="183"/>
       <c r="L10" s="136"/>
-      <c r="M10" s="183" t="s">
+      <c r="M10" s="182" t="s">
         <v>287</v>
       </c>
-      <c r="N10" s="184"/>
+      <c r="N10" s="183"/>
       <c r="O10" s="39"/>
       <c r="P10" s="39"/>
       <c r="Q10" s="39"/>
@@ -36389,15 +36422,15 @@
         <v>6.063194444444445</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="183" t="s">
+      <c r="J17" s="182" t="s">
         <v>288</v>
       </c>
-      <c r="K17" s="184"/>
+      <c r="K17" s="183"/>
       <c r="L17" s="136"/>
-      <c r="M17" s="183" t="s">
+      <c r="M17" s="182" t="s">
         <v>289</v>
       </c>
-      <c r="N17" s="184"/>
+      <c r="N17" s="183"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
@@ -36619,15 +36652,15 @@
         <v>0.50555555555555554</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="183" t="s">
+      <c r="J22" s="182" t="s">
         <v>290</v>
       </c>
-      <c r="K22" s="184"/>
+      <c r="K22" s="183"/>
       <c r="L22" s="136"/>
-      <c r="M22" s="183" t="s">
+      <c r="M22" s="182" t="s">
         <v>291</v>
       </c>
-      <c r="N22" s="184"/>
+      <c r="N22" s="183"/>
       <c r="O22" s="39"/>
       <c r="P22" s="63" t="s">
         <v>32</v>
@@ -36978,15 +37011,15 @@
         <v>2.6388888888888889E-2</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="183" t="s">
+      <c r="J28" s="182" t="s">
         <v>292</v>
       </c>
-      <c r="K28" s="184"/>
+      <c r="K28" s="183"/>
       <c r="L28" s="136"/>
-      <c r="M28" s="183" t="s">
+      <c r="M28" s="182" t="s">
         <v>293</v>
       </c>
-      <c r="N28" s="184"/>
+      <c r="N28" s="183"/>
       <c r="O28" s="39"/>
       <c r="P28" s="93" t="s">
         <v>38</v>
@@ -37352,15 +37385,15 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="I34" s="39"/>
-      <c r="J34" s="183" t="s">
+      <c r="J34" s="182" t="s">
         <v>294</v>
       </c>
-      <c r="K34" s="184"/>
+      <c r="K34" s="183"/>
       <c r="L34" s="136"/>
-      <c r="M34" s="183" t="s">
+      <c r="M34" s="182" t="s">
         <v>295</v>
       </c>
-      <c r="N34" s="184"/>
+      <c r="N34" s="183"/>
       <c r="O34" s="39"/>
       <c r="P34" s="125" t="s">
         <v>77</v>
@@ -37467,9 +37500,9 @@
         <v>0.36944444444444446</v>
       </c>
       <c r="O36" s="39"/>
-      <c r="P36" s="175"/>
-      <c r="Q36" s="175"/>
-      <c r="R36" s="175"/>
+      <c r="P36" s="181"/>
+      <c r="Q36" s="181"/>
+      <c r="R36" s="181"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -37514,9 +37547,9 @@
         <v>7.9166666666666663E-2</v>
       </c>
       <c r="O37" s="39"/>
-      <c r="P37" s="182"/>
-      <c r="Q37" s="175"/>
-      <c r="R37" s="175"/>
+      <c r="P37" s="185"/>
+      <c r="Q37" s="181"/>
+      <c r="R37" s="181"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -37548,9 +37581,9 @@
       </c>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="175"/>
-      <c r="Q38" s="175"/>
-      <c r="R38" s="175"/>
+      <c r="P38" s="181"/>
+      <c r="Q38" s="181"/>
+      <c r="R38" s="181"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -37568,9 +37601,9 @@
       <c r="H39" s="138"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="175"/>
-      <c r="Q39" s="175"/>
-      <c r="R39" s="175"/>
+      <c r="P39" s="181"/>
+      <c r="Q39" s="181"/>
+      <c r="R39" s="181"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -37588,9 +37621,9 @@
       <c r="H40" s="61"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="175"/>
-      <c r="Q40" s="175"/>
-      <c r="R40" s="175"/>
+      <c r="P40" s="181"/>
+      <c r="Q40" s="181"/>
+      <c r="R40" s="181"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -37608,9 +37641,9 @@
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="175"/>
-      <c r="Q41" s="175"/>
-      <c r="R41" s="175"/>
+      <c r="P41" s="181"/>
+      <c r="Q41" s="181"/>
+      <c r="R41" s="181"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -40562,24 +40595,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M17:N17"/>
     <mergeCell ref="P41:R41"/>
     <mergeCell ref="P36:R36"/>
     <mergeCell ref="P37:R37"/>
     <mergeCell ref="P38:R38"/>
     <mergeCell ref="P39:R39"/>
     <mergeCell ref="P40:R40"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="J22:K22"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
@@ -40600,8 +40633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{945572C7-9529-4441-AC5C-E60B6D0FDFB2}">
   <dimension ref="A1:Z153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -40677,15 +40710,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="183" t="s">
+      <c r="J2" s="182" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="184"/>
+      <c r="K2" s="183"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="183" t="s">
+      <c r="M2" s="182" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="184"/>
+      <c r="N2" s="183"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -40891,15 +40924,15 @@
         <v>0.33749999999999997</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="183" t="s">
+      <c r="J7" s="182" t="s">
         <v>286</v>
       </c>
-      <c r="K7" s="184"/>
+      <c r="K7" s="183"/>
       <c r="L7" s="136"/>
-      <c r="M7" s="183" t="s">
+      <c r="M7" s="182" t="s">
         <v>287</v>
       </c>
-      <c r="N7" s="184"/>
+      <c r="N7" s="183"/>
       <c r="O7" s="39"/>
       <c r="P7" s="39"/>
       <c r="Q7" s="39"/>
@@ -41106,15 +41139,15 @@
         <v>0.48819444444444443</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="183" t="s">
+      <c r="J12" s="182" t="s">
         <v>288</v>
       </c>
-      <c r="K12" s="184"/>
+      <c r="K12" s="183"/>
       <c r="L12" s="136"/>
-      <c r="M12" s="183" t="s">
+      <c r="M12" s="182" t="s">
         <v>289</v>
       </c>
-      <c r="N12" s="184"/>
+      <c r="N12" s="183"/>
       <c r="O12" s="39"/>
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
@@ -41358,21 +41391,21 @@
         <v>192</v>
       </c>
       <c r="G18" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="60" t="s">
-        <v>13</v>
+        <v>526</v>
+      </c>
+      <c r="H18" s="60">
+        <v>2.6659722222222224</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="183" t="s">
+      <c r="J18" s="182" t="s">
         <v>290</v>
       </c>
-      <c r="K18" s="184"/>
+      <c r="K18" s="183"/>
       <c r="L18" s="136"/>
-      <c r="M18" s="183" t="s">
+      <c r="M18" s="182" t="s">
         <v>291</v>
       </c>
-      <c r="N18" s="184"/>
+      <c r="N18" s="183"/>
       <c r="O18" s="39"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="39"/>
@@ -41388,12 +41421,24 @@
       <c r="B19" s="70">
         <v>17</v>
       </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="75"/>
+      <c r="C19" s="73" t="s">
+        <v>524</v>
+      </c>
+      <c r="D19" s="73">
+        <v>2002</v>
+      </c>
+      <c r="E19" s="152" t="s">
+        <v>525</v>
+      </c>
+      <c r="F19" s="74" t="s">
+        <v>428</v>
+      </c>
+      <c r="G19" s="74" t="s">
+        <v>530</v>
+      </c>
+      <c r="H19" s="75">
+        <v>0.68055555555555558</v>
+      </c>
       <c r="I19" s="6"/>
       <c r="J19" s="122" t="s">
         <v>377</v>
@@ -41402,8 +41447,12 @@
         <v>0.23194444444444445</v>
       </c>
       <c r="L19" s="137"/>
-      <c r="M19" s="131"/>
-      <c r="N19" s="72"/>
+      <c r="M19" s="131" t="s">
+        <v>528</v>
+      </c>
+      <c r="N19" s="72">
+        <v>0.21666666666666667</v>
+      </c>
       <c r="O19" s="39"/>
       <c r="P19" s="39"/>
       <c r="Q19" s="39"/>
@@ -41419,12 +41468,24 @@
       <c r="B20" s="78">
         <v>18</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="153"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="60"/>
+      <c r="C20" s="54" t="s">
+        <v>527</v>
+      </c>
+      <c r="D20" s="54">
+        <v>2024</v>
+      </c>
+      <c r="E20" s="153" t="s">
+        <v>440</v>
+      </c>
+      <c r="F20" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="69" t="s">
+        <v>529</v>
+      </c>
+      <c r="H20" s="60">
+        <v>0.83194444444444449</v>
+      </c>
       <c r="I20" s="6"/>
       <c r="J20" s="113" t="s">
         <v>465</v>
@@ -41433,8 +41494,12 @@
         <v>4.791666666666667E-2</v>
       </c>
       <c r="L20" s="137"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="60"/>
+      <c r="M20" s="101" t="s">
+        <v>377</v>
+      </c>
+      <c r="N20" s="60">
+        <v>0.11944444444444445</v>
+      </c>
       <c r="O20" s="39"/>
       <c r="P20" s="39"/>
       <c r="Q20" s="39"/>
@@ -41450,18 +41515,34 @@
       <c r="B21" s="70">
         <v>19</v>
       </c>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="152"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="75"/>
+      <c r="C21" s="73" t="s">
+        <v>531</v>
+      </c>
+      <c r="D21" s="73">
+        <v>2016</v>
+      </c>
+      <c r="E21" s="152" t="s">
+        <v>442</v>
+      </c>
+      <c r="F21" s="74" t="s">
+        <v>530</v>
+      </c>
+      <c r="G21" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="75" t="s">
+        <v>13</v>
+      </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="135"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="137"/>
-      <c r="M21" s="135"/>
-      <c r="N21" s="77"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="138"/>
+      <c r="L21" s="163"/>
+      <c r="M21" s="135" t="s">
+        <v>465</v>
+      </c>
+      <c r="N21" s="77">
+        <v>2.7777777777777776E-2</v>
+      </c>
       <c r="O21" s="39"/>
       <c r="P21" s="89" t="s">
         <v>31</v>
@@ -41538,15 +41619,15 @@
       <c r="G23" s="74"/>
       <c r="H23" s="75"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="183" t="s">
+      <c r="J23" s="182" t="s">
         <v>292</v>
       </c>
-      <c r="K23" s="184"/>
+      <c r="K23" s="183"/>
       <c r="L23" s="136"/>
-      <c r="M23" s="183" t="s">
+      <c r="M23" s="182" t="s">
         <v>293</v>
       </c>
-      <c r="N23" s="184"/>
+      <c r="N23" s="183"/>
       <c r="O23" s="39"/>
       <c r="P23" s="94" t="s">
         <v>33</v>
@@ -41764,15 +41845,15 @@
       <c r="G28" s="69"/>
       <c r="H28" s="60"/>
       <c r="I28" s="39"/>
-      <c r="J28" s="183" t="s">
+      <c r="J28" s="182" t="s">
         <v>294</v>
       </c>
-      <c r="K28" s="184"/>
+      <c r="K28" s="183"/>
       <c r="L28" s="136"/>
-      <c r="M28" s="183" t="s">
+      <c r="M28" s="182" t="s">
         <v>295</v>
       </c>
-      <c r="N28" s="184"/>
+      <c r="N28" s="183"/>
       <c r="O28" s="39"/>
       <c r="P28" s="93" t="s">
         <v>38</v>
@@ -41824,17 +41905,29 @@
       <c r="P29" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="64"/>
+      <c r="Q29" s="64">
+        <f>SUM(H19:H20,W29:X29)</f>
+        <v>2.6993055555555561</v>
+      </c>
+      <c r="R29" s="64">
+        <f>SUM(N19:N21)</f>
+        <v>0.36388888888888893</v>
+      </c>
       <c r="S29" s="90">
         <f>Q29+R29</f>
-        <v>0</v>
+        <v>3.063194444444445</v>
       </c>
       <c r="T29" s="39"/>
-      <c r="U29" s="105"/>
+      <c r="U29" s="98" t="s">
+        <v>532</v>
+      </c>
       <c r="V29" s="146"/>
-      <c r="W29" s="111"/>
-      <c r="X29" s="147"/>
+      <c r="W29" s="111">
+        <v>1.0729166666666667</v>
+      </c>
+      <c r="X29" s="147">
+        <v>0.11388888888888889</v>
+      </c>
       <c r="Y29" s="146"/>
       <c r="Z29" s="39"/>
     </row>
@@ -41984,15 +42077,15 @@
       </c>
       <c r="Q34" s="126">
         <f t="shared" ref="Q34" si="1">SUM(Q22:Q33)</f>
-        <v>10.157638888888888</v>
+        <v>12.856944444444444</v>
       </c>
       <c r="R34" s="126">
         <f>SUM(R22:R33)</f>
-        <v>3.9201388888888893</v>
+        <v>4.2840277777777782</v>
       </c>
       <c r="S34" s="127">
         <f>SUM(S22:S33)</f>
-        <v>14.077777777777779</v>
+        <v>17.140972222222224</v>
       </c>
       <c r="T34" s="39"/>
       <c r="U34" s="39"/>
@@ -42030,9 +42123,9 @@
       <c r="H36" s="61"/>
       <c r="I36" s="39"/>
       <c r="O36" s="39"/>
-      <c r="P36" s="175"/>
-      <c r="Q36" s="175"/>
-      <c r="R36" s="175"/>
+      <c r="P36" s="181"/>
+      <c r="Q36" s="181"/>
+      <c r="R36" s="181"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -42050,9 +42143,9 @@
       <c r="H37" s="61"/>
       <c r="I37" s="39"/>
       <c r="O37" s="39"/>
-      <c r="P37" s="182"/>
-      <c r="Q37" s="175"/>
-      <c r="R37" s="175"/>
+      <c r="P37" s="185"/>
+      <c r="Q37" s="181"/>
+      <c r="R37" s="181"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -42070,9 +42163,9 @@
       <c r="H38" s="61"/>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="175"/>
-      <c r="Q38" s="175"/>
-      <c r="R38" s="175"/>
+      <c r="P38" s="181"/>
+      <c r="Q38" s="181"/>
+      <c r="R38" s="181"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -42090,9 +42183,9 @@
       <c r="H39" s="61"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="175"/>
-      <c r="Q39" s="175"/>
-      <c r="R39" s="175"/>
+      <c r="P39" s="181"/>
+      <c r="Q39" s="181"/>
+      <c r="R39" s="181"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -42110,9 +42203,9 @@
       <c r="H40" s="62"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="175"/>
-      <c r="Q40" s="175"/>
-      <c r="R40" s="175"/>
+      <c r="P40" s="181"/>
+      <c r="Q40" s="181"/>
+      <c r="R40" s="181"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -42130,9 +42223,9 @@
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="175"/>
-      <c r="Q41" s="175"/>
-      <c r="R41" s="175"/>
+      <c r="P41" s="181"/>
+      <c r="Q41" s="181"/>
+      <c r="R41" s="181"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -44279,7 +44372,7 @@
       </c>
       <c r="R126" s="46">
         <f>COUNTIF(D3:D59,Q126)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S126" s="39"/>
       <c r="T126" s="39"/>
@@ -44699,7 +44792,7 @@
       </c>
       <c r="R140" s="46">
         <f>COUNTIF(D3:D59,Q140)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S140" s="39"/>
       <c r="T140" s="39"/>
@@ -44999,7 +45092,7 @@
       </c>
       <c r="R150" s="42">
         <f>SUM(R119:R149)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S150" s="39"/>
       <c r="T150" s="39"/>
@@ -45084,11 +45177,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="P38:R38"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="J2:K2"/>
@@ -45102,6 +45190,11 @@
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="M23:N23"/>
     <mergeCell ref="M28:N28"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="P38:R38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J116" r:id="rId1" xr:uid="{24F98E59-04E2-4995-A47A-0D179F9D60FA}"/>
@@ -45110,7 +45203,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <ignoredErrors>
-    <ignoredError sqref="Q22 Q25 Q28" formulaRange="1"/>
+    <ignoredError sqref="Q22 Q25 Q28:Q29" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId4"/>
 </worksheet>

--- a/spreadsheets/Games.xlsx
+++ b/spreadsheets/Games.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ucer0.github.io\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8914E9E-FA9B-4598-B281-039E4D53E884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01D09D1-92A4-481C-ABE9-6EF271C69D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="543">
   <si>
     <t>Nier: Automata</t>
   </si>
@@ -2197,6 +2197,36 @@
   </si>
   <si>
     <t>Unicorn Overlord (25h 45m), Last Guardian (2h 44m)</t>
+  </si>
+  <si>
+    <t>Astro Bot</t>
+  </si>
+  <si>
+    <t>2-sep.</t>
+  </si>
+  <si>
+    <t>8-sep.</t>
+  </si>
+  <si>
+    <t>14h 28m</t>
+  </si>
+  <si>
+    <t>9-sep.</t>
+  </si>
+  <si>
+    <t>21-sep.</t>
+  </si>
+  <si>
+    <t>UFO 50</t>
+  </si>
+  <si>
+    <t>The Legend of Heroes: Trails in the Sky FC</t>
+  </si>
+  <si>
+    <t>The Legend of Heroes: Trails in the Sky SC</t>
+  </si>
+  <si>
+    <t>Last Guardian (7h 24m), Trails SC (17h 19m), UFO 50 (6h 03m)</t>
   </si>
 </sst>
 </file>
@@ -4189,6 +4219,9 @@
                 <c:pt idx="7">
                   <c:v>2.6993055555555561</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0951388888888887</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4298,6 +4331,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.36388888888888893</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.35138888888888886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8252,13 +8288,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -35703,7 +35739,7 @@
   <dimension ref="A1:Z153"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F6" sqref="F6:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -40634,13 +40670,13 @@
   <dimension ref="A1:Z153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="3.140625" style="130" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" style="130" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" style="130" customWidth="1"/>
     <col min="4" max="4" width="7.140625" style="130" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" style="156" customWidth="1"/>
     <col min="6" max="7" width="12.85546875" style="130" customWidth="1"/>
@@ -40658,7 +40694,8 @@
     <col min="21" max="21" width="42.85546875" style="130" customWidth="1"/>
     <col min="22" max="22" width="3.140625" style="130" customWidth="1"/>
     <col min="23" max="24" width="11.42578125" style="149"/>
-    <col min="25" max="16384" width="11.42578125" style="130"/>
+    <col min="25" max="26" width="11.42578125" style="111"/>
+    <col min="27" max="16384" width="11.42578125" style="130"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41339,7 +41376,7 @@
       <c r="V16" s="6"/>
       <c r="W16" s="111"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="39"/>
       <c r="B17" s="70">
         <v>15</v>
@@ -41373,7 +41410,7 @@
       <c r="V17" s="6"/>
       <c r="W17" s="111"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="39"/>
       <c r="B18" s="78">
         <v>16</v>
@@ -41416,7 +41453,7 @@
       <c r="V18" s="6"/>
       <c r="W18" s="111"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="39"/>
       <c r="B19" s="70">
         <v>17</v>
@@ -41463,7 +41500,7 @@
       <c r="V19" s="6"/>
       <c r="W19" s="111"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="39"/>
       <c r="B20" s="78">
         <v>18</v>
@@ -41510,7 +41547,7 @@
       <c r="V20" s="6"/>
       <c r="W20" s="111"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="39"/>
       <c r="B21" s="70">
         <v>19</v>
@@ -41528,10 +41565,10 @@
         <v>530</v>
       </c>
       <c r="G21" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="75" t="s">
-        <v>13</v>
+        <v>534</v>
+      </c>
+      <c r="H21" s="75">
+        <v>0.42222222222222222</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="52"/>
@@ -41563,19 +41600,31 @@
       <c r="V21" s="146"/>
       <c r="W21" s="147"/>
       <c r="X21" s="150"/>
-      <c r="Y21" s="148"/>
-    </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y21" s="147"/>
+    </row>
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="39"/>
       <c r="B22" s="78">
         <v>20</v>
       </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="60"/>
+      <c r="C22" s="54" t="s">
+        <v>533</v>
+      </c>
+      <c r="D22" s="54">
+        <v>2024</v>
+      </c>
+      <c r="E22" s="153" t="s">
+        <v>442</v>
+      </c>
+      <c r="F22" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="G22" s="69" t="s">
+        <v>535</v>
+      </c>
+      <c r="H22" s="60" t="s">
+        <v>536</v>
+      </c>
       <c r="I22" s="6"/>
       <c r="O22" s="39"/>
       <c r="P22" s="63" t="s">
@@ -41604,20 +41653,31 @@
       <c r="X22" s="147">
         <v>0.43055555555555558</v>
       </c>
-      <c r="Y22" s="146"/>
-      <c r="Z22" s="39"/>
-    </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y22" s="147"/>
+    </row>
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="39"/>
       <c r="B23" s="70">
         <v>21</v>
       </c>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="75"/>
+      <c r="C23" s="73" t="s">
+        <v>540</v>
+      </c>
+      <c r="D23" s="73">
+        <v>2004</v>
+      </c>
+      <c r="E23" s="152" t="s">
+        <v>440</v>
+      </c>
+      <c r="F23" s="74" t="s">
+        <v>537</v>
+      </c>
+      <c r="G23" s="74" t="s">
+        <v>538</v>
+      </c>
+      <c r="H23" s="75">
+        <v>1.8131944444444446</v>
+      </c>
       <c r="I23" s="6"/>
       <c r="J23" s="182" t="s">
         <v>292</v>
@@ -41655,23 +41715,38 @@
       <c r="X23" s="147">
         <v>1.1652777777777776</v>
       </c>
-      <c r="Y23" s="146"/>
-      <c r="Z23" s="39"/>
-    </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y23" s="147"/>
+    </row>
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="39"/>
       <c r="B24" s="78">
         <v>22</v>
       </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="60"/>
+      <c r="C24" s="54" t="s">
+        <v>539</v>
+      </c>
+      <c r="D24" s="54">
+        <v>2024</v>
+      </c>
+      <c r="E24" s="153" t="s">
+        <v>440</v>
+      </c>
+      <c r="F24" s="69" t="s">
+        <v>538</v>
+      </c>
+      <c r="G24" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="60" t="s">
+        <v>13</v>
+      </c>
       <c r="I24" s="39"/>
-      <c r="J24" s="122"/>
-      <c r="K24" s="132"/>
+      <c r="J24" s="122" t="s">
+        <v>528</v>
+      </c>
+      <c r="K24" s="132">
+        <v>0.11180555555555556</v>
+      </c>
       <c r="L24" s="137"/>
       <c r="M24" s="131"/>
       <c r="N24" s="72"/>
@@ -41700,23 +41775,38 @@
         <v>0.72430555555555554</v>
       </c>
       <c r="X24" s="147"/>
-      <c r="Y24" s="146"/>
-      <c r="Z24" s="39"/>
-    </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y24" s="147"/>
+    </row>
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="39"/>
       <c r="B25" s="70">
         <v>23</v>
       </c>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="152"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="75"/>
+      <c r="C25" s="73" t="s">
+        <v>541</v>
+      </c>
+      <c r="D25" s="73">
+        <v>2006</v>
+      </c>
+      <c r="E25" s="152" t="s">
+        <v>440</v>
+      </c>
+      <c r="F25" s="74" t="s">
+        <v>228</v>
+      </c>
+      <c r="G25" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="75" t="s">
+        <v>13</v>
+      </c>
       <c r="I25" s="39"/>
-      <c r="J25" s="113"/>
-      <c r="K25" s="133"/>
+      <c r="J25" s="113" t="s">
+        <v>377</v>
+      </c>
+      <c r="K25" s="133">
+        <v>7.5694444444444439E-2</v>
+      </c>
       <c r="L25" s="137"/>
       <c r="M25" s="101"/>
       <c r="N25" s="60"/>
@@ -41745,10 +41835,9 @@
         <v>0.15416666666666667</v>
       </c>
       <c r="X25" s="147"/>
-      <c r="Y25" s="146"/>
-      <c r="Z25" s="39"/>
-    </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y25" s="147"/>
+    </row>
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39"/>
       <c r="B26" s="78">
         <v>24</v>
@@ -41760,8 +41849,12 @@
       <c r="G26" s="69"/>
       <c r="H26" s="60"/>
       <c r="I26" s="39"/>
-      <c r="J26" s="135"/>
-      <c r="K26" s="77"/>
+      <c r="J26" s="112" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" s="75">
+        <v>0.16388888888888889</v>
+      </c>
       <c r="L26" s="137"/>
       <c r="M26" s="135"/>
       <c r="N26" s="77"/>
@@ -41790,10 +41883,9 @@
         <v>0.30069444444444443</v>
       </c>
       <c r="X26" s="147"/>
-      <c r="Y26" s="146"/>
-      <c r="Z26" s="39"/>
-    </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y26" s="147"/>
+    </row>
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39"/>
       <c r="B27" s="70">
         <v>25</v>
@@ -41805,6 +41897,8 @@
       <c r="G27" s="74"/>
       <c r="H27" s="75"/>
       <c r="I27" s="39"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="138"/>
       <c r="O27" s="39"/>
       <c r="P27" s="94" t="s">
         <v>37</v>
@@ -41830,10 +41924,9 @@
         <v>0.23749999999999999</v>
       </c>
       <c r="X27" s="111"/>
-      <c r="Y27" s="146"/>
-      <c r="Z27" s="39"/>
-    </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y27" s="147"/>
+    </row>
+    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
       <c r="B28" s="78">
         <v>26</v>
@@ -41881,10 +41974,9 @@
       <c r="X28" s="147">
         <v>1.5930555555555554</v>
       </c>
-      <c r="Y28" s="146"/>
-      <c r="Z28" s="39"/>
-    </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y28" s="147"/>
+    </row>
+    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39"/>
       <c r="B29" s="70">
         <v>27</v>
@@ -41928,10 +42020,9 @@
       <c r="X29" s="147">
         <v>0.11388888888888889</v>
       </c>
-      <c r="Y29" s="146"/>
-      <c r="Z29" s="39"/>
-    </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y29" s="147"/>
+    </row>
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="39"/>
       <c r="B30" s="78">
         <v>28</v>
@@ -41952,21 +42043,34 @@
       <c r="P30" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="Q30" s="81"/>
-      <c r="R30" s="81"/>
+      <c r="Q30" s="81">
+        <f>SUM(H22:H23,W30:Y30)</f>
+        <v>3.0951388888888887</v>
+      </c>
+      <c r="R30" s="81">
+        <f>SUM(K24:K26)</f>
+        <v>0.35138888888888886</v>
+      </c>
       <c r="S30" s="97">
         <f>Q30+R30</f>
-        <v>0</v>
+        <v>3.4465277777777774</v>
       </c>
       <c r="T30" s="39"/>
-      <c r="U30" s="99"/>
+      <c r="U30" s="99" t="s">
+        <v>542</v>
+      </c>
       <c r="V30" s="146"/>
-      <c r="W30" s="147"/>
-      <c r="X30" s="147"/>
-      <c r="Y30" s="146"/>
-      <c r="Z30" s="39"/>
-    </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W30" s="147">
+        <v>0.30833333333333335</v>
+      </c>
+      <c r="X30" s="147">
+        <v>0.72152777777777777</v>
+      </c>
+      <c r="Y30" s="147">
+        <v>0.25208333333333333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="39"/>
       <c r="B31" s="70">
         <v>29</v>
@@ -41998,10 +42102,9 @@
       <c r="V31" s="146"/>
       <c r="W31" s="147"/>
       <c r="X31" s="147"/>
-      <c r="Y31" s="146"/>
-      <c r="Z31" s="39"/>
-    </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y31" s="147"/>
+    </row>
+    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="39"/>
       <c r="B32" s="78">
         <v>30</v>
@@ -42028,10 +42131,9 @@
       <c r="V32" s="146"/>
       <c r="W32" s="147"/>
       <c r="X32" s="147"/>
-      <c r="Y32" s="146"/>
-      <c r="Z32" s="39"/>
-    </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y32" s="147"/>
+    </row>
+    <row r="33" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
       <c r="B33" s="51"/>
       <c r="C33" s="52"/>
@@ -42058,10 +42160,8 @@
       <c r="V33" s="39"/>
       <c r="W33" s="147"/>
       <c r="X33" s="111"/>
-      <c r="Y33" s="39"/>
-      <c r="Z33" s="39"/>
-    </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="7"/>
       <c r="C34" s="6"/>
@@ -42077,22 +42177,22 @@
       </c>
       <c r="Q34" s="126">
         <f t="shared" ref="Q34" si="1">SUM(Q22:Q33)</f>
-        <v>12.856944444444444</v>
+        <v>15.952083333333333</v>
       </c>
       <c r="R34" s="126">
         <f>SUM(R22:R33)</f>
-        <v>4.2840277777777782</v>
+        <v>4.635416666666667</v>
       </c>
       <c r="S34" s="127">
         <f>SUM(S22:S33)</f>
-        <v>17.140972222222224</v>
+        <v>20.587500000000002</v>
       </c>
       <c r="T34" s="39"/>
       <c r="U34" s="39"/>
       <c r="V34" s="39"/>
       <c r="W34" s="111"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="7"/>
       <c r="C35" s="6"/>
@@ -42112,7 +42212,7 @@
       <c r="V35" s="39"/>
       <c r="W35" s="111"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="39"/>
       <c r="B36" s="7"/>
       <c r="C36" s="6"/>
@@ -42132,7 +42232,7 @@
       <c r="V36" s="39"/>
       <c r="W36" s="111"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
       <c r="B37" s="7"/>
       <c r="C37" s="6"/>
@@ -42152,7 +42252,7 @@
       <c r="V37" s="39"/>
       <c r="W37" s="111"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="39"/>
       <c r="B38" s="7"/>
       <c r="C38" s="6"/>
@@ -42172,7 +42272,7 @@
       <c r="V38" s="39"/>
       <c r="W38" s="111"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="39"/>
       <c r="B39" s="7"/>
       <c r="C39" s="6"/>
@@ -42192,7 +42292,7 @@
       <c r="V39" s="39"/>
       <c r="W39" s="111"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="39"/>
       <c r="B40" s="7"/>
       <c r="C40" s="39"/>
@@ -42212,7 +42312,7 @@
       <c r="V40" s="39"/>
       <c r="W40" s="111"/>
     </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="39"/>
       <c r="B41" s="7"/>
       <c r="C41" s="6"/>
@@ -42232,7 +42332,7 @@
       <c r="V41" s="39"/>
       <c r="W41" s="111"/>
     </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="39"/>
       <c r="B42" s="7"/>
       <c r="C42" s="6"/>
@@ -42252,7 +42352,7 @@
       <c r="V42" s="39"/>
       <c r="W42" s="111"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="39"/>
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
@@ -42272,7 +42372,7 @@
       <c r="V43" s="39"/>
       <c r="W43" s="111"/>
     </row>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="39"/>
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
@@ -42292,7 +42392,7 @@
       <c r="V44" s="39"/>
       <c r="W44" s="111"/>
     </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="39"/>
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
@@ -42312,7 +42412,7 @@
       <c r="V45" s="39"/>
       <c r="W45" s="111"/>
     </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="39"/>
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
@@ -42332,7 +42432,7 @@
       <c r="V46" s="39"/>
       <c r="W46" s="111"/>
     </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="39"/>
       <c r="B47" s="39"/>
       <c r="C47" s="39"/>
@@ -42357,7 +42457,7 @@
       <c r="V47" s="39"/>
       <c r="W47" s="111"/>
     </row>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="39"/>
       <c r="B48" s="39"/>
       <c r="C48" s="39"/>
@@ -44672,7 +44772,7 @@
       </c>
       <c r="R136" s="46">
         <f>COUNTIF(D3:D59,Q136)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S136" s="39"/>
       <c r="T136" s="39"/>
@@ -44732,7 +44832,7 @@
       </c>
       <c r="R138" s="46">
         <f>COUNTIF(D3:D59,Q138)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S138" s="39"/>
       <c r="T138" s="39"/>
@@ -45092,7 +45192,7 @@
       </c>
       <c r="R150" s="42">
         <f>SUM(R119:R149)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S150" s="39"/>
       <c r="T150" s="39"/>
@@ -45177,7 +45277,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J28:K28"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="M2:N2"/>
@@ -45190,6 +45289,7 @@
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="M23:N23"/>
     <mergeCell ref="M28:N28"/>
+    <mergeCell ref="J28:K28"/>
     <mergeCell ref="P37:R37"/>
     <mergeCell ref="P41:R41"/>
     <mergeCell ref="P39:R39"/>

--- a/spreadsheets/Games.xlsx
+++ b/spreadsheets/Games.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ucer0.github.io\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01D09D1-92A4-481C-ABE9-6EF271C69D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B26B28-6904-46FE-8573-A433E3AE228F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="548">
   <si>
     <t>Nier: Automata</t>
   </si>
@@ -2226,7 +2226,22 @@
     <t>The Legend of Heroes: Trails in the Sky SC</t>
   </si>
   <si>
-    <t>Last Guardian (7h 24m), Trails SC (17h 19m), UFO 50 (6h 03m)</t>
+    <t>BronzeBeard's Tavern</t>
+  </si>
+  <si>
+    <t>16-oct.</t>
+  </si>
+  <si>
+    <t>The Legend of Heroes: Trails in the Sky The 3rd</t>
+  </si>
+  <si>
+    <t>19-oct.</t>
+  </si>
+  <si>
+    <t>Trails SC (50h 17m), Trails 3rd (24h 00m)</t>
+  </si>
+  <si>
+    <t>Last Guardian (7h 24m), Trails SC (17h 19m)</t>
   </si>
 </sst>
 </file>
@@ -2654,7 +2669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3148,6 +3163,12 @@
     <xf numFmtId="166" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3178,6 +3199,9 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
@@ -3196,7 +3220,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3207,9 +3231,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4220,7 +4241,10 @@
                   <c:v>2.6993055555555561</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0951388888888887</c:v>
+                  <c:v>2.8430555555555554</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0951388888888891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4333,7 +4357,10 @@
                   <c:v>0.36388888888888893</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.35138888888888886</c:v>
+                  <c:v>0.60347222222222219</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.63541666666666674</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8285,7 +8312,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2</c:v>
@@ -14854,17 +14881,17 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="165">
+      <c r="B2" s="167">
         <v>2019</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
       <c r="E2" s="67"/>
-      <c r="F2" s="171" t="s">
+      <c r="F2" s="173" t="s">
         <v>261</v>
       </c>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
       <c r="I2" s="35"/>
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
@@ -14895,18 +14922,18 @@
         <v>77</v>
       </c>
       <c r="E3" s="68"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="6"/>
       <c r="N3" s="29"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
+      <c r="O3" s="172"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
@@ -14928,18 +14955,18 @@
         <v>2004</v>
       </c>
       <c r="E4" s="26"/>
-      <c r="F4" s="171"/>
-      <c r="G4" s="171"/>
-      <c r="H4" s="171"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="173"/>
+      <c r="H4" s="173"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="30"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="170"/>
-      <c r="P4" s="170"/>
-      <c r="Q4" s="170"/>
+      <c r="O4" s="172"/>
+      <c r="P4" s="172"/>
+      <c r="Q4" s="172"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
@@ -14961,18 +14988,18 @@
         <v>2017</v>
       </c>
       <c r="E5" s="26"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="171"/>
+      <c r="F5" s="173"/>
+      <c r="G5" s="173"/>
+      <c r="H5" s="173"/>
       <c r="I5" s="6"/>
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="170"/>
-      <c r="P5" s="170"/>
-      <c r="Q5" s="170"/>
+      <c r="O5" s="172"/>
+      <c r="P5" s="172"/>
+      <c r="Q5" s="172"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
@@ -14994,18 +15021,18 @@
         <v>2017</v>
       </c>
       <c r="E6" s="26"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="171"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="173"/>
+      <c r="H6" s="173"/>
       <c r="I6" s="6"/>
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="170"/>
-      <c r="P6" s="170"/>
-      <c r="Q6" s="170"/>
+      <c r="O6" s="172"/>
+      <c r="P6" s="172"/>
+      <c r="Q6" s="172"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
@@ -15027,18 +15054,18 @@
         <v>2017</v>
       </c>
       <c r="E7" s="26"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="171"/>
-      <c r="H7" s="171"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="173"/>
+      <c r="H7" s="173"/>
       <c r="I7" s="6"/>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="170"/>
-      <c r="P7" s="170"/>
-      <c r="Q7" s="170"/>
+      <c r="O7" s="172"/>
+      <c r="P7" s="172"/>
+      <c r="Q7" s="172"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
@@ -15060,18 +15087,18 @@
         <v>2017</v>
       </c>
       <c r="E8" s="26"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="171"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="173"/>
+      <c r="H8" s="173"/>
       <c r="I8" s="6"/>
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="170"/>
-      <c r="P8" s="170"/>
-      <c r="Q8" s="170"/>
+      <c r="O8" s="172"/>
+      <c r="P8" s="172"/>
+      <c r="Q8" s="172"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
@@ -15093,18 +15120,18 @@
         <v>2016</v>
       </c>
       <c r="E9" s="26"/>
-      <c r="F9" s="171"/>
-      <c r="G9" s="171"/>
-      <c r="H9" s="171"/>
+      <c r="F9" s="173"/>
+      <c r="G9" s="173"/>
+      <c r="H9" s="173"/>
       <c r="I9" s="6"/>
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="170"/>
-      <c r="P9" s="170"/>
-      <c r="Q9" s="170"/>
+      <c r="O9" s="172"/>
+      <c r="P9" s="172"/>
+      <c r="Q9" s="172"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
@@ -15126,18 +15153,18 @@
         <v>2017</v>
       </c>
       <c r="E10" s="26"/>
-      <c r="F10" s="171"/>
-      <c r="G10" s="171"/>
-      <c r="H10" s="171"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="173"/>
+      <c r="H10" s="173"/>
       <c r="I10" s="6"/>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="7"/>
-      <c r="O10" s="170"/>
-      <c r="P10" s="170"/>
-      <c r="Q10" s="170"/>
+      <c r="O10" s="172"/>
+      <c r="P10" s="172"/>
+      <c r="Q10" s="172"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
@@ -15159,18 +15186,18 @@
         <v>2016</v>
       </c>
       <c r="E11" s="26"/>
-      <c r="F11" s="171"/>
-      <c r="G11" s="171"/>
-      <c r="H11" s="171"/>
+      <c r="F11" s="173"/>
+      <c r="G11" s="173"/>
+      <c r="H11" s="173"/>
       <c r="I11" s="6"/>
       <c r="J11" s="30"/>
       <c r="K11" s="30"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="170"/>
-      <c r="P11" s="170"/>
-      <c r="Q11" s="170"/>
+      <c r="O11" s="172"/>
+      <c r="P11" s="172"/>
+      <c r="Q11" s="172"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
@@ -15192,18 +15219,18 @@
         <v>2017</v>
       </c>
       <c r="E12" s="26"/>
-      <c r="F12" s="171"/>
-      <c r="G12" s="171"/>
-      <c r="H12" s="171"/>
+      <c r="F12" s="173"/>
+      <c r="G12" s="173"/>
+      <c r="H12" s="173"/>
       <c r="I12" s="6"/>
       <c r="J12" s="30"/>
       <c r="K12" s="30"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="170"/>
-      <c r="P12" s="170"/>
-      <c r="Q12" s="170"/>
+      <c r="O12" s="172"/>
+      <c r="P12" s="172"/>
+      <c r="Q12" s="172"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
@@ -15225,18 +15252,18 @@
         <v>2009</v>
       </c>
       <c r="E13" s="26"/>
-      <c r="F13" s="171"/>
-      <c r="G13" s="171"/>
-      <c r="H13" s="171"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="173"/>
       <c r="I13" s="6"/>
       <c r="J13" s="30"/>
       <c r="K13" s="30"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="170"/>
-      <c r="P13" s="170"/>
-      <c r="Q13" s="170"/>
+      <c r="O13" s="172"/>
+      <c r="P13" s="172"/>
+      <c r="Q13" s="172"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
@@ -15258,18 +15285,18 @@
         <v>2019</v>
       </c>
       <c r="E14" s="26"/>
-      <c r="F14" s="171"/>
-      <c r="G14" s="171"/>
-      <c r="H14" s="171"/>
+      <c r="F14" s="173"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="173"/>
       <c r="I14" s="6"/>
       <c r="J14" s="30"/>
       <c r="K14" s="30"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="170"/>
-      <c r="P14" s="170"/>
-      <c r="Q14" s="170"/>
+      <c r="O14" s="172"/>
+      <c r="P14" s="172"/>
+      <c r="Q14" s="172"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
@@ -15291,18 +15318,18 @@
         <v>2019</v>
       </c>
       <c r="E15" s="26"/>
-      <c r="F15" s="171"/>
-      <c r="G15" s="171"/>
-      <c r="H15" s="171"/>
+      <c r="F15" s="173"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="173"/>
       <c r="I15" s="6"/>
       <c r="J15" s="30"/>
       <c r="K15" s="30"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="170"/>
-      <c r="P15" s="170"/>
-      <c r="Q15" s="170"/>
+      <c r="O15" s="172"/>
+      <c r="P15" s="172"/>
+      <c r="Q15" s="172"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
@@ -15327,9 +15354,9 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="170"/>
-      <c r="P16" s="170"/>
-      <c r="Q16" s="170"/>
+      <c r="O16" s="172"/>
+      <c r="P16" s="172"/>
+      <c r="Q16" s="172"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
@@ -15340,9 +15367,9 @@
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
-      <c r="B17" s="167"/>
-      <c r="C17" s="167"/>
-      <c r="D17" s="167"/>
+      <c r="B17" s="169"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="169"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7"/>
@@ -15367,9 +15394,9 @@
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
-      <c r="B18" s="167"/>
-      <c r="C18" s="167"/>
-      <c r="D18" s="167"/>
+      <c r="B18" s="169"/>
+      <c r="C18" s="169"/>
+      <c r="D18" s="169"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="7"/>
@@ -15379,8 +15406,8 @@
       <c r="K18" s="30"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="168"/>
-      <c r="O18" s="169"/>
+      <c r="N18" s="170"/>
+      <c r="O18" s="171"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
@@ -15394,9 +15421,9 @@
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
-      <c r="B19" s="167"/>
-      <c r="C19" s="167"/>
-      <c r="D19" s="167"/>
+      <c r="B19" s="169"/>
+      <c r="C19" s="169"/>
+      <c r="D19" s="169"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7"/>
@@ -15406,8 +15433,8 @@
       <c r="K19" s="30"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="169"/>
-      <c r="O19" s="169"/>
+      <c r="N19" s="171"/>
+      <c r="O19" s="171"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
@@ -15433,8 +15460,8 @@
       <c r="K20" s="30"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="169"/>
-      <c r="O20" s="169"/>
+      <c r="N20" s="171"/>
+      <c r="O20" s="171"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
@@ -15460,8 +15487,8 @@
       <c r="K21" s="30"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="169"/>
-      <c r="O21" s="169"/>
+      <c r="N21" s="171"/>
+      <c r="O21" s="171"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
@@ -15487,8 +15514,8 @@
       <c r="K22" s="30"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-      <c r="N22" s="169"/>
-      <c r="O22" s="169"/>
+      <c r="N22" s="171"/>
+      <c r="O22" s="171"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
@@ -16672,8 +16699,8 @@
         <v>11</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="173"/>
-      <c r="K17" s="174"/>
+      <c r="J17" s="175"/>
+      <c r="K17" s="176"/>
       <c r="L17" s="6"/>
       <c r="M17" s="39"/>
       <c r="N17" s="39"/>
@@ -16711,8 +16738,8 @@
         <v>1</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="172"/>
-      <c r="K18" s="172"/>
+      <c r="J18" s="174"/>
+      <c r="K18" s="174"/>
       <c r="L18" s="6"/>
       <c r="M18" s="39"/>
       <c r="N18" s="39"/>
@@ -20937,7 +20964,7 @@
         <v>4.197916666666667</v>
       </c>
       <c r="I3" s="6"/>
-      <c r="J3" s="178" t="s">
+      <c r="J3" s="181" t="s">
         <v>118</v>
       </c>
       <c r="K3" s="80" t="s">
@@ -21011,7 +21038,7 @@
         <v>0.30138888888888887</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="179"/>
+      <c r="J4" s="182"/>
       <c r="K4" s="54" t="s">
         <v>127</v>
       </c>
@@ -21083,7 +21110,7 @@
         <v>0.2076388888888889</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="179"/>
+      <c r="J5" s="182"/>
       <c r="K5" s="73" t="s">
         <v>132</v>
       </c>
@@ -21155,7 +21182,7 @@
         <v>1.2437499999999999</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="179"/>
+      <c r="J6" s="182"/>
       <c r="K6" s="54" t="s">
         <v>129</v>
       </c>
@@ -21227,7 +21254,7 @@
         <v>0.27916666666666667</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="179"/>
+      <c r="J7" s="182"/>
       <c r="K7" s="73" t="s">
         <v>136</v>
       </c>
@@ -21299,7 +21326,7 @@
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="179"/>
+      <c r="J8" s="182"/>
       <c r="K8" s="54" t="s">
         <v>137</v>
       </c>
@@ -21371,7 +21398,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="178" t="s">
+      <c r="J9" s="181" t="s">
         <v>119</v>
       </c>
       <c r="K9" s="71" t="s">
@@ -21445,7 +21472,7 @@
         <v>0.19027777777777777</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="179"/>
+      <c r="J10" s="182"/>
       <c r="K10" s="54" t="s">
         <v>127</v>
       </c>
@@ -21517,7 +21544,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="179"/>
+      <c r="J11" s="182"/>
       <c r="K11" s="73" t="s">
         <v>132</v>
       </c>
@@ -21589,7 +21616,7 @@
         <v>1.7097222222222221</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="179"/>
+      <c r="J12" s="182"/>
       <c r="K12" s="54" t="s">
         <v>129</v>
       </c>
@@ -21661,7 +21688,7 @@
         <v>0.15972222222222224</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="179"/>
+      <c r="J13" s="182"/>
       <c r="K13" s="73" t="s">
         <v>141</v>
       </c>
@@ -21733,7 +21760,7 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="178" t="s">
+      <c r="J14" s="181" t="s">
         <v>120</v>
       </c>
       <c r="K14" s="10" t="s">
@@ -21807,7 +21834,7 @@
         <v>0.59652777777777777</v>
       </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="179"/>
+      <c r="J15" s="182"/>
       <c r="K15" s="73" t="s">
         <v>127</v>
       </c>
@@ -21879,7 +21906,7 @@
         <v>13</v>
       </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="179"/>
+      <c r="J16" s="182"/>
       <c r="K16" s="54" t="s">
         <v>132</v>
       </c>
@@ -21951,7 +21978,7 @@
         <v>13</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="179"/>
+      <c r="J17" s="182"/>
       <c r="K17" s="73" t="s">
         <v>129</v>
       </c>
@@ -22023,7 +22050,7 @@
         <v>0.24583333333333335</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="179"/>
+      <c r="J18" s="182"/>
       <c r="K18" s="54" t="s">
         <v>144</v>
       </c>
@@ -22095,7 +22122,7 @@
         <v>0.49513888888888885</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="180"/>
+      <c r="J19" s="183"/>
       <c r="K19" s="76" t="s">
         <v>150</v>
       </c>
@@ -22167,7 +22194,7 @@
         <v>0.20972222222222223</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="J20" s="178" t="s">
+      <c r="J20" s="181" t="s">
         <v>143</v>
       </c>
       <c r="K20" s="10" t="s">
@@ -22241,7 +22268,7 @@
         <v>0.25486111111111109</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="180"/>
+      <c r="J21" s="183"/>
       <c r="K21" s="76" t="s">
         <v>141</v>
       </c>
@@ -22323,7 +22350,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="179" t="s">
+      <c r="J22" s="182" t="s">
         <v>161</v>
       </c>
       <c r="K22" s="54" t="s">
@@ -22409,7 +22436,7 @@
         <v>0.26944444444444443</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="179"/>
+      <c r="J23" s="182"/>
       <c r="K23" s="80" t="s">
         <v>169</v>
       </c>
@@ -22493,7 +22520,7 @@
         <v>0.3263888888888889</v>
       </c>
       <c r="I24" s="39"/>
-      <c r="J24" s="179"/>
+      <c r="J24" s="182"/>
       <c r="K24" s="54" t="s">
         <v>163</v>
       </c>
@@ -22577,7 +22604,7 @@
         <v>0.32847222222222222</v>
       </c>
       <c r="I25" s="39"/>
-      <c r="J25" s="179"/>
+      <c r="J25" s="182"/>
       <c r="K25" s="73" t="s">
         <v>141</v>
       </c>
@@ -22661,7 +22688,7 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="I26" s="39"/>
-      <c r="J26" s="180"/>
+      <c r="J26" s="183"/>
       <c r="K26" s="11" t="s">
         <v>162</v>
       </c>
@@ -22745,7 +22772,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="I27" s="39"/>
-      <c r="J27" s="178" t="s">
+      <c r="J27" s="181" t="s">
         <v>171</v>
       </c>
       <c r="K27" s="73" t="s">
@@ -22831,7 +22858,7 @@
         <v>0.22291666666666665</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="179"/>
+      <c r="J28" s="182"/>
       <c r="K28" s="101" t="s">
         <v>163</v>
       </c>
@@ -22915,7 +22942,7 @@
         <v>0.13194444444444445</v>
       </c>
       <c r="I29" s="39"/>
-      <c r="J29" s="179"/>
+      <c r="J29" s="182"/>
       <c r="K29" s="73" t="s">
         <v>29</v>
       </c>
@@ -22999,7 +23026,7 @@
         <v>13</v>
       </c>
       <c r="I30" s="39"/>
-      <c r="J30" s="179"/>
+      <c r="J30" s="182"/>
       <c r="K30" s="101" t="s">
         <v>136</v>
       </c>
@@ -23083,7 +23110,7 @@
         <v>0.43888888888888888</v>
       </c>
       <c r="I31" s="39"/>
-      <c r="J31" s="180"/>
+      <c r="J31" s="183"/>
       <c r="K31" s="73" t="s">
         <v>141</v>
       </c>
@@ -23167,7 +23194,7 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="I32" s="39"/>
-      <c r="J32" s="178" t="s">
+      <c r="J32" s="181" t="s">
         <v>184</v>
       </c>
       <c r="K32" s="107" t="s">
@@ -23253,7 +23280,7 @@
         <v>2.7097222222222221</v>
       </c>
       <c r="I33" s="39"/>
-      <c r="J33" s="179"/>
+      <c r="J33" s="182"/>
       <c r="K33" s="73" t="s">
         <v>179</v>
       </c>
@@ -23339,7 +23366,7 @@
         <v>13</v>
       </c>
       <c r="I34" s="39"/>
-      <c r="J34" s="179"/>
+      <c r="J34" s="182"/>
       <c r="K34" s="54" t="s">
         <v>199</v>
       </c>
@@ -23422,7 +23449,7 @@
         <v>0.11041666666666666</v>
       </c>
       <c r="I35" s="39"/>
-      <c r="J35" s="179"/>
+      <c r="J35" s="182"/>
       <c r="K35" s="80" t="s">
         <v>198</v>
       </c>
@@ -23494,7 +23521,7 @@
         <v>0.37083333333333335</v>
       </c>
       <c r="I36" s="39"/>
-      <c r="J36" s="179"/>
+      <c r="J36" s="182"/>
       <c r="K36" s="54" t="s">
         <v>141</v>
       </c>
@@ -23502,9 +23529,9 @@
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="M36" s="39"/>
-      <c r="N36" s="181"/>
-      <c r="O36" s="181"/>
-      <c r="P36" s="181"/>
+      <c r="N36" s="177"/>
+      <c r="O36" s="177"/>
+      <c r="P36" s="177"/>
       <c r="Q36" s="111"/>
       <c r="R36" s="16"/>
       <c r="S36" s="16"/>
@@ -23566,7 +23593,7 @@
         <v>0.80694444444444446</v>
       </c>
       <c r="I37" s="39"/>
-      <c r="J37" s="179"/>
+      <c r="J37" s="182"/>
       <c r="K37" s="80" t="s">
         <v>196</v>
       </c>
@@ -23574,9 +23601,9 @@
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="M37" s="39"/>
-      <c r="N37" s="181"/>
-      <c r="O37" s="181"/>
-      <c r="P37" s="181"/>
+      <c r="N37" s="177"/>
+      <c r="O37" s="177"/>
+      <c r="P37" s="177"/>
       <c r="Q37" s="111"/>
       <c r="R37" s="16"/>
       <c r="S37" s="16"/>
@@ -23638,7 +23665,7 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="I38" s="39"/>
-      <c r="J38" s="180"/>
+      <c r="J38" s="183"/>
       <c r="K38" s="11" t="s">
         <v>202</v>
       </c>
@@ -23646,9 +23673,9 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="M38" s="39"/>
-      <c r="N38" s="181"/>
-      <c r="O38" s="181"/>
-      <c r="P38" s="181"/>
+      <c r="N38" s="177"/>
+      <c r="O38" s="177"/>
+      <c r="P38" s="177"/>
       <c r="Q38" s="111"/>
       <c r="R38" s="16"/>
       <c r="S38" s="16"/>
@@ -23696,7 +23723,7 @@
       <c r="G39" s="30"/>
       <c r="H39" s="61"/>
       <c r="I39" s="39"/>
-      <c r="J39" s="178" t="s">
+      <c r="J39" s="181" t="s">
         <v>209</v>
       </c>
       <c r="K39" s="116" t="s">
@@ -23706,9 +23733,9 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="M39" s="39"/>
-      <c r="N39" s="181"/>
-      <c r="O39" s="181"/>
-      <c r="P39" s="181"/>
+      <c r="N39" s="177"/>
+      <c r="O39" s="177"/>
+      <c r="P39" s="177"/>
       <c r="Q39" s="124"/>
       <c r="R39" s="16"/>
       <c r="S39" s="16"/>
@@ -23756,7 +23783,7 @@
       <c r="G40" s="39"/>
       <c r="H40" s="62"/>
       <c r="I40" s="39"/>
-      <c r="J40" s="179"/>
+      <c r="J40" s="182"/>
       <c r="K40" s="113" t="s">
         <v>210</v>
       </c>
@@ -23764,9 +23791,9 @@
         <v>0.3666666666666667</v>
       </c>
       <c r="M40" s="39"/>
-      <c r="N40" s="181"/>
-      <c r="O40" s="181"/>
-      <c r="P40" s="181"/>
+      <c r="N40" s="177"/>
+      <c r="O40" s="177"/>
+      <c r="P40" s="177"/>
       <c r="Q40" s="124"/>
       <c r="R40" s="16"/>
       <c r="S40" s="16"/>
@@ -23813,7 +23840,7 @@
       <c r="G41" s="30"/>
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
-      <c r="J41" s="179"/>
+      <c r="J41" s="182"/>
       <c r="K41" s="112" t="s">
         <v>179</v>
       </c>
@@ -23821,9 +23848,9 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="M41" s="39"/>
-      <c r="N41" s="181"/>
-      <c r="O41" s="181"/>
-      <c r="P41" s="181"/>
+      <c r="N41" s="177"/>
+      <c r="O41" s="177"/>
+      <c r="P41" s="177"/>
       <c r="Q41" s="124"/>
       <c r="R41" s="16"/>
       <c r="S41" s="16"/>
@@ -23871,7 +23898,7 @@
       <c r="G42" s="30"/>
       <c r="H42" s="61"/>
       <c r="I42" s="39"/>
-      <c r="J42" s="179"/>
+      <c r="J42" s="182"/>
       <c r="K42" s="114" t="s">
         <v>136</v>
       </c>
@@ -23929,7 +23956,7 @@
       <c r="G43" s="39"/>
       <c r="H43" s="62"/>
       <c r="I43" s="39"/>
-      <c r="J43" s="179"/>
+      <c r="J43" s="182"/>
       <c r="K43" s="112" t="s">
         <v>212</v>
       </c>
@@ -23987,7 +24014,7 @@
       <c r="G44" s="39"/>
       <c r="H44" s="62"/>
       <c r="I44" s="39"/>
-      <c r="J44" s="179"/>
+      <c r="J44" s="182"/>
       <c r="K44" s="113" t="s">
         <v>213</v>
       </c>
@@ -24045,7 +24072,7 @@
       <c r="G45" s="39"/>
       <c r="H45" s="62"/>
       <c r="I45" s="39"/>
-      <c r="J45" s="180"/>
+      <c r="J45" s="183"/>
       <c r="K45" s="115" t="s">
         <v>141</v>
       </c>
@@ -24103,7 +24130,7 @@
       <c r="G46" s="39"/>
       <c r="H46" s="62"/>
       <c r="I46" s="39"/>
-      <c r="J46" s="175" t="s">
+      <c r="J46" s="178" t="s">
         <v>217</v>
       </c>
       <c r="K46" s="119" t="s">
@@ -24163,7 +24190,7 @@
       <c r="G47" s="39"/>
       <c r="H47" s="62"/>
       <c r="I47" s="39"/>
-      <c r="J47" s="176"/>
+      <c r="J47" s="179"/>
       <c r="K47" s="80" t="s">
         <v>179</v>
       </c>
@@ -24221,7 +24248,7 @@
       <c r="G48" s="39"/>
       <c r="H48" s="62"/>
       <c r="I48" s="39"/>
-      <c r="J48" s="176"/>
+      <c r="J48" s="179"/>
       <c r="K48" s="101" t="s">
         <v>136</v>
       </c>
@@ -24279,7 +24306,7 @@
       <c r="G49" s="39"/>
       <c r="H49" s="62"/>
       <c r="I49" s="39"/>
-      <c r="J49" s="177"/>
+      <c r="J49" s="180"/>
       <c r="K49" s="120" t="s">
         <v>213</v>
       </c>
@@ -24337,7 +24364,7 @@
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
       <c r="I50" s="39"/>
-      <c r="J50" s="175" t="s">
+      <c r="J50" s="178" t="s">
         <v>232</v>
       </c>
       <c r="K50" s="121" t="s">
@@ -24397,7 +24424,7 @@
       <c r="G51" s="39"/>
       <c r="H51" s="39"/>
       <c r="I51" s="39"/>
-      <c r="J51" s="176"/>
+      <c r="J51" s="179"/>
       <c r="K51" s="122" t="s">
         <v>179</v>
       </c>
@@ -24455,7 +24482,7 @@
       <c r="G52" s="39"/>
       <c r="H52" s="39"/>
       <c r="I52" s="39"/>
-      <c r="J52" s="176"/>
+      <c r="J52" s="179"/>
       <c r="K52" s="114" t="s">
         <v>235</v>
       </c>
@@ -24513,7 +24540,7 @@
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
       <c r="I53" s="39"/>
-      <c r="J53" s="177"/>
+      <c r="J53" s="180"/>
       <c r="K53" s="115" t="s">
         <v>211</v>
       </c>
@@ -24571,7 +24598,7 @@
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
       <c r="I54" s="39"/>
-      <c r="J54" s="175" t="s">
+      <c r="J54" s="178" t="s">
         <v>243</v>
       </c>
       <c r="K54" s="121" t="s">
@@ -24631,7 +24658,7 @@
       <c r="G55" s="39"/>
       <c r="H55" s="39"/>
       <c r="I55" s="39"/>
-      <c r="J55" s="176"/>
+      <c r="J55" s="179"/>
       <c r="K55" s="122" t="s">
         <v>242</v>
       </c>
@@ -24689,7 +24716,7 @@
       <c r="G56" s="39"/>
       <c r="H56" s="39"/>
       <c r="I56" s="39"/>
-      <c r="J56" s="176"/>
+      <c r="J56" s="179"/>
       <c r="K56" s="114" t="s">
         <v>29</v>
       </c>
@@ -24747,7 +24774,7 @@
       <c r="G57" s="39"/>
       <c r="H57" s="39"/>
       <c r="I57" s="39"/>
-      <c r="J57" s="177"/>
+      <c r="J57" s="180"/>
       <c r="K57" s="115" t="s">
         <v>199</v>
       </c>
@@ -24805,7 +24832,7 @@
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
       <c r="I58" s="39"/>
-      <c r="J58" s="175" t="s">
+      <c r="J58" s="178" t="s">
         <v>246</v>
       </c>
       <c r="K58" s="121" t="s">
@@ -24865,7 +24892,7 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
       <c r="I59" s="39"/>
-      <c r="J59" s="176"/>
+      <c r="J59" s="179"/>
       <c r="K59" s="122" t="s">
         <v>235</v>
       </c>
@@ -24923,7 +24950,7 @@
       <c r="G60" s="39"/>
       <c r="H60" s="39"/>
       <c r="I60" s="39"/>
-      <c r="J60" s="176"/>
+      <c r="J60" s="179"/>
       <c r="K60" s="114" t="s">
         <v>242</v>
       </c>
@@ -24981,7 +25008,7 @@
       <c r="G61" s="39"/>
       <c r="H61" s="39"/>
       <c r="I61" s="39"/>
-      <c r="J61" s="176"/>
+      <c r="J61" s="179"/>
       <c r="K61" s="122" t="s">
         <v>245</v>
       </c>
@@ -25039,7 +25066,7 @@
       <c r="G62" s="39"/>
       <c r="H62" s="39"/>
       <c r="I62" s="39"/>
-      <c r="J62" s="176"/>
+      <c r="J62" s="179"/>
       <c r="K62" s="114" t="s">
         <v>29</v>
       </c>
@@ -25097,7 +25124,7 @@
       <c r="G63" s="39"/>
       <c r="H63" s="39"/>
       <c r="I63" s="39"/>
-      <c r="J63" s="177"/>
+      <c r="J63" s="180"/>
       <c r="K63" s="115" t="s">
         <v>199</v>
       </c>
@@ -30846,12 +30873,6 @@
     <sortCondition ref="K33"/>
   </sortState>
   <mergeCells count="18">
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="N39:P39"/>
     <mergeCell ref="J58:J63"/>
     <mergeCell ref="J54:J57"/>
     <mergeCell ref="J50:J53"/>
@@ -30864,6 +30885,12 @@
     <mergeCell ref="J32:J38"/>
     <mergeCell ref="J27:J31"/>
     <mergeCell ref="J14:J19"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="N39:P39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -30955,15 +30982,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="182" t="s">
+      <c r="J2" s="185" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="184"/>
+      <c r="K2" s="187"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="184" t="s">
+      <c r="M2" s="187" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="183"/>
+      <c r="N2" s="186"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -31263,15 +31290,15 @@
         <v>0.20416666666666669</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="182" t="s">
+      <c r="J9" s="185" t="s">
         <v>286</v>
       </c>
-      <c r="K9" s="184"/>
+      <c r="K9" s="187"/>
       <c r="L9" s="136"/>
-      <c r="M9" s="184" t="s">
+      <c r="M9" s="187" t="s">
         <v>287</v>
       </c>
-      <c r="N9" s="183"/>
+      <c r="N9" s="186"/>
       <c r="O9" s="39"/>
       <c r="P9" s="39"/>
       <c r="Q9" s="39"/>
@@ -31478,15 +31505,15 @@
         <v>0.15208333333333332</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="182" t="s">
+      <c r="J14" s="185" t="s">
         <v>288</v>
       </c>
-      <c r="K14" s="183"/>
+      <c r="K14" s="186"/>
       <c r="L14" s="136"/>
-      <c r="M14" s="182" t="s">
+      <c r="M14" s="185" t="s">
         <v>289</v>
       </c>
-      <c r="N14" s="183"/>
+      <c r="N14" s="186"/>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
@@ -31790,15 +31817,15 @@
         <v>0.35138888888888892</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="182" t="s">
+      <c r="J21" s="185" t="s">
         <v>290</v>
       </c>
-      <c r="K21" s="183"/>
+      <c r="K21" s="186"/>
       <c r="L21" s="136"/>
-      <c r="M21" s="182" t="s">
+      <c r="M21" s="185" t="s">
         <v>291</v>
       </c>
-      <c r="N21" s="183"/>
+      <c r="N21" s="186"/>
       <c r="O21" s="39"/>
       <c r="P21" s="89" t="s">
         <v>31</v>
@@ -32180,15 +32207,15 @@
         <v>0.11805555555555557</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="182" t="s">
+      <c r="J28" s="185" t="s">
         <v>292</v>
       </c>
-      <c r="K28" s="183"/>
+      <c r="K28" s="186"/>
       <c r="L28" s="136"/>
-      <c r="M28" s="182" t="s">
+      <c r="M28" s="185" t="s">
         <v>293</v>
       </c>
-      <c r="N28" s="183"/>
+      <c r="N28" s="186"/>
       <c r="O28" s="39"/>
       <c r="P28" s="93" t="s">
         <v>38</v>
@@ -32535,15 +32562,15 @@
       <c r="G35" s="30"/>
       <c r="H35" s="61"/>
       <c r="I35" s="39"/>
-      <c r="J35" s="182" t="s">
+      <c r="J35" s="185" t="s">
         <v>294</v>
       </c>
-      <c r="K35" s="183"/>
+      <c r="K35" s="186"/>
       <c r="L35" s="136"/>
-      <c r="M35" s="182" t="s">
+      <c r="M35" s="185" t="s">
         <v>295</v>
       </c>
-      <c r="N35" s="183"/>
+      <c r="N35" s="186"/>
       <c r="O35" s="39"/>
       <c r="P35" s="39"/>
       <c r="Q35" s="39"/>
@@ -32578,9 +32605,9 @@
         <v>4.9305555555555554E-2</v>
       </c>
       <c r="O36" s="39"/>
-      <c r="P36" s="181"/>
-      <c r="Q36" s="181"/>
-      <c r="R36" s="181"/>
+      <c r="P36" s="177"/>
+      <c r="Q36" s="177"/>
+      <c r="R36" s="177"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -32611,9 +32638,9 @@
         <v>0.18472222222222223</v>
       </c>
       <c r="O37" s="39"/>
-      <c r="P37" s="185"/>
-      <c r="Q37" s="185"/>
-      <c r="R37" s="185"/>
+      <c r="P37" s="184"/>
+      <c r="Q37" s="184"/>
+      <c r="R37" s="184"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -32644,9 +32671,9 @@
         <v>0.21249999999999999</v>
       </c>
       <c r="O38" s="39"/>
-      <c r="P38" s="181"/>
-      <c r="Q38" s="181"/>
-      <c r="R38" s="181"/>
+      <c r="P38" s="177"/>
+      <c r="Q38" s="177"/>
+      <c r="R38" s="177"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -32677,9 +32704,9 @@
         <v>0.26527777777777778</v>
       </c>
       <c r="O39" s="39"/>
-      <c r="P39" s="181"/>
-      <c r="Q39" s="181"/>
-      <c r="R39" s="181"/>
+      <c r="P39" s="177"/>
+      <c r="Q39" s="177"/>
+      <c r="R39" s="177"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -32710,9 +32737,9 @@
         <v>0.75347222222222221</v>
       </c>
       <c r="O40" s="39"/>
-      <c r="P40" s="181"/>
-      <c r="Q40" s="181"/>
-      <c r="R40" s="181"/>
+      <c r="P40" s="177"/>
+      <c r="Q40" s="177"/>
+      <c r="R40" s="177"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -32738,9 +32765,9 @@
         <v>1.0513888888888889</v>
       </c>
       <c r="O41" s="39"/>
-      <c r="P41" s="181"/>
-      <c r="Q41" s="181"/>
-      <c r="R41" s="181"/>
+      <c r="P41" s="177"/>
+      <c r="Q41" s="177"/>
+      <c r="R41" s="177"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -35705,12 +35732,6 @@
     <sortCondition ref="J9"/>
   </sortState>
   <mergeCells count="18">
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
     <mergeCell ref="M35:N35"/>
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="M21:N21"/>
@@ -35723,6 +35744,12 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="J35:K35"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J116" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -35739,7 +35766,7 @@
   <dimension ref="A1:Z153"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:H12"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -35815,15 +35842,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="182" t="s">
+      <c r="J2" s="185" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="184"/>
+      <c r="K2" s="187"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="184" t="s">
+      <c r="M2" s="187" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="183"/>
+      <c r="N2" s="186"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -36153,15 +36180,15 @@
         <v>1.1847222222222222</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="182" t="s">
+      <c r="J10" s="185" t="s">
         <v>286</v>
       </c>
-      <c r="K10" s="183"/>
+      <c r="K10" s="186"/>
       <c r="L10" s="136"/>
-      <c r="M10" s="182" t="s">
+      <c r="M10" s="185" t="s">
         <v>287</v>
       </c>
-      <c r="N10" s="183"/>
+      <c r="N10" s="186"/>
       <c r="O10" s="39"/>
       <c r="P10" s="39"/>
       <c r="Q10" s="39"/>
@@ -36458,15 +36485,15 @@
         <v>6.063194444444445</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="182" t="s">
+      <c r="J17" s="185" t="s">
         <v>288</v>
       </c>
-      <c r="K17" s="183"/>
+      <c r="K17" s="186"/>
       <c r="L17" s="136"/>
-      <c r="M17" s="182" t="s">
+      <c r="M17" s="185" t="s">
         <v>289</v>
       </c>
-      <c r="N17" s="183"/>
+      <c r="N17" s="186"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
@@ -36688,15 +36715,15 @@
         <v>0.50555555555555554</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="182" t="s">
+      <c r="J22" s="185" t="s">
         <v>290</v>
       </c>
-      <c r="K22" s="183"/>
+      <c r="K22" s="186"/>
       <c r="L22" s="136"/>
-      <c r="M22" s="182" t="s">
+      <c r="M22" s="185" t="s">
         <v>291</v>
       </c>
-      <c r="N22" s="183"/>
+      <c r="N22" s="186"/>
       <c r="O22" s="39"/>
       <c r="P22" s="63" t="s">
         <v>32</v>
@@ -37047,15 +37074,15 @@
         <v>2.6388888888888889E-2</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="182" t="s">
+      <c r="J28" s="185" t="s">
         <v>292</v>
       </c>
-      <c r="K28" s="183"/>
+      <c r="K28" s="186"/>
       <c r="L28" s="136"/>
-      <c r="M28" s="182" t="s">
+      <c r="M28" s="185" t="s">
         <v>293</v>
       </c>
-      <c r="N28" s="183"/>
+      <c r="N28" s="186"/>
       <c r="O28" s="39"/>
       <c r="P28" s="93" t="s">
         <v>38</v>
@@ -37421,15 +37448,15 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="I34" s="39"/>
-      <c r="J34" s="182" t="s">
+      <c r="J34" s="185" t="s">
         <v>294</v>
       </c>
-      <c r="K34" s="183"/>
+      <c r="K34" s="186"/>
       <c r="L34" s="136"/>
-      <c r="M34" s="182" t="s">
+      <c r="M34" s="185" t="s">
         <v>295</v>
       </c>
-      <c r="N34" s="183"/>
+      <c r="N34" s="186"/>
       <c r="O34" s="39"/>
       <c r="P34" s="125" t="s">
         <v>77</v>
@@ -37536,9 +37563,9 @@
         <v>0.36944444444444446</v>
       </c>
       <c r="O36" s="39"/>
-      <c r="P36" s="181"/>
-      <c r="Q36" s="181"/>
-      <c r="R36" s="181"/>
+      <c r="P36" s="177"/>
+      <c r="Q36" s="177"/>
+      <c r="R36" s="177"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -37583,9 +37610,9 @@
         <v>7.9166666666666663E-2</v>
       </c>
       <c r="O37" s="39"/>
-      <c r="P37" s="185"/>
-      <c r="Q37" s="181"/>
-      <c r="R37" s="181"/>
+      <c r="P37" s="184"/>
+      <c r="Q37" s="177"/>
+      <c r="R37" s="177"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -37617,9 +37644,9 @@
       </c>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="181"/>
-      <c r="Q38" s="181"/>
-      <c r="R38" s="181"/>
+      <c r="P38" s="177"/>
+      <c r="Q38" s="177"/>
+      <c r="R38" s="177"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -37637,9 +37664,9 @@
       <c r="H39" s="138"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="181"/>
-      <c r="Q39" s="181"/>
-      <c r="R39" s="181"/>
+      <c r="P39" s="177"/>
+      <c r="Q39" s="177"/>
+      <c r="R39" s="177"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -37657,9 +37684,9 @@
       <c r="H40" s="61"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="181"/>
-      <c r="Q40" s="181"/>
-      <c r="R40" s="181"/>
+      <c r="P40" s="177"/>
+      <c r="Q40" s="177"/>
+      <c r="R40" s="177"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -37677,9 +37704,9 @@
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="181"/>
-      <c r="Q41" s="181"/>
-      <c r="R41" s="181"/>
+      <c r="P41" s="177"/>
+      <c r="Q41" s="177"/>
+      <c r="R41" s="177"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -40631,24 +40658,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M17:N17"/>
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
@@ -40669,8 +40696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{945572C7-9529-4441-AC5C-E60B6D0FDFB2}">
   <dimension ref="A1:Z153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -40747,15 +40774,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="182" t="s">
+      <c r="J2" s="185" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="183"/>
+      <c r="K2" s="186"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="182" t="s">
+      <c r="M2" s="185" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="183"/>
+      <c r="N2" s="186"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -40961,15 +40988,15 @@
         <v>0.33749999999999997</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="182" t="s">
+      <c r="J7" s="185" t="s">
         <v>286</v>
       </c>
-      <c r="K7" s="183"/>
+      <c r="K7" s="186"/>
       <c r="L7" s="136"/>
-      <c r="M7" s="182" t="s">
+      <c r="M7" s="185" t="s">
         <v>287</v>
       </c>
-      <c r="N7" s="183"/>
+      <c r="N7" s="186"/>
       <c r="O7" s="39"/>
       <c r="P7" s="39"/>
       <c r="Q7" s="39"/>
@@ -41176,15 +41203,15 @@
         <v>0.48819444444444443</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="182" t="s">
+      <c r="J12" s="185" t="s">
         <v>288</v>
       </c>
-      <c r="K12" s="183"/>
+      <c r="K12" s="186"/>
       <c r="L12" s="136"/>
-      <c r="M12" s="182" t="s">
+      <c r="M12" s="185" t="s">
         <v>289</v>
       </c>
-      <c r="N12" s="183"/>
+      <c r="N12" s="186"/>
       <c r="O12" s="39"/>
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
@@ -41434,15 +41461,15 @@
         <v>2.6659722222222224</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="182" t="s">
+      <c r="J18" s="185" t="s">
         <v>290</v>
       </c>
-      <c r="K18" s="183"/>
+      <c r="K18" s="186"/>
       <c r="L18" s="136"/>
-      <c r="M18" s="182" t="s">
+      <c r="M18" s="185" t="s">
         <v>291</v>
       </c>
-      <c r="N18" s="183"/>
+      <c r="N18" s="186"/>
       <c r="O18" s="39"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="39"/>
@@ -41679,15 +41706,15 @@
         <v>1.8131944444444446</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="182" t="s">
+      <c r="J23" s="185" t="s">
         <v>292</v>
       </c>
-      <c r="K23" s="183"/>
+      <c r="K23" s="186"/>
       <c r="L23" s="136"/>
-      <c r="M23" s="182" t="s">
+      <c r="M23" s="185" t="s">
         <v>293</v>
       </c>
-      <c r="N23" s="183"/>
+      <c r="N23" s="186"/>
       <c r="O23" s="39"/>
       <c r="P23" s="94" t="s">
         <v>33</v>
@@ -41723,22 +41750,22 @@
         <v>22</v>
       </c>
       <c r="C24" s="54" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D24" s="54">
-        <v>2024</v>
+        <v>2006</v>
       </c>
       <c r="E24" s="153" t="s">
         <v>440</v>
       </c>
       <c r="F24" s="69" t="s">
-        <v>538</v>
+        <v>228</v>
       </c>
       <c r="G24" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="60" t="s">
-        <v>13</v>
+        <v>543</v>
+      </c>
+      <c r="H24" s="60">
+        <v>2.8166666666666664</v>
       </c>
       <c r="I24" s="39"/>
       <c r="J24" s="122" t="s">
@@ -41748,8 +41775,12 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="L24" s="137"/>
-      <c r="M24" s="131"/>
-      <c r="N24" s="72"/>
+      <c r="M24" s="131" t="s">
+        <v>542</v>
+      </c>
+      <c r="N24" s="72">
+        <v>6.6666666666666666E-2</v>
+      </c>
       <c r="O24" s="39"/>
       <c r="P24" s="93" t="s">
         <v>34</v>
@@ -41782,22 +41813,22 @@
       <c r="B25" s="70">
         <v>23</v>
       </c>
-      <c r="C25" s="73" t="s">
-        <v>541</v>
-      </c>
-      <c r="D25" s="73">
-        <v>2006</v>
-      </c>
-      <c r="E25" s="152" t="s">
+      <c r="C25" s="80" t="s">
+        <v>544</v>
+      </c>
+      <c r="D25" s="80">
+        <v>2007</v>
+      </c>
+      <c r="E25" s="165" t="s">
         <v>440</v>
       </c>
-      <c r="F25" s="74" t="s">
-        <v>228</v>
-      </c>
-      <c r="G25" s="74" t="s">
+      <c r="F25" s="80" t="s">
+        <v>545</v>
+      </c>
+      <c r="G25" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="75" t="s">
+      <c r="H25" s="166" t="s">
         <v>13</v>
       </c>
       <c r="I25" s="39"/>
@@ -41808,8 +41839,12 @@
         <v>7.5694444444444439E-2</v>
       </c>
       <c r="L25" s="137"/>
-      <c r="M25" s="101"/>
-      <c r="N25" s="60"/>
+      <c r="M25" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="N25" s="60">
+        <v>4.9305555555555554E-2</v>
+      </c>
       <c r="O25" s="39"/>
       <c r="P25" s="94" t="s">
         <v>35</v>
@@ -41856,8 +41891,12 @@
         <v>0.16388888888888889</v>
       </c>
       <c r="L26" s="137"/>
-      <c r="M26" s="135"/>
-      <c r="N26" s="77"/>
+      <c r="M26" s="135" t="s">
+        <v>539</v>
+      </c>
+      <c r="N26" s="77">
+        <v>0.51944444444444449</v>
+      </c>
       <c r="O26" s="39"/>
       <c r="P26" s="93" t="s">
         <v>36</v>
@@ -41897,8 +41936,12 @@
       <c r="G27" s="74"/>
       <c r="H27" s="75"/>
       <c r="I27" s="39"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="138"/>
+      <c r="J27" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="K27" s="102">
+        <v>0.25208333333333333</v>
+      </c>
       <c r="O27" s="39"/>
       <c r="P27" s="94" t="s">
         <v>37</v>
@@ -41938,15 +41981,6 @@
       <c r="G28" s="69"/>
       <c r="H28" s="60"/>
       <c r="I28" s="39"/>
-      <c r="J28" s="182" t="s">
-        <v>294</v>
-      </c>
-      <c r="K28" s="183"/>
-      <c r="L28" s="136"/>
-      <c r="M28" s="182" t="s">
-        <v>295</v>
-      </c>
-      <c r="N28" s="183"/>
       <c r="O28" s="39"/>
       <c r="P28" s="93" t="s">
         <v>38</v>
@@ -41988,11 +42022,15 @@
       <c r="G29" s="74"/>
       <c r="H29" s="75"/>
       <c r="I29" s="39"/>
-      <c r="J29" s="122"/>
-      <c r="K29" s="132"/>
-      <c r="L29" s="137"/>
-      <c r="M29" s="131"/>
-      <c r="N29" s="72"/>
+      <c r="J29" s="185" t="s">
+        <v>294</v>
+      </c>
+      <c r="K29" s="186"/>
+      <c r="L29" s="136"/>
+      <c r="M29" s="185" t="s">
+        <v>295</v>
+      </c>
+      <c r="N29" s="186"/>
       <c r="O29" s="39"/>
       <c r="P29" s="94" t="s">
         <v>39</v>
@@ -42034,30 +42072,30 @@
       <c r="G30" s="69"/>
       <c r="H30" s="60"/>
       <c r="I30" s="39"/>
-      <c r="J30" s="113"/>
-      <c r="K30" s="133"/>
+      <c r="J30" s="122"/>
+      <c r="K30" s="132"/>
       <c r="L30" s="137"/>
-      <c r="M30" s="101"/>
-      <c r="N30" s="60"/>
+      <c r="M30" s="131"/>
+      <c r="N30" s="72"/>
       <c r="O30" s="39"/>
       <c r="P30" s="93" t="s">
         <v>40</v>
       </c>
       <c r="Q30" s="81">
         <f>SUM(H22:H23,W30:Y30)</f>
-        <v>3.0951388888888887</v>
+        <v>2.8430555555555554</v>
       </c>
       <c r="R30" s="81">
-        <f>SUM(K24:K26)</f>
-        <v>0.35138888888888886</v>
+        <f>SUM(K24:K27)</f>
+        <v>0.60347222222222219</v>
       </c>
       <c r="S30" s="97">
         <f>Q30+R30</f>
-        <v>3.4465277777777774</v>
+        <v>3.4465277777777779</v>
       </c>
       <c r="T30" s="39"/>
       <c r="U30" s="99" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="V30" s="146"/>
       <c r="W30" s="147">
@@ -42066,9 +42104,7 @@
       <c r="X30" s="147">
         <v>0.72152777777777777</v>
       </c>
-      <c r="Y30" s="147">
-        <v>0.25208333333333333</v>
-      </c>
+      <c r="Y30" s="147"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="39"/>
@@ -42082,26 +42118,38 @@
       <c r="G31" s="74"/>
       <c r="H31" s="75"/>
       <c r="I31" s="39"/>
-      <c r="J31" s="135"/>
-      <c r="K31" s="77"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="133"/>
       <c r="L31" s="137"/>
-      <c r="M31" s="135"/>
-      <c r="N31" s="77"/>
+      <c r="M31" s="101"/>
+      <c r="N31" s="60"/>
       <c r="O31" s="39"/>
       <c r="P31" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="Q31" s="64"/>
-      <c r="R31" s="64"/>
+      <c r="Q31" s="64">
+        <f>SUM(W31:X31)</f>
+        <v>3.0951388888888891</v>
+      </c>
+      <c r="R31" s="64">
+        <f>SUM(N24:N26)</f>
+        <v>0.63541666666666674</v>
+      </c>
       <c r="S31" s="90">
         <f>Q31+R31</f>
-        <v>0</v>
+        <v>3.7305555555555561</v>
       </c>
       <c r="T31" s="39"/>
-      <c r="U31" s="105"/>
+      <c r="U31" s="98" t="s">
+        <v>546</v>
+      </c>
       <c r="V31" s="146"/>
-      <c r="W31" s="147"/>
-      <c r="X31" s="147"/>
+      <c r="W31" s="147">
+        <v>2.0951388888888891</v>
+      </c>
+      <c r="X31" s="147">
+        <v>1</v>
+      </c>
       <c r="Y31" s="147"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42116,6 +42164,11 @@
       <c r="G32" s="69"/>
       <c r="H32" s="60"/>
       <c r="I32" s="39"/>
+      <c r="J32" s="135"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="137"/>
+      <c r="M32" s="135"/>
+      <c r="N32" s="77"/>
       <c r="O32" s="39"/>
       <c r="P32" s="93" t="s">
         <v>42</v>
@@ -42177,15 +42230,15 @@
       </c>
       <c r="Q34" s="126">
         <f t="shared" ref="Q34" si="1">SUM(Q22:Q33)</f>
-        <v>15.952083333333333</v>
+        <v>18.795138888888889</v>
       </c>
       <c r="R34" s="126">
         <f>SUM(R22:R33)</f>
-        <v>4.635416666666667</v>
+        <v>5.5229166666666671</v>
       </c>
       <c r="S34" s="127">
         <f>SUM(S22:S33)</f>
-        <v>20.587500000000002</v>
+        <v>24.31805555555556</v>
       </c>
       <c r="T34" s="39"/>
       <c r="U34" s="39"/>
@@ -42223,9 +42276,9 @@
       <c r="H36" s="61"/>
       <c r="I36" s="39"/>
       <c r="O36" s="39"/>
-      <c r="P36" s="181"/>
-      <c r="Q36" s="181"/>
-      <c r="R36" s="181"/>
+      <c r="P36" s="177"/>
+      <c r="Q36" s="177"/>
+      <c r="R36" s="177"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -42243,9 +42296,9 @@
       <c r="H37" s="61"/>
       <c r="I37" s="39"/>
       <c r="O37" s="39"/>
-      <c r="P37" s="185"/>
-      <c r="Q37" s="181"/>
-      <c r="R37" s="181"/>
+      <c r="P37" s="184"/>
+      <c r="Q37" s="177"/>
+      <c r="R37" s="177"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -42263,9 +42316,9 @@
       <c r="H38" s="61"/>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="181"/>
-      <c r="Q38" s="181"/>
-      <c r="R38" s="181"/>
+      <c r="P38" s="177"/>
+      <c r="Q38" s="177"/>
+      <c r="R38" s="177"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -42283,9 +42336,9 @@
       <c r="H39" s="61"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="181"/>
-      <c r="Q39" s="181"/>
-      <c r="R39" s="181"/>
+      <c r="P39" s="177"/>
+      <c r="Q39" s="177"/>
+      <c r="R39" s="177"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -42303,9 +42356,9 @@
       <c r="H40" s="62"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="181"/>
-      <c r="Q40" s="181"/>
-      <c r="R40" s="181"/>
+      <c r="P40" s="177"/>
+      <c r="Q40" s="177"/>
+      <c r="R40" s="177"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -42323,9 +42376,9 @@
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="181"/>
-      <c r="Q41" s="181"/>
-      <c r="R41" s="181"/>
+      <c r="P41" s="177"/>
+      <c r="Q41" s="177"/>
+      <c r="R41" s="177"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -44742,7 +44795,7 @@
       </c>
       <c r="R135" s="46">
         <f>COUNTIF(D3:D59,Q135)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S135" s="39"/>
       <c r="T135" s="39"/>
@@ -45192,7 +45245,7 @@
       </c>
       <c r="R150" s="42">
         <f>SUM(R119:R149)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S150" s="39"/>
       <c r="T150" s="39"/>
@@ -45277,6 +45330,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="P38:R38"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="M2:N2"/>
@@ -45288,13 +45346,8 @@
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="J29:K29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J116" r:id="rId1" xr:uid="{24F98E59-04E2-4995-A47A-0D179F9D60FA}"/>

--- a/spreadsheets/Games.xlsx
+++ b/spreadsheets/Games.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ucer0.github.io\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B26B28-6904-46FE-8573-A433E3AE228F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63270D8-DD60-4E29-A5B8-E8A67BB6C223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="553">
   <si>
     <t>Nier: Automata</t>
   </si>
@@ -2242,6 +2242,21 @@
   </si>
   <si>
     <t>Last Guardian (7h 24m), Trails SC (17h 19m)</t>
+  </si>
+  <si>
+    <t>Mouthwashing</t>
+  </si>
+  <si>
+    <t>Trails 3rd (20h 24m)</t>
+  </si>
+  <si>
+    <t>Granblue Versus Rising</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda: Echoes of Wisdom</t>
+  </si>
+  <si>
+    <t>16-nov.</t>
   </si>
 </sst>
 </file>
@@ -2669,7 +2684,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3164,9 +3179,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14881,17 +14893,17 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="167">
+      <c r="B2" s="166">
         <v>2019</v>
       </c>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
       <c r="E2" s="67"/>
-      <c r="F2" s="173" t="s">
+      <c r="F2" s="172" t="s">
         <v>261</v>
       </c>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
       <c r="I2" s="35"/>
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
@@ -14922,18 +14934,18 @@
         <v>77</v>
       </c>
       <c r="E3" s="68"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="172"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="6"/>
       <c r="N3" s="29"/>
-      <c r="O3" s="172"/>
-      <c r="P3" s="172"/>
-      <c r="Q3" s="172"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="171"/>
+      <c r="Q3" s="171"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
@@ -14955,18 +14967,18 @@
         <v>2004</v>
       </c>
       <c r="E4" s="26"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="173"/>
-      <c r="H4" s="173"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="172"/>
+      <c r="H4" s="172"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="30"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="172"/>
-      <c r="P4" s="172"/>
-      <c r="Q4" s="172"/>
+      <c r="O4" s="171"/>
+      <c r="P4" s="171"/>
+      <c r="Q4" s="171"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
@@ -14988,18 +15000,18 @@
         <v>2017</v>
       </c>
       <c r="E5" s="26"/>
-      <c r="F5" s="173"/>
-      <c r="G5" s="173"/>
-      <c r="H5" s="173"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="172"/>
+      <c r="H5" s="172"/>
       <c r="I5" s="6"/>
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="172"/>
-      <c r="P5" s="172"/>
-      <c r="Q5" s="172"/>
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="171"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
@@ -15021,18 +15033,18 @@
         <v>2017</v>
       </c>
       <c r="E6" s="26"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
-      <c r="H6" s="173"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="172"/>
       <c r="I6" s="6"/>
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="172"/>
-      <c r="P6" s="172"/>
-      <c r="Q6" s="172"/>
+      <c r="O6" s="171"/>
+      <c r="P6" s="171"/>
+      <c r="Q6" s="171"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
@@ -15054,18 +15066,18 @@
         <v>2017</v>
       </c>
       <c r="E7" s="26"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="172"/>
+      <c r="H7" s="172"/>
       <c r="I7" s="6"/>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="172"/>
-      <c r="P7" s="172"/>
-      <c r="Q7" s="172"/>
+      <c r="O7" s="171"/>
+      <c r="P7" s="171"/>
+      <c r="Q7" s="171"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
@@ -15087,18 +15099,18 @@
         <v>2017</v>
       </c>
       <c r="E8" s="26"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="173"/>
-      <c r="H8" s="173"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="172"/>
+      <c r="H8" s="172"/>
       <c r="I8" s="6"/>
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="172"/>
-      <c r="P8" s="172"/>
-      <c r="Q8" s="172"/>
+      <c r="O8" s="171"/>
+      <c r="P8" s="171"/>
+      <c r="Q8" s="171"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
@@ -15120,18 +15132,18 @@
         <v>2016</v>
       </c>
       <c r="E9" s="26"/>
-      <c r="F9" s="173"/>
-      <c r="G9" s="173"/>
-      <c r="H9" s="173"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="172"/>
       <c r="I9" s="6"/>
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="172"/>
-      <c r="P9" s="172"/>
-      <c r="Q9" s="172"/>
+      <c r="O9" s="171"/>
+      <c r="P9" s="171"/>
+      <c r="Q9" s="171"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
@@ -15153,18 +15165,18 @@
         <v>2017</v>
       </c>
       <c r="E10" s="26"/>
-      <c r="F10" s="173"/>
-      <c r="G10" s="173"/>
-      <c r="H10" s="173"/>
+      <c r="F10" s="172"/>
+      <c r="G10" s="172"/>
+      <c r="H10" s="172"/>
       <c r="I10" s="6"/>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="7"/>
-      <c r="O10" s="172"/>
-      <c r="P10" s="172"/>
-      <c r="Q10" s="172"/>
+      <c r="O10" s="171"/>
+      <c r="P10" s="171"/>
+      <c r="Q10" s="171"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
@@ -15186,18 +15198,18 @@
         <v>2016</v>
       </c>
       <c r="E11" s="26"/>
-      <c r="F11" s="173"/>
-      <c r="G11" s="173"/>
-      <c r="H11" s="173"/>
+      <c r="F11" s="172"/>
+      <c r="G11" s="172"/>
+      <c r="H11" s="172"/>
       <c r="I11" s="6"/>
       <c r="J11" s="30"/>
       <c r="K11" s="30"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="172"/>
-      <c r="P11" s="172"/>
-      <c r="Q11" s="172"/>
+      <c r="O11" s="171"/>
+      <c r="P11" s="171"/>
+      <c r="Q11" s="171"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
@@ -15219,18 +15231,18 @@
         <v>2017</v>
       </c>
       <c r="E12" s="26"/>
-      <c r="F12" s="173"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="173"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="172"/>
+      <c r="H12" s="172"/>
       <c r="I12" s="6"/>
       <c r="J12" s="30"/>
       <c r="K12" s="30"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="172"/>
-      <c r="P12" s="172"/>
-      <c r="Q12" s="172"/>
+      <c r="O12" s="171"/>
+      <c r="P12" s="171"/>
+      <c r="Q12" s="171"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
@@ -15252,18 +15264,18 @@
         <v>2009</v>
       </c>
       <c r="E13" s="26"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="173"/>
+      <c r="F13" s="172"/>
+      <c r="G13" s="172"/>
+      <c r="H13" s="172"/>
       <c r="I13" s="6"/>
       <c r="J13" s="30"/>
       <c r="K13" s="30"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="172"/>
-      <c r="P13" s="172"/>
-      <c r="Q13" s="172"/>
+      <c r="O13" s="171"/>
+      <c r="P13" s="171"/>
+      <c r="Q13" s="171"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
@@ -15285,18 +15297,18 @@
         <v>2019</v>
       </c>
       <c r="E14" s="26"/>
-      <c r="F14" s="173"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="173"/>
+      <c r="F14" s="172"/>
+      <c r="G14" s="172"/>
+      <c r="H14" s="172"/>
       <c r="I14" s="6"/>
       <c r="J14" s="30"/>
       <c r="K14" s="30"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="172"/>
-      <c r="P14" s="172"/>
-      <c r="Q14" s="172"/>
+      <c r="O14" s="171"/>
+      <c r="P14" s="171"/>
+      <c r="Q14" s="171"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
@@ -15318,18 +15330,18 @@
         <v>2019</v>
       </c>
       <c r="E15" s="26"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="173"/>
+      <c r="F15" s="172"/>
+      <c r="G15" s="172"/>
+      <c r="H15" s="172"/>
       <c r="I15" s="6"/>
       <c r="J15" s="30"/>
       <c r="K15" s="30"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="172"/>
-      <c r="P15" s="172"/>
-      <c r="Q15" s="172"/>
+      <c r="O15" s="171"/>
+      <c r="P15" s="171"/>
+      <c r="Q15" s="171"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
@@ -15354,9 +15366,9 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="172"/>
-      <c r="P16" s="172"/>
-      <c r="Q16" s="172"/>
+      <c r="O16" s="171"/>
+      <c r="P16" s="171"/>
+      <c r="Q16" s="171"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
@@ -15367,9 +15379,9 @@
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
-      <c r="B17" s="169"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="169"/>
+      <c r="B17" s="168"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="168"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7"/>
@@ -15394,9 +15406,9 @@
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
-      <c r="B18" s="169"/>
-      <c r="C18" s="169"/>
-      <c r="D18" s="169"/>
+      <c r="B18" s="168"/>
+      <c r="C18" s="168"/>
+      <c r="D18" s="168"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="7"/>
@@ -15406,8 +15418,8 @@
       <c r="K18" s="30"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="170"/>
-      <c r="O18" s="171"/>
+      <c r="N18" s="169"/>
+      <c r="O18" s="170"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
@@ -15421,9 +15433,9 @@
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
-      <c r="B19" s="169"/>
-      <c r="C19" s="169"/>
-      <c r="D19" s="169"/>
+      <c r="B19" s="168"/>
+      <c r="C19" s="168"/>
+      <c r="D19" s="168"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7"/>
@@ -15433,8 +15445,8 @@
       <c r="K19" s="30"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="171"/>
-      <c r="O19" s="171"/>
+      <c r="N19" s="170"/>
+      <c r="O19" s="170"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
@@ -15460,8 +15472,8 @@
       <c r="K20" s="30"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="171"/>
-      <c r="O20" s="171"/>
+      <c r="N20" s="170"/>
+      <c r="O20" s="170"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
@@ -15487,8 +15499,8 @@
       <c r="K21" s="30"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="171"/>
-      <c r="O21" s="171"/>
+      <c r="N21" s="170"/>
+      <c r="O21" s="170"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
@@ -15514,8 +15526,8 @@
       <c r="K22" s="30"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-      <c r="N22" s="171"/>
-      <c r="O22" s="171"/>
+      <c r="N22" s="170"/>
+      <c r="O22" s="170"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
@@ -16002,7 +16014,7 @@
   <dimension ref="A1:Y159"/>
   <sheetViews>
     <sheetView topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16699,8 +16711,8 @@
         <v>11</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="175"/>
-      <c r="K17" s="176"/>
+      <c r="J17" s="174"/>
+      <c r="K17" s="175"/>
       <c r="L17" s="6"/>
       <c r="M17" s="39"/>
       <c r="N17" s="39"/>
@@ -16738,8 +16750,8 @@
         <v>1</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="174"/>
-      <c r="K18" s="174"/>
+      <c r="J18" s="173"/>
+      <c r="K18" s="173"/>
       <c r="L18" s="6"/>
       <c r="M18" s="39"/>
       <c r="N18" s="39"/>
@@ -20964,7 +20976,7 @@
         <v>4.197916666666667</v>
       </c>
       <c r="I3" s="6"/>
-      <c r="J3" s="181" t="s">
+      <c r="J3" s="180" t="s">
         <v>118</v>
       </c>
       <c r="K3" s="80" t="s">
@@ -21038,7 +21050,7 @@
         <v>0.30138888888888887</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="182"/>
+      <c r="J4" s="181"/>
       <c r="K4" s="54" t="s">
         <v>127</v>
       </c>
@@ -21110,7 +21122,7 @@
         <v>0.2076388888888889</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="182"/>
+      <c r="J5" s="181"/>
       <c r="K5" s="73" t="s">
         <v>132</v>
       </c>
@@ -21182,7 +21194,7 @@
         <v>1.2437499999999999</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="182"/>
+      <c r="J6" s="181"/>
       <c r="K6" s="54" t="s">
         <v>129</v>
       </c>
@@ -21254,7 +21266,7 @@
         <v>0.27916666666666667</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="182"/>
+      <c r="J7" s="181"/>
       <c r="K7" s="73" t="s">
         <v>136</v>
       </c>
@@ -21326,7 +21338,7 @@
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="182"/>
+      <c r="J8" s="181"/>
       <c r="K8" s="54" t="s">
         <v>137</v>
       </c>
@@ -21398,7 +21410,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="181" t="s">
+      <c r="J9" s="180" t="s">
         <v>119</v>
       </c>
       <c r="K9" s="71" t="s">
@@ -21472,7 +21484,7 @@
         <v>0.19027777777777777</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="182"/>
+      <c r="J10" s="181"/>
       <c r="K10" s="54" t="s">
         <v>127</v>
       </c>
@@ -21544,7 +21556,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="182"/>
+      <c r="J11" s="181"/>
       <c r="K11" s="73" t="s">
         <v>132</v>
       </c>
@@ -21616,7 +21628,7 @@
         <v>1.7097222222222221</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="182"/>
+      <c r="J12" s="181"/>
       <c r="K12" s="54" t="s">
         <v>129</v>
       </c>
@@ -21688,7 +21700,7 @@
         <v>0.15972222222222224</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="182"/>
+      <c r="J13" s="181"/>
       <c r="K13" s="73" t="s">
         <v>141</v>
       </c>
@@ -21760,7 +21772,7 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="181" t="s">
+      <c r="J14" s="180" t="s">
         <v>120</v>
       </c>
       <c r="K14" s="10" t="s">
@@ -21834,7 +21846,7 @@
         <v>0.59652777777777777</v>
       </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="182"/>
+      <c r="J15" s="181"/>
       <c r="K15" s="73" t="s">
         <v>127</v>
       </c>
@@ -21906,7 +21918,7 @@
         <v>13</v>
       </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="182"/>
+      <c r="J16" s="181"/>
       <c r="K16" s="54" t="s">
         <v>132</v>
       </c>
@@ -21978,7 +21990,7 @@
         <v>13</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="182"/>
+      <c r="J17" s="181"/>
       <c r="K17" s="73" t="s">
         <v>129</v>
       </c>
@@ -22050,7 +22062,7 @@
         <v>0.24583333333333335</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="182"/>
+      <c r="J18" s="181"/>
       <c r="K18" s="54" t="s">
         <v>144</v>
       </c>
@@ -22122,7 +22134,7 @@
         <v>0.49513888888888885</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="183"/>
+      <c r="J19" s="182"/>
       <c r="K19" s="76" t="s">
         <v>150</v>
       </c>
@@ -22194,7 +22206,7 @@
         <v>0.20972222222222223</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="J20" s="181" t="s">
+      <c r="J20" s="180" t="s">
         <v>143</v>
       </c>
       <c r="K20" s="10" t="s">
@@ -22268,7 +22280,7 @@
         <v>0.25486111111111109</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="183"/>
+      <c r="J21" s="182"/>
       <c r="K21" s="76" t="s">
         <v>141</v>
       </c>
@@ -22350,7 +22362,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="182" t="s">
+      <c r="J22" s="181" t="s">
         <v>161</v>
       </c>
       <c r="K22" s="54" t="s">
@@ -22436,7 +22448,7 @@
         <v>0.26944444444444443</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="182"/>
+      <c r="J23" s="181"/>
       <c r="K23" s="80" t="s">
         <v>169</v>
       </c>
@@ -22520,7 +22532,7 @@
         <v>0.3263888888888889</v>
       </c>
       <c r="I24" s="39"/>
-      <c r="J24" s="182"/>
+      <c r="J24" s="181"/>
       <c r="K24" s="54" t="s">
         <v>163</v>
       </c>
@@ -22604,7 +22616,7 @@
         <v>0.32847222222222222</v>
       </c>
       <c r="I25" s="39"/>
-      <c r="J25" s="182"/>
+      <c r="J25" s="181"/>
       <c r="K25" s="73" t="s">
         <v>141</v>
       </c>
@@ -22688,7 +22700,7 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="I26" s="39"/>
-      <c r="J26" s="183"/>
+      <c r="J26" s="182"/>
       <c r="K26" s="11" t="s">
         <v>162</v>
       </c>
@@ -22772,7 +22784,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="I27" s="39"/>
-      <c r="J27" s="181" t="s">
+      <c r="J27" s="180" t="s">
         <v>171</v>
       </c>
       <c r="K27" s="73" t="s">
@@ -22858,7 +22870,7 @@
         <v>0.22291666666666665</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="182"/>
+      <c r="J28" s="181"/>
       <c r="K28" s="101" t="s">
         <v>163</v>
       </c>
@@ -22942,7 +22954,7 @@
         <v>0.13194444444444445</v>
       </c>
       <c r="I29" s="39"/>
-      <c r="J29" s="182"/>
+      <c r="J29" s="181"/>
       <c r="K29" s="73" t="s">
         <v>29</v>
       </c>
@@ -23026,7 +23038,7 @@
         <v>13</v>
       </c>
       <c r="I30" s="39"/>
-      <c r="J30" s="182"/>
+      <c r="J30" s="181"/>
       <c r="K30" s="101" t="s">
         <v>136</v>
       </c>
@@ -23110,7 +23122,7 @@
         <v>0.43888888888888888</v>
       </c>
       <c r="I31" s="39"/>
-      <c r="J31" s="183"/>
+      <c r="J31" s="182"/>
       <c r="K31" s="73" t="s">
         <v>141</v>
       </c>
@@ -23194,7 +23206,7 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="I32" s="39"/>
-      <c r="J32" s="181" t="s">
+      <c r="J32" s="180" t="s">
         <v>184</v>
       </c>
       <c r="K32" s="107" t="s">
@@ -23280,7 +23292,7 @@
         <v>2.7097222222222221</v>
       </c>
       <c r="I33" s="39"/>
-      <c r="J33" s="182"/>
+      <c r="J33" s="181"/>
       <c r="K33" s="73" t="s">
         <v>179</v>
       </c>
@@ -23366,7 +23378,7 @@
         <v>13</v>
       </c>
       <c r="I34" s="39"/>
-      <c r="J34" s="182"/>
+      <c r="J34" s="181"/>
       <c r="K34" s="54" t="s">
         <v>199</v>
       </c>
@@ -23449,7 +23461,7 @@
         <v>0.11041666666666666</v>
       </c>
       <c r="I35" s="39"/>
-      <c r="J35" s="182"/>
+      <c r="J35" s="181"/>
       <c r="K35" s="80" t="s">
         <v>198</v>
       </c>
@@ -23521,7 +23533,7 @@
         <v>0.37083333333333335</v>
       </c>
       <c r="I36" s="39"/>
-      <c r="J36" s="182"/>
+      <c r="J36" s="181"/>
       <c r="K36" s="54" t="s">
         <v>141</v>
       </c>
@@ -23529,9 +23541,9 @@
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="M36" s="39"/>
-      <c r="N36" s="177"/>
-      <c r="O36" s="177"/>
-      <c r="P36" s="177"/>
+      <c r="N36" s="176"/>
+      <c r="O36" s="176"/>
+      <c r="P36" s="176"/>
       <c r="Q36" s="111"/>
       <c r="R36" s="16"/>
       <c r="S36" s="16"/>
@@ -23593,7 +23605,7 @@
         <v>0.80694444444444446</v>
       </c>
       <c r="I37" s="39"/>
-      <c r="J37" s="182"/>
+      <c r="J37" s="181"/>
       <c r="K37" s="80" t="s">
         <v>196</v>
       </c>
@@ -23601,9 +23613,9 @@
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="M37" s="39"/>
-      <c r="N37" s="177"/>
-      <c r="O37" s="177"/>
-      <c r="P37" s="177"/>
+      <c r="N37" s="176"/>
+      <c r="O37" s="176"/>
+      <c r="P37" s="176"/>
       <c r="Q37" s="111"/>
       <c r="R37" s="16"/>
       <c r="S37" s="16"/>
@@ -23665,7 +23677,7 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="I38" s="39"/>
-      <c r="J38" s="183"/>
+      <c r="J38" s="182"/>
       <c r="K38" s="11" t="s">
         <v>202</v>
       </c>
@@ -23673,9 +23685,9 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="M38" s="39"/>
-      <c r="N38" s="177"/>
-      <c r="O38" s="177"/>
-      <c r="P38" s="177"/>
+      <c r="N38" s="176"/>
+      <c r="O38" s="176"/>
+      <c r="P38" s="176"/>
       <c r="Q38" s="111"/>
       <c r="R38" s="16"/>
       <c r="S38" s="16"/>
@@ -23723,7 +23735,7 @@
       <c r="G39" s="30"/>
       <c r="H39" s="61"/>
       <c r="I39" s="39"/>
-      <c r="J39" s="181" t="s">
+      <c r="J39" s="180" t="s">
         <v>209</v>
       </c>
       <c r="K39" s="116" t="s">
@@ -23733,9 +23745,9 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="M39" s="39"/>
-      <c r="N39" s="177"/>
-      <c r="O39" s="177"/>
-      <c r="P39" s="177"/>
+      <c r="N39" s="176"/>
+      <c r="O39" s="176"/>
+      <c r="P39" s="176"/>
       <c r="Q39" s="124"/>
       <c r="R39" s="16"/>
       <c r="S39" s="16"/>
@@ -23783,7 +23795,7 @@
       <c r="G40" s="39"/>
       <c r="H40" s="62"/>
       <c r="I40" s="39"/>
-      <c r="J40" s="182"/>
+      <c r="J40" s="181"/>
       <c r="K40" s="113" t="s">
         <v>210</v>
       </c>
@@ -23791,9 +23803,9 @@
         <v>0.3666666666666667</v>
       </c>
       <c r="M40" s="39"/>
-      <c r="N40" s="177"/>
-      <c r="O40" s="177"/>
-      <c r="P40" s="177"/>
+      <c r="N40" s="176"/>
+      <c r="O40" s="176"/>
+      <c r="P40" s="176"/>
       <c r="Q40" s="124"/>
       <c r="R40" s="16"/>
       <c r="S40" s="16"/>
@@ -23840,7 +23852,7 @@
       <c r="G41" s="30"/>
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
-      <c r="J41" s="182"/>
+      <c r="J41" s="181"/>
       <c r="K41" s="112" t="s">
         <v>179</v>
       </c>
@@ -23848,9 +23860,9 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="M41" s="39"/>
-      <c r="N41" s="177"/>
-      <c r="O41" s="177"/>
-      <c r="P41" s="177"/>
+      <c r="N41" s="176"/>
+      <c r="O41" s="176"/>
+      <c r="P41" s="176"/>
       <c r="Q41" s="124"/>
       <c r="R41" s="16"/>
       <c r="S41" s="16"/>
@@ -23898,7 +23910,7 @@
       <c r="G42" s="30"/>
       <c r="H42" s="61"/>
       <c r="I42" s="39"/>
-      <c r="J42" s="182"/>
+      <c r="J42" s="181"/>
       <c r="K42" s="114" t="s">
         <v>136</v>
       </c>
@@ -23956,7 +23968,7 @@
       <c r="G43" s="39"/>
       <c r="H43" s="62"/>
       <c r="I43" s="39"/>
-      <c r="J43" s="182"/>
+      <c r="J43" s="181"/>
       <c r="K43" s="112" t="s">
         <v>212</v>
       </c>
@@ -24014,7 +24026,7 @@
       <c r="G44" s="39"/>
       <c r="H44" s="62"/>
       <c r="I44" s="39"/>
-      <c r="J44" s="182"/>
+      <c r="J44" s="181"/>
       <c r="K44" s="113" t="s">
         <v>213</v>
       </c>
@@ -24072,7 +24084,7 @@
       <c r="G45" s="39"/>
       <c r="H45" s="62"/>
       <c r="I45" s="39"/>
-      <c r="J45" s="183"/>
+      <c r="J45" s="182"/>
       <c r="K45" s="115" t="s">
         <v>141</v>
       </c>
@@ -24130,7 +24142,7 @@
       <c r="G46" s="39"/>
       <c r="H46" s="62"/>
       <c r="I46" s="39"/>
-      <c r="J46" s="178" t="s">
+      <c r="J46" s="177" t="s">
         <v>217</v>
       </c>
       <c r="K46" s="119" t="s">
@@ -24190,7 +24202,7 @@
       <c r="G47" s="39"/>
       <c r="H47" s="62"/>
       <c r="I47" s="39"/>
-      <c r="J47" s="179"/>
+      <c r="J47" s="178"/>
       <c r="K47" s="80" t="s">
         <v>179</v>
       </c>
@@ -24248,7 +24260,7 @@
       <c r="G48" s="39"/>
       <c r="H48" s="62"/>
       <c r="I48" s="39"/>
-      <c r="J48" s="179"/>
+      <c r="J48" s="178"/>
       <c r="K48" s="101" t="s">
         <v>136</v>
       </c>
@@ -24306,7 +24318,7 @@
       <c r="G49" s="39"/>
       <c r="H49" s="62"/>
       <c r="I49" s="39"/>
-      <c r="J49" s="180"/>
+      <c r="J49" s="179"/>
       <c r="K49" s="120" t="s">
         <v>213</v>
       </c>
@@ -24364,7 +24376,7 @@
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
       <c r="I50" s="39"/>
-      <c r="J50" s="178" t="s">
+      <c r="J50" s="177" t="s">
         <v>232</v>
       </c>
       <c r="K50" s="121" t="s">
@@ -24424,7 +24436,7 @@
       <c r="G51" s="39"/>
       <c r="H51" s="39"/>
       <c r="I51" s="39"/>
-      <c r="J51" s="179"/>
+      <c r="J51" s="178"/>
       <c r="K51" s="122" t="s">
         <v>179</v>
       </c>
@@ -24482,7 +24494,7 @@
       <c r="G52" s="39"/>
       <c r="H52" s="39"/>
       <c r="I52" s="39"/>
-      <c r="J52" s="179"/>
+      <c r="J52" s="178"/>
       <c r="K52" s="114" t="s">
         <v>235</v>
       </c>
@@ -24540,7 +24552,7 @@
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
       <c r="I53" s="39"/>
-      <c r="J53" s="180"/>
+      <c r="J53" s="179"/>
       <c r="K53" s="115" t="s">
         <v>211</v>
       </c>
@@ -24598,7 +24610,7 @@
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
       <c r="I54" s="39"/>
-      <c r="J54" s="178" t="s">
+      <c r="J54" s="177" t="s">
         <v>243</v>
       </c>
       <c r="K54" s="121" t="s">
@@ -24658,7 +24670,7 @@
       <c r="G55" s="39"/>
       <c r="H55" s="39"/>
       <c r="I55" s="39"/>
-      <c r="J55" s="179"/>
+      <c r="J55" s="178"/>
       <c r="K55" s="122" t="s">
         <v>242</v>
       </c>
@@ -24716,7 +24728,7 @@
       <c r="G56" s="39"/>
       <c r="H56" s="39"/>
       <c r="I56" s="39"/>
-      <c r="J56" s="179"/>
+      <c r="J56" s="178"/>
       <c r="K56" s="114" t="s">
         <v>29</v>
       </c>
@@ -24774,7 +24786,7 @@
       <c r="G57" s="39"/>
       <c r="H57" s="39"/>
       <c r="I57" s="39"/>
-      <c r="J57" s="180"/>
+      <c r="J57" s="179"/>
       <c r="K57" s="115" t="s">
         <v>199</v>
       </c>
@@ -24832,7 +24844,7 @@
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
       <c r="I58" s="39"/>
-      <c r="J58" s="178" t="s">
+      <c r="J58" s="177" t="s">
         <v>246</v>
       </c>
       <c r="K58" s="121" t="s">
@@ -24892,7 +24904,7 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
       <c r="I59" s="39"/>
-      <c r="J59" s="179"/>
+      <c r="J59" s="178"/>
       <c r="K59" s="122" t="s">
         <v>235</v>
       </c>
@@ -24950,7 +24962,7 @@
       <c r="G60" s="39"/>
       <c r="H60" s="39"/>
       <c r="I60" s="39"/>
-      <c r="J60" s="179"/>
+      <c r="J60" s="178"/>
       <c r="K60" s="114" t="s">
         <v>242</v>
       </c>
@@ -25008,7 +25020,7 @@
       <c r="G61" s="39"/>
       <c r="H61" s="39"/>
       <c r="I61" s="39"/>
-      <c r="J61" s="179"/>
+      <c r="J61" s="178"/>
       <c r="K61" s="122" t="s">
         <v>245</v>
       </c>
@@ -25066,7 +25078,7 @@
       <c r="G62" s="39"/>
       <c r="H62" s="39"/>
       <c r="I62" s="39"/>
-      <c r="J62" s="179"/>
+      <c r="J62" s="178"/>
       <c r="K62" s="114" t="s">
         <v>29</v>
       </c>
@@ -25124,7 +25136,7 @@
       <c r="G63" s="39"/>
       <c r="H63" s="39"/>
       <c r="I63" s="39"/>
-      <c r="J63" s="180"/>
+      <c r="J63" s="179"/>
       <c r="K63" s="115" t="s">
         <v>199</v>
       </c>
@@ -30982,15 +30994,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="185" t="s">
+      <c r="J2" s="184" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="187"/>
+      <c r="K2" s="186"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="187" t="s">
+      <c r="M2" s="186" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="186"/>
+      <c r="N2" s="185"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -31290,15 +31302,15 @@
         <v>0.20416666666666669</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="185" t="s">
+      <c r="J9" s="184" t="s">
         <v>286</v>
       </c>
-      <c r="K9" s="187"/>
+      <c r="K9" s="186"/>
       <c r="L9" s="136"/>
-      <c r="M9" s="187" t="s">
+      <c r="M9" s="186" t="s">
         <v>287</v>
       </c>
-      <c r="N9" s="186"/>
+      <c r="N9" s="185"/>
       <c r="O9" s="39"/>
       <c r="P9" s="39"/>
       <c r="Q9" s="39"/>
@@ -31505,15 +31517,15 @@
         <v>0.15208333333333332</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="185" t="s">
+      <c r="J14" s="184" t="s">
         <v>288</v>
       </c>
-      <c r="K14" s="186"/>
+      <c r="K14" s="185"/>
       <c r="L14" s="136"/>
-      <c r="M14" s="185" t="s">
+      <c r="M14" s="184" t="s">
         <v>289</v>
       </c>
-      <c r="N14" s="186"/>
+      <c r="N14" s="185"/>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
@@ -31817,15 +31829,15 @@
         <v>0.35138888888888892</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="185" t="s">
+      <c r="J21" s="184" t="s">
         <v>290</v>
       </c>
-      <c r="K21" s="186"/>
+      <c r="K21" s="185"/>
       <c r="L21" s="136"/>
-      <c r="M21" s="185" t="s">
+      <c r="M21" s="184" t="s">
         <v>291</v>
       </c>
-      <c r="N21" s="186"/>
+      <c r="N21" s="185"/>
       <c r="O21" s="39"/>
       <c r="P21" s="89" t="s">
         <v>31</v>
@@ -32207,15 +32219,15 @@
         <v>0.11805555555555557</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="185" t="s">
+      <c r="J28" s="184" t="s">
         <v>292</v>
       </c>
-      <c r="K28" s="186"/>
+      <c r="K28" s="185"/>
       <c r="L28" s="136"/>
-      <c r="M28" s="185" t="s">
+      <c r="M28" s="184" t="s">
         <v>293</v>
       </c>
-      <c r="N28" s="186"/>
+      <c r="N28" s="185"/>
       <c r="O28" s="39"/>
       <c r="P28" s="93" t="s">
         <v>38</v>
@@ -32562,15 +32574,15 @@
       <c r="G35" s="30"/>
       <c r="H35" s="61"/>
       <c r="I35" s="39"/>
-      <c r="J35" s="185" t="s">
+      <c r="J35" s="184" t="s">
         <v>294</v>
       </c>
-      <c r="K35" s="186"/>
+      <c r="K35" s="185"/>
       <c r="L35" s="136"/>
-      <c r="M35" s="185" t="s">
+      <c r="M35" s="184" t="s">
         <v>295</v>
       </c>
-      <c r="N35" s="186"/>
+      <c r="N35" s="185"/>
       <c r="O35" s="39"/>
       <c r="P35" s="39"/>
       <c r="Q35" s="39"/>
@@ -32605,9 +32617,9 @@
         <v>4.9305555555555554E-2</v>
       </c>
       <c r="O36" s="39"/>
-      <c r="P36" s="177"/>
-      <c r="Q36" s="177"/>
-      <c r="R36" s="177"/>
+      <c r="P36" s="176"/>
+      <c r="Q36" s="176"/>
+      <c r="R36" s="176"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -32638,9 +32650,9 @@
         <v>0.18472222222222223</v>
       </c>
       <c r="O37" s="39"/>
-      <c r="P37" s="184"/>
-      <c r="Q37" s="184"/>
-      <c r="R37" s="184"/>
+      <c r="P37" s="183"/>
+      <c r="Q37" s="183"/>
+      <c r="R37" s="183"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -32671,9 +32683,9 @@
         <v>0.21249999999999999</v>
       </c>
       <c r="O38" s="39"/>
-      <c r="P38" s="177"/>
-      <c r="Q38" s="177"/>
-      <c r="R38" s="177"/>
+      <c r="P38" s="176"/>
+      <c r="Q38" s="176"/>
+      <c r="R38" s="176"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -32704,9 +32716,9 @@
         <v>0.26527777777777778</v>
       </c>
       <c r="O39" s="39"/>
-      <c r="P39" s="177"/>
-      <c r="Q39" s="177"/>
-      <c r="R39" s="177"/>
+      <c r="P39" s="176"/>
+      <c r="Q39" s="176"/>
+      <c r="R39" s="176"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -32737,9 +32749,9 @@
         <v>0.75347222222222221</v>
       </c>
       <c r="O40" s="39"/>
-      <c r="P40" s="177"/>
-      <c r="Q40" s="177"/>
-      <c r="R40" s="177"/>
+      <c r="P40" s="176"/>
+      <c r="Q40" s="176"/>
+      <c r="R40" s="176"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -32765,9 +32777,9 @@
         <v>1.0513888888888889</v>
       </c>
       <c r="O41" s="39"/>
-      <c r="P41" s="177"/>
-      <c r="Q41" s="177"/>
-      <c r="R41" s="177"/>
+      <c r="P41" s="176"/>
+      <c r="Q41" s="176"/>
+      <c r="R41" s="176"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -35842,15 +35854,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="185" t="s">
+      <c r="J2" s="184" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="187"/>
+      <c r="K2" s="186"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="187" t="s">
+      <c r="M2" s="186" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="186"/>
+      <c r="N2" s="185"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -36180,15 +36192,15 @@
         <v>1.1847222222222222</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="185" t="s">
+      <c r="J10" s="184" t="s">
         <v>286</v>
       </c>
-      <c r="K10" s="186"/>
+      <c r="K10" s="185"/>
       <c r="L10" s="136"/>
-      <c r="M10" s="185" t="s">
+      <c r="M10" s="184" t="s">
         <v>287</v>
       </c>
-      <c r="N10" s="186"/>
+      <c r="N10" s="185"/>
       <c r="O10" s="39"/>
       <c r="P10" s="39"/>
       <c r="Q10" s="39"/>
@@ -36485,15 +36497,15 @@
         <v>6.063194444444445</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="185" t="s">
+      <c r="J17" s="184" t="s">
         <v>288</v>
       </c>
-      <c r="K17" s="186"/>
+      <c r="K17" s="185"/>
       <c r="L17" s="136"/>
-      <c r="M17" s="185" t="s">
+      <c r="M17" s="184" t="s">
         <v>289</v>
       </c>
-      <c r="N17" s="186"/>
+      <c r="N17" s="185"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
@@ -36715,15 +36727,15 @@
         <v>0.50555555555555554</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="185" t="s">
+      <c r="J22" s="184" t="s">
         <v>290</v>
       </c>
-      <c r="K22" s="186"/>
+      <c r="K22" s="185"/>
       <c r="L22" s="136"/>
-      <c r="M22" s="185" t="s">
+      <c r="M22" s="184" t="s">
         <v>291</v>
       </c>
-      <c r="N22" s="186"/>
+      <c r="N22" s="185"/>
       <c r="O22" s="39"/>
       <c r="P22" s="63" t="s">
         <v>32</v>
@@ -37074,15 +37086,15 @@
         <v>2.6388888888888889E-2</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="185" t="s">
+      <c r="J28" s="184" t="s">
         <v>292</v>
       </c>
-      <c r="K28" s="186"/>
+      <c r="K28" s="185"/>
       <c r="L28" s="136"/>
-      <c r="M28" s="185" t="s">
+      <c r="M28" s="184" t="s">
         <v>293</v>
       </c>
-      <c r="N28" s="186"/>
+      <c r="N28" s="185"/>
       <c r="O28" s="39"/>
       <c r="P28" s="93" t="s">
         <v>38</v>
@@ -37448,15 +37460,15 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="I34" s="39"/>
-      <c r="J34" s="185" t="s">
+      <c r="J34" s="184" t="s">
         <v>294</v>
       </c>
-      <c r="K34" s="186"/>
+      <c r="K34" s="185"/>
       <c r="L34" s="136"/>
-      <c r="M34" s="185" t="s">
+      <c r="M34" s="184" t="s">
         <v>295</v>
       </c>
-      <c r="N34" s="186"/>
+      <c r="N34" s="185"/>
       <c r="O34" s="39"/>
       <c r="P34" s="125" t="s">
         <v>77</v>
@@ -37563,9 +37575,9 @@
         <v>0.36944444444444446</v>
       </c>
       <c r="O36" s="39"/>
-      <c r="P36" s="177"/>
-      <c r="Q36" s="177"/>
-      <c r="R36" s="177"/>
+      <c r="P36" s="176"/>
+      <c r="Q36" s="176"/>
+      <c r="R36" s="176"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -37610,9 +37622,9 @@
         <v>7.9166666666666663E-2</v>
       </c>
       <c r="O37" s="39"/>
-      <c r="P37" s="184"/>
-      <c r="Q37" s="177"/>
-      <c r="R37" s="177"/>
+      <c r="P37" s="183"/>
+      <c r="Q37" s="176"/>
+      <c r="R37" s="176"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -37644,9 +37656,9 @@
       </c>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="177"/>
-      <c r="Q38" s="177"/>
-      <c r="R38" s="177"/>
+      <c r="P38" s="176"/>
+      <c r="Q38" s="176"/>
+      <c r="R38" s="176"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -37664,9 +37676,9 @@
       <c r="H39" s="138"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="177"/>
-      <c r="Q39" s="177"/>
-      <c r="R39" s="177"/>
+      <c r="P39" s="176"/>
+      <c r="Q39" s="176"/>
+      <c r="R39" s="176"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -37684,9 +37696,9 @@
       <c r="H40" s="61"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="177"/>
-      <c r="Q40" s="177"/>
-      <c r="R40" s="177"/>
+      <c r="P40" s="176"/>
+      <c r="Q40" s="176"/>
+      <c r="R40" s="176"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -37704,9 +37716,9 @@
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="177"/>
-      <c r="Q41" s="177"/>
-      <c r="R41" s="177"/>
+      <c r="P41" s="176"/>
+      <c r="Q41" s="176"/>
+      <c r="R41" s="176"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -40696,8 +40708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{945572C7-9529-4441-AC5C-E60B6D0FDFB2}">
   <dimension ref="A1:Z153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -40774,15 +40786,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="185" t="s">
+      <c r="J2" s="184" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="186"/>
+      <c r="K2" s="185"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="185" t="s">
+      <c r="M2" s="184" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="186"/>
+      <c r="N2" s="185"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -40988,15 +41000,15 @@
         <v>0.33749999999999997</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="185" t="s">
+      <c r="J7" s="184" t="s">
         <v>286</v>
       </c>
-      <c r="K7" s="186"/>
+      <c r="K7" s="185"/>
       <c r="L7" s="136"/>
-      <c r="M7" s="185" t="s">
+      <c r="M7" s="184" t="s">
         <v>287</v>
       </c>
-      <c r="N7" s="186"/>
+      <c r="N7" s="185"/>
       <c r="O7" s="39"/>
       <c r="P7" s="39"/>
       <c r="Q7" s="39"/>
@@ -41203,15 +41215,15 @@
         <v>0.48819444444444443</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="185" t="s">
+      <c r="J12" s="184" t="s">
         <v>288</v>
       </c>
-      <c r="K12" s="186"/>
+      <c r="K12" s="185"/>
       <c r="L12" s="136"/>
-      <c r="M12" s="185" t="s">
+      <c r="M12" s="184" t="s">
         <v>289</v>
       </c>
-      <c r="N12" s="186"/>
+      <c r="N12" s="185"/>
       <c r="O12" s="39"/>
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
@@ -41461,15 +41473,15 @@
         <v>2.6659722222222224</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="185" t="s">
+      <c r="J18" s="184" t="s">
         <v>290</v>
       </c>
-      <c r="K18" s="186"/>
+      <c r="K18" s="185"/>
       <c r="L18" s="136"/>
-      <c r="M18" s="185" t="s">
+      <c r="M18" s="184" t="s">
         <v>291</v>
       </c>
-      <c r="N18" s="186"/>
+      <c r="N18" s="185"/>
       <c r="O18" s="39"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="39"/>
@@ -41706,15 +41718,15 @@
         <v>1.8131944444444446</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="185" t="s">
+      <c r="J23" s="184" t="s">
         <v>292</v>
       </c>
-      <c r="K23" s="186"/>
+      <c r="K23" s="185"/>
       <c r="L23" s="136"/>
-      <c r="M23" s="185" t="s">
+      <c r="M23" s="184" t="s">
         <v>293</v>
       </c>
-      <c r="N23" s="186"/>
+      <c r="N23" s="185"/>
       <c r="O23" s="39"/>
       <c r="P23" s="94" t="s">
         <v>33</v>
@@ -41826,10 +41838,10 @@
         <v>545</v>
       </c>
       <c r="G25" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="166" t="s">
-        <v>13</v>
+        <v>239</v>
+      </c>
+      <c r="H25" s="82">
+        <v>1.85</v>
       </c>
       <c r="I25" s="39"/>
       <c r="J25" s="113" t="s">
@@ -41877,12 +41889,24 @@
       <c r="B26" s="78">
         <v>24</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="153"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="60"/>
+      <c r="C26" s="54" t="s">
+        <v>548</v>
+      </c>
+      <c r="D26" s="54">
+        <v>2024</v>
+      </c>
+      <c r="E26" s="153" t="s">
+        <v>440</v>
+      </c>
+      <c r="F26" s="69" t="s">
+        <v>241</v>
+      </c>
+      <c r="G26" s="69" t="s">
+        <v>241</v>
+      </c>
+      <c r="H26" s="60">
+        <v>0.1</v>
+      </c>
       <c r="I26" s="39"/>
       <c r="J26" s="112" t="s">
         <v>29</v>
@@ -41929,12 +41953,24 @@
       <c r="B27" s="70">
         <v>25</v>
       </c>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="75"/>
+      <c r="C27" s="73" t="s">
+        <v>551</v>
+      </c>
+      <c r="D27" s="73">
+        <v>2024</v>
+      </c>
+      <c r="E27" s="152" t="s">
+        <v>441</v>
+      </c>
+      <c r="F27" s="74" t="s">
+        <v>552</v>
+      </c>
+      <c r="G27" s="74" t="s">
+        <v>469</v>
+      </c>
+      <c r="H27" s="75">
+        <v>1.0965277777777778</v>
+      </c>
       <c r="I27" s="39"/>
       <c r="J27" s="14" t="s">
         <v>539</v>
@@ -42022,15 +42058,15 @@
       <c r="G29" s="74"/>
       <c r="H29" s="75"/>
       <c r="I29" s="39"/>
-      <c r="J29" s="185" t="s">
+      <c r="J29" s="184" t="s">
         <v>294</v>
       </c>
-      <c r="K29" s="186"/>
+      <c r="K29" s="185"/>
       <c r="L29" s="136"/>
-      <c r="M29" s="185" t="s">
+      <c r="M29" s="184" t="s">
         <v>295</v>
       </c>
-      <c r="N29" s="186"/>
+      <c r="N29" s="185"/>
       <c r="O29" s="39"/>
       <c r="P29" s="94" t="s">
         <v>39</v>
@@ -42072,7 +42108,9 @@
       <c r="G30" s="69"/>
       <c r="H30" s="60"/>
       <c r="I30" s="39"/>
-      <c r="J30" s="122"/>
+      <c r="J30" s="122" t="s">
+        <v>550</v>
+      </c>
       <c r="K30" s="132"/>
       <c r="L30" s="137"/>
       <c r="M30" s="131"/>
@@ -42118,7 +42156,9 @@
       <c r="G31" s="74"/>
       <c r="H31" s="75"/>
       <c r="I31" s="39"/>
-      <c r="J31" s="113"/>
+      <c r="J31" s="113" t="s">
+        <v>377</v>
+      </c>
       <c r="K31" s="133"/>
       <c r="L31" s="137"/>
       <c r="M31" s="101"/>
@@ -42164,8 +42204,10 @@
       <c r="G32" s="69"/>
       <c r="H32" s="60"/>
       <c r="I32" s="39"/>
-      <c r="J32" s="135"/>
-      <c r="K32" s="77"/>
+      <c r="J32" s="112" t="s">
+        <v>136</v>
+      </c>
+      <c r="K32" s="75"/>
       <c r="L32" s="137"/>
       <c r="M32" s="135"/>
       <c r="N32" s="77"/>
@@ -42180,9 +42222,13 @@
         <v>0</v>
       </c>
       <c r="T32" s="39"/>
-      <c r="U32" s="99"/>
+      <c r="U32" s="99" t="s">
+        <v>549</v>
+      </c>
       <c r="V32" s="146"/>
-      <c r="W32" s="147"/>
+      <c r="W32" s="147">
+        <v>0.85</v>
+      </c>
       <c r="X32" s="147"/>
       <c r="Y32" s="147"/>
     </row>
@@ -42196,6 +42242,10 @@
       <c r="G33" s="53"/>
       <c r="H33" s="138"/>
       <c r="I33" s="39"/>
+      <c r="J33" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="K33" s="102"/>
       <c r="O33" s="39"/>
       <c r="P33" s="94" t="s">
         <v>43</v>
@@ -42276,9 +42326,9 @@
       <c r="H36" s="61"/>
       <c r="I36" s="39"/>
       <c r="O36" s="39"/>
-      <c r="P36" s="177"/>
-      <c r="Q36" s="177"/>
-      <c r="R36" s="177"/>
+      <c r="P36" s="176"/>
+      <c r="Q36" s="176"/>
+      <c r="R36" s="176"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -42296,9 +42346,9 @@
       <c r="H37" s="61"/>
       <c r="I37" s="39"/>
       <c r="O37" s="39"/>
-      <c r="P37" s="184"/>
-      <c r="Q37" s="177"/>
-      <c r="R37" s="177"/>
+      <c r="P37" s="183"/>
+      <c r="Q37" s="176"/>
+      <c r="R37" s="176"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -42316,9 +42366,9 @@
       <c r="H38" s="61"/>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="177"/>
-      <c r="Q38" s="177"/>
-      <c r="R38" s="177"/>
+      <c r="P38" s="176"/>
+      <c r="Q38" s="176"/>
+      <c r="R38" s="176"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -42336,9 +42386,9 @@
       <c r="H39" s="61"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="177"/>
-      <c r="Q39" s="177"/>
-      <c r="R39" s="177"/>
+      <c r="P39" s="176"/>
+      <c r="Q39" s="176"/>
+      <c r="R39" s="176"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -42356,9 +42406,9 @@
       <c r="H40" s="62"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="177"/>
-      <c r="Q40" s="177"/>
-      <c r="R40" s="177"/>
+      <c r="P40" s="176"/>
+      <c r="Q40" s="176"/>
+      <c r="R40" s="176"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -42376,9 +42426,9 @@
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="177"/>
-      <c r="Q41" s="177"/>
-      <c r="R41" s="177"/>
+      <c r="P41" s="176"/>
+      <c r="Q41" s="176"/>
+      <c r="R41" s="176"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -45349,6 +45399,7 @@
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="J29:K29"/>
   </mergeCells>
+  <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J116" r:id="rId1" xr:uid="{24F98E59-04E2-4995-A47A-0D179F9D60FA}"/>
     <hyperlink ref="J117" r:id="rId2" xr:uid="{E4F2F1BF-7BAB-469B-847C-C2F6DED3948F}"/>

--- a/spreadsheets/Games.xlsx
+++ b/spreadsheets/Games.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ucer0.github.io\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63270D8-DD60-4E29-A5B8-E8A67BB6C223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044460F7-36CE-48EC-A67F-6E51970BA82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="555">
   <si>
     <t>Nier: Automata</t>
   </si>
@@ -2247,9 +2247,6 @@
     <t>Mouthwashing</t>
   </si>
   <si>
-    <t>Trails 3rd (20h 24m)</t>
-  </si>
-  <si>
     <t>Granblue Versus Rising</t>
   </si>
   <si>
@@ -2257,6 +2254,15 @@
   </si>
   <si>
     <t>16-nov.</t>
+  </si>
+  <si>
+    <t>Pokémon Violet</t>
+  </si>
+  <si>
+    <t>30-nov.</t>
+  </si>
+  <si>
+    <t>Trails 3rd (20h 24m), Pkmn Violet (5h 18m)</t>
   </si>
 </sst>
 </file>
@@ -3211,9 +3217,6 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
@@ -3232,7 +3235,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3243,6 +3246,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4258,6 +4264,9 @@
                 <c:pt idx="9">
                   <c:v>3.0951388888888891</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2673611111111112</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4373,6 +4382,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.63541666666666674</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.93611111111111112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8279,7 +8291,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -20976,7 +20988,7 @@
         <v>4.197916666666667</v>
       </c>
       <c r="I3" s="6"/>
-      <c r="J3" s="180" t="s">
+      <c r="J3" s="179" t="s">
         <v>118</v>
       </c>
       <c r="K3" s="80" t="s">
@@ -21050,7 +21062,7 @@
         <v>0.30138888888888887</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="181"/>
+      <c r="J4" s="180"/>
       <c r="K4" s="54" t="s">
         <v>127</v>
       </c>
@@ -21122,7 +21134,7 @@
         <v>0.2076388888888889</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="181"/>
+      <c r="J5" s="180"/>
       <c r="K5" s="73" t="s">
         <v>132</v>
       </c>
@@ -21194,7 +21206,7 @@
         <v>1.2437499999999999</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="181"/>
+      <c r="J6" s="180"/>
       <c r="K6" s="54" t="s">
         <v>129</v>
       </c>
@@ -21266,7 +21278,7 @@
         <v>0.27916666666666667</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="181"/>
+      <c r="J7" s="180"/>
       <c r="K7" s="73" t="s">
         <v>136</v>
       </c>
@@ -21338,7 +21350,7 @@
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="181"/>
+      <c r="J8" s="180"/>
       <c r="K8" s="54" t="s">
         <v>137</v>
       </c>
@@ -21410,7 +21422,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="180" t="s">
+      <c r="J9" s="179" t="s">
         <v>119</v>
       </c>
       <c r="K9" s="71" t="s">
@@ -21484,7 +21496,7 @@
         <v>0.19027777777777777</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="181"/>
+      <c r="J10" s="180"/>
       <c r="K10" s="54" t="s">
         <v>127</v>
       </c>
@@ -21556,7 +21568,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="181"/>
+      <c r="J11" s="180"/>
       <c r="K11" s="73" t="s">
         <v>132</v>
       </c>
@@ -21628,7 +21640,7 @@
         <v>1.7097222222222221</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="181"/>
+      <c r="J12" s="180"/>
       <c r="K12" s="54" t="s">
         <v>129</v>
       </c>
@@ -21700,7 +21712,7 @@
         <v>0.15972222222222224</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="181"/>
+      <c r="J13" s="180"/>
       <c r="K13" s="73" t="s">
         <v>141</v>
       </c>
@@ -21772,7 +21784,7 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="180" t="s">
+      <c r="J14" s="179" t="s">
         <v>120</v>
       </c>
       <c r="K14" s="10" t="s">
@@ -21846,7 +21858,7 @@
         <v>0.59652777777777777</v>
       </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="181"/>
+      <c r="J15" s="180"/>
       <c r="K15" s="73" t="s">
         <v>127</v>
       </c>
@@ -21918,7 +21930,7 @@
         <v>13</v>
       </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="181"/>
+      <c r="J16" s="180"/>
       <c r="K16" s="54" t="s">
         <v>132</v>
       </c>
@@ -21990,7 +22002,7 @@
         <v>13</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="181"/>
+      <c r="J17" s="180"/>
       <c r="K17" s="73" t="s">
         <v>129</v>
       </c>
@@ -22062,7 +22074,7 @@
         <v>0.24583333333333335</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="181"/>
+      <c r="J18" s="180"/>
       <c r="K18" s="54" t="s">
         <v>144</v>
       </c>
@@ -22134,7 +22146,7 @@
         <v>0.49513888888888885</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="182"/>
+      <c r="J19" s="181"/>
       <c r="K19" s="76" t="s">
         <v>150</v>
       </c>
@@ -22206,7 +22218,7 @@
         <v>0.20972222222222223</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="J20" s="180" t="s">
+      <c r="J20" s="179" t="s">
         <v>143</v>
       </c>
       <c r="K20" s="10" t="s">
@@ -22280,7 +22292,7 @@
         <v>0.25486111111111109</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="182"/>
+      <c r="J21" s="181"/>
       <c r="K21" s="76" t="s">
         <v>141</v>
       </c>
@@ -22362,7 +22374,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="181" t="s">
+      <c r="J22" s="180" t="s">
         <v>161</v>
       </c>
       <c r="K22" s="54" t="s">
@@ -22448,7 +22460,7 @@
         <v>0.26944444444444443</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="181"/>
+      <c r="J23" s="180"/>
       <c r="K23" s="80" t="s">
         <v>169</v>
       </c>
@@ -22532,7 +22544,7 @@
         <v>0.3263888888888889</v>
       </c>
       <c r="I24" s="39"/>
-      <c r="J24" s="181"/>
+      <c r="J24" s="180"/>
       <c r="K24" s="54" t="s">
         <v>163</v>
       </c>
@@ -22616,7 +22628,7 @@
         <v>0.32847222222222222</v>
       </c>
       <c r="I25" s="39"/>
-      <c r="J25" s="181"/>
+      <c r="J25" s="180"/>
       <c r="K25" s="73" t="s">
         <v>141</v>
       </c>
@@ -22700,7 +22712,7 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="I26" s="39"/>
-      <c r="J26" s="182"/>
+      <c r="J26" s="181"/>
       <c r="K26" s="11" t="s">
         <v>162</v>
       </c>
@@ -22784,7 +22796,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="I27" s="39"/>
-      <c r="J27" s="180" t="s">
+      <c r="J27" s="179" t="s">
         <v>171</v>
       </c>
       <c r="K27" s="73" t="s">
@@ -22870,7 +22882,7 @@
         <v>0.22291666666666665</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="181"/>
+      <c r="J28" s="180"/>
       <c r="K28" s="101" t="s">
         <v>163</v>
       </c>
@@ -22954,7 +22966,7 @@
         <v>0.13194444444444445</v>
       </c>
       <c r="I29" s="39"/>
-      <c r="J29" s="181"/>
+      <c r="J29" s="180"/>
       <c r="K29" s="73" t="s">
         <v>29</v>
       </c>
@@ -23038,7 +23050,7 @@
         <v>13</v>
       </c>
       <c r="I30" s="39"/>
-      <c r="J30" s="181"/>
+      <c r="J30" s="180"/>
       <c r="K30" s="101" t="s">
         <v>136</v>
       </c>
@@ -23122,7 +23134,7 @@
         <v>0.43888888888888888</v>
       </c>
       <c r="I31" s="39"/>
-      <c r="J31" s="182"/>
+      <c r="J31" s="181"/>
       <c r="K31" s="73" t="s">
         <v>141</v>
       </c>
@@ -23206,7 +23218,7 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="I32" s="39"/>
-      <c r="J32" s="180" t="s">
+      <c r="J32" s="179" t="s">
         <v>184</v>
       </c>
       <c r="K32" s="107" t="s">
@@ -23292,7 +23304,7 @@
         <v>2.7097222222222221</v>
       </c>
       <c r="I33" s="39"/>
-      <c r="J33" s="181"/>
+      <c r="J33" s="180"/>
       <c r="K33" s="73" t="s">
         <v>179</v>
       </c>
@@ -23378,7 +23390,7 @@
         <v>13</v>
       </c>
       <c r="I34" s="39"/>
-      <c r="J34" s="181"/>
+      <c r="J34" s="180"/>
       <c r="K34" s="54" t="s">
         <v>199</v>
       </c>
@@ -23461,7 +23473,7 @@
         <v>0.11041666666666666</v>
       </c>
       <c r="I35" s="39"/>
-      <c r="J35" s="181"/>
+      <c r="J35" s="180"/>
       <c r="K35" s="80" t="s">
         <v>198</v>
       </c>
@@ -23533,7 +23545,7 @@
         <v>0.37083333333333335</v>
       </c>
       <c r="I36" s="39"/>
-      <c r="J36" s="181"/>
+      <c r="J36" s="180"/>
       <c r="K36" s="54" t="s">
         <v>141</v>
       </c>
@@ -23541,9 +23553,9 @@
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="M36" s="39"/>
-      <c r="N36" s="176"/>
-      <c r="O36" s="176"/>
-      <c r="P36" s="176"/>
+      <c r="N36" s="182"/>
+      <c r="O36" s="182"/>
+      <c r="P36" s="182"/>
       <c r="Q36" s="111"/>
       <c r="R36" s="16"/>
       <c r="S36" s="16"/>
@@ -23605,7 +23617,7 @@
         <v>0.80694444444444446</v>
       </c>
       <c r="I37" s="39"/>
-      <c r="J37" s="181"/>
+      <c r="J37" s="180"/>
       <c r="K37" s="80" t="s">
         <v>196</v>
       </c>
@@ -23613,9 +23625,9 @@
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="M37" s="39"/>
-      <c r="N37" s="176"/>
-      <c r="O37" s="176"/>
-      <c r="P37" s="176"/>
+      <c r="N37" s="182"/>
+      <c r="O37" s="182"/>
+      <c r="P37" s="182"/>
       <c r="Q37" s="111"/>
       <c r="R37" s="16"/>
       <c r="S37" s="16"/>
@@ -23677,7 +23689,7 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="I38" s="39"/>
-      <c r="J38" s="182"/>
+      <c r="J38" s="181"/>
       <c r="K38" s="11" t="s">
         <v>202</v>
       </c>
@@ -23685,9 +23697,9 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="M38" s="39"/>
-      <c r="N38" s="176"/>
-      <c r="O38" s="176"/>
-      <c r="P38" s="176"/>
+      <c r="N38" s="182"/>
+      <c r="O38" s="182"/>
+      <c r="P38" s="182"/>
       <c r="Q38" s="111"/>
       <c r="R38" s="16"/>
       <c r="S38" s="16"/>
@@ -23735,7 +23747,7 @@
       <c r="G39" s="30"/>
       <c r="H39" s="61"/>
       <c r="I39" s="39"/>
-      <c r="J39" s="180" t="s">
+      <c r="J39" s="179" t="s">
         <v>209</v>
       </c>
       <c r="K39" s="116" t="s">
@@ -23745,9 +23757,9 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="M39" s="39"/>
-      <c r="N39" s="176"/>
-      <c r="O39" s="176"/>
-      <c r="P39" s="176"/>
+      <c r="N39" s="182"/>
+      <c r="O39" s="182"/>
+      <c r="P39" s="182"/>
       <c r="Q39" s="124"/>
       <c r="R39" s="16"/>
       <c r="S39" s="16"/>
@@ -23795,7 +23807,7 @@
       <c r="G40" s="39"/>
       <c r="H40" s="62"/>
       <c r="I40" s="39"/>
-      <c r="J40" s="181"/>
+      <c r="J40" s="180"/>
       <c r="K40" s="113" t="s">
         <v>210</v>
       </c>
@@ -23803,9 +23815,9 @@
         <v>0.3666666666666667</v>
       </c>
       <c r="M40" s="39"/>
-      <c r="N40" s="176"/>
-      <c r="O40" s="176"/>
-      <c r="P40" s="176"/>
+      <c r="N40" s="182"/>
+      <c r="O40" s="182"/>
+      <c r="P40" s="182"/>
       <c r="Q40" s="124"/>
       <c r="R40" s="16"/>
       <c r="S40" s="16"/>
@@ -23852,7 +23864,7 @@
       <c r="G41" s="30"/>
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
-      <c r="J41" s="181"/>
+      <c r="J41" s="180"/>
       <c r="K41" s="112" t="s">
         <v>179</v>
       </c>
@@ -23860,9 +23872,9 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="M41" s="39"/>
-      <c r="N41" s="176"/>
-      <c r="O41" s="176"/>
-      <c r="P41" s="176"/>
+      <c r="N41" s="182"/>
+      <c r="O41" s="182"/>
+      <c r="P41" s="182"/>
       <c r="Q41" s="124"/>
       <c r="R41" s="16"/>
       <c r="S41" s="16"/>
@@ -23910,7 +23922,7 @@
       <c r="G42" s="30"/>
       <c r="H42" s="61"/>
       <c r="I42" s="39"/>
-      <c r="J42" s="181"/>
+      <c r="J42" s="180"/>
       <c r="K42" s="114" t="s">
         <v>136</v>
       </c>
@@ -23968,7 +23980,7 @@
       <c r="G43" s="39"/>
       <c r="H43" s="62"/>
       <c r="I43" s="39"/>
-      <c r="J43" s="181"/>
+      <c r="J43" s="180"/>
       <c r="K43" s="112" t="s">
         <v>212</v>
       </c>
@@ -24026,7 +24038,7 @@
       <c r="G44" s="39"/>
       <c r="H44" s="62"/>
       <c r="I44" s="39"/>
-      <c r="J44" s="181"/>
+      <c r="J44" s="180"/>
       <c r="K44" s="113" t="s">
         <v>213</v>
       </c>
@@ -24084,7 +24096,7 @@
       <c r="G45" s="39"/>
       <c r="H45" s="62"/>
       <c r="I45" s="39"/>
-      <c r="J45" s="182"/>
+      <c r="J45" s="181"/>
       <c r="K45" s="115" t="s">
         <v>141</v>
       </c>
@@ -24142,7 +24154,7 @@
       <c r="G46" s="39"/>
       <c r="H46" s="62"/>
       <c r="I46" s="39"/>
-      <c r="J46" s="177" t="s">
+      <c r="J46" s="176" t="s">
         <v>217</v>
       </c>
       <c r="K46" s="119" t="s">
@@ -24202,7 +24214,7 @@
       <c r="G47" s="39"/>
       <c r="H47" s="62"/>
       <c r="I47" s="39"/>
-      <c r="J47" s="178"/>
+      <c r="J47" s="177"/>
       <c r="K47" s="80" t="s">
         <v>179</v>
       </c>
@@ -24260,7 +24272,7 @@
       <c r="G48" s="39"/>
       <c r="H48" s="62"/>
       <c r="I48" s="39"/>
-      <c r="J48" s="178"/>
+      <c r="J48" s="177"/>
       <c r="K48" s="101" t="s">
         <v>136</v>
       </c>
@@ -24318,7 +24330,7 @@
       <c r="G49" s="39"/>
       <c r="H49" s="62"/>
       <c r="I49" s="39"/>
-      <c r="J49" s="179"/>
+      <c r="J49" s="178"/>
       <c r="K49" s="120" t="s">
         <v>213</v>
       </c>
@@ -24376,7 +24388,7 @@
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
       <c r="I50" s="39"/>
-      <c r="J50" s="177" t="s">
+      <c r="J50" s="176" t="s">
         <v>232</v>
       </c>
       <c r="K50" s="121" t="s">
@@ -24436,7 +24448,7 @@
       <c r="G51" s="39"/>
       <c r="H51" s="39"/>
       <c r="I51" s="39"/>
-      <c r="J51" s="178"/>
+      <c r="J51" s="177"/>
       <c r="K51" s="122" t="s">
         <v>179</v>
       </c>
@@ -24494,7 +24506,7 @@
       <c r="G52" s="39"/>
       <c r="H52" s="39"/>
       <c r="I52" s="39"/>
-      <c r="J52" s="178"/>
+      <c r="J52" s="177"/>
       <c r="K52" s="114" t="s">
         <v>235</v>
       </c>
@@ -24552,7 +24564,7 @@
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
       <c r="I53" s="39"/>
-      <c r="J53" s="179"/>
+      <c r="J53" s="178"/>
       <c r="K53" s="115" t="s">
         <v>211</v>
       </c>
@@ -24610,7 +24622,7 @@
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
       <c r="I54" s="39"/>
-      <c r="J54" s="177" t="s">
+      <c r="J54" s="176" t="s">
         <v>243</v>
       </c>
       <c r="K54" s="121" t="s">
@@ -24670,7 +24682,7 @@
       <c r="G55" s="39"/>
       <c r="H55" s="39"/>
       <c r="I55" s="39"/>
-      <c r="J55" s="178"/>
+      <c r="J55" s="177"/>
       <c r="K55" s="122" t="s">
         <v>242</v>
       </c>
@@ -24728,7 +24740,7 @@
       <c r="G56" s="39"/>
       <c r="H56" s="39"/>
       <c r="I56" s="39"/>
-      <c r="J56" s="178"/>
+      <c r="J56" s="177"/>
       <c r="K56" s="114" t="s">
         <v>29</v>
       </c>
@@ -24786,7 +24798,7 @@
       <c r="G57" s="39"/>
       <c r="H57" s="39"/>
       <c r="I57" s="39"/>
-      <c r="J57" s="179"/>
+      <c r="J57" s="178"/>
       <c r="K57" s="115" t="s">
         <v>199</v>
       </c>
@@ -24844,7 +24856,7 @@
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
       <c r="I58" s="39"/>
-      <c r="J58" s="177" t="s">
+      <c r="J58" s="176" t="s">
         <v>246</v>
       </c>
       <c r="K58" s="121" t="s">
@@ -24904,7 +24916,7 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
       <c r="I59" s="39"/>
-      <c r="J59" s="178"/>
+      <c r="J59" s="177"/>
       <c r="K59" s="122" t="s">
         <v>235</v>
       </c>
@@ -24962,7 +24974,7 @@
       <c r="G60" s="39"/>
       <c r="H60" s="39"/>
       <c r="I60" s="39"/>
-      <c r="J60" s="178"/>
+      <c r="J60" s="177"/>
       <c r="K60" s="114" t="s">
         <v>242</v>
       </c>
@@ -25020,7 +25032,7 @@
       <c r="G61" s="39"/>
       <c r="H61" s="39"/>
       <c r="I61" s="39"/>
-      <c r="J61" s="178"/>
+      <c r="J61" s="177"/>
       <c r="K61" s="122" t="s">
         <v>245</v>
       </c>
@@ -25078,7 +25090,7 @@
       <c r="G62" s="39"/>
       <c r="H62" s="39"/>
       <c r="I62" s="39"/>
-      <c r="J62" s="178"/>
+      <c r="J62" s="177"/>
       <c r="K62" s="114" t="s">
         <v>29</v>
       </c>
@@ -25136,7 +25148,7 @@
       <c r="G63" s="39"/>
       <c r="H63" s="39"/>
       <c r="I63" s="39"/>
-      <c r="J63" s="179"/>
+      <c r="J63" s="178"/>
       <c r="K63" s="115" t="s">
         <v>199</v>
       </c>
@@ -30885,6 +30897,12 @@
     <sortCondition ref="K33"/>
   </sortState>
   <mergeCells count="18">
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="N39:P39"/>
     <mergeCell ref="J58:J63"/>
     <mergeCell ref="J54:J57"/>
     <mergeCell ref="J50:J53"/>
@@ -30897,12 +30915,6 @@
     <mergeCell ref="J32:J38"/>
     <mergeCell ref="J27:J31"/>
     <mergeCell ref="J14:J19"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="N39:P39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -30994,15 +31006,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="184" t="s">
+      <c r="J2" s="183" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="186"/>
+      <c r="K2" s="185"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="186" t="s">
+      <c r="M2" s="185" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="185"/>
+      <c r="N2" s="184"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -31302,15 +31314,15 @@
         <v>0.20416666666666669</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="184" t="s">
+      <c r="J9" s="183" t="s">
         <v>286</v>
       </c>
-      <c r="K9" s="186"/>
+      <c r="K9" s="185"/>
       <c r="L9" s="136"/>
-      <c r="M9" s="186" t="s">
+      <c r="M9" s="185" t="s">
         <v>287</v>
       </c>
-      <c r="N9" s="185"/>
+      <c r="N9" s="184"/>
       <c r="O9" s="39"/>
       <c r="P9" s="39"/>
       <c r="Q9" s="39"/>
@@ -31517,15 +31529,15 @@
         <v>0.15208333333333332</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="184" t="s">
+      <c r="J14" s="183" t="s">
         <v>288</v>
       </c>
-      <c r="K14" s="185"/>
+      <c r="K14" s="184"/>
       <c r="L14" s="136"/>
-      <c r="M14" s="184" t="s">
+      <c r="M14" s="183" t="s">
         <v>289</v>
       </c>
-      <c r="N14" s="185"/>
+      <c r="N14" s="184"/>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
@@ -31829,15 +31841,15 @@
         <v>0.35138888888888892</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="184" t="s">
+      <c r="J21" s="183" t="s">
         <v>290</v>
       </c>
-      <c r="K21" s="185"/>
+      <c r="K21" s="184"/>
       <c r="L21" s="136"/>
-      <c r="M21" s="184" t="s">
+      <c r="M21" s="183" t="s">
         <v>291</v>
       </c>
-      <c r="N21" s="185"/>
+      <c r="N21" s="184"/>
       <c r="O21" s="39"/>
       <c r="P21" s="89" t="s">
         <v>31</v>
@@ -32219,15 +32231,15 @@
         <v>0.11805555555555557</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="184" t="s">
+      <c r="J28" s="183" t="s">
         <v>292</v>
       </c>
-      <c r="K28" s="185"/>
+      <c r="K28" s="184"/>
       <c r="L28" s="136"/>
-      <c r="M28" s="184" t="s">
+      <c r="M28" s="183" t="s">
         <v>293</v>
       </c>
-      <c r="N28" s="185"/>
+      <c r="N28" s="184"/>
       <c r="O28" s="39"/>
       <c r="P28" s="93" t="s">
         <v>38</v>
@@ -32574,15 +32586,15 @@
       <c r="G35" s="30"/>
       <c r="H35" s="61"/>
       <c r="I35" s="39"/>
-      <c r="J35" s="184" t="s">
+      <c r="J35" s="183" t="s">
         <v>294</v>
       </c>
-      <c r="K35" s="185"/>
+      <c r="K35" s="184"/>
       <c r="L35" s="136"/>
-      <c r="M35" s="184" t="s">
+      <c r="M35" s="183" t="s">
         <v>295</v>
       </c>
-      <c r="N35" s="185"/>
+      <c r="N35" s="184"/>
       <c r="O35" s="39"/>
       <c r="P35" s="39"/>
       <c r="Q35" s="39"/>
@@ -32617,9 +32629,9 @@
         <v>4.9305555555555554E-2</v>
       </c>
       <c r="O36" s="39"/>
-      <c r="P36" s="176"/>
-      <c r="Q36" s="176"/>
-      <c r="R36" s="176"/>
+      <c r="P36" s="182"/>
+      <c r="Q36" s="182"/>
+      <c r="R36" s="182"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -32650,9 +32662,9 @@
         <v>0.18472222222222223</v>
       </c>
       <c r="O37" s="39"/>
-      <c r="P37" s="183"/>
-      <c r="Q37" s="183"/>
-      <c r="R37" s="183"/>
+      <c r="P37" s="186"/>
+      <c r="Q37" s="186"/>
+      <c r="R37" s="186"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -32683,9 +32695,9 @@
         <v>0.21249999999999999</v>
       </c>
       <c r="O38" s="39"/>
-      <c r="P38" s="176"/>
-      <c r="Q38" s="176"/>
-      <c r="R38" s="176"/>
+      <c r="P38" s="182"/>
+      <c r="Q38" s="182"/>
+      <c r="R38" s="182"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -32716,9 +32728,9 @@
         <v>0.26527777777777778</v>
       </c>
       <c r="O39" s="39"/>
-      <c r="P39" s="176"/>
-      <c r="Q39" s="176"/>
-      <c r="R39" s="176"/>
+      <c r="P39" s="182"/>
+      <c r="Q39" s="182"/>
+      <c r="R39" s="182"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -32749,9 +32761,9 @@
         <v>0.75347222222222221</v>
       </c>
       <c r="O40" s="39"/>
-      <c r="P40" s="176"/>
-      <c r="Q40" s="176"/>
-      <c r="R40" s="176"/>
+      <c r="P40" s="182"/>
+      <c r="Q40" s="182"/>
+      <c r="R40" s="182"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -32777,9 +32789,9 @@
         <v>1.0513888888888889</v>
       </c>
       <c r="O41" s="39"/>
-      <c r="P41" s="176"/>
-      <c r="Q41" s="176"/>
-      <c r="R41" s="176"/>
+      <c r="P41" s="182"/>
+      <c r="Q41" s="182"/>
+      <c r="R41" s="182"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -35744,6 +35756,12 @@
     <sortCondition ref="J9"/>
   </sortState>
   <mergeCells count="18">
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
     <mergeCell ref="M35:N35"/>
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="M21:N21"/>
@@ -35756,12 +35774,6 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="J35:K35"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J116" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -35854,15 +35866,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="184" t="s">
+      <c r="J2" s="183" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="186"/>
+      <c r="K2" s="185"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="186" t="s">
+      <c r="M2" s="185" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="185"/>
+      <c r="N2" s="184"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -36192,15 +36204,15 @@
         <v>1.1847222222222222</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="184" t="s">
+      <c r="J10" s="183" t="s">
         <v>286</v>
       </c>
-      <c r="K10" s="185"/>
+      <c r="K10" s="184"/>
       <c r="L10" s="136"/>
-      <c r="M10" s="184" t="s">
+      <c r="M10" s="183" t="s">
         <v>287</v>
       </c>
-      <c r="N10" s="185"/>
+      <c r="N10" s="184"/>
       <c r="O10" s="39"/>
       <c r="P10" s="39"/>
       <c r="Q10" s="39"/>
@@ -36497,15 +36509,15 @@
         <v>6.063194444444445</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="184" t="s">
+      <c r="J17" s="183" t="s">
         <v>288</v>
       </c>
-      <c r="K17" s="185"/>
+      <c r="K17" s="184"/>
       <c r="L17" s="136"/>
-      <c r="M17" s="184" t="s">
+      <c r="M17" s="183" t="s">
         <v>289</v>
       </c>
-      <c r="N17" s="185"/>
+      <c r="N17" s="184"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
@@ -36727,15 +36739,15 @@
         <v>0.50555555555555554</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="184" t="s">
+      <c r="J22" s="183" t="s">
         <v>290</v>
       </c>
-      <c r="K22" s="185"/>
+      <c r="K22" s="184"/>
       <c r="L22" s="136"/>
-      <c r="M22" s="184" t="s">
+      <c r="M22" s="183" t="s">
         <v>291</v>
       </c>
-      <c r="N22" s="185"/>
+      <c r="N22" s="184"/>
       <c r="O22" s="39"/>
       <c r="P22" s="63" t="s">
         <v>32</v>
@@ -37086,15 +37098,15 @@
         <v>2.6388888888888889E-2</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="184" t="s">
+      <c r="J28" s="183" t="s">
         <v>292</v>
       </c>
-      <c r="K28" s="185"/>
+      <c r="K28" s="184"/>
       <c r="L28" s="136"/>
-      <c r="M28" s="184" t="s">
+      <c r="M28" s="183" t="s">
         <v>293</v>
       </c>
-      <c r="N28" s="185"/>
+      <c r="N28" s="184"/>
       <c r="O28" s="39"/>
       <c r="P28" s="93" t="s">
         <v>38</v>
@@ -37460,15 +37472,15 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="I34" s="39"/>
-      <c r="J34" s="184" t="s">
+      <c r="J34" s="183" t="s">
         <v>294</v>
       </c>
-      <c r="K34" s="185"/>
+      <c r="K34" s="184"/>
       <c r="L34" s="136"/>
-      <c r="M34" s="184" t="s">
+      <c r="M34" s="183" t="s">
         <v>295</v>
       </c>
-      <c r="N34" s="185"/>
+      <c r="N34" s="184"/>
       <c r="O34" s="39"/>
       <c r="P34" s="125" t="s">
         <v>77</v>
@@ -37575,9 +37587,9 @@
         <v>0.36944444444444446</v>
       </c>
       <c r="O36" s="39"/>
-      <c r="P36" s="176"/>
-      <c r="Q36" s="176"/>
-      <c r="R36" s="176"/>
+      <c r="P36" s="182"/>
+      <c r="Q36" s="182"/>
+      <c r="R36" s="182"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -37622,9 +37634,9 @@
         <v>7.9166666666666663E-2</v>
       </c>
       <c r="O37" s="39"/>
-      <c r="P37" s="183"/>
-      <c r="Q37" s="176"/>
-      <c r="R37" s="176"/>
+      <c r="P37" s="186"/>
+      <c r="Q37" s="182"/>
+      <c r="R37" s="182"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -37656,9 +37668,9 @@
       </c>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="176"/>
-      <c r="Q38" s="176"/>
-      <c r="R38" s="176"/>
+      <c r="P38" s="182"/>
+      <c r="Q38" s="182"/>
+      <c r="R38" s="182"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -37676,9 +37688,9 @@
       <c r="H39" s="138"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="176"/>
-      <c r="Q39" s="176"/>
-      <c r="R39" s="176"/>
+      <c r="P39" s="182"/>
+      <c r="Q39" s="182"/>
+      <c r="R39" s="182"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -37696,9 +37708,9 @@
       <c r="H40" s="61"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="176"/>
-      <c r="Q40" s="176"/>
-      <c r="R40" s="176"/>
+      <c r="P40" s="182"/>
+      <c r="Q40" s="182"/>
+      <c r="R40" s="182"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -37716,9 +37728,9 @@
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="176"/>
-      <c r="Q41" s="176"/>
-      <c r="R41" s="176"/>
+      <c r="P41" s="182"/>
+      <c r="Q41" s="182"/>
+      <c r="R41" s="182"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -40670,24 +40682,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M17:N17"/>
     <mergeCell ref="P41:R41"/>
     <mergeCell ref="P36:R36"/>
     <mergeCell ref="P37:R37"/>
     <mergeCell ref="P38:R38"/>
     <mergeCell ref="P39:R39"/>
     <mergeCell ref="P40:R40"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="J22:K22"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
@@ -40708,8 +40720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{945572C7-9529-4441-AC5C-E60B6D0FDFB2}">
   <dimension ref="A1:Z153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -40786,15 +40798,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="184" t="s">
+      <c r="J2" s="183" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="185"/>
+      <c r="K2" s="184"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="184" t="s">
+      <c r="M2" s="183" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="185"/>
+      <c r="N2" s="184"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -41000,15 +41012,15 @@
         <v>0.33749999999999997</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="184" t="s">
+      <c r="J7" s="183" t="s">
         <v>286</v>
       </c>
-      <c r="K7" s="185"/>
+      <c r="K7" s="184"/>
       <c r="L7" s="136"/>
-      <c r="M7" s="184" t="s">
+      <c r="M7" s="183" t="s">
         <v>287</v>
       </c>
-      <c r="N7" s="185"/>
+      <c r="N7" s="184"/>
       <c r="O7" s="39"/>
       <c r="P7" s="39"/>
       <c r="Q7" s="39"/>
@@ -41215,15 +41227,15 @@
         <v>0.48819444444444443</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="184" t="s">
+      <c r="J12" s="183" t="s">
         <v>288</v>
       </c>
-      <c r="K12" s="185"/>
+      <c r="K12" s="184"/>
       <c r="L12" s="136"/>
-      <c r="M12" s="184" t="s">
+      <c r="M12" s="183" t="s">
         <v>289</v>
       </c>
-      <c r="N12" s="185"/>
+      <c r="N12" s="184"/>
       <c r="O12" s="39"/>
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
@@ -41473,15 +41485,15 @@
         <v>2.6659722222222224</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="184" t="s">
+      <c r="J18" s="183" t="s">
         <v>290</v>
       </c>
-      <c r="K18" s="185"/>
+      <c r="K18" s="184"/>
       <c r="L18" s="136"/>
-      <c r="M18" s="184" t="s">
+      <c r="M18" s="183" t="s">
         <v>291</v>
       </c>
-      <c r="N18" s="185"/>
+      <c r="N18" s="184"/>
       <c r="O18" s="39"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="39"/>
@@ -41718,15 +41730,15 @@
         <v>1.8131944444444446</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="184" t="s">
+      <c r="J23" s="183" t="s">
         <v>292</v>
       </c>
-      <c r="K23" s="185"/>
+      <c r="K23" s="184"/>
       <c r="L23" s="136"/>
-      <c r="M23" s="184" t="s">
+      <c r="M23" s="183" t="s">
         <v>293</v>
       </c>
-      <c r="N23" s="185"/>
+      <c r="N23" s="184"/>
       <c r="O23" s="39"/>
       <c r="P23" s="94" t="s">
         <v>33</v>
@@ -41954,7 +41966,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="73" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D27" s="73">
         <v>2024</v>
@@ -41963,7 +41975,7 @@
         <v>441</v>
       </c>
       <c r="F27" s="74" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G27" s="74" t="s">
         <v>469</v>
@@ -42010,12 +42022,24 @@
       <c r="B28" s="78">
         <v>26</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="60"/>
+      <c r="C28" s="54" t="s">
+        <v>552</v>
+      </c>
+      <c r="D28" s="54">
+        <v>2022</v>
+      </c>
+      <c r="E28" s="153" t="s">
+        <v>441</v>
+      </c>
+      <c r="F28" s="69" t="s">
+        <v>553</v>
+      </c>
+      <c r="G28" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="60" t="s">
+        <v>13</v>
+      </c>
       <c r="I28" s="39"/>
       <c r="O28" s="39"/>
       <c r="P28" s="93" t="s">
@@ -42058,15 +42082,15 @@
       <c r="G29" s="74"/>
       <c r="H29" s="75"/>
       <c r="I29" s="39"/>
-      <c r="J29" s="184" t="s">
+      <c r="J29" s="183" t="s">
         <v>294</v>
       </c>
-      <c r="K29" s="185"/>
+      <c r="K29" s="184"/>
       <c r="L29" s="136"/>
-      <c r="M29" s="184" t="s">
+      <c r="M29" s="183" t="s">
         <v>295</v>
       </c>
-      <c r="N29" s="185"/>
+      <c r="N29" s="184"/>
       <c r="O29" s="39"/>
       <c r="P29" s="94" t="s">
         <v>39</v>
@@ -42109,9 +42133,11 @@
       <c r="H30" s="60"/>
       <c r="I30" s="39"/>
       <c r="J30" s="122" t="s">
-        <v>550</v>
-      </c>
-      <c r="K30" s="132"/>
+        <v>549</v>
+      </c>
+      <c r="K30" s="132">
+        <v>0.18472222222222223</v>
+      </c>
       <c r="L30" s="137"/>
       <c r="M30" s="131"/>
       <c r="N30" s="72"/>
@@ -42159,7 +42185,9 @@
       <c r="J31" s="113" t="s">
         <v>377</v>
       </c>
-      <c r="K31" s="133"/>
+      <c r="K31" s="133">
+        <v>0.47083333333333333</v>
+      </c>
       <c r="L31" s="137"/>
       <c r="M31" s="101"/>
       <c r="N31" s="60"/>
@@ -42207,7 +42235,9 @@
       <c r="J32" s="112" t="s">
         <v>136</v>
       </c>
-      <c r="K32" s="75"/>
+      <c r="K32" s="75">
+        <v>5.0694444444444445E-2</v>
+      </c>
       <c r="L32" s="137"/>
       <c r="M32" s="135"/>
       <c r="N32" s="77"/>
@@ -42215,21 +42245,29 @@
       <c r="P32" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="Q32" s="81"/>
-      <c r="R32" s="81"/>
+      <c r="Q32" s="81">
+        <f>SUM(W32:X32,H26:H27)</f>
+        <v>2.2673611111111112</v>
+      </c>
+      <c r="R32" s="81">
+        <f>SUM(K30:K33)</f>
+        <v>0.93611111111111112</v>
+      </c>
       <c r="S32" s="97">
         <f>Q32+R32</f>
-        <v>0</v>
+        <v>3.2034722222222225</v>
       </c>
       <c r="T32" s="39"/>
       <c r="U32" s="99" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="V32" s="146"/>
       <c r="W32" s="147">
         <v>0.85</v>
       </c>
-      <c r="X32" s="147"/>
+      <c r="X32" s="147">
+        <v>0.22083333333333333</v>
+      </c>
       <c r="Y32" s="147"/>
     </row>
     <row r="33" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42245,7 +42283,9 @@
       <c r="J33" s="14" t="s">
         <v>539</v>
       </c>
-      <c r="K33" s="102"/>
+      <c r="K33" s="102">
+        <v>0.2298611111111111</v>
+      </c>
       <c r="O33" s="39"/>
       <c r="P33" s="94" t="s">
         <v>43</v>
@@ -42279,16 +42319,16 @@
         <v>77</v>
       </c>
       <c r="Q34" s="126">
-        <f t="shared" ref="Q34" si="1">SUM(Q22:Q33)</f>
-        <v>18.795138888888889</v>
+        <f>SUM(Q22:Q33)</f>
+        <v>21.0625</v>
       </c>
       <c r="R34" s="126">
         <f>SUM(R22:R33)</f>
-        <v>5.5229166666666671</v>
+        <v>6.459027777777778</v>
       </c>
       <c r="S34" s="127">
         <f>SUM(S22:S33)</f>
-        <v>24.31805555555556</v>
+        <v>27.521527777777784</v>
       </c>
       <c r="T34" s="39"/>
       <c r="U34" s="39"/>
@@ -42326,9 +42366,9 @@
       <c r="H36" s="61"/>
       <c r="I36" s="39"/>
       <c r="O36" s="39"/>
-      <c r="P36" s="176"/>
-      <c r="Q36" s="176"/>
-      <c r="R36" s="176"/>
+      <c r="P36" s="182"/>
+      <c r="Q36" s="182"/>
+      <c r="R36" s="182"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -42346,9 +42386,9 @@
       <c r="H37" s="61"/>
       <c r="I37" s="39"/>
       <c r="O37" s="39"/>
-      <c r="P37" s="183"/>
-      <c r="Q37" s="176"/>
-      <c r="R37" s="176"/>
+      <c r="P37" s="186"/>
+      <c r="Q37" s="182"/>
+      <c r="R37" s="182"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -42366,9 +42406,9 @@
       <c r="H38" s="61"/>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="176"/>
-      <c r="Q38" s="176"/>
-      <c r="R38" s="176"/>
+      <c r="P38" s="182"/>
+      <c r="Q38" s="182"/>
+      <c r="R38" s="182"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -42386,9 +42426,9 @@
       <c r="H39" s="61"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="176"/>
-      <c r="Q39" s="176"/>
-      <c r="R39" s="176"/>
+      <c r="P39" s="182"/>
+      <c r="Q39" s="182"/>
+      <c r="R39" s="182"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -42406,9 +42446,9 @@
       <c r="H40" s="62"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="176"/>
-      <c r="Q40" s="176"/>
-      <c r="R40" s="176"/>
+      <c r="P40" s="182"/>
+      <c r="Q40" s="182"/>
+      <c r="R40" s="182"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -42426,9 +42466,9 @@
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="176"/>
-      <c r="Q41" s="176"/>
-      <c r="R41" s="176"/>
+      <c r="P41" s="182"/>
+      <c r="Q41" s="182"/>
+      <c r="R41" s="182"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -44395,7 +44435,7 @@
       </c>
       <c r="R120" s="145">
         <f>COUNTIF(D3:D58,Q120)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S120" s="39"/>
       <c r="T120" s="39"/>
@@ -45295,7 +45335,7 @@
       </c>
       <c r="R150" s="42">
         <f>SUM(R119:R149)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S150" s="39"/>
       <c r="T150" s="39"/>
@@ -45380,11 +45420,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="P38:R38"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="M2:N2"/>
@@ -45398,6 +45433,11 @@
     <mergeCell ref="M23:N23"/>
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="J29:K29"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="P38:R38"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
@@ -45407,7 +45447,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <ignoredErrors>
-    <ignoredError sqref="Q22 Q25 Q28:Q29" formulaRange="1"/>
+    <ignoredError sqref="Q22 Q25 Q28:Q29 Q32" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId4"/>
 </worksheet>

--- a/spreadsheets/Games.xlsx
+++ b/spreadsheets/Games.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ucer0.github.io\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044460F7-36CE-48EC-A67F-6E51970BA82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624FC5D8-D57A-40A3-8F71-9A26A4AAE292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="2022" sheetId="5" r:id="rId4"/>
     <sheet name="2023" sheetId="8" r:id="rId5"/>
     <sheet name="2024" sheetId="9" r:id="rId6"/>
+    <sheet name="2025" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="565">
   <si>
     <t>Nier: Automata</t>
   </si>
@@ -2263,6 +2264,54 @@
   </si>
   <si>
     <t>Trails 3rd (20h 24m), Pkmn Violet (5h 18m)</t>
+  </si>
+  <si>
+    <t>Marvel Rivals</t>
+  </si>
+  <si>
+    <t>Awaria</t>
+  </si>
+  <si>
+    <t>17-dic.</t>
+  </si>
+  <si>
+    <t>Fortnite</t>
+  </si>
+  <si>
+    <t>23-dic.</t>
+  </si>
+  <si>
+    <t>Lorelei and The Laser Eyes</t>
+  </si>
+  <si>
+    <t>Little Noah: Scion of Paradise</t>
+  </si>
+  <si>
+    <t>Pilgrim</t>
+  </si>
+  <si>
+    <t>30-dic.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pkmn Violet (46h 51)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Little Noah 5h pasarlo en Normal, 8h en Difícil</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2690,7 +2739,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3187,6 +3236,12 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3217,6 +3272,9 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
@@ -3235,7 +3293,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3247,7 +3305,34 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4267,6 +4352,9 @@
                 <c:pt idx="10">
                   <c:v>2.2673611111111112</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0979166666666669</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4386,12 +4474,939 @@
                 <c:pt idx="10">
                   <c:v>0.93611111111111112</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.778472222222222</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-784A-423D-A56E-B281016E5435}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="100"/>
+        <c:axId val="-1526709120"/>
+        <c:axId val="-1526714016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1526709120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd type="none" w="sm" len="sm"/>
+            <a:tailEnd type="none" w="sm" len="sm"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Ubuntu" panose="020B0504030602030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1526714016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1526714016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="[h]&quot;h&quot;" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Ubuntu" panose="020B0504030602030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1526709120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
+        <c:minorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln cap="sq">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Ubuntu" panose="020B0504030602030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent5">
+        <a:lumMod val="60000"/>
+        <a:lumOff val="40000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="800" b="1">
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Ubuntu" panose="020B0504030602030204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>JUEGOS POR AÑO DE SALIDA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2025'!$Q$117:$Q$149</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2025'!$R$117:$R$149</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F3F8-4442-B0A4-EA1291DA6585}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="-1526708032"/>
+        <c:axId val="-1526704224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1526708032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1526704224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1526704224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-1526708032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.5891758143229659E-2"/>
+          <c:y val="3.1746031746031744E-2"/>
+          <c:w val="0.91079821426834318"/>
+          <c:h val="0.81548389784610253"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2025'!$Q$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SOLO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+                <a:alpha val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2025'!$P$22:$P$33</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Ene</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ago</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2025'!$Q$22:$Q$33</c:f>
+              <c:numCache>
+                <c:formatCode>[h]"h"\ mm"m"</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C72-471C-B3C1-0C4DEDA3923A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2025'!$R$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ONLINE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+                <a:alpha val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2025'!$P$22:$P$33</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Ene</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ago</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2025'!$R$22:$R$33</c:f>
+              <c:numCache>
+                <c:formatCode>[h]"h"\ mm"m"</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0C72-471C-B3C1-0C4DEDA3923A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8181,101 +9196,104 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'2024'!$Q$119:$Q$149</c:f>
+              <c:f>'2024'!$Q$118:$Q$149</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2023</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2022</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2021</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2020</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2019</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2018</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2017</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2016</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>2015</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>2014</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>2013</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>2012</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>2011</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>2010</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>2009</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>2008</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>2007</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>2006</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>2005</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>2004</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>2003</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>2002</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>2001</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>1999</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>1998</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>1997</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>1996</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>1995</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>1994</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>1993</c:v>
                 </c:pt>
               </c:numCache>
@@ -8283,39 +9301,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2024'!$R$119:$R$149</c:f>
+              <c:f>'2024'!$R$118:$R$149</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -8336,25 +9354,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -8363,10 +9381,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
@@ -8378,6 +9396,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8535,6 +9556,83 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
   <a:schemeClr val="accent5"/>
@@ -9386,6 +10484,1081 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="305">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:headEnd type="none" w="sm" len="sm"/>
+        <a:tailEnd type="none" w="sm" len="sm"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="46000">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="0"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="5000"/>
+                <a:lumOff val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:headEnd type="none" w="sm" len="sm"/>
+        <a:tailEnd type="none" w="sm" len="sm"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="305">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14437,8 +16610,8 @@
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>133</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -14513,13 +16686,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>209548</xdr:colOff>
+      <xdr:colOff>209547</xdr:colOff>
       <xdr:row>118</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
       <xdr:row>133</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -14567,6 +16740,87 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEEBA9C7-5904-44E6-93C5-21405CECE913}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209547</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85E72D5A-3988-449F-B1E3-BE440A9D4C91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6988259-80AE-4B01-940D-411EE2E87607}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14856,7 +17110,7 @@
   <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:D15"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14905,17 +17159,17 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="166">
+      <c r="B2" s="168">
         <v>2019</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
       <c r="E2" s="67"/>
-      <c r="F2" s="172" t="s">
+      <c r="F2" s="174" t="s">
         <v>261</v>
       </c>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
       <c r="I2" s="35"/>
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
@@ -14946,18 +17200,18 @@
         <v>77</v>
       </c>
       <c r="E3" s="68"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="6"/>
       <c r="N3" s="29"/>
-      <c r="O3" s="171"/>
-      <c r="P3" s="171"/>
-      <c r="Q3" s="171"/>
+      <c r="O3" s="173"/>
+      <c r="P3" s="173"/>
+      <c r="Q3" s="173"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
@@ -14979,18 +17233,18 @@
         <v>2004</v>
       </c>
       <c r="E4" s="26"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="172"/>
-      <c r="H4" s="172"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="174"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="30"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="171"/>
-      <c r="P4" s="171"/>
-      <c r="Q4" s="171"/>
+      <c r="O4" s="173"/>
+      <c r="P4" s="173"/>
+      <c r="Q4" s="173"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
@@ -15012,18 +17266,18 @@
         <v>2017</v>
       </c>
       <c r="E5" s="26"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
-      <c r="H5" s="172"/>
+      <c r="F5" s="174"/>
+      <c r="G5" s="174"/>
+      <c r="H5" s="174"/>
       <c r="I5" s="6"/>
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="171"/>
-      <c r="P5" s="171"/>
-      <c r="Q5" s="171"/>
+      <c r="O5" s="173"/>
+      <c r="P5" s="173"/>
+      <c r="Q5" s="173"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
@@ -15045,18 +17299,18 @@
         <v>2017</v>
       </c>
       <c r="E6" s="26"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="172"/>
-      <c r="H6" s="172"/>
+      <c r="F6" s="174"/>
+      <c r="G6" s="174"/>
+      <c r="H6" s="174"/>
       <c r="I6" s="6"/>
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="171"/>
-      <c r="P6" s="171"/>
-      <c r="Q6" s="171"/>
+      <c r="O6" s="173"/>
+      <c r="P6" s="173"/>
+      <c r="Q6" s="173"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
@@ -15078,18 +17332,18 @@
         <v>2017</v>
       </c>
       <c r="E7" s="26"/>
-      <c r="F7" s="172"/>
-      <c r="G7" s="172"/>
-      <c r="H7" s="172"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="174"/>
       <c r="I7" s="6"/>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="171"/>
-      <c r="P7" s="171"/>
-      <c r="Q7" s="171"/>
+      <c r="O7" s="173"/>
+      <c r="P7" s="173"/>
+      <c r="Q7" s="173"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
@@ -15111,18 +17365,18 @@
         <v>2017</v>
       </c>
       <c r="E8" s="26"/>
-      <c r="F8" s="172"/>
-      <c r="G8" s="172"/>
-      <c r="H8" s="172"/>
+      <c r="F8" s="174"/>
+      <c r="G8" s="174"/>
+      <c r="H8" s="174"/>
       <c r="I8" s="6"/>
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="171"/>
-      <c r="P8" s="171"/>
-      <c r="Q8" s="171"/>
+      <c r="O8" s="173"/>
+      <c r="P8" s="173"/>
+      <c r="Q8" s="173"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
@@ -15144,18 +17398,18 @@
         <v>2016</v>
       </c>
       <c r="E9" s="26"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="172"/>
-      <c r="H9" s="172"/>
+      <c r="F9" s="174"/>
+      <c r="G9" s="174"/>
+      <c r="H9" s="174"/>
       <c r="I9" s="6"/>
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="171"/>
-      <c r="P9" s="171"/>
-      <c r="Q9" s="171"/>
+      <c r="O9" s="173"/>
+      <c r="P9" s="173"/>
+      <c r="Q9" s="173"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
@@ -15177,18 +17431,18 @@
         <v>2017</v>
       </c>
       <c r="E10" s="26"/>
-      <c r="F10" s="172"/>
-      <c r="G10" s="172"/>
-      <c r="H10" s="172"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="174"/>
       <c r="I10" s="6"/>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="7"/>
-      <c r="O10" s="171"/>
-      <c r="P10" s="171"/>
-      <c r="Q10" s="171"/>
+      <c r="O10" s="173"/>
+      <c r="P10" s="173"/>
+      <c r="Q10" s="173"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
@@ -15210,18 +17464,18 @@
         <v>2016</v>
       </c>
       <c r="E11" s="26"/>
-      <c r="F11" s="172"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="172"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="174"/>
       <c r="I11" s="6"/>
       <c r="J11" s="30"/>
       <c r="K11" s="30"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="171"/>
-      <c r="P11" s="171"/>
-      <c r="Q11" s="171"/>
+      <c r="O11" s="173"/>
+      <c r="P11" s="173"/>
+      <c r="Q11" s="173"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
@@ -15243,18 +17497,18 @@
         <v>2017</v>
       </c>
       <c r="E12" s="26"/>
-      <c r="F12" s="172"/>
-      <c r="G12" s="172"/>
-      <c r="H12" s="172"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="174"/>
       <c r="I12" s="6"/>
       <c r="J12" s="30"/>
       <c r="K12" s="30"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="171"/>
-      <c r="P12" s="171"/>
-      <c r="Q12" s="171"/>
+      <c r="O12" s="173"/>
+      <c r="P12" s="173"/>
+      <c r="Q12" s="173"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
@@ -15276,18 +17530,18 @@
         <v>2009</v>
       </c>
       <c r="E13" s="26"/>
-      <c r="F13" s="172"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="172"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="174"/>
+      <c r="H13" s="174"/>
       <c r="I13" s="6"/>
       <c r="J13" s="30"/>
       <c r="K13" s="30"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="171"/>
-      <c r="P13" s="171"/>
-      <c r="Q13" s="171"/>
+      <c r="O13" s="173"/>
+      <c r="P13" s="173"/>
+      <c r="Q13" s="173"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
@@ -15309,18 +17563,18 @@
         <v>2019</v>
       </c>
       <c r="E14" s="26"/>
-      <c r="F14" s="172"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="172"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="174"/>
+      <c r="H14" s="174"/>
       <c r="I14" s="6"/>
       <c r="J14" s="30"/>
       <c r="K14" s="30"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="171"/>
-      <c r="P14" s="171"/>
-      <c r="Q14" s="171"/>
+      <c r="O14" s="173"/>
+      <c r="P14" s="173"/>
+      <c r="Q14" s="173"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
@@ -15342,18 +17596,18 @@
         <v>2019</v>
       </c>
       <c r="E15" s="26"/>
-      <c r="F15" s="172"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="172"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="174"/>
       <c r="I15" s="6"/>
       <c r="J15" s="30"/>
       <c r="K15" s="30"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="171"/>
-      <c r="P15" s="171"/>
-      <c r="Q15" s="171"/>
+      <c r="O15" s="173"/>
+      <c r="P15" s="173"/>
+      <c r="Q15" s="173"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
@@ -15378,9 +17632,9 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="171"/>
-      <c r="P16" s="171"/>
-      <c r="Q16" s="171"/>
+      <c r="O16" s="173"/>
+      <c r="P16" s="173"/>
+      <c r="Q16" s="173"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
@@ -15391,9 +17645,9 @@
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
-      <c r="B17" s="168"/>
-      <c r="C17" s="168"/>
-      <c r="D17" s="168"/>
+      <c r="B17" s="170"/>
+      <c r="C17" s="170"/>
+      <c r="D17" s="170"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7"/>
@@ -15418,9 +17672,9 @@
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
-      <c r="B18" s="168"/>
-      <c r="C18" s="168"/>
-      <c r="D18" s="168"/>
+      <c r="B18" s="170"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="170"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="7"/>
@@ -15430,8 +17684,8 @@
       <c r="K18" s="30"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="169"/>
-      <c r="O18" s="170"/>
+      <c r="N18" s="171"/>
+      <c r="O18" s="172"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
@@ -15445,9 +17699,9 @@
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
-      <c r="B19" s="168"/>
-      <c r="C19" s="168"/>
-      <c r="D19" s="168"/>
+      <c r="B19" s="170"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="170"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7"/>
@@ -15457,8 +17711,8 @@
       <c r="K19" s="30"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="170"/>
-      <c r="O19" s="170"/>
+      <c r="N19" s="172"/>
+      <c r="O19" s="172"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
@@ -15484,8 +17738,8 @@
       <c r="K20" s="30"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="170"/>
-      <c r="O20" s="170"/>
+      <c r="N20" s="172"/>
+      <c r="O20" s="172"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
@@ -15511,8 +17765,8 @@
       <c r="K21" s="30"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="170"/>
-      <c r="O21" s="170"/>
+      <c r="N21" s="172"/>
+      <c r="O21" s="172"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
@@ -15538,8 +17792,8 @@
       <c r="K22" s="30"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-      <c r="N22" s="170"/>
-      <c r="O22" s="170"/>
+      <c r="N22" s="172"/>
+      <c r="O22" s="172"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
@@ -16723,8 +18977,8 @@
         <v>11</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="174"/>
-      <c r="K17" s="175"/>
+      <c r="J17" s="176"/>
+      <c r="K17" s="177"/>
       <c r="L17" s="6"/>
       <c r="M17" s="39"/>
       <c r="N17" s="39"/>
@@ -16762,8 +19016,8 @@
         <v>1</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="173"/>
-      <c r="K18" s="173"/>
+      <c r="J18" s="175"/>
+      <c r="K18" s="175"/>
       <c r="L18" s="6"/>
       <c r="M18" s="39"/>
       <c r="N18" s="39"/>
@@ -20813,7 +23067,7 @@
   <dimension ref="A1:AZ296"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="L62" sqref="K62:L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -20988,7 +23242,7 @@
         <v>4.197916666666667</v>
       </c>
       <c r="I3" s="6"/>
-      <c r="J3" s="179" t="s">
+      <c r="J3" s="182" t="s">
         <v>118</v>
       </c>
       <c r="K3" s="80" t="s">
@@ -21062,7 +23316,7 @@
         <v>0.30138888888888887</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="180"/>
+      <c r="J4" s="183"/>
       <c r="K4" s="54" t="s">
         <v>127</v>
       </c>
@@ -21134,7 +23388,7 @@
         <v>0.2076388888888889</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="180"/>
+      <c r="J5" s="183"/>
       <c r="K5" s="73" t="s">
         <v>132</v>
       </c>
@@ -21206,7 +23460,7 @@
         <v>1.2437499999999999</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="180"/>
+      <c r="J6" s="183"/>
       <c r="K6" s="54" t="s">
         <v>129</v>
       </c>
@@ -21278,7 +23532,7 @@
         <v>0.27916666666666667</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="180"/>
+      <c r="J7" s="183"/>
       <c r="K7" s="73" t="s">
         <v>136</v>
       </c>
@@ -21350,7 +23604,7 @@
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="180"/>
+      <c r="J8" s="183"/>
       <c r="K8" s="54" t="s">
         <v>137</v>
       </c>
@@ -21422,7 +23676,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="179" t="s">
+      <c r="J9" s="182" t="s">
         <v>119</v>
       </c>
       <c r="K9" s="71" t="s">
@@ -21496,7 +23750,7 @@
         <v>0.19027777777777777</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="180"/>
+      <c r="J10" s="183"/>
       <c r="K10" s="54" t="s">
         <v>127</v>
       </c>
@@ -21568,7 +23822,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="180"/>
+      <c r="J11" s="183"/>
       <c r="K11" s="73" t="s">
         <v>132</v>
       </c>
@@ -21640,7 +23894,7 @@
         <v>1.7097222222222221</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="180"/>
+      <c r="J12" s="183"/>
       <c r="K12" s="54" t="s">
         <v>129</v>
       </c>
@@ -21712,7 +23966,7 @@
         <v>0.15972222222222224</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="180"/>
+      <c r="J13" s="183"/>
       <c r="K13" s="73" t="s">
         <v>141</v>
       </c>
@@ -21784,7 +24038,7 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="179" t="s">
+      <c r="J14" s="182" t="s">
         <v>120</v>
       </c>
       <c r="K14" s="10" t="s">
@@ -21858,7 +24112,7 @@
         <v>0.59652777777777777</v>
       </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="180"/>
+      <c r="J15" s="183"/>
       <c r="K15" s="73" t="s">
         <v>127</v>
       </c>
@@ -21930,7 +24184,7 @@
         <v>13</v>
       </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="180"/>
+      <c r="J16" s="183"/>
       <c r="K16" s="54" t="s">
         <v>132</v>
       </c>
@@ -22002,7 +24256,7 @@
         <v>13</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="180"/>
+      <c r="J17" s="183"/>
       <c r="K17" s="73" t="s">
         <v>129</v>
       </c>
@@ -22074,7 +24328,7 @@
         <v>0.24583333333333335</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="180"/>
+      <c r="J18" s="183"/>
       <c r="K18" s="54" t="s">
         <v>144</v>
       </c>
@@ -22146,7 +24400,7 @@
         <v>0.49513888888888885</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="181"/>
+      <c r="J19" s="184"/>
       <c r="K19" s="76" t="s">
         <v>150</v>
       </c>
@@ -22218,7 +24472,7 @@
         <v>0.20972222222222223</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="J20" s="179" t="s">
+      <c r="J20" s="182" t="s">
         <v>143</v>
       </c>
       <c r="K20" s="10" t="s">
@@ -22292,7 +24546,7 @@
         <v>0.25486111111111109</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="181"/>
+      <c r="J21" s="184"/>
       <c r="K21" s="76" t="s">
         <v>141</v>
       </c>
@@ -22374,7 +24628,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="180" t="s">
+      <c r="J22" s="183" t="s">
         <v>161</v>
       </c>
       <c r="K22" s="54" t="s">
@@ -22460,7 +24714,7 @@
         <v>0.26944444444444443</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="180"/>
+      <c r="J23" s="183"/>
       <c r="K23" s="80" t="s">
         <v>169</v>
       </c>
@@ -22544,7 +24798,7 @@
         <v>0.3263888888888889</v>
       </c>
       <c r="I24" s="39"/>
-      <c r="J24" s="180"/>
+      <c r="J24" s="183"/>
       <c r="K24" s="54" t="s">
         <v>163</v>
       </c>
@@ -22628,7 +24882,7 @@
         <v>0.32847222222222222</v>
       </c>
       <c r="I25" s="39"/>
-      <c r="J25" s="180"/>
+      <c r="J25" s="183"/>
       <c r="K25" s="73" t="s">
         <v>141</v>
       </c>
@@ -22712,7 +24966,7 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="I26" s="39"/>
-      <c r="J26" s="181"/>
+      <c r="J26" s="184"/>
       <c r="K26" s="11" t="s">
         <v>162</v>
       </c>
@@ -22796,7 +25050,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="I27" s="39"/>
-      <c r="J27" s="179" t="s">
+      <c r="J27" s="182" t="s">
         <v>171</v>
       </c>
       <c r="K27" s="73" t="s">
@@ -22882,7 +25136,7 @@
         <v>0.22291666666666665</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="180"/>
+      <c r="J28" s="183"/>
       <c r="K28" s="101" t="s">
         <v>163</v>
       </c>
@@ -22966,7 +25220,7 @@
         <v>0.13194444444444445</v>
       </c>
       <c r="I29" s="39"/>
-      <c r="J29" s="180"/>
+      <c r="J29" s="183"/>
       <c r="K29" s="73" t="s">
         <v>29</v>
       </c>
@@ -23050,7 +25304,7 @@
         <v>13</v>
       </c>
       <c r="I30" s="39"/>
-      <c r="J30" s="180"/>
+      <c r="J30" s="183"/>
       <c r="K30" s="101" t="s">
         <v>136</v>
       </c>
@@ -23134,7 +25388,7 @@
         <v>0.43888888888888888</v>
       </c>
       <c r="I31" s="39"/>
-      <c r="J31" s="181"/>
+      <c r="J31" s="184"/>
       <c r="K31" s="73" t="s">
         <v>141</v>
       </c>
@@ -23218,7 +25472,7 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="I32" s="39"/>
-      <c r="J32" s="179" t="s">
+      <c r="J32" s="182" t="s">
         <v>184</v>
       </c>
       <c r="K32" s="107" t="s">
@@ -23304,7 +25558,7 @@
         <v>2.7097222222222221</v>
       </c>
       <c r="I33" s="39"/>
-      <c r="J33" s="180"/>
+      <c r="J33" s="183"/>
       <c r="K33" s="73" t="s">
         <v>179</v>
       </c>
@@ -23390,7 +25644,7 @@
         <v>13</v>
       </c>
       <c r="I34" s="39"/>
-      <c r="J34" s="180"/>
+      <c r="J34" s="183"/>
       <c r="K34" s="54" t="s">
         <v>199</v>
       </c>
@@ -23473,7 +25727,7 @@
         <v>0.11041666666666666</v>
       </c>
       <c r="I35" s="39"/>
-      <c r="J35" s="180"/>
+      <c r="J35" s="183"/>
       <c r="K35" s="80" t="s">
         <v>198</v>
       </c>
@@ -23545,7 +25799,7 @@
         <v>0.37083333333333335</v>
       </c>
       <c r="I36" s="39"/>
-      <c r="J36" s="180"/>
+      <c r="J36" s="183"/>
       <c r="K36" s="54" t="s">
         <v>141</v>
       </c>
@@ -23553,9 +25807,9 @@
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="M36" s="39"/>
-      <c r="N36" s="182"/>
-      <c r="O36" s="182"/>
-      <c r="P36" s="182"/>
+      <c r="N36" s="178"/>
+      <c r="O36" s="178"/>
+      <c r="P36" s="178"/>
       <c r="Q36" s="111"/>
       <c r="R36" s="16"/>
       <c r="S36" s="16"/>
@@ -23617,7 +25871,7 @@
         <v>0.80694444444444446</v>
       </c>
       <c r="I37" s="39"/>
-      <c r="J37" s="180"/>
+      <c r="J37" s="183"/>
       <c r="K37" s="80" t="s">
         <v>196</v>
       </c>
@@ -23625,9 +25879,9 @@
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="M37" s="39"/>
-      <c r="N37" s="182"/>
-      <c r="O37" s="182"/>
-      <c r="P37" s="182"/>
+      <c r="N37" s="178"/>
+      <c r="O37" s="178"/>
+      <c r="P37" s="178"/>
       <c r="Q37" s="111"/>
       <c r="R37" s="16"/>
       <c r="S37" s="16"/>
@@ -23689,7 +25943,7 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="I38" s="39"/>
-      <c r="J38" s="181"/>
+      <c r="J38" s="184"/>
       <c r="K38" s="11" t="s">
         <v>202</v>
       </c>
@@ -23697,9 +25951,9 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="M38" s="39"/>
-      <c r="N38" s="182"/>
-      <c r="O38" s="182"/>
-      <c r="P38" s="182"/>
+      <c r="N38" s="178"/>
+      <c r="O38" s="178"/>
+      <c r="P38" s="178"/>
       <c r="Q38" s="111"/>
       <c r="R38" s="16"/>
       <c r="S38" s="16"/>
@@ -23747,7 +26001,7 @@
       <c r="G39" s="30"/>
       <c r="H39" s="61"/>
       <c r="I39" s="39"/>
-      <c r="J39" s="179" t="s">
+      <c r="J39" s="182" t="s">
         <v>209</v>
       </c>
       <c r="K39" s="116" t="s">
@@ -23757,9 +26011,9 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="M39" s="39"/>
-      <c r="N39" s="182"/>
-      <c r="O39" s="182"/>
-      <c r="P39" s="182"/>
+      <c r="N39" s="178"/>
+      <c r="O39" s="178"/>
+      <c r="P39" s="178"/>
       <c r="Q39" s="124"/>
       <c r="R39" s="16"/>
       <c r="S39" s="16"/>
@@ -23807,7 +26061,7 @@
       <c r="G40" s="39"/>
       <c r="H40" s="62"/>
       <c r="I40" s="39"/>
-      <c r="J40" s="180"/>
+      <c r="J40" s="183"/>
       <c r="K40" s="113" t="s">
         <v>210</v>
       </c>
@@ -23815,9 +26069,9 @@
         <v>0.3666666666666667</v>
       </c>
       <c r="M40" s="39"/>
-      <c r="N40" s="182"/>
-      <c r="O40" s="182"/>
-      <c r="P40" s="182"/>
+      <c r="N40" s="178"/>
+      <c r="O40" s="178"/>
+      <c r="P40" s="178"/>
       <c r="Q40" s="124"/>
       <c r="R40" s="16"/>
       <c r="S40" s="16"/>
@@ -23864,7 +26118,7 @@
       <c r="G41" s="30"/>
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
-      <c r="J41" s="180"/>
+      <c r="J41" s="183"/>
       <c r="K41" s="112" t="s">
         <v>179</v>
       </c>
@@ -23872,9 +26126,9 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="M41" s="39"/>
-      <c r="N41" s="182"/>
-      <c r="O41" s="182"/>
-      <c r="P41" s="182"/>
+      <c r="N41" s="178"/>
+      <c r="O41" s="178"/>
+      <c r="P41" s="178"/>
       <c r="Q41" s="124"/>
       <c r="R41" s="16"/>
       <c r="S41" s="16"/>
@@ -23922,7 +26176,7 @@
       <c r="G42" s="30"/>
       <c r="H42" s="61"/>
       <c r="I42" s="39"/>
-      <c r="J42" s="180"/>
+      <c r="J42" s="183"/>
       <c r="K42" s="114" t="s">
         <v>136</v>
       </c>
@@ -23980,7 +26234,7 @@
       <c r="G43" s="39"/>
       <c r="H43" s="62"/>
       <c r="I43" s="39"/>
-      <c r="J43" s="180"/>
+      <c r="J43" s="183"/>
       <c r="K43" s="112" t="s">
         <v>212</v>
       </c>
@@ -24038,7 +26292,7 @@
       <c r="G44" s="39"/>
       <c r="H44" s="62"/>
       <c r="I44" s="39"/>
-      <c r="J44" s="180"/>
+      <c r="J44" s="183"/>
       <c r="K44" s="113" t="s">
         <v>213</v>
       </c>
@@ -24096,7 +26350,7 @@
       <c r="G45" s="39"/>
       <c r="H45" s="62"/>
       <c r="I45" s="39"/>
-      <c r="J45" s="181"/>
+      <c r="J45" s="184"/>
       <c r="K45" s="115" t="s">
         <v>141</v>
       </c>
@@ -24154,7 +26408,7 @@
       <c r="G46" s="39"/>
       <c r="H46" s="62"/>
       <c r="I46" s="39"/>
-      <c r="J46" s="176" t="s">
+      <c r="J46" s="179" t="s">
         <v>217</v>
       </c>
       <c r="K46" s="119" t="s">
@@ -24214,7 +26468,7 @@
       <c r="G47" s="39"/>
       <c r="H47" s="62"/>
       <c r="I47" s="39"/>
-      <c r="J47" s="177"/>
+      <c r="J47" s="180"/>
       <c r="K47" s="80" t="s">
         <v>179</v>
       </c>
@@ -24272,7 +26526,7 @@
       <c r="G48" s="39"/>
       <c r="H48" s="62"/>
       <c r="I48" s="39"/>
-      <c r="J48" s="177"/>
+      <c r="J48" s="180"/>
       <c r="K48" s="101" t="s">
         <v>136</v>
       </c>
@@ -24330,7 +26584,7 @@
       <c r="G49" s="39"/>
       <c r="H49" s="62"/>
       <c r="I49" s="39"/>
-      <c r="J49" s="178"/>
+      <c r="J49" s="181"/>
       <c r="K49" s="120" t="s">
         <v>213</v>
       </c>
@@ -24388,7 +26642,7 @@
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
       <c r="I50" s="39"/>
-      <c r="J50" s="176" t="s">
+      <c r="J50" s="179" t="s">
         <v>232</v>
       </c>
       <c r="K50" s="121" t="s">
@@ -24448,7 +26702,7 @@
       <c r="G51" s="39"/>
       <c r="H51" s="39"/>
       <c r="I51" s="39"/>
-      <c r="J51" s="177"/>
+      <c r="J51" s="180"/>
       <c r="K51" s="122" t="s">
         <v>179</v>
       </c>
@@ -24506,7 +26760,7 @@
       <c r="G52" s="39"/>
       <c r="H52" s="39"/>
       <c r="I52" s="39"/>
-      <c r="J52" s="177"/>
+      <c r="J52" s="180"/>
       <c r="K52" s="114" t="s">
         <v>235</v>
       </c>
@@ -24564,7 +26818,7 @@
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
       <c r="I53" s="39"/>
-      <c r="J53" s="178"/>
+      <c r="J53" s="181"/>
       <c r="K53" s="115" t="s">
         <v>211</v>
       </c>
@@ -24622,7 +26876,7 @@
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
       <c r="I54" s="39"/>
-      <c r="J54" s="176" t="s">
+      <c r="J54" s="179" t="s">
         <v>243</v>
       </c>
       <c r="K54" s="121" t="s">
@@ -24682,7 +26936,7 @@
       <c r="G55" s="39"/>
       <c r="H55" s="39"/>
       <c r="I55" s="39"/>
-      <c r="J55" s="177"/>
+      <c r="J55" s="180"/>
       <c r="K55" s="122" t="s">
         <v>242</v>
       </c>
@@ -24740,7 +26994,7 @@
       <c r="G56" s="39"/>
       <c r="H56" s="39"/>
       <c r="I56" s="39"/>
-      <c r="J56" s="177"/>
+      <c r="J56" s="180"/>
       <c r="K56" s="114" t="s">
         <v>29</v>
       </c>
@@ -24798,7 +27052,7 @@
       <c r="G57" s="39"/>
       <c r="H57" s="39"/>
       <c r="I57" s="39"/>
-      <c r="J57" s="178"/>
+      <c r="J57" s="181"/>
       <c r="K57" s="115" t="s">
         <v>199</v>
       </c>
@@ -24856,7 +27110,7 @@
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
       <c r="I58" s="39"/>
-      <c r="J58" s="176" t="s">
+      <c r="J58" s="179" t="s">
         <v>246</v>
       </c>
       <c r="K58" s="121" t="s">
@@ -24916,7 +27170,7 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
       <c r="I59" s="39"/>
-      <c r="J59" s="177"/>
+      <c r="J59" s="180"/>
       <c r="K59" s="122" t="s">
         <v>235</v>
       </c>
@@ -24974,7 +27228,7 @@
       <c r="G60" s="39"/>
       <c r="H60" s="39"/>
       <c r="I60" s="39"/>
-      <c r="J60" s="177"/>
+      <c r="J60" s="180"/>
       <c r="K60" s="114" t="s">
         <v>242</v>
       </c>
@@ -25032,7 +27286,7 @@
       <c r="G61" s="39"/>
       <c r="H61" s="39"/>
       <c r="I61" s="39"/>
-      <c r="J61" s="177"/>
+      <c r="J61" s="180"/>
       <c r="K61" s="122" t="s">
         <v>245</v>
       </c>
@@ -25090,7 +27344,7 @@
       <c r="G62" s="39"/>
       <c r="H62" s="39"/>
       <c r="I62" s="39"/>
-      <c r="J62" s="177"/>
+      <c r="J62" s="180"/>
       <c r="K62" s="114" t="s">
         <v>29</v>
       </c>
@@ -25148,7 +27402,7 @@
       <c r="G63" s="39"/>
       <c r="H63" s="39"/>
       <c r="I63" s="39"/>
-      <c r="J63" s="178"/>
+      <c r="J63" s="181"/>
       <c r="K63" s="115" t="s">
         <v>199</v>
       </c>
@@ -30897,12 +33151,6 @@
     <sortCondition ref="K33"/>
   </sortState>
   <mergeCells count="18">
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="N39:P39"/>
     <mergeCell ref="J58:J63"/>
     <mergeCell ref="J54:J57"/>
     <mergeCell ref="J50:J53"/>
@@ -30915,6 +33163,12 @@
     <mergeCell ref="J32:J38"/>
     <mergeCell ref="J27:J31"/>
     <mergeCell ref="J14:J19"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="N39:P39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -30931,7 +33185,7 @@
   <dimension ref="A1:W153"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31006,15 +33260,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="183" t="s">
+      <c r="J2" s="186" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="185"/>
+      <c r="K2" s="188"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="185" t="s">
+      <c r="M2" s="188" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="184"/>
+      <c r="N2" s="187"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -31314,15 +33568,15 @@
         <v>0.20416666666666669</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="183" t="s">
+      <c r="J9" s="186" t="s">
         <v>286</v>
       </c>
-      <c r="K9" s="185"/>
+      <c r="K9" s="188"/>
       <c r="L9" s="136"/>
-      <c r="M9" s="185" t="s">
+      <c r="M9" s="188" t="s">
         <v>287</v>
       </c>
-      <c r="N9" s="184"/>
+      <c r="N9" s="187"/>
       <c r="O9" s="39"/>
       <c r="P9" s="39"/>
       <c r="Q9" s="39"/>
@@ -31529,15 +33783,15 @@
         <v>0.15208333333333332</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="183" t="s">
+      <c r="J14" s="186" t="s">
         <v>288</v>
       </c>
-      <c r="K14" s="184"/>
+      <c r="K14" s="187"/>
       <c r="L14" s="136"/>
-      <c r="M14" s="183" t="s">
+      <c r="M14" s="186" t="s">
         <v>289</v>
       </c>
-      <c r="N14" s="184"/>
+      <c r="N14" s="187"/>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
@@ -31841,15 +34095,15 @@
         <v>0.35138888888888892</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="183" t="s">
+      <c r="J21" s="186" t="s">
         <v>290</v>
       </c>
-      <c r="K21" s="184"/>
+      <c r="K21" s="187"/>
       <c r="L21" s="136"/>
-      <c r="M21" s="183" t="s">
+      <c r="M21" s="186" t="s">
         <v>291</v>
       </c>
-      <c r="N21" s="184"/>
+      <c r="N21" s="187"/>
       <c r="O21" s="39"/>
       <c r="P21" s="89" t="s">
         <v>31</v>
@@ -32231,15 +34485,15 @@
         <v>0.11805555555555557</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="183" t="s">
+      <c r="J28" s="186" t="s">
         <v>292</v>
       </c>
-      <c r="K28" s="184"/>
+      <c r="K28" s="187"/>
       <c r="L28" s="136"/>
-      <c r="M28" s="183" t="s">
+      <c r="M28" s="186" t="s">
         <v>293</v>
       </c>
-      <c r="N28" s="184"/>
+      <c r="N28" s="187"/>
       <c r="O28" s="39"/>
       <c r="P28" s="93" t="s">
         <v>38</v>
@@ -32586,15 +34840,15 @@
       <c r="G35" s="30"/>
       <c r="H35" s="61"/>
       <c r="I35" s="39"/>
-      <c r="J35" s="183" t="s">
+      <c r="J35" s="186" t="s">
         <v>294</v>
       </c>
-      <c r="K35" s="184"/>
+      <c r="K35" s="187"/>
       <c r="L35" s="136"/>
-      <c r="M35" s="183" t="s">
+      <c r="M35" s="186" t="s">
         <v>295</v>
       </c>
-      <c r="N35" s="184"/>
+      <c r="N35" s="187"/>
       <c r="O35" s="39"/>
       <c r="P35" s="39"/>
       <c r="Q35" s="39"/>
@@ -32629,9 +34883,9 @@
         <v>4.9305555555555554E-2</v>
       </c>
       <c r="O36" s="39"/>
-      <c r="P36" s="182"/>
-      <c r="Q36" s="182"/>
-      <c r="R36" s="182"/>
+      <c r="P36" s="178"/>
+      <c r="Q36" s="178"/>
+      <c r="R36" s="178"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -32662,9 +34916,9 @@
         <v>0.18472222222222223</v>
       </c>
       <c r="O37" s="39"/>
-      <c r="P37" s="186"/>
-      <c r="Q37" s="186"/>
-      <c r="R37" s="186"/>
+      <c r="P37" s="185"/>
+      <c r="Q37" s="185"/>
+      <c r="R37" s="185"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -32695,9 +34949,9 @@
         <v>0.21249999999999999</v>
       </c>
       <c r="O38" s="39"/>
-      <c r="P38" s="182"/>
-      <c r="Q38" s="182"/>
-      <c r="R38" s="182"/>
+      <c r="P38" s="178"/>
+      <c r="Q38" s="178"/>
+      <c r="R38" s="178"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -32728,9 +34982,9 @@
         <v>0.26527777777777778</v>
       </c>
       <c r="O39" s="39"/>
-      <c r="P39" s="182"/>
-      <c r="Q39" s="182"/>
-      <c r="R39" s="182"/>
+      <c r="P39" s="178"/>
+      <c r="Q39" s="178"/>
+      <c r="R39" s="178"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -32761,9 +35015,9 @@
         <v>0.75347222222222221</v>
       </c>
       <c r="O40" s="39"/>
-      <c r="P40" s="182"/>
-      <c r="Q40" s="182"/>
-      <c r="R40" s="182"/>
+      <c r="P40" s="178"/>
+      <c r="Q40" s="178"/>
+      <c r="R40" s="178"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -32789,9 +35043,9 @@
         <v>1.0513888888888889</v>
       </c>
       <c r="O41" s="39"/>
-      <c r="P41" s="182"/>
-      <c r="Q41" s="182"/>
-      <c r="R41" s="182"/>
+      <c r="P41" s="178"/>
+      <c r="Q41" s="178"/>
+      <c r="R41" s="178"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -35756,12 +38010,6 @@
     <sortCondition ref="J9"/>
   </sortState>
   <mergeCells count="18">
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
     <mergeCell ref="M35:N35"/>
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="M21:N21"/>
@@ -35774,6 +38022,12 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="J35:K35"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J116" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -35790,7 +38044,7 @@
   <dimension ref="A1:Z153"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -35866,15 +38120,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="183" t="s">
+      <c r="J2" s="186" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="185"/>
+      <c r="K2" s="188"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="185" t="s">
+      <c r="M2" s="188" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="184"/>
+      <c r="N2" s="187"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -36204,15 +38458,15 @@
         <v>1.1847222222222222</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="183" t="s">
+      <c r="J10" s="186" t="s">
         <v>286</v>
       </c>
-      <c r="K10" s="184"/>
+      <c r="K10" s="187"/>
       <c r="L10" s="136"/>
-      <c r="M10" s="183" t="s">
+      <c r="M10" s="186" t="s">
         <v>287</v>
       </c>
-      <c r="N10" s="184"/>
+      <c r="N10" s="187"/>
       <c r="O10" s="39"/>
       <c r="P10" s="39"/>
       <c r="Q10" s="39"/>
@@ -36509,15 +38763,15 @@
         <v>6.063194444444445</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="183" t="s">
+      <c r="J17" s="186" t="s">
         <v>288</v>
       </c>
-      <c r="K17" s="184"/>
+      <c r="K17" s="187"/>
       <c r="L17" s="136"/>
-      <c r="M17" s="183" t="s">
+      <c r="M17" s="186" t="s">
         <v>289</v>
       </c>
-      <c r="N17" s="184"/>
+      <c r="N17" s="187"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
@@ -36739,15 +38993,15 @@
         <v>0.50555555555555554</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="183" t="s">
+      <c r="J22" s="186" t="s">
         <v>290</v>
       </c>
-      <c r="K22" s="184"/>
+      <c r="K22" s="187"/>
       <c r="L22" s="136"/>
-      <c r="M22" s="183" t="s">
+      <c r="M22" s="186" t="s">
         <v>291</v>
       </c>
-      <c r="N22" s="184"/>
+      <c r="N22" s="187"/>
       <c r="O22" s="39"/>
       <c r="P22" s="63" t="s">
         <v>32</v>
@@ -37098,15 +39352,15 @@
         <v>2.6388888888888889E-2</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="183" t="s">
+      <c r="J28" s="186" t="s">
         <v>292</v>
       </c>
-      <c r="K28" s="184"/>
+      <c r="K28" s="187"/>
       <c r="L28" s="136"/>
-      <c r="M28" s="183" t="s">
+      <c r="M28" s="186" t="s">
         <v>293</v>
       </c>
-      <c r="N28" s="184"/>
+      <c r="N28" s="187"/>
       <c r="O28" s="39"/>
       <c r="P28" s="93" t="s">
         <v>38</v>
@@ -37472,15 +39726,15 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="I34" s="39"/>
-      <c r="J34" s="183" t="s">
+      <c r="J34" s="186" t="s">
         <v>294</v>
       </c>
-      <c r="K34" s="184"/>
+      <c r="K34" s="187"/>
       <c r="L34" s="136"/>
-      <c r="M34" s="183" t="s">
+      <c r="M34" s="186" t="s">
         <v>295</v>
       </c>
-      <c r="N34" s="184"/>
+      <c r="N34" s="187"/>
       <c r="O34" s="39"/>
       <c r="P34" s="125" t="s">
         <v>77</v>
@@ -37587,9 +39841,9 @@
         <v>0.36944444444444446</v>
       </c>
       <c r="O36" s="39"/>
-      <c r="P36" s="182"/>
-      <c r="Q36" s="182"/>
-      <c r="R36" s="182"/>
+      <c r="P36" s="178"/>
+      <c r="Q36" s="178"/>
+      <c r="R36" s="178"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -37634,9 +39888,9 @@
         <v>7.9166666666666663E-2</v>
       </c>
       <c r="O37" s="39"/>
-      <c r="P37" s="186"/>
-      <c r="Q37" s="182"/>
-      <c r="R37" s="182"/>
+      <c r="P37" s="185"/>
+      <c r="Q37" s="178"/>
+      <c r="R37" s="178"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -37668,9 +39922,9 @@
       </c>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="182"/>
-      <c r="Q38" s="182"/>
-      <c r="R38" s="182"/>
+      <c r="P38" s="178"/>
+      <c r="Q38" s="178"/>
+      <c r="R38" s="178"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -37688,9 +39942,9 @@
       <c r="H39" s="138"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="182"/>
-      <c r="Q39" s="182"/>
-      <c r="R39" s="182"/>
+      <c r="P39" s="178"/>
+      <c r="Q39" s="178"/>
+      <c r="R39" s="178"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -37708,9 +39962,9 @@
       <c r="H40" s="61"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="182"/>
-      <c r="Q40" s="182"/>
-      <c r="R40" s="182"/>
+      <c r="P40" s="178"/>
+      <c r="Q40" s="178"/>
+      <c r="R40" s="178"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -37728,9 +39982,9 @@
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="182"/>
-      <c r="Q41" s="182"/>
-      <c r="R41" s="182"/>
+      <c r="P41" s="178"/>
+      <c r="Q41" s="178"/>
+      <c r="R41" s="178"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -40682,24 +42936,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M17:N17"/>
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
@@ -40720,8 +42974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{945572C7-9529-4441-AC5C-E60B6D0FDFB2}">
   <dimension ref="A1:Z153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -40798,15 +43052,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="183" t="s">
+      <c r="J2" s="186" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="184"/>
+      <c r="K2" s="187"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="183" t="s">
+      <c r="M2" s="186" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="184"/>
+      <c r="N2" s="187"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -41012,15 +43266,15 @@
         <v>0.33749999999999997</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="183" t="s">
+      <c r="J7" s="186" t="s">
         <v>286</v>
       </c>
-      <c r="K7" s="184"/>
+      <c r="K7" s="187"/>
       <c r="L7" s="136"/>
-      <c r="M7" s="183" t="s">
+      <c r="M7" s="186" t="s">
         <v>287</v>
       </c>
-      <c r="N7" s="184"/>
+      <c r="N7" s="187"/>
       <c r="O7" s="39"/>
       <c r="P7" s="39"/>
       <c r="Q7" s="39"/>
@@ -41227,15 +43481,15 @@
         <v>0.48819444444444443</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="183" t="s">
+      <c r="J12" s="186" t="s">
         <v>288</v>
       </c>
-      <c r="K12" s="184"/>
+      <c r="K12" s="187"/>
       <c r="L12" s="136"/>
-      <c r="M12" s="183" t="s">
+      <c r="M12" s="186" t="s">
         <v>289</v>
       </c>
-      <c r="N12" s="184"/>
+      <c r="N12" s="187"/>
       <c r="O12" s="39"/>
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
@@ -41485,15 +43739,15 @@
         <v>2.6659722222222224</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="183" t="s">
+      <c r="J18" s="186" t="s">
         <v>290</v>
       </c>
-      <c r="K18" s="184"/>
+      <c r="K18" s="187"/>
       <c r="L18" s="136"/>
-      <c r="M18" s="183" t="s">
+      <c r="M18" s="186" t="s">
         <v>291</v>
       </c>
-      <c r="N18" s="184"/>
+      <c r="N18" s="187"/>
       <c r="O18" s="39"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="39"/>
@@ -41730,15 +43984,15 @@
         <v>1.8131944444444446</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="183" t="s">
+      <c r="J23" s="186" t="s">
         <v>292</v>
       </c>
-      <c r="K23" s="184"/>
+      <c r="K23" s="187"/>
       <c r="L23" s="136"/>
-      <c r="M23" s="183" t="s">
+      <c r="M23" s="186" t="s">
         <v>293</v>
       </c>
-      <c r="N23" s="184"/>
+      <c r="N23" s="187"/>
       <c r="O23" s="39"/>
       <c r="P23" s="94" t="s">
         <v>33</v>
@@ -42035,10 +44289,10 @@
         <v>553</v>
       </c>
       <c r="G28" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="60" t="s">
-        <v>13</v>
+        <v>559</v>
+      </c>
+      <c r="H28" s="60">
+        <v>2.1729166666666666</v>
       </c>
       <c r="I28" s="39"/>
       <c r="O28" s="39"/>
@@ -42075,22 +44329,34 @@
       <c r="B29" s="70">
         <v>27</v>
       </c>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="75"/>
+      <c r="C29" s="73" t="s">
+        <v>556</v>
+      </c>
+      <c r="D29" s="73">
+        <v>2024</v>
+      </c>
+      <c r="E29" s="152" t="s">
+        <v>440</v>
+      </c>
+      <c r="F29" s="74" t="s">
+        <v>557</v>
+      </c>
+      <c r="G29" s="74" t="s">
+        <v>557</v>
+      </c>
+      <c r="H29" s="75">
+        <v>0.11527777777777778</v>
+      </c>
       <c r="I29" s="39"/>
-      <c r="J29" s="183" t="s">
+      <c r="J29" s="186" t="s">
         <v>294</v>
       </c>
-      <c r="K29" s="184"/>
+      <c r="K29" s="187"/>
       <c r="L29" s="136"/>
-      <c r="M29" s="183" t="s">
+      <c r="M29" s="186" t="s">
         <v>295</v>
       </c>
-      <c r="N29" s="184"/>
+      <c r="N29" s="187"/>
       <c r="O29" s="39"/>
       <c r="P29" s="94" t="s">
         <v>39</v>
@@ -42125,12 +44391,24 @@
       <c r="B30" s="78">
         <v>28</v>
       </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="153"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="60"/>
+      <c r="C30" s="54" t="s">
+        <v>560</v>
+      </c>
+      <c r="D30" s="54">
+        <v>2024</v>
+      </c>
+      <c r="E30" s="153" t="s">
+        <v>440</v>
+      </c>
+      <c r="F30" s="69" t="s">
+        <v>559</v>
+      </c>
+      <c r="G30" s="69" t="s">
+        <v>252</v>
+      </c>
+      <c r="H30" s="60">
+        <v>0.63194444444444442</v>
+      </c>
       <c r="I30" s="39"/>
       <c r="J30" s="122" t="s">
         <v>549</v>
@@ -42139,8 +44417,12 @@
         <v>0.18472222222222223</v>
       </c>
       <c r="L30" s="137"/>
-      <c r="M30" s="131"/>
-      <c r="N30" s="72"/>
+      <c r="M30" s="122" t="s">
+        <v>558</v>
+      </c>
+      <c r="N30" s="72">
+        <v>0.17847222222222223</v>
+      </c>
       <c r="O30" s="39"/>
       <c r="P30" s="93" t="s">
         <v>40</v>
@@ -42175,12 +44457,24 @@
       <c r="B31" s="70">
         <v>29</v>
       </c>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="152"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="75"/>
+      <c r="C31" s="73" t="s">
+        <v>561</v>
+      </c>
+      <c r="D31" s="73">
+        <v>2022</v>
+      </c>
+      <c r="E31" s="152" t="s">
+        <v>440</v>
+      </c>
+      <c r="F31" s="74" t="s">
+        <v>252</v>
+      </c>
+      <c r="G31" s="74" t="s">
+        <v>563</v>
+      </c>
+      <c r="H31" s="75">
+        <v>0.39861111111111114</v>
+      </c>
       <c r="I31" s="39"/>
       <c r="J31" s="113" t="s">
         <v>377</v>
@@ -42189,8 +44483,12 @@
         <v>0.47083333333333333</v>
       </c>
       <c r="L31" s="137"/>
-      <c r="M31" s="101"/>
-      <c r="N31" s="60"/>
+      <c r="M31" s="101" t="s">
+        <v>549</v>
+      </c>
+      <c r="N31" s="60">
+        <v>5.1388888888888887E-2</v>
+      </c>
       <c r="O31" s="39"/>
       <c r="P31" s="94" t="s">
         <v>41</v>
@@ -42222,15 +44520,13 @@
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="39"/>
-      <c r="B32" s="78">
-        <v>30</v>
-      </c>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="153"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="60"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="162"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="138"/>
       <c r="I32" s="39"/>
       <c r="J32" s="112" t="s">
         <v>136</v>
@@ -42239,8 +44535,12 @@
         <v>5.0694444444444445E-2</v>
       </c>
       <c r="L32" s="137"/>
-      <c r="M32" s="135"/>
-      <c r="N32" s="77"/>
+      <c r="M32" s="112" t="s">
+        <v>555</v>
+      </c>
+      <c r="N32" s="75">
+        <v>1.3708333333333333</v>
+      </c>
       <c r="O32" s="39"/>
       <c r="P32" s="93" t="s">
         <v>42</v>
@@ -42272,13 +44572,13 @@
     </row>
     <row r="33" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="162"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="138"/>
+      <c r="B33" s="189"/>
+      <c r="C33" s="190"/>
+      <c r="D33" s="190"/>
+      <c r="E33" s="191"/>
+      <c r="F33" s="192"/>
+      <c r="G33" s="192"/>
+      <c r="H33" s="193"/>
       <c r="I33" s="39"/>
       <c r="J33" s="14" t="s">
         <v>539</v>
@@ -42286,22 +44586,38 @@
       <c r="K33" s="102">
         <v>0.2298611111111111</v>
       </c>
+      <c r="M33" s="114" t="s">
+        <v>136</v>
+      </c>
+      <c r="N33" s="60">
+        <v>2.7777777777777776E-2</v>
+      </c>
       <c r="O33" s="39"/>
       <c r="P33" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="Q33" s="64"/>
-      <c r="R33" s="64"/>
+      <c r="Q33" s="64">
+        <f>SUM(H29:H32,W33)</f>
+        <v>3.0979166666666669</v>
+      </c>
+      <c r="R33" s="64">
+        <f>SUM(N30:N34)</f>
+        <v>1.778472222222222</v>
+      </c>
       <c r="S33" s="90">
         <f>Q33+R33</f>
-        <v>0</v>
+        <v>4.8763888888888891</v>
       </c>
       <c r="T33" s="39" t="s">
         <v>256</v>
       </c>
-      <c r="U33" s="128"/>
+      <c r="U33" s="166" t="s">
+        <v>564</v>
+      </c>
       <c r="V33" s="39"/>
-      <c r="W33" s="147"/>
+      <c r="W33" s="147">
+        <v>1.9520833333333334</v>
+      </c>
       <c r="X33" s="111"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42314,21 +44630,27 @@
       <c r="G34" s="30"/>
       <c r="H34" s="61"/>
       <c r="I34" s="39"/>
+      <c r="M34" s="135" t="s">
+        <v>562</v>
+      </c>
+      <c r="N34" s="77">
+        <v>0.15</v>
+      </c>
       <c r="O34" s="39"/>
       <c r="P34" s="125" t="s">
         <v>77</v>
       </c>
       <c r="Q34" s="126">
         <f>SUM(Q22:Q33)</f>
-        <v>21.0625</v>
+        <v>24.160416666666666</v>
       </c>
       <c r="R34" s="126">
         <f>SUM(R22:R33)</f>
-        <v>6.459027777777778</v>
+        <v>8.2375000000000007</v>
       </c>
       <c r="S34" s="127">
         <f>SUM(S22:S33)</f>
-        <v>27.521527777777784</v>
+        <v>32.397916666666674</v>
       </c>
       <c r="T34" s="39"/>
       <c r="U34" s="39"/>
@@ -42366,9 +44688,9 @@
       <c r="H36" s="61"/>
       <c r="I36" s="39"/>
       <c r="O36" s="39"/>
-      <c r="P36" s="182"/>
-      <c r="Q36" s="182"/>
-      <c r="R36" s="182"/>
+      <c r="P36" s="178"/>
+      <c r="Q36" s="178"/>
+      <c r="R36" s="178"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -42386,9 +44708,9 @@
       <c r="H37" s="61"/>
       <c r="I37" s="39"/>
       <c r="O37" s="39"/>
-      <c r="P37" s="186"/>
-      <c r="Q37" s="182"/>
-      <c r="R37" s="182"/>
+      <c r="P37" s="185"/>
+      <c r="Q37" s="178"/>
+      <c r="R37" s="178"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -42406,9 +44728,9 @@
       <c r="H38" s="61"/>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="182"/>
-      <c r="Q38" s="182"/>
-      <c r="R38" s="182"/>
+      <c r="P38" s="178"/>
+      <c r="Q38" s="178"/>
+      <c r="R38" s="178"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -42426,9 +44748,9 @@
       <c r="H39" s="61"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="182"/>
-      <c r="Q39" s="182"/>
-      <c r="R39" s="182"/>
+      <c r="P39" s="178"/>
+      <c r="Q39" s="178"/>
+      <c r="R39" s="178"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -42446,9 +44768,9 @@
       <c r="H40" s="62"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="182"/>
-      <c r="Q40" s="182"/>
-      <c r="R40" s="182"/>
+      <c r="P40" s="178"/>
+      <c r="Q40" s="178"/>
+      <c r="R40" s="178"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -42466,9 +44788,9 @@
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="182"/>
-      <c r="Q41" s="182"/>
-      <c r="R41" s="182"/>
+      <c r="P41" s="178"/>
+      <c r="Q41" s="178"/>
+      <c r="R41" s="178"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -44319,8 +46641,12 @@
       <c r="N116" s="111"/>
       <c r="O116" s="39"/>
       <c r="P116" s="39"/>
-      <c r="Q116" s="39"/>
-      <c r="R116" s="39"/>
+      <c r="Q116" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="R116" s="56" t="s">
+        <v>124</v>
+      </c>
       <c r="S116" s="39"/>
       <c r="T116" s="39"/>
       <c r="U116" s="39"/>
@@ -44346,12 +46672,6 @@
       <c r="N117" s="111"/>
       <c r="O117" s="39"/>
       <c r="P117" s="39"/>
-      <c r="Q117" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="R117" s="56" t="s">
-        <v>124</v>
-      </c>
       <c r="S117" s="39"/>
       <c r="T117" s="39"/>
       <c r="U117" s="39"/>
@@ -44375,8 +46695,13 @@
       <c r="N118" s="111"/>
       <c r="O118" s="39"/>
       <c r="P118" s="39"/>
-      <c r="Q118" s="39"/>
-      <c r="R118" s="39"/>
+      <c r="Q118" s="43">
+        <v>2024</v>
+      </c>
+      <c r="R118" s="44">
+        <f>COUNTIF(D2:D58,Q118)</f>
+        <v>12</v>
+      </c>
       <c r="S118" s="39"/>
       <c r="T118" s="39"/>
       <c r="U118" s="39"/>
@@ -44400,10 +46725,10 @@
       <c r="N119" s="111"/>
       <c r="O119" s="39"/>
       <c r="P119" s="39"/>
-      <c r="Q119" s="58">
+      <c r="Q119" s="46">
         <v>2023</v>
       </c>
-      <c r="R119" s="57">
+      <c r="R119" s="167">
         <f>COUNTIF(D3:D59,Q119)</f>
         <v>2</v>
       </c>
@@ -44430,12 +46755,12 @@
       <c r="N120" s="111"/>
       <c r="O120" s="39"/>
       <c r="P120" s="39"/>
-      <c r="Q120" s="144">
+      <c r="Q120" s="46">
         <v>2022</v>
       </c>
-      <c r="R120" s="145">
+      <c r="R120" s="167">
         <f>COUNTIF(D3:D58,Q120)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S120" s="39"/>
       <c r="T120" s="39"/>
@@ -45334,8 +47659,8 @@
         <v>123</v>
       </c>
       <c r="R150" s="42">
-        <f>SUM(R119:R149)</f>
-        <v>16</v>
+        <f>SUM(R118:R149)</f>
+        <v>29</v>
       </c>
       <c r="S150" s="39"/>
       <c r="T150" s="39"/>
@@ -45420,6 +47745,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="P38:R38"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="M2:N2"/>
@@ -45433,11 +47763,6 @@
     <mergeCell ref="M23:N23"/>
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="J29:K29"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="P38:R38"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
@@ -45447,8 +47772,4181 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <ignoredErrors>
-    <ignoredError sqref="Q22 Q25 Q28:Q29 Q32" formulaRange="1"/>
+    <ignoredError sqref="Q22 Q25 Q28:Q29 Q32:Q33" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF62C77-56E1-46D1-8A04-9C8B0CAA13F7}">
+  <dimension ref="A1:Z153"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F116" sqref="F116"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="3.140625" style="130" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" style="130" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="130" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="156" customWidth="1"/>
+    <col min="6" max="7" width="12.85546875" style="130" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="130" customWidth="1"/>
+    <col min="9" max="9" width="3.140625" style="130" customWidth="1"/>
+    <col min="10" max="10" width="30" style="130" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="130" customWidth="1"/>
+    <col min="12" max="12" width="3.140625" style="130" customWidth="1"/>
+    <col min="13" max="13" width="30" style="130" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="130" customWidth="1"/>
+    <col min="15" max="15" width="3.140625" style="130" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" style="130" customWidth="1"/>
+    <col min="17" max="19" width="10" style="130" customWidth="1"/>
+    <col min="20" max="20" width="3.140625" style="130" customWidth="1"/>
+    <col min="21" max="21" width="42.85546875" style="130" customWidth="1"/>
+    <col min="22" max="22" width="3.140625" style="130" customWidth="1"/>
+    <col min="23" max="24" width="11.42578125" style="149"/>
+    <col min="25" max="26" width="11.42578125" style="111"/>
+    <col min="27" max="16384" width="11.42578125" style="130"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="111"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39"/>
+      <c r="B2" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="86" t="s">
+        <v>438</v>
+      </c>
+      <c r="F2" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="186" t="s">
+        <v>284</v>
+      </c>
+      <c r="K2" s="187"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="186" t="s">
+        <v>285</v>
+      </c>
+      <c r="N2" s="187"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="111"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39"/>
+      <c r="B3" s="70">
+        <v>1</v>
+      </c>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="198"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="111"/>
+    </row>
+    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39"/>
+      <c r="B4" s="78">
+        <v>2</v>
+      </c>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="111"/>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="70">
+        <v>3</v>
+      </c>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="135"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="111"/>
+    </row>
+    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
+      <c r="B6" s="78">
+        <v>4</v>
+      </c>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="6"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="111"/>
+    </row>
+    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
+      <c r="B7" s="70">
+        <v>5</v>
+      </c>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="186" t="s">
+        <v>286</v>
+      </c>
+      <c r="K7" s="187"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="186" t="s">
+        <v>287</v>
+      </c>
+      <c r="N7" s="187"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="111"/>
+    </row>
+    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
+      <c r="B8" s="78">
+        <v>6</v>
+      </c>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="198"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="131"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="111"/>
+    </row>
+    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="70">
+        <v>7</v>
+      </c>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="137"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="111"/>
+    </row>
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
+      <c r="B10" s="78">
+        <v>8</v>
+      </c>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="163"/>
+      <c r="M10" s="135"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="111"/>
+    </row>
+    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="70">
+        <v>9</v>
+      </c>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="6"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="111"/>
+    </row>
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
+      <c r="B12" s="78">
+        <v>10</v>
+      </c>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="153"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="186" t="s">
+        <v>288</v>
+      </c>
+      <c r="K12" s="187"/>
+      <c r="L12" s="136"/>
+      <c r="M12" s="186" t="s">
+        <v>289</v>
+      </c>
+      <c r="N12" s="187"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="111"/>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
+      <c r="B13" s="70">
+        <v>11</v>
+      </c>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="198"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="137"/>
+      <c r="M13" s="131"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="111"/>
+    </row>
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="78">
+        <v>12</v>
+      </c>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="137"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="111"/>
+    </row>
+    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
+      <c r="B15" s="70">
+        <v>13</v>
+      </c>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="135"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="163"/>
+      <c r="M15" s="135"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="111"/>
+    </row>
+    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
+      <c r="B16" s="78">
+        <v>14</v>
+      </c>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="6"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="111"/>
+    </row>
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="70">
+        <v>15</v>
+      </c>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="186" t="s">
+        <v>290</v>
+      </c>
+      <c r="K17" s="187"/>
+      <c r="L17" s="136"/>
+      <c r="M17" s="186" t="s">
+        <v>291</v>
+      </c>
+      <c r="N17" s="187"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="111"/>
+    </row>
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="39"/>
+      <c r="B18" s="78">
+        <v>16</v>
+      </c>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="198"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="131"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="111"/>
+    </row>
+    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
+      <c r="B19" s="70">
+        <v>17</v>
+      </c>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="137"/>
+      <c r="M19" s="101"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="111"/>
+    </row>
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="39"/>
+      <c r="B20" s="78">
+        <v>18</v>
+      </c>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="153"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="135"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="163"/>
+      <c r="M20" s="135"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="111"/>
+    </row>
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="39"/>
+      <c r="B21" s="70">
+        <v>19</v>
+      </c>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="190"/>
+      <c r="K21" s="193"/>
+      <c r="L21" s="193"/>
+      <c r="M21" s="190"/>
+      <c r="N21" s="193"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q21" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="R21" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="S21" s="92" t="s">
+        <v>128</v>
+      </c>
+      <c r="T21" s="39"/>
+      <c r="U21" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="V21" s="146"/>
+      <c r="W21" s="147"/>
+      <c r="X21" s="150"/>
+      <c r="Y21" s="147"/>
+    </row>
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="39"/>
+      <c r="B22" s="78">
+        <v>20</v>
+      </c>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="186" t="s">
+        <v>292</v>
+      </c>
+      <c r="K22" s="187"/>
+      <c r="L22" s="136"/>
+      <c r="M22" s="186" t="s">
+        <v>293</v>
+      </c>
+      <c r="N22" s="187"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q22" s="95"/>
+      <c r="R22" s="95"/>
+      <c r="S22" s="96">
+        <f t="shared" ref="S22:S28" si="0">Q22+R22</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="39"/>
+      <c r="U22" s="104"/>
+      <c r="V22" s="146"/>
+      <c r="W22" s="147"/>
+      <c r="X22" s="147"/>
+      <c r="Y22" s="147"/>
+    </row>
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="39"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="198"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="137"/>
+      <c r="M23" s="131"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="39"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="146"/>
+      <c r="W23" s="147"/>
+      <c r="X23" s="147"/>
+      <c r="Y23" s="147"/>
+    </row>
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="39"/>
+      <c r="B24" s="189"/>
+      <c r="C24" s="190"/>
+      <c r="D24" s="190"/>
+      <c r="E24" s="191"/>
+      <c r="F24" s="192"/>
+      <c r="G24" s="192"/>
+      <c r="H24" s="193"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="137"/>
+      <c r="M24" s="101"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="93" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="97">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="39"/>
+      <c r="U24" s="99"/>
+      <c r="V24" s="146"/>
+      <c r="W24" s="147"/>
+      <c r="X24" s="147"/>
+      <c r="Y24" s="147"/>
+    </row>
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="39"/>
+      <c r="B25" s="189"/>
+      <c r="C25" s="194"/>
+      <c r="D25" s="194"/>
+      <c r="E25" s="195"/>
+      <c r="F25" s="194"/>
+      <c r="G25" s="194"/>
+      <c r="H25" s="196"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="135"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="163"/>
+      <c r="M25" s="135"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q25" s="64"/>
+      <c r="R25" s="64"/>
+      <c r="S25" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="39"/>
+      <c r="U25" s="98"/>
+      <c r="V25" s="146"/>
+      <c r="W25" s="147"/>
+      <c r="X25" s="147"/>
+      <c r="Y25" s="147"/>
+    </row>
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="39"/>
+      <c r="B26" s="189"/>
+      <c r="C26" s="190"/>
+      <c r="D26" s="190"/>
+      <c r="E26" s="191"/>
+      <c r="F26" s="192"/>
+      <c r="G26" s="192"/>
+      <c r="H26" s="193"/>
+      <c r="I26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q26" s="81"/>
+      <c r="R26" s="81"/>
+      <c r="S26" s="97">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="39"/>
+      <c r="U26" s="99"/>
+      <c r="V26" s="146"/>
+      <c r="W26" s="147"/>
+      <c r="X26" s="147"/>
+      <c r="Y26" s="147"/>
+    </row>
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="39"/>
+      <c r="B27" s="189"/>
+      <c r="C27" s="190"/>
+      <c r="D27" s="190"/>
+      <c r="E27" s="191"/>
+      <c r="F27" s="192"/>
+      <c r="G27" s="192"/>
+      <c r="H27" s="193"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="186" t="s">
+        <v>294</v>
+      </c>
+      <c r="K27" s="187"/>
+      <c r="L27" s="136"/>
+      <c r="M27" s="186" t="s">
+        <v>295</v>
+      </c>
+      <c r="N27" s="187"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="39"/>
+      <c r="U27" s="98"/>
+      <c r="V27" s="146"/>
+      <c r="W27" s="147"/>
+      <c r="X27" s="111"/>
+      <c r="Y27" s="147"/>
+    </row>
+    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="39"/>
+      <c r="B28" s="189"/>
+      <c r="C28" s="190"/>
+      <c r="D28" s="190"/>
+      <c r="E28" s="191"/>
+      <c r="F28" s="192"/>
+      <c r="G28" s="192"/>
+      <c r="H28" s="193"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="198"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="137"/>
+      <c r="M28" s="131"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q28" s="81"/>
+      <c r="R28" s="81"/>
+      <c r="S28" s="97">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="39"/>
+      <c r="U28" s="99"/>
+      <c r="V28" s="146"/>
+      <c r="W28" s="147"/>
+      <c r="X28" s="147"/>
+      <c r="Y28" s="147"/>
+    </row>
+    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="39"/>
+      <c r="B29" s="189"/>
+      <c r="C29" s="190"/>
+      <c r="D29" s="190"/>
+      <c r="E29" s="191"/>
+      <c r="F29" s="192"/>
+      <c r="G29" s="192"/>
+      <c r="H29" s="193"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="114"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="137"/>
+      <c r="M29" s="101"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="90">
+        <f>Q29+R29</f>
+        <v>0</v>
+      </c>
+      <c r="T29" s="39"/>
+      <c r="U29" s="98"/>
+      <c r="V29" s="146"/>
+      <c r="W29" s="111"/>
+      <c r="X29" s="147"/>
+      <c r="Y29" s="147"/>
+    </row>
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="39"/>
+      <c r="B30" s="189"/>
+      <c r="C30" s="190"/>
+      <c r="D30" s="190"/>
+      <c r="E30" s="191"/>
+      <c r="F30" s="192"/>
+      <c r="G30" s="192"/>
+      <c r="H30" s="193"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="135"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="163"/>
+      <c r="M30" s="135"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="93" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q30" s="81"/>
+      <c r="R30" s="81"/>
+      <c r="S30" s="97">
+        <f>Q30+R30</f>
+        <v>0</v>
+      </c>
+      <c r="T30" s="39"/>
+      <c r="U30" s="99"/>
+      <c r="V30" s="146"/>
+      <c r="W30" s="147"/>
+      <c r="X30" s="147"/>
+      <c r="Y30" s="147"/>
+    </row>
+    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="39"/>
+      <c r="B31" s="189"/>
+      <c r="C31" s="190"/>
+      <c r="D31" s="190"/>
+      <c r="E31" s="191"/>
+      <c r="F31" s="192"/>
+      <c r="G31" s="192"/>
+      <c r="H31" s="193"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="190"/>
+      <c r="K31" s="193"/>
+      <c r="L31" s="193"/>
+      <c r="M31" s="194"/>
+      <c r="N31" s="193"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="94" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="64"/>
+      <c r="S31" s="90">
+        <f>Q31+R31</f>
+        <v>0</v>
+      </c>
+      <c r="T31" s="39"/>
+      <c r="U31" s="98"/>
+      <c r="V31" s="146"/>
+      <c r="W31" s="147"/>
+      <c r="X31" s="147"/>
+      <c r="Y31" s="147"/>
+    </row>
+    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="39"/>
+      <c r="B32" s="189"/>
+      <c r="C32" s="190"/>
+      <c r="D32" s="190"/>
+      <c r="E32" s="191"/>
+      <c r="F32" s="192"/>
+      <c r="G32" s="192"/>
+      <c r="H32" s="193"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="190"/>
+      <c r="K32" s="193"/>
+      <c r="L32" s="193"/>
+      <c r="M32" s="190"/>
+      <c r="N32" s="193"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q32" s="81"/>
+      <c r="R32" s="81"/>
+      <c r="S32" s="97">
+        <f>Q32+R32</f>
+        <v>0</v>
+      </c>
+      <c r="T32" s="39"/>
+      <c r="U32" s="99"/>
+      <c r="V32" s="146"/>
+      <c r="W32" s="147"/>
+      <c r="X32" s="147"/>
+      <c r="Y32" s="147"/>
+    </row>
+    <row r="33" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="39"/>
+      <c r="B33" s="189"/>
+      <c r="C33" s="190"/>
+      <c r="D33" s="190"/>
+      <c r="E33" s="191"/>
+      <c r="F33" s="192"/>
+      <c r="G33" s="192"/>
+      <c r="H33" s="193"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="190"/>
+      <c r="K33" s="193"/>
+      <c r="L33" s="197"/>
+      <c r="M33" s="194"/>
+      <c r="N33" s="193"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q33" s="64"/>
+      <c r="R33" s="64"/>
+      <c r="S33" s="90">
+        <f>Q33+R33</f>
+        <v>0</v>
+      </c>
+      <c r="T33" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="U33" s="166"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="147"/>
+      <c r="X33" s="111"/>
+    </row>
+    <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="39"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="155"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="197"/>
+      <c r="K34" s="197"/>
+      <c r="L34" s="197"/>
+      <c r="M34" s="190"/>
+      <c r="N34" s="193"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="125" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q34" s="126">
+        <f>SUM(Q22:Q33)</f>
+        <v>0</v>
+      </c>
+      <c r="R34" s="126">
+        <f>SUM(R22:R33)</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="127">
+        <f>SUM(S22:S33)</f>
+        <v>0</v>
+      </c>
+      <c r="T34" s="39"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="39"/>
+      <c r="W34" s="111"/>
+    </row>
+    <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="39"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="155"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="109"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="111"/>
+    </row>
+    <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="39"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="155"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="178"/>
+      <c r="Q36" s="178"/>
+      <c r="R36" s="178"/>
+      <c r="S36" s="111"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="39"/>
+      <c r="W36" s="111"/>
+    </row>
+    <row r="37" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="39"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="155"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="185"/>
+      <c r="Q37" s="178"/>
+      <c r="R37" s="178"/>
+      <c r="S37" s="111"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="39"/>
+      <c r="W37" s="111"/>
+    </row>
+    <row r="38" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="39"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="155"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="178"/>
+      <c r="Q38" s="178"/>
+      <c r="R38" s="178"/>
+      <c r="S38" s="111"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="39"/>
+      <c r="W38" s="111"/>
+    </row>
+    <row r="39" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="39"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="155"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="39"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="178"/>
+      <c r="Q39" s="178"/>
+      <c r="R39" s="178"/>
+      <c r="S39" s="124"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="39"/>
+      <c r="W39" s="111"/>
+    </row>
+    <row r="40" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="39"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="39"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="178"/>
+      <c r="Q40" s="178"/>
+      <c r="R40" s="178"/>
+      <c r="S40" s="124"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="39"/>
+      <c r="W40" s="111"/>
+    </row>
+    <row r="41" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="39"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="155"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="178"/>
+      <c r="Q41" s="178"/>
+      <c r="R41" s="178"/>
+      <c r="S41" s="124"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="39"/>
+      <c r="W41" s="111"/>
+    </row>
+    <row r="42" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="39"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="155"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="39"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="39"/>
+      <c r="R42" s="39"/>
+      <c r="S42" s="124"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="39"/>
+      <c r="W42" s="111"/>
+    </row>
+    <row r="43" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="39"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="108"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="39"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="39"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="39"/>
+      <c r="W43" s="111"/>
+    </row>
+    <row r="44" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="39"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="39"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="39"/>
+      <c r="W44" s="111"/>
+    </row>
+    <row r="45" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="39"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="108"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="39"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="16"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="39"/>
+      <c r="W45" s="111"/>
+    </row>
+    <row r="46" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="39"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="108"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="39"/>
+      <c r="O46" s="39"/>
+      <c r="P46" s="109"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="16"/>
+      <c r="S46" s="16"/>
+      <c r="T46" s="16"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="39"/>
+      <c r="W46" s="111"/>
+    </row>
+    <row r="47" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="39"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="108"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="111"/>
+      <c r="L47" s="111"/>
+      <c r="M47" s="111"/>
+      <c r="N47" s="111"/>
+      <c r="O47" s="39"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="16"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="39"/>
+      <c r="W47" s="111"/>
+    </row>
+    <row r="48" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="39"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="111"/>
+      <c r="L48" s="111"/>
+      <c r="M48" s="111"/>
+      <c r="N48" s="111"/>
+      <c r="O48" s="39"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="16"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="39"/>
+      <c r="W48" s="111"/>
+    </row>
+    <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="39"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="108"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="111"/>
+      <c r="L49" s="111"/>
+      <c r="M49" s="111"/>
+      <c r="N49" s="111"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="39"/>
+      <c r="W49" s="111"/>
+    </row>
+    <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="39"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="111"/>
+      <c r="L50" s="111"/>
+      <c r="M50" s="111"/>
+      <c r="N50" s="111"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="39"/>
+      <c r="S50" s="39"/>
+      <c r="T50" s="39"/>
+      <c r="U50" s="39"/>
+      <c r="V50" s="39"/>
+      <c r="W50" s="111"/>
+    </row>
+    <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="39"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="108"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="111"/>
+      <c r="L51" s="111"/>
+      <c r="M51" s="111"/>
+      <c r="N51" s="111"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="39"/>
+      <c r="R51" s="39"/>
+      <c r="S51" s="39"/>
+      <c r="T51" s="39"/>
+      <c r="U51" s="39"/>
+      <c r="V51" s="39"/>
+      <c r="W51" s="111"/>
+    </row>
+    <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="39"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="108"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="111"/>
+      <c r="L52" s="111"/>
+      <c r="M52" s="111"/>
+      <c r="N52" s="111"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="39"/>
+      <c r="S52" s="39"/>
+      <c r="T52" s="39"/>
+      <c r="U52" s="39"/>
+      <c r="V52" s="39"/>
+      <c r="W52" s="111"/>
+    </row>
+    <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="39"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="108"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="111"/>
+      <c r="L53" s="111"/>
+      <c r="M53" s="111"/>
+      <c r="N53" s="111"/>
+      <c r="O53" s="39"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="39"/>
+      <c r="S53" s="39"/>
+      <c r="T53" s="39"/>
+      <c r="U53" s="39"/>
+      <c r="V53" s="39"/>
+      <c r="W53" s="111"/>
+    </row>
+    <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="39"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="108"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="111"/>
+      <c r="L54" s="111"/>
+      <c r="M54" s="111"/>
+      <c r="N54" s="111"/>
+      <c r="O54" s="39"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="39"/>
+      <c r="R54" s="39"/>
+      <c r="S54" s="39"/>
+      <c r="T54" s="39"/>
+      <c r="U54" s="39"/>
+      <c r="V54" s="39"/>
+      <c r="W54" s="111"/>
+    </row>
+    <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="39"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="108"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="111"/>
+      <c r="L55" s="111"/>
+      <c r="M55" s="111"/>
+      <c r="N55" s="111"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="39"/>
+      <c r="R55" s="39"/>
+      <c r="S55" s="39"/>
+      <c r="T55" s="39"/>
+      <c r="U55" s="39"/>
+      <c r="V55" s="39"/>
+      <c r="W55" s="111"/>
+    </row>
+    <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="39"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="108"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="111"/>
+      <c r="L56" s="111"/>
+      <c r="M56" s="111"/>
+      <c r="N56" s="111"/>
+      <c r="O56" s="39"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="39"/>
+      <c r="R56" s="39"/>
+      <c r="S56" s="39"/>
+      <c r="T56" s="39"/>
+      <c r="U56" s="39"/>
+      <c r="V56" s="39"/>
+      <c r="W56" s="111"/>
+    </row>
+    <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="39"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="108"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="111"/>
+      <c r="L57" s="111"/>
+      <c r="M57" s="111"/>
+      <c r="N57" s="111"/>
+      <c r="O57" s="39"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="39"/>
+      <c r="R57" s="39"/>
+      <c r="S57" s="39"/>
+      <c r="T57" s="39"/>
+      <c r="U57" s="39"/>
+      <c r="V57" s="39"/>
+      <c r="W57" s="111"/>
+    </row>
+    <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="39"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="108"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="111"/>
+      <c r="L58" s="111"/>
+      <c r="M58" s="111"/>
+      <c r="N58" s="111"/>
+      <c r="O58" s="39"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="39"/>
+      <c r="R58" s="39"/>
+      <c r="S58" s="39"/>
+      <c r="T58" s="39"/>
+      <c r="U58" s="39"/>
+      <c r="V58" s="39"/>
+      <c r="W58" s="111"/>
+    </row>
+    <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="39"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="108"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="111"/>
+      <c r="L59" s="111"/>
+      <c r="M59" s="111"/>
+      <c r="N59" s="111"/>
+      <c r="O59" s="39"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="39"/>
+      <c r="R59" s="39"/>
+      <c r="S59" s="39"/>
+      <c r="T59" s="39"/>
+      <c r="U59" s="39"/>
+      <c r="V59" s="39"/>
+      <c r="W59" s="111"/>
+    </row>
+    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="39"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="108"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="111"/>
+      <c r="L60" s="111"/>
+      <c r="M60" s="111"/>
+      <c r="N60" s="111"/>
+      <c r="O60" s="39"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="39"/>
+      <c r="R60" s="39"/>
+      <c r="S60" s="39"/>
+      <c r="T60" s="39"/>
+      <c r="U60" s="39"/>
+      <c r="V60" s="39"/>
+      <c r="W60" s="111"/>
+    </row>
+    <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="39"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="108"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="111"/>
+      <c r="L61" s="111"/>
+      <c r="M61" s="111"/>
+      <c r="N61" s="111"/>
+      <c r="O61" s="39"/>
+      <c r="P61" s="39"/>
+      <c r="Q61" s="39"/>
+      <c r="R61" s="39"/>
+      <c r="S61" s="39"/>
+      <c r="T61" s="39"/>
+      <c r="U61" s="39"/>
+      <c r="V61" s="39"/>
+      <c r="W61" s="111"/>
+    </row>
+    <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="39"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="108"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="111"/>
+      <c r="L62" s="111"/>
+      <c r="M62" s="111"/>
+      <c r="N62" s="111"/>
+      <c r="O62" s="39"/>
+      <c r="P62" s="39"/>
+      <c r="Q62" s="39"/>
+      <c r="R62" s="39"/>
+      <c r="S62" s="39"/>
+      <c r="T62" s="39"/>
+      <c r="U62" s="39"/>
+      <c r="V62" s="39"/>
+      <c r="W62" s="111"/>
+    </row>
+    <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="39"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="108"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="111"/>
+      <c r="L63" s="111"/>
+      <c r="M63" s="111"/>
+      <c r="N63" s="111"/>
+      <c r="O63" s="39"/>
+      <c r="P63" s="39"/>
+      <c r="Q63" s="39"/>
+      <c r="R63" s="39"/>
+      <c r="S63" s="39"/>
+      <c r="T63" s="39"/>
+      <c r="U63" s="39"/>
+      <c r="V63" s="39"/>
+      <c r="W63" s="111"/>
+    </row>
+    <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="39"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="108"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="111"/>
+      <c r="L64" s="111"/>
+      <c r="M64" s="111"/>
+      <c r="N64" s="111"/>
+      <c r="O64" s="39"/>
+      <c r="P64" s="39"/>
+      <c r="Q64" s="39"/>
+      <c r="R64" s="39"/>
+      <c r="S64" s="39"/>
+      <c r="T64" s="39"/>
+      <c r="U64" s="39"/>
+      <c r="V64" s="39"/>
+      <c r="W64" s="111"/>
+    </row>
+    <row r="65" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="39"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="108"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="111"/>
+      <c r="L65" s="111"/>
+      <c r="M65" s="111"/>
+      <c r="N65" s="111"/>
+      <c r="O65" s="39"/>
+      <c r="P65" s="39"/>
+      <c r="Q65" s="39"/>
+      <c r="R65" s="39"/>
+      <c r="S65" s="39"/>
+      <c r="T65" s="39"/>
+      <c r="U65" s="39"/>
+      <c r="V65" s="39"/>
+      <c r="W65" s="111"/>
+    </row>
+    <row r="66" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="39"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="108"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="111"/>
+      <c r="L66" s="111"/>
+      <c r="M66" s="111"/>
+      <c r="N66" s="111"/>
+      <c r="O66" s="39"/>
+      <c r="P66" s="39"/>
+      <c r="Q66" s="39"/>
+      <c r="R66" s="39"/>
+      <c r="S66" s="39"/>
+      <c r="T66" s="39"/>
+      <c r="U66" s="39"/>
+      <c r="V66" s="39"/>
+      <c r="W66" s="111"/>
+    </row>
+    <row r="67" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="39"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="108"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="111"/>
+      <c r="L67" s="111"/>
+      <c r="M67" s="111"/>
+      <c r="N67" s="111"/>
+      <c r="O67" s="39"/>
+      <c r="P67" s="39"/>
+      <c r="Q67" s="39"/>
+      <c r="R67" s="39"/>
+      <c r="S67" s="39"/>
+      <c r="T67" s="39"/>
+      <c r="U67" s="39"/>
+      <c r="V67" s="39"/>
+      <c r="W67" s="111"/>
+    </row>
+    <row r="68" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="39"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="108"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="111"/>
+      <c r="L68" s="111"/>
+      <c r="M68" s="111"/>
+      <c r="N68" s="111"/>
+      <c r="O68" s="39"/>
+      <c r="P68" s="39"/>
+      <c r="Q68" s="39"/>
+      <c r="R68" s="39"/>
+      <c r="S68" s="39"/>
+      <c r="T68" s="39"/>
+      <c r="U68" s="39"/>
+      <c r="V68" s="39"/>
+      <c r="W68" s="111"/>
+    </row>
+    <row r="69" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="39"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="108"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="39"/>
+      <c r="P69" s="39"/>
+      <c r="Q69" s="39"/>
+      <c r="R69" s="39"/>
+      <c r="S69" s="39"/>
+      <c r="T69" s="39"/>
+      <c r="U69" s="39"/>
+      <c r="V69" s="39"/>
+      <c r="W69" s="111"/>
+    </row>
+    <row r="70" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="39"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="108"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="39"/>
+      <c r="P70" s="39"/>
+      <c r="Q70" s="39"/>
+      <c r="R70" s="39"/>
+      <c r="S70" s="39"/>
+      <c r="T70" s="39"/>
+      <c r="U70" s="39"/>
+      <c r="V70" s="39"/>
+      <c r="W70" s="111"/>
+    </row>
+    <row r="71" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="39"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="108"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="39"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="39"/>
+      <c r="P71" s="39"/>
+      <c r="Q71" s="39"/>
+      <c r="R71" s="39"/>
+      <c r="S71" s="39"/>
+      <c r="T71" s="39"/>
+      <c r="U71" s="39"/>
+      <c r="V71" s="39"/>
+      <c r="W71" s="111"/>
+    </row>
+    <row r="72" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="39"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="108"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="39"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="39"/>
+      <c r="P72" s="39"/>
+      <c r="Q72" s="39"/>
+      <c r="R72" s="39"/>
+      <c r="S72" s="39"/>
+      <c r="T72" s="39"/>
+      <c r="U72" s="39"/>
+      <c r="V72" s="39"/>
+      <c r="W72" s="111"/>
+    </row>
+    <row r="73" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="39"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="108"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="39"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="39"/>
+      <c r="P73" s="39"/>
+      <c r="Q73" s="39"/>
+      <c r="R73" s="39"/>
+      <c r="S73" s="39"/>
+      <c r="T73" s="39"/>
+      <c r="U73" s="39"/>
+      <c r="V73" s="39"/>
+      <c r="W73" s="111"/>
+    </row>
+    <row r="74" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="39"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="108"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="39"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="16"/>
+      <c r="N74" s="16"/>
+      <c r="O74" s="39"/>
+      <c r="P74" s="39"/>
+      <c r="Q74" s="39"/>
+      <c r="R74" s="39"/>
+      <c r="S74" s="39"/>
+      <c r="T74" s="39"/>
+      <c r="U74" s="39"/>
+      <c r="V74" s="39"/>
+      <c r="W74" s="111"/>
+    </row>
+    <row r="75" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="39"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="108"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="16"/>
+      <c r="O75" s="39"/>
+      <c r="P75" s="39"/>
+      <c r="Q75" s="39"/>
+      <c r="R75" s="39"/>
+      <c r="S75" s="39"/>
+      <c r="T75" s="39"/>
+      <c r="U75" s="39"/>
+      <c r="V75" s="39"/>
+      <c r="W75" s="111"/>
+    </row>
+    <row r="76" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="39"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="108"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="39"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="39"/>
+      <c r="P76" s="39"/>
+      <c r="Q76" s="39"/>
+      <c r="R76" s="39"/>
+      <c r="S76" s="39"/>
+      <c r="T76" s="39"/>
+      <c r="U76" s="39"/>
+      <c r="V76" s="39"/>
+      <c r="W76" s="111"/>
+    </row>
+    <row r="77" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="39"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="108"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="39"/>
+      <c r="H77" s="39"/>
+      <c r="I77" s="39"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="16"/>
+      <c r="O77" s="39"/>
+      <c r="P77" s="39"/>
+      <c r="Q77" s="39"/>
+      <c r="R77" s="39"/>
+      <c r="S77" s="39"/>
+      <c r="T77" s="39"/>
+      <c r="U77" s="39"/>
+      <c r="V77" s="39"/>
+      <c r="W77" s="111"/>
+    </row>
+    <row r="78" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="39"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="108"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="39"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="16"/>
+      <c r="N78" s="16"/>
+      <c r="O78" s="39"/>
+      <c r="P78" s="39"/>
+      <c r="Q78" s="39"/>
+      <c r="R78" s="39"/>
+      <c r="S78" s="39"/>
+      <c r="T78" s="39"/>
+      <c r="U78" s="39"/>
+      <c r="V78" s="39"/>
+      <c r="W78" s="111"/>
+    </row>
+    <row r="79" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="39"/>
+      <c r="B79" s="39"/>
+      <c r="C79" s="39"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="108"/>
+      <c r="F79" s="39"/>
+      <c r="G79" s="39"/>
+      <c r="H79" s="39"/>
+      <c r="I79" s="39"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="16"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="39"/>
+      <c r="P79" s="39"/>
+      <c r="Q79" s="39"/>
+      <c r="R79" s="39"/>
+      <c r="S79" s="39"/>
+      <c r="T79" s="39"/>
+      <c r="U79" s="39"/>
+      <c r="V79" s="39"/>
+      <c r="W79" s="111"/>
+    </row>
+    <row r="80" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="39"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="108"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="39"/>
+      <c r="H80" s="39"/>
+      <c r="I80" s="39"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="16"/>
+      <c r="L80" s="16"/>
+      <c r="M80" s="16"/>
+      <c r="N80" s="16"/>
+      <c r="O80" s="39"/>
+      <c r="P80" s="39"/>
+      <c r="Q80" s="39"/>
+      <c r="R80" s="39"/>
+      <c r="S80" s="39"/>
+      <c r="T80" s="39"/>
+      <c r="U80" s="39"/>
+      <c r="V80" s="39"/>
+      <c r="W80" s="111"/>
+    </row>
+    <row r="81" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="39"/>
+      <c r="B81" s="39"/>
+      <c r="C81" s="39"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="108"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="39"/>
+      <c r="H81" s="39"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="16"/>
+      <c r="N81" s="16"/>
+      <c r="O81" s="39"/>
+      <c r="P81" s="39"/>
+      <c r="Q81" s="39"/>
+      <c r="R81" s="39"/>
+      <c r="S81" s="39"/>
+      <c r="T81" s="39"/>
+      <c r="U81" s="39"/>
+      <c r="V81" s="39"/>
+      <c r="W81" s="111"/>
+    </row>
+    <row r="82" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="39"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="39"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="108"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="39"/>
+      <c r="H82" s="39"/>
+      <c r="I82" s="39"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="16"/>
+      <c r="L82" s="16"/>
+      <c r="M82" s="16"/>
+      <c r="N82" s="16"/>
+      <c r="O82" s="39"/>
+      <c r="P82" s="39"/>
+      <c r="Q82" s="39"/>
+      <c r="R82" s="39"/>
+      <c r="S82" s="39"/>
+      <c r="T82" s="39"/>
+      <c r="U82" s="39"/>
+      <c r="V82" s="39"/>
+      <c r="W82" s="111"/>
+    </row>
+    <row r="83" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="39"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="108"/>
+      <c r="F83" s="39"/>
+      <c r="G83" s="39"/>
+      <c r="H83" s="39"/>
+      <c r="I83" s="39"/>
+      <c r="J83" s="16"/>
+      <c r="K83" s="16"/>
+      <c r="L83" s="16"/>
+      <c r="M83" s="16"/>
+      <c r="N83" s="16"/>
+      <c r="O83" s="39"/>
+      <c r="P83" s="39"/>
+      <c r="Q83" s="39"/>
+      <c r="R83" s="39"/>
+      <c r="S83" s="39"/>
+      <c r="T83" s="39"/>
+      <c r="U83" s="39"/>
+      <c r="V83" s="39"/>
+      <c r="W83" s="111"/>
+    </row>
+    <row r="84" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="39"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="108"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="39"/>
+      <c r="H84" s="39"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="16"/>
+      <c r="L84" s="16"/>
+      <c r="M84" s="16"/>
+      <c r="N84" s="16"/>
+      <c r="O84" s="39"/>
+      <c r="P84" s="39"/>
+      <c r="Q84" s="39"/>
+      <c r="R84" s="39"/>
+      <c r="S84" s="39"/>
+      <c r="T84" s="39"/>
+      <c r="U84" s="39"/>
+      <c r="V84" s="39"/>
+      <c r="W84" s="111"/>
+    </row>
+    <row r="85" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="39"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="108"/>
+      <c r="F85" s="39"/>
+      <c r="G85" s="39"/>
+      <c r="H85" s="39"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="16"/>
+      <c r="K85" s="16"/>
+      <c r="L85" s="16"/>
+      <c r="M85" s="16"/>
+      <c r="N85" s="16"/>
+      <c r="O85" s="39"/>
+      <c r="P85" s="39"/>
+      <c r="Q85" s="39"/>
+      <c r="R85" s="39"/>
+      <c r="S85" s="39"/>
+      <c r="T85" s="39"/>
+      <c r="U85" s="39"/>
+      <c r="V85" s="39"/>
+      <c r="W85" s="111"/>
+    </row>
+    <row r="86" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="39"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="108"/>
+      <c r="F86" s="39"/>
+      <c r="G86" s="39"/>
+      <c r="H86" s="39"/>
+      <c r="I86" s="39"/>
+      <c r="J86" s="16"/>
+      <c r="K86" s="16"/>
+      <c r="L86" s="16"/>
+      <c r="M86" s="16"/>
+      <c r="N86" s="16"/>
+      <c r="O86" s="39"/>
+      <c r="P86" s="39"/>
+      <c r="Q86" s="39"/>
+      <c r="R86" s="39"/>
+      <c r="S86" s="39"/>
+      <c r="T86" s="39"/>
+      <c r="U86" s="39"/>
+      <c r="V86" s="39"/>
+      <c r="W86" s="111"/>
+    </row>
+    <row r="87" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="39"/>
+      <c r="B87" s="39"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="108"/>
+      <c r="F87" s="39"/>
+      <c r="G87" s="39"/>
+      <c r="H87" s="39"/>
+      <c r="I87" s="39"/>
+      <c r="J87" s="16"/>
+      <c r="K87" s="16"/>
+      <c r="L87" s="16"/>
+      <c r="M87" s="16"/>
+      <c r="N87" s="16"/>
+      <c r="O87" s="39"/>
+      <c r="P87" s="39"/>
+      <c r="Q87" s="39"/>
+      <c r="R87" s="39"/>
+      <c r="S87" s="39"/>
+      <c r="T87" s="39"/>
+      <c r="U87" s="39"/>
+      <c r="V87" s="39"/>
+      <c r="W87" s="111"/>
+    </row>
+    <row r="88" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="39"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="39"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="108"/>
+      <c r="F88" s="39"/>
+      <c r="G88" s="39"/>
+      <c r="H88" s="39"/>
+      <c r="I88" s="39"/>
+      <c r="J88" s="16"/>
+      <c r="K88" s="16"/>
+      <c r="L88" s="16"/>
+      <c r="M88" s="16"/>
+      <c r="N88" s="16"/>
+      <c r="O88" s="39"/>
+      <c r="P88" s="39"/>
+      <c r="Q88" s="39"/>
+      <c r="R88" s="39"/>
+      <c r="S88" s="39"/>
+      <c r="T88" s="39"/>
+      <c r="U88" s="39"/>
+      <c r="V88" s="39"/>
+      <c r="W88" s="111"/>
+    </row>
+    <row r="89" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="39"/>
+      <c r="B89" s="39"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="108"/>
+      <c r="F89" s="39"/>
+      <c r="G89" s="39"/>
+      <c r="H89" s="39"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="16"/>
+      <c r="K89" s="16"/>
+      <c r="L89" s="16"/>
+      <c r="M89" s="16"/>
+      <c r="N89" s="16"/>
+      <c r="O89" s="39"/>
+      <c r="P89" s="39"/>
+      <c r="Q89" s="39"/>
+      <c r="R89" s="39"/>
+      <c r="S89" s="39"/>
+      <c r="T89" s="39"/>
+      <c r="U89" s="39"/>
+      <c r="V89" s="39"/>
+      <c r="W89" s="111"/>
+    </row>
+    <row r="90" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="39"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="108"/>
+      <c r="F90" s="39"/>
+      <c r="G90" s="39"/>
+      <c r="H90" s="39"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="16"/>
+      <c r="K90" s="16"/>
+      <c r="L90" s="16"/>
+      <c r="M90" s="16"/>
+      <c r="N90" s="16"/>
+      <c r="O90" s="39"/>
+      <c r="P90" s="39"/>
+      <c r="Q90" s="39"/>
+      <c r="R90" s="39"/>
+      <c r="S90" s="39"/>
+      <c r="T90" s="39"/>
+      <c r="U90" s="39"/>
+      <c r="V90" s="39"/>
+      <c r="W90" s="111"/>
+    </row>
+    <row r="91" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="39"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="108"/>
+      <c r="F91" s="39"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="16"/>
+      <c r="K91" s="16"/>
+      <c r="L91" s="16"/>
+      <c r="M91" s="16"/>
+      <c r="N91" s="16"/>
+      <c r="O91" s="39"/>
+      <c r="P91" s="39"/>
+      <c r="Q91" s="39"/>
+      <c r="R91" s="39"/>
+      <c r="S91" s="39"/>
+      <c r="T91" s="39"/>
+      <c r="U91" s="39"/>
+      <c r="V91" s="39"/>
+      <c r="W91" s="111"/>
+    </row>
+    <row r="92" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="39"/>
+      <c r="B92" s="39"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="108"/>
+      <c r="F92" s="39"/>
+      <c r="G92" s="39"/>
+      <c r="H92" s="39"/>
+      <c r="I92" s="39"/>
+      <c r="J92" s="16"/>
+      <c r="K92" s="16"/>
+      <c r="L92" s="16"/>
+      <c r="M92" s="16"/>
+      <c r="N92" s="16"/>
+      <c r="O92" s="39"/>
+      <c r="P92" s="39"/>
+      <c r="Q92" s="39"/>
+      <c r="R92" s="39"/>
+      <c r="S92" s="39"/>
+      <c r="T92" s="39"/>
+      <c r="U92" s="39"/>
+      <c r="V92" s="39"/>
+      <c r="W92" s="111"/>
+    </row>
+    <row r="93" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="39"/>
+      <c r="B93" s="39"/>
+      <c r="C93" s="39"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="108"/>
+      <c r="F93" s="39"/>
+      <c r="G93" s="39"/>
+      <c r="H93" s="39"/>
+      <c r="I93" s="39"/>
+      <c r="J93" s="16"/>
+      <c r="K93" s="16"/>
+      <c r="L93" s="16"/>
+      <c r="M93" s="16"/>
+      <c r="N93" s="16"/>
+      <c r="O93" s="39"/>
+      <c r="P93" s="39"/>
+      <c r="Q93" s="39"/>
+      <c r="R93" s="39"/>
+      <c r="S93" s="39"/>
+      <c r="T93" s="39"/>
+      <c r="U93" s="39"/>
+      <c r="V93" s="39"/>
+      <c r="W93" s="111"/>
+    </row>
+    <row r="94" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="39"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="39"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="108"/>
+      <c r="F94" s="39"/>
+      <c r="G94" s="39"/>
+      <c r="H94" s="39"/>
+      <c r="I94" s="39"/>
+      <c r="J94" s="16"/>
+      <c r="K94" s="16"/>
+      <c r="L94" s="16"/>
+      <c r="M94" s="16"/>
+      <c r="N94" s="16"/>
+      <c r="O94" s="39"/>
+      <c r="P94" s="39"/>
+      <c r="Q94" s="39"/>
+      <c r="R94" s="39"/>
+      <c r="S94" s="39"/>
+      <c r="T94" s="39"/>
+      <c r="U94" s="39"/>
+      <c r="V94" s="39"/>
+      <c r="W94" s="111"/>
+    </row>
+    <row r="95" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="39"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="39"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="108"/>
+      <c r="F95" s="39"/>
+      <c r="G95" s="39"/>
+      <c r="H95" s="39"/>
+      <c r="I95" s="39"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="16"/>
+      <c r="L95" s="16"/>
+      <c r="M95" s="16"/>
+      <c r="N95" s="16"/>
+      <c r="O95" s="39"/>
+      <c r="P95" s="39"/>
+      <c r="Q95" s="39"/>
+      <c r="R95" s="39"/>
+      <c r="S95" s="39"/>
+      <c r="T95" s="39"/>
+      <c r="U95" s="39"/>
+      <c r="V95" s="39"/>
+      <c r="W95" s="111"/>
+    </row>
+    <row r="96" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="39"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="108"/>
+      <c r="F96" s="39"/>
+      <c r="G96" s="39"/>
+      <c r="H96" s="39"/>
+      <c r="I96" s="39"/>
+      <c r="J96" s="16"/>
+      <c r="K96" s="16"/>
+      <c r="L96" s="16"/>
+      <c r="M96" s="16"/>
+      <c r="N96" s="16"/>
+      <c r="O96" s="39"/>
+      <c r="P96" s="39"/>
+      <c r="Q96" s="39"/>
+      <c r="R96" s="39"/>
+      <c r="S96" s="39"/>
+      <c r="T96" s="39"/>
+      <c r="U96" s="39"/>
+      <c r="V96" s="39"/>
+      <c r="W96" s="111"/>
+    </row>
+    <row r="97" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="39"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="39"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="108"/>
+      <c r="F97" s="39"/>
+      <c r="G97" s="39"/>
+      <c r="H97" s="39"/>
+      <c r="I97" s="39"/>
+      <c r="J97" s="16"/>
+      <c r="K97" s="16"/>
+      <c r="L97" s="16"/>
+      <c r="M97" s="16"/>
+      <c r="N97" s="16"/>
+      <c r="O97" s="39"/>
+      <c r="P97" s="39"/>
+      <c r="Q97" s="39"/>
+      <c r="R97" s="39"/>
+      <c r="S97" s="39"/>
+      <c r="T97" s="39"/>
+      <c r="U97" s="39"/>
+      <c r="V97" s="39"/>
+      <c r="W97" s="111"/>
+    </row>
+    <row r="98" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="39"/>
+      <c r="B98" s="39"/>
+      <c r="C98" s="39"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="108"/>
+      <c r="F98" s="39"/>
+      <c r="G98" s="39"/>
+      <c r="H98" s="39"/>
+      <c r="I98" s="39"/>
+      <c r="J98" s="16"/>
+      <c r="K98" s="16"/>
+      <c r="L98" s="16"/>
+      <c r="M98" s="16"/>
+      <c r="N98" s="16"/>
+      <c r="O98" s="39"/>
+      <c r="P98" s="39"/>
+      <c r="Q98" s="39"/>
+      <c r="R98" s="39"/>
+      <c r="S98" s="39"/>
+      <c r="T98" s="39"/>
+      <c r="U98" s="39"/>
+      <c r="V98" s="39"/>
+      <c r="W98" s="111"/>
+    </row>
+    <row r="99" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="39"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="39"/>
+      <c r="D99" s="39"/>
+      <c r="E99" s="108"/>
+      <c r="F99" s="39"/>
+      <c r="G99" s="39"/>
+      <c r="H99" s="39"/>
+      <c r="I99" s="39"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="16"/>
+      <c r="L99" s="16"/>
+      <c r="M99" s="16"/>
+      <c r="N99" s="16"/>
+      <c r="O99" s="39"/>
+      <c r="P99" s="39"/>
+      <c r="Q99" s="39"/>
+      <c r="R99" s="39"/>
+      <c r="S99" s="39"/>
+      <c r="T99" s="39"/>
+      <c r="U99" s="39"/>
+      <c r="V99" s="39"/>
+      <c r="W99" s="111"/>
+    </row>
+    <row r="100" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="39"/>
+      <c r="B100" s="39"/>
+      <c r="C100" s="39"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="108"/>
+      <c r="F100" s="39"/>
+      <c r="G100" s="39"/>
+      <c r="H100" s="39"/>
+      <c r="I100" s="39"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="16"/>
+      <c r="L100" s="16"/>
+      <c r="M100" s="16"/>
+      <c r="N100" s="16"/>
+      <c r="O100" s="39"/>
+      <c r="P100" s="39"/>
+      <c r="Q100" s="39"/>
+      <c r="R100" s="39"/>
+      <c r="S100" s="39"/>
+      <c r="T100" s="39"/>
+      <c r="U100" s="39"/>
+      <c r="V100" s="39"/>
+      <c r="W100" s="111"/>
+    </row>
+    <row r="101" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="39"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="39"/>
+      <c r="D101" s="39"/>
+      <c r="E101" s="108"/>
+      <c r="F101" s="39"/>
+      <c r="G101" s="39"/>
+      <c r="H101" s="39"/>
+      <c r="I101" s="39"/>
+      <c r="J101" s="16"/>
+      <c r="K101" s="16"/>
+      <c r="L101" s="16"/>
+      <c r="M101" s="16"/>
+      <c r="N101" s="16"/>
+      <c r="O101" s="39"/>
+      <c r="P101" s="39"/>
+      <c r="Q101" s="39"/>
+      <c r="R101" s="39"/>
+      <c r="S101" s="39"/>
+      <c r="T101" s="39"/>
+      <c r="U101" s="39"/>
+      <c r="V101" s="39"/>
+      <c r="W101" s="111"/>
+    </row>
+    <row r="102" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="39"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="39"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="108"/>
+      <c r="F102" s="39"/>
+      <c r="G102" s="39"/>
+      <c r="H102" s="39"/>
+      <c r="I102" s="39"/>
+      <c r="J102" s="16"/>
+      <c r="K102" s="16"/>
+      <c r="L102" s="16"/>
+      <c r="M102" s="16"/>
+      <c r="N102" s="16"/>
+      <c r="O102" s="39"/>
+      <c r="P102" s="39"/>
+      <c r="Q102" s="39"/>
+      <c r="R102" s="39"/>
+      <c r="S102" s="39"/>
+      <c r="T102" s="39"/>
+      <c r="U102" s="39"/>
+      <c r="V102" s="39"/>
+      <c r="W102" s="111"/>
+    </row>
+    <row r="103" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="39"/>
+      <c r="B103" s="39"/>
+      <c r="C103" s="39"/>
+      <c r="D103" s="39"/>
+      <c r="E103" s="108"/>
+      <c r="F103" s="39"/>
+      <c r="G103" s="39"/>
+      <c r="H103" s="39"/>
+      <c r="I103" s="39"/>
+      <c r="J103" s="16"/>
+      <c r="K103" s="16"/>
+      <c r="L103" s="16"/>
+      <c r="M103" s="16"/>
+      <c r="N103" s="16"/>
+      <c r="O103" s="39"/>
+      <c r="P103" s="39"/>
+      <c r="Q103" s="39"/>
+      <c r="R103" s="39"/>
+      <c r="S103" s="39"/>
+      <c r="T103" s="39"/>
+      <c r="U103" s="39"/>
+      <c r="V103" s="39"/>
+      <c r="W103" s="111"/>
+    </row>
+    <row r="104" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="39"/>
+      <c r="B104" s="39"/>
+      <c r="C104" s="39"/>
+      <c r="D104" s="39"/>
+      <c r="E104" s="108"/>
+      <c r="F104" s="39"/>
+      <c r="G104" s="39"/>
+      <c r="H104" s="39"/>
+      <c r="I104" s="39"/>
+      <c r="J104" s="16"/>
+      <c r="K104" s="16"/>
+      <c r="L104" s="16"/>
+      <c r="M104" s="16"/>
+      <c r="N104" s="16"/>
+      <c r="O104" s="39"/>
+      <c r="P104" s="39"/>
+      <c r="Q104" s="39"/>
+      <c r="R104" s="39"/>
+      <c r="S104" s="39"/>
+      <c r="T104" s="39"/>
+      <c r="U104" s="39"/>
+      <c r="V104" s="39"/>
+      <c r="W104" s="111"/>
+    </row>
+    <row r="105" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="39"/>
+      <c r="B105" s="39"/>
+      <c r="C105" s="39"/>
+      <c r="D105" s="39"/>
+      <c r="E105" s="108"/>
+      <c r="F105" s="39"/>
+      <c r="G105" s="39"/>
+      <c r="H105" s="39"/>
+      <c r="I105" s="39"/>
+      <c r="J105" s="16"/>
+      <c r="K105" s="16"/>
+      <c r="L105" s="16"/>
+      <c r="M105" s="16"/>
+      <c r="N105" s="16"/>
+      <c r="O105" s="39"/>
+      <c r="P105" s="39"/>
+      <c r="Q105" s="39"/>
+      <c r="R105" s="39"/>
+      <c r="S105" s="39"/>
+      <c r="T105" s="39"/>
+      <c r="U105" s="39"/>
+      <c r="V105" s="39"/>
+      <c r="W105" s="111"/>
+    </row>
+    <row r="106" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="39"/>
+      <c r="B106" s="39"/>
+      <c r="C106" s="39"/>
+      <c r="D106" s="39"/>
+      <c r="E106" s="108"/>
+      <c r="F106" s="39"/>
+      <c r="G106" s="39"/>
+      <c r="H106" s="39"/>
+      <c r="I106" s="39"/>
+      <c r="J106" s="16"/>
+      <c r="K106" s="16"/>
+      <c r="L106" s="16"/>
+      <c r="M106" s="16"/>
+      <c r="N106" s="16"/>
+      <c r="O106" s="39"/>
+      <c r="P106" s="39"/>
+      <c r="Q106" s="39"/>
+      <c r="R106" s="39"/>
+      <c r="S106" s="39"/>
+      <c r="T106" s="39"/>
+      <c r="U106" s="39"/>
+      <c r="V106" s="39"/>
+      <c r="W106" s="111"/>
+    </row>
+    <row r="107" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="39"/>
+      <c r="B107" s="39"/>
+      <c r="C107" s="39"/>
+      <c r="D107" s="39"/>
+      <c r="E107" s="108"/>
+      <c r="F107" s="39"/>
+      <c r="G107" s="39"/>
+      <c r="H107" s="39"/>
+      <c r="I107" s="39"/>
+      <c r="J107" s="16"/>
+      <c r="K107" s="16"/>
+      <c r="L107" s="16"/>
+      <c r="M107" s="16"/>
+      <c r="N107" s="16"/>
+      <c r="O107" s="39"/>
+      <c r="P107" s="39"/>
+      <c r="Q107" s="39"/>
+      <c r="R107" s="39"/>
+      <c r="S107" s="39"/>
+      <c r="T107" s="39"/>
+      <c r="U107" s="39"/>
+      <c r="V107" s="39"/>
+      <c r="W107" s="111"/>
+    </row>
+    <row r="108" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="39"/>
+      <c r="B108" s="39"/>
+      <c r="C108" s="39"/>
+      <c r="D108" s="39"/>
+      <c r="E108" s="108"/>
+      <c r="F108" s="39"/>
+      <c r="G108" s="39"/>
+      <c r="H108" s="39"/>
+      <c r="I108" s="39"/>
+      <c r="J108" s="16"/>
+      <c r="K108" s="16"/>
+      <c r="L108" s="16"/>
+      <c r="M108" s="16"/>
+      <c r="N108" s="16"/>
+      <c r="O108" s="39"/>
+      <c r="P108" s="39"/>
+      <c r="Q108" s="39"/>
+      <c r="R108" s="39"/>
+      <c r="S108" s="39"/>
+      <c r="T108" s="39"/>
+      <c r="U108" s="39"/>
+      <c r="V108" s="39"/>
+      <c r="W108" s="111"/>
+    </row>
+    <row r="109" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="39"/>
+      <c r="B109" s="39"/>
+      <c r="C109" s="39"/>
+      <c r="D109" s="39"/>
+      <c r="E109" s="108"/>
+      <c r="F109" s="39"/>
+      <c r="G109" s="39"/>
+      <c r="H109" s="39"/>
+      <c r="I109" s="39"/>
+      <c r="J109" s="16"/>
+      <c r="K109" s="16"/>
+      <c r="L109" s="16"/>
+      <c r="M109" s="16"/>
+      <c r="N109" s="16"/>
+      <c r="O109" s="39"/>
+      <c r="P109" s="39"/>
+      <c r="Q109" s="39"/>
+      <c r="R109" s="39"/>
+      <c r="S109" s="39"/>
+      <c r="T109" s="39"/>
+      <c r="U109" s="39"/>
+      <c r="V109" s="39"/>
+      <c r="W109" s="111"/>
+    </row>
+    <row r="110" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="39"/>
+      <c r="B110" s="39"/>
+      <c r="C110" s="39"/>
+      <c r="D110" s="39"/>
+      <c r="E110" s="108"/>
+      <c r="F110" s="39"/>
+      <c r="G110" s="39"/>
+      <c r="H110" s="39"/>
+      <c r="I110" s="39"/>
+      <c r="J110" s="16"/>
+      <c r="K110" s="16"/>
+      <c r="L110" s="16"/>
+      <c r="M110" s="16"/>
+      <c r="N110" s="16"/>
+      <c r="O110" s="39"/>
+      <c r="P110" s="39"/>
+      <c r="Q110" s="39"/>
+      <c r="R110" s="39"/>
+      <c r="S110" s="39"/>
+      <c r="T110" s="39"/>
+      <c r="U110" s="39"/>
+      <c r="V110" s="39"/>
+      <c r="W110" s="111"/>
+    </row>
+    <row r="111" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="39"/>
+      <c r="B111" s="39"/>
+      <c r="C111" s="39"/>
+      <c r="D111" s="39"/>
+      <c r="E111" s="108"/>
+      <c r="F111" s="39"/>
+      <c r="G111" s="39"/>
+      <c r="H111" s="39"/>
+      <c r="I111" s="39"/>
+      <c r="J111" s="16"/>
+      <c r="K111" s="16"/>
+      <c r="L111" s="16"/>
+      <c r="M111" s="16"/>
+      <c r="N111" s="16"/>
+      <c r="O111" s="39"/>
+      <c r="P111" s="39"/>
+      <c r="Q111" s="39"/>
+      <c r="R111" s="39"/>
+      <c r="S111" s="39"/>
+      <c r="T111" s="39"/>
+      <c r="U111" s="39"/>
+      <c r="V111" s="39"/>
+      <c r="W111" s="111"/>
+    </row>
+    <row r="112" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="39"/>
+      <c r="B112" s="39"/>
+      <c r="C112" s="39"/>
+      <c r="D112" s="39"/>
+      <c r="E112" s="108"/>
+      <c r="F112" s="39"/>
+      <c r="G112" s="39"/>
+      <c r="H112" s="39"/>
+      <c r="I112" s="39"/>
+      <c r="J112" s="16"/>
+      <c r="K112" s="16"/>
+      <c r="L112" s="16"/>
+      <c r="M112" s="16"/>
+      <c r="N112" s="16"/>
+      <c r="O112" s="39"/>
+      <c r="P112" s="39"/>
+      <c r="Q112" s="39"/>
+      <c r="R112" s="39"/>
+      <c r="S112" s="39"/>
+      <c r="T112" s="39"/>
+      <c r="U112" s="39"/>
+      <c r="V112" s="39"/>
+      <c r="W112" s="111"/>
+    </row>
+    <row r="113" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="39"/>
+      <c r="B113" s="39"/>
+      <c r="C113" s="39"/>
+      <c r="D113" s="39"/>
+      <c r="E113" s="108"/>
+      <c r="F113" s="39"/>
+      <c r="G113" s="39"/>
+      <c r="H113" s="39"/>
+      <c r="I113" s="39"/>
+      <c r="J113" s="16"/>
+      <c r="K113" s="16"/>
+      <c r="L113" s="16"/>
+      <c r="M113" s="16"/>
+      <c r="N113" s="16"/>
+      <c r="O113" s="39"/>
+      <c r="P113" s="39"/>
+      <c r="Q113" s="39"/>
+      <c r="R113" s="39"/>
+      <c r="S113" s="39"/>
+      <c r="T113" s="39"/>
+      <c r="U113" s="39"/>
+      <c r="V113" s="39"/>
+      <c r="W113" s="111"/>
+    </row>
+    <row r="114" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="39"/>
+      <c r="B114" s="39"/>
+      <c r="C114" s="39"/>
+      <c r="D114" s="39"/>
+      <c r="E114" s="108"/>
+      <c r="F114" s="39"/>
+      <c r="G114" s="39"/>
+      <c r="H114" s="39"/>
+      <c r="I114" s="39"/>
+      <c r="J114" s="16"/>
+      <c r="K114" s="16"/>
+      <c r="L114" s="16"/>
+      <c r="M114" s="16"/>
+      <c r="N114" s="16"/>
+      <c r="O114" s="39"/>
+      <c r="P114" s="39"/>
+      <c r="Q114" s="39"/>
+      <c r="R114" s="39"/>
+      <c r="S114" s="39"/>
+      <c r="T114" s="39"/>
+      <c r="U114" s="39"/>
+      <c r="V114" s="39"/>
+      <c r="W114" s="111"/>
+    </row>
+    <row r="115" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="39"/>
+      <c r="B115" s="39"/>
+      <c r="C115" s="39"/>
+      <c r="D115" s="39"/>
+      <c r="E115" s="108"/>
+      <c r="F115" s="39"/>
+      <c r="G115" s="39"/>
+      <c r="H115" s="62"/>
+      <c r="I115" s="39"/>
+      <c r="J115" s="16"/>
+      <c r="K115" s="111"/>
+      <c r="L115" s="111"/>
+      <c r="M115" s="111"/>
+      <c r="N115" s="111"/>
+      <c r="O115" s="39"/>
+      <c r="P115" s="39"/>
+      <c r="Q115" s="39"/>
+      <c r="R115" s="39"/>
+      <c r="S115" s="39"/>
+      <c r="T115" s="39"/>
+      <c r="U115" s="39"/>
+      <c r="V115" s="39"/>
+      <c r="W115" s="111"/>
+    </row>
+    <row r="116" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="39"/>
+      <c r="B116" s="39"/>
+      <c r="C116" s="39"/>
+      <c r="D116" s="39"/>
+      <c r="E116" s="108"/>
+      <c r="F116" s="39"/>
+      <c r="G116" s="39"/>
+      <c r="H116" s="62"/>
+      <c r="I116" s="39"/>
+      <c r="J116" s="129" t="s">
+        <v>205</v>
+      </c>
+      <c r="K116" s="111"/>
+      <c r="L116" s="111"/>
+      <c r="M116" s="111"/>
+      <c r="N116" s="111"/>
+      <c r="O116" s="39"/>
+      <c r="P116" s="39"/>
+      <c r="Q116" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="R116" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="S116" s="39"/>
+      <c r="T116" s="39"/>
+      <c r="U116" s="39"/>
+      <c r="V116" s="39"/>
+      <c r="W116" s="111"/>
+    </row>
+    <row r="117" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="39"/>
+      <c r="B117" s="39"/>
+      <c r="C117" s="39"/>
+      <c r="D117" s="39"/>
+      <c r="E117" s="108"/>
+      <c r="F117" s="39"/>
+      <c r="G117" s="39"/>
+      <c r="H117" s="62"/>
+      <c r="I117" s="39"/>
+      <c r="J117" s="129" t="s">
+        <v>206</v>
+      </c>
+      <c r="K117" s="111"/>
+      <c r="L117" s="111"/>
+      <c r="M117" s="111"/>
+      <c r="N117" s="111"/>
+      <c r="O117" s="39"/>
+      <c r="P117" s="39"/>
+      <c r="Q117" s="43">
+        <v>2025</v>
+      </c>
+      <c r="R117" s="44">
+        <f>COUNTIF(D1:D57,Q117)</f>
+        <v>0</v>
+      </c>
+      <c r="S117" s="39"/>
+      <c r="T117" s="39"/>
+      <c r="U117" s="39"/>
+      <c r="V117" s="39"/>
+      <c r="W117" s="111"/>
+    </row>
+    <row r="118" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="39"/>
+      <c r="B118" s="39"/>
+      <c r="C118" s="39"/>
+      <c r="D118" s="39"/>
+      <c r="E118" s="108"/>
+      <c r="F118" s="39"/>
+      <c r="G118" s="39"/>
+      <c r="H118" s="62"/>
+      <c r="I118" s="39"/>
+      <c r="J118" s="16"/>
+      <c r="K118" s="111"/>
+      <c r="L118" s="111"/>
+      <c r="M118" s="111"/>
+      <c r="N118" s="111"/>
+      <c r="O118" s="39"/>
+      <c r="P118" s="39"/>
+      <c r="Q118" s="45">
+        <v>2024</v>
+      </c>
+      <c r="R118" s="46">
+        <f>COUNTIF(D2:D58,Q118)</f>
+        <v>0</v>
+      </c>
+      <c r="S118" s="39"/>
+      <c r="T118" s="39"/>
+      <c r="U118" s="39"/>
+      <c r="V118" s="39"/>
+      <c r="W118" s="111"/>
+    </row>
+    <row r="119" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="39"/>
+      <c r="B119" s="39"/>
+      <c r="C119" s="39"/>
+      <c r="D119" s="39"/>
+      <c r="E119" s="108"/>
+      <c r="F119" s="39"/>
+      <c r="G119" s="39"/>
+      <c r="H119" s="62"/>
+      <c r="I119" s="39"/>
+      <c r="J119" s="16"/>
+      <c r="K119" s="111"/>
+      <c r="L119" s="111"/>
+      <c r="M119" s="111"/>
+      <c r="N119" s="111"/>
+      <c r="O119" s="39"/>
+      <c r="P119" s="39"/>
+      <c r="Q119" s="46">
+        <v>2023</v>
+      </c>
+      <c r="R119" s="167">
+        <f>COUNTIF(D3:D59,Q119)</f>
+        <v>0</v>
+      </c>
+      <c r="S119" s="39"/>
+      <c r="T119" s="39"/>
+      <c r="U119" s="39"/>
+      <c r="V119" s="39"/>
+      <c r="W119" s="111"/>
+    </row>
+    <row r="120" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="39"/>
+      <c r="B120" s="39"/>
+      <c r="C120" s="39"/>
+      <c r="D120" s="39"/>
+      <c r="E120" s="108"/>
+      <c r="F120" s="39"/>
+      <c r="G120" s="39"/>
+      <c r="H120" s="62"/>
+      <c r="I120" s="39"/>
+      <c r="J120" s="16"/>
+      <c r="K120" s="111"/>
+      <c r="L120" s="111"/>
+      <c r="M120" s="111"/>
+      <c r="N120" s="111"/>
+      <c r="O120" s="39"/>
+      <c r="P120" s="39"/>
+      <c r="Q120" s="46">
+        <v>2022</v>
+      </c>
+      <c r="R120" s="167">
+        <f>COUNTIF(D3:D58,Q120)</f>
+        <v>0</v>
+      </c>
+      <c r="S120" s="39"/>
+      <c r="T120" s="39"/>
+      <c r="U120" s="39"/>
+      <c r="V120" s="39"/>
+      <c r="W120" s="111"/>
+    </row>
+    <row r="121" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="39"/>
+      <c r="B121" s="39"/>
+      <c r="C121" s="39"/>
+      <c r="D121" s="39"/>
+      <c r="E121" s="108"/>
+      <c r="F121" s="39"/>
+      <c r="G121" s="39"/>
+      <c r="H121" s="62"/>
+      <c r="I121" s="39"/>
+      <c r="J121" s="16"/>
+      <c r="K121" s="111"/>
+      <c r="L121" s="111"/>
+      <c r="M121" s="111"/>
+      <c r="N121" s="111"/>
+      <c r="O121" s="39"/>
+      <c r="P121" s="39"/>
+      <c r="Q121" s="144">
+        <v>2021</v>
+      </c>
+      <c r="R121" s="145">
+        <f>COUNTIF(D3:D59,Q121)</f>
+        <v>0</v>
+      </c>
+      <c r="S121" s="39"/>
+      <c r="T121" s="39"/>
+      <c r="U121" s="39"/>
+      <c r="V121" s="39"/>
+      <c r="W121" s="111"/>
+    </row>
+    <row r="122" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="39"/>
+      <c r="B122" s="39"/>
+      <c r="C122" s="39"/>
+      <c r="D122" s="39"/>
+      <c r="E122" s="108"/>
+      <c r="F122" s="39"/>
+      <c r="G122" s="39"/>
+      <c r="H122" s="62"/>
+      <c r="I122" s="39"/>
+      <c r="J122" s="16"/>
+      <c r="K122" s="111"/>
+      <c r="L122" s="111"/>
+      <c r="M122" s="111"/>
+      <c r="N122" s="111"/>
+      <c r="O122" s="39"/>
+      <c r="P122" s="39"/>
+      <c r="Q122" s="45">
+        <v>2020</v>
+      </c>
+      <c r="R122" s="46">
+        <f>COUNTIF(D3:D59,Q122)</f>
+        <v>0</v>
+      </c>
+      <c r="S122" s="39"/>
+      <c r="T122" s="39"/>
+      <c r="U122" s="39"/>
+      <c r="V122" s="39"/>
+      <c r="W122" s="111"/>
+    </row>
+    <row r="123" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="39"/>
+      <c r="B123" s="39"/>
+      <c r="C123" s="39"/>
+      <c r="D123" s="39"/>
+      <c r="E123" s="108"/>
+      <c r="F123" s="39"/>
+      <c r="G123" s="39"/>
+      <c r="H123" s="62"/>
+      <c r="I123" s="39"/>
+      <c r="J123" s="16"/>
+      <c r="K123" s="111"/>
+      <c r="L123" s="111"/>
+      <c r="M123" s="111"/>
+      <c r="N123" s="111"/>
+      <c r="O123" s="39"/>
+      <c r="P123" s="39"/>
+      <c r="Q123" s="45">
+        <v>2019</v>
+      </c>
+      <c r="R123" s="46">
+        <f>COUNTIF(D3:D59,Q123)</f>
+        <v>0</v>
+      </c>
+      <c r="S123" s="39"/>
+      <c r="T123" s="39"/>
+      <c r="U123" s="39"/>
+      <c r="V123" s="39"/>
+      <c r="W123" s="111"/>
+    </row>
+    <row r="124" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="39"/>
+      <c r="B124" s="39"/>
+      <c r="C124" s="39"/>
+      <c r="D124" s="39"/>
+      <c r="E124" s="108"/>
+      <c r="F124" s="39"/>
+      <c r="G124" s="39"/>
+      <c r="H124" s="62"/>
+      <c r="I124" s="39"/>
+      <c r="J124" s="16"/>
+      <c r="K124" s="111"/>
+      <c r="L124" s="111"/>
+      <c r="M124" s="111"/>
+      <c r="N124" s="111"/>
+      <c r="O124" s="39"/>
+      <c r="P124" s="39"/>
+      <c r="Q124" s="45">
+        <v>2018</v>
+      </c>
+      <c r="R124" s="46">
+        <f>COUNTIF(D3:D59,Q124)</f>
+        <v>0</v>
+      </c>
+      <c r="S124" s="39"/>
+      <c r="T124" s="39"/>
+      <c r="U124" s="39"/>
+      <c r="V124" s="39"/>
+      <c r="W124" s="111"/>
+    </row>
+    <row r="125" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="39"/>
+      <c r="B125" s="39"/>
+      <c r="C125" s="39"/>
+      <c r="D125" s="39"/>
+      <c r="E125" s="108"/>
+      <c r="F125" s="39"/>
+      <c r="G125" s="39"/>
+      <c r="H125" s="39"/>
+      <c r="I125" s="39"/>
+      <c r="J125" s="16"/>
+      <c r="K125" s="16"/>
+      <c r="L125" s="16"/>
+      <c r="M125" s="16"/>
+      <c r="N125" s="16"/>
+      <c r="O125" s="39"/>
+      <c r="P125" s="39"/>
+      <c r="Q125" s="45">
+        <v>2017</v>
+      </c>
+      <c r="R125" s="46">
+        <f>COUNTIF(D3:D59,Q125)</f>
+        <v>0</v>
+      </c>
+      <c r="S125" s="39"/>
+      <c r="T125" s="39"/>
+      <c r="U125" s="39"/>
+      <c r="V125" s="39"/>
+      <c r="W125" s="111"/>
+    </row>
+    <row r="126" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="39"/>
+      <c r="B126" s="39"/>
+      <c r="C126" s="39"/>
+      <c r="D126" s="39"/>
+      <c r="E126" s="108"/>
+      <c r="F126" s="39"/>
+      <c r="G126" s="39"/>
+      <c r="H126" s="39"/>
+      <c r="I126" s="39"/>
+      <c r="J126" s="16"/>
+      <c r="K126" s="16"/>
+      <c r="L126" s="16"/>
+      <c r="M126" s="16"/>
+      <c r="N126" s="16"/>
+      <c r="O126" s="39"/>
+      <c r="P126" s="39"/>
+      <c r="Q126" s="45">
+        <v>2016</v>
+      </c>
+      <c r="R126" s="46">
+        <f>COUNTIF(D3:D59,Q126)</f>
+        <v>0</v>
+      </c>
+      <c r="S126" s="39"/>
+      <c r="T126" s="39"/>
+      <c r="U126" s="39"/>
+      <c r="V126" s="39"/>
+      <c r="W126" s="111"/>
+    </row>
+    <row r="127" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="39"/>
+      <c r="B127" s="39"/>
+      <c r="C127" s="39"/>
+      <c r="D127" s="39"/>
+      <c r="E127" s="108"/>
+      <c r="F127" s="39"/>
+      <c r="G127" s="39"/>
+      <c r="H127" s="39"/>
+      <c r="I127" s="39"/>
+      <c r="J127" s="16"/>
+      <c r="K127" s="16"/>
+      <c r="L127" s="16"/>
+      <c r="M127" s="16"/>
+      <c r="N127" s="16"/>
+      <c r="O127" s="39"/>
+      <c r="P127" s="39"/>
+      <c r="Q127" s="45">
+        <v>2015</v>
+      </c>
+      <c r="R127" s="46">
+        <f>COUNTIF(D3:D59,Q127)</f>
+        <v>0</v>
+      </c>
+      <c r="S127" s="39"/>
+      <c r="T127" s="39"/>
+      <c r="U127" s="39"/>
+      <c r="V127" s="39"/>
+      <c r="W127" s="111"/>
+    </row>
+    <row r="128" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="39"/>
+      <c r="B128" s="39"/>
+      <c r="C128" s="39"/>
+      <c r="D128" s="39"/>
+      <c r="E128" s="108"/>
+      <c r="F128" s="39"/>
+      <c r="G128" s="39"/>
+      <c r="H128" s="39"/>
+      <c r="I128" s="39"/>
+      <c r="J128" s="16"/>
+      <c r="K128" s="16"/>
+      <c r="L128" s="16"/>
+      <c r="M128" s="16"/>
+      <c r="N128" s="16"/>
+      <c r="O128" s="39"/>
+      <c r="P128" s="39"/>
+      <c r="Q128" s="45">
+        <v>2014</v>
+      </c>
+      <c r="R128" s="46">
+        <f>COUNTIF(D3:D59,Q128)</f>
+        <v>0</v>
+      </c>
+      <c r="S128" s="39"/>
+      <c r="T128" s="39"/>
+      <c r="U128" s="39"/>
+      <c r="V128" s="39"/>
+      <c r="W128" s="111"/>
+    </row>
+    <row r="129" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="39"/>
+      <c r="B129" s="39"/>
+      <c r="C129" s="39"/>
+      <c r="D129" s="39"/>
+      <c r="E129" s="108"/>
+      <c r="F129" s="39"/>
+      <c r="G129" s="39"/>
+      <c r="H129" s="39"/>
+      <c r="I129" s="39"/>
+      <c r="J129" s="16"/>
+      <c r="K129" s="16"/>
+      <c r="L129" s="16"/>
+      <c r="M129" s="16"/>
+      <c r="N129" s="16"/>
+      <c r="O129" s="39"/>
+      <c r="P129" s="39"/>
+      <c r="Q129" s="45">
+        <v>2013</v>
+      </c>
+      <c r="R129" s="46">
+        <f>COUNTIF(D3:D59,Q129)</f>
+        <v>0</v>
+      </c>
+      <c r="S129" s="39"/>
+      <c r="T129" s="39"/>
+      <c r="U129" s="39"/>
+      <c r="V129" s="39"/>
+      <c r="W129" s="111"/>
+    </row>
+    <row r="130" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="39"/>
+      <c r="B130" s="39"/>
+      <c r="C130" s="39"/>
+      <c r="D130" s="39"/>
+      <c r="E130" s="108"/>
+      <c r="F130" s="39"/>
+      <c r="G130" s="39"/>
+      <c r="H130" s="39"/>
+      <c r="I130" s="39"/>
+      <c r="J130" s="16"/>
+      <c r="K130" s="16"/>
+      <c r="L130" s="16"/>
+      <c r="M130" s="16"/>
+      <c r="N130" s="16"/>
+      <c r="O130" s="39"/>
+      <c r="P130" s="39"/>
+      <c r="Q130" s="45">
+        <v>2012</v>
+      </c>
+      <c r="R130" s="46">
+        <f>COUNTIF(D3:D59,Q130)</f>
+        <v>0</v>
+      </c>
+      <c r="S130" s="39"/>
+      <c r="T130" s="39"/>
+      <c r="U130" s="39"/>
+      <c r="V130" s="39"/>
+      <c r="W130" s="111"/>
+    </row>
+    <row r="131" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="39"/>
+      <c r="B131" s="39"/>
+      <c r="C131" s="39"/>
+      <c r="D131" s="39"/>
+      <c r="E131" s="108"/>
+      <c r="F131" s="39"/>
+      <c r="G131" s="39"/>
+      <c r="H131" s="39"/>
+      <c r="I131" s="39"/>
+      <c r="J131" s="16"/>
+      <c r="K131" s="16"/>
+      <c r="L131" s="16"/>
+      <c r="M131" s="16"/>
+      <c r="N131" s="16"/>
+      <c r="O131" s="39"/>
+      <c r="P131" s="39"/>
+      <c r="Q131" s="45">
+        <v>2011</v>
+      </c>
+      <c r="R131" s="46">
+        <f>COUNTIF(D3:D59,Q131)</f>
+        <v>0</v>
+      </c>
+      <c r="S131" s="39"/>
+      <c r="T131" s="39"/>
+      <c r="U131" s="39"/>
+      <c r="V131" s="39"/>
+      <c r="W131" s="111"/>
+    </row>
+    <row r="132" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="39"/>
+      <c r="B132" s="39"/>
+      <c r="C132" s="39"/>
+      <c r="D132" s="39"/>
+      <c r="E132" s="108"/>
+      <c r="F132" s="39"/>
+      <c r="G132" s="39"/>
+      <c r="H132" s="39"/>
+      <c r="I132" s="39"/>
+      <c r="J132" s="16"/>
+      <c r="K132" s="16"/>
+      <c r="L132" s="16"/>
+      <c r="M132" s="16"/>
+      <c r="N132" s="16"/>
+      <c r="O132" s="39"/>
+      <c r="P132" s="39"/>
+      <c r="Q132" s="45">
+        <v>2010</v>
+      </c>
+      <c r="R132" s="46">
+        <f>COUNTIF(D3:D59,Q132)</f>
+        <v>0</v>
+      </c>
+      <c r="S132" s="39"/>
+      <c r="T132" s="39"/>
+      <c r="U132" s="39"/>
+      <c r="V132" s="39"/>
+      <c r="W132" s="111"/>
+    </row>
+    <row r="133" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="39"/>
+      <c r="B133" s="39"/>
+      <c r="C133" s="39"/>
+      <c r="D133" s="39"/>
+      <c r="E133" s="108"/>
+      <c r="F133" s="39"/>
+      <c r="G133" s="39"/>
+      <c r="H133" s="39"/>
+      <c r="I133" s="39"/>
+      <c r="J133" s="16"/>
+      <c r="K133" s="16"/>
+      <c r="L133" s="16"/>
+      <c r="M133" s="16"/>
+      <c r="N133" s="16"/>
+      <c r="O133" s="39"/>
+      <c r="P133" s="39"/>
+      <c r="Q133" s="45">
+        <v>2009</v>
+      </c>
+      <c r="R133" s="46">
+        <f>COUNTIF(D3:D59,Q133)</f>
+        <v>0</v>
+      </c>
+      <c r="S133" s="39"/>
+      <c r="T133" s="39"/>
+      <c r="U133" s="39"/>
+      <c r="V133" s="39"/>
+      <c r="W133" s="111"/>
+    </row>
+    <row r="134" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="39"/>
+      <c r="B134" s="39"/>
+      <c r="C134" s="39"/>
+      <c r="D134" s="39"/>
+      <c r="E134" s="108"/>
+      <c r="F134" s="39"/>
+      <c r="G134" s="39"/>
+      <c r="H134" s="39"/>
+      <c r="I134" s="39"/>
+      <c r="J134" s="16"/>
+      <c r="K134" s="16"/>
+      <c r="L134" s="16"/>
+      <c r="M134" s="16"/>
+      <c r="N134" s="16"/>
+      <c r="O134" s="39"/>
+      <c r="P134" s="39"/>
+      <c r="Q134" s="45">
+        <v>2008</v>
+      </c>
+      <c r="R134" s="46">
+        <f>COUNTIF(D3:D59,Q134)</f>
+        <v>0</v>
+      </c>
+      <c r="S134" s="39"/>
+      <c r="T134" s="39"/>
+      <c r="U134" s="39"/>
+      <c r="V134" s="39"/>
+      <c r="W134" s="111"/>
+    </row>
+    <row r="135" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="39"/>
+      <c r="B135" s="39"/>
+      <c r="C135" s="39"/>
+      <c r="D135" s="39"/>
+      <c r="E135" s="108"/>
+      <c r="F135" s="39"/>
+      <c r="G135" s="39"/>
+      <c r="H135" s="39"/>
+      <c r="I135" s="39"/>
+      <c r="J135" s="16"/>
+      <c r="K135" s="16"/>
+      <c r="L135" s="16"/>
+      <c r="M135" s="16"/>
+      <c r="N135" s="16"/>
+      <c r="O135" s="39"/>
+      <c r="P135" s="39"/>
+      <c r="Q135" s="45">
+        <v>2007</v>
+      </c>
+      <c r="R135" s="46">
+        <f>COUNTIF(D3:D59,Q135)</f>
+        <v>0</v>
+      </c>
+      <c r="S135" s="39"/>
+      <c r="T135" s="39"/>
+      <c r="U135" s="39"/>
+      <c r="V135" s="39"/>
+      <c r="W135" s="111"/>
+    </row>
+    <row r="136" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="39"/>
+      <c r="B136" s="39"/>
+      <c r="C136" s="39"/>
+      <c r="D136" s="39"/>
+      <c r="E136" s="108"/>
+      <c r="F136" s="39"/>
+      <c r="G136" s="39"/>
+      <c r="H136" s="39"/>
+      <c r="I136" s="39"/>
+      <c r="J136" s="16"/>
+      <c r="K136" s="16"/>
+      <c r="L136" s="16"/>
+      <c r="M136" s="16"/>
+      <c r="N136" s="16"/>
+      <c r="O136" s="39"/>
+      <c r="P136" s="39"/>
+      <c r="Q136" s="45">
+        <v>2006</v>
+      </c>
+      <c r="R136" s="46">
+        <f>COUNTIF(D3:D59,Q136)</f>
+        <v>0</v>
+      </c>
+      <c r="S136" s="39"/>
+      <c r="T136" s="39"/>
+      <c r="U136" s="39"/>
+      <c r="V136" s="39"/>
+      <c r="W136" s="111"/>
+    </row>
+    <row r="137" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="39"/>
+      <c r="B137" s="39"/>
+      <c r="C137" s="39"/>
+      <c r="D137" s="39"/>
+      <c r="E137" s="108"/>
+      <c r="F137" s="39"/>
+      <c r="G137" s="39"/>
+      <c r="H137" s="39"/>
+      <c r="I137" s="39"/>
+      <c r="J137" s="16"/>
+      <c r="K137" s="16"/>
+      <c r="L137" s="16"/>
+      <c r="M137" s="16"/>
+      <c r="N137" s="16"/>
+      <c r="O137" s="39"/>
+      <c r="P137" s="39"/>
+      <c r="Q137" s="45">
+        <v>2005</v>
+      </c>
+      <c r="R137" s="46">
+        <f>COUNTIF(D3:D59,Q137)</f>
+        <v>0</v>
+      </c>
+      <c r="S137" s="39"/>
+      <c r="T137" s="39"/>
+      <c r="U137" s="39"/>
+      <c r="V137" s="39"/>
+      <c r="W137" s="111"/>
+    </row>
+    <row r="138" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="39"/>
+      <c r="B138" s="39"/>
+      <c r="C138" s="39"/>
+      <c r="D138" s="39"/>
+      <c r="E138" s="108"/>
+      <c r="F138" s="39"/>
+      <c r="G138" s="39"/>
+      <c r="H138" s="39"/>
+      <c r="I138" s="39"/>
+      <c r="J138" s="16"/>
+      <c r="K138" s="16"/>
+      <c r="L138" s="16"/>
+      <c r="M138" s="16"/>
+      <c r="N138" s="16"/>
+      <c r="O138" s="39"/>
+      <c r="P138" s="39"/>
+      <c r="Q138" s="45">
+        <v>2004</v>
+      </c>
+      <c r="R138" s="46">
+        <f>COUNTIF(D3:D59,Q138)</f>
+        <v>0</v>
+      </c>
+      <c r="S138" s="39"/>
+      <c r="T138" s="39"/>
+      <c r="U138" s="39"/>
+      <c r="V138" s="39"/>
+      <c r="W138" s="111"/>
+    </row>
+    <row r="139" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="39"/>
+      <c r="B139" s="39"/>
+      <c r="C139" s="39"/>
+      <c r="D139" s="39"/>
+      <c r="E139" s="108"/>
+      <c r="F139" s="39"/>
+      <c r="G139" s="39"/>
+      <c r="H139" s="39"/>
+      <c r="I139" s="39"/>
+      <c r="J139" s="16"/>
+      <c r="K139" s="16"/>
+      <c r="L139" s="16"/>
+      <c r="M139" s="16"/>
+      <c r="N139" s="16"/>
+      <c r="O139" s="39"/>
+      <c r="P139" s="39"/>
+      <c r="Q139" s="45">
+        <v>2003</v>
+      </c>
+      <c r="R139" s="46">
+        <f>COUNTIF(D3:D59,Q139)</f>
+        <v>0</v>
+      </c>
+      <c r="S139" s="39"/>
+      <c r="T139" s="39"/>
+      <c r="U139" s="39"/>
+      <c r="V139" s="39"/>
+      <c r="W139" s="111"/>
+    </row>
+    <row r="140" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="39"/>
+      <c r="B140" s="39"/>
+      <c r="C140" s="39"/>
+      <c r="D140" s="39"/>
+      <c r="E140" s="108"/>
+      <c r="F140" s="39"/>
+      <c r="G140" s="39"/>
+      <c r="H140" s="39"/>
+      <c r="I140" s="39"/>
+      <c r="J140" s="16"/>
+      <c r="K140" s="16"/>
+      <c r="L140" s="16"/>
+      <c r="M140" s="16"/>
+      <c r="N140" s="16"/>
+      <c r="O140" s="39"/>
+      <c r="P140" s="39"/>
+      <c r="Q140" s="45">
+        <v>2002</v>
+      </c>
+      <c r="R140" s="46">
+        <f>COUNTIF(D3:D59,Q140)</f>
+        <v>0</v>
+      </c>
+      <c r="S140" s="39"/>
+      <c r="T140" s="39"/>
+      <c r="U140" s="39"/>
+      <c r="V140" s="39"/>
+      <c r="W140" s="111"/>
+    </row>
+    <row r="141" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="39"/>
+      <c r="B141" s="39"/>
+      <c r="C141" s="39"/>
+      <c r="D141" s="39"/>
+      <c r="E141" s="108"/>
+      <c r="F141" s="39"/>
+      <c r="G141" s="39"/>
+      <c r="H141" s="39"/>
+      <c r="I141" s="39"/>
+      <c r="J141" s="16"/>
+      <c r="K141" s="16"/>
+      <c r="L141" s="16"/>
+      <c r="M141" s="16"/>
+      <c r="N141" s="16"/>
+      <c r="O141" s="39"/>
+      <c r="P141" s="39"/>
+      <c r="Q141" s="45">
+        <v>2001</v>
+      </c>
+      <c r="R141" s="46">
+        <f>COUNTIF(D3:D59,Q141)</f>
+        <v>0</v>
+      </c>
+      <c r="S141" s="39"/>
+      <c r="T141" s="39"/>
+      <c r="U141" s="39"/>
+      <c r="V141" s="39"/>
+      <c r="W141" s="111"/>
+    </row>
+    <row r="142" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="39"/>
+      <c r="B142" s="39"/>
+      <c r="C142" s="39"/>
+      <c r="D142" s="39"/>
+      <c r="E142" s="108"/>
+      <c r="F142" s="39"/>
+      <c r="G142" s="39"/>
+      <c r="H142" s="39"/>
+      <c r="I142" s="39"/>
+      <c r="J142" s="16"/>
+      <c r="K142" s="16"/>
+      <c r="L142" s="16"/>
+      <c r="M142" s="16"/>
+      <c r="N142" s="16"/>
+      <c r="O142" s="39"/>
+      <c r="P142" s="39"/>
+      <c r="Q142" s="45">
+        <v>2000</v>
+      </c>
+      <c r="R142" s="46">
+        <f>COUNTIF(D3:D59,Q142)</f>
+        <v>0</v>
+      </c>
+      <c r="S142" s="39"/>
+      <c r="T142" s="39"/>
+      <c r="U142" s="39"/>
+      <c r="V142" s="39"/>
+      <c r="W142" s="111"/>
+    </row>
+    <row r="143" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="39"/>
+      <c r="B143" s="39"/>
+      <c r="C143" s="39"/>
+      <c r="D143" s="39"/>
+      <c r="E143" s="108"/>
+      <c r="F143" s="39"/>
+      <c r="G143" s="39"/>
+      <c r="H143" s="39"/>
+      <c r="I143" s="39"/>
+      <c r="J143" s="16"/>
+      <c r="K143" s="16"/>
+      <c r="L143" s="16"/>
+      <c r="M143" s="16"/>
+      <c r="N143" s="16"/>
+      <c r="O143" s="39"/>
+      <c r="P143" s="39"/>
+      <c r="Q143" s="45">
+        <v>1999</v>
+      </c>
+      <c r="R143" s="46">
+        <f>COUNTIF(D3:D59,Q143)</f>
+        <v>0</v>
+      </c>
+      <c r="S143" s="39"/>
+      <c r="T143" s="39"/>
+      <c r="U143" s="39"/>
+      <c r="V143" s="39"/>
+      <c r="W143" s="111"/>
+    </row>
+    <row r="144" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="39"/>
+      <c r="B144" s="39"/>
+      <c r="C144" s="39"/>
+      <c r="D144" s="39"/>
+      <c r="E144" s="108"/>
+      <c r="F144" s="39"/>
+      <c r="G144" s="39"/>
+      <c r="H144" s="39"/>
+      <c r="I144" s="39"/>
+      <c r="J144" s="16"/>
+      <c r="K144" s="16"/>
+      <c r="L144" s="16"/>
+      <c r="M144" s="16"/>
+      <c r="N144" s="16"/>
+      <c r="O144" s="39"/>
+      <c r="P144" s="39"/>
+      <c r="Q144" s="45">
+        <v>1998</v>
+      </c>
+      <c r="R144" s="46">
+        <f>COUNTIF(D3:D59,Q144)</f>
+        <v>0</v>
+      </c>
+      <c r="S144" s="39"/>
+      <c r="T144" s="39"/>
+      <c r="U144" s="39"/>
+      <c r="V144" s="39"/>
+      <c r="W144" s="111"/>
+    </row>
+    <row r="145" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="39"/>
+      <c r="B145" s="39"/>
+      <c r="C145" s="39"/>
+      <c r="D145" s="39"/>
+      <c r="E145" s="108"/>
+      <c r="F145" s="39"/>
+      <c r="G145" s="39"/>
+      <c r="H145" s="39"/>
+      <c r="I145" s="39"/>
+      <c r="J145" s="16"/>
+      <c r="K145" s="16"/>
+      <c r="L145" s="16"/>
+      <c r="M145" s="16"/>
+      <c r="N145" s="16"/>
+      <c r="O145" s="39"/>
+      <c r="P145" s="39"/>
+      <c r="Q145" s="45">
+        <v>1997</v>
+      </c>
+      <c r="R145" s="46">
+        <f>COUNTIF(D3:D45,Q145)</f>
+        <v>0</v>
+      </c>
+      <c r="S145" s="39"/>
+      <c r="T145" s="39"/>
+      <c r="U145" s="39"/>
+      <c r="V145" s="39"/>
+      <c r="W145" s="111"/>
+    </row>
+    <row r="146" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="39"/>
+      <c r="B146" s="39"/>
+      <c r="C146" s="39"/>
+      <c r="D146" s="39"/>
+      <c r="E146" s="108"/>
+      <c r="F146" s="39"/>
+      <c r="G146" s="39"/>
+      <c r="H146" s="39"/>
+      <c r="I146" s="39"/>
+      <c r="J146" s="16"/>
+      <c r="K146" s="16"/>
+      <c r="L146" s="16"/>
+      <c r="M146" s="16"/>
+      <c r="N146" s="16"/>
+      <c r="O146" s="39"/>
+      <c r="P146" s="39"/>
+      <c r="Q146" s="45">
+        <v>1996</v>
+      </c>
+      <c r="R146" s="46">
+        <f>COUNTIF(D3:D46,Q146)</f>
+        <v>0</v>
+      </c>
+      <c r="S146" s="39"/>
+      <c r="T146" s="39"/>
+      <c r="U146" s="39"/>
+      <c r="V146" s="39"/>
+      <c r="W146" s="111"/>
+    </row>
+    <row r="147" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="39"/>
+      <c r="B147" s="39"/>
+      <c r="C147" s="39"/>
+      <c r="D147" s="39"/>
+      <c r="E147" s="108"/>
+      <c r="F147" s="39"/>
+      <c r="G147" s="39"/>
+      <c r="H147" s="39"/>
+      <c r="I147" s="39"/>
+      <c r="J147" s="16"/>
+      <c r="K147" s="16"/>
+      <c r="L147" s="16"/>
+      <c r="M147" s="16"/>
+      <c r="N147" s="16"/>
+      <c r="O147" s="39"/>
+      <c r="P147" s="39"/>
+      <c r="Q147" s="45">
+        <v>1995</v>
+      </c>
+      <c r="R147" s="46">
+        <f>COUNTIF(D3:D47,Q147)</f>
+        <v>0</v>
+      </c>
+      <c r="S147" s="39"/>
+      <c r="T147" s="39"/>
+      <c r="U147" s="39"/>
+      <c r="V147" s="39"/>
+      <c r="W147" s="111"/>
+    </row>
+    <row r="148" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="39"/>
+      <c r="B148" s="39"/>
+      <c r="C148" s="39"/>
+      <c r="D148" s="39"/>
+      <c r="E148" s="108"/>
+      <c r="F148" s="39"/>
+      <c r="G148" s="39"/>
+      <c r="H148" s="39"/>
+      <c r="I148" s="39"/>
+      <c r="J148" s="16"/>
+      <c r="K148" s="16"/>
+      <c r="L148" s="16"/>
+      <c r="M148" s="16"/>
+      <c r="N148" s="16"/>
+      <c r="O148" s="39"/>
+      <c r="P148" s="39"/>
+      <c r="Q148" s="45">
+        <v>1994</v>
+      </c>
+      <c r="R148" s="46">
+        <f>COUNTIF(D3:D48,Q148)</f>
+        <v>0</v>
+      </c>
+      <c r="S148" s="39"/>
+      <c r="T148" s="39"/>
+      <c r="U148" s="39"/>
+      <c r="V148" s="39"/>
+      <c r="W148" s="111"/>
+    </row>
+    <row r="149" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="39"/>
+      <c r="B149" s="39"/>
+      <c r="C149" s="39"/>
+      <c r="D149" s="39"/>
+      <c r="E149" s="108"/>
+      <c r="F149" s="39"/>
+      <c r="G149" s="39"/>
+      <c r="H149" s="39"/>
+      <c r="I149" s="39"/>
+      <c r="J149" s="16"/>
+      <c r="K149" s="16"/>
+      <c r="L149" s="16"/>
+      <c r="M149" s="16"/>
+      <c r="N149" s="16"/>
+      <c r="O149" s="39"/>
+      <c r="P149" s="39"/>
+      <c r="Q149" s="47">
+        <v>1993</v>
+      </c>
+      <c r="R149" s="48">
+        <f>COUNTIF(D3:D49,Q149)</f>
+        <v>0</v>
+      </c>
+      <c r="S149" s="39"/>
+      <c r="T149" s="39"/>
+      <c r="U149" s="39"/>
+      <c r="V149" s="39"/>
+      <c r="W149" s="111"/>
+    </row>
+    <row r="150" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="39"/>
+      <c r="B150" s="39"/>
+      <c r="C150" s="39"/>
+      <c r="D150" s="39"/>
+      <c r="E150" s="108"/>
+      <c r="F150" s="39"/>
+      <c r="G150" s="39"/>
+      <c r="H150" s="39"/>
+      <c r="I150" s="39"/>
+      <c r="J150" s="16"/>
+      <c r="K150" s="16"/>
+      <c r="L150" s="16"/>
+      <c r="M150" s="16"/>
+      <c r="N150" s="16"/>
+      <c r="O150" s="39"/>
+      <c r="P150" s="39"/>
+      <c r="Q150" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="R150" s="42">
+        <f>SUM(R118:R149)</f>
+        <v>0</v>
+      </c>
+      <c r="S150" s="39"/>
+      <c r="T150" s="39"/>
+      <c r="U150" s="39"/>
+      <c r="V150" s="39"/>
+      <c r="W150" s="111"/>
+    </row>
+    <row r="151" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="39"/>
+      <c r="B151" s="39"/>
+      <c r="C151" s="39"/>
+      <c r="D151" s="39"/>
+      <c r="E151" s="108"/>
+      <c r="F151" s="39"/>
+      <c r="G151" s="39"/>
+      <c r="H151" s="39"/>
+      <c r="I151" s="39"/>
+      <c r="J151" s="16"/>
+      <c r="K151" s="16"/>
+      <c r="L151" s="16"/>
+      <c r="M151" s="16"/>
+      <c r="N151" s="16"/>
+      <c r="O151" s="39"/>
+      <c r="P151" s="39"/>
+      <c r="Q151" s="39"/>
+      <c r="R151" s="39"/>
+      <c r="S151" s="39"/>
+      <c r="T151" s="39"/>
+      <c r="U151" s="39"/>
+      <c r="V151" s="39"/>
+      <c r="W151" s="111"/>
+    </row>
+    <row r="152" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="39"/>
+      <c r="B152" s="39"/>
+      <c r="C152" s="39"/>
+      <c r="D152" s="39"/>
+      <c r="E152" s="108"/>
+      <c r="F152" s="39"/>
+      <c r="G152" s="39"/>
+      <c r="H152" s="39"/>
+      <c r="I152" s="39"/>
+      <c r="J152" s="16"/>
+      <c r="K152" s="16"/>
+      <c r="L152" s="16"/>
+      <c r="M152" s="16"/>
+      <c r="N152" s="16"/>
+      <c r="O152" s="39"/>
+      <c r="P152" s="39"/>
+      <c r="Q152" s="39"/>
+      <c r="R152" s="39"/>
+      <c r="S152" s="39"/>
+      <c r="T152" s="39"/>
+      <c r="U152" s="39"/>
+      <c r="V152" s="39"/>
+      <c r="W152" s="111"/>
+    </row>
+    <row r="153" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="39"/>
+      <c r="B153" s="39"/>
+      <c r="C153" s="39"/>
+      <c r="D153" s="39"/>
+      <c r="E153" s="108"/>
+      <c r="F153" s="39"/>
+      <c r="G153" s="39"/>
+      <c r="H153" s="39"/>
+      <c r="I153" s="39"/>
+      <c r="J153" s="16"/>
+      <c r="K153" s="16"/>
+      <c r="L153" s="16"/>
+      <c r="M153" s="16"/>
+      <c r="N153" s="16"/>
+      <c r="O153" s="39"/>
+      <c r="P153" s="39"/>
+      <c r="Q153" s="39"/>
+      <c r="R153" s="39"/>
+      <c r="S153" s="39"/>
+      <c r="T153" s="39"/>
+      <c r="U153" s="39"/>
+      <c r="V153" s="39"/>
+      <c r="W153" s="111"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="M12:N12"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J116" r:id="rId1" xr:uid="{83A9A6CC-BE59-42CD-B5C7-E41BC1FC3BF1}"/>
+    <hyperlink ref="J117" r:id="rId2" xr:uid="{0EC0C9DF-1A56-47C5-8914-17F3F952D3F7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
 </file>
--- a/spreadsheets/Games.xlsx
+++ b/spreadsheets/Games.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ucer0.github.io\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624FC5D8-D57A-40A3-8F71-9A26A4AAE292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC846B0-C4A8-4010-A222-AC7FD005C7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="578">
   <si>
     <t>Nier: Automata</t>
   </si>
@@ -2312,6 +2312,45 @@
       </rPr>
       <t>, Little Noah 5h pasarlo en Normal, 8h en Difícil</t>
     </r>
+  </si>
+  <si>
+    <t>Kunitsu-Gami: Path of the Goddess</t>
+  </si>
+  <si>
+    <t>Magical Valkyrie Lyristia</t>
+  </si>
+  <si>
+    <t>15-ene.</t>
+  </si>
+  <si>
+    <t>Rayman Origins</t>
+  </si>
+  <si>
+    <t>19-ene.</t>
+  </si>
+  <si>
+    <t>Stranger of Paradise: Final Fantasy Origin</t>
+  </si>
+  <si>
+    <t>8-feb.</t>
+  </si>
+  <si>
+    <t>Rayman (1h 04m)</t>
+  </si>
+  <si>
+    <t>15-feb.</t>
+  </si>
+  <si>
+    <t>Xenogears</t>
+  </si>
+  <si>
+    <t>Golf With Your Friends</t>
+  </si>
+  <si>
+    <t>17-feb.</t>
+  </si>
+  <si>
+    <t>Xenogears (21h 5m)</t>
   </si>
 </sst>
 </file>
@@ -2739,7 +2778,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3242,6 +3281,9 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3304,36 +3346,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4964,19 +4976,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -5003,7 +5015,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -5042,7 +5054,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
@@ -5315,6 +5327,12 @@
               <c:numCache>
                 <c:formatCode>[h]"h"\ mm"m"</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8902777777777779</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5401,6 +5419,12 @@
               <c:numCache>
                 <c:formatCode>[h]"h"\ mm"m"</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.95833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32291666666666669</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -17159,17 +17183,17 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="168">
+      <c r="B2" s="169">
         <v>2019</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
       <c r="E2" s="67"/>
-      <c r="F2" s="174" t="s">
+      <c r="F2" s="175" t="s">
         <v>261</v>
       </c>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
       <c r="I2" s="35"/>
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
@@ -17200,18 +17224,18 @@
         <v>77</v>
       </c>
       <c r="E3" s="68"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="174"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="6"/>
       <c r="N3" s="29"/>
-      <c r="O3" s="173"/>
-      <c r="P3" s="173"/>
-      <c r="Q3" s="173"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="174"/>
+      <c r="Q3" s="174"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
@@ -17233,18 +17257,18 @@
         <v>2004</v>
       </c>
       <c r="E4" s="26"/>
-      <c r="F4" s="174"/>
-      <c r="G4" s="174"/>
-      <c r="H4" s="174"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="175"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="30"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="173"/>
-      <c r="P4" s="173"/>
-      <c r="Q4" s="173"/>
+      <c r="O4" s="174"/>
+      <c r="P4" s="174"/>
+      <c r="Q4" s="174"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
@@ -17266,18 +17290,18 @@
         <v>2017</v>
       </c>
       <c r="E5" s="26"/>
-      <c r="F5" s="174"/>
-      <c r="G5" s="174"/>
-      <c r="H5" s="174"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="175"/>
+      <c r="H5" s="175"/>
       <c r="I5" s="6"/>
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="173"/>
-      <c r="P5" s="173"/>
-      <c r="Q5" s="173"/>
+      <c r="O5" s="174"/>
+      <c r="P5" s="174"/>
+      <c r="Q5" s="174"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
@@ -17299,18 +17323,18 @@
         <v>2017</v>
       </c>
       <c r="E6" s="26"/>
-      <c r="F6" s="174"/>
-      <c r="G6" s="174"/>
-      <c r="H6" s="174"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="175"/>
+      <c r="H6" s="175"/>
       <c r="I6" s="6"/>
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="173"/>
-      <c r="P6" s="173"/>
-      <c r="Q6" s="173"/>
+      <c r="O6" s="174"/>
+      <c r="P6" s="174"/>
+      <c r="Q6" s="174"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
@@ -17332,18 +17356,18 @@
         <v>2017</v>
       </c>
       <c r="E7" s="26"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="174"/>
-      <c r="H7" s="174"/>
+      <c r="F7" s="175"/>
+      <c r="G7" s="175"/>
+      <c r="H7" s="175"/>
       <c r="I7" s="6"/>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="173"/>
-      <c r="P7" s="173"/>
-      <c r="Q7" s="173"/>
+      <c r="O7" s="174"/>
+      <c r="P7" s="174"/>
+      <c r="Q7" s="174"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
@@ -17365,18 +17389,18 @@
         <v>2017</v>
       </c>
       <c r="E8" s="26"/>
-      <c r="F8" s="174"/>
-      <c r="G8" s="174"/>
-      <c r="H8" s="174"/>
+      <c r="F8" s="175"/>
+      <c r="G8" s="175"/>
+      <c r="H8" s="175"/>
       <c r="I8" s="6"/>
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="173"/>
-      <c r="P8" s="173"/>
-      <c r="Q8" s="173"/>
+      <c r="O8" s="174"/>
+      <c r="P8" s="174"/>
+      <c r="Q8" s="174"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
@@ -17398,18 +17422,18 @@
         <v>2016</v>
       </c>
       <c r="E9" s="26"/>
-      <c r="F9" s="174"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="174"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="175"/>
+      <c r="H9" s="175"/>
       <c r="I9" s="6"/>
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="173"/>
-      <c r="P9" s="173"/>
-      <c r="Q9" s="173"/>
+      <c r="O9" s="174"/>
+      <c r="P9" s="174"/>
+      <c r="Q9" s="174"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
@@ -17431,18 +17455,18 @@
         <v>2017</v>
       </c>
       <c r="E10" s="26"/>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="174"/>
+      <c r="F10" s="175"/>
+      <c r="G10" s="175"/>
+      <c r="H10" s="175"/>
       <c r="I10" s="6"/>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="7"/>
-      <c r="O10" s="173"/>
-      <c r="P10" s="173"/>
-      <c r="Q10" s="173"/>
+      <c r="O10" s="174"/>
+      <c r="P10" s="174"/>
+      <c r="Q10" s="174"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
@@ -17464,18 +17488,18 @@
         <v>2016</v>
       </c>
       <c r="E11" s="26"/>
-      <c r="F11" s="174"/>
-      <c r="G11" s="174"/>
-      <c r="H11" s="174"/>
+      <c r="F11" s="175"/>
+      <c r="G11" s="175"/>
+      <c r="H11" s="175"/>
       <c r="I11" s="6"/>
       <c r="J11" s="30"/>
       <c r="K11" s="30"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="173"/>
-      <c r="P11" s="173"/>
-      <c r="Q11" s="173"/>
+      <c r="O11" s="174"/>
+      <c r="P11" s="174"/>
+      <c r="Q11" s="174"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
@@ -17497,18 +17521,18 @@
         <v>2017</v>
       </c>
       <c r="E12" s="26"/>
-      <c r="F12" s="174"/>
-      <c r="G12" s="174"/>
-      <c r="H12" s="174"/>
+      <c r="F12" s="175"/>
+      <c r="G12" s="175"/>
+      <c r="H12" s="175"/>
       <c r="I12" s="6"/>
       <c r="J12" s="30"/>
       <c r="K12" s="30"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="173"/>
-      <c r="P12" s="173"/>
-      <c r="Q12" s="173"/>
+      <c r="O12" s="174"/>
+      <c r="P12" s="174"/>
+      <c r="Q12" s="174"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
@@ -17530,18 +17554,18 @@
         <v>2009</v>
       </c>
       <c r="E13" s="26"/>
-      <c r="F13" s="174"/>
-      <c r="G13" s="174"/>
-      <c r="H13" s="174"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="175"/>
+      <c r="H13" s="175"/>
       <c r="I13" s="6"/>
       <c r="J13" s="30"/>
       <c r="K13" s="30"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="173"/>
-      <c r="P13" s="173"/>
-      <c r="Q13" s="173"/>
+      <c r="O13" s="174"/>
+      <c r="P13" s="174"/>
+      <c r="Q13" s="174"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
@@ -17563,18 +17587,18 @@
         <v>2019</v>
       </c>
       <c r="E14" s="26"/>
-      <c r="F14" s="174"/>
-      <c r="G14" s="174"/>
-      <c r="H14" s="174"/>
+      <c r="F14" s="175"/>
+      <c r="G14" s="175"/>
+      <c r="H14" s="175"/>
       <c r="I14" s="6"/>
       <c r="J14" s="30"/>
       <c r="K14" s="30"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="173"/>
-      <c r="P14" s="173"/>
-      <c r="Q14" s="173"/>
+      <c r="O14" s="174"/>
+      <c r="P14" s="174"/>
+      <c r="Q14" s="174"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
@@ -17596,18 +17620,18 @@
         <v>2019</v>
       </c>
       <c r="E15" s="26"/>
-      <c r="F15" s="174"/>
-      <c r="G15" s="174"/>
-      <c r="H15" s="174"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="175"/>
       <c r="I15" s="6"/>
       <c r="J15" s="30"/>
       <c r="K15" s="30"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="173"/>
-      <c r="P15" s="173"/>
-      <c r="Q15" s="173"/>
+      <c r="O15" s="174"/>
+      <c r="P15" s="174"/>
+      <c r="Q15" s="174"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
@@ -17632,9 +17656,9 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="173"/>
-      <c r="P16" s="173"/>
-      <c r="Q16" s="173"/>
+      <c r="O16" s="174"/>
+      <c r="P16" s="174"/>
+      <c r="Q16" s="174"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
@@ -17645,9 +17669,9 @@
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
-      <c r="B17" s="170"/>
-      <c r="C17" s="170"/>
-      <c r="D17" s="170"/>
+      <c r="B17" s="171"/>
+      <c r="C17" s="171"/>
+      <c r="D17" s="171"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7"/>
@@ -17672,9 +17696,9 @@
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
-      <c r="B18" s="170"/>
-      <c r="C18" s="170"/>
-      <c r="D18" s="170"/>
+      <c r="B18" s="171"/>
+      <c r="C18" s="171"/>
+      <c r="D18" s="171"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="7"/>
@@ -17684,8 +17708,8 @@
       <c r="K18" s="30"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="171"/>
-      <c r="O18" s="172"/>
+      <c r="N18" s="172"/>
+      <c r="O18" s="173"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
@@ -17699,9 +17723,9 @@
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
-      <c r="B19" s="170"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="170"/>
+      <c r="B19" s="171"/>
+      <c r="C19" s="171"/>
+      <c r="D19" s="171"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7"/>
@@ -17711,8 +17735,8 @@
       <c r="K19" s="30"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="172"/>
-      <c r="O19" s="172"/>
+      <c r="N19" s="173"/>
+      <c r="O19" s="173"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
@@ -17738,8 +17762,8 @@
       <c r="K20" s="30"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="172"/>
-      <c r="O20" s="172"/>
+      <c r="N20" s="173"/>
+      <c r="O20" s="173"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
@@ -17765,8 +17789,8 @@
       <c r="K21" s="30"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="172"/>
-      <c r="O21" s="172"/>
+      <c r="N21" s="173"/>
+      <c r="O21" s="173"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
@@ -17792,8 +17816,8 @@
       <c r="K22" s="30"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-      <c r="N22" s="172"/>
-      <c r="O22" s="172"/>
+      <c r="N22" s="173"/>
+      <c r="O22" s="173"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
@@ -18977,8 +19001,8 @@
         <v>11</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="176"/>
-      <c r="K17" s="177"/>
+      <c r="J17" s="177"/>
+      <c r="K17" s="178"/>
       <c r="L17" s="6"/>
       <c r="M17" s="39"/>
       <c r="N17" s="39"/>
@@ -19016,8 +19040,8 @@
         <v>1</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="175"/>
-      <c r="K18" s="175"/>
+      <c r="J18" s="176"/>
+      <c r="K18" s="176"/>
       <c r="L18" s="6"/>
       <c r="M18" s="39"/>
       <c r="N18" s="39"/>
@@ -23242,7 +23266,7 @@
         <v>4.197916666666667</v>
       </c>
       <c r="I3" s="6"/>
-      <c r="J3" s="182" t="s">
+      <c r="J3" s="183" t="s">
         <v>118</v>
       </c>
       <c r="K3" s="80" t="s">
@@ -23316,7 +23340,7 @@
         <v>0.30138888888888887</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="183"/>
+      <c r="J4" s="184"/>
       <c r="K4" s="54" t="s">
         <v>127</v>
       </c>
@@ -23388,7 +23412,7 @@
         <v>0.2076388888888889</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="183"/>
+      <c r="J5" s="184"/>
       <c r="K5" s="73" t="s">
         <v>132</v>
       </c>
@@ -23460,7 +23484,7 @@
         <v>1.2437499999999999</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="183"/>
+      <c r="J6" s="184"/>
       <c r="K6" s="54" t="s">
         <v>129</v>
       </c>
@@ -23532,7 +23556,7 @@
         <v>0.27916666666666667</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="183"/>
+      <c r="J7" s="184"/>
       <c r="K7" s="73" t="s">
         <v>136</v>
       </c>
@@ -23604,7 +23628,7 @@
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="183"/>
+      <c r="J8" s="184"/>
       <c r="K8" s="54" t="s">
         <v>137</v>
       </c>
@@ -23676,7 +23700,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="182" t="s">
+      <c r="J9" s="183" t="s">
         <v>119</v>
       </c>
       <c r="K9" s="71" t="s">
@@ -23750,7 +23774,7 @@
         <v>0.19027777777777777</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="183"/>
+      <c r="J10" s="184"/>
       <c r="K10" s="54" t="s">
         <v>127</v>
       </c>
@@ -23822,7 +23846,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="183"/>
+      <c r="J11" s="184"/>
       <c r="K11" s="73" t="s">
         <v>132</v>
       </c>
@@ -23894,7 +23918,7 @@
         <v>1.7097222222222221</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="183"/>
+      <c r="J12" s="184"/>
       <c r="K12" s="54" t="s">
         <v>129</v>
       </c>
@@ -23966,7 +23990,7 @@
         <v>0.15972222222222224</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="183"/>
+      <c r="J13" s="184"/>
       <c r="K13" s="73" t="s">
         <v>141</v>
       </c>
@@ -24038,7 +24062,7 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="182" t="s">
+      <c r="J14" s="183" t="s">
         <v>120</v>
       </c>
       <c r="K14" s="10" t="s">
@@ -24112,7 +24136,7 @@
         <v>0.59652777777777777</v>
       </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="183"/>
+      <c r="J15" s="184"/>
       <c r="K15" s="73" t="s">
         <v>127</v>
       </c>
@@ -24184,7 +24208,7 @@
         <v>13</v>
       </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="183"/>
+      <c r="J16" s="184"/>
       <c r="K16" s="54" t="s">
         <v>132</v>
       </c>
@@ -24256,7 +24280,7 @@
         <v>13</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="183"/>
+      <c r="J17" s="184"/>
       <c r="K17" s="73" t="s">
         <v>129</v>
       </c>
@@ -24328,7 +24352,7 @@
         <v>0.24583333333333335</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="183"/>
+      <c r="J18" s="184"/>
       <c r="K18" s="54" t="s">
         <v>144</v>
       </c>
@@ -24400,7 +24424,7 @@
         <v>0.49513888888888885</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="184"/>
+      <c r="J19" s="185"/>
       <c r="K19" s="76" t="s">
         <v>150</v>
       </c>
@@ -24472,7 +24496,7 @@
         <v>0.20972222222222223</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="J20" s="182" t="s">
+      <c r="J20" s="183" t="s">
         <v>143</v>
       </c>
       <c r="K20" s="10" t="s">
@@ -24546,7 +24570,7 @@
         <v>0.25486111111111109</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="184"/>
+      <c r="J21" s="185"/>
       <c r="K21" s="76" t="s">
         <v>141</v>
       </c>
@@ -24628,7 +24652,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="183" t="s">
+      <c r="J22" s="184" t="s">
         <v>161</v>
       </c>
       <c r="K22" s="54" t="s">
@@ -24714,7 +24738,7 @@
         <v>0.26944444444444443</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="183"/>
+      <c r="J23" s="184"/>
       <c r="K23" s="80" t="s">
         <v>169</v>
       </c>
@@ -24798,7 +24822,7 @@
         <v>0.3263888888888889</v>
       </c>
       <c r="I24" s="39"/>
-      <c r="J24" s="183"/>
+      <c r="J24" s="184"/>
       <c r="K24" s="54" t="s">
         <v>163</v>
       </c>
@@ -24882,7 +24906,7 @@
         <v>0.32847222222222222</v>
       </c>
       <c r="I25" s="39"/>
-      <c r="J25" s="183"/>
+      <c r="J25" s="184"/>
       <c r="K25" s="73" t="s">
         <v>141</v>
       </c>
@@ -24966,7 +24990,7 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="I26" s="39"/>
-      <c r="J26" s="184"/>
+      <c r="J26" s="185"/>
       <c r="K26" s="11" t="s">
         <v>162</v>
       </c>
@@ -25050,7 +25074,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="I27" s="39"/>
-      <c r="J27" s="182" t="s">
+      <c r="J27" s="183" t="s">
         <v>171</v>
       </c>
       <c r="K27" s="73" t="s">
@@ -25136,7 +25160,7 @@
         <v>0.22291666666666665</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="183"/>
+      <c r="J28" s="184"/>
       <c r="K28" s="101" t="s">
         <v>163</v>
       </c>
@@ -25220,7 +25244,7 @@
         <v>0.13194444444444445</v>
       </c>
       <c r="I29" s="39"/>
-      <c r="J29" s="183"/>
+      <c r="J29" s="184"/>
       <c r="K29" s="73" t="s">
         <v>29</v>
       </c>
@@ -25304,7 +25328,7 @@
         <v>13</v>
       </c>
       <c r="I30" s="39"/>
-      <c r="J30" s="183"/>
+      <c r="J30" s="184"/>
       <c r="K30" s="101" t="s">
         <v>136</v>
       </c>
@@ -25388,7 +25412,7 @@
         <v>0.43888888888888888</v>
       </c>
       <c r="I31" s="39"/>
-      <c r="J31" s="184"/>
+      <c r="J31" s="185"/>
       <c r="K31" s="73" t="s">
         <v>141</v>
       </c>
@@ -25472,7 +25496,7 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="I32" s="39"/>
-      <c r="J32" s="182" t="s">
+      <c r="J32" s="183" t="s">
         <v>184</v>
       </c>
       <c r="K32" s="107" t="s">
@@ -25558,7 +25582,7 @@
         <v>2.7097222222222221</v>
       </c>
       <c r="I33" s="39"/>
-      <c r="J33" s="183"/>
+      <c r="J33" s="184"/>
       <c r="K33" s="73" t="s">
         <v>179</v>
       </c>
@@ -25644,7 +25668,7 @@
         <v>13</v>
       </c>
       <c r="I34" s="39"/>
-      <c r="J34" s="183"/>
+      <c r="J34" s="184"/>
       <c r="K34" s="54" t="s">
         <v>199</v>
       </c>
@@ -25727,7 +25751,7 @@
         <v>0.11041666666666666</v>
       </c>
       <c r="I35" s="39"/>
-      <c r="J35" s="183"/>
+      <c r="J35" s="184"/>
       <c r="K35" s="80" t="s">
         <v>198</v>
       </c>
@@ -25799,7 +25823,7 @@
         <v>0.37083333333333335</v>
       </c>
       <c r="I36" s="39"/>
-      <c r="J36" s="183"/>
+      <c r="J36" s="184"/>
       <c r="K36" s="54" t="s">
         <v>141</v>
       </c>
@@ -25807,9 +25831,9 @@
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="M36" s="39"/>
-      <c r="N36" s="178"/>
-      <c r="O36" s="178"/>
-      <c r="P36" s="178"/>
+      <c r="N36" s="179"/>
+      <c r="O36" s="179"/>
+      <c r="P36" s="179"/>
       <c r="Q36" s="111"/>
       <c r="R36" s="16"/>
       <c r="S36" s="16"/>
@@ -25871,7 +25895,7 @@
         <v>0.80694444444444446</v>
       </c>
       <c r="I37" s="39"/>
-      <c r="J37" s="183"/>
+      <c r="J37" s="184"/>
       <c r="K37" s="80" t="s">
         <v>196</v>
       </c>
@@ -25879,9 +25903,9 @@
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="M37" s="39"/>
-      <c r="N37" s="178"/>
-      <c r="O37" s="178"/>
-      <c r="P37" s="178"/>
+      <c r="N37" s="179"/>
+      <c r="O37" s="179"/>
+      <c r="P37" s="179"/>
       <c r="Q37" s="111"/>
       <c r="R37" s="16"/>
       <c r="S37" s="16"/>
@@ -25943,7 +25967,7 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="I38" s="39"/>
-      <c r="J38" s="184"/>
+      <c r="J38" s="185"/>
       <c r="K38" s="11" t="s">
         <v>202</v>
       </c>
@@ -25951,9 +25975,9 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="M38" s="39"/>
-      <c r="N38" s="178"/>
-      <c r="O38" s="178"/>
-      <c r="P38" s="178"/>
+      <c r="N38" s="179"/>
+      <c r="O38" s="179"/>
+      <c r="P38" s="179"/>
       <c r="Q38" s="111"/>
       <c r="R38" s="16"/>
       <c r="S38" s="16"/>
@@ -26001,7 +26025,7 @@
       <c r="G39" s="30"/>
       <c r="H39" s="61"/>
       <c r="I39" s="39"/>
-      <c r="J39" s="182" t="s">
+      <c r="J39" s="183" t="s">
         <v>209</v>
       </c>
       <c r="K39" s="116" t="s">
@@ -26011,9 +26035,9 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="M39" s="39"/>
-      <c r="N39" s="178"/>
-      <c r="O39" s="178"/>
-      <c r="P39" s="178"/>
+      <c r="N39" s="179"/>
+      <c r="O39" s="179"/>
+      <c r="P39" s="179"/>
       <c r="Q39" s="124"/>
       <c r="R39" s="16"/>
       <c r="S39" s="16"/>
@@ -26061,7 +26085,7 @@
       <c r="G40" s="39"/>
       <c r="H40" s="62"/>
       <c r="I40" s="39"/>
-      <c r="J40" s="183"/>
+      <c r="J40" s="184"/>
       <c r="K40" s="113" t="s">
         <v>210</v>
       </c>
@@ -26069,9 +26093,9 @@
         <v>0.3666666666666667</v>
       </c>
       <c r="M40" s="39"/>
-      <c r="N40" s="178"/>
-      <c r="O40" s="178"/>
-      <c r="P40" s="178"/>
+      <c r="N40" s="179"/>
+      <c r="O40" s="179"/>
+      <c r="P40" s="179"/>
       <c r="Q40" s="124"/>
       <c r="R40" s="16"/>
       <c r="S40" s="16"/>
@@ -26118,7 +26142,7 @@
       <c r="G41" s="30"/>
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
-      <c r="J41" s="183"/>
+      <c r="J41" s="184"/>
       <c r="K41" s="112" t="s">
         <v>179</v>
       </c>
@@ -26126,9 +26150,9 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="M41" s="39"/>
-      <c r="N41" s="178"/>
-      <c r="O41" s="178"/>
-      <c r="P41" s="178"/>
+      <c r="N41" s="179"/>
+      <c r="O41" s="179"/>
+      <c r="P41" s="179"/>
       <c r="Q41" s="124"/>
       <c r="R41" s="16"/>
       <c r="S41" s="16"/>
@@ -26176,7 +26200,7 @@
       <c r="G42" s="30"/>
       <c r="H42" s="61"/>
       <c r="I42" s="39"/>
-      <c r="J42" s="183"/>
+      <c r="J42" s="184"/>
       <c r="K42" s="114" t="s">
         <v>136</v>
       </c>
@@ -26234,7 +26258,7 @@
       <c r="G43" s="39"/>
       <c r="H43" s="62"/>
       <c r="I43" s="39"/>
-      <c r="J43" s="183"/>
+      <c r="J43" s="184"/>
       <c r="K43" s="112" t="s">
         <v>212</v>
       </c>
@@ -26292,7 +26316,7 @@
       <c r="G44" s="39"/>
       <c r="H44" s="62"/>
       <c r="I44" s="39"/>
-      <c r="J44" s="183"/>
+      <c r="J44" s="184"/>
       <c r="K44" s="113" t="s">
         <v>213</v>
       </c>
@@ -26350,7 +26374,7 @@
       <c r="G45" s="39"/>
       <c r="H45" s="62"/>
       <c r="I45" s="39"/>
-      <c r="J45" s="184"/>
+      <c r="J45" s="185"/>
       <c r="K45" s="115" t="s">
         <v>141</v>
       </c>
@@ -26408,7 +26432,7 @@
       <c r="G46" s="39"/>
       <c r="H46" s="62"/>
       <c r="I46" s="39"/>
-      <c r="J46" s="179" t="s">
+      <c r="J46" s="180" t="s">
         <v>217</v>
       </c>
       <c r="K46" s="119" t="s">
@@ -26468,7 +26492,7 @@
       <c r="G47" s="39"/>
       <c r="H47" s="62"/>
       <c r="I47" s="39"/>
-      <c r="J47" s="180"/>
+      <c r="J47" s="181"/>
       <c r="K47" s="80" t="s">
         <v>179</v>
       </c>
@@ -26526,7 +26550,7 @@
       <c r="G48" s="39"/>
       <c r="H48" s="62"/>
       <c r="I48" s="39"/>
-      <c r="J48" s="180"/>
+      <c r="J48" s="181"/>
       <c r="K48" s="101" t="s">
         <v>136</v>
       </c>
@@ -26584,7 +26608,7 @@
       <c r="G49" s="39"/>
       <c r="H49" s="62"/>
       <c r="I49" s="39"/>
-      <c r="J49" s="181"/>
+      <c r="J49" s="182"/>
       <c r="K49" s="120" t="s">
         <v>213</v>
       </c>
@@ -26642,7 +26666,7 @@
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
       <c r="I50" s="39"/>
-      <c r="J50" s="179" t="s">
+      <c r="J50" s="180" t="s">
         <v>232</v>
       </c>
       <c r="K50" s="121" t="s">
@@ -26702,7 +26726,7 @@
       <c r="G51" s="39"/>
       <c r="H51" s="39"/>
       <c r="I51" s="39"/>
-      <c r="J51" s="180"/>
+      <c r="J51" s="181"/>
       <c r="K51" s="122" t="s">
         <v>179</v>
       </c>
@@ -26760,7 +26784,7 @@
       <c r="G52" s="39"/>
       <c r="H52" s="39"/>
       <c r="I52" s="39"/>
-      <c r="J52" s="180"/>
+      <c r="J52" s="181"/>
       <c r="K52" s="114" t="s">
         <v>235</v>
       </c>
@@ -26818,7 +26842,7 @@
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
       <c r="I53" s="39"/>
-      <c r="J53" s="181"/>
+      <c r="J53" s="182"/>
       <c r="K53" s="115" t="s">
         <v>211</v>
       </c>
@@ -26876,7 +26900,7 @@
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
       <c r="I54" s="39"/>
-      <c r="J54" s="179" t="s">
+      <c r="J54" s="180" t="s">
         <v>243</v>
       </c>
       <c r="K54" s="121" t="s">
@@ -26936,7 +26960,7 @@
       <c r="G55" s="39"/>
       <c r="H55" s="39"/>
       <c r="I55" s="39"/>
-      <c r="J55" s="180"/>
+      <c r="J55" s="181"/>
       <c r="K55" s="122" t="s">
         <v>242</v>
       </c>
@@ -26994,7 +27018,7 @@
       <c r="G56" s="39"/>
       <c r="H56" s="39"/>
       <c r="I56" s="39"/>
-      <c r="J56" s="180"/>
+      <c r="J56" s="181"/>
       <c r="K56" s="114" t="s">
         <v>29</v>
       </c>
@@ -27052,7 +27076,7 @@
       <c r="G57" s="39"/>
       <c r="H57" s="39"/>
       <c r="I57" s="39"/>
-      <c r="J57" s="181"/>
+      <c r="J57" s="182"/>
       <c r="K57" s="115" t="s">
         <v>199</v>
       </c>
@@ -27110,7 +27134,7 @@
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
       <c r="I58" s="39"/>
-      <c r="J58" s="179" t="s">
+      <c r="J58" s="180" t="s">
         <v>246</v>
       </c>
       <c r="K58" s="121" t="s">
@@ -27170,7 +27194,7 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
       <c r="I59" s="39"/>
-      <c r="J59" s="180"/>
+      <c r="J59" s="181"/>
       <c r="K59" s="122" t="s">
         <v>235</v>
       </c>
@@ -27228,7 +27252,7 @@
       <c r="G60" s="39"/>
       <c r="H60" s="39"/>
       <c r="I60" s="39"/>
-      <c r="J60" s="180"/>
+      <c r="J60" s="181"/>
       <c r="K60" s="114" t="s">
         <v>242</v>
       </c>
@@ -27286,7 +27310,7 @@
       <c r="G61" s="39"/>
       <c r="H61" s="39"/>
       <c r="I61" s="39"/>
-      <c r="J61" s="180"/>
+      <c r="J61" s="181"/>
       <c r="K61" s="122" t="s">
         <v>245</v>
       </c>
@@ -27344,7 +27368,7 @@
       <c r="G62" s="39"/>
       <c r="H62" s="39"/>
       <c r="I62" s="39"/>
-      <c r="J62" s="180"/>
+      <c r="J62" s="181"/>
       <c r="K62" s="114" t="s">
         <v>29</v>
       </c>
@@ -27402,7 +27426,7 @@
       <c r="G63" s="39"/>
       <c r="H63" s="39"/>
       <c r="I63" s="39"/>
-      <c r="J63" s="181"/>
+      <c r="J63" s="182"/>
       <c r="K63" s="115" t="s">
         <v>199</v>
       </c>
@@ -33185,7 +33209,7 @@
   <dimension ref="A1:W153"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -33260,15 +33284,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="186" t="s">
+      <c r="J2" s="187" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="188"/>
+      <c r="K2" s="189"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="188" t="s">
+      <c r="M2" s="189" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="187"/>
+      <c r="N2" s="188"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -33568,15 +33592,15 @@
         <v>0.20416666666666669</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="186" t="s">
+      <c r="J9" s="187" t="s">
         <v>286</v>
       </c>
-      <c r="K9" s="188"/>
+      <c r="K9" s="189"/>
       <c r="L9" s="136"/>
-      <c r="M9" s="188" t="s">
+      <c r="M9" s="189" t="s">
         <v>287</v>
       </c>
-      <c r="N9" s="187"/>
+      <c r="N9" s="188"/>
       <c r="O9" s="39"/>
       <c r="P9" s="39"/>
       <c r="Q9" s="39"/>
@@ -33783,15 +33807,15 @@
         <v>0.15208333333333332</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="186" t="s">
+      <c r="J14" s="187" t="s">
         <v>288</v>
       </c>
-      <c r="K14" s="187"/>
+      <c r="K14" s="188"/>
       <c r="L14" s="136"/>
-      <c r="M14" s="186" t="s">
+      <c r="M14" s="187" t="s">
         <v>289</v>
       </c>
-      <c r="N14" s="187"/>
+      <c r="N14" s="188"/>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
@@ -34095,15 +34119,15 @@
         <v>0.35138888888888892</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="186" t="s">
+      <c r="J21" s="187" t="s">
         <v>290</v>
       </c>
-      <c r="K21" s="187"/>
+      <c r="K21" s="188"/>
       <c r="L21" s="136"/>
-      <c r="M21" s="186" t="s">
+      <c r="M21" s="187" t="s">
         <v>291</v>
       </c>
-      <c r="N21" s="187"/>
+      <c r="N21" s="188"/>
       <c r="O21" s="39"/>
       <c r="P21" s="89" t="s">
         <v>31</v>
@@ -34485,15 +34509,15 @@
         <v>0.11805555555555557</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="186" t="s">
+      <c r="J28" s="187" t="s">
         <v>292</v>
       </c>
-      <c r="K28" s="187"/>
+      <c r="K28" s="188"/>
       <c r="L28" s="136"/>
-      <c r="M28" s="186" t="s">
+      <c r="M28" s="187" t="s">
         <v>293</v>
       </c>
-      <c r="N28" s="187"/>
+      <c r="N28" s="188"/>
       <c r="O28" s="39"/>
       <c r="P28" s="93" t="s">
         <v>38</v>
@@ -34840,15 +34864,15 @@
       <c r="G35" s="30"/>
       <c r="H35" s="61"/>
       <c r="I35" s="39"/>
-      <c r="J35" s="186" t="s">
+      <c r="J35" s="187" t="s">
         <v>294</v>
       </c>
-      <c r="K35" s="187"/>
+      <c r="K35" s="188"/>
       <c r="L35" s="136"/>
-      <c r="M35" s="186" t="s">
+      <c r="M35" s="187" t="s">
         <v>295</v>
       </c>
-      <c r="N35" s="187"/>
+      <c r="N35" s="188"/>
       <c r="O35" s="39"/>
       <c r="P35" s="39"/>
       <c r="Q35" s="39"/>
@@ -34883,9 +34907,9 @@
         <v>4.9305555555555554E-2</v>
       </c>
       <c r="O36" s="39"/>
-      <c r="P36" s="178"/>
-      <c r="Q36" s="178"/>
-      <c r="R36" s="178"/>
+      <c r="P36" s="179"/>
+      <c r="Q36" s="179"/>
+      <c r="R36" s="179"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -34916,9 +34940,9 @@
         <v>0.18472222222222223</v>
       </c>
       <c r="O37" s="39"/>
-      <c r="P37" s="185"/>
-      <c r="Q37" s="185"/>
-      <c r="R37" s="185"/>
+      <c r="P37" s="186"/>
+      <c r="Q37" s="186"/>
+      <c r="R37" s="186"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -34949,9 +34973,9 @@
         <v>0.21249999999999999</v>
       </c>
       <c r="O38" s="39"/>
-      <c r="P38" s="178"/>
-      <c r="Q38" s="178"/>
-      <c r="R38" s="178"/>
+      <c r="P38" s="179"/>
+      <c r="Q38" s="179"/>
+      <c r="R38" s="179"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -34982,9 +35006,9 @@
         <v>0.26527777777777778</v>
       </c>
       <c r="O39" s="39"/>
-      <c r="P39" s="178"/>
-      <c r="Q39" s="178"/>
-      <c r="R39" s="178"/>
+      <c r="P39" s="179"/>
+      <c r="Q39" s="179"/>
+      <c r="R39" s="179"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -35015,9 +35039,9 @@
         <v>0.75347222222222221</v>
       </c>
       <c r="O40" s="39"/>
-      <c r="P40" s="178"/>
-      <c r="Q40" s="178"/>
-      <c r="R40" s="178"/>
+      <c r="P40" s="179"/>
+      <c r="Q40" s="179"/>
+      <c r="R40" s="179"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -35043,9 +35067,9 @@
         <v>1.0513888888888889</v>
       </c>
       <c r="O41" s="39"/>
-      <c r="P41" s="178"/>
-      <c r="Q41" s="178"/>
-      <c r="R41" s="178"/>
+      <c r="P41" s="179"/>
+      <c r="Q41" s="179"/>
+      <c r="R41" s="179"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -38044,7 +38068,7 @@
   <dimension ref="A1:Z153"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -38120,15 +38144,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="186" t="s">
+      <c r="J2" s="187" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="188"/>
+      <c r="K2" s="189"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="188" t="s">
+      <c r="M2" s="189" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="187"/>
+      <c r="N2" s="188"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -38458,15 +38482,15 @@
         <v>1.1847222222222222</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="186" t="s">
+      <c r="J10" s="187" t="s">
         <v>286</v>
       </c>
-      <c r="K10" s="187"/>
+      <c r="K10" s="188"/>
       <c r="L10" s="136"/>
-      <c r="M10" s="186" t="s">
+      <c r="M10" s="187" t="s">
         <v>287</v>
       </c>
-      <c r="N10" s="187"/>
+      <c r="N10" s="188"/>
       <c r="O10" s="39"/>
       <c r="P10" s="39"/>
       <c r="Q10" s="39"/>
@@ -38763,15 +38787,15 @@
         <v>6.063194444444445</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="186" t="s">
+      <c r="J17" s="187" t="s">
         <v>288</v>
       </c>
-      <c r="K17" s="187"/>
+      <c r="K17" s="188"/>
       <c r="L17" s="136"/>
-      <c r="M17" s="186" t="s">
+      <c r="M17" s="187" t="s">
         <v>289</v>
       </c>
-      <c r="N17" s="187"/>
+      <c r="N17" s="188"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
@@ -38993,15 +39017,15 @@
         <v>0.50555555555555554</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="186" t="s">
+      <c r="J22" s="187" t="s">
         <v>290</v>
       </c>
-      <c r="K22" s="187"/>
+      <c r="K22" s="188"/>
       <c r="L22" s="136"/>
-      <c r="M22" s="186" t="s">
+      <c r="M22" s="187" t="s">
         <v>291</v>
       </c>
-      <c r="N22" s="187"/>
+      <c r="N22" s="188"/>
       <c r="O22" s="39"/>
       <c r="P22" s="63" t="s">
         <v>32</v>
@@ -39352,15 +39376,15 @@
         <v>2.6388888888888889E-2</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="186" t="s">
+      <c r="J28" s="187" t="s">
         <v>292</v>
       </c>
-      <c r="K28" s="187"/>
+      <c r="K28" s="188"/>
       <c r="L28" s="136"/>
-      <c r="M28" s="186" t="s">
+      <c r="M28" s="187" t="s">
         <v>293</v>
       </c>
-      <c r="N28" s="187"/>
+      <c r="N28" s="188"/>
       <c r="O28" s="39"/>
       <c r="P28" s="93" t="s">
         <v>38</v>
@@ -39726,15 +39750,15 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="I34" s="39"/>
-      <c r="J34" s="186" t="s">
+      <c r="J34" s="187" t="s">
         <v>294</v>
       </c>
-      <c r="K34" s="187"/>
+      <c r="K34" s="188"/>
       <c r="L34" s="136"/>
-      <c r="M34" s="186" t="s">
+      <c r="M34" s="187" t="s">
         <v>295</v>
       </c>
-      <c r="N34" s="187"/>
+      <c r="N34" s="188"/>
       <c r="O34" s="39"/>
       <c r="P34" s="125" t="s">
         <v>77</v>
@@ -39841,9 +39865,9 @@
         <v>0.36944444444444446</v>
       </c>
       <c r="O36" s="39"/>
-      <c r="P36" s="178"/>
-      <c r="Q36" s="178"/>
-      <c r="R36" s="178"/>
+      <c r="P36" s="179"/>
+      <c r="Q36" s="179"/>
+      <c r="R36" s="179"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -39888,9 +39912,9 @@
         <v>7.9166666666666663E-2</v>
       </c>
       <c r="O37" s="39"/>
-      <c r="P37" s="185"/>
-      <c r="Q37" s="178"/>
-      <c r="R37" s="178"/>
+      <c r="P37" s="186"/>
+      <c r="Q37" s="179"/>
+      <c r="R37" s="179"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -39922,9 +39946,9 @@
       </c>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="178"/>
-      <c r="Q38" s="178"/>
-      <c r="R38" s="178"/>
+      <c r="P38" s="179"/>
+      <c r="Q38" s="179"/>
+      <c r="R38" s="179"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -39942,9 +39966,9 @@
       <c r="H39" s="138"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="178"/>
-      <c r="Q39" s="178"/>
-      <c r="R39" s="178"/>
+      <c r="P39" s="179"/>
+      <c r="Q39" s="179"/>
+      <c r="R39" s="179"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -39962,9 +39986,9 @@
       <c r="H40" s="61"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="178"/>
-      <c r="Q40" s="178"/>
-      <c r="R40" s="178"/>
+      <c r="P40" s="179"/>
+      <c r="Q40" s="179"/>
+      <c r="R40" s="179"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -39982,9 +40006,9 @@
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="178"/>
-      <c r="Q41" s="178"/>
-      <c r="R41" s="178"/>
+      <c r="P41" s="179"/>
+      <c r="Q41" s="179"/>
+      <c r="R41" s="179"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -42975,7 +42999,7 @@
   <dimension ref="A1:Z153"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S33" sqref="S33"/>
+      <selection activeCell="C10" sqref="C10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -43052,15 +43076,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="186" t="s">
+      <c r="J2" s="187" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="187"/>
+      <c r="K2" s="188"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="186" t="s">
+      <c r="M2" s="187" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="187"/>
+      <c r="N2" s="188"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -43266,15 +43290,15 @@
         <v>0.33749999999999997</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="186" t="s">
+      <c r="J7" s="187" t="s">
         <v>286</v>
       </c>
-      <c r="K7" s="187"/>
+      <c r="K7" s="188"/>
       <c r="L7" s="136"/>
-      <c r="M7" s="186" t="s">
+      <c r="M7" s="187" t="s">
         <v>287</v>
       </c>
-      <c r="N7" s="187"/>
+      <c r="N7" s="188"/>
       <c r="O7" s="39"/>
       <c r="P7" s="39"/>
       <c r="Q7" s="39"/>
@@ -43481,15 +43505,15 @@
         <v>0.48819444444444443</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="186" t="s">
+      <c r="J12" s="187" t="s">
         <v>288</v>
       </c>
-      <c r="K12" s="187"/>
+      <c r="K12" s="188"/>
       <c r="L12" s="136"/>
-      <c r="M12" s="186" t="s">
+      <c r="M12" s="187" t="s">
         <v>289</v>
       </c>
-      <c r="N12" s="187"/>
+      <c r="N12" s="188"/>
       <c r="O12" s="39"/>
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
@@ -43739,15 +43763,15 @@
         <v>2.6659722222222224</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="186" t="s">
+      <c r="J18" s="187" t="s">
         <v>290</v>
       </c>
-      <c r="K18" s="187"/>
+      <c r="K18" s="188"/>
       <c r="L18" s="136"/>
-      <c r="M18" s="186" t="s">
+      <c r="M18" s="187" t="s">
         <v>291</v>
       </c>
-      <c r="N18" s="187"/>
+      <c r="N18" s="188"/>
       <c r="O18" s="39"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="39"/>
@@ -43984,15 +44008,15 @@
         <v>1.8131944444444446</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="186" t="s">
+      <c r="J23" s="187" t="s">
         <v>292</v>
       </c>
-      <c r="K23" s="187"/>
+      <c r="K23" s="188"/>
       <c r="L23" s="136"/>
-      <c r="M23" s="186" t="s">
+      <c r="M23" s="187" t="s">
         <v>293</v>
       </c>
-      <c r="N23" s="187"/>
+      <c r="N23" s="188"/>
       <c r="O23" s="39"/>
       <c r="P23" s="94" t="s">
         <v>33</v>
@@ -44348,15 +44372,15 @@
         <v>0.11527777777777778</v>
       </c>
       <c r="I29" s="39"/>
-      <c r="J29" s="186" t="s">
+      <c r="J29" s="187" t="s">
         <v>294</v>
       </c>
-      <c r="K29" s="187"/>
+      <c r="K29" s="188"/>
       <c r="L29" s="136"/>
-      <c r="M29" s="186" t="s">
+      <c r="M29" s="187" t="s">
         <v>295</v>
       </c>
-      <c r="N29" s="187"/>
+      <c r="N29" s="188"/>
       <c r="O29" s="39"/>
       <c r="P29" s="94" t="s">
         <v>39</v>
@@ -44572,13 +44596,13 @@
     </row>
     <row r="33" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
-      <c r="B33" s="189"/>
-      <c r="C33" s="190"/>
-      <c r="D33" s="190"/>
-      <c r="E33" s="191"/>
-      <c r="F33" s="192"/>
-      <c r="G33" s="192"/>
-      <c r="H33" s="193"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="61"/>
       <c r="I33" s="39"/>
       <c r="J33" s="14" t="s">
         <v>539</v>
@@ -44688,9 +44712,9 @@
       <c r="H36" s="61"/>
       <c r="I36" s="39"/>
       <c r="O36" s="39"/>
-      <c r="P36" s="178"/>
-      <c r="Q36" s="178"/>
-      <c r="R36" s="178"/>
+      <c r="P36" s="179"/>
+      <c r="Q36" s="179"/>
+      <c r="R36" s="179"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -44708,9 +44732,9 @@
       <c r="H37" s="61"/>
       <c r="I37" s="39"/>
       <c r="O37" s="39"/>
-      <c r="P37" s="185"/>
-      <c r="Q37" s="178"/>
-      <c r="R37" s="178"/>
+      <c r="P37" s="186"/>
+      <c r="Q37" s="179"/>
+      <c r="R37" s="179"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -44728,9 +44752,9 @@
       <c r="H38" s="61"/>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="178"/>
-      <c r="Q38" s="178"/>
-      <c r="R38" s="178"/>
+      <c r="P38" s="179"/>
+      <c r="Q38" s="179"/>
+      <c r="R38" s="179"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -44748,9 +44772,9 @@
       <c r="H39" s="61"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="178"/>
-      <c r="Q39" s="178"/>
-      <c r="R39" s="178"/>
+      <c r="P39" s="179"/>
+      <c r="Q39" s="179"/>
+      <c r="R39" s="179"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -44768,9 +44792,9 @@
       <c r="H40" s="62"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="178"/>
-      <c r="Q40" s="178"/>
-      <c r="R40" s="178"/>
+      <c r="P40" s="179"/>
+      <c r="Q40" s="179"/>
+      <c r="R40" s="179"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -44788,9 +44812,9 @@
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="178"/>
-      <c r="Q41" s="178"/>
-      <c r="R41" s="178"/>
+      <c r="P41" s="179"/>
+      <c r="Q41" s="179"/>
+      <c r="R41" s="179"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -47783,7 +47807,7 @@
   <dimension ref="A1:Z153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F116" sqref="F116"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -47860,15 +47884,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="186" t="s">
+      <c r="J2" s="187" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="187"/>
+      <c r="K2" s="188"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="186" t="s">
+      <c r="M2" s="187" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="187"/>
+      <c r="N2" s="188"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -47884,18 +47908,38 @@
       <c r="B3" s="70">
         <v>1</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="75"/>
+      <c r="C3" s="73" t="s">
+        <v>565</v>
+      </c>
+      <c r="D3" s="73">
+        <v>2024</v>
+      </c>
+      <c r="E3" s="152" t="s">
+        <v>440</v>
+      </c>
+      <c r="F3" s="74" t="s">
+        <v>260</v>
+      </c>
+      <c r="G3" s="74" t="s">
+        <v>490</v>
+      </c>
+      <c r="H3" s="75">
+        <v>0.81666666666666665</v>
+      </c>
       <c r="I3" s="6"/>
-      <c r="J3" s="198"/>
-      <c r="K3" s="72"/>
+      <c r="J3" s="168" t="s">
+        <v>558</v>
+      </c>
+      <c r="K3" s="72">
+        <v>7.2916666666666671E-2</v>
+      </c>
       <c r="L3" s="137"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="72"/>
+      <c r="M3" s="131" t="s">
+        <v>498</v>
+      </c>
+      <c r="N3" s="72">
+        <v>2.1527777777777778E-2</v>
+      </c>
       <c r="O3" s="39"/>
       <c r="P3" s="39"/>
       <c r="Q3" s="39"/>
@@ -47911,18 +47955,38 @@
       <c r="B4" s="78">
         <v>2</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="60"/>
+      <c r="C4" s="54" t="s">
+        <v>566</v>
+      </c>
+      <c r="D4" s="54">
+        <v>2020</v>
+      </c>
+      <c r="E4" s="153" t="s">
+        <v>440</v>
+      </c>
+      <c r="F4" s="69" t="s">
+        <v>490</v>
+      </c>
+      <c r="G4" s="69" t="s">
+        <v>567</v>
+      </c>
+      <c r="H4" s="60">
+        <v>0.1388888888888889</v>
+      </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="60"/>
+      <c r="J4" s="114" t="s">
+        <v>555</v>
+      </c>
+      <c r="K4" s="60">
+        <v>0.76875000000000004</v>
+      </c>
       <c r="L4" s="137"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="60"/>
+      <c r="M4" s="101" t="s">
+        <v>575</v>
+      </c>
+      <c r="N4" s="60">
+        <v>0.27430555555555558</v>
+      </c>
       <c r="O4" s="39"/>
       <c r="P4" s="39"/>
       <c r="Q4" s="39"/>
@@ -47938,18 +48002,38 @@
       <c r="B5" s="70">
         <v>3</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="75"/>
+      <c r="C5" s="73" t="s">
+        <v>568</v>
+      </c>
+      <c r="D5" s="73">
+        <v>2011</v>
+      </c>
+      <c r="E5" s="152" t="s">
+        <v>440</v>
+      </c>
+      <c r="F5" s="74" t="s">
+        <v>569</v>
+      </c>
+      <c r="G5" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="75" t="s">
+        <v>13</v>
+      </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="135"/>
-      <c r="K5" s="77"/>
+      <c r="J5" s="135" t="s">
+        <v>562</v>
+      </c>
+      <c r="K5" s="77">
+        <v>0.11666666666666667</v>
+      </c>
       <c r="L5" s="163"/>
-      <c r="M5" s="135"/>
-      <c r="N5" s="77"/>
+      <c r="M5" s="135" t="s">
+        <v>555</v>
+      </c>
+      <c r="N5" s="77">
+        <v>2.7083333333333334E-2</v>
+      </c>
       <c r="O5" s="39"/>
       <c r="P5" s="39"/>
       <c r="Q5" s="39"/>
@@ -47965,12 +48049,24 @@
       <c r="B6" s="78">
         <v>4</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="60"/>
+      <c r="C6" s="54" t="s">
+        <v>570</v>
+      </c>
+      <c r="D6" s="54">
+        <v>2022</v>
+      </c>
+      <c r="E6" s="153" t="s">
+        <v>442</v>
+      </c>
+      <c r="F6" s="69" t="s">
+        <v>571</v>
+      </c>
+      <c r="G6" s="69" t="s">
+        <v>573</v>
+      </c>
+      <c r="H6" s="60">
+        <v>1.0118055555555556</v>
+      </c>
       <c r="I6" s="6"/>
       <c r="O6" s="39"/>
       <c r="P6" s="39"/>
@@ -47987,22 +48083,34 @@
       <c r="B7" s="70">
         <v>5</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="152"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="75"/>
+      <c r="C7" s="73" t="s">
+        <v>574</v>
+      </c>
+      <c r="D7" s="73">
+        <v>1998</v>
+      </c>
+      <c r="E7" s="152" t="s">
+        <v>443</v>
+      </c>
+      <c r="F7" s="74" t="s">
+        <v>576</v>
+      </c>
+      <c r="G7" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="75" t="s">
+        <v>13</v>
+      </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="186" t="s">
+      <c r="J7" s="187" t="s">
         <v>286</v>
       </c>
-      <c r="K7" s="187"/>
+      <c r="K7" s="188"/>
       <c r="L7" s="136"/>
-      <c r="M7" s="186" t="s">
+      <c r="M7" s="187" t="s">
         <v>287</v>
       </c>
-      <c r="N7" s="187"/>
+      <c r="N7" s="188"/>
       <c r="O7" s="39"/>
       <c r="P7" s="39"/>
       <c r="Q7" s="39"/>
@@ -48025,7 +48133,7 @@
       <c r="G8" s="69"/>
       <c r="H8" s="60"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="198"/>
+      <c r="J8" s="168"/>
       <c r="K8" s="72"/>
       <c r="L8" s="137"/>
       <c r="M8" s="131"/>
@@ -48128,15 +48236,15 @@
       <c r="G12" s="69"/>
       <c r="H12" s="60"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="186" t="s">
+      <c r="J12" s="187" t="s">
         <v>288</v>
       </c>
-      <c r="K12" s="187"/>
+      <c r="K12" s="188"/>
       <c r="L12" s="136"/>
-      <c r="M12" s="186" t="s">
+      <c r="M12" s="187" t="s">
         <v>289</v>
       </c>
-      <c r="N12" s="187"/>
+      <c r="N12" s="188"/>
       <c r="O12" s="39"/>
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
@@ -48159,7 +48267,7 @@
       <c r="G13" s="74"/>
       <c r="H13" s="75"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="198"/>
+      <c r="J13" s="168"/>
       <c r="K13" s="72"/>
       <c r="L13" s="137"/>
       <c r="M13" s="131"/>
@@ -48262,15 +48370,15 @@
       <c r="G17" s="74"/>
       <c r="H17" s="75"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="186" t="s">
+      <c r="J17" s="187" t="s">
         <v>290</v>
       </c>
-      <c r="K17" s="187"/>
+      <c r="K17" s="188"/>
       <c r="L17" s="136"/>
-      <c r="M17" s="186" t="s">
+      <c r="M17" s="187" t="s">
         <v>291</v>
       </c>
-      <c r="N17" s="187"/>
+      <c r="N17" s="188"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
@@ -48293,7 +48401,7 @@
       <c r="G18" s="69"/>
       <c r="H18" s="60"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="198"/>
+      <c r="J18" s="168"/>
       <c r="K18" s="72"/>
       <c r="L18" s="137"/>
       <c r="M18" s="131"/>
@@ -48374,11 +48482,11 @@
       <c r="G21" s="74"/>
       <c r="H21" s="75"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="190"/>
-      <c r="K21" s="193"/>
-      <c r="L21" s="193"/>
-      <c r="M21" s="190"/>
-      <c r="N21" s="193"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="61"/>
       <c r="O21" s="39"/>
       <c r="P21" s="89" t="s">
         <v>31</v>
@@ -48413,29 +48521,39 @@
       <c r="G22" s="69"/>
       <c r="H22" s="60"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="186" t="s">
+      <c r="J22" s="187" t="s">
         <v>292</v>
       </c>
-      <c r="K22" s="187"/>
+      <c r="K22" s="188"/>
       <c r="L22" s="136"/>
-      <c r="M22" s="186" t="s">
+      <c r="M22" s="187" t="s">
         <v>293</v>
       </c>
-      <c r="N22" s="187"/>
+      <c r="N22" s="188"/>
       <c r="O22" s="39"/>
       <c r="P22" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="95"/>
+      <c r="Q22" s="95">
+        <f>SUM(H3:H4,W22)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="R22" s="95">
+        <f>SUM(K3:K5)</f>
+        <v>0.95833333333333337</v>
+      </c>
       <c r="S22" s="96">
         <f t="shared" ref="S22:S28" si="0">Q22+R22</f>
-        <v>0</v>
+        <v>1.9583333333333333</v>
       </c>
       <c r="T22" s="39"/>
-      <c r="U22" s="104"/>
+      <c r="U22" s="104" t="s">
+        <v>572</v>
+      </c>
       <c r="V22" s="146"/>
-      <c r="W22" s="147"/>
+      <c r="W22" s="147">
+        <v>4.4444444444444446E-2</v>
+      </c>
       <c r="X22" s="147"/>
       <c r="Y22" s="147"/>
     </row>
@@ -48449,7 +48567,7 @@
       <c r="G23" s="53"/>
       <c r="H23" s="138"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="198"/>
+      <c r="J23" s="168"/>
       <c r="K23" s="72"/>
       <c r="L23" s="137"/>
       <c r="M23" s="131"/>
@@ -48458,28 +48576,38 @@
       <c r="P23" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="64"/>
+      <c r="Q23" s="64">
+        <f>SUM(H6,W23)</f>
+        <v>1.8902777777777779</v>
+      </c>
+      <c r="R23" s="64">
+        <f>SUM(N3:N5)</f>
+        <v>0.32291666666666669</v>
+      </c>
       <c r="S23" s="90">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.2131944444444445</v>
       </c>
       <c r="T23" s="39"/>
-      <c r="U23" s="98"/>
+      <c r="U23" s="98" t="s">
+        <v>577</v>
+      </c>
       <c r="V23" s="146"/>
-      <c r="W23" s="147"/>
+      <c r="W23" s="147">
+        <v>0.87847222222222221</v>
+      </c>
       <c r="X23" s="147"/>
       <c r="Y23" s="147"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="39"/>
-      <c r="B24" s="189"/>
-      <c r="C24" s="190"/>
-      <c r="D24" s="190"/>
-      <c r="E24" s="191"/>
-      <c r="F24" s="192"/>
-      <c r="G24" s="192"/>
-      <c r="H24" s="193"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="61"/>
       <c r="I24" s="39"/>
       <c r="J24" s="114"/>
       <c r="K24" s="60"/>
@@ -48505,13 +48633,13 @@
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="39"/>
-      <c r="B25" s="189"/>
-      <c r="C25" s="194"/>
-      <c r="D25" s="194"/>
-      <c r="E25" s="195"/>
-      <c r="F25" s="194"/>
-      <c r="G25" s="194"/>
-      <c r="H25" s="196"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="111"/>
       <c r="I25" s="39"/>
       <c r="J25" s="135"/>
       <c r="K25" s="77"/>
@@ -48537,13 +48665,13 @@
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39"/>
-      <c r="B26" s="189"/>
-      <c r="C26" s="190"/>
-      <c r="D26" s="190"/>
-      <c r="E26" s="191"/>
-      <c r="F26" s="192"/>
-      <c r="G26" s="192"/>
-      <c r="H26" s="193"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="61"/>
       <c r="I26" s="39"/>
       <c r="O26" s="39"/>
       <c r="P26" s="93" t="s">
@@ -48564,23 +48692,23 @@
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39"/>
-      <c r="B27" s="189"/>
-      <c r="C27" s="190"/>
-      <c r="D27" s="190"/>
-      <c r="E27" s="191"/>
-      <c r="F27" s="192"/>
-      <c r="G27" s="192"/>
-      <c r="H27" s="193"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="61"/>
       <c r="I27" s="39"/>
-      <c r="J27" s="186" t="s">
+      <c r="J27" s="187" t="s">
         <v>294</v>
       </c>
-      <c r="K27" s="187"/>
+      <c r="K27" s="188"/>
       <c r="L27" s="136"/>
-      <c r="M27" s="186" t="s">
+      <c r="M27" s="187" t="s">
         <v>295</v>
       </c>
-      <c r="N27" s="187"/>
+      <c r="N27" s="188"/>
       <c r="O27" s="39"/>
       <c r="P27" s="94" t="s">
         <v>37</v>
@@ -48600,15 +48728,15 @@
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
-      <c r="B28" s="189"/>
-      <c r="C28" s="190"/>
-      <c r="D28" s="190"/>
-      <c r="E28" s="191"/>
-      <c r="F28" s="192"/>
-      <c r="G28" s="192"/>
-      <c r="H28" s="193"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="61"/>
       <c r="I28" s="39"/>
-      <c r="J28" s="198"/>
+      <c r="J28" s="168"/>
       <c r="K28" s="72"/>
       <c r="L28" s="137"/>
       <c r="M28" s="131"/>
@@ -48632,13 +48760,13 @@
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39"/>
-      <c r="B29" s="189"/>
-      <c r="C29" s="190"/>
-      <c r="D29" s="190"/>
-      <c r="E29" s="191"/>
-      <c r="F29" s="192"/>
-      <c r="G29" s="192"/>
-      <c r="H29" s="193"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="155"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="61"/>
       <c r="I29" s="39"/>
       <c r="J29" s="114"/>
       <c r="K29" s="60"/>
@@ -48664,13 +48792,13 @@
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="39"/>
-      <c r="B30" s="189"/>
-      <c r="C30" s="190"/>
-      <c r="D30" s="190"/>
-      <c r="E30" s="191"/>
-      <c r="F30" s="192"/>
-      <c r="G30" s="192"/>
-      <c r="H30" s="193"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="155"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="61"/>
       <c r="I30" s="39"/>
       <c r="J30" s="135"/>
       <c r="K30" s="77"/>
@@ -48696,19 +48824,19 @@
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="39"/>
-      <c r="B31" s="189"/>
-      <c r="C31" s="190"/>
-      <c r="D31" s="190"/>
-      <c r="E31" s="191"/>
-      <c r="F31" s="192"/>
-      <c r="G31" s="192"/>
-      <c r="H31" s="193"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="61"/>
       <c r="I31" s="39"/>
-      <c r="J31" s="190"/>
-      <c r="K31" s="193"/>
-      <c r="L31" s="193"/>
-      <c r="M31" s="194"/>
-      <c r="N31" s="193"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="61"/>
       <c r="O31" s="39"/>
       <c r="P31" s="94" t="s">
         <v>41</v>
@@ -48728,19 +48856,19 @@
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="39"/>
-      <c r="B32" s="189"/>
-      <c r="C32" s="190"/>
-      <c r="D32" s="190"/>
-      <c r="E32" s="191"/>
-      <c r="F32" s="192"/>
-      <c r="G32" s="192"/>
-      <c r="H32" s="193"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="155"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="61"/>
       <c r="I32" s="39"/>
-      <c r="J32" s="190"/>
-      <c r="K32" s="193"/>
-      <c r="L32" s="193"/>
-      <c r="M32" s="190"/>
-      <c r="N32" s="193"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="61"/>
       <c r="O32" s="39"/>
       <c r="P32" s="93" t="s">
         <v>42</v>
@@ -48760,19 +48888,18 @@
     </row>
     <row r="33" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
-      <c r="B33" s="189"/>
-      <c r="C33" s="190"/>
-      <c r="D33" s="190"/>
-      <c r="E33" s="191"/>
-      <c r="F33" s="192"/>
-      <c r="G33" s="192"/>
-      <c r="H33" s="193"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="61"/>
       <c r="I33" s="39"/>
-      <c r="J33" s="190"/>
-      <c r="K33" s="193"/>
-      <c r="L33" s="197"/>
-      <c r="M33" s="194"/>
-      <c r="N33" s="193"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="61"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="61"/>
       <c r="O33" s="39"/>
       <c r="P33" s="94" t="s">
         <v>43</v>
@@ -48801,26 +48928,23 @@
       <c r="G34" s="30"/>
       <c r="H34" s="61"/>
       <c r="I34" s="39"/>
-      <c r="J34" s="197"/>
-      <c r="K34" s="197"/>
-      <c r="L34" s="197"/>
-      <c r="M34" s="190"/>
-      <c r="N34" s="193"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="61"/>
       <c r="O34" s="39"/>
       <c r="P34" s="125" t="s">
         <v>77</v>
       </c>
       <c r="Q34" s="126">
         <f>SUM(Q22:Q33)</f>
-        <v>0</v>
+        <v>2.8902777777777779</v>
       </c>
       <c r="R34" s="126">
         <f>SUM(R22:R33)</f>
-        <v>0</v>
+        <v>1.28125</v>
       </c>
       <c r="S34" s="127">
         <f>SUM(S22:S33)</f>
-        <v>0</v>
+        <v>4.1715277777777775</v>
       </c>
       <c r="T34" s="39"/>
       <c r="U34" s="39"/>
@@ -48858,9 +48982,9 @@
       <c r="H36" s="61"/>
       <c r="I36" s="39"/>
       <c r="O36" s="39"/>
-      <c r="P36" s="178"/>
-      <c r="Q36" s="178"/>
-      <c r="R36" s="178"/>
+      <c r="P36" s="179"/>
+      <c r="Q36" s="179"/>
+      <c r="R36" s="179"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -48878,9 +49002,9 @@
       <c r="H37" s="61"/>
       <c r="I37" s="39"/>
       <c r="O37" s="39"/>
-      <c r="P37" s="185"/>
-      <c r="Q37" s="178"/>
-      <c r="R37" s="178"/>
+      <c r="P37" s="186"/>
+      <c r="Q37" s="179"/>
+      <c r="R37" s="179"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -48898,9 +49022,9 @@
       <c r="H38" s="61"/>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="178"/>
-      <c r="Q38" s="178"/>
-      <c r="R38" s="178"/>
+      <c r="P38" s="179"/>
+      <c r="Q38" s="179"/>
+      <c r="R38" s="179"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -48918,9 +49042,9 @@
       <c r="H39" s="61"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="178"/>
-      <c r="Q39" s="178"/>
-      <c r="R39" s="178"/>
+      <c r="P39" s="179"/>
+      <c r="Q39" s="179"/>
+      <c r="R39" s="179"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -48938,9 +49062,9 @@
       <c r="H40" s="62"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="178"/>
-      <c r="Q40" s="178"/>
-      <c r="R40" s="178"/>
+      <c r="P40" s="179"/>
+      <c r="Q40" s="179"/>
+      <c r="R40" s="179"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -48958,9 +49082,9 @@
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="178"/>
-      <c r="Q41" s="178"/>
-      <c r="R41" s="178"/>
+      <c r="P41" s="179"/>
+      <c r="Q41" s="179"/>
+      <c r="R41" s="179"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -50877,7 +51001,7 @@
       </c>
       <c r="R118" s="46">
         <f>COUNTIF(D2:D58,Q118)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S118" s="39"/>
       <c r="T118" s="39"/>
@@ -50937,7 +51061,7 @@
       </c>
       <c r="R120" s="167">
         <f>COUNTIF(D3:D58,Q120)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S120" s="39"/>
       <c r="T120" s="39"/>
@@ -50997,7 +51121,7 @@
       </c>
       <c r="R122" s="46">
         <f>COUNTIF(D3:D59,Q122)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S122" s="39"/>
       <c r="T122" s="39"/>
@@ -51267,7 +51391,7 @@
       </c>
       <c r="R131" s="46">
         <f>COUNTIF(D3:D59,Q131)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S131" s="39"/>
       <c r="T131" s="39"/>
@@ -51657,7 +51781,7 @@
       </c>
       <c r="R144" s="46">
         <f>COUNTIF(D3:D59,Q144)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S144" s="39"/>
       <c r="T144" s="39"/>
@@ -51837,7 +51961,7 @@
       </c>
       <c r="R150" s="42">
         <f>SUM(R118:R149)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S150" s="39"/>
       <c r="T150" s="39"/>
@@ -51924,22 +52048,22 @@
   <mergeCells count="18">
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="M17:N17"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="P41:R41"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="M12:N12"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J116" r:id="rId1" xr:uid="{83A9A6CC-BE59-42CD-B5C7-E41BC1FC3BF1}"/>

--- a/spreadsheets/Games.xlsx
+++ b/spreadsheets/Games.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ucer0.github.io\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC846B0-C4A8-4010-A222-AC7FD005C7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A52C6B6-9A93-4BE3-887F-153DCDC7EBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="583">
   <si>
     <t>Nier: Automata</t>
   </si>
@@ -2351,6 +2351,21 @@
   </si>
   <si>
     <t>Xenogears (21h 5m)</t>
+  </si>
+  <si>
+    <t>19-mar.</t>
+  </si>
+  <si>
+    <t>R.E.P.O.</t>
+  </si>
+  <si>
+    <t>Xenogears (39h 31m)</t>
+  </si>
+  <si>
+    <t>Slay the Princess</t>
+  </si>
+  <si>
+    <t>ENA: Dream BBQ Chapter 1</t>
   </si>
 </sst>
 </file>
@@ -4973,13 +4988,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -18304,7 +18319,7 @@
   <dimension ref="A1:Y159"/>
   <sheetViews>
     <sheetView topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23091,7 +23106,7 @@
   <dimension ref="A1:AZ296"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L62" sqref="K62:L62"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -33209,7 +33224,7 @@
   <dimension ref="A1:W153"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -38068,7 +38083,7 @@
   <dimension ref="A1:Z153"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -42999,7 +43014,7 @@
   <dimension ref="A1:Z153"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:H10"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -47807,7 +47822,7 @@
   <dimension ref="A1:Z153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -48096,10 +48111,10 @@
         <v>576</v>
       </c>
       <c r="G7" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="75" t="s">
-        <v>13</v>
+        <v>578</v>
+      </c>
+      <c r="H7" s="75">
+        <v>2.5249999999999999</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="187" t="s">
@@ -48126,15 +48141,31 @@
       <c r="B8" s="78">
         <v>6</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="60"/>
+      <c r="C8" s="54" t="s">
+        <v>581</v>
+      </c>
+      <c r="D8" s="54">
+        <v>2023</v>
+      </c>
+      <c r="E8" s="153" t="s">
+        <v>440</v>
+      </c>
+      <c r="F8" s="69" t="s">
+        <v>400</v>
+      </c>
+      <c r="G8" s="69" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" s="60">
+        <v>0.35416666666666669</v>
+      </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="168"/>
-      <c r="K8" s="72"/>
+      <c r="J8" s="168" t="s">
+        <v>579</v>
+      </c>
+      <c r="K8" s="72">
+        <v>0.61250000000000004</v>
+      </c>
       <c r="L8" s="137"/>
       <c r="M8" s="131"/>
       <c r="N8" s="72"/>
@@ -48153,12 +48184,24 @@
       <c r="B9" s="70">
         <v>7</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="75"/>
+      <c r="C9" s="73" t="s">
+        <v>582</v>
+      </c>
+      <c r="D9" s="73">
+        <v>2025</v>
+      </c>
+      <c r="E9" s="152" t="s">
+        <v>440</v>
+      </c>
+      <c r="F9" s="74" t="s">
+        <v>396</v>
+      </c>
+      <c r="G9" s="74" t="s">
+        <v>396</v>
+      </c>
+      <c r="H9" s="75">
+        <v>0.1125</v>
+      </c>
       <c r="I9" s="6"/>
       <c r="J9" s="114"/>
       <c r="K9" s="60"/>
@@ -48625,9 +48668,13 @@
         <v>0</v>
       </c>
       <c r="T24" s="39"/>
-      <c r="U24" s="99"/>
+      <c r="U24" s="99" t="s">
+        <v>580</v>
+      </c>
       <c r="V24" s="146"/>
-      <c r="W24" s="147"/>
+      <c r="W24" s="147">
+        <v>1.6465277777777778</v>
+      </c>
       <c r="X24" s="147"/>
       <c r="Y24" s="147"/>
     </row>
@@ -50971,7 +51018,7 @@
       </c>
       <c r="R117" s="44">
         <f>COUNTIF(D1:D57,Q117)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S117" s="39"/>
       <c r="T117" s="39"/>
@@ -51031,7 +51078,7 @@
       </c>
       <c r="R119" s="167">
         <f>COUNTIF(D3:D59,Q119)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S119" s="39"/>
       <c r="T119" s="39"/>
@@ -51961,7 +52008,7 @@
       </c>
       <c r="R150" s="42">
         <f>SUM(R118:R149)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S150" s="39"/>
       <c r="T150" s="39"/>

--- a/spreadsheets/Games.xlsx
+++ b/spreadsheets/Games.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ucer0.github.io\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A52C6B6-9A93-4BE3-887F-153DCDC7EBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A82B703-2730-45C3-A0B9-54CA3989D5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="591">
   <si>
     <t>Nier: Automata</t>
   </si>
@@ -2359,13 +2359,48 @@
     <t>R.E.P.O.</t>
   </si>
   <si>
-    <t>Xenogears (39h 31m)</t>
-  </si>
-  <si>
     <t>Slay the Princess</t>
   </si>
   <si>
     <t>ENA: Dream BBQ Chapter 1</t>
+  </si>
+  <si>
+    <t>Xenogears (39h 31m), Ruina (2h 00m)</t>
+  </si>
+  <si>
+    <t>Ruina: Fairy Tale of the Forgotten Ruins</t>
+  </si>
+  <si>
+    <t>Metroid Prime 2</t>
+  </si>
+  <si>
+    <t>Game Cube [EMU]</t>
+  </si>
+  <si>
+    <t>31st March, Midnight</t>
+  </si>
+  <si>
+    <t>Clair Obscure: Expedition 33</t>
+  </si>
+  <si>
+    <t>Picross e2</t>
+  </si>
+  <si>
+    <t>28-abr.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ruina (21h 21m), E33 (22h 45m), Picross e2 (2h 53), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>Prime 2 (85%, Ingame 14h 33m)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3329,9 +3364,6 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
@@ -3350,7 +3382,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3361,6 +3393,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4988,10 +5023,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -5030,7 +5065,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -5039,7 +5074,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -5051,7 +5086,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -5348,6 +5383,12 @@
                 <c:pt idx="1">
                   <c:v>1.8902777777777779</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1965277777777779</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8715277777777777</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5439,6 +5480,12 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.32291666666666669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91666666666666674</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23281,7 +23328,7 @@
         <v>4.197916666666667</v>
       </c>
       <c r="I3" s="6"/>
-      <c r="J3" s="183" t="s">
+      <c r="J3" s="182" t="s">
         <v>118</v>
       </c>
       <c r="K3" s="80" t="s">
@@ -23355,7 +23402,7 @@
         <v>0.30138888888888887</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="184"/>
+      <c r="J4" s="183"/>
       <c r="K4" s="54" t="s">
         <v>127</v>
       </c>
@@ -23427,7 +23474,7 @@
         <v>0.2076388888888889</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="184"/>
+      <c r="J5" s="183"/>
       <c r="K5" s="73" t="s">
         <v>132</v>
       </c>
@@ -23499,7 +23546,7 @@
         <v>1.2437499999999999</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="184"/>
+      <c r="J6" s="183"/>
       <c r="K6" s="54" t="s">
         <v>129</v>
       </c>
@@ -23571,7 +23618,7 @@
         <v>0.27916666666666667</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="184"/>
+      <c r="J7" s="183"/>
       <c r="K7" s="73" t="s">
         <v>136</v>
       </c>
@@ -23643,7 +23690,7 @@
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="184"/>
+      <c r="J8" s="183"/>
       <c r="K8" s="54" t="s">
         <v>137</v>
       </c>
@@ -23715,7 +23762,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="183" t="s">
+      <c r="J9" s="182" t="s">
         <v>119</v>
       </c>
       <c r="K9" s="71" t="s">
@@ -23789,7 +23836,7 @@
         <v>0.19027777777777777</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="184"/>
+      <c r="J10" s="183"/>
       <c r="K10" s="54" t="s">
         <v>127</v>
       </c>
@@ -23861,7 +23908,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="184"/>
+      <c r="J11" s="183"/>
       <c r="K11" s="73" t="s">
         <v>132</v>
       </c>
@@ -23933,7 +23980,7 @@
         <v>1.7097222222222221</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="184"/>
+      <c r="J12" s="183"/>
       <c r="K12" s="54" t="s">
         <v>129</v>
       </c>
@@ -24005,7 +24052,7 @@
         <v>0.15972222222222224</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="184"/>
+      <c r="J13" s="183"/>
       <c r="K13" s="73" t="s">
         <v>141</v>
       </c>
@@ -24077,7 +24124,7 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="183" t="s">
+      <c r="J14" s="182" t="s">
         <v>120</v>
       </c>
       <c r="K14" s="10" t="s">
@@ -24151,7 +24198,7 @@
         <v>0.59652777777777777</v>
       </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="184"/>
+      <c r="J15" s="183"/>
       <c r="K15" s="73" t="s">
         <v>127</v>
       </c>
@@ -24223,7 +24270,7 @@
         <v>13</v>
       </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="184"/>
+      <c r="J16" s="183"/>
       <c r="K16" s="54" t="s">
         <v>132</v>
       </c>
@@ -24295,7 +24342,7 @@
         <v>13</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="184"/>
+      <c r="J17" s="183"/>
       <c r="K17" s="73" t="s">
         <v>129</v>
       </c>
@@ -24367,7 +24414,7 @@
         <v>0.24583333333333335</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="184"/>
+      <c r="J18" s="183"/>
       <c r="K18" s="54" t="s">
         <v>144</v>
       </c>
@@ -24439,7 +24486,7 @@
         <v>0.49513888888888885</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="185"/>
+      <c r="J19" s="184"/>
       <c r="K19" s="76" t="s">
         <v>150</v>
       </c>
@@ -24511,7 +24558,7 @@
         <v>0.20972222222222223</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="J20" s="183" t="s">
+      <c r="J20" s="182" t="s">
         <v>143</v>
       </c>
       <c r="K20" s="10" t="s">
@@ -24585,7 +24632,7 @@
         <v>0.25486111111111109</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="185"/>
+      <c r="J21" s="184"/>
       <c r="K21" s="76" t="s">
         <v>141</v>
       </c>
@@ -24667,7 +24714,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="184" t="s">
+      <c r="J22" s="183" t="s">
         <v>161</v>
       </c>
       <c r="K22" s="54" t="s">
@@ -24753,7 +24800,7 @@
         <v>0.26944444444444443</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="184"/>
+      <c r="J23" s="183"/>
       <c r="K23" s="80" t="s">
         <v>169</v>
       </c>
@@ -24837,7 +24884,7 @@
         <v>0.3263888888888889</v>
       </c>
       <c r="I24" s="39"/>
-      <c r="J24" s="184"/>
+      <c r="J24" s="183"/>
       <c r="K24" s="54" t="s">
         <v>163</v>
       </c>
@@ -24921,7 +24968,7 @@
         <v>0.32847222222222222</v>
       </c>
       <c r="I25" s="39"/>
-      <c r="J25" s="184"/>
+      <c r="J25" s="183"/>
       <c r="K25" s="73" t="s">
         <v>141</v>
       </c>
@@ -25005,7 +25052,7 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="I26" s="39"/>
-      <c r="J26" s="185"/>
+      <c r="J26" s="184"/>
       <c r="K26" s="11" t="s">
         <v>162</v>
       </c>
@@ -25089,7 +25136,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="I27" s="39"/>
-      <c r="J27" s="183" t="s">
+      <c r="J27" s="182" t="s">
         <v>171</v>
       </c>
       <c r="K27" s="73" t="s">
@@ -25175,7 +25222,7 @@
         <v>0.22291666666666665</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="184"/>
+      <c r="J28" s="183"/>
       <c r="K28" s="101" t="s">
         <v>163</v>
       </c>
@@ -25259,7 +25306,7 @@
         <v>0.13194444444444445</v>
       </c>
       <c r="I29" s="39"/>
-      <c r="J29" s="184"/>
+      <c r="J29" s="183"/>
       <c r="K29" s="73" t="s">
         <v>29</v>
       </c>
@@ -25343,7 +25390,7 @@
         <v>13</v>
       </c>
       <c r="I30" s="39"/>
-      <c r="J30" s="184"/>
+      <c r="J30" s="183"/>
       <c r="K30" s="101" t="s">
         <v>136</v>
       </c>
@@ -25427,7 +25474,7 @@
         <v>0.43888888888888888</v>
       </c>
       <c r="I31" s="39"/>
-      <c r="J31" s="185"/>
+      <c r="J31" s="184"/>
       <c r="K31" s="73" t="s">
         <v>141</v>
       </c>
@@ -25511,7 +25558,7 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="I32" s="39"/>
-      <c r="J32" s="183" t="s">
+      <c r="J32" s="182" t="s">
         <v>184</v>
       </c>
       <c r="K32" s="107" t="s">
@@ -25597,7 +25644,7 @@
         <v>2.7097222222222221</v>
       </c>
       <c r="I33" s="39"/>
-      <c r="J33" s="184"/>
+      <c r="J33" s="183"/>
       <c r="K33" s="73" t="s">
         <v>179</v>
       </c>
@@ -25683,7 +25730,7 @@
         <v>13</v>
       </c>
       <c r="I34" s="39"/>
-      <c r="J34" s="184"/>
+      <c r="J34" s="183"/>
       <c r="K34" s="54" t="s">
         <v>199</v>
       </c>
@@ -25766,7 +25813,7 @@
         <v>0.11041666666666666</v>
       </c>
       <c r="I35" s="39"/>
-      <c r="J35" s="184"/>
+      <c r="J35" s="183"/>
       <c r="K35" s="80" t="s">
         <v>198</v>
       </c>
@@ -25838,7 +25885,7 @@
         <v>0.37083333333333335</v>
       </c>
       <c r="I36" s="39"/>
-      <c r="J36" s="184"/>
+      <c r="J36" s="183"/>
       <c r="K36" s="54" t="s">
         <v>141</v>
       </c>
@@ -25846,9 +25893,9 @@
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="M36" s="39"/>
-      <c r="N36" s="179"/>
-      <c r="O36" s="179"/>
-      <c r="P36" s="179"/>
+      <c r="N36" s="185"/>
+      <c r="O36" s="185"/>
+      <c r="P36" s="185"/>
       <c r="Q36" s="111"/>
       <c r="R36" s="16"/>
       <c r="S36" s="16"/>
@@ -25910,7 +25957,7 @@
         <v>0.80694444444444446</v>
       </c>
       <c r="I37" s="39"/>
-      <c r="J37" s="184"/>
+      <c r="J37" s="183"/>
       <c r="K37" s="80" t="s">
         <v>196</v>
       </c>
@@ -25918,9 +25965,9 @@
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="M37" s="39"/>
-      <c r="N37" s="179"/>
-      <c r="O37" s="179"/>
-      <c r="P37" s="179"/>
+      <c r="N37" s="185"/>
+      <c r="O37" s="185"/>
+      <c r="P37" s="185"/>
       <c r="Q37" s="111"/>
       <c r="R37" s="16"/>
       <c r="S37" s="16"/>
@@ -25982,7 +26029,7 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="I38" s="39"/>
-      <c r="J38" s="185"/>
+      <c r="J38" s="184"/>
       <c r="K38" s="11" t="s">
         <v>202</v>
       </c>
@@ -25990,9 +26037,9 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="M38" s="39"/>
-      <c r="N38" s="179"/>
-      <c r="O38" s="179"/>
-      <c r="P38" s="179"/>
+      <c r="N38" s="185"/>
+      <c r="O38" s="185"/>
+      <c r="P38" s="185"/>
       <c r="Q38" s="111"/>
       <c r="R38" s="16"/>
       <c r="S38" s="16"/>
@@ -26040,7 +26087,7 @@
       <c r="G39" s="30"/>
       <c r="H39" s="61"/>
       <c r="I39" s="39"/>
-      <c r="J39" s="183" t="s">
+      <c r="J39" s="182" t="s">
         <v>209</v>
       </c>
       <c r="K39" s="116" t="s">
@@ -26050,9 +26097,9 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="M39" s="39"/>
-      <c r="N39" s="179"/>
-      <c r="O39" s="179"/>
-      <c r="P39" s="179"/>
+      <c r="N39" s="185"/>
+      <c r="O39" s="185"/>
+      <c r="P39" s="185"/>
       <c r="Q39" s="124"/>
       <c r="R39" s="16"/>
       <c r="S39" s="16"/>
@@ -26100,7 +26147,7 @@
       <c r="G40" s="39"/>
       <c r="H40" s="62"/>
       <c r="I40" s="39"/>
-      <c r="J40" s="184"/>
+      <c r="J40" s="183"/>
       <c r="K40" s="113" t="s">
         <v>210</v>
       </c>
@@ -26108,9 +26155,9 @@
         <v>0.3666666666666667</v>
       </c>
       <c r="M40" s="39"/>
-      <c r="N40" s="179"/>
-      <c r="O40" s="179"/>
-      <c r="P40" s="179"/>
+      <c r="N40" s="185"/>
+      <c r="O40" s="185"/>
+      <c r="P40" s="185"/>
       <c r="Q40" s="124"/>
       <c r="R40" s="16"/>
       <c r="S40" s="16"/>
@@ -26157,7 +26204,7 @@
       <c r="G41" s="30"/>
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
-      <c r="J41" s="184"/>
+      <c r="J41" s="183"/>
       <c r="K41" s="112" t="s">
         <v>179</v>
       </c>
@@ -26165,9 +26212,9 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="M41" s="39"/>
-      <c r="N41" s="179"/>
-      <c r="O41" s="179"/>
-      <c r="P41" s="179"/>
+      <c r="N41" s="185"/>
+      <c r="O41" s="185"/>
+      <c r="P41" s="185"/>
       <c r="Q41" s="124"/>
       <c r="R41" s="16"/>
       <c r="S41" s="16"/>
@@ -26215,7 +26262,7 @@
       <c r="G42" s="30"/>
       <c r="H42" s="61"/>
       <c r="I42" s="39"/>
-      <c r="J42" s="184"/>
+      <c r="J42" s="183"/>
       <c r="K42" s="114" t="s">
         <v>136</v>
       </c>
@@ -26273,7 +26320,7 @@
       <c r="G43" s="39"/>
       <c r="H43" s="62"/>
       <c r="I43" s="39"/>
-      <c r="J43" s="184"/>
+      <c r="J43" s="183"/>
       <c r="K43" s="112" t="s">
         <v>212</v>
       </c>
@@ -26331,7 +26378,7 @@
       <c r="G44" s="39"/>
       <c r="H44" s="62"/>
       <c r="I44" s="39"/>
-      <c r="J44" s="184"/>
+      <c r="J44" s="183"/>
       <c r="K44" s="113" t="s">
         <v>213</v>
       </c>
@@ -26389,7 +26436,7 @@
       <c r="G45" s="39"/>
       <c r="H45" s="62"/>
       <c r="I45" s="39"/>
-      <c r="J45" s="185"/>
+      <c r="J45" s="184"/>
       <c r="K45" s="115" t="s">
         <v>141</v>
       </c>
@@ -26447,7 +26494,7 @@
       <c r="G46" s="39"/>
       <c r="H46" s="62"/>
       <c r="I46" s="39"/>
-      <c r="J46" s="180" t="s">
+      <c r="J46" s="179" t="s">
         <v>217</v>
       </c>
       <c r="K46" s="119" t="s">
@@ -26507,7 +26554,7 @@
       <c r="G47" s="39"/>
       <c r="H47" s="62"/>
       <c r="I47" s="39"/>
-      <c r="J47" s="181"/>
+      <c r="J47" s="180"/>
       <c r="K47" s="80" t="s">
         <v>179</v>
       </c>
@@ -26565,7 +26612,7 @@
       <c r="G48" s="39"/>
       <c r="H48" s="62"/>
       <c r="I48" s="39"/>
-      <c r="J48" s="181"/>
+      <c r="J48" s="180"/>
       <c r="K48" s="101" t="s">
         <v>136</v>
       </c>
@@ -26623,7 +26670,7 @@
       <c r="G49" s="39"/>
       <c r="H49" s="62"/>
       <c r="I49" s="39"/>
-      <c r="J49" s="182"/>
+      <c r="J49" s="181"/>
       <c r="K49" s="120" t="s">
         <v>213</v>
       </c>
@@ -26681,7 +26728,7 @@
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
       <c r="I50" s="39"/>
-      <c r="J50" s="180" t="s">
+      <c r="J50" s="179" t="s">
         <v>232</v>
       </c>
       <c r="K50" s="121" t="s">
@@ -26741,7 +26788,7 @@
       <c r="G51" s="39"/>
       <c r="H51" s="39"/>
       <c r="I51" s="39"/>
-      <c r="J51" s="181"/>
+      <c r="J51" s="180"/>
       <c r="K51" s="122" t="s">
         <v>179</v>
       </c>
@@ -26799,7 +26846,7 @@
       <c r="G52" s="39"/>
       <c r="H52" s="39"/>
       <c r="I52" s="39"/>
-      <c r="J52" s="181"/>
+      <c r="J52" s="180"/>
       <c r="K52" s="114" t="s">
         <v>235</v>
       </c>
@@ -26857,7 +26904,7 @@
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
       <c r="I53" s="39"/>
-      <c r="J53" s="182"/>
+      <c r="J53" s="181"/>
       <c r="K53" s="115" t="s">
         <v>211</v>
       </c>
@@ -26915,7 +26962,7 @@
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
       <c r="I54" s="39"/>
-      <c r="J54" s="180" t="s">
+      <c r="J54" s="179" t="s">
         <v>243</v>
       </c>
       <c r="K54" s="121" t="s">
@@ -26975,7 +27022,7 @@
       <c r="G55" s="39"/>
       <c r="H55" s="39"/>
       <c r="I55" s="39"/>
-      <c r="J55" s="181"/>
+      <c r="J55" s="180"/>
       <c r="K55" s="122" t="s">
         <v>242</v>
       </c>
@@ -27033,7 +27080,7 @@
       <c r="G56" s="39"/>
       <c r="H56" s="39"/>
       <c r="I56" s="39"/>
-      <c r="J56" s="181"/>
+      <c r="J56" s="180"/>
       <c r="K56" s="114" t="s">
         <v>29</v>
       </c>
@@ -27091,7 +27138,7 @@
       <c r="G57" s="39"/>
       <c r="H57" s="39"/>
       <c r="I57" s="39"/>
-      <c r="J57" s="182"/>
+      <c r="J57" s="181"/>
       <c r="K57" s="115" t="s">
         <v>199</v>
       </c>
@@ -27149,7 +27196,7 @@
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
       <c r="I58" s="39"/>
-      <c r="J58" s="180" t="s">
+      <c r="J58" s="179" t="s">
         <v>246</v>
       </c>
       <c r="K58" s="121" t="s">
@@ -27209,7 +27256,7 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
       <c r="I59" s="39"/>
-      <c r="J59" s="181"/>
+      <c r="J59" s="180"/>
       <c r="K59" s="122" t="s">
         <v>235</v>
       </c>
@@ -27267,7 +27314,7 @@
       <c r="G60" s="39"/>
       <c r="H60" s="39"/>
       <c r="I60" s="39"/>
-      <c r="J60" s="181"/>
+      <c r="J60" s="180"/>
       <c r="K60" s="114" t="s">
         <v>242</v>
       </c>
@@ -27325,7 +27372,7 @@
       <c r="G61" s="39"/>
       <c r="H61" s="39"/>
       <c r="I61" s="39"/>
-      <c r="J61" s="181"/>
+      <c r="J61" s="180"/>
       <c r="K61" s="122" t="s">
         <v>245</v>
       </c>
@@ -27383,7 +27430,7 @@
       <c r="G62" s="39"/>
       <c r="H62" s="39"/>
       <c r="I62" s="39"/>
-      <c r="J62" s="181"/>
+      <c r="J62" s="180"/>
       <c r="K62" s="114" t="s">
         <v>29</v>
       </c>
@@ -27441,7 +27488,7 @@
       <c r="G63" s="39"/>
       <c r="H63" s="39"/>
       <c r="I63" s="39"/>
-      <c r="J63" s="182"/>
+      <c r="J63" s="181"/>
       <c r="K63" s="115" t="s">
         <v>199</v>
       </c>
@@ -33190,6 +33237,12 @@
     <sortCondition ref="K33"/>
   </sortState>
   <mergeCells count="18">
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="N39:P39"/>
     <mergeCell ref="J58:J63"/>
     <mergeCell ref="J54:J57"/>
     <mergeCell ref="J50:J53"/>
@@ -33202,12 +33255,6 @@
     <mergeCell ref="J32:J38"/>
     <mergeCell ref="J27:J31"/>
     <mergeCell ref="J14:J19"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="N39:P39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -33299,15 +33346,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="187" t="s">
+      <c r="J2" s="186" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="189"/>
+      <c r="K2" s="188"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="189" t="s">
+      <c r="M2" s="188" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="188"/>
+      <c r="N2" s="187"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -33607,15 +33654,15 @@
         <v>0.20416666666666669</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="187" t="s">
+      <c r="J9" s="186" t="s">
         <v>286</v>
       </c>
-      <c r="K9" s="189"/>
+      <c r="K9" s="188"/>
       <c r="L9" s="136"/>
-      <c r="M9" s="189" t="s">
+      <c r="M9" s="188" t="s">
         <v>287</v>
       </c>
-      <c r="N9" s="188"/>
+      <c r="N9" s="187"/>
       <c r="O9" s="39"/>
       <c r="P9" s="39"/>
       <c r="Q9" s="39"/>
@@ -33822,15 +33869,15 @@
         <v>0.15208333333333332</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="187" t="s">
+      <c r="J14" s="186" t="s">
         <v>288</v>
       </c>
-      <c r="K14" s="188"/>
+      <c r="K14" s="187"/>
       <c r="L14" s="136"/>
-      <c r="M14" s="187" t="s">
+      <c r="M14" s="186" t="s">
         <v>289</v>
       </c>
-      <c r="N14" s="188"/>
+      <c r="N14" s="187"/>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
@@ -34134,15 +34181,15 @@
         <v>0.35138888888888892</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="187" t="s">
+      <c r="J21" s="186" t="s">
         <v>290</v>
       </c>
-      <c r="K21" s="188"/>
+      <c r="K21" s="187"/>
       <c r="L21" s="136"/>
-      <c r="M21" s="187" t="s">
+      <c r="M21" s="186" t="s">
         <v>291</v>
       </c>
-      <c r="N21" s="188"/>
+      <c r="N21" s="187"/>
       <c r="O21" s="39"/>
       <c r="P21" s="89" t="s">
         <v>31</v>
@@ -34524,15 +34571,15 @@
         <v>0.11805555555555557</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="187" t="s">
+      <c r="J28" s="186" t="s">
         <v>292</v>
       </c>
-      <c r="K28" s="188"/>
+      <c r="K28" s="187"/>
       <c r="L28" s="136"/>
-      <c r="M28" s="187" t="s">
+      <c r="M28" s="186" t="s">
         <v>293</v>
       </c>
-      <c r="N28" s="188"/>
+      <c r="N28" s="187"/>
       <c r="O28" s="39"/>
       <c r="P28" s="93" t="s">
         <v>38</v>
@@ -34879,15 +34926,15 @@
       <c r="G35" s="30"/>
       <c r="H35" s="61"/>
       <c r="I35" s="39"/>
-      <c r="J35" s="187" t="s">
+      <c r="J35" s="186" t="s">
         <v>294</v>
       </c>
-      <c r="K35" s="188"/>
+      <c r="K35" s="187"/>
       <c r="L35" s="136"/>
-      <c r="M35" s="187" t="s">
+      <c r="M35" s="186" t="s">
         <v>295</v>
       </c>
-      <c r="N35" s="188"/>
+      <c r="N35" s="187"/>
       <c r="O35" s="39"/>
       <c r="P35" s="39"/>
       <c r="Q35" s="39"/>
@@ -34922,9 +34969,9 @@
         <v>4.9305555555555554E-2</v>
       </c>
       <c r="O36" s="39"/>
-      <c r="P36" s="179"/>
-      <c r="Q36" s="179"/>
-      <c r="R36" s="179"/>
+      <c r="P36" s="185"/>
+      <c r="Q36" s="185"/>
+      <c r="R36" s="185"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -34955,9 +35002,9 @@
         <v>0.18472222222222223</v>
       </c>
       <c r="O37" s="39"/>
-      <c r="P37" s="186"/>
-      <c r="Q37" s="186"/>
-      <c r="R37" s="186"/>
+      <c r="P37" s="189"/>
+      <c r="Q37" s="189"/>
+      <c r="R37" s="189"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -34988,9 +35035,9 @@
         <v>0.21249999999999999</v>
       </c>
       <c r="O38" s="39"/>
-      <c r="P38" s="179"/>
-      <c r="Q38" s="179"/>
-      <c r="R38" s="179"/>
+      <c r="P38" s="185"/>
+      <c r="Q38" s="185"/>
+      <c r="R38" s="185"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -35021,9 +35068,9 @@
         <v>0.26527777777777778</v>
       </c>
       <c r="O39" s="39"/>
-      <c r="P39" s="179"/>
-      <c r="Q39" s="179"/>
-      <c r="R39" s="179"/>
+      <c r="P39" s="185"/>
+      <c r="Q39" s="185"/>
+      <c r="R39" s="185"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -35054,9 +35101,9 @@
         <v>0.75347222222222221</v>
       </c>
       <c r="O40" s="39"/>
-      <c r="P40" s="179"/>
-      <c r="Q40" s="179"/>
-      <c r="R40" s="179"/>
+      <c r="P40" s="185"/>
+      <c r="Q40" s="185"/>
+      <c r="R40" s="185"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -35082,9 +35129,9 @@
         <v>1.0513888888888889</v>
       </c>
       <c r="O41" s="39"/>
-      <c r="P41" s="179"/>
-      <c r="Q41" s="179"/>
-      <c r="R41" s="179"/>
+      <c r="P41" s="185"/>
+      <c r="Q41" s="185"/>
+      <c r="R41" s="185"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -38049,6 +38096,12 @@
     <sortCondition ref="J9"/>
   </sortState>
   <mergeCells count="18">
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
     <mergeCell ref="M35:N35"/>
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="M21:N21"/>
@@ -38061,12 +38114,6 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="J35:K35"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J116" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -38159,15 +38206,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="187" t="s">
+      <c r="J2" s="186" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="189"/>
+      <c r="K2" s="188"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="189" t="s">
+      <c r="M2" s="188" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="188"/>
+      <c r="N2" s="187"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -38497,15 +38544,15 @@
         <v>1.1847222222222222</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="187" t="s">
+      <c r="J10" s="186" t="s">
         <v>286</v>
       </c>
-      <c r="K10" s="188"/>
+      <c r="K10" s="187"/>
       <c r="L10" s="136"/>
-      <c r="M10" s="187" t="s">
+      <c r="M10" s="186" t="s">
         <v>287</v>
       </c>
-      <c r="N10" s="188"/>
+      <c r="N10" s="187"/>
       <c r="O10" s="39"/>
       <c r="P10" s="39"/>
       <c r="Q10" s="39"/>
@@ -38802,15 +38849,15 @@
         <v>6.063194444444445</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="187" t="s">
+      <c r="J17" s="186" t="s">
         <v>288</v>
       </c>
-      <c r="K17" s="188"/>
+      <c r="K17" s="187"/>
       <c r="L17" s="136"/>
-      <c r="M17" s="187" t="s">
+      <c r="M17" s="186" t="s">
         <v>289</v>
       </c>
-      <c r="N17" s="188"/>
+      <c r="N17" s="187"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
@@ -39032,15 +39079,15 @@
         <v>0.50555555555555554</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="187" t="s">
+      <c r="J22" s="186" t="s">
         <v>290</v>
       </c>
-      <c r="K22" s="188"/>
+      <c r="K22" s="187"/>
       <c r="L22" s="136"/>
-      <c r="M22" s="187" t="s">
+      <c r="M22" s="186" t="s">
         <v>291</v>
       </c>
-      <c r="N22" s="188"/>
+      <c r="N22" s="187"/>
       <c r="O22" s="39"/>
       <c r="P22" s="63" t="s">
         <v>32</v>
@@ -39391,15 +39438,15 @@
         <v>2.6388888888888889E-2</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="187" t="s">
+      <c r="J28" s="186" t="s">
         <v>292</v>
       </c>
-      <c r="K28" s="188"/>
+      <c r="K28" s="187"/>
       <c r="L28" s="136"/>
-      <c r="M28" s="187" t="s">
+      <c r="M28" s="186" t="s">
         <v>293</v>
       </c>
-      <c r="N28" s="188"/>
+      <c r="N28" s="187"/>
       <c r="O28" s="39"/>
       <c r="P28" s="93" t="s">
         <v>38</v>
@@ -39765,15 +39812,15 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="I34" s="39"/>
-      <c r="J34" s="187" t="s">
+      <c r="J34" s="186" t="s">
         <v>294</v>
       </c>
-      <c r="K34" s="188"/>
+      <c r="K34" s="187"/>
       <c r="L34" s="136"/>
-      <c r="M34" s="187" t="s">
+      <c r="M34" s="186" t="s">
         <v>295</v>
       </c>
-      <c r="N34" s="188"/>
+      <c r="N34" s="187"/>
       <c r="O34" s="39"/>
       <c r="P34" s="125" t="s">
         <v>77</v>
@@ -39880,9 +39927,9 @@
         <v>0.36944444444444446</v>
       </c>
       <c r="O36" s="39"/>
-      <c r="P36" s="179"/>
-      <c r="Q36" s="179"/>
-      <c r="R36" s="179"/>
+      <c r="P36" s="185"/>
+      <c r="Q36" s="185"/>
+      <c r="R36" s="185"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -39927,9 +39974,9 @@
         <v>7.9166666666666663E-2</v>
       </c>
       <c r="O37" s="39"/>
-      <c r="P37" s="186"/>
-      <c r="Q37" s="179"/>
-      <c r="R37" s="179"/>
+      <c r="P37" s="189"/>
+      <c r="Q37" s="185"/>
+      <c r="R37" s="185"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -39961,9 +40008,9 @@
       </c>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="179"/>
-      <c r="Q38" s="179"/>
-      <c r="R38" s="179"/>
+      <c r="P38" s="185"/>
+      <c r="Q38" s="185"/>
+      <c r="R38" s="185"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -39981,9 +40028,9 @@
       <c r="H39" s="138"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="179"/>
-      <c r="Q39" s="179"/>
-      <c r="R39" s="179"/>
+      <c r="P39" s="185"/>
+      <c r="Q39" s="185"/>
+      <c r="R39" s="185"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -40001,9 +40048,9 @@
       <c r="H40" s="61"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="179"/>
-      <c r="Q40" s="179"/>
-      <c r="R40" s="179"/>
+      <c r="P40" s="185"/>
+      <c r="Q40" s="185"/>
+      <c r="R40" s="185"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -40021,9 +40068,9 @@
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="179"/>
-      <c r="Q41" s="179"/>
-      <c r="R41" s="179"/>
+      <c r="P41" s="185"/>
+      <c r="Q41" s="185"/>
+      <c r="R41" s="185"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -42975,24 +43022,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M17:N17"/>
     <mergeCell ref="P41:R41"/>
     <mergeCell ref="P36:R36"/>
     <mergeCell ref="P37:R37"/>
     <mergeCell ref="P38:R38"/>
     <mergeCell ref="P39:R39"/>
     <mergeCell ref="P40:R40"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="J22:K22"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
@@ -43091,15 +43138,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="187" t="s">
+      <c r="J2" s="186" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="188"/>
+      <c r="K2" s="187"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="187" t="s">
+      <c r="M2" s="186" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="188"/>
+      <c r="N2" s="187"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -43305,15 +43352,15 @@
         <v>0.33749999999999997</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="187" t="s">
+      <c r="J7" s="186" t="s">
         <v>286</v>
       </c>
-      <c r="K7" s="188"/>
+      <c r="K7" s="187"/>
       <c r="L7" s="136"/>
-      <c r="M7" s="187" t="s">
+      <c r="M7" s="186" t="s">
         <v>287</v>
       </c>
-      <c r="N7" s="188"/>
+      <c r="N7" s="187"/>
       <c r="O7" s="39"/>
       <c r="P7" s="39"/>
       <c r="Q7" s="39"/>
@@ -43520,15 +43567,15 @@
         <v>0.48819444444444443</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="187" t="s">
+      <c r="J12" s="186" t="s">
         <v>288</v>
       </c>
-      <c r="K12" s="188"/>
+      <c r="K12" s="187"/>
       <c r="L12" s="136"/>
-      <c r="M12" s="187" t="s">
+      <c r="M12" s="186" t="s">
         <v>289</v>
       </c>
-      <c r="N12" s="188"/>
+      <c r="N12" s="187"/>
       <c r="O12" s="39"/>
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
@@ -43778,15 +43825,15 @@
         <v>2.6659722222222224</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="187" t="s">
+      <c r="J18" s="186" t="s">
         <v>290</v>
       </c>
-      <c r="K18" s="188"/>
+      <c r="K18" s="187"/>
       <c r="L18" s="136"/>
-      <c r="M18" s="187" t="s">
+      <c r="M18" s="186" t="s">
         <v>291</v>
       </c>
-      <c r="N18" s="188"/>
+      <c r="N18" s="187"/>
       <c r="O18" s="39"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="39"/>
@@ -44023,15 +44070,15 @@
         <v>1.8131944444444446</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="187" t="s">
+      <c r="J23" s="186" t="s">
         <v>292</v>
       </c>
-      <c r="K23" s="188"/>
+      <c r="K23" s="187"/>
       <c r="L23" s="136"/>
-      <c r="M23" s="187" t="s">
+      <c r="M23" s="186" t="s">
         <v>293</v>
       </c>
-      <c r="N23" s="188"/>
+      <c r="N23" s="187"/>
       <c r="O23" s="39"/>
       <c r="P23" s="94" t="s">
         <v>33</v>
@@ -44387,15 +44434,15 @@
         <v>0.11527777777777778</v>
       </c>
       <c r="I29" s="39"/>
-      <c r="J29" s="187" t="s">
+      <c r="J29" s="186" t="s">
         <v>294</v>
       </c>
-      <c r="K29" s="188"/>
+      <c r="K29" s="187"/>
       <c r="L29" s="136"/>
-      <c r="M29" s="187" t="s">
+      <c r="M29" s="186" t="s">
         <v>295</v>
       </c>
-      <c r="N29" s="188"/>
+      <c r="N29" s="187"/>
       <c r="O29" s="39"/>
       <c r="P29" s="94" t="s">
         <v>39</v>
@@ -44727,9 +44774,9 @@
       <c r="H36" s="61"/>
       <c r="I36" s="39"/>
       <c r="O36" s="39"/>
-      <c r="P36" s="179"/>
-      <c r="Q36" s="179"/>
-      <c r="R36" s="179"/>
+      <c r="P36" s="185"/>
+      <c r="Q36" s="185"/>
+      <c r="R36" s="185"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -44747,9 +44794,9 @@
       <c r="H37" s="61"/>
       <c r="I37" s="39"/>
       <c r="O37" s="39"/>
-      <c r="P37" s="186"/>
-      <c r="Q37" s="179"/>
-      <c r="R37" s="179"/>
+      <c r="P37" s="189"/>
+      <c r="Q37" s="185"/>
+      <c r="R37" s="185"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -44767,9 +44814,9 @@
       <c r="H38" s="61"/>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="179"/>
-      <c r="Q38" s="179"/>
-      <c r="R38" s="179"/>
+      <c r="P38" s="185"/>
+      <c r="Q38" s="185"/>
+      <c r="R38" s="185"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -44787,9 +44834,9 @@
       <c r="H39" s="61"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="179"/>
-      <c r="Q39" s="179"/>
-      <c r="R39" s="179"/>
+      <c r="P39" s="185"/>
+      <c r="Q39" s="185"/>
+      <c r="R39" s="185"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -44807,9 +44854,9 @@
       <c r="H40" s="62"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="179"/>
-      <c r="Q40" s="179"/>
-      <c r="R40" s="179"/>
+      <c r="P40" s="185"/>
+      <c r="Q40" s="185"/>
+      <c r="R40" s="185"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -44827,9 +44874,9 @@
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="179"/>
-      <c r="Q41" s="179"/>
-      <c r="R41" s="179"/>
+      <c r="P41" s="185"/>
+      <c r="Q41" s="185"/>
+      <c r="R41" s="185"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -47784,11 +47831,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="P38:R38"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="M2:N2"/>
@@ -47802,6 +47844,11 @@
     <mergeCell ref="M23:N23"/>
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="J29:K29"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="P38:R38"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
@@ -47822,7 +47869,7 @@
   <dimension ref="A1:Z153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -47899,15 +47946,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="187" t="s">
+      <c r="J2" s="186" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="188"/>
+      <c r="K2" s="187"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="187" t="s">
+      <c r="M2" s="186" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="188"/>
+      <c r="N2" s="187"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -48117,15 +48164,15 @@
         <v>2.5249999999999999</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="187" t="s">
+      <c r="J7" s="186" t="s">
         <v>286</v>
       </c>
-      <c r="K7" s="188"/>
+      <c r="K7" s="187"/>
       <c r="L7" s="136"/>
-      <c r="M7" s="187" t="s">
+      <c r="M7" s="186" t="s">
         <v>287</v>
       </c>
-      <c r="N7" s="188"/>
+      <c r="N7" s="187"/>
       <c r="O7" s="39"/>
       <c r="P7" s="39"/>
       <c r="Q7" s="39"/>
@@ -48142,7 +48189,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D8" s="54">
         <v>2023</v>
@@ -48167,8 +48214,12 @@
         <v>0.61250000000000004</v>
       </c>
       <c r="L8" s="137"/>
-      <c r="M8" s="131"/>
-      <c r="N8" s="72"/>
+      <c r="M8" s="131" t="s">
+        <v>555</v>
+      </c>
+      <c r="N8" s="72">
+        <v>0.47986111111111113</v>
+      </c>
       <c r="O8" s="39"/>
       <c r="P8" s="39"/>
       <c r="Q8" s="39"/>
@@ -48185,7 +48236,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="73" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D9" s="73">
         <v>2025</v>
@@ -48206,8 +48257,12 @@
       <c r="J9" s="114"/>
       <c r="K9" s="60"/>
       <c r="L9" s="137"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="60"/>
+      <c r="M9" s="101" t="s">
+        <v>579</v>
+      </c>
+      <c r="N9" s="60">
+        <v>0.43680555555555556</v>
+      </c>
       <c r="O9" s="39"/>
       <c r="P9" s="39"/>
       <c r="Q9" s="39"/>
@@ -48223,12 +48278,24 @@
       <c r="B10" s="78">
         <v>8</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="60"/>
+      <c r="C10" s="54" t="s">
+        <v>583</v>
+      </c>
+      <c r="D10" s="54">
+        <v>2008</v>
+      </c>
+      <c r="E10" s="153" t="s">
+        <v>440</v>
+      </c>
+      <c r="F10" s="69" t="s">
+        <v>399</v>
+      </c>
+      <c r="G10" s="69" t="s">
+        <v>299</v>
+      </c>
+      <c r="H10" s="60">
+        <v>0.97291666666666665</v>
+      </c>
       <c r="I10" s="6"/>
       <c r="J10" s="135"/>
       <c r="K10" s="77"/>
@@ -48250,12 +48317,24 @@
       <c r="B11" s="70">
         <v>9</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="75"/>
+      <c r="C11" s="73" t="s">
+        <v>584</v>
+      </c>
+      <c r="D11" s="73">
+        <v>2004</v>
+      </c>
+      <c r="E11" s="152" t="s">
+        <v>585</v>
+      </c>
+      <c r="F11" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="74">
+        <v>45768</v>
+      </c>
+      <c r="H11" s="75">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="I11" s="6"/>
       <c r="O11" s="39"/>
       <c r="P11" s="39"/>
@@ -48272,22 +48351,34 @@
       <c r="B12" s="78">
         <v>10</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="153"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="60"/>
+      <c r="C12" s="54" t="s">
+        <v>586</v>
+      </c>
+      <c r="D12" s="54">
+        <v>2024</v>
+      </c>
+      <c r="E12" s="153" t="s">
+        <v>440</v>
+      </c>
+      <c r="F12" s="69" t="s">
+        <v>509</v>
+      </c>
+      <c r="G12" s="69" t="s">
+        <v>509</v>
+      </c>
+      <c r="H12" s="60">
+        <v>1.8055555555555554E-2</v>
+      </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="187" t="s">
+      <c r="J12" s="186" t="s">
         <v>288</v>
       </c>
-      <c r="K12" s="188"/>
+      <c r="K12" s="187"/>
       <c r="L12" s="136"/>
-      <c r="M12" s="187" t="s">
+      <c r="M12" s="186" t="s">
         <v>289</v>
       </c>
-      <c r="N12" s="188"/>
+      <c r="N12" s="187"/>
       <c r="O12" s="39"/>
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
@@ -48303,12 +48394,24 @@
       <c r="B13" s="70">
         <v>11</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="75"/>
+      <c r="C13" s="73" t="s">
+        <v>587</v>
+      </c>
+      <c r="D13" s="73">
+        <v>2025</v>
+      </c>
+      <c r="E13" s="152" t="s">
+        <v>440</v>
+      </c>
+      <c r="F13" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="G13" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="75" t="s">
+        <v>13</v>
+      </c>
       <c r="I13" s="6"/>
       <c r="J13" s="168"/>
       <c r="K13" s="72"/>
@@ -48330,12 +48433,24 @@
       <c r="B14" s="78">
         <v>12</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="60"/>
+      <c r="C14" s="54" t="s">
+        <v>588</v>
+      </c>
+      <c r="D14" s="54">
+        <v>2011</v>
+      </c>
+      <c r="E14" s="153" t="s">
+        <v>439</v>
+      </c>
+      <c r="F14" s="69" t="s">
+        <v>589</v>
+      </c>
+      <c r="G14" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="60" t="s">
+        <v>13</v>
+      </c>
       <c r="I14" s="6"/>
       <c r="J14" s="114"/>
       <c r="K14" s="60"/>
@@ -48413,15 +48528,15 @@
       <c r="G17" s="74"/>
       <c r="H17" s="75"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="187" t="s">
+      <c r="J17" s="186" t="s">
         <v>290</v>
       </c>
-      <c r="K17" s="188"/>
+      <c r="K17" s="187"/>
       <c r="L17" s="136"/>
-      <c r="M17" s="187" t="s">
+      <c r="M17" s="186" t="s">
         <v>291</v>
       </c>
-      <c r="N17" s="188"/>
+      <c r="N17" s="187"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
@@ -48564,15 +48679,15 @@
       <c r="G22" s="69"/>
       <c r="H22" s="60"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="187" t="s">
+      <c r="J22" s="186" t="s">
         <v>292</v>
       </c>
-      <c r="K22" s="188"/>
+      <c r="K22" s="187"/>
       <c r="L22" s="136"/>
-      <c r="M22" s="187" t="s">
+      <c r="M22" s="186" t="s">
         <v>293</v>
       </c>
-      <c r="N22" s="188"/>
+      <c r="N22" s="187"/>
       <c r="O22" s="39"/>
       <c r="P22" s="63" t="s">
         <v>32</v>
@@ -48661,21 +48776,29 @@
       <c r="P24" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="81"/>
+      <c r="Q24" s="81">
+        <f>SUM(H8:H9,W24:X24)</f>
+        <v>2.1965277777777779</v>
+      </c>
+      <c r="R24" s="81">
+        <f>SUM(K8)</f>
+        <v>0.61250000000000004</v>
+      </c>
       <c r="S24" s="97">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.8090277777777777</v>
       </c>
       <c r="T24" s="39"/>
       <c r="U24" s="99" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="V24" s="146"/>
       <c r="W24" s="147">
         <v>1.6465277777777778</v>
       </c>
-      <c r="X24" s="147"/>
+      <c r="X24" s="147">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="Y24" s="147"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -48697,18 +48820,32 @@
       <c r="P25" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="Q25" s="64"/>
-      <c r="R25" s="64"/>
+      <c r="Q25" s="64">
+        <f>SUM(H11:H12,W25:Y25)</f>
+        <v>2.8715277777777777</v>
+      </c>
+      <c r="R25" s="64">
+        <f>SUM(N8:N9)</f>
+        <v>0.91666666666666674</v>
+      </c>
       <c r="S25" s="90">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.7881944444444446</v>
       </c>
       <c r="T25" s="39"/>
-      <c r="U25" s="98"/>
+      <c r="U25" s="98" t="s">
+        <v>590</v>
+      </c>
       <c r="V25" s="146"/>
-      <c r="W25" s="147"/>
-      <c r="X25" s="147"/>
-      <c r="Y25" s="147"/>
+      <c r="W25" s="147">
+        <v>0.88958333333333328</v>
+      </c>
+      <c r="X25" s="147">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="Y25" s="147">
+        <v>0.12013888888888889</v>
+      </c>
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39"/>
@@ -48747,15 +48884,15 @@
       <c r="G27" s="30"/>
       <c r="H27" s="61"/>
       <c r="I27" s="39"/>
-      <c r="J27" s="187" t="s">
+      <c r="J27" s="186" t="s">
         <v>294</v>
       </c>
-      <c r="K27" s="188"/>
+      <c r="K27" s="187"/>
       <c r="L27" s="136"/>
-      <c r="M27" s="187" t="s">
+      <c r="M27" s="186" t="s">
         <v>295</v>
       </c>
-      <c r="N27" s="188"/>
+      <c r="N27" s="187"/>
       <c r="O27" s="39"/>
       <c r="P27" s="94" t="s">
         <v>37</v>
@@ -48983,15 +49120,15 @@
       </c>
       <c r="Q34" s="126">
         <f>SUM(Q22:Q33)</f>
-        <v>2.8902777777777779</v>
+        <v>7.958333333333333</v>
       </c>
       <c r="R34" s="126">
         <f>SUM(R22:R33)</f>
-        <v>1.28125</v>
+        <v>2.8104166666666668</v>
       </c>
       <c r="S34" s="127">
         <f>SUM(S22:S33)</f>
-        <v>4.1715277777777775</v>
+        <v>10.768750000000001</v>
       </c>
       <c r="T34" s="39"/>
       <c r="U34" s="39"/>
@@ -49029,9 +49166,9 @@
       <c r="H36" s="61"/>
       <c r="I36" s="39"/>
       <c r="O36" s="39"/>
-      <c r="P36" s="179"/>
-      <c r="Q36" s="179"/>
-      <c r="R36" s="179"/>
+      <c r="P36" s="185"/>
+      <c r="Q36" s="185"/>
+      <c r="R36" s="185"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -49049,9 +49186,9 @@
       <c r="H37" s="61"/>
       <c r="I37" s="39"/>
       <c r="O37" s="39"/>
-      <c r="P37" s="186"/>
-      <c r="Q37" s="179"/>
-      <c r="R37" s="179"/>
+      <c r="P37" s="189"/>
+      <c r="Q37" s="185"/>
+      <c r="R37" s="185"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -49069,9 +49206,9 @@
       <c r="H38" s="61"/>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="179"/>
-      <c r="Q38" s="179"/>
-      <c r="R38" s="179"/>
+      <c r="P38" s="185"/>
+      <c r="Q38" s="185"/>
+      <c r="R38" s="185"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -49089,9 +49226,9 @@
       <c r="H39" s="61"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="179"/>
-      <c r="Q39" s="179"/>
-      <c r="R39" s="179"/>
+      <c r="P39" s="185"/>
+      <c r="Q39" s="185"/>
+      <c r="R39" s="185"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -49109,9 +49246,9 @@
       <c r="H40" s="62"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="179"/>
-      <c r="Q40" s="179"/>
-      <c r="R40" s="179"/>
+      <c r="P40" s="185"/>
+      <c r="Q40" s="185"/>
+      <c r="R40" s="185"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -49129,9 +49266,9 @@
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="179"/>
-      <c r="Q41" s="179"/>
-      <c r="R41" s="179"/>
+      <c r="P41" s="185"/>
+      <c r="Q41" s="185"/>
+      <c r="R41" s="185"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -51018,7 +51155,7 @@
       </c>
       <c r="R117" s="44">
         <f>COUNTIF(D1:D57,Q117)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S117" s="39"/>
       <c r="T117" s="39"/>
@@ -51048,7 +51185,7 @@
       </c>
       <c r="R118" s="46">
         <f>COUNTIF(D2:D58,Q118)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S118" s="39"/>
       <c r="T118" s="39"/>
@@ -51438,7 +51575,7 @@
       </c>
       <c r="R131" s="46">
         <f>COUNTIF(D3:D59,Q131)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S131" s="39"/>
       <c r="T131" s="39"/>
@@ -51528,7 +51665,7 @@
       </c>
       <c r="R134" s="46">
         <f>COUNTIF(D3:D59,Q134)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S134" s="39"/>
       <c r="T134" s="39"/>
@@ -51648,7 +51785,7 @@
       </c>
       <c r="R138" s="46">
         <f>COUNTIF(D3:D59,Q138)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S138" s="39"/>
       <c r="T138" s="39"/>
@@ -52008,7 +52145,7 @@
       </c>
       <c r="R150" s="42">
         <f>SUM(R118:R149)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S150" s="39"/>
       <c r="T150" s="39"/>
@@ -52093,14 +52230,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M12:N12"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="J27:K27"/>
@@ -52111,6 +52240,14 @@
     <mergeCell ref="P38:R38"/>
     <mergeCell ref="P39:R39"/>
     <mergeCell ref="P40:R40"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="M12:N12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J116" r:id="rId1" xr:uid="{83A9A6CC-BE59-42CD-B5C7-E41BC1FC3BF1}"/>
@@ -52118,6 +52255,9 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <ignoredErrors>
+    <ignoredError sqref="Q24:Q25" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/spreadsheets/Games.xlsx
+++ b/spreadsheets/Games.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ucer0.github.io\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A82B703-2730-45C3-A0B9-54CA3989D5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D75DCF-F9C0-4D11-B32E-3A6456A709F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="599">
   <si>
     <t>Nier: Automata</t>
   </si>
@@ -2400,6 +2400,48 @@
         <family val="2"/>
       </rPr>
       <t>Prime 2 (85%, Ingame 14h 33m)</t>
+    </r>
+  </si>
+  <si>
+    <t>9-may.</t>
+  </si>
+  <si>
+    <t>Metroid Prime 3</t>
+  </si>
+  <si>
+    <t>WII [EMU]</t>
+  </si>
+  <si>
+    <t>13-may.</t>
+  </si>
+  <si>
+    <t>16-may.</t>
+  </si>
+  <si>
+    <t>Valkyrie Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Valyrie Profile (),</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>Picross e2 (10h 53m), E33 (28h 16m), Valkyrie Profile (13h 37m),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> E33 (44h 52m ingame), Prime 3 (100%, ingame 10h 35m)</t>
     </r>
   </si>
 </sst>
@@ -3364,6 +3406,9 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
@@ -3382,7 +3427,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3393,9 +3438,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5077,7 +5119,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -5101,7 +5143,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1</c:v>
@@ -5389,6 +5431,9 @@
                 <c:pt idx="3">
                   <c:v>2.8715277777777777</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8743055555555554</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5486,6 +5531,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.91666666666666674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92986111111111103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23328,7 +23376,7 @@
         <v>4.197916666666667</v>
       </c>
       <c r="I3" s="6"/>
-      <c r="J3" s="182" t="s">
+      <c r="J3" s="183" t="s">
         <v>118</v>
       </c>
       <c r="K3" s="80" t="s">
@@ -23402,7 +23450,7 @@
         <v>0.30138888888888887</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="183"/>
+      <c r="J4" s="184"/>
       <c r="K4" s="54" t="s">
         <v>127</v>
       </c>
@@ -23474,7 +23522,7 @@
         <v>0.2076388888888889</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="183"/>
+      <c r="J5" s="184"/>
       <c r="K5" s="73" t="s">
         <v>132</v>
       </c>
@@ -23546,7 +23594,7 @@
         <v>1.2437499999999999</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="183"/>
+      <c r="J6" s="184"/>
       <c r="K6" s="54" t="s">
         <v>129</v>
       </c>
@@ -23618,7 +23666,7 @@
         <v>0.27916666666666667</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="183"/>
+      <c r="J7" s="184"/>
       <c r="K7" s="73" t="s">
         <v>136</v>
       </c>
@@ -23690,7 +23738,7 @@
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="183"/>
+      <c r="J8" s="184"/>
       <c r="K8" s="54" t="s">
         <v>137</v>
       </c>
@@ -23762,7 +23810,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="182" t="s">
+      <c r="J9" s="183" t="s">
         <v>119</v>
       </c>
       <c r="K9" s="71" t="s">
@@ -23836,7 +23884,7 @@
         <v>0.19027777777777777</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="183"/>
+      <c r="J10" s="184"/>
       <c r="K10" s="54" t="s">
         <v>127</v>
       </c>
@@ -23908,7 +23956,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="183"/>
+      <c r="J11" s="184"/>
       <c r="K11" s="73" t="s">
         <v>132</v>
       </c>
@@ -23980,7 +24028,7 @@
         <v>1.7097222222222221</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="183"/>
+      <c r="J12" s="184"/>
       <c r="K12" s="54" t="s">
         <v>129</v>
       </c>
@@ -24052,7 +24100,7 @@
         <v>0.15972222222222224</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="183"/>
+      <c r="J13" s="184"/>
       <c r="K13" s="73" t="s">
         <v>141</v>
       </c>
@@ -24124,7 +24172,7 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="182" t="s">
+      <c r="J14" s="183" t="s">
         <v>120</v>
       </c>
       <c r="K14" s="10" t="s">
@@ -24198,7 +24246,7 @@
         <v>0.59652777777777777</v>
       </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="183"/>
+      <c r="J15" s="184"/>
       <c r="K15" s="73" t="s">
         <v>127</v>
       </c>
@@ -24270,7 +24318,7 @@
         <v>13</v>
       </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="183"/>
+      <c r="J16" s="184"/>
       <c r="K16" s="54" t="s">
         <v>132</v>
       </c>
@@ -24342,7 +24390,7 @@
         <v>13</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="183"/>
+      <c r="J17" s="184"/>
       <c r="K17" s="73" t="s">
         <v>129</v>
       </c>
@@ -24414,7 +24462,7 @@
         <v>0.24583333333333335</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="183"/>
+      <c r="J18" s="184"/>
       <c r="K18" s="54" t="s">
         <v>144</v>
       </c>
@@ -24486,7 +24534,7 @@
         <v>0.49513888888888885</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="184"/>
+      <c r="J19" s="185"/>
       <c r="K19" s="76" t="s">
         <v>150</v>
       </c>
@@ -24558,7 +24606,7 @@
         <v>0.20972222222222223</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="J20" s="182" t="s">
+      <c r="J20" s="183" t="s">
         <v>143</v>
       </c>
       <c r="K20" s="10" t="s">
@@ -24632,7 +24680,7 @@
         <v>0.25486111111111109</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="184"/>
+      <c r="J21" s="185"/>
       <c r="K21" s="76" t="s">
         <v>141</v>
       </c>
@@ -24714,7 +24762,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="183" t="s">
+      <c r="J22" s="184" t="s">
         <v>161</v>
       </c>
       <c r="K22" s="54" t="s">
@@ -24800,7 +24848,7 @@
         <v>0.26944444444444443</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="183"/>
+      <c r="J23" s="184"/>
       <c r="K23" s="80" t="s">
         <v>169</v>
       </c>
@@ -24884,7 +24932,7 @@
         <v>0.3263888888888889</v>
       </c>
       <c r="I24" s="39"/>
-      <c r="J24" s="183"/>
+      <c r="J24" s="184"/>
       <c r="K24" s="54" t="s">
         <v>163</v>
       </c>
@@ -24968,7 +25016,7 @@
         <v>0.32847222222222222</v>
       </c>
       <c r="I25" s="39"/>
-      <c r="J25" s="183"/>
+      <c r="J25" s="184"/>
       <c r="K25" s="73" t="s">
         <v>141</v>
       </c>
@@ -25052,7 +25100,7 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="I26" s="39"/>
-      <c r="J26" s="184"/>
+      <c r="J26" s="185"/>
       <c r="K26" s="11" t="s">
         <v>162</v>
       </c>
@@ -25136,7 +25184,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="I27" s="39"/>
-      <c r="J27" s="182" t="s">
+      <c r="J27" s="183" t="s">
         <v>171</v>
       </c>
       <c r="K27" s="73" t="s">
@@ -25222,7 +25270,7 @@
         <v>0.22291666666666665</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="183"/>
+      <c r="J28" s="184"/>
       <c r="K28" s="101" t="s">
         <v>163</v>
       </c>
@@ -25306,7 +25354,7 @@
         <v>0.13194444444444445</v>
       </c>
       <c r="I29" s="39"/>
-      <c r="J29" s="183"/>
+      <c r="J29" s="184"/>
       <c r="K29" s="73" t="s">
         <v>29</v>
       </c>
@@ -25390,7 +25438,7 @@
         <v>13</v>
       </c>
       <c r="I30" s="39"/>
-      <c r="J30" s="183"/>
+      <c r="J30" s="184"/>
       <c r="K30" s="101" t="s">
         <v>136</v>
       </c>
@@ -25474,7 +25522,7 @@
         <v>0.43888888888888888</v>
       </c>
       <c r="I31" s="39"/>
-      <c r="J31" s="184"/>
+      <c r="J31" s="185"/>
       <c r="K31" s="73" t="s">
         <v>141</v>
       </c>
@@ -25558,7 +25606,7 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="I32" s="39"/>
-      <c r="J32" s="182" t="s">
+      <c r="J32" s="183" t="s">
         <v>184</v>
       </c>
       <c r="K32" s="107" t="s">
@@ -25644,7 +25692,7 @@
         <v>2.7097222222222221</v>
       </c>
       <c r="I33" s="39"/>
-      <c r="J33" s="183"/>
+      <c r="J33" s="184"/>
       <c r="K33" s="73" t="s">
         <v>179</v>
       </c>
@@ -25730,7 +25778,7 @@
         <v>13</v>
       </c>
       <c r="I34" s="39"/>
-      <c r="J34" s="183"/>
+      <c r="J34" s="184"/>
       <c r="K34" s="54" t="s">
         <v>199</v>
       </c>
@@ -25813,7 +25861,7 @@
         <v>0.11041666666666666</v>
       </c>
       <c r="I35" s="39"/>
-      <c r="J35" s="183"/>
+      <c r="J35" s="184"/>
       <c r="K35" s="80" t="s">
         <v>198</v>
       </c>
@@ -25885,7 +25933,7 @@
         <v>0.37083333333333335</v>
       </c>
       <c r="I36" s="39"/>
-      <c r="J36" s="183"/>
+      <c r="J36" s="184"/>
       <c r="K36" s="54" t="s">
         <v>141</v>
       </c>
@@ -25893,9 +25941,9 @@
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="M36" s="39"/>
-      <c r="N36" s="185"/>
-      <c r="O36" s="185"/>
-      <c r="P36" s="185"/>
+      <c r="N36" s="179"/>
+      <c r="O36" s="179"/>
+      <c r="P36" s="179"/>
       <c r="Q36" s="111"/>
       <c r="R36" s="16"/>
       <c r="S36" s="16"/>
@@ -25957,7 +26005,7 @@
         <v>0.80694444444444446</v>
       </c>
       <c r="I37" s="39"/>
-      <c r="J37" s="183"/>
+      <c r="J37" s="184"/>
       <c r="K37" s="80" t="s">
         <v>196</v>
       </c>
@@ -25965,9 +26013,9 @@
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="M37" s="39"/>
-      <c r="N37" s="185"/>
-      <c r="O37" s="185"/>
-      <c r="P37" s="185"/>
+      <c r="N37" s="179"/>
+      <c r="O37" s="179"/>
+      <c r="P37" s="179"/>
       <c r="Q37" s="111"/>
       <c r="R37" s="16"/>
       <c r="S37" s="16"/>
@@ -26029,7 +26077,7 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="I38" s="39"/>
-      <c r="J38" s="184"/>
+      <c r="J38" s="185"/>
       <c r="K38" s="11" t="s">
         <v>202</v>
       </c>
@@ -26037,9 +26085,9 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="M38" s="39"/>
-      <c r="N38" s="185"/>
-      <c r="O38" s="185"/>
-      <c r="P38" s="185"/>
+      <c r="N38" s="179"/>
+      <c r="O38" s="179"/>
+      <c r="P38" s="179"/>
       <c r="Q38" s="111"/>
       <c r="R38" s="16"/>
       <c r="S38" s="16"/>
@@ -26087,7 +26135,7 @@
       <c r="G39" s="30"/>
       <c r="H39" s="61"/>
       <c r="I39" s="39"/>
-      <c r="J39" s="182" t="s">
+      <c r="J39" s="183" t="s">
         <v>209</v>
       </c>
       <c r="K39" s="116" t="s">
@@ -26097,9 +26145,9 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="M39" s="39"/>
-      <c r="N39" s="185"/>
-      <c r="O39" s="185"/>
-      <c r="P39" s="185"/>
+      <c r="N39" s="179"/>
+      <c r="O39" s="179"/>
+      <c r="P39" s="179"/>
       <c r="Q39" s="124"/>
       <c r="R39" s="16"/>
       <c r="S39" s="16"/>
@@ -26147,7 +26195,7 @@
       <c r="G40" s="39"/>
       <c r="H40" s="62"/>
       <c r="I40" s="39"/>
-      <c r="J40" s="183"/>
+      <c r="J40" s="184"/>
       <c r="K40" s="113" t="s">
         <v>210</v>
       </c>
@@ -26155,9 +26203,9 @@
         <v>0.3666666666666667</v>
       </c>
       <c r="M40" s="39"/>
-      <c r="N40" s="185"/>
-      <c r="O40" s="185"/>
-      <c r="P40" s="185"/>
+      <c r="N40" s="179"/>
+      <c r="O40" s="179"/>
+      <c r="P40" s="179"/>
       <c r="Q40" s="124"/>
       <c r="R40" s="16"/>
       <c r="S40" s="16"/>
@@ -26204,7 +26252,7 @@
       <c r="G41" s="30"/>
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
-      <c r="J41" s="183"/>
+      <c r="J41" s="184"/>
       <c r="K41" s="112" t="s">
         <v>179</v>
       </c>
@@ -26212,9 +26260,9 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="M41" s="39"/>
-      <c r="N41" s="185"/>
-      <c r="O41" s="185"/>
-      <c r="P41" s="185"/>
+      <c r="N41" s="179"/>
+      <c r="O41" s="179"/>
+      <c r="P41" s="179"/>
       <c r="Q41" s="124"/>
       <c r="R41" s="16"/>
       <c r="S41" s="16"/>
@@ -26262,7 +26310,7 @@
       <c r="G42" s="30"/>
       <c r="H42" s="61"/>
       <c r="I42" s="39"/>
-      <c r="J42" s="183"/>
+      <c r="J42" s="184"/>
       <c r="K42" s="114" t="s">
         <v>136</v>
       </c>
@@ -26320,7 +26368,7 @@
       <c r="G43" s="39"/>
       <c r="H43" s="62"/>
       <c r="I43" s="39"/>
-      <c r="J43" s="183"/>
+      <c r="J43" s="184"/>
       <c r="K43" s="112" t="s">
         <v>212</v>
       </c>
@@ -26378,7 +26426,7 @@
       <c r="G44" s="39"/>
       <c r="H44" s="62"/>
       <c r="I44" s="39"/>
-      <c r="J44" s="183"/>
+      <c r="J44" s="184"/>
       <c r="K44" s="113" t="s">
         <v>213</v>
       </c>
@@ -26436,7 +26484,7 @@
       <c r="G45" s="39"/>
       <c r="H45" s="62"/>
       <c r="I45" s="39"/>
-      <c r="J45" s="184"/>
+      <c r="J45" s="185"/>
       <c r="K45" s="115" t="s">
         <v>141</v>
       </c>
@@ -26494,7 +26542,7 @@
       <c r="G46" s="39"/>
       <c r="H46" s="62"/>
       <c r="I46" s="39"/>
-      <c r="J46" s="179" t="s">
+      <c r="J46" s="180" t="s">
         <v>217</v>
       </c>
       <c r="K46" s="119" t="s">
@@ -26554,7 +26602,7 @@
       <c r="G47" s="39"/>
       <c r="H47" s="62"/>
       <c r="I47" s="39"/>
-      <c r="J47" s="180"/>
+      <c r="J47" s="181"/>
       <c r="K47" s="80" t="s">
         <v>179</v>
       </c>
@@ -26612,7 +26660,7 @@
       <c r="G48" s="39"/>
       <c r="H48" s="62"/>
       <c r="I48" s="39"/>
-      <c r="J48" s="180"/>
+      <c r="J48" s="181"/>
       <c r="K48" s="101" t="s">
         <v>136</v>
       </c>
@@ -26670,7 +26718,7 @@
       <c r="G49" s="39"/>
       <c r="H49" s="62"/>
       <c r="I49" s="39"/>
-      <c r="J49" s="181"/>
+      <c r="J49" s="182"/>
       <c r="K49" s="120" t="s">
         <v>213</v>
       </c>
@@ -26728,7 +26776,7 @@
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
       <c r="I50" s="39"/>
-      <c r="J50" s="179" t="s">
+      <c r="J50" s="180" t="s">
         <v>232</v>
       </c>
       <c r="K50" s="121" t="s">
@@ -26788,7 +26836,7 @@
       <c r="G51" s="39"/>
       <c r="H51" s="39"/>
       <c r="I51" s="39"/>
-      <c r="J51" s="180"/>
+      <c r="J51" s="181"/>
       <c r="K51" s="122" t="s">
         <v>179</v>
       </c>
@@ -26846,7 +26894,7 @@
       <c r="G52" s="39"/>
       <c r="H52" s="39"/>
       <c r="I52" s="39"/>
-      <c r="J52" s="180"/>
+      <c r="J52" s="181"/>
       <c r="K52" s="114" t="s">
         <v>235</v>
       </c>
@@ -26904,7 +26952,7 @@
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
       <c r="I53" s="39"/>
-      <c r="J53" s="181"/>
+      <c r="J53" s="182"/>
       <c r="K53" s="115" t="s">
         <v>211</v>
       </c>
@@ -26962,7 +27010,7 @@
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
       <c r="I54" s="39"/>
-      <c r="J54" s="179" t="s">
+      <c r="J54" s="180" t="s">
         <v>243</v>
       </c>
       <c r="K54" s="121" t="s">
@@ -27022,7 +27070,7 @@
       <c r="G55" s="39"/>
       <c r="H55" s="39"/>
       <c r="I55" s="39"/>
-      <c r="J55" s="180"/>
+      <c r="J55" s="181"/>
       <c r="K55" s="122" t="s">
         <v>242</v>
       </c>
@@ -27080,7 +27128,7 @@
       <c r="G56" s="39"/>
       <c r="H56" s="39"/>
       <c r="I56" s="39"/>
-      <c r="J56" s="180"/>
+      <c r="J56" s="181"/>
       <c r="K56" s="114" t="s">
         <v>29</v>
       </c>
@@ -27138,7 +27186,7 @@
       <c r="G57" s="39"/>
       <c r="H57" s="39"/>
       <c r="I57" s="39"/>
-      <c r="J57" s="181"/>
+      <c r="J57" s="182"/>
       <c r="K57" s="115" t="s">
         <v>199</v>
       </c>
@@ -27196,7 +27244,7 @@
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
       <c r="I58" s="39"/>
-      <c r="J58" s="179" t="s">
+      <c r="J58" s="180" t="s">
         <v>246</v>
       </c>
       <c r="K58" s="121" t="s">
@@ -27256,7 +27304,7 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
       <c r="I59" s="39"/>
-      <c r="J59" s="180"/>
+      <c r="J59" s="181"/>
       <c r="K59" s="122" t="s">
         <v>235</v>
       </c>
@@ -27314,7 +27362,7 @@
       <c r="G60" s="39"/>
       <c r="H60" s="39"/>
       <c r="I60" s="39"/>
-      <c r="J60" s="180"/>
+      <c r="J60" s="181"/>
       <c r="K60" s="114" t="s">
         <v>242</v>
       </c>
@@ -27372,7 +27420,7 @@
       <c r="G61" s="39"/>
       <c r="H61" s="39"/>
       <c r="I61" s="39"/>
-      <c r="J61" s="180"/>
+      <c r="J61" s="181"/>
       <c r="K61" s="122" t="s">
         <v>245</v>
       </c>
@@ -27430,7 +27478,7 @@
       <c r="G62" s="39"/>
       <c r="H62" s="39"/>
       <c r="I62" s="39"/>
-      <c r="J62" s="180"/>
+      <c r="J62" s="181"/>
       <c r="K62" s="114" t="s">
         <v>29</v>
       </c>
@@ -27488,7 +27536,7 @@
       <c r="G63" s="39"/>
       <c r="H63" s="39"/>
       <c r="I63" s="39"/>
-      <c r="J63" s="181"/>
+      <c r="J63" s="182"/>
       <c r="K63" s="115" t="s">
         <v>199</v>
       </c>
@@ -33237,12 +33285,6 @@
     <sortCondition ref="K33"/>
   </sortState>
   <mergeCells count="18">
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="N39:P39"/>
     <mergeCell ref="J58:J63"/>
     <mergeCell ref="J54:J57"/>
     <mergeCell ref="J50:J53"/>
@@ -33255,6 +33297,12 @@
     <mergeCell ref="J32:J38"/>
     <mergeCell ref="J27:J31"/>
     <mergeCell ref="J14:J19"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="N39:P39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -33271,7 +33319,7 @@
   <dimension ref="A1:W153"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -33346,15 +33394,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="186" t="s">
+      <c r="J2" s="187" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="188"/>
+      <c r="K2" s="189"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="188" t="s">
+      <c r="M2" s="189" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="187"/>
+      <c r="N2" s="188"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -33654,15 +33702,15 @@
         <v>0.20416666666666669</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="186" t="s">
+      <c r="J9" s="187" t="s">
         <v>286</v>
       </c>
-      <c r="K9" s="188"/>
+      <c r="K9" s="189"/>
       <c r="L9" s="136"/>
-      <c r="M9" s="188" t="s">
+      <c r="M9" s="189" t="s">
         <v>287</v>
       </c>
-      <c r="N9" s="187"/>
+      <c r="N9" s="188"/>
       <c r="O9" s="39"/>
       <c r="P9" s="39"/>
       <c r="Q9" s="39"/>
@@ -33869,15 +33917,15 @@
         <v>0.15208333333333332</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="186" t="s">
+      <c r="J14" s="187" t="s">
         <v>288</v>
       </c>
-      <c r="K14" s="187"/>
+      <c r="K14" s="188"/>
       <c r="L14" s="136"/>
-      <c r="M14" s="186" t="s">
+      <c r="M14" s="187" t="s">
         <v>289</v>
       </c>
-      <c r="N14" s="187"/>
+      <c r="N14" s="188"/>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
@@ -34181,15 +34229,15 @@
         <v>0.35138888888888892</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="186" t="s">
+      <c r="J21" s="187" t="s">
         <v>290</v>
       </c>
-      <c r="K21" s="187"/>
+      <c r="K21" s="188"/>
       <c r="L21" s="136"/>
-      <c r="M21" s="186" t="s">
+      <c r="M21" s="187" t="s">
         <v>291</v>
       </c>
-      <c r="N21" s="187"/>
+      <c r="N21" s="188"/>
       <c r="O21" s="39"/>
       <c r="P21" s="89" t="s">
         <v>31</v>
@@ -34571,15 +34619,15 @@
         <v>0.11805555555555557</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="186" t="s">
+      <c r="J28" s="187" t="s">
         <v>292</v>
       </c>
-      <c r="K28" s="187"/>
+      <c r="K28" s="188"/>
       <c r="L28" s="136"/>
-      <c r="M28" s="186" t="s">
+      <c r="M28" s="187" t="s">
         <v>293</v>
       </c>
-      <c r="N28" s="187"/>
+      <c r="N28" s="188"/>
       <c r="O28" s="39"/>
       <c r="P28" s="93" t="s">
         <v>38</v>
@@ -34926,15 +34974,15 @@
       <c r="G35" s="30"/>
       <c r="H35" s="61"/>
       <c r="I35" s="39"/>
-      <c r="J35" s="186" t="s">
+      <c r="J35" s="187" t="s">
         <v>294</v>
       </c>
-      <c r="K35" s="187"/>
+      <c r="K35" s="188"/>
       <c r="L35" s="136"/>
-      <c r="M35" s="186" t="s">
+      <c r="M35" s="187" t="s">
         <v>295</v>
       </c>
-      <c r="N35" s="187"/>
+      <c r="N35" s="188"/>
       <c r="O35" s="39"/>
       <c r="P35" s="39"/>
       <c r="Q35" s="39"/>
@@ -34969,9 +35017,9 @@
         <v>4.9305555555555554E-2</v>
       </c>
       <c r="O36" s="39"/>
-      <c r="P36" s="185"/>
-      <c r="Q36" s="185"/>
-      <c r="R36" s="185"/>
+      <c r="P36" s="179"/>
+      <c r="Q36" s="179"/>
+      <c r="R36" s="179"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -35002,9 +35050,9 @@
         <v>0.18472222222222223</v>
       </c>
       <c r="O37" s="39"/>
-      <c r="P37" s="189"/>
-      <c r="Q37" s="189"/>
-      <c r="R37" s="189"/>
+      <c r="P37" s="186"/>
+      <c r="Q37" s="186"/>
+      <c r="R37" s="186"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -35035,9 +35083,9 @@
         <v>0.21249999999999999</v>
       </c>
       <c r="O38" s="39"/>
-      <c r="P38" s="185"/>
-      <c r="Q38" s="185"/>
-      <c r="R38" s="185"/>
+      <c r="P38" s="179"/>
+      <c r="Q38" s="179"/>
+      <c r="R38" s="179"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -35068,9 +35116,9 @@
         <v>0.26527777777777778</v>
       </c>
       <c r="O39" s="39"/>
-      <c r="P39" s="185"/>
-      <c r="Q39" s="185"/>
-      <c r="R39" s="185"/>
+      <c r="P39" s="179"/>
+      <c r="Q39" s="179"/>
+      <c r="R39" s="179"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -35101,9 +35149,9 @@
         <v>0.75347222222222221</v>
       </c>
       <c r="O40" s="39"/>
-      <c r="P40" s="185"/>
-      <c r="Q40" s="185"/>
-      <c r="R40" s="185"/>
+      <c r="P40" s="179"/>
+      <c r="Q40" s="179"/>
+      <c r="R40" s="179"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -35129,9 +35177,9 @@
         <v>1.0513888888888889</v>
       </c>
       <c r="O41" s="39"/>
-      <c r="P41" s="185"/>
-      <c r="Q41" s="185"/>
-      <c r="R41" s="185"/>
+      <c r="P41" s="179"/>
+      <c r="Q41" s="179"/>
+      <c r="R41" s="179"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -38096,12 +38144,6 @@
     <sortCondition ref="J9"/>
   </sortState>
   <mergeCells count="18">
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
     <mergeCell ref="M35:N35"/>
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="M21:N21"/>
@@ -38114,6 +38156,12 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="J35:K35"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J116" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -38206,15 +38254,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="186" t="s">
+      <c r="J2" s="187" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="188"/>
+      <c r="K2" s="189"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="188" t="s">
+      <c r="M2" s="189" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="187"/>
+      <c r="N2" s="188"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -38544,15 +38592,15 @@
         <v>1.1847222222222222</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="186" t="s">
+      <c r="J10" s="187" t="s">
         <v>286</v>
       </c>
-      <c r="K10" s="187"/>
+      <c r="K10" s="188"/>
       <c r="L10" s="136"/>
-      <c r="M10" s="186" t="s">
+      <c r="M10" s="187" t="s">
         <v>287</v>
       </c>
-      <c r="N10" s="187"/>
+      <c r="N10" s="188"/>
       <c r="O10" s="39"/>
       <c r="P10" s="39"/>
       <c r="Q10" s="39"/>
@@ -38849,15 +38897,15 @@
         <v>6.063194444444445</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="186" t="s">
+      <c r="J17" s="187" t="s">
         <v>288</v>
       </c>
-      <c r="K17" s="187"/>
+      <c r="K17" s="188"/>
       <c r="L17" s="136"/>
-      <c r="M17" s="186" t="s">
+      <c r="M17" s="187" t="s">
         <v>289</v>
       </c>
-      <c r="N17" s="187"/>
+      <c r="N17" s="188"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
@@ -39079,15 +39127,15 @@
         <v>0.50555555555555554</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="186" t="s">
+      <c r="J22" s="187" t="s">
         <v>290</v>
       </c>
-      <c r="K22" s="187"/>
+      <c r="K22" s="188"/>
       <c r="L22" s="136"/>
-      <c r="M22" s="186" t="s">
+      <c r="M22" s="187" t="s">
         <v>291</v>
       </c>
-      <c r="N22" s="187"/>
+      <c r="N22" s="188"/>
       <c r="O22" s="39"/>
       <c r="P22" s="63" t="s">
         <v>32</v>
@@ -39438,15 +39486,15 @@
         <v>2.6388888888888889E-2</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="186" t="s">
+      <c r="J28" s="187" t="s">
         <v>292</v>
       </c>
-      <c r="K28" s="187"/>
+      <c r="K28" s="188"/>
       <c r="L28" s="136"/>
-      <c r="M28" s="186" t="s">
+      <c r="M28" s="187" t="s">
         <v>293</v>
       </c>
-      <c r="N28" s="187"/>
+      <c r="N28" s="188"/>
       <c r="O28" s="39"/>
       <c r="P28" s="93" t="s">
         <v>38</v>
@@ -39812,15 +39860,15 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="I34" s="39"/>
-      <c r="J34" s="186" t="s">
+      <c r="J34" s="187" t="s">
         <v>294</v>
       </c>
-      <c r="K34" s="187"/>
+      <c r="K34" s="188"/>
       <c r="L34" s="136"/>
-      <c r="M34" s="186" t="s">
+      <c r="M34" s="187" t="s">
         <v>295</v>
       </c>
-      <c r="N34" s="187"/>
+      <c r="N34" s="188"/>
       <c r="O34" s="39"/>
       <c r="P34" s="125" t="s">
         <v>77</v>
@@ -39927,9 +39975,9 @@
         <v>0.36944444444444446</v>
       </c>
       <c r="O36" s="39"/>
-      <c r="P36" s="185"/>
-      <c r="Q36" s="185"/>
-      <c r="R36" s="185"/>
+      <c r="P36" s="179"/>
+      <c r="Q36" s="179"/>
+      <c r="R36" s="179"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -39974,9 +40022,9 @@
         <v>7.9166666666666663E-2</v>
       </c>
       <c r="O37" s="39"/>
-      <c r="P37" s="189"/>
-      <c r="Q37" s="185"/>
-      <c r="R37" s="185"/>
+      <c r="P37" s="186"/>
+      <c r="Q37" s="179"/>
+      <c r="R37" s="179"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -40008,9 +40056,9 @@
       </c>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="185"/>
-      <c r="Q38" s="185"/>
-      <c r="R38" s="185"/>
+      <c r="P38" s="179"/>
+      <c r="Q38" s="179"/>
+      <c r="R38" s="179"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -40028,9 +40076,9 @@
       <c r="H39" s="138"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="185"/>
-      <c r="Q39" s="185"/>
-      <c r="R39" s="185"/>
+      <c r="P39" s="179"/>
+      <c r="Q39" s="179"/>
+      <c r="R39" s="179"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -40048,9 +40096,9 @@
       <c r="H40" s="61"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="185"/>
-      <c r="Q40" s="185"/>
-      <c r="R40" s="185"/>
+      <c r="P40" s="179"/>
+      <c r="Q40" s="179"/>
+      <c r="R40" s="179"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -40068,9 +40116,9 @@
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="185"/>
-      <c r="Q41" s="185"/>
-      <c r="R41" s="185"/>
+      <c r="P41" s="179"/>
+      <c r="Q41" s="179"/>
+      <c r="R41" s="179"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -43022,24 +43070,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M17:N17"/>
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
@@ -43061,7 +43109,7 @@
   <dimension ref="A1:Z153"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="G13" sqref="C13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -43138,15 +43186,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="186" t="s">
+      <c r="J2" s="187" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="187"/>
+      <c r="K2" s="188"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="186" t="s">
+      <c r="M2" s="187" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="187"/>
+      <c r="N2" s="188"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -43352,15 +43400,15 @@
         <v>0.33749999999999997</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="186" t="s">
+      <c r="J7" s="187" t="s">
         <v>286</v>
       </c>
-      <c r="K7" s="187"/>
+      <c r="K7" s="188"/>
       <c r="L7" s="136"/>
-      <c r="M7" s="186" t="s">
+      <c r="M7" s="187" t="s">
         <v>287</v>
       </c>
-      <c r="N7" s="187"/>
+      <c r="N7" s="188"/>
       <c r="O7" s="39"/>
       <c r="P7" s="39"/>
       <c r="Q7" s="39"/>
@@ -43567,15 +43615,15 @@
         <v>0.48819444444444443</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="186" t="s">
+      <c r="J12" s="187" t="s">
         <v>288</v>
       </c>
-      <c r="K12" s="187"/>
+      <c r="K12" s="188"/>
       <c r="L12" s="136"/>
-      <c r="M12" s="186" t="s">
+      <c r="M12" s="187" t="s">
         <v>289</v>
       </c>
-      <c r="N12" s="187"/>
+      <c r="N12" s="188"/>
       <c r="O12" s="39"/>
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
@@ -43825,15 +43873,15 @@
         <v>2.6659722222222224</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="186" t="s">
+      <c r="J18" s="187" t="s">
         <v>290</v>
       </c>
-      <c r="K18" s="187"/>
+      <c r="K18" s="188"/>
       <c r="L18" s="136"/>
-      <c r="M18" s="186" t="s">
+      <c r="M18" s="187" t="s">
         <v>291</v>
       </c>
-      <c r="N18" s="187"/>
+      <c r="N18" s="188"/>
       <c r="O18" s="39"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="39"/>
@@ -44070,15 +44118,15 @@
         <v>1.8131944444444446</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="186" t="s">
+      <c r="J23" s="187" t="s">
         <v>292</v>
       </c>
-      <c r="K23" s="187"/>
+      <c r="K23" s="188"/>
       <c r="L23" s="136"/>
-      <c r="M23" s="186" t="s">
+      <c r="M23" s="187" t="s">
         <v>293</v>
       </c>
-      <c r="N23" s="187"/>
+      <c r="N23" s="188"/>
       <c r="O23" s="39"/>
       <c r="P23" s="94" t="s">
         <v>33</v>
@@ -44434,15 +44482,15 @@
         <v>0.11527777777777778</v>
       </c>
       <c r="I29" s="39"/>
-      <c r="J29" s="186" t="s">
+      <c r="J29" s="187" t="s">
         <v>294</v>
       </c>
-      <c r="K29" s="187"/>
+      <c r="K29" s="188"/>
       <c r="L29" s="136"/>
-      <c r="M29" s="186" t="s">
+      <c r="M29" s="187" t="s">
         <v>295</v>
       </c>
-      <c r="N29" s="187"/>
+      <c r="N29" s="188"/>
       <c r="O29" s="39"/>
       <c r="P29" s="94" t="s">
         <v>39</v>
@@ -44774,9 +44822,9 @@
       <c r="H36" s="61"/>
       <c r="I36" s="39"/>
       <c r="O36" s="39"/>
-      <c r="P36" s="185"/>
-      <c r="Q36" s="185"/>
-      <c r="R36" s="185"/>
+      <c r="P36" s="179"/>
+      <c r="Q36" s="179"/>
+      <c r="R36" s="179"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -44794,9 +44842,9 @@
       <c r="H37" s="61"/>
       <c r="I37" s="39"/>
       <c r="O37" s="39"/>
-      <c r="P37" s="189"/>
-      <c r="Q37" s="185"/>
-      <c r="R37" s="185"/>
+      <c r="P37" s="186"/>
+      <c r="Q37" s="179"/>
+      <c r="R37" s="179"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -44814,9 +44862,9 @@
       <c r="H38" s="61"/>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="185"/>
-      <c r="Q38" s="185"/>
-      <c r="R38" s="185"/>
+      <c r="P38" s="179"/>
+      <c r="Q38" s="179"/>
+      <c r="R38" s="179"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -44834,9 +44882,9 @@
       <c r="H39" s="61"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="185"/>
-      <c r="Q39" s="185"/>
-      <c r="R39" s="185"/>
+      <c r="P39" s="179"/>
+      <c r="Q39" s="179"/>
+      <c r="R39" s="179"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -44854,9 +44902,9 @@
       <c r="H40" s="62"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="185"/>
-      <c r="Q40" s="185"/>
-      <c r="R40" s="185"/>
+      <c r="P40" s="179"/>
+      <c r="Q40" s="179"/>
+      <c r="R40" s="179"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -44874,9 +44922,9 @@
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="185"/>
-      <c r="Q41" s="185"/>
-      <c r="R41" s="185"/>
+      <c r="P41" s="179"/>
+      <c r="Q41" s="179"/>
+      <c r="R41" s="179"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -47831,6 +47879,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="P38:R38"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="M2:N2"/>
@@ -47844,11 +47897,6 @@
     <mergeCell ref="M23:N23"/>
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="J29:K29"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="P38:R38"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
@@ -47869,7 +47917,7 @@
   <dimension ref="A1:Z153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -47946,15 +47994,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="186" t="s">
+      <c r="J2" s="187" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="187"/>
+      <c r="K2" s="188"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="186" t="s">
+      <c r="M2" s="187" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="187"/>
+      <c r="N2" s="188"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -48164,15 +48212,15 @@
         <v>2.5249999999999999</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="186" t="s">
+      <c r="J7" s="187" t="s">
         <v>286</v>
       </c>
-      <c r="K7" s="187"/>
+      <c r="K7" s="188"/>
       <c r="L7" s="136"/>
-      <c r="M7" s="186" t="s">
+      <c r="M7" s="187" t="s">
         <v>287</v>
       </c>
-      <c r="N7" s="187"/>
+      <c r="N7" s="188"/>
       <c r="O7" s="39"/>
       <c r="P7" s="39"/>
       <c r="Q7" s="39"/>
@@ -48370,15 +48418,15 @@
         <v>1.8055555555555554E-2</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="186" t="s">
+      <c r="J12" s="187" t="s">
         <v>288</v>
       </c>
-      <c r="K12" s="187"/>
+      <c r="K12" s="188"/>
       <c r="L12" s="136"/>
-      <c r="M12" s="186" t="s">
+      <c r="M12" s="187" t="s">
         <v>289</v>
       </c>
-      <c r="N12" s="187"/>
+      <c r="N12" s="188"/>
       <c r="O12" s="39"/>
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
@@ -48407,16 +48455,22 @@
         <v>160</v>
       </c>
       <c r="G13" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="75" t="s">
-        <v>13</v>
+        <v>591</v>
+      </c>
+      <c r="H13" s="75">
+        <v>2.1256944444444446</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="168"/>
-      <c r="K13" s="72"/>
+      <c r="J13" s="168" t="s">
+        <v>555</v>
+      </c>
+      <c r="K13" s="72">
+        <v>0.65694444444444444</v>
+      </c>
       <c r="L13" s="137"/>
-      <c r="M13" s="131"/>
+      <c r="M13" s="131" t="s">
+        <v>555</v>
+      </c>
       <c r="N13" s="72"/>
       <c r="O13" s="39"/>
       <c r="P13" s="39"/>
@@ -48446,14 +48500,18 @@
         <v>589</v>
       </c>
       <c r="G14" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="60" t="s">
-        <v>13</v>
+        <v>595</v>
+      </c>
+      <c r="H14" s="60">
+        <v>0.57361111111111107</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="60"/>
+      <c r="J14" s="114" t="s">
+        <v>579</v>
+      </c>
+      <c r="K14" s="60">
+        <v>0.27291666666666664</v>
+      </c>
       <c r="L14" s="137"/>
       <c r="M14" s="101"/>
       <c r="N14" s="60"/>
@@ -48472,12 +48530,24 @@
       <c r="B15" s="70">
         <v>13</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="75"/>
+      <c r="C15" s="73" t="s">
+        <v>592</v>
+      </c>
+      <c r="D15" s="73">
+        <v>2007</v>
+      </c>
+      <c r="E15" s="152" t="s">
+        <v>593</v>
+      </c>
+      <c r="F15" s="74" t="s">
+        <v>594</v>
+      </c>
+      <c r="G15" s="74" t="s">
+        <v>168</v>
+      </c>
+      <c r="H15" s="75">
+        <v>0.67569444444444449</v>
+      </c>
       <c r="I15" s="6"/>
       <c r="J15" s="135"/>
       <c r="K15" s="77"/>
@@ -48499,12 +48569,24 @@
       <c r="B16" s="78">
         <v>14</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="60"/>
+      <c r="C16" s="54" t="s">
+        <v>596</v>
+      </c>
+      <c r="D16" s="54">
+        <v>1999</v>
+      </c>
+      <c r="E16" s="153" t="s">
+        <v>443</v>
+      </c>
+      <c r="F16" s="69" t="s">
+        <v>312</v>
+      </c>
+      <c r="G16" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="60" t="s">
+        <v>13</v>
+      </c>
       <c r="I16" s="6"/>
       <c r="O16" s="39"/>
       <c r="P16" s="39"/>
@@ -48528,15 +48610,15 @@
       <c r="G17" s="74"/>
       <c r="H17" s="75"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="186" t="s">
+      <c r="J17" s="187" t="s">
         <v>290</v>
       </c>
-      <c r="K17" s="187"/>
+      <c r="K17" s="188"/>
       <c r="L17" s="136"/>
-      <c r="M17" s="186" t="s">
+      <c r="M17" s="187" t="s">
         <v>291</v>
       </c>
-      <c r="N17" s="187"/>
+      <c r="N17" s="188"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
@@ -48679,15 +48761,15 @@
       <c r="G22" s="69"/>
       <c r="H22" s="60"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="186" t="s">
+      <c r="J22" s="187" t="s">
         <v>292</v>
       </c>
-      <c r="K22" s="187"/>
+      <c r="K22" s="188"/>
       <c r="L22" s="136"/>
-      <c r="M22" s="186" t="s">
+      <c r="M22" s="187" t="s">
         <v>293</v>
       </c>
-      <c r="N22" s="187"/>
+      <c r="N22" s="188"/>
       <c r="O22" s="39"/>
       <c r="P22" s="63" t="s">
         <v>32</v>
@@ -48861,18 +48943,32 @@
       <c r="P26" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="Q26" s="81"/>
-      <c r="R26" s="81"/>
+      <c r="Q26" s="81">
+        <f>SUM(W26:Y26,H15)</f>
+        <v>2.8743055555555554</v>
+      </c>
+      <c r="R26" s="81">
+        <f>SUM(K13:K14)</f>
+        <v>0.92986111111111103</v>
+      </c>
       <c r="S26" s="97">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.8041666666666663</v>
       </c>
       <c r="T26" s="39"/>
-      <c r="U26" s="99"/>
+      <c r="U26" s="100" t="s">
+        <v>598</v>
+      </c>
       <c r="V26" s="146"/>
-      <c r="W26" s="147"/>
-      <c r="X26" s="147"/>
-      <c r="Y26" s="147"/>
+      <c r="W26" s="147">
+        <v>1.1777777777777778</v>
+      </c>
+      <c r="X26" s="147">
+        <v>0.45347222222222222</v>
+      </c>
+      <c r="Y26" s="147">
+        <v>0.56736111111111109</v>
+      </c>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39"/>
@@ -48884,15 +48980,15 @@
       <c r="G27" s="30"/>
       <c r="H27" s="61"/>
       <c r="I27" s="39"/>
-      <c r="J27" s="186" t="s">
+      <c r="J27" s="187" t="s">
         <v>294</v>
       </c>
-      <c r="K27" s="187"/>
+      <c r="K27" s="188"/>
       <c r="L27" s="136"/>
-      <c r="M27" s="186" t="s">
+      <c r="M27" s="187" t="s">
         <v>295</v>
       </c>
-      <c r="N27" s="187"/>
+      <c r="N27" s="188"/>
       <c r="O27" s="39"/>
       <c r="P27" s="94" t="s">
         <v>37</v>
@@ -48904,7 +49000,9 @@
         <v>0</v>
       </c>
       <c r="T27" s="39"/>
-      <c r="U27" s="98"/>
+      <c r="U27" s="98" t="s">
+        <v>597</v>
+      </c>
       <c r="V27" s="146"/>
       <c r="W27" s="147"/>
       <c r="X27" s="111"/>
@@ -49120,15 +49218,15 @@
       </c>
       <c r="Q34" s="126">
         <f>SUM(Q22:Q33)</f>
-        <v>7.958333333333333</v>
+        <v>10.832638888888889</v>
       </c>
       <c r="R34" s="126">
         <f>SUM(R22:R33)</f>
-        <v>2.8104166666666668</v>
+        <v>3.740277777777778</v>
       </c>
       <c r="S34" s="127">
         <f>SUM(S22:S33)</f>
-        <v>10.768750000000001</v>
+        <v>14.572916666666668</v>
       </c>
       <c r="T34" s="39"/>
       <c r="U34" s="39"/>
@@ -49166,9 +49264,9 @@
       <c r="H36" s="61"/>
       <c r="I36" s="39"/>
       <c r="O36" s="39"/>
-      <c r="P36" s="185"/>
-      <c r="Q36" s="185"/>
-      <c r="R36" s="185"/>
+      <c r="P36" s="179"/>
+      <c r="Q36" s="179"/>
+      <c r="R36" s="179"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -49186,9 +49284,9 @@
       <c r="H37" s="61"/>
       <c r="I37" s="39"/>
       <c r="O37" s="39"/>
-      <c r="P37" s="189"/>
-      <c r="Q37" s="185"/>
-      <c r="R37" s="185"/>
+      <c r="P37" s="186"/>
+      <c r="Q37" s="179"/>
+      <c r="R37" s="179"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -49206,9 +49304,9 @@
       <c r="H38" s="61"/>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="185"/>
-      <c r="Q38" s="185"/>
-      <c r="R38" s="185"/>
+      <c r="P38" s="179"/>
+      <c r="Q38" s="179"/>
+      <c r="R38" s="179"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -49226,9 +49324,9 @@
       <c r="H39" s="61"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="185"/>
-      <c r="Q39" s="185"/>
-      <c r="R39" s="185"/>
+      <c r="P39" s="179"/>
+      <c r="Q39" s="179"/>
+      <c r="R39" s="179"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -49246,9 +49344,9 @@
       <c r="H40" s="62"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="185"/>
-      <c r="Q40" s="185"/>
-      <c r="R40" s="185"/>
+      <c r="P40" s="179"/>
+      <c r="Q40" s="179"/>
+      <c r="R40" s="179"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -49266,9 +49364,9 @@
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="185"/>
-      <c r="Q41" s="185"/>
-      <c r="R41" s="185"/>
+      <c r="P41" s="179"/>
+      <c r="Q41" s="179"/>
+      <c r="R41" s="179"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -51695,7 +51793,7 @@
       </c>
       <c r="R135" s="46">
         <f>COUNTIF(D3:D59,Q135)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S135" s="39"/>
       <c r="T135" s="39"/>
@@ -51935,7 +52033,7 @@
       </c>
       <c r="R143" s="46">
         <f>COUNTIF(D3:D59,Q143)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S143" s="39"/>
       <c r="T143" s="39"/>
@@ -52145,7 +52243,7 @@
       </c>
       <c r="R150" s="42">
         <f>SUM(R118:R149)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S150" s="39"/>
       <c r="T150" s="39"/>
@@ -52230,6 +52328,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="M12:N12"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="J27:K27"/>
@@ -52240,14 +52346,6 @@
     <mergeCell ref="P38:R38"/>
     <mergeCell ref="P39:R39"/>
     <mergeCell ref="P40:R40"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M12:N12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J116" r:id="rId1" xr:uid="{83A9A6CC-BE59-42CD-B5C7-E41BC1FC3BF1}"/>

--- a/spreadsheets/Games.xlsx
+++ b/spreadsheets/Games.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ucer0.github.io\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D75DCF-F9C0-4D11-B32E-3A6456A709F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E1C5B6-E706-410E-88E3-8661A2BF0AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="608">
   <si>
     <t>Nier: Automata</t>
   </si>
@@ -2374,9 +2374,6 @@
     <t>Metroid Prime 2</t>
   </si>
   <si>
-    <t>Game Cube [EMU]</t>
-  </si>
-  <si>
     <t>31st March, Midnight</t>
   </si>
   <si>
@@ -2419,9 +2416,6 @@
   </si>
   <si>
     <t>Valkyrie Profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Valyrie Profile (),</t>
   </si>
   <si>
     <r>
@@ -2442,6 +2436,50 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> E33 (44h 52m ingame), Prime 3 (100%, ingame 10h 35m)</t>
+    </r>
+  </si>
+  <si>
+    <t>Type Help</t>
+  </si>
+  <si>
+    <t>1-jun.</t>
+  </si>
+  <si>
+    <t>Deltarune Ch.3 &amp; 4</t>
+  </si>
+  <si>
+    <t>One Way Heroics</t>
+  </si>
+  <si>
+    <t>9-jun.</t>
+  </si>
+  <si>
+    <t>Juufuutei Raden's Guide for Pixel Museum</t>
+  </si>
+  <si>
+    <t>Felvidek</t>
+  </si>
+  <si>
+    <t>18-jun.</t>
+  </si>
+  <si>
+    <t>Rusted Moss</t>
+  </si>
+  <si>
+    <t>Digimon Story: Hacker's Memory</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Valyrie Profile (13h 43), Digimon (11h 50m),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ValPro (Normal, B Ending, 24h 40m ingame), DR3(about 6h), Raden (Autocheck hint numbers ON, everything else OFF)</t>
     </r>
   </si>
 </sst>
@@ -3406,9 +3444,6 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
@@ -3427,7 +3462,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3438,6 +3473,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5065,13 +5103,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -5089,7 +5127,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -5434,6 +5472,9 @@
                 <c:pt idx="4">
                   <c:v>2.8743055555555554</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9812500000000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5534,6 +5575,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.92986111111111103</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18413,8 +18457,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:Y159"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23200,7 +23244,7 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:AZ296"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -23376,7 +23420,7 @@
         <v>4.197916666666667</v>
       </c>
       <c r="I3" s="6"/>
-      <c r="J3" s="183" t="s">
+      <c r="J3" s="182" t="s">
         <v>118</v>
       </c>
       <c r="K3" s="80" t="s">
@@ -23450,7 +23494,7 @@
         <v>0.30138888888888887</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="184"/>
+      <c r="J4" s="183"/>
       <c r="K4" s="54" t="s">
         <v>127</v>
       </c>
@@ -23522,7 +23566,7 @@
         <v>0.2076388888888889</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="184"/>
+      <c r="J5" s="183"/>
       <c r="K5" s="73" t="s">
         <v>132</v>
       </c>
@@ -23594,7 +23638,7 @@
         <v>1.2437499999999999</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="184"/>
+      <c r="J6" s="183"/>
       <c r="K6" s="54" t="s">
         <v>129</v>
       </c>
@@ -23666,7 +23710,7 @@
         <v>0.27916666666666667</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="184"/>
+      <c r="J7" s="183"/>
       <c r="K7" s="73" t="s">
         <v>136</v>
       </c>
@@ -23738,7 +23782,7 @@
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="184"/>
+      <c r="J8" s="183"/>
       <c r="K8" s="54" t="s">
         <v>137</v>
       </c>
@@ -23810,7 +23854,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="183" t="s">
+      <c r="J9" s="182" t="s">
         <v>119</v>
       </c>
       <c r="K9" s="71" t="s">
@@ -23884,7 +23928,7 @@
         <v>0.19027777777777777</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="184"/>
+      <c r="J10" s="183"/>
       <c r="K10" s="54" t="s">
         <v>127</v>
       </c>
@@ -23956,7 +24000,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="184"/>
+      <c r="J11" s="183"/>
       <c r="K11" s="73" t="s">
         <v>132</v>
       </c>
@@ -24028,7 +24072,7 @@
         <v>1.7097222222222221</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="184"/>
+      <c r="J12" s="183"/>
       <c r="K12" s="54" t="s">
         <v>129</v>
       </c>
@@ -24100,7 +24144,7 @@
         <v>0.15972222222222224</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="184"/>
+      <c r="J13" s="183"/>
       <c r="K13" s="73" t="s">
         <v>141</v>
       </c>
@@ -24172,7 +24216,7 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="183" t="s">
+      <c r="J14" s="182" t="s">
         <v>120</v>
       </c>
       <c r="K14" s="10" t="s">
@@ -24246,7 +24290,7 @@
         <v>0.59652777777777777</v>
       </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="184"/>
+      <c r="J15" s="183"/>
       <c r="K15" s="73" t="s">
         <v>127</v>
       </c>
@@ -24318,7 +24362,7 @@
         <v>13</v>
       </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="184"/>
+      <c r="J16" s="183"/>
       <c r="K16" s="54" t="s">
         <v>132</v>
       </c>
@@ -24390,7 +24434,7 @@
         <v>13</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="184"/>
+      <c r="J17" s="183"/>
       <c r="K17" s="73" t="s">
         <v>129</v>
       </c>
@@ -24462,7 +24506,7 @@
         <v>0.24583333333333335</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="184"/>
+      <c r="J18" s="183"/>
       <c r="K18" s="54" t="s">
         <v>144</v>
       </c>
@@ -24534,7 +24578,7 @@
         <v>0.49513888888888885</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="185"/>
+      <c r="J19" s="184"/>
       <c r="K19" s="76" t="s">
         <v>150</v>
       </c>
@@ -24606,7 +24650,7 @@
         <v>0.20972222222222223</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="J20" s="183" t="s">
+      <c r="J20" s="182" t="s">
         <v>143</v>
       </c>
       <c r="K20" s="10" t="s">
@@ -24680,7 +24724,7 @@
         <v>0.25486111111111109</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="185"/>
+      <c r="J21" s="184"/>
       <c r="K21" s="76" t="s">
         <v>141</v>
       </c>
@@ -24762,7 +24806,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="184" t="s">
+      <c r="J22" s="183" t="s">
         <v>161</v>
       </c>
       <c r="K22" s="54" t="s">
@@ -24848,7 +24892,7 @@
         <v>0.26944444444444443</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="184"/>
+      <c r="J23" s="183"/>
       <c r="K23" s="80" t="s">
         <v>169</v>
       </c>
@@ -24932,7 +24976,7 @@
         <v>0.3263888888888889</v>
       </c>
       <c r="I24" s="39"/>
-      <c r="J24" s="184"/>
+      <c r="J24" s="183"/>
       <c r="K24" s="54" t="s">
         <v>163</v>
       </c>
@@ -25016,7 +25060,7 @@
         <v>0.32847222222222222</v>
       </c>
       <c r="I25" s="39"/>
-      <c r="J25" s="184"/>
+      <c r="J25" s="183"/>
       <c r="K25" s="73" t="s">
         <v>141</v>
       </c>
@@ -25100,7 +25144,7 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="I26" s="39"/>
-      <c r="J26" s="185"/>
+      <c r="J26" s="184"/>
       <c r="K26" s="11" t="s">
         <v>162</v>
       </c>
@@ -25184,7 +25228,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="I27" s="39"/>
-      <c r="J27" s="183" t="s">
+      <c r="J27" s="182" t="s">
         <v>171</v>
       </c>
       <c r="K27" s="73" t="s">
@@ -25270,7 +25314,7 @@
         <v>0.22291666666666665</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="184"/>
+      <c r="J28" s="183"/>
       <c r="K28" s="101" t="s">
         <v>163</v>
       </c>
@@ -25354,7 +25398,7 @@
         <v>0.13194444444444445</v>
       </c>
       <c r="I29" s="39"/>
-      <c r="J29" s="184"/>
+      <c r="J29" s="183"/>
       <c r="K29" s="73" t="s">
         <v>29</v>
       </c>
@@ -25438,7 +25482,7 @@
         <v>13</v>
       </c>
       <c r="I30" s="39"/>
-      <c r="J30" s="184"/>
+      <c r="J30" s="183"/>
       <c r="K30" s="101" t="s">
         <v>136</v>
       </c>
@@ -25522,7 +25566,7 @@
         <v>0.43888888888888888</v>
       </c>
       <c r="I31" s="39"/>
-      <c r="J31" s="185"/>
+      <c r="J31" s="184"/>
       <c r="K31" s="73" t="s">
         <v>141</v>
       </c>
@@ -25606,7 +25650,7 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="I32" s="39"/>
-      <c r="J32" s="183" t="s">
+      <c r="J32" s="182" t="s">
         <v>184</v>
       </c>
       <c r="K32" s="107" t="s">
@@ -25692,7 +25736,7 @@
         <v>2.7097222222222221</v>
       </c>
       <c r="I33" s="39"/>
-      <c r="J33" s="184"/>
+      <c r="J33" s="183"/>
       <c r="K33" s="73" t="s">
         <v>179</v>
       </c>
@@ -25778,7 +25822,7 @@
         <v>13</v>
       </c>
       <c r="I34" s="39"/>
-      <c r="J34" s="184"/>
+      <c r="J34" s="183"/>
       <c r="K34" s="54" t="s">
         <v>199</v>
       </c>
@@ -25861,7 +25905,7 @@
         <v>0.11041666666666666</v>
       </c>
       <c r="I35" s="39"/>
-      <c r="J35" s="184"/>
+      <c r="J35" s="183"/>
       <c r="K35" s="80" t="s">
         <v>198</v>
       </c>
@@ -25933,7 +25977,7 @@
         <v>0.37083333333333335</v>
       </c>
       <c r="I36" s="39"/>
-      <c r="J36" s="184"/>
+      <c r="J36" s="183"/>
       <c r="K36" s="54" t="s">
         <v>141</v>
       </c>
@@ -25941,9 +25985,9 @@
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="M36" s="39"/>
-      <c r="N36" s="179"/>
-      <c r="O36" s="179"/>
-      <c r="P36" s="179"/>
+      <c r="N36" s="185"/>
+      <c r="O36" s="185"/>
+      <c r="P36" s="185"/>
       <c r="Q36" s="111"/>
       <c r="R36" s="16"/>
       <c r="S36" s="16"/>
@@ -26005,7 +26049,7 @@
         <v>0.80694444444444446</v>
       </c>
       <c r="I37" s="39"/>
-      <c r="J37" s="184"/>
+      <c r="J37" s="183"/>
       <c r="K37" s="80" t="s">
         <v>196</v>
       </c>
@@ -26013,9 +26057,9 @@
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="M37" s="39"/>
-      <c r="N37" s="179"/>
-      <c r="O37" s="179"/>
-      <c r="P37" s="179"/>
+      <c r="N37" s="185"/>
+      <c r="O37" s="185"/>
+      <c r="P37" s="185"/>
       <c r="Q37" s="111"/>
       <c r="R37" s="16"/>
       <c r="S37" s="16"/>
@@ -26077,7 +26121,7 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="I38" s="39"/>
-      <c r="J38" s="185"/>
+      <c r="J38" s="184"/>
       <c r="K38" s="11" t="s">
         <v>202</v>
       </c>
@@ -26085,9 +26129,9 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="M38" s="39"/>
-      <c r="N38" s="179"/>
-      <c r="O38" s="179"/>
-      <c r="P38" s="179"/>
+      <c r="N38" s="185"/>
+      <c r="O38" s="185"/>
+      <c r="P38" s="185"/>
       <c r="Q38" s="111"/>
       <c r="R38" s="16"/>
       <c r="S38" s="16"/>
@@ -26135,7 +26179,7 @@
       <c r="G39" s="30"/>
       <c r="H39" s="61"/>
       <c r="I39" s="39"/>
-      <c r="J39" s="183" t="s">
+      <c r="J39" s="182" t="s">
         <v>209</v>
       </c>
       <c r="K39" s="116" t="s">
@@ -26145,9 +26189,9 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="M39" s="39"/>
-      <c r="N39" s="179"/>
-      <c r="O39" s="179"/>
-      <c r="P39" s="179"/>
+      <c r="N39" s="185"/>
+      <c r="O39" s="185"/>
+      <c r="P39" s="185"/>
       <c r="Q39" s="124"/>
       <c r="R39" s="16"/>
       <c r="S39" s="16"/>
@@ -26195,7 +26239,7 @@
       <c r="G40" s="39"/>
       <c r="H40" s="62"/>
       <c r="I40" s="39"/>
-      <c r="J40" s="184"/>
+      <c r="J40" s="183"/>
       <c r="K40" s="113" t="s">
         <v>210</v>
       </c>
@@ -26203,9 +26247,9 @@
         <v>0.3666666666666667</v>
       </c>
       <c r="M40" s="39"/>
-      <c r="N40" s="179"/>
-      <c r="O40" s="179"/>
-      <c r="P40" s="179"/>
+      <c r="N40" s="185"/>
+      <c r="O40" s="185"/>
+      <c r="P40" s="185"/>
       <c r="Q40" s="124"/>
       <c r="R40" s="16"/>
       <c r="S40" s="16"/>
@@ -26252,7 +26296,7 @@
       <c r="G41" s="30"/>
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
-      <c r="J41" s="184"/>
+      <c r="J41" s="183"/>
       <c r="K41" s="112" t="s">
         <v>179</v>
       </c>
@@ -26260,9 +26304,9 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="M41" s="39"/>
-      <c r="N41" s="179"/>
-      <c r="O41" s="179"/>
-      <c r="P41" s="179"/>
+      <c r="N41" s="185"/>
+      <c r="O41" s="185"/>
+      <c r="P41" s="185"/>
       <c r="Q41" s="124"/>
       <c r="R41" s="16"/>
       <c r="S41" s="16"/>
@@ -26310,7 +26354,7 @@
       <c r="G42" s="30"/>
       <c r="H42" s="61"/>
       <c r="I42" s="39"/>
-      <c r="J42" s="184"/>
+      <c r="J42" s="183"/>
       <c r="K42" s="114" t="s">
         <v>136</v>
       </c>
@@ -26368,7 +26412,7 @@
       <c r="G43" s="39"/>
       <c r="H43" s="62"/>
       <c r="I43" s="39"/>
-      <c r="J43" s="184"/>
+      <c r="J43" s="183"/>
       <c r="K43" s="112" t="s">
         <v>212</v>
       </c>
@@ -26426,7 +26470,7 @@
       <c r="G44" s="39"/>
       <c r="H44" s="62"/>
       <c r="I44" s="39"/>
-      <c r="J44" s="184"/>
+      <c r="J44" s="183"/>
       <c r="K44" s="113" t="s">
         <v>213</v>
       </c>
@@ -26484,7 +26528,7 @@
       <c r="G45" s="39"/>
       <c r="H45" s="62"/>
       <c r="I45" s="39"/>
-      <c r="J45" s="185"/>
+      <c r="J45" s="184"/>
       <c r="K45" s="115" t="s">
         <v>141</v>
       </c>
@@ -26542,7 +26586,7 @@
       <c r="G46" s="39"/>
       <c r="H46" s="62"/>
       <c r="I46" s="39"/>
-      <c r="J46" s="180" t="s">
+      <c r="J46" s="179" t="s">
         <v>217</v>
       </c>
       <c r="K46" s="119" t="s">
@@ -26602,7 +26646,7 @@
       <c r="G47" s="39"/>
       <c r="H47" s="62"/>
       <c r="I47" s="39"/>
-      <c r="J47" s="181"/>
+      <c r="J47" s="180"/>
       <c r="K47" s="80" t="s">
         <v>179</v>
       </c>
@@ -26660,7 +26704,7 @@
       <c r="G48" s="39"/>
       <c r="H48" s="62"/>
       <c r="I48" s="39"/>
-      <c r="J48" s="181"/>
+      <c r="J48" s="180"/>
       <c r="K48" s="101" t="s">
         <v>136</v>
       </c>
@@ -26718,7 +26762,7 @@
       <c r="G49" s="39"/>
       <c r="H49" s="62"/>
       <c r="I49" s="39"/>
-      <c r="J49" s="182"/>
+      <c r="J49" s="181"/>
       <c r="K49" s="120" t="s">
         <v>213</v>
       </c>
@@ -26776,7 +26820,7 @@
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
       <c r="I50" s="39"/>
-      <c r="J50" s="180" t="s">
+      <c r="J50" s="179" t="s">
         <v>232</v>
       </c>
       <c r="K50" s="121" t="s">
@@ -26836,7 +26880,7 @@
       <c r="G51" s="39"/>
       <c r="H51" s="39"/>
       <c r="I51" s="39"/>
-      <c r="J51" s="181"/>
+      <c r="J51" s="180"/>
       <c r="K51" s="122" t="s">
         <v>179</v>
       </c>
@@ -26894,7 +26938,7 @@
       <c r="G52" s="39"/>
       <c r="H52" s="39"/>
       <c r="I52" s="39"/>
-      <c r="J52" s="181"/>
+      <c r="J52" s="180"/>
       <c r="K52" s="114" t="s">
         <v>235</v>
       </c>
@@ -26952,7 +26996,7 @@
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
       <c r="I53" s="39"/>
-      <c r="J53" s="182"/>
+      <c r="J53" s="181"/>
       <c r="K53" s="115" t="s">
         <v>211</v>
       </c>
@@ -27010,7 +27054,7 @@
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
       <c r="I54" s="39"/>
-      <c r="J54" s="180" t="s">
+      <c r="J54" s="179" t="s">
         <v>243</v>
       </c>
       <c r="K54" s="121" t="s">
@@ -27070,7 +27114,7 @@
       <c r="G55" s="39"/>
       <c r="H55" s="39"/>
       <c r="I55" s="39"/>
-      <c r="J55" s="181"/>
+      <c r="J55" s="180"/>
       <c r="K55" s="122" t="s">
         <v>242</v>
       </c>
@@ -27128,7 +27172,7 @@
       <c r="G56" s="39"/>
       <c r="H56" s="39"/>
       <c r="I56" s="39"/>
-      <c r="J56" s="181"/>
+      <c r="J56" s="180"/>
       <c r="K56" s="114" t="s">
         <v>29</v>
       </c>
@@ -27186,7 +27230,7 @@
       <c r="G57" s="39"/>
       <c r="H57" s="39"/>
       <c r="I57" s="39"/>
-      <c r="J57" s="182"/>
+      <c r="J57" s="181"/>
       <c r="K57" s="115" t="s">
         <v>199</v>
       </c>
@@ -27244,7 +27288,7 @@
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
       <c r="I58" s="39"/>
-      <c r="J58" s="180" t="s">
+      <c r="J58" s="179" t="s">
         <v>246</v>
       </c>
       <c r="K58" s="121" t="s">
@@ -27304,7 +27348,7 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
       <c r="I59" s="39"/>
-      <c r="J59" s="181"/>
+      <c r="J59" s="180"/>
       <c r="K59" s="122" t="s">
         <v>235</v>
       </c>
@@ -27362,7 +27406,7 @@
       <c r="G60" s="39"/>
       <c r="H60" s="39"/>
       <c r="I60" s="39"/>
-      <c r="J60" s="181"/>
+      <c r="J60" s="180"/>
       <c r="K60" s="114" t="s">
         <v>242</v>
       </c>
@@ -27420,7 +27464,7 @@
       <c r="G61" s="39"/>
       <c r="H61" s="39"/>
       <c r="I61" s="39"/>
-      <c r="J61" s="181"/>
+      <c r="J61" s="180"/>
       <c r="K61" s="122" t="s">
         <v>245</v>
       </c>
@@ -27478,7 +27522,7 @@
       <c r="G62" s="39"/>
       <c r="H62" s="39"/>
       <c r="I62" s="39"/>
-      <c r="J62" s="181"/>
+      <c r="J62" s="180"/>
       <c r="K62" s="114" t="s">
         <v>29</v>
       </c>
@@ -27536,7 +27580,7 @@
       <c r="G63" s="39"/>
       <c r="H63" s="39"/>
       <c r="I63" s="39"/>
-      <c r="J63" s="182"/>
+      <c r="J63" s="181"/>
       <c r="K63" s="115" t="s">
         <v>199</v>
       </c>
@@ -33285,6 +33329,12 @@
     <sortCondition ref="K33"/>
   </sortState>
   <mergeCells count="18">
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="N39:P39"/>
     <mergeCell ref="J58:J63"/>
     <mergeCell ref="J54:J57"/>
     <mergeCell ref="J50:J53"/>
@@ -33297,12 +33347,6 @@
     <mergeCell ref="J32:J38"/>
     <mergeCell ref="J27:J31"/>
     <mergeCell ref="J14:J19"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="N39:P39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -33319,7 +33363,7 @@
   <dimension ref="A1:W153"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -33394,15 +33438,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="187" t="s">
+      <c r="J2" s="186" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="189"/>
+      <c r="K2" s="188"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="189" t="s">
+      <c r="M2" s="188" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="188"/>
+      <c r="N2" s="187"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -33702,15 +33746,15 @@
         <v>0.20416666666666669</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="187" t="s">
+      <c r="J9" s="186" t="s">
         <v>286</v>
       </c>
-      <c r="K9" s="189"/>
+      <c r="K9" s="188"/>
       <c r="L9" s="136"/>
-      <c r="M9" s="189" t="s">
+      <c r="M9" s="188" t="s">
         <v>287</v>
       </c>
-      <c r="N9" s="188"/>
+      <c r="N9" s="187"/>
       <c r="O9" s="39"/>
       <c r="P9" s="39"/>
       <c r="Q9" s="39"/>
@@ -33917,15 +33961,15 @@
         <v>0.15208333333333332</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="187" t="s">
+      <c r="J14" s="186" t="s">
         <v>288</v>
       </c>
-      <c r="K14" s="188"/>
+      <c r="K14" s="187"/>
       <c r="L14" s="136"/>
-      <c r="M14" s="187" t="s">
+      <c r="M14" s="186" t="s">
         <v>289</v>
       </c>
-      <c r="N14" s="188"/>
+      <c r="N14" s="187"/>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
@@ -34229,15 +34273,15 @@
         <v>0.35138888888888892</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="187" t="s">
+      <c r="J21" s="186" t="s">
         <v>290</v>
       </c>
-      <c r="K21" s="188"/>
+      <c r="K21" s="187"/>
       <c r="L21" s="136"/>
-      <c r="M21" s="187" t="s">
+      <c r="M21" s="186" t="s">
         <v>291</v>
       </c>
-      <c r="N21" s="188"/>
+      <c r="N21" s="187"/>
       <c r="O21" s="39"/>
       <c r="P21" s="89" t="s">
         <v>31</v>
@@ -34619,15 +34663,15 @@
         <v>0.11805555555555557</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="187" t="s">
+      <c r="J28" s="186" t="s">
         <v>292</v>
       </c>
-      <c r="K28" s="188"/>
+      <c r="K28" s="187"/>
       <c r="L28" s="136"/>
-      <c r="M28" s="187" t="s">
+      <c r="M28" s="186" t="s">
         <v>293</v>
       </c>
-      <c r="N28" s="188"/>
+      <c r="N28" s="187"/>
       <c r="O28" s="39"/>
       <c r="P28" s="93" t="s">
         <v>38</v>
@@ -34974,15 +35018,15 @@
       <c r="G35" s="30"/>
       <c r="H35" s="61"/>
       <c r="I35" s="39"/>
-      <c r="J35" s="187" t="s">
+      <c r="J35" s="186" t="s">
         <v>294</v>
       </c>
-      <c r="K35" s="188"/>
+      <c r="K35" s="187"/>
       <c r="L35" s="136"/>
-      <c r="M35" s="187" t="s">
+      <c r="M35" s="186" t="s">
         <v>295</v>
       </c>
-      <c r="N35" s="188"/>
+      <c r="N35" s="187"/>
       <c r="O35" s="39"/>
       <c r="P35" s="39"/>
       <c r="Q35" s="39"/>
@@ -35017,9 +35061,9 @@
         <v>4.9305555555555554E-2</v>
       </c>
       <c r="O36" s="39"/>
-      <c r="P36" s="179"/>
-      <c r="Q36" s="179"/>
-      <c r="R36" s="179"/>
+      <c r="P36" s="185"/>
+      <c r="Q36" s="185"/>
+      <c r="R36" s="185"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -35050,9 +35094,9 @@
         <v>0.18472222222222223</v>
       </c>
       <c r="O37" s="39"/>
-      <c r="P37" s="186"/>
-      <c r="Q37" s="186"/>
-      <c r="R37" s="186"/>
+      <c r="P37" s="189"/>
+      <c r="Q37" s="189"/>
+      <c r="R37" s="189"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -35083,9 +35127,9 @@
         <v>0.21249999999999999</v>
       </c>
       <c r="O38" s="39"/>
-      <c r="P38" s="179"/>
-      <c r="Q38" s="179"/>
-      <c r="R38" s="179"/>
+      <c r="P38" s="185"/>
+      <c r="Q38" s="185"/>
+      <c r="R38" s="185"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -35116,9 +35160,9 @@
         <v>0.26527777777777778</v>
       </c>
       <c r="O39" s="39"/>
-      <c r="P39" s="179"/>
-      <c r="Q39" s="179"/>
-      <c r="R39" s="179"/>
+      <c r="P39" s="185"/>
+      <c r="Q39" s="185"/>
+      <c r="R39" s="185"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -35149,9 +35193,9 @@
         <v>0.75347222222222221</v>
       </c>
       <c r="O40" s="39"/>
-      <c r="P40" s="179"/>
-      <c r="Q40" s="179"/>
-      <c r="R40" s="179"/>
+      <c r="P40" s="185"/>
+      <c r="Q40" s="185"/>
+      <c r="R40" s="185"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -35177,9 +35221,9 @@
         <v>1.0513888888888889</v>
       </c>
       <c r="O41" s="39"/>
-      <c r="P41" s="179"/>
-      <c r="Q41" s="179"/>
-      <c r="R41" s="179"/>
+      <c r="P41" s="185"/>
+      <c r="Q41" s="185"/>
+      <c r="R41" s="185"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -38144,6 +38188,12 @@
     <sortCondition ref="J9"/>
   </sortState>
   <mergeCells count="18">
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
     <mergeCell ref="M35:N35"/>
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="M21:N21"/>
@@ -38156,12 +38206,6 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="J35:K35"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J116" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -38178,7 +38222,7 @@
   <dimension ref="A1:Z153"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -38254,15 +38298,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="187" t="s">
+      <c r="J2" s="186" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="189"/>
+      <c r="K2" s="188"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="189" t="s">
+      <c r="M2" s="188" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="188"/>
+      <c r="N2" s="187"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -38592,15 +38636,15 @@
         <v>1.1847222222222222</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="187" t="s">
+      <c r="J10" s="186" t="s">
         <v>286</v>
       </c>
-      <c r="K10" s="188"/>
+      <c r="K10" s="187"/>
       <c r="L10" s="136"/>
-      <c r="M10" s="187" t="s">
+      <c r="M10" s="186" t="s">
         <v>287</v>
       </c>
-      <c r="N10" s="188"/>
+      <c r="N10" s="187"/>
       <c r="O10" s="39"/>
       <c r="P10" s="39"/>
       <c r="Q10" s="39"/>
@@ -38897,15 +38941,15 @@
         <v>6.063194444444445</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="187" t="s">
+      <c r="J17" s="186" t="s">
         <v>288</v>
       </c>
-      <c r="K17" s="188"/>
+      <c r="K17" s="187"/>
       <c r="L17" s="136"/>
-      <c r="M17" s="187" t="s">
+      <c r="M17" s="186" t="s">
         <v>289</v>
       </c>
-      <c r="N17" s="188"/>
+      <c r="N17" s="187"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
@@ -39127,15 +39171,15 @@
         <v>0.50555555555555554</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="187" t="s">
+      <c r="J22" s="186" t="s">
         <v>290</v>
       </c>
-      <c r="K22" s="188"/>
+      <c r="K22" s="187"/>
       <c r="L22" s="136"/>
-      <c r="M22" s="187" t="s">
+      <c r="M22" s="186" t="s">
         <v>291</v>
       </c>
-      <c r="N22" s="188"/>
+      <c r="N22" s="187"/>
       <c r="O22" s="39"/>
       <c r="P22" s="63" t="s">
         <v>32</v>
@@ -39486,15 +39530,15 @@
         <v>2.6388888888888889E-2</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="187" t="s">
+      <c r="J28" s="186" t="s">
         <v>292</v>
       </c>
-      <c r="K28" s="188"/>
+      <c r="K28" s="187"/>
       <c r="L28" s="136"/>
-      <c r="M28" s="187" t="s">
+      <c r="M28" s="186" t="s">
         <v>293</v>
       </c>
-      <c r="N28" s="188"/>
+      <c r="N28" s="187"/>
       <c r="O28" s="39"/>
       <c r="P28" s="93" t="s">
         <v>38</v>
@@ -39860,15 +39904,15 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="I34" s="39"/>
-      <c r="J34" s="187" t="s">
+      <c r="J34" s="186" t="s">
         <v>294</v>
       </c>
-      <c r="K34" s="188"/>
+      <c r="K34" s="187"/>
       <c r="L34" s="136"/>
-      <c r="M34" s="187" t="s">
+      <c r="M34" s="186" t="s">
         <v>295</v>
       </c>
-      <c r="N34" s="188"/>
+      <c r="N34" s="187"/>
       <c r="O34" s="39"/>
       <c r="P34" s="125" t="s">
         <v>77</v>
@@ -39975,9 +40019,9 @@
         <v>0.36944444444444446</v>
       </c>
       <c r="O36" s="39"/>
-      <c r="P36" s="179"/>
-      <c r="Q36" s="179"/>
-      <c r="R36" s="179"/>
+      <c r="P36" s="185"/>
+      <c r="Q36" s="185"/>
+      <c r="R36" s="185"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -40022,9 +40066,9 @@
         <v>7.9166666666666663E-2</v>
       </c>
       <c r="O37" s="39"/>
-      <c r="P37" s="186"/>
-      <c r="Q37" s="179"/>
-      <c r="R37" s="179"/>
+      <c r="P37" s="189"/>
+      <c r="Q37" s="185"/>
+      <c r="R37" s="185"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -40056,9 +40100,9 @@
       </c>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="179"/>
-      <c r="Q38" s="179"/>
-      <c r="R38" s="179"/>
+      <c r="P38" s="185"/>
+      <c r="Q38" s="185"/>
+      <c r="R38" s="185"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -40076,9 +40120,9 @@
       <c r="H39" s="138"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="179"/>
-      <c r="Q39" s="179"/>
-      <c r="R39" s="179"/>
+      <c r="P39" s="185"/>
+      <c r="Q39" s="185"/>
+      <c r="R39" s="185"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -40096,9 +40140,9 @@
       <c r="H40" s="61"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="179"/>
-      <c r="Q40" s="179"/>
-      <c r="R40" s="179"/>
+      <c r="P40" s="185"/>
+      <c r="Q40" s="185"/>
+      <c r="R40" s="185"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -40116,9 +40160,9 @@
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="179"/>
-      <c r="Q41" s="179"/>
-      <c r="R41" s="179"/>
+      <c r="P41" s="185"/>
+      <c r="Q41" s="185"/>
+      <c r="R41" s="185"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -43070,24 +43114,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M17:N17"/>
     <mergeCell ref="P41:R41"/>
     <mergeCell ref="P36:R36"/>
     <mergeCell ref="P37:R37"/>
     <mergeCell ref="P38:R38"/>
     <mergeCell ref="P39:R39"/>
     <mergeCell ref="P40:R40"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="J22:K22"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
@@ -43109,7 +43153,7 @@
   <dimension ref="A1:Z153"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="C13:G13"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -43186,15 +43230,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="187" t="s">
+      <c r="J2" s="186" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="188"/>
+      <c r="K2" s="187"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="187" t="s">
+      <c r="M2" s="186" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="188"/>
+      <c r="N2" s="187"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -43400,15 +43444,15 @@
         <v>0.33749999999999997</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="187" t="s">
+      <c r="J7" s="186" t="s">
         <v>286</v>
       </c>
-      <c r="K7" s="188"/>
+      <c r="K7" s="187"/>
       <c r="L7" s="136"/>
-      <c r="M7" s="187" t="s">
+      <c r="M7" s="186" t="s">
         <v>287</v>
       </c>
-      <c r="N7" s="188"/>
+      <c r="N7" s="187"/>
       <c r="O7" s="39"/>
       <c r="P7" s="39"/>
       <c r="Q7" s="39"/>
@@ -43615,15 +43659,15 @@
         <v>0.48819444444444443</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="187" t="s">
+      <c r="J12" s="186" t="s">
         <v>288</v>
       </c>
-      <c r="K12" s="188"/>
+      <c r="K12" s="187"/>
       <c r="L12" s="136"/>
-      <c r="M12" s="187" t="s">
+      <c r="M12" s="186" t="s">
         <v>289</v>
       </c>
-      <c r="N12" s="188"/>
+      <c r="N12" s="187"/>
       <c r="O12" s="39"/>
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
@@ -43873,15 +43917,15 @@
         <v>2.6659722222222224</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="187" t="s">
+      <c r="J18" s="186" t="s">
         <v>290</v>
       </c>
-      <c r="K18" s="188"/>
+      <c r="K18" s="187"/>
       <c r="L18" s="136"/>
-      <c r="M18" s="187" t="s">
+      <c r="M18" s="186" t="s">
         <v>291</v>
       </c>
-      <c r="N18" s="188"/>
+      <c r="N18" s="187"/>
       <c r="O18" s="39"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="39"/>
@@ -44118,15 +44162,15 @@
         <v>1.8131944444444446</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="187" t="s">
+      <c r="J23" s="186" t="s">
         <v>292</v>
       </c>
-      <c r="K23" s="188"/>
+      <c r="K23" s="187"/>
       <c r="L23" s="136"/>
-      <c r="M23" s="187" t="s">
+      <c r="M23" s="186" t="s">
         <v>293</v>
       </c>
-      <c r="N23" s="188"/>
+      <c r="N23" s="187"/>
       <c r="O23" s="39"/>
       <c r="P23" s="94" t="s">
         <v>33</v>
@@ -44482,15 +44526,15 @@
         <v>0.11527777777777778</v>
       </c>
       <c r="I29" s="39"/>
-      <c r="J29" s="187" t="s">
+      <c r="J29" s="186" t="s">
         <v>294</v>
       </c>
-      <c r="K29" s="188"/>
+      <c r="K29" s="187"/>
       <c r="L29" s="136"/>
-      <c r="M29" s="187" t="s">
+      <c r="M29" s="186" t="s">
         <v>295</v>
       </c>
-      <c r="N29" s="188"/>
+      <c r="N29" s="187"/>
       <c r="O29" s="39"/>
       <c r="P29" s="94" t="s">
         <v>39</v>
@@ -44822,9 +44866,9 @@
       <c r="H36" s="61"/>
       <c r="I36" s="39"/>
       <c r="O36" s="39"/>
-      <c r="P36" s="179"/>
-      <c r="Q36" s="179"/>
-      <c r="R36" s="179"/>
+      <c r="P36" s="185"/>
+      <c r="Q36" s="185"/>
+      <c r="R36" s="185"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -44842,9 +44886,9 @@
       <c r="H37" s="61"/>
       <c r="I37" s="39"/>
       <c r="O37" s="39"/>
-      <c r="P37" s="186"/>
-      <c r="Q37" s="179"/>
-      <c r="R37" s="179"/>
+      <c r="P37" s="189"/>
+      <c r="Q37" s="185"/>
+      <c r="R37" s="185"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -44862,9 +44906,9 @@
       <c r="H38" s="61"/>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="179"/>
-      <c r="Q38" s="179"/>
-      <c r="R38" s="179"/>
+      <c r="P38" s="185"/>
+      <c r="Q38" s="185"/>
+      <c r="R38" s="185"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -44882,9 +44926,9 @@
       <c r="H39" s="61"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="179"/>
-      <c r="Q39" s="179"/>
-      <c r="R39" s="179"/>
+      <c r="P39" s="185"/>
+      <c r="Q39" s="185"/>
+      <c r="R39" s="185"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -44902,9 +44946,9 @@
       <c r="H40" s="62"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="179"/>
-      <c r="Q40" s="179"/>
-      <c r="R40" s="179"/>
+      <c r="P40" s="185"/>
+      <c r="Q40" s="185"/>
+      <c r="R40" s="185"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -44922,9 +44966,9 @@
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="179"/>
-      <c r="Q41" s="179"/>
-      <c r="R41" s="179"/>
+      <c r="P41" s="185"/>
+      <c r="Q41" s="185"/>
+      <c r="R41" s="185"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -47879,11 +47923,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="P38:R38"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="M2:N2"/>
@@ -47897,6 +47936,11 @@
     <mergeCell ref="M23:N23"/>
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="J29:K29"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="P38:R38"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
@@ -47916,8 +47960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF62C77-56E1-46D1-8A04-9C8B0CAA13F7}">
   <dimension ref="A1:Z153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -47994,15 +48038,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="187" t="s">
+      <c r="J2" s="186" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="188"/>
+      <c r="K2" s="187"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="187" t="s">
+      <c r="M2" s="186" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="188"/>
+      <c r="N2" s="187"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -48212,15 +48256,15 @@
         <v>2.5249999999999999</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="187" t="s">
+      <c r="J7" s="186" t="s">
         <v>286</v>
       </c>
-      <c r="K7" s="188"/>
+      <c r="K7" s="187"/>
       <c r="L7" s="136"/>
-      <c r="M7" s="187" t="s">
+      <c r="M7" s="186" t="s">
         <v>287</v>
       </c>
-      <c r="N7" s="188"/>
+      <c r="N7" s="187"/>
       <c r="O7" s="39"/>
       <c r="P7" s="39"/>
       <c r="Q7" s="39"/>
@@ -48372,7 +48416,7 @@
         <v>2004</v>
       </c>
       <c r="E11" s="152" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="F11" s="74" t="s">
         <v>154</v>
@@ -48400,7 +48444,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="54" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D12" s="54">
         <v>2024</v>
@@ -48418,15 +48462,15 @@
         <v>1.8055555555555554E-2</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="187" t="s">
+      <c r="J12" s="186" t="s">
         <v>288</v>
       </c>
-      <c r="K12" s="188"/>
+      <c r="K12" s="187"/>
       <c r="L12" s="136"/>
-      <c r="M12" s="187" t="s">
+      <c r="M12" s="186" t="s">
         <v>289</v>
       </c>
-      <c r="N12" s="188"/>
+      <c r="N12" s="187"/>
       <c r="O12" s="39"/>
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
@@ -48443,7 +48487,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="73" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D13" s="73">
         <v>2025</v>
@@ -48455,7 +48499,7 @@
         <v>160</v>
       </c>
       <c r="G13" s="74" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H13" s="75">
         <v>2.1256944444444446</v>
@@ -48471,7 +48515,9 @@
       <c r="M13" s="131" t="s">
         <v>555</v>
       </c>
-      <c r="N13" s="72"/>
+      <c r="N13" s="72">
+        <v>0.22638888888888889</v>
+      </c>
       <c r="O13" s="39"/>
       <c r="P13" s="39"/>
       <c r="Q13" s="39"/>
@@ -48488,7 +48534,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D14" s="54">
         <v>2011</v>
@@ -48497,10 +48543,10 @@
         <v>439</v>
       </c>
       <c r="F14" s="69" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G14" s="69" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H14" s="60">
         <v>0.57361111111111107</v>
@@ -48513,8 +48559,12 @@
         <v>0.27291666666666664</v>
       </c>
       <c r="L14" s="137"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="60"/>
+      <c r="M14" s="101" t="s">
+        <v>600</v>
+      </c>
+      <c r="N14" s="60">
+        <v>0.12916666666666668</v>
+      </c>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
@@ -48531,16 +48581,16 @@
         <v>13</v>
       </c>
       <c r="C15" s="73" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D15" s="73">
         <v>2007</v>
       </c>
       <c r="E15" s="152" t="s">
+        <v>592</v>
+      </c>
+      <c r="F15" s="74" t="s">
         <v>593</v>
-      </c>
-      <c r="F15" s="74" t="s">
-        <v>594</v>
       </c>
       <c r="G15" s="74" t="s">
         <v>168</v>
@@ -48552,8 +48602,12 @@
       <c r="J15" s="135"/>
       <c r="K15" s="77"/>
       <c r="L15" s="163"/>
-      <c r="M15" s="135"/>
-      <c r="N15" s="77"/>
+      <c r="M15" s="135" t="s">
+        <v>579</v>
+      </c>
+      <c r="N15" s="77">
+        <v>9.4444444444444442E-2</v>
+      </c>
       <c r="O15" s="39"/>
       <c r="P15" s="39"/>
       <c r="Q15" s="39"/>
@@ -48570,7 +48624,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D16" s="54">
         <v>1999</v>
@@ -48582,10 +48636,11 @@
         <v>312</v>
       </c>
       <c r="G16" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="60" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="H16" s="60">
+        <f>SUM(Y26,W27)</f>
+        <v>1.1388888888888888</v>
       </c>
       <c r="I16" s="6"/>
       <c r="O16" s="39"/>
@@ -48603,22 +48658,34 @@
       <c r="B17" s="70">
         <v>15</v>
       </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="152"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="75"/>
+      <c r="C17" s="73" t="s">
+        <v>597</v>
+      </c>
+      <c r="D17" s="73">
+        <v>2025</v>
+      </c>
+      <c r="E17" s="152" t="s">
+        <v>440</v>
+      </c>
+      <c r="F17" s="74" t="s">
+        <v>598</v>
+      </c>
+      <c r="G17" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="H17" s="75">
+        <v>0.30902777777777779</v>
+      </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="187" t="s">
+      <c r="J17" s="186" t="s">
         <v>290</v>
       </c>
-      <c r="K17" s="188"/>
+      <c r="K17" s="187"/>
       <c r="L17" s="136"/>
-      <c r="M17" s="187" t="s">
+      <c r="M17" s="186" t="s">
         <v>291</v>
       </c>
-      <c r="N17" s="188"/>
+      <c r="N17" s="187"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
@@ -48634,12 +48701,24 @@
       <c r="B18" s="78">
         <v>16</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="153"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="60"/>
+      <c r="C18" s="54" t="s">
+        <v>599</v>
+      </c>
+      <c r="D18" s="54">
+        <v>2025</v>
+      </c>
+      <c r="E18" s="153" t="s">
+        <v>440</v>
+      </c>
+      <c r="F18" s="69" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" s="60">
+        <v>0.5708333333333333</v>
+      </c>
       <c r="I18" s="6"/>
       <c r="J18" s="168"/>
       <c r="K18" s="72"/>
@@ -48661,12 +48740,24 @@
       <c r="B19" s="70">
         <v>17</v>
       </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="75"/>
+      <c r="C19" s="73" t="s">
+        <v>602</v>
+      </c>
+      <c r="D19" s="73">
+        <v>2025</v>
+      </c>
+      <c r="E19" s="152" t="s">
+        <v>440</v>
+      </c>
+      <c r="F19" s="74" t="s">
+        <v>601</v>
+      </c>
+      <c r="G19" s="74" t="s">
+        <v>516</v>
+      </c>
+      <c r="H19" s="75">
+        <v>1.3368055555555556</v>
+      </c>
       <c r="I19" s="6"/>
       <c r="J19" s="114"/>
       <c r="K19" s="60"/>
@@ -48688,12 +48779,24 @@
       <c r="B20" s="78">
         <v>18</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="153"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="60"/>
+      <c r="C20" s="54" t="s">
+        <v>603</v>
+      </c>
+      <c r="D20" s="54">
+        <v>2024</v>
+      </c>
+      <c r="E20" s="153" t="s">
+        <v>440</v>
+      </c>
+      <c r="F20" s="69" t="s">
+        <v>604</v>
+      </c>
+      <c r="G20" s="69" t="s">
+        <v>604</v>
+      </c>
+      <c r="H20" s="60">
+        <v>0.2</v>
+      </c>
       <c r="I20" s="6"/>
       <c r="J20" s="135"/>
       <c r="K20" s="77"/>
@@ -48715,12 +48818,24 @@
       <c r="B21" s="70">
         <v>19</v>
       </c>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="152"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="75"/>
+      <c r="C21" s="73" t="s">
+        <v>605</v>
+      </c>
+      <c r="D21" s="73">
+        <v>2023</v>
+      </c>
+      <c r="E21" s="152" t="s">
+        <v>440</v>
+      </c>
+      <c r="F21" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="74" t="s">
+        <v>328</v>
+      </c>
+      <c r="H21" s="75">
+        <v>0.5</v>
+      </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="61"/>
@@ -48754,22 +48869,34 @@
       <c r="B22" s="78">
         <v>20</v>
       </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="60"/>
+      <c r="C22" s="54" t="s">
+        <v>606</v>
+      </c>
+      <c r="D22" s="54">
+        <v>2017</v>
+      </c>
+      <c r="E22" s="153" t="s">
+        <v>440</v>
+      </c>
+      <c r="F22" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="60" t="s">
+        <v>13</v>
+      </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="187" t="s">
+      <c r="J22" s="186" t="s">
         <v>292</v>
       </c>
-      <c r="K22" s="188"/>
+      <c r="K22" s="187"/>
       <c r="L22" s="136"/>
-      <c r="M22" s="187" t="s">
+      <c r="M22" s="186" t="s">
         <v>293</v>
       </c>
-      <c r="N22" s="188"/>
+      <c r="N22" s="187"/>
       <c r="O22" s="39"/>
       <c r="P22" s="63" t="s">
         <v>32</v>
@@ -48799,13 +48926,15 @@
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="39"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="138"/>
+      <c r="B23" s="70">
+        <v>21</v>
+      </c>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="75"/>
       <c r="I23" s="6"/>
       <c r="J23" s="168"/>
       <c r="K23" s="72"/>
@@ -48841,13 +48970,15 @@
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="39"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="155"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="61"/>
+      <c r="B24" s="78">
+        <v>22</v>
+      </c>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="60"/>
       <c r="I24" s="39"/>
       <c r="J24" s="114"/>
       <c r="K24" s="60"/>
@@ -48885,13 +49016,15 @@
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="39"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="111"/>
+      <c r="B25" s="70">
+        <v>23</v>
+      </c>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="75"/>
       <c r="I25" s="39"/>
       <c r="J25" s="135"/>
       <c r="K25" s="77"/>
@@ -48916,7 +49049,7 @@
       </c>
       <c r="T25" s="39"/>
       <c r="U25" s="98" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="V25" s="146"/>
       <c r="W25" s="147">
@@ -48931,13 +49064,15 @@
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="61"/>
+      <c r="B26" s="78">
+        <v>24</v>
+      </c>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="153"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="60"/>
       <c r="I26" s="39"/>
       <c r="O26" s="39"/>
       <c r="P26" s="93" t="s">
@@ -48957,7 +49092,7 @@
       </c>
       <c r="T26" s="39"/>
       <c r="U26" s="100" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="V26" s="146"/>
       <c r="W26" s="147">
@@ -48972,51 +49107,65 @@
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="155"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="61"/>
+      <c r="B27" s="70">
+        <v>25</v>
+      </c>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="75"/>
       <c r="I27" s="39"/>
-      <c r="J27" s="187" t="s">
+      <c r="J27" s="186" t="s">
         <v>294</v>
       </c>
-      <c r="K27" s="188"/>
+      <c r="K27" s="187"/>
       <c r="L27" s="136"/>
-      <c r="M27" s="187" t="s">
+      <c r="M27" s="186" t="s">
         <v>295</v>
       </c>
-      <c r="N27" s="188"/>
+      <c r="N27" s="187"/>
       <c r="O27" s="39"/>
       <c r="P27" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="Q27" s="64"/>
-      <c r="R27" s="64"/>
+      <c r="Q27" s="64">
+        <f>SUM(W27:X27,H17:H21)</f>
+        <v>3.9812500000000002</v>
+      </c>
+      <c r="R27" s="64">
+        <f>SUM(N13:N15)</f>
+        <v>0.45</v>
+      </c>
       <c r="S27" s="90">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.4312500000000004</v>
       </c>
       <c r="T27" s="39"/>
       <c r="U27" s="98" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="V27" s="146"/>
-      <c r="W27" s="147"/>
-      <c r="X27" s="111"/>
+      <c r="W27" s="147">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="X27" s="111">
+        <v>0.49305555555555558</v>
+      </c>
       <c r="Y27" s="147"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="61"/>
+      <c r="B28" s="78">
+        <v>26</v>
+      </c>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="60"/>
       <c r="I28" s="39"/>
       <c r="J28" s="168"/>
       <c r="K28" s="72"/>
@@ -49042,13 +49191,15 @@
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="155"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="61"/>
+      <c r="B29" s="70">
+        <v>27</v>
+      </c>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="75"/>
       <c r="I29" s="39"/>
       <c r="J29" s="114"/>
       <c r="K29" s="60"/>
@@ -49074,13 +49225,15 @@
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="39"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="61"/>
+      <c r="B30" s="78">
+        <v>28</v>
+      </c>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="60"/>
       <c r="I30" s="39"/>
       <c r="J30" s="135"/>
       <c r="K30" s="77"/>
@@ -49106,13 +49259,15 @@
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="39"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="155"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="61"/>
+      <c r="B31" s="70">
+        <v>29</v>
+      </c>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="75"/>
       <c r="I31" s="39"/>
       <c r="J31" s="6"/>
       <c r="K31" s="61"/>
@@ -49138,13 +49293,15 @@
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="39"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="155"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="61"/>
+      <c r="B32" s="123">
+        <v>30</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="102"/>
       <c r="I32" s="39"/>
       <c r="J32" s="6"/>
       <c r="K32" s="61"/>
@@ -49218,15 +49375,15 @@
       </c>
       <c r="Q34" s="126">
         <f>SUM(Q22:Q33)</f>
-        <v>10.832638888888889</v>
+        <v>14.81388888888889</v>
       </c>
       <c r="R34" s="126">
         <f>SUM(R22:R33)</f>
-        <v>3.740277777777778</v>
+        <v>4.1902777777777782</v>
       </c>
       <c r="S34" s="127">
         <f>SUM(S22:S33)</f>
-        <v>14.572916666666668</v>
+        <v>19.00416666666667</v>
       </c>
       <c r="T34" s="39"/>
       <c r="U34" s="39"/>
@@ -49264,9 +49421,9 @@
       <c r="H36" s="61"/>
       <c r="I36" s="39"/>
       <c r="O36" s="39"/>
-      <c r="P36" s="179"/>
-      <c r="Q36" s="179"/>
-      <c r="R36" s="179"/>
+      <c r="P36" s="185"/>
+      <c r="Q36" s="185"/>
+      <c r="R36" s="185"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -49284,9 +49441,9 @@
       <c r="H37" s="61"/>
       <c r="I37" s="39"/>
       <c r="O37" s="39"/>
-      <c r="P37" s="186"/>
-      <c r="Q37" s="179"/>
-      <c r="R37" s="179"/>
+      <c r="P37" s="189"/>
+      <c r="Q37" s="185"/>
+      <c r="R37" s="185"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -49304,9 +49461,9 @@
       <c r="H38" s="61"/>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="179"/>
-      <c r="Q38" s="179"/>
-      <c r="R38" s="179"/>
+      <c r="P38" s="185"/>
+      <c r="Q38" s="185"/>
+      <c r="R38" s="185"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -49324,9 +49481,9 @@
       <c r="H39" s="61"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="179"/>
-      <c r="Q39" s="179"/>
-      <c r="R39" s="179"/>
+      <c r="P39" s="185"/>
+      <c r="Q39" s="185"/>
+      <c r="R39" s="185"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -49344,9 +49501,9 @@
       <c r="H40" s="62"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="179"/>
-      <c r="Q40" s="179"/>
-      <c r="R40" s="179"/>
+      <c r="P40" s="185"/>
+      <c r="Q40" s="185"/>
+      <c r="R40" s="185"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -49364,9 +49521,9 @@
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="179"/>
-      <c r="Q41" s="179"/>
-      <c r="R41" s="179"/>
+      <c r="P41" s="185"/>
+      <c r="Q41" s="185"/>
+      <c r="R41" s="185"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -51253,7 +51410,7 @@
       </c>
       <c r="R117" s="44">
         <f>COUNTIF(D1:D57,Q117)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S117" s="39"/>
       <c r="T117" s="39"/>
@@ -51283,7 +51440,7 @@
       </c>
       <c r="R118" s="46">
         <f>COUNTIF(D2:D58,Q118)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S118" s="39"/>
       <c r="T118" s="39"/>
@@ -51313,7 +51470,7 @@
       </c>
       <c r="R119" s="167">
         <f>COUNTIF(D3:D59,Q119)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S119" s="39"/>
       <c r="T119" s="39"/>
@@ -51493,7 +51650,7 @@
       </c>
       <c r="R125" s="46">
         <f>COUNTIF(D3:D59,Q125)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S125" s="39"/>
       <c r="T125" s="39"/>
@@ -52243,7 +52400,7 @@
       </c>
       <c r="R150" s="42">
         <f>SUM(R118:R149)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="S150" s="39"/>
       <c r="T150" s="39"/>
@@ -52328,14 +52485,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M12:N12"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="J27:K27"/>
@@ -52346,7 +52495,16 @@
     <mergeCell ref="P38:R38"/>
     <mergeCell ref="P39:R39"/>
     <mergeCell ref="P40:R40"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="M12:N12"/>
   </mergeCells>
+  <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J116" r:id="rId1" xr:uid="{83A9A6CC-BE59-42CD-B5C7-E41BC1FC3BF1}"/>
     <hyperlink ref="J117" r:id="rId2" xr:uid="{0EC0C9DF-1A56-47C5-8914-17F3F952D3F7}"/>

--- a/spreadsheets/Games.xlsx
+++ b/spreadsheets/Games.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ucer0.github.io\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E1C5B6-E706-410E-88E3-8661A2BF0AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8365F9DB-076B-4F6F-A671-52DE77015605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="616">
   <si>
     <t>Nier: Automata</t>
   </si>
@@ -2480,6 +2480,60 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> ValPro (Normal, B Ending, 24h 40m ingame), DR3(about 6h), Raden (Autocheck hint numbers ON, everything else OFF)</t>
+    </r>
+  </si>
+  <si>
+    <t>Castlevania: Portrait of Ruin</t>
+  </si>
+  <si>
+    <t>PC [EMU]</t>
+  </si>
+  <si>
+    <t>Castlevania: Order of Ecclesia</t>
+  </si>
+  <si>
+    <t>Peak</t>
+  </si>
+  <si>
+    <t>Uranium Gays</t>
+  </si>
+  <si>
+    <t>29-jul.</t>
+  </si>
+  <si>
+    <t>Recettear: An Item Shop’s Tale</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Digimon (36h 34m), Recettear (5h 30m), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>Digimon pasarlo (46h 57m)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> [PoR (Ending A - 5h 07m), (Ending B - 11h 07m)], OoE (Pasarlo 14h 17m)</t>
     </r>
   </si>
 </sst>
@@ -3444,6 +3498,9 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
@@ -3462,7 +3519,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3473,9 +3530,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5103,7 +5157,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
@@ -5154,13 +5208,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -5475,6 +5529,9 @@
                 <c:pt idx="5">
                   <c:v>3.9812500000000002</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9493055555555556</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5578,6 +5635,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0826388888888889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23420,7 +23480,7 @@
         <v>4.197916666666667</v>
       </c>
       <c r="I3" s="6"/>
-      <c r="J3" s="182" t="s">
+      <c r="J3" s="183" t="s">
         <v>118</v>
       </c>
       <c r="K3" s="80" t="s">
@@ -23494,7 +23554,7 @@
         <v>0.30138888888888887</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="183"/>
+      <c r="J4" s="184"/>
       <c r="K4" s="54" t="s">
         <v>127</v>
       </c>
@@ -23566,7 +23626,7 @@
         <v>0.2076388888888889</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="183"/>
+      <c r="J5" s="184"/>
       <c r="K5" s="73" t="s">
         <v>132</v>
       </c>
@@ -23638,7 +23698,7 @@
         <v>1.2437499999999999</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="183"/>
+      <c r="J6" s="184"/>
       <c r="K6" s="54" t="s">
         <v>129</v>
       </c>
@@ -23710,7 +23770,7 @@
         <v>0.27916666666666667</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="183"/>
+      <c r="J7" s="184"/>
       <c r="K7" s="73" t="s">
         <v>136</v>
       </c>
@@ -23782,7 +23842,7 @@
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="183"/>
+      <c r="J8" s="184"/>
       <c r="K8" s="54" t="s">
         <v>137</v>
       </c>
@@ -23854,7 +23914,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="182" t="s">
+      <c r="J9" s="183" t="s">
         <v>119</v>
       </c>
       <c r="K9" s="71" t="s">
@@ -23928,7 +23988,7 @@
         <v>0.19027777777777777</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="183"/>
+      <c r="J10" s="184"/>
       <c r="K10" s="54" t="s">
         <v>127</v>
       </c>
@@ -24000,7 +24060,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="183"/>
+      <c r="J11" s="184"/>
       <c r="K11" s="73" t="s">
         <v>132</v>
       </c>
@@ -24072,7 +24132,7 @@
         <v>1.7097222222222221</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="183"/>
+      <c r="J12" s="184"/>
       <c r="K12" s="54" t="s">
         <v>129</v>
       </c>
@@ -24144,7 +24204,7 @@
         <v>0.15972222222222224</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="183"/>
+      <c r="J13" s="184"/>
       <c r="K13" s="73" t="s">
         <v>141</v>
       </c>
@@ -24216,7 +24276,7 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="182" t="s">
+      <c r="J14" s="183" t="s">
         <v>120</v>
       </c>
       <c r="K14" s="10" t="s">
@@ -24290,7 +24350,7 @@
         <v>0.59652777777777777</v>
       </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="183"/>
+      <c r="J15" s="184"/>
       <c r="K15" s="73" t="s">
         <v>127</v>
       </c>
@@ -24362,7 +24422,7 @@
         <v>13</v>
       </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="183"/>
+      <c r="J16" s="184"/>
       <c r="K16" s="54" t="s">
         <v>132</v>
       </c>
@@ -24434,7 +24494,7 @@
         <v>13</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="183"/>
+      <c r="J17" s="184"/>
       <c r="K17" s="73" t="s">
         <v>129</v>
       </c>
@@ -24506,7 +24566,7 @@
         <v>0.24583333333333335</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="183"/>
+      <c r="J18" s="184"/>
       <c r="K18" s="54" t="s">
         <v>144</v>
       </c>
@@ -24578,7 +24638,7 @@
         <v>0.49513888888888885</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="184"/>
+      <c r="J19" s="185"/>
       <c r="K19" s="76" t="s">
         <v>150</v>
       </c>
@@ -24650,7 +24710,7 @@
         <v>0.20972222222222223</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="J20" s="182" t="s">
+      <c r="J20" s="183" t="s">
         <v>143</v>
       </c>
       <c r="K20" s="10" t="s">
@@ -24724,7 +24784,7 @@
         <v>0.25486111111111109</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="184"/>
+      <c r="J21" s="185"/>
       <c r="K21" s="76" t="s">
         <v>141</v>
       </c>
@@ -24806,7 +24866,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="183" t="s">
+      <c r="J22" s="184" t="s">
         <v>161</v>
       </c>
       <c r="K22" s="54" t="s">
@@ -24892,7 +24952,7 @@
         <v>0.26944444444444443</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="183"/>
+      <c r="J23" s="184"/>
       <c r="K23" s="80" t="s">
         <v>169</v>
       </c>
@@ -24976,7 +25036,7 @@
         <v>0.3263888888888889</v>
       </c>
       <c r="I24" s="39"/>
-      <c r="J24" s="183"/>
+      <c r="J24" s="184"/>
       <c r="K24" s="54" t="s">
         <v>163</v>
       </c>
@@ -25060,7 +25120,7 @@
         <v>0.32847222222222222</v>
       </c>
       <c r="I25" s="39"/>
-      <c r="J25" s="183"/>
+      <c r="J25" s="184"/>
       <c r="K25" s="73" t="s">
         <v>141</v>
       </c>
@@ -25144,7 +25204,7 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="I26" s="39"/>
-      <c r="J26" s="184"/>
+      <c r="J26" s="185"/>
       <c r="K26" s="11" t="s">
         <v>162</v>
       </c>
@@ -25228,7 +25288,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="I27" s="39"/>
-      <c r="J27" s="182" t="s">
+      <c r="J27" s="183" t="s">
         <v>171</v>
       </c>
       <c r="K27" s="73" t="s">
@@ -25314,7 +25374,7 @@
         <v>0.22291666666666665</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="183"/>
+      <c r="J28" s="184"/>
       <c r="K28" s="101" t="s">
         <v>163</v>
       </c>
@@ -25398,7 +25458,7 @@
         <v>0.13194444444444445</v>
       </c>
       <c r="I29" s="39"/>
-      <c r="J29" s="183"/>
+      <c r="J29" s="184"/>
       <c r="K29" s="73" t="s">
         <v>29</v>
       </c>
@@ -25482,7 +25542,7 @@
         <v>13</v>
       </c>
       <c r="I30" s="39"/>
-      <c r="J30" s="183"/>
+      <c r="J30" s="184"/>
       <c r="K30" s="101" t="s">
         <v>136</v>
       </c>
@@ -25566,7 +25626,7 @@
         <v>0.43888888888888888</v>
       </c>
       <c r="I31" s="39"/>
-      <c r="J31" s="184"/>
+      <c r="J31" s="185"/>
       <c r="K31" s="73" t="s">
         <v>141</v>
       </c>
@@ -25650,7 +25710,7 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="I32" s="39"/>
-      <c r="J32" s="182" t="s">
+      <c r="J32" s="183" t="s">
         <v>184</v>
       </c>
       <c r="K32" s="107" t="s">
@@ -25736,7 +25796,7 @@
         <v>2.7097222222222221</v>
       </c>
       <c r="I33" s="39"/>
-      <c r="J33" s="183"/>
+      <c r="J33" s="184"/>
       <c r="K33" s="73" t="s">
         <v>179</v>
       </c>
@@ -25822,7 +25882,7 @@
         <v>13</v>
       </c>
       <c r="I34" s="39"/>
-      <c r="J34" s="183"/>
+      <c r="J34" s="184"/>
       <c r="K34" s="54" t="s">
         <v>199</v>
       </c>
@@ -25905,7 +25965,7 @@
         <v>0.11041666666666666</v>
       </c>
       <c r="I35" s="39"/>
-      <c r="J35" s="183"/>
+      <c r="J35" s="184"/>
       <c r="K35" s="80" t="s">
         <v>198</v>
       </c>
@@ -25977,7 +26037,7 @@
         <v>0.37083333333333335</v>
       </c>
       <c r="I36" s="39"/>
-      <c r="J36" s="183"/>
+      <c r="J36" s="184"/>
       <c r="K36" s="54" t="s">
         <v>141</v>
       </c>
@@ -25985,9 +26045,9 @@
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="M36" s="39"/>
-      <c r="N36" s="185"/>
-      <c r="O36" s="185"/>
-      <c r="P36" s="185"/>
+      <c r="N36" s="179"/>
+      <c r="O36" s="179"/>
+      <c r="P36" s="179"/>
       <c r="Q36" s="111"/>
       <c r="R36" s="16"/>
       <c r="S36" s="16"/>
@@ -26049,7 +26109,7 @@
         <v>0.80694444444444446</v>
       </c>
       <c r="I37" s="39"/>
-      <c r="J37" s="183"/>
+      <c r="J37" s="184"/>
       <c r="K37" s="80" t="s">
         <v>196</v>
       </c>
@@ -26057,9 +26117,9 @@
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="M37" s="39"/>
-      <c r="N37" s="185"/>
-      <c r="O37" s="185"/>
-      <c r="P37" s="185"/>
+      <c r="N37" s="179"/>
+      <c r="O37" s="179"/>
+      <c r="P37" s="179"/>
       <c r="Q37" s="111"/>
       <c r="R37" s="16"/>
       <c r="S37" s="16"/>
@@ -26121,7 +26181,7 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="I38" s="39"/>
-      <c r="J38" s="184"/>
+      <c r="J38" s="185"/>
       <c r="K38" s="11" t="s">
         <v>202</v>
       </c>
@@ -26129,9 +26189,9 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="M38" s="39"/>
-      <c r="N38" s="185"/>
-      <c r="O38" s="185"/>
-      <c r="P38" s="185"/>
+      <c r="N38" s="179"/>
+      <c r="O38" s="179"/>
+      <c r="P38" s="179"/>
       <c r="Q38" s="111"/>
       <c r="R38" s="16"/>
       <c r="S38" s="16"/>
@@ -26179,7 +26239,7 @@
       <c r="G39" s="30"/>
       <c r="H39" s="61"/>
       <c r="I39" s="39"/>
-      <c r="J39" s="182" t="s">
+      <c r="J39" s="183" t="s">
         <v>209</v>
       </c>
       <c r="K39" s="116" t="s">
@@ -26189,9 +26249,9 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="M39" s="39"/>
-      <c r="N39" s="185"/>
-      <c r="O39" s="185"/>
-      <c r="P39" s="185"/>
+      <c r="N39" s="179"/>
+      <c r="O39" s="179"/>
+      <c r="P39" s="179"/>
       <c r="Q39" s="124"/>
       <c r="R39" s="16"/>
       <c r="S39" s="16"/>
@@ -26239,7 +26299,7 @@
       <c r="G40" s="39"/>
       <c r="H40" s="62"/>
       <c r="I40" s="39"/>
-      <c r="J40" s="183"/>
+      <c r="J40" s="184"/>
       <c r="K40" s="113" t="s">
         <v>210</v>
       </c>
@@ -26247,9 +26307,9 @@
         <v>0.3666666666666667</v>
       </c>
       <c r="M40" s="39"/>
-      <c r="N40" s="185"/>
-      <c r="O40" s="185"/>
-      <c r="P40" s="185"/>
+      <c r="N40" s="179"/>
+      <c r="O40" s="179"/>
+      <c r="P40" s="179"/>
       <c r="Q40" s="124"/>
       <c r="R40" s="16"/>
       <c r="S40" s="16"/>
@@ -26296,7 +26356,7 @@
       <c r="G41" s="30"/>
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
-      <c r="J41" s="183"/>
+      <c r="J41" s="184"/>
       <c r="K41" s="112" t="s">
         <v>179</v>
       </c>
@@ -26304,9 +26364,9 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="M41" s="39"/>
-      <c r="N41" s="185"/>
-      <c r="O41" s="185"/>
-      <c r="P41" s="185"/>
+      <c r="N41" s="179"/>
+      <c r="O41" s="179"/>
+      <c r="P41" s="179"/>
       <c r="Q41" s="124"/>
       <c r="R41" s="16"/>
       <c r="S41" s="16"/>
@@ -26354,7 +26414,7 @@
       <c r="G42" s="30"/>
       <c r="H42" s="61"/>
       <c r="I42" s="39"/>
-      <c r="J42" s="183"/>
+      <c r="J42" s="184"/>
       <c r="K42" s="114" t="s">
         <v>136</v>
       </c>
@@ -26412,7 +26472,7 @@
       <c r="G43" s="39"/>
       <c r="H43" s="62"/>
       <c r="I43" s="39"/>
-      <c r="J43" s="183"/>
+      <c r="J43" s="184"/>
       <c r="K43" s="112" t="s">
         <v>212</v>
       </c>
@@ -26470,7 +26530,7 @@
       <c r="G44" s="39"/>
       <c r="H44" s="62"/>
       <c r="I44" s="39"/>
-      <c r="J44" s="183"/>
+      <c r="J44" s="184"/>
       <c r="K44" s="113" t="s">
         <v>213</v>
       </c>
@@ -26528,7 +26588,7 @@
       <c r="G45" s="39"/>
       <c r="H45" s="62"/>
       <c r="I45" s="39"/>
-      <c r="J45" s="184"/>
+      <c r="J45" s="185"/>
       <c r="K45" s="115" t="s">
         <v>141</v>
       </c>
@@ -26586,7 +26646,7 @@
       <c r="G46" s="39"/>
       <c r="H46" s="62"/>
       <c r="I46" s="39"/>
-      <c r="J46" s="179" t="s">
+      <c r="J46" s="180" t="s">
         <v>217</v>
       </c>
       <c r="K46" s="119" t="s">
@@ -26646,7 +26706,7 @@
       <c r="G47" s="39"/>
       <c r="H47" s="62"/>
       <c r="I47" s="39"/>
-      <c r="J47" s="180"/>
+      <c r="J47" s="181"/>
       <c r="K47" s="80" t="s">
         <v>179</v>
       </c>
@@ -26704,7 +26764,7 @@
       <c r="G48" s="39"/>
       <c r="H48" s="62"/>
       <c r="I48" s="39"/>
-      <c r="J48" s="180"/>
+      <c r="J48" s="181"/>
       <c r="K48" s="101" t="s">
         <v>136</v>
       </c>
@@ -26762,7 +26822,7 @@
       <c r="G49" s="39"/>
       <c r="H49" s="62"/>
       <c r="I49" s="39"/>
-      <c r="J49" s="181"/>
+      <c r="J49" s="182"/>
       <c r="K49" s="120" t="s">
         <v>213</v>
       </c>
@@ -26820,7 +26880,7 @@
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
       <c r="I50" s="39"/>
-      <c r="J50" s="179" t="s">
+      <c r="J50" s="180" t="s">
         <v>232</v>
       </c>
       <c r="K50" s="121" t="s">
@@ -26880,7 +26940,7 @@
       <c r="G51" s="39"/>
       <c r="H51" s="39"/>
       <c r="I51" s="39"/>
-      <c r="J51" s="180"/>
+      <c r="J51" s="181"/>
       <c r="K51" s="122" t="s">
         <v>179</v>
       </c>
@@ -26938,7 +26998,7 @@
       <c r="G52" s="39"/>
       <c r="H52" s="39"/>
       <c r="I52" s="39"/>
-      <c r="J52" s="180"/>
+      <c r="J52" s="181"/>
       <c r="K52" s="114" t="s">
         <v>235</v>
       </c>
@@ -26996,7 +27056,7 @@
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
       <c r="I53" s="39"/>
-      <c r="J53" s="181"/>
+      <c r="J53" s="182"/>
       <c r="K53" s="115" t="s">
         <v>211</v>
       </c>
@@ -27054,7 +27114,7 @@
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
       <c r="I54" s="39"/>
-      <c r="J54" s="179" t="s">
+      <c r="J54" s="180" t="s">
         <v>243</v>
       </c>
       <c r="K54" s="121" t="s">
@@ -27114,7 +27174,7 @@
       <c r="G55" s="39"/>
       <c r="H55" s="39"/>
       <c r="I55" s="39"/>
-      <c r="J55" s="180"/>
+      <c r="J55" s="181"/>
       <c r="K55" s="122" t="s">
         <v>242</v>
       </c>
@@ -27172,7 +27232,7 @@
       <c r="G56" s="39"/>
       <c r="H56" s="39"/>
       <c r="I56" s="39"/>
-      <c r="J56" s="180"/>
+      <c r="J56" s="181"/>
       <c r="K56" s="114" t="s">
         <v>29</v>
       </c>
@@ -27230,7 +27290,7 @@
       <c r="G57" s="39"/>
       <c r="H57" s="39"/>
       <c r="I57" s="39"/>
-      <c r="J57" s="181"/>
+      <c r="J57" s="182"/>
       <c r="K57" s="115" t="s">
         <v>199</v>
       </c>
@@ -27288,7 +27348,7 @@
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
       <c r="I58" s="39"/>
-      <c r="J58" s="179" t="s">
+      <c r="J58" s="180" t="s">
         <v>246</v>
       </c>
       <c r="K58" s="121" t="s">
@@ -27348,7 +27408,7 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
       <c r="I59" s="39"/>
-      <c r="J59" s="180"/>
+      <c r="J59" s="181"/>
       <c r="K59" s="122" t="s">
         <v>235</v>
       </c>
@@ -27406,7 +27466,7 @@
       <c r="G60" s="39"/>
       <c r="H60" s="39"/>
       <c r="I60" s="39"/>
-      <c r="J60" s="180"/>
+      <c r="J60" s="181"/>
       <c r="K60" s="114" t="s">
         <v>242</v>
       </c>
@@ -27464,7 +27524,7 @@
       <c r="G61" s="39"/>
       <c r="H61" s="39"/>
       <c r="I61" s="39"/>
-      <c r="J61" s="180"/>
+      <c r="J61" s="181"/>
       <c r="K61" s="122" t="s">
         <v>245</v>
       </c>
@@ -27522,7 +27582,7 @@
       <c r="G62" s="39"/>
       <c r="H62" s="39"/>
       <c r="I62" s="39"/>
-      <c r="J62" s="180"/>
+      <c r="J62" s="181"/>
       <c r="K62" s="114" t="s">
         <v>29</v>
       </c>
@@ -27580,7 +27640,7 @@
       <c r="G63" s="39"/>
       <c r="H63" s="39"/>
       <c r="I63" s="39"/>
-      <c r="J63" s="181"/>
+      <c r="J63" s="182"/>
       <c r="K63" s="115" t="s">
         <v>199</v>
       </c>
@@ -33329,12 +33389,6 @@
     <sortCondition ref="K33"/>
   </sortState>
   <mergeCells count="18">
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="N39:P39"/>
     <mergeCell ref="J58:J63"/>
     <mergeCell ref="J54:J57"/>
     <mergeCell ref="J50:J53"/>
@@ -33347,6 +33401,12 @@
     <mergeCell ref="J32:J38"/>
     <mergeCell ref="J27:J31"/>
     <mergeCell ref="J14:J19"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="N39:P39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -33438,15 +33498,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="186" t="s">
+      <c r="J2" s="187" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="188"/>
+      <c r="K2" s="189"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="188" t="s">
+      <c r="M2" s="189" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="187"/>
+      <c r="N2" s="188"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -33746,15 +33806,15 @@
         <v>0.20416666666666669</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="186" t="s">
+      <c r="J9" s="187" t="s">
         <v>286</v>
       </c>
-      <c r="K9" s="188"/>
+      <c r="K9" s="189"/>
       <c r="L9" s="136"/>
-      <c r="M9" s="188" t="s">
+      <c r="M9" s="189" t="s">
         <v>287</v>
       </c>
-      <c r="N9" s="187"/>
+      <c r="N9" s="188"/>
       <c r="O9" s="39"/>
       <c r="P9" s="39"/>
       <c r="Q9" s="39"/>
@@ -33961,15 +34021,15 @@
         <v>0.15208333333333332</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="186" t="s">
+      <c r="J14" s="187" t="s">
         <v>288</v>
       </c>
-      <c r="K14" s="187"/>
+      <c r="K14" s="188"/>
       <c r="L14" s="136"/>
-      <c r="M14" s="186" t="s">
+      <c r="M14" s="187" t="s">
         <v>289</v>
       </c>
-      <c r="N14" s="187"/>
+      <c r="N14" s="188"/>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
@@ -34273,15 +34333,15 @@
         <v>0.35138888888888892</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="186" t="s">
+      <c r="J21" s="187" t="s">
         <v>290</v>
       </c>
-      <c r="K21" s="187"/>
+      <c r="K21" s="188"/>
       <c r="L21" s="136"/>
-      <c r="M21" s="186" t="s">
+      <c r="M21" s="187" t="s">
         <v>291</v>
       </c>
-      <c r="N21" s="187"/>
+      <c r="N21" s="188"/>
       <c r="O21" s="39"/>
       <c r="P21" s="89" t="s">
         <v>31</v>
@@ -34663,15 +34723,15 @@
         <v>0.11805555555555557</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="186" t="s">
+      <c r="J28" s="187" t="s">
         <v>292</v>
       </c>
-      <c r="K28" s="187"/>
+      <c r="K28" s="188"/>
       <c r="L28" s="136"/>
-      <c r="M28" s="186" t="s">
+      <c r="M28" s="187" t="s">
         <v>293</v>
       </c>
-      <c r="N28" s="187"/>
+      <c r="N28" s="188"/>
       <c r="O28" s="39"/>
       <c r="P28" s="93" t="s">
         <v>38</v>
@@ -35018,15 +35078,15 @@
       <c r="G35" s="30"/>
       <c r="H35" s="61"/>
       <c r="I35" s="39"/>
-      <c r="J35" s="186" t="s">
+      <c r="J35" s="187" t="s">
         <v>294</v>
       </c>
-      <c r="K35" s="187"/>
+      <c r="K35" s="188"/>
       <c r="L35" s="136"/>
-      <c r="M35" s="186" t="s">
+      <c r="M35" s="187" t="s">
         <v>295</v>
       </c>
-      <c r="N35" s="187"/>
+      <c r="N35" s="188"/>
       <c r="O35" s="39"/>
       <c r="P35" s="39"/>
       <c r="Q35" s="39"/>
@@ -35061,9 +35121,9 @@
         <v>4.9305555555555554E-2</v>
       </c>
       <c r="O36" s="39"/>
-      <c r="P36" s="185"/>
-      <c r="Q36" s="185"/>
-      <c r="R36" s="185"/>
+      <c r="P36" s="179"/>
+      <c r="Q36" s="179"/>
+      <c r="R36" s="179"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -35094,9 +35154,9 @@
         <v>0.18472222222222223</v>
       </c>
       <c r="O37" s="39"/>
-      <c r="P37" s="189"/>
-      <c r="Q37" s="189"/>
-      <c r="R37" s="189"/>
+      <c r="P37" s="186"/>
+      <c r="Q37" s="186"/>
+      <c r="R37" s="186"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -35127,9 +35187,9 @@
         <v>0.21249999999999999</v>
       </c>
       <c r="O38" s="39"/>
-      <c r="P38" s="185"/>
-      <c r="Q38" s="185"/>
-      <c r="R38" s="185"/>
+      <c r="P38" s="179"/>
+      <c r="Q38" s="179"/>
+      <c r="R38" s="179"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -35160,9 +35220,9 @@
         <v>0.26527777777777778</v>
       </c>
       <c r="O39" s="39"/>
-      <c r="P39" s="185"/>
-      <c r="Q39" s="185"/>
-      <c r="R39" s="185"/>
+      <c r="P39" s="179"/>
+      <c r="Q39" s="179"/>
+      <c r="R39" s="179"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -35193,9 +35253,9 @@
         <v>0.75347222222222221</v>
       </c>
       <c r="O40" s="39"/>
-      <c r="P40" s="185"/>
-      <c r="Q40" s="185"/>
-      <c r="R40" s="185"/>
+      <c r="P40" s="179"/>
+      <c r="Q40" s="179"/>
+      <c r="R40" s="179"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -35221,9 +35281,9 @@
         <v>1.0513888888888889</v>
       </c>
       <c r="O41" s="39"/>
-      <c r="P41" s="185"/>
-      <c r="Q41" s="185"/>
-      <c r="R41" s="185"/>
+      <c r="P41" s="179"/>
+      <c r="Q41" s="179"/>
+      <c r="R41" s="179"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -38188,12 +38248,6 @@
     <sortCondition ref="J9"/>
   </sortState>
   <mergeCells count="18">
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
     <mergeCell ref="M35:N35"/>
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="M21:N21"/>
@@ -38206,6 +38260,12 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="J35:K35"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J116" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -38298,15 +38358,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="186" t="s">
+      <c r="J2" s="187" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="188"/>
+      <c r="K2" s="189"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="188" t="s">
+      <c r="M2" s="189" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="187"/>
+      <c r="N2" s="188"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -38636,15 +38696,15 @@
         <v>1.1847222222222222</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="186" t="s">
+      <c r="J10" s="187" t="s">
         <v>286</v>
       </c>
-      <c r="K10" s="187"/>
+      <c r="K10" s="188"/>
       <c r="L10" s="136"/>
-      <c r="M10" s="186" t="s">
+      <c r="M10" s="187" t="s">
         <v>287</v>
       </c>
-      <c r="N10" s="187"/>
+      <c r="N10" s="188"/>
       <c r="O10" s="39"/>
       <c r="P10" s="39"/>
       <c r="Q10" s="39"/>
@@ -38941,15 +39001,15 @@
         <v>6.063194444444445</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="186" t="s">
+      <c r="J17" s="187" t="s">
         <v>288</v>
       </c>
-      <c r="K17" s="187"/>
+      <c r="K17" s="188"/>
       <c r="L17" s="136"/>
-      <c r="M17" s="186" t="s">
+      <c r="M17" s="187" t="s">
         <v>289</v>
       </c>
-      <c r="N17" s="187"/>
+      <c r="N17" s="188"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
@@ -39171,15 +39231,15 @@
         <v>0.50555555555555554</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="186" t="s">
+      <c r="J22" s="187" t="s">
         <v>290</v>
       </c>
-      <c r="K22" s="187"/>
+      <c r="K22" s="188"/>
       <c r="L22" s="136"/>
-      <c r="M22" s="186" t="s">
+      <c r="M22" s="187" t="s">
         <v>291</v>
       </c>
-      <c r="N22" s="187"/>
+      <c r="N22" s="188"/>
       <c r="O22" s="39"/>
       <c r="P22" s="63" t="s">
         <v>32</v>
@@ -39530,15 +39590,15 @@
         <v>2.6388888888888889E-2</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="186" t="s">
+      <c r="J28" s="187" t="s">
         <v>292</v>
       </c>
-      <c r="K28" s="187"/>
+      <c r="K28" s="188"/>
       <c r="L28" s="136"/>
-      <c r="M28" s="186" t="s">
+      <c r="M28" s="187" t="s">
         <v>293</v>
       </c>
-      <c r="N28" s="187"/>
+      <c r="N28" s="188"/>
       <c r="O28" s="39"/>
       <c r="P28" s="93" t="s">
         <v>38</v>
@@ -39904,15 +39964,15 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="I34" s="39"/>
-      <c r="J34" s="186" t="s">
+      <c r="J34" s="187" t="s">
         <v>294</v>
       </c>
-      <c r="K34" s="187"/>
+      <c r="K34" s="188"/>
       <c r="L34" s="136"/>
-      <c r="M34" s="186" t="s">
+      <c r="M34" s="187" t="s">
         <v>295</v>
       </c>
-      <c r="N34" s="187"/>
+      <c r="N34" s="188"/>
       <c r="O34" s="39"/>
       <c r="P34" s="125" t="s">
         <v>77</v>
@@ -40019,9 +40079,9 @@
         <v>0.36944444444444446</v>
       </c>
       <c r="O36" s="39"/>
-      <c r="P36" s="185"/>
-      <c r="Q36" s="185"/>
-      <c r="R36" s="185"/>
+      <c r="P36" s="179"/>
+      <c r="Q36" s="179"/>
+      <c r="R36" s="179"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -40066,9 +40126,9 @@
         <v>7.9166666666666663E-2</v>
       </c>
       <c r="O37" s="39"/>
-      <c r="P37" s="189"/>
-      <c r="Q37" s="185"/>
-      <c r="R37" s="185"/>
+      <c r="P37" s="186"/>
+      <c r="Q37" s="179"/>
+      <c r="R37" s="179"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -40100,9 +40160,9 @@
       </c>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="185"/>
-      <c r="Q38" s="185"/>
-      <c r="R38" s="185"/>
+      <c r="P38" s="179"/>
+      <c r="Q38" s="179"/>
+      <c r="R38" s="179"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -40120,9 +40180,9 @@
       <c r="H39" s="138"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="185"/>
-      <c r="Q39" s="185"/>
-      <c r="R39" s="185"/>
+      <c r="P39" s="179"/>
+      <c r="Q39" s="179"/>
+      <c r="R39" s="179"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -40140,9 +40200,9 @@
       <c r="H40" s="61"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="185"/>
-      <c r="Q40" s="185"/>
-      <c r="R40" s="185"/>
+      <c r="P40" s="179"/>
+      <c r="Q40" s="179"/>
+      <c r="R40" s="179"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -40160,9 +40220,9 @@
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="185"/>
-      <c r="Q41" s="185"/>
-      <c r="R41" s="185"/>
+      <c r="P41" s="179"/>
+      <c r="Q41" s="179"/>
+      <c r="R41" s="179"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -43114,24 +43174,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M17:N17"/>
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
@@ -43230,15 +43290,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="186" t="s">
+      <c r="J2" s="187" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="187"/>
+      <c r="K2" s="188"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="186" t="s">
+      <c r="M2" s="187" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="187"/>
+      <c r="N2" s="188"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -43444,15 +43504,15 @@
         <v>0.33749999999999997</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="186" t="s">
+      <c r="J7" s="187" t="s">
         <v>286</v>
       </c>
-      <c r="K7" s="187"/>
+      <c r="K7" s="188"/>
       <c r="L7" s="136"/>
-      <c r="M7" s="186" t="s">
+      <c r="M7" s="187" t="s">
         <v>287</v>
       </c>
-      <c r="N7" s="187"/>
+      <c r="N7" s="188"/>
       <c r="O7" s="39"/>
       <c r="P7" s="39"/>
       <c r="Q7" s="39"/>
@@ -43659,15 +43719,15 @@
         <v>0.48819444444444443</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="186" t="s">
+      <c r="J12" s="187" t="s">
         <v>288</v>
       </c>
-      <c r="K12" s="187"/>
+      <c r="K12" s="188"/>
       <c r="L12" s="136"/>
-      <c r="M12" s="186" t="s">
+      <c r="M12" s="187" t="s">
         <v>289</v>
       </c>
-      <c r="N12" s="187"/>
+      <c r="N12" s="188"/>
       <c r="O12" s="39"/>
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
@@ -43917,15 +43977,15 @@
         <v>2.6659722222222224</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="186" t="s">
+      <c r="J18" s="187" t="s">
         <v>290</v>
       </c>
-      <c r="K18" s="187"/>
+      <c r="K18" s="188"/>
       <c r="L18" s="136"/>
-      <c r="M18" s="186" t="s">
+      <c r="M18" s="187" t="s">
         <v>291</v>
       </c>
-      <c r="N18" s="187"/>
+      <c r="N18" s="188"/>
       <c r="O18" s="39"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="39"/>
@@ -44162,15 +44222,15 @@
         <v>1.8131944444444446</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="186" t="s">
+      <c r="J23" s="187" t="s">
         <v>292</v>
       </c>
-      <c r="K23" s="187"/>
+      <c r="K23" s="188"/>
       <c r="L23" s="136"/>
-      <c r="M23" s="186" t="s">
+      <c r="M23" s="187" t="s">
         <v>293</v>
       </c>
-      <c r="N23" s="187"/>
+      <c r="N23" s="188"/>
       <c r="O23" s="39"/>
       <c r="P23" s="94" t="s">
         <v>33</v>
@@ -44526,15 +44586,15 @@
         <v>0.11527777777777778</v>
       </c>
       <c r="I29" s="39"/>
-      <c r="J29" s="186" t="s">
+      <c r="J29" s="187" t="s">
         <v>294</v>
       </c>
-      <c r="K29" s="187"/>
+      <c r="K29" s="188"/>
       <c r="L29" s="136"/>
-      <c r="M29" s="186" t="s">
+      <c r="M29" s="187" t="s">
         <v>295</v>
       </c>
-      <c r="N29" s="187"/>
+      <c r="N29" s="188"/>
       <c r="O29" s="39"/>
       <c r="P29" s="94" t="s">
         <v>39</v>
@@ -44866,9 +44926,9 @@
       <c r="H36" s="61"/>
       <c r="I36" s="39"/>
       <c r="O36" s="39"/>
-      <c r="P36" s="185"/>
-      <c r="Q36" s="185"/>
-      <c r="R36" s="185"/>
+      <c r="P36" s="179"/>
+      <c r="Q36" s="179"/>
+      <c r="R36" s="179"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -44886,9 +44946,9 @@
       <c r="H37" s="61"/>
       <c r="I37" s="39"/>
       <c r="O37" s="39"/>
-      <c r="P37" s="189"/>
-      <c r="Q37" s="185"/>
-      <c r="R37" s="185"/>
+      <c r="P37" s="186"/>
+      <c r="Q37" s="179"/>
+      <c r="R37" s="179"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -44906,9 +44966,9 @@
       <c r="H38" s="61"/>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="185"/>
-      <c r="Q38" s="185"/>
-      <c r="R38" s="185"/>
+      <c r="P38" s="179"/>
+      <c r="Q38" s="179"/>
+      <c r="R38" s="179"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -44926,9 +44986,9 @@
       <c r="H39" s="61"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="185"/>
-      <c r="Q39" s="185"/>
-      <c r="R39" s="185"/>
+      <c r="P39" s="179"/>
+      <c r="Q39" s="179"/>
+      <c r="R39" s="179"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -44946,9 +45006,9 @@
       <c r="H40" s="62"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="185"/>
-      <c r="Q40" s="185"/>
-      <c r="R40" s="185"/>
+      <c r="P40" s="179"/>
+      <c r="Q40" s="179"/>
+      <c r="R40" s="179"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -44966,9 +45026,9 @@
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="185"/>
-      <c r="Q41" s="185"/>
-      <c r="R41" s="185"/>
+      <c r="P41" s="179"/>
+      <c r="Q41" s="179"/>
+      <c r="R41" s="179"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -47923,6 +47983,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="P38:R38"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="M2:N2"/>
@@ -47936,11 +48001,6 @@
     <mergeCell ref="M23:N23"/>
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="J29:K29"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="P38:R38"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
@@ -47960,8 +48020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF62C77-56E1-46D1-8A04-9C8B0CAA13F7}">
   <dimension ref="A1:Z153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -48038,15 +48098,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="186" t="s">
+      <c r="J2" s="187" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="187"/>
+      <c r="K2" s="188"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="186" t="s">
+      <c r="M2" s="187" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="187"/>
+      <c r="N2" s="188"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -48256,15 +48316,15 @@
         <v>2.5249999999999999</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="186" t="s">
+      <c r="J7" s="187" t="s">
         <v>286</v>
       </c>
-      <c r="K7" s="187"/>
+      <c r="K7" s="188"/>
       <c r="L7" s="136"/>
-      <c r="M7" s="186" t="s">
+      <c r="M7" s="187" t="s">
         <v>287</v>
       </c>
-      <c r="N7" s="187"/>
+      <c r="N7" s="188"/>
       <c r="O7" s="39"/>
       <c r="P7" s="39"/>
       <c r="Q7" s="39"/>
@@ -48462,15 +48522,15 @@
         <v>1.8055555555555554E-2</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="186" t="s">
+      <c r="J12" s="187" t="s">
         <v>288</v>
       </c>
-      <c r="K12" s="187"/>
+      <c r="K12" s="188"/>
       <c r="L12" s="136"/>
-      <c r="M12" s="186" t="s">
+      <c r="M12" s="187" t="s">
         <v>289</v>
       </c>
-      <c r="N12" s="187"/>
+      <c r="N12" s="188"/>
       <c r="O12" s="39"/>
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
@@ -48677,15 +48737,15 @@
         <v>0.30902777777777779</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="186" t="s">
+      <c r="J17" s="187" t="s">
         <v>290</v>
       </c>
-      <c r="K17" s="187"/>
+      <c r="K17" s="188"/>
       <c r="L17" s="136"/>
-      <c r="M17" s="186" t="s">
+      <c r="M17" s="187" t="s">
         <v>291</v>
       </c>
-      <c r="N17" s="187"/>
+      <c r="N17" s="188"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
@@ -48720,8 +48780,12 @@
         <v>0.5708333333333333</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="168"/>
-      <c r="K18" s="72"/>
+      <c r="J18" s="168" t="s">
+        <v>555</v>
+      </c>
+      <c r="K18" s="72">
+        <v>0.79513888888888884</v>
+      </c>
       <c r="L18" s="137"/>
       <c r="M18" s="131"/>
       <c r="N18" s="72"/>
@@ -48759,8 +48823,12 @@
         <v>1.3368055555555556</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="60"/>
+      <c r="J19" s="114" t="s">
+        <v>611</v>
+      </c>
+      <c r="K19" s="60">
+        <v>0.28749999999999998</v>
+      </c>
       <c r="L19" s="137"/>
       <c r="M19" s="101"/>
       <c r="N19" s="60"/>
@@ -48881,22 +48949,23 @@
       <c r="F22" s="69" t="s">
         <v>181</v>
       </c>
-      <c r="G22" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="60" t="s">
-        <v>13</v>
+      <c r="G22" s="69">
+        <v>45847</v>
+      </c>
+      <c r="H22" s="60">
+        <f>SUM(X27,W28)</f>
+        <v>2.0166666666666666</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="186" t="s">
+      <c r="J22" s="187" t="s">
         <v>292</v>
       </c>
-      <c r="K22" s="187"/>
+      <c r="K22" s="188"/>
       <c r="L22" s="136"/>
-      <c r="M22" s="186" t="s">
+      <c r="M22" s="187" t="s">
         <v>293</v>
       </c>
-      <c r="N22" s="187"/>
+      <c r="N22" s="188"/>
       <c r="O22" s="39"/>
       <c r="P22" s="63" t="s">
         <v>32</v>
@@ -48929,12 +48998,24 @@
       <c r="B23" s="70">
         <v>21</v>
       </c>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="75"/>
+      <c r="C23" s="73" t="s">
+        <v>608</v>
+      </c>
+      <c r="D23" s="73">
+        <v>2006</v>
+      </c>
+      <c r="E23" s="152" t="s">
+        <v>609</v>
+      </c>
+      <c r="F23" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="G23" s="74" t="s">
+        <v>194</v>
+      </c>
+      <c r="H23" s="75">
+        <v>0.5229166666666667</v>
+      </c>
       <c r="I23" s="6"/>
       <c r="J23" s="168"/>
       <c r="K23" s="72"/>
@@ -48973,12 +49054,24 @@
       <c r="B24" s="78">
         <v>22</v>
       </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="60"/>
+      <c r="C24" s="54" t="s">
+        <v>610</v>
+      </c>
+      <c r="D24" s="54">
+        <v>2008</v>
+      </c>
+      <c r="E24" s="153" t="s">
+        <v>609</v>
+      </c>
+      <c r="F24" s="69" t="s">
+        <v>423</v>
+      </c>
+      <c r="G24" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="60">
+        <v>0.6645833333333333</v>
+      </c>
       <c r="I24" s="39"/>
       <c r="J24" s="114"/>
       <c r="K24" s="60"/>
@@ -49019,12 +49112,24 @@
       <c r="B25" s="70">
         <v>23</v>
       </c>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="152"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="75"/>
+      <c r="C25" s="73" t="s">
+        <v>612</v>
+      </c>
+      <c r="D25" s="73">
+        <v>2025</v>
+      </c>
+      <c r="E25" s="152" t="s">
+        <v>440</v>
+      </c>
+      <c r="F25" s="74" t="s">
+        <v>613</v>
+      </c>
+      <c r="G25" s="74" t="s">
+        <v>613</v>
+      </c>
+      <c r="H25" s="75">
+        <v>9.0277777777777769E-3</v>
+      </c>
       <c r="I25" s="39"/>
       <c r="J25" s="135"/>
       <c r="K25" s="77"/>
@@ -49067,12 +49172,24 @@
       <c r="B26" s="78">
         <v>24</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="153"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="60"/>
+      <c r="C26" s="54" t="s">
+        <v>614</v>
+      </c>
+      <c r="D26" s="54">
+        <v>2007</v>
+      </c>
+      <c r="E26" s="153" t="s">
+        <v>440</v>
+      </c>
+      <c r="F26" s="69" t="s">
+        <v>613</v>
+      </c>
+      <c r="G26" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="60" t="s">
+        <v>13</v>
+      </c>
       <c r="I26" s="39"/>
       <c r="O26" s="39"/>
       <c r="P26" s="93" t="s">
@@ -49117,15 +49234,15 @@
       <c r="G27" s="74"/>
       <c r="H27" s="75"/>
       <c r="I27" s="39"/>
-      <c r="J27" s="186" t="s">
+      <c r="J27" s="187" t="s">
         <v>294</v>
       </c>
-      <c r="K27" s="187"/>
+      <c r="K27" s="188"/>
       <c r="L27" s="136"/>
-      <c r="M27" s="186" t="s">
+      <c r="M27" s="187" t="s">
         <v>295</v>
       </c>
-      <c r="N27" s="187"/>
+      <c r="N27" s="188"/>
       <c r="O27" s="39"/>
       <c r="P27" s="94" t="s">
         <v>37</v>
@@ -49176,17 +49293,29 @@
       <c r="P28" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="81"/>
-      <c r="R28" s="81"/>
+      <c r="Q28" s="81">
+        <f>SUM(W28:X28,H23:H25)</f>
+        <v>2.9493055555555556</v>
+      </c>
+      <c r="R28" s="81">
+        <f>SUM(K18:K19)</f>
+        <v>1.0826388888888889</v>
+      </c>
       <c r="S28" s="97">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.031944444444445</v>
       </c>
       <c r="T28" s="39"/>
-      <c r="U28" s="99"/>
+      <c r="U28" s="99" t="s">
+        <v>615</v>
+      </c>
       <c r="V28" s="146"/>
-      <c r="W28" s="147"/>
-      <c r="X28" s="147"/>
+      <c r="W28" s="147">
+        <v>1.523611111111111</v>
+      </c>
+      <c r="X28" s="147">
+        <v>0.22916666666666666</v>
+      </c>
       <c r="Y28" s="147"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -49375,15 +49504,15 @@
       </c>
       <c r="Q34" s="126">
         <f>SUM(Q22:Q33)</f>
-        <v>14.81388888888889</v>
+        <v>17.763194444444444</v>
       </c>
       <c r="R34" s="126">
         <f>SUM(R22:R33)</f>
-        <v>4.1902777777777782</v>
+        <v>5.2729166666666671</v>
       </c>
       <c r="S34" s="127">
         <f>SUM(S22:S33)</f>
-        <v>19.00416666666667</v>
+        <v>23.036111111111115</v>
       </c>
       <c r="T34" s="39"/>
       <c r="U34" s="39"/>
@@ -49421,9 +49550,9 @@
       <c r="H36" s="61"/>
       <c r="I36" s="39"/>
       <c r="O36" s="39"/>
-      <c r="P36" s="185"/>
-      <c r="Q36" s="185"/>
-      <c r="R36" s="185"/>
+      <c r="P36" s="179"/>
+      <c r="Q36" s="179"/>
+      <c r="R36" s="179"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -49441,9 +49570,9 @@
       <c r="H37" s="61"/>
       <c r="I37" s="39"/>
       <c r="O37" s="39"/>
-      <c r="P37" s="189"/>
-      <c r="Q37" s="185"/>
-      <c r="R37" s="185"/>
+      <c r="P37" s="186"/>
+      <c r="Q37" s="179"/>
+      <c r="R37" s="179"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -49461,9 +49590,9 @@
       <c r="H38" s="61"/>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="185"/>
-      <c r="Q38" s="185"/>
-      <c r="R38" s="185"/>
+      <c r="P38" s="179"/>
+      <c r="Q38" s="179"/>
+      <c r="R38" s="179"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -49481,9 +49610,9 @@
       <c r="H39" s="61"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="185"/>
-      <c r="Q39" s="185"/>
-      <c r="R39" s="185"/>
+      <c r="P39" s="179"/>
+      <c r="Q39" s="179"/>
+      <c r="R39" s="179"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -49501,9 +49630,9 @@
       <c r="H40" s="62"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="185"/>
-      <c r="Q40" s="185"/>
-      <c r="R40" s="185"/>
+      <c r="P40" s="179"/>
+      <c r="Q40" s="179"/>
+      <c r="R40" s="179"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -49521,9 +49650,9 @@
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="185"/>
-      <c r="Q41" s="185"/>
-      <c r="R41" s="185"/>
+      <c r="P41" s="179"/>
+      <c r="Q41" s="179"/>
+      <c r="R41" s="179"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -51410,7 +51539,7 @@
       </c>
       <c r="R117" s="44">
         <f>COUNTIF(D1:D57,Q117)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S117" s="39"/>
       <c r="T117" s="39"/>
@@ -51920,7 +52049,7 @@
       </c>
       <c r="R134" s="46">
         <f>COUNTIF(D3:D59,Q134)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S134" s="39"/>
       <c r="T134" s="39"/>
@@ -51950,7 +52079,7 @@
       </c>
       <c r="R135" s="46">
         <f>COUNTIF(D3:D59,Q135)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S135" s="39"/>
       <c r="T135" s="39"/>
@@ -51980,7 +52109,7 @@
       </c>
       <c r="R136" s="46">
         <f>COUNTIF(D3:D59,Q136)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S136" s="39"/>
       <c r="T136" s="39"/>
@@ -52400,7 +52529,7 @@
       </c>
       <c r="R150" s="42">
         <f>SUM(R118:R149)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="S150" s="39"/>
       <c r="T150" s="39"/>
@@ -52485,6 +52614,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="M12:N12"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="J27:K27"/>
@@ -52495,14 +52632,6 @@
     <mergeCell ref="P38:R38"/>
     <mergeCell ref="P39:R39"/>
     <mergeCell ref="P40:R40"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M12:N12"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>

--- a/spreadsheets/Games.xlsx
+++ b/spreadsheets/Games.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ucer0.github.io\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8365F9DB-076B-4F6F-A671-52DE77015605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF61BC02-FD6F-484E-8E1E-25ABB4050DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="625">
   <si>
     <t>Nier: Automata</t>
   </si>
@@ -2486,9 +2497,6 @@
     <t>Castlevania: Portrait of Ruin</t>
   </si>
   <si>
-    <t>PC [EMU]</t>
-  </si>
-  <si>
     <t>Castlevania: Order of Ecclesia</t>
   </si>
   <si>
@@ -2534,6 +2542,59 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> [PoR (Ending A - 5h 07m), (Ending B - 11h 07m)], OoE (Pasarlo 14h 17m)</t>
+    </r>
+  </si>
+  <si>
+    <t>Trails From Zero</t>
+  </si>
+  <si>
+    <t>14-ago.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Recettear (20h 00m), TfZ(46h 42m), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>Recettear (21:04 ingame beat - 22h 30m, All Adventurers except Arma, Level 26, Day 47, 24h 06m ingame)
+Merchant Level 26, Day 47)</t>
+    </r>
+  </si>
+  <si>
+    <t>4-sep.</t>
+  </si>
+  <si>
+    <t>Hollow Knight: Silksong</t>
+  </si>
+  <si>
+    <t>14-sep.</t>
+  </si>
+  <si>
+    <t>DS [EMU]</t>
+  </si>
+  <si>
+    <t>Chrono Gear</t>
+  </si>
+  <si>
+    <t>Trails in the Sky 1st Chapter</t>
+  </si>
+  <si>
+    <r>
+      <t>TfZ (10h 12m), TitSR(22h 24)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>, TfZ (ingame 54h 53m), Silksong (46h 52m, 100%)</t>
     </r>
   </si>
 </sst>
@@ -3498,9 +3559,6 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
@@ -3519,7 +3577,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3530,6 +3588,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5157,7 +5218,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
@@ -5202,7 +5263,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -5532,6 +5593,9 @@
                 <c:pt idx="6">
                   <c:v>2.9493055555555556</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7791666666666668</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5638,6 +5702,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.0826388888888889</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92500000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23480,7 +23547,7 @@
         <v>4.197916666666667</v>
       </c>
       <c r="I3" s="6"/>
-      <c r="J3" s="183" t="s">
+      <c r="J3" s="182" t="s">
         <v>118</v>
       </c>
       <c r="K3" s="80" t="s">
@@ -23554,7 +23621,7 @@
         <v>0.30138888888888887</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="184"/>
+      <c r="J4" s="183"/>
       <c r="K4" s="54" t="s">
         <v>127</v>
       </c>
@@ -23626,7 +23693,7 @@
         <v>0.2076388888888889</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="184"/>
+      <c r="J5" s="183"/>
       <c r="K5" s="73" t="s">
         <v>132</v>
       </c>
@@ -23698,7 +23765,7 @@
         <v>1.2437499999999999</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="184"/>
+      <c r="J6" s="183"/>
       <c r="K6" s="54" t="s">
         <v>129</v>
       </c>
@@ -23770,7 +23837,7 @@
         <v>0.27916666666666667</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="184"/>
+      <c r="J7" s="183"/>
       <c r="K7" s="73" t="s">
         <v>136</v>
       </c>
@@ -23842,7 +23909,7 @@
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="184"/>
+      <c r="J8" s="183"/>
       <c r="K8" s="54" t="s">
         <v>137</v>
       </c>
@@ -23914,7 +23981,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="183" t="s">
+      <c r="J9" s="182" t="s">
         <v>119</v>
       </c>
       <c r="K9" s="71" t="s">
@@ -23988,7 +24055,7 @@
         <v>0.19027777777777777</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="184"/>
+      <c r="J10" s="183"/>
       <c r="K10" s="54" t="s">
         <v>127</v>
       </c>
@@ -24060,7 +24127,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="184"/>
+      <c r="J11" s="183"/>
       <c r="K11" s="73" t="s">
         <v>132</v>
       </c>
@@ -24132,7 +24199,7 @@
         <v>1.7097222222222221</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="184"/>
+      <c r="J12" s="183"/>
       <c r="K12" s="54" t="s">
         <v>129</v>
       </c>
@@ -24204,7 +24271,7 @@
         <v>0.15972222222222224</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="184"/>
+      <c r="J13" s="183"/>
       <c r="K13" s="73" t="s">
         <v>141</v>
       </c>
@@ -24276,7 +24343,7 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="183" t="s">
+      <c r="J14" s="182" t="s">
         <v>120</v>
       </c>
       <c r="K14" s="10" t="s">
@@ -24350,7 +24417,7 @@
         <v>0.59652777777777777</v>
       </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="184"/>
+      <c r="J15" s="183"/>
       <c r="K15" s="73" t="s">
         <v>127</v>
       </c>
@@ -24422,7 +24489,7 @@
         <v>13</v>
       </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="184"/>
+      <c r="J16" s="183"/>
       <c r="K16" s="54" t="s">
         <v>132</v>
       </c>
@@ -24494,7 +24561,7 @@
         <v>13</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="184"/>
+      <c r="J17" s="183"/>
       <c r="K17" s="73" t="s">
         <v>129</v>
       </c>
@@ -24566,7 +24633,7 @@
         <v>0.24583333333333335</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="184"/>
+      <c r="J18" s="183"/>
       <c r="K18" s="54" t="s">
         <v>144</v>
       </c>
@@ -24638,7 +24705,7 @@
         <v>0.49513888888888885</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="185"/>
+      <c r="J19" s="184"/>
       <c r="K19" s="76" t="s">
         <v>150</v>
       </c>
@@ -24710,7 +24777,7 @@
         <v>0.20972222222222223</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="J20" s="183" t="s">
+      <c r="J20" s="182" t="s">
         <v>143</v>
       </c>
       <c r="K20" s="10" t="s">
@@ -24784,7 +24851,7 @@
         <v>0.25486111111111109</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="185"/>
+      <c r="J21" s="184"/>
       <c r="K21" s="76" t="s">
         <v>141</v>
       </c>
@@ -24866,7 +24933,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="184" t="s">
+      <c r="J22" s="183" t="s">
         <v>161</v>
       </c>
       <c r="K22" s="54" t="s">
@@ -24952,7 +25019,7 @@
         <v>0.26944444444444443</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="184"/>
+      <c r="J23" s="183"/>
       <c r="K23" s="80" t="s">
         <v>169</v>
       </c>
@@ -25036,7 +25103,7 @@
         <v>0.3263888888888889</v>
       </c>
       <c r="I24" s="39"/>
-      <c r="J24" s="184"/>
+      <c r="J24" s="183"/>
       <c r="K24" s="54" t="s">
         <v>163</v>
       </c>
@@ -25120,7 +25187,7 @@
         <v>0.32847222222222222</v>
       </c>
       <c r="I25" s="39"/>
-      <c r="J25" s="184"/>
+      <c r="J25" s="183"/>
       <c r="K25" s="73" t="s">
         <v>141</v>
       </c>
@@ -25204,7 +25271,7 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="I26" s="39"/>
-      <c r="J26" s="185"/>
+      <c r="J26" s="184"/>
       <c r="K26" s="11" t="s">
         <v>162</v>
       </c>
@@ -25288,7 +25355,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="I27" s="39"/>
-      <c r="J27" s="183" t="s">
+      <c r="J27" s="182" t="s">
         <v>171</v>
       </c>
       <c r="K27" s="73" t="s">
@@ -25374,7 +25441,7 @@
         <v>0.22291666666666665</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="184"/>
+      <c r="J28" s="183"/>
       <c r="K28" s="101" t="s">
         <v>163</v>
       </c>
@@ -25458,7 +25525,7 @@
         <v>0.13194444444444445</v>
       </c>
       <c r="I29" s="39"/>
-      <c r="J29" s="184"/>
+      <c r="J29" s="183"/>
       <c r="K29" s="73" t="s">
         <v>29</v>
       </c>
@@ -25542,7 +25609,7 @@
         <v>13</v>
       </c>
       <c r="I30" s="39"/>
-      <c r="J30" s="184"/>
+      <c r="J30" s="183"/>
       <c r="K30" s="101" t="s">
         <v>136</v>
       </c>
@@ -25626,7 +25693,7 @@
         <v>0.43888888888888888</v>
       </c>
       <c r="I31" s="39"/>
-      <c r="J31" s="185"/>
+      <c r="J31" s="184"/>
       <c r="K31" s="73" t="s">
         <v>141</v>
       </c>
@@ -25710,7 +25777,7 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="I32" s="39"/>
-      <c r="J32" s="183" t="s">
+      <c r="J32" s="182" t="s">
         <v>184</v>
       </c>
       <c r="K32" s="107" t="s">
@@ -25796,7 +25863,7 @@
         <v>2.7097222222222221</v>
       </c>
       <c r="I33" s="39"/>
-      <c r="J33" s="184"/>
+      <c r="J33" s="183"/>
       <c r="K33" s="73" t="s">
         <v>179</v>
       </c>
@@ -25882,7 +25949,7 @@
         <v>13</v>
       </c>
       <c r="I34" s="39"/>
-      <c r="J34" s="184"/>
+      <c r="J34" s="183"/>
       <c r="K34" s="54" t="s">
         <v>199</v>
       </c>
@@ -25965,7 +26032,7 @@
         <v>0.11041666666666666</v>
       </c>
       <c r="I35" s="39"/>
-      <c r="J35" s="184"/>
+      <c r="J35" s="183"/>
       <c r="K35" s="80" t="s">
         <v>198</v>
       </c>
@@ -26037,7 +26104,7 @@
         <v>0.37083333333333335</v>
       </c>
       <c r="I36" s="39"/>
-      <c r="J36" s="184"/>
+      <c r="J36" s="183"/>
       <c r="K36" s="54" t="s">
         <v>141</v>
       </c>
@@ -26045,9 +26112,9 @@
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="M36" s="39"/>
-      <c r="N36" s="179"/>
-      <c r="O36" s="179"/>
-      <c r="P36" s="179"/>
+      <c r="N36" s="185"/>
+      <c r="O36" s="185"/>
+      <c r="P36" s="185"/>
       <c r="Q36" s="111"/>
       <c r="R36" s="16"/>
       <c r="S36" s="16"/>
@@ -26109,7 +26176,7 @@
         <v>0.80694444444444446</v>
       </c>
       <c r="I37" s="39"/>
-      <c r="J37" s="184"/>
+      <c r="J37" s="183"/>
       <c r="K37" s="80" t="s">
         <v>196</v>
       </c>
@@ -26117,9 +26184,9 @@
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="M37" s="39"/>
-      <c r="N37" s="179"/>
-      <c r="O37" s="179"/>
-      <c r="P37" s="179"/>
+      <c r="N37" s="185"/>
+      <c r="O37" s="185"/>
+      <c r="P37" s="185"/>
       <c r="Q37" s="111"/>
       <c r="R37" s="16"/>
       <c r="S37" s="16"/>
@@ -26181,7 +26248,7 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="I38" s="39"/>
-      <c r="J38" s="185"/>
+      <c r="J38" s="184"/>
       <c r="K38" s="11" t="s">
         <v>202</v>
       </c>
@@ -26189,9 +26256,9 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="M38" s="39"/>
-      <c r="N38" s="179"/>
-      <c r="O38" s="179"/>
-      <c r="P38" s="179"/>
+      <c r="N38" s="185"/>
+      <c r="O38" s="185"/>
+      <c r="P38" s="185"/>
       <c r="Q38" s="111"/>
       <c r="R38" s="16"/>
       <c r="S38" s="16"/>
@@ -26239,7 +26306,7 @@
       <c r="G39" s="30"/>
       <c r="H39" s="61"/>
       <c r="I39" s="39"/>
-      <c r="J39" s="183" t="s">
+      <c r="J39" s="182" t="s">
         <v>209</v>
       </c>
       <c r="K39" s="116" t="s">
@@ -26249,9 +26316,9 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="M39" s="39"/>
-      <c r="N39" s="179"/>
-      <c r="O39" s="179"/>
-      <c r="P39" s="179"/>
+      <c r="N39" s="185"/>
+      <c r="O39" s="185"/>
+      <c r="P39" s="185"/>
       <c r="Q39" s="124"/>
       <c r="R39" s="16"/>
       <c r="S39" s="16"/>
@@ -26299,7 +26366,7 @@
       <c r="G40" s="39"/>
       <c r="H40" s="62"/>
       <c r="I40" s="39"/>
-      <c r="J40" s="184"/>
+      <c r="J40" s="183"/>
       <c r="K40" s="113" t="s">
         <v>210</v>
       </c>
@@ -26307,9 +26374,9 @@
         <v>0.3666666666666667</v>
       </c>
       <c r="M40" s="39"/>
-      <c r="N40" s="179"/>
-      <c r="O40" s="179"/>
-      <c r="P40" s="179"/>
+      <c r="N40" s="185"/>
+      <c r="O40" s="185"/>
+      <c r="P40" s="185"/>
       <c r="Q40" s="124"/>
       <c r="R40" s="16"/>
       <c r="S40" s="16"/>
@@ -26356,7 +26423,7 @@
       <c r="G41" s="30"/>
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
-      <c r="J41" s="184"/>
+      <c r="J41" s="183"/>
       <c r="K41" s="112" t="s">
         <v>179</v>
       </c>
@@ -26364,9 +26431,9 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="M41" s="39"/>
-      <c r="N41" s="179"/>
-      <c r="O41" s="179"/>
-      <c r="P41" s="179"/>
+      <c r="N41" s="185"/>
+      <c r="O41" s="185"/>
+      <c r="P41" s="185"/>
       <c r="Q41" s="124"/>
       <c r="R41" s="16"/>
       <c r="S41" s="16"/>
@@ -26414,7 +26481,7 @@
       <c r="G42" s="30"/>
       <c r="H42" s="61"/>
       <c r="I42" s="39"/>
-      <c r="J42" s="184"/>
+      <c r="J42" s="183"/>
       <c r="K42" s="114" t="s">
         <v>136</v>
       </c>
@@ -26472,7 +26539,7 @@
       <c r="G43" s="39"/>
       <c r="H43" s="62"/>
       <c r="I43" s="39"/>
-      <c r="J43" s="184"/>
+      <c r="J43" s="183"/>
       <c r="K43" s="112" t="s">
         <v>212</v>
       </c>
@@ -26530,7 +26597,7 @@
       <c r="G44" s="39"/>
       <c r="H44" s="62"/>
       <c r="I44" s="39"/>
-      <c r="J44" s="184"/>
+      <c r="J44" s="183"/>
       <c r="K44" s="113" t="s">
         <v>213</v>
       </c>
@@ -26588,7 +26655,7 @@
       <c r="G45" s="39"/>
       <c r="H45" s="62"/>
       <c r="I45" s="39"/>
-      <c r="J45" s="185"/>
+      <c r="J45" s="184"/>
       <c r="K45" s="115" t="s">
         <v>141</v>
       </c>
@@ -26646,7 +26713,7 @@
       <c r="G46" s="39"/>
       <c r="H46" s="62"/>
       <c r="I46" s="39"/>
-      <c r="J46" s="180" t="s">
+      <c r="J46" s="179" t="s">
         <v>217</v>
       </c>
       <c r="K46" s="119" t="s">
@@ -26706,7 +26773,7 @@
       <c r="G47" s="39"/>
       <c r="H47" s="62"/>
       <c r="I47" s="39"/>
-      <c r="J47" s="181"/>
+      <c r="J47" s="180"/>
       <c r="K47" s="80" t="s">
         <v>179</v>
       </c>
@@ -26764,7 +26831,7 @@
       <c r="G48" s="39"/>
       <c r="H48" s="62"/>
       <c r="I48" s="39"/>
-      <c r="J48" s="181"/>
+      <c r="J48" s="180"/>
       <c r="K48" s="101" t="s">
         <v>136</v>
       </c>
@@ -26822,7 +26889,7 @@
       <c r="G49" s="39"/>
       <c r="H49" s="62"/>
       <c r="I49" s="39"/>
-      <c r="J49" s="182"/>
+      <c r="J49" s="181"/>
       <c r="K49" s="120" t="s">
         <v>213</v>
       </c>
@@ -26880,7 +26947,7 @@
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
       <c r="I50" s="39"/>
-      <c r="J50" s="180" t="s">
+      <c r="J50" s="179" t="s">
         <v>232</v>
       </c>
       <c r="K50" s="121" t="s">
@@ -26940,7 +27007,7 @@
       <c r="G51" s="39"/>
       <c r="H51" s="39"/>
       <c r="I51" s="39"/>
-      <c r="J51" s="181"/>
+      <c r="J51" s="180"/>
       <c r="K51" s="122" t="s">
         <v>179</v>
       </c>
@@ -26998,7 +27065,7 @@
       <c r="G52" s="39"/>
       <c r="H52" s="39"/>
       <c r="I52" s="39"/>
-      <c r="J52" s="181"/>
+      <c r="J52" s="180"/>
       <c r="K52" s="114" t="s">
         <v>235</v>
       </c>
@@ -27056,7 +27123,7 @@
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
       <c r="I53" s="39"/>
-      <c r="J53" s="182"/>
+      <c r="J53" s="181"/>
       <c r="K53" s="115" t="s">
         <v>211</v>
       </c>
@@ -27114,7 +27181,7 @@
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
       <c r="I54" s="39"/>
-      <c r="J54" s="180" t="s">
+      <c r="J54" s="179" t="s">
         <v>243</v>
       </c>
       <c r="K54" s="121" t="s">
@@ -27174,7 +27241,7 @@
       <c r="G55" s="39"/>
       <c r="H55" s="39"/>
       <c r="I55" s="39"/>
-      <c r="J55" s="181"/>
+      <c r="J55" s="180"/>
       <c r="K55" s="122" t="s">
         <v>242</v>
       </c>
@@ -27232,7 +27299,7 @@
       <c r="G56" s="39"/>
       <c r="H56" s="39"/>
       <c r="I56" s="39"/>
-      <c r="J56" s="181"/>
+      <c r="J56" s="180"/>
       <c r="K56" s="114" t="s">
         <v>29</v>
       </c>
@@ -27290,7 +27357,7 @@
       <c r="G57" s="39"/>
       <c r="H57" s="39"/>
       <c r="I57" s="39"/>
-      <c r="J57" s="182"/>
+      <c r="J57" s="181"/>
       <c r="K57" s="115" t="s">
         <v>199</v>
       </c>
@@ -27348,7 +27415,7 @@
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
       <c r="I58" s="39"/>
-      <c r="J58" s="180" t="s">
+      <c r="J58" s="179" t="s">
         <v>246</v>
       </c>
       <c r="K58" s="121" t="s">
@@ -27408,7 +27475,7 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
       <c r="I59" s="39"/>
-      <c r="J59" s="181"/>
+      <c r="J59" s="180"/>
       <c r="K59" s="122" t="s">
         <v>235</v>
       </c>
@@ -27466,7 +27533,7 @@
       <c r="G60" s="39"/>
       <c r="H60" s="39"/>
       <c r="I60" s="39"/>
-      <c r="J60" s="181"/>
+      <c r="J60" s="180"/>
       <c r="K60" s="114" t="s">
         <v>242</v>
       </c>
@@ -27524,7 +27591,7 @@
       <c r="G61" s="39"/>
       <c r="H61" s="39"/>
       <c r="I61" s="39"/>
-      <c r="J61" s="181"/>
+      <c r="J61" s="180"/>
       <c r="K61" s="122" t="s">
         <v>245</v>
       </c>
@@ -27582,7 +27649,7 @@
       <c r="G62" s="39"/>
       <c r="H62" s="39"/>
       <c r="I62" s="39"/>
-      <c r="J62" s="181"/>
+      <c r="J62" s="180"/>
       <c r="K62" s="114" t="s">
         <v>29</v>
       </c>
@@ -27640,7 +27707,7 @@
       <c r="G63" s="39"/>
       <c r="H63" s="39"/>
       <c r="I63" s="39"/>
-      <c r="J63" s="182"/>
+      <c r="J63" s="181"/>
       <c r="K63" s="115" t="s">
         <v>199</v>
       </c>
@@ -33389,6 +33456,12 @@
     <sortCondition ref="K33"/>
   </sortState>
   <mergeCells count="18">
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="N39:P39"/>
     <mergeCell ref="J58:J63"/>
     <mergeCell ref="J54:J57"/>
     <mergeCell ref="J50:J53"/>
@@ -33401,12 +33474,6 @@
     <mergeCell ref="J32:J38"/>
     <mergeCell ref="J27:J31"/>
     <mergeCell ref="J14:J19"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="N39:P39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -33498,15 +33565,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="187" t="s">
+      <c r="J2" s="186" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="189"/>
+      <c r="K2" s="188"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="189" t="s">
+      <c r="M2" s="188" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="188"/>
+      <c r="N2" s="187"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -33806,15 +33873,15 @@
         <v>0.20416666666666669</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="187" t="s">
+      <c r="J9" s="186" t="s">
         <v>286</v>
       </c>
-      <c r="K9" s="189"/>
+      <c r="K9" s="188"/>
       <c r="L9" s="136"/>
-      <c r="M9" s="189" t="s">
+      <c r="M9" s="188" t="s">
         <v>287</v>
       </c>
-      <c r="N9" s="188"/>
+      <c r="N9" s="187"/>
       <c r="O9" s="39"/>
       <c r="P9" s="39"/>
       <c r="Q9" s="39"/>
@@ -34021,15 +34088,15 @@
         <v>0.15208333333333332</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="187" t="s">
+      <c r="J14" s="186" t="s">
         <v>288</v>
       </c>
-      <c r="K14" s="188"/>
+      <c r="K14" s="187"/>
       <c r="L14" s="136"/>
-      <c r="M14" s="187" t="s">
+      <c r="M14" s="186" t="s">
         <v>289</v>
       </c>
-      <c r="N14" s="188"/>
+      <c r="N14" s="187"/>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
@@ -34333,15 +34400,15 @@
         <v>0.35138888888888892</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="187" t="s">
+      <c r="J21" s="186" t="s">
         <v>290</v>
       </c>
-      <c r="K21" s="188"/>
+      <c r="K21" s="187"/>
       <c r="L21" s="136"/>
-      <c r="M21" s="187" t="s">
+      <c r="M21" s="186" t="s">
         <v>291</v>
       </c>
-      <c r="N21" s="188"/>
+      <c r="N21" s="187"/>
       <c r="O21" s="39"/>
       <c r="P21" s="89" t="s">
         <v>31</v>
@@ -34723,15 +34790,15 @@
         <v>0.11805555555555557</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="187" t="s">
+      <c r="J28" s="186" t="s">
         <v>292</v>
       </c>
-      <c r="K28" s="188"/>
+      <c r="K28" s="187"/>
       <c r="L28" s="136"/>
-      <c r="M28" s="187" t="s">
+      <c r="M28" s="186" t="s">
         <v>293</v>
       </c>
-      <c r="N28" s="188"/>
+      <c r="N28" s="187"/>
       <c r="O28" s="39"/>
       <c r="P28" s="93" t="s">
         <v>38</v>
@@ -35078,15 +35145,15 @@
       <c r="G35" s="30"/>
       <c r="H35" s="61"/>
       <c r="I35" s="39"/>
-      <c r="J35" s="187" t="s">
+      <c r="J35" s="186" t="s">
         <v>294</v>
       </c>
-      <c r="K35" s="188"/>
+      <c r="K35" s="187"/>
       <c r="L35" s="136"/>
-      <c r="M35" s="187" t="s">
+      <c r="M35" s="186" t="s">
         <v>295</v>
       </c>
-      <c r="N35" s="188"/>
+      <c r="N35" s="187"/>
       <c r="O35" s="39"/>
       <c r="P35" s="39"/>
       <c r="Q35" s="39"/>
@@ -35121,9 +35188,9 @@
         <v>4.9305555555555554E-2</v>
       </c>
       <c r="O36" s="39"/>
-      <c r="P36" s="179"/>
-      <c r="Q36" s="179"/>
-      <c r="R36" s="179"/>
+      <c r="P36" s="185"/>
+      <c r="Q36" s="185"/>
+      <c r="R36" s="185"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -35154,9 +35221,9 @@
         <v>0.18472222222222223</v>
       </c>
       <c r="O37" s="39"/>
-      <c r="P37" s="186"/>
-      <c r="Q37" s="186"/>
-      <c r="R37" s="186"/>
+      <c r="P37" s="189"/>
+      <c r="Q37" s="189"/>
+      <c r="R37" s="189"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -35187,9 +35254,9 @@
         <v>0.21249999999999999</v>
       </c>
       <c r="O38" s="39"/>
-      <c r="P38" s="179"/>
-      <c r="Q38" s="179"/>
-      <c r="R38" s="179"/>
+      <c r="P38" s="185"/>
+      <c r="Q38" s="185"/>
+      <c r="R38" s="185"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -35220,9 +35287,9 @@
         <v>0.26527777777777778</v>
       </c>
       <c r="O39" s="39"/>
-      <c r="P39" s="179"/>
-      <c r="Q39" s="179"/>
-      <c r="R39" s="179"/>
+      <c r="P39" s="185"/>
+      <c r="Q39" s="185"/>
+      <c r="R39" s="185"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -35253,9 +35320,9 @@
         <v>0.75347222222222221</v>
       </c>
       <c r="O40" s="39"/>
-      <c r="P40" s="179"/>
-      <c r="Q40" s="179"/>
-      <c r="R40" s="179"/>
+      <c r="P40" s="185"/>
+      <c r="Q40" s="185"/>
+      <c r="R40" s="185"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -35281,9 +35348,9 @@
         <v>1.0513888888888889</v>
       </c>
       <c r="O41" s="39"/>
-      <c r="P41" s="179"/>
-      <c r="Q41" s="179"/>
-      <c r="R41" s="179"/>
+      <c r="P41" s="185"/>
+      <c r="Q41" s="185"/>
+      <c r="R41" s="185"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -38248,6 +38315,12 @@
     <sortCondition ref="J9"/>
   </sortState>
   <mergeCells count="18">
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
     <mergeCell ref="M35:N35"/>
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="M21:N21"/>
@@ -38260,12 +38333,6 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="J35:K35"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J116" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -38358,15 +38425,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="187" t="s">
+      <c r="J2" s="186" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="189"/>
+      <c r="K2" s="188"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="189" t="s">
+      <c r="M2" s="188" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="188"/>
+      <c r="N2" s="187"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -38696,15 +38763,15 @@
         <v>1.1847222222222222</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="187" t="s">
+      <c r="J10" s="186" t="s">
         <v>286</v>
       </c>
-      <c r="K10" s="188"/>
+      <c r="K10" s="187"/>
       <c r="L10" s="136"/>
-      <c r="M10" s="187" t="s">
+      <c r="M10" s="186" t="s">
         <v>287</v>
       </c>
-      <c r="N10" s="188"/>
+      <c r="N10" s="187"/>
       <c r="O10" s="39"/>
       <c r="P10" s="39"/>
       <c r="Q10" s="39"/>
@@ -39001,15 +39068,15 @@
         <v>6.063194444444445</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="187" t="s">
+      <c r="J17" s="186" t="s">
         <v>288</v>
       </c>
-      <c r="K17" s="188"/>
+      <c r="K17" s="187"/>
       <c r="L17" s="136"/>
-      <c r="M17" s="187" t="s">
+      <c r="M17" s="186" t="s">
         <v>289</v>
       </c>
-      <c r="N17" s="188"/>
+      <c r="N17" s="187"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
@@ -39231,15 +39298,15 @@
         <v>0.50555555555555554</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="187" t="s">
+      <c r="J22" s="186" t="s">
         <v>290</v>
       </c>
-      <c r="K22" s="188"/>
+      <c r="K22" s="187"/>
       <c r="L22" s="136"/>
-      <c r="M22" s="187" t="s">
+      <c r="M22" s="186" t="s">
         <v>291</v>
       </c>
-      <c r="N22" s="188"/>
+      <c r="N22" s="187"/>
       <c r="O22" s="39"/>
       <c r="P22" s="63" t="s">
         <v>32</v>
@@ -39590,15 +39657,15 @@
         <v>2.6388888888888889E-2</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="187" t="s">
+      <c r="J28" s="186" t="s">
         <v>292</v>
       </c>
-      <c r="K28" s="188"/>
+      <c r="K28" s="187"/>
       <c r="L28" s="136"/>
-      <c r="M28" s="187" t="s">
+      <c r="M28" s="186" t="s">
         <v>293</v>
       </c>
-      <c r="N28" s="188"/>
+      <c r="N28" s="187"/>
       <c r="O28" s="39"/>
       <c r="P28" s="93" t="s">
         <v>38</v>
@@ -39964,15 +40031,15 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="I34" s="39"/>
-      <c r="J34" s="187" t="s">
+      <c r="J34" s="186" t="s">
         <v>294</v>
       </c>
-      <c r="K34" s="188"/>
+      <c r="K34" s="187"/>
       <c r="L34" s="136"/>
-      <c r="M34" s="187" t="s">
+      <c r="M34" s="186" t="s">
         <v>295</v>
       </c>
-      <c r="N34" s="188"/>
+      <c r="N34" s="187"/>
       <c r="O34" s="39"/>
       <c r="P34" s="125" t="s">
         <v>77</v>
@@ -40079,9 +40146,9 @@
         <v>0.36944444444444446</v>
       </c>
       <c r="O36" s="39"/>
-      <c r="P36" s="179"/>
-      <c r="Q36" s="179"/>
-      <c r="R36" s="179"/>
+      <c r="P36" s="185"/>
+      <c r="Q36" s="185"/>
+      <c r="R36" s="185"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -40126,9 +40193,9 @@
         <v>7.9166666666666663E-2</v>
       </c>
       <c r="O37" s="39"/>
-      <c r="P37" s="186"/>
-      <c r="Q37" s="179"/>
-      <c r="R37" s="179"/>
+      <c r="P37" s="189"/>
+      <c r="Q37" s="185"/>
+      <c r="R37" s="185"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -40160,9 +40227,9 @@
       </c>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="179"/>
-      <c r="Q38" s="179"/>
-      <c r="R38" s="179"/>
+      <c r="P38" s="185"/>
+      <c r="Q38" s="185"/>
+      <c r="R38" s="185"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -40180,9 +40247,9 @@
       <c r="H39" s="138"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="179"/>
-      <c r="Q39" s="179"/>
-      <c r="R39" s="179"/>
+      <c r="P39" s="185"/>
+      <c r="Q39" s="185"/>
+      <c r="R39" s="185"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -40200,9 +40267,9 @@
       <c r="H40" s="61"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="179"/>
-      <c r="Q40" s="179"/>
-      <c r="R40" s="179"/>
+      <c r="P40" s="185"/>
+      <c r="Q40" s="185"/>
+      <c r="R40" s="185"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -40220,9 +40287,9 @@
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="179"/>
-      <c r="Q41" s="179"/>
-      <c r="R41" s="179"/>
+      <c r="P41" s="185"/>
+      <c r="Q41" s="185"/>
+      <c r="R41" s="185"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -43174,24 +43241,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M17:N17"/>
     <mergeCell ref="P41:R41"/>
     <mergeCell ref="P36:R36"/>
     <mergeCell ref="P37:R37"/>
     <mergeCell ref="P38:R38"/>
     <mergeCell ref="P39:R39"/>
     <mergeCell ref="P40:R40"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="J22:K22"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
@@ -43290,15 +43357,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="187" t="s">
+      <c r="J2" s="186" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="188"/>
+      <c r="K2" s="187"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="187" t="s">
+      <c r="M2" s="186" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="188"/>
+      <c r="N2" s="187"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -43504,15 +43571,15 @@
         <v>0.33749999999999997</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="187" t="s">
+      <c r="J7" s="186" t="s">
         <v>286</v>
       </c>
-      <c r="K7" s="188"/>
+      <c r="K7" s="187"/>
       <c r="L7" s="136"/>
-      <c r="M7" s="187" t="s">
+      <c r="M7" s="186" t="s">
         <v>287</v>
       </c>
-      <c r="N7" s="188"/>
+      <c r="N7" s="187"/>
       <c r="O7" s="39"/>
       <c r="P7" s="39"/>
       <c r="Q7" s="39"/>
@@ -43719,15 +43786,15 @@
         <v>0.48819444444444443</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="187" t="s">
+      <c r="J12" s="186" t="s">
         <v>288</v>
       </c>
-      <c r="K12" s="188"/>
+      <c r="K12" s="187"/>
       <c r="L12" s="136"/>
-      <c r="M12" s="187" t="s">
+      <c r="M12" s="186" t="s">
         <v>289</v>
       </c>
-      <c r="N12" s="188"/>
+      <c r="N12" s="187"/>
       <c r="O12" s="39"/>
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
@@ -43977,15 +44044,15 @@
         <v>2.6659722222222224</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="187" t="s">
+      <c r="J18" s="186" t="s">
         <v>290</v>
       </c>
-      <c r="K18" s="188"/>
+      <c r="K18" s="187"/>
       <c r="L18" s="136"/>
-      <c r="M18" s="187" t="s">
+      <c r="M18" s="186" t="s">
         <v>291</v>
       </c>
-      <c r="N18" s="188"/>
+      <c r="N18" s="187"/>
       <c r="O18" s="39"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="39"/>
@@ -44222,15 +44289,15 @@
         <v>1.8131944444444446</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="187" t="s">
+      <c r="J23" s="186" t="s">
         <v>292</v>
       </c>
-      <c r="K23" s="188"/>
+      <c r="K23" s="187"/>
       <c r="L23" s="136"/>
-      <c r="M23" s="187" t="s">
+      <c r="M23" s="186" t="s">
         <v>293</v>
       </c>
-      <c r="N23" s="188"/>
+      <c r="N23" s="187"/>
       <c r="O23" s="39"/>
       <c r="P23" s="94" t="s">
         <v>33</v>
@@ -44586,15 +44653,15 @@
         <v>0.11527777777777778</v>
       </c>
       <c r="I29" s="39"/>
-      <c r="J29" s="187" t="s">
+      <c r="J29" s="186" t="s">
         <v>294</v>
       </c>
-      <c r="K29" s="188"/>
+      <c r="K29" s="187"/>
       <c r="L29" s="136"/>
-      <c r="M29" s="187" t="s">
+      <c r="M29" s="186" t="s">
         <v>295</v>
       </c>
-      <c r="N29" s="188"/>
+      <c r="N29" s="187"/>
       <c r="O29" s="39"/>
       <c r="P29" s="94" t="s">
         <v>39</v>
@@ -44926,9 +44993,9 @@
       <c r="H36" s="61"/>
       <c r="I36" s="39"/>
       <c r="O36" s="39"/>
-      <c r="P36" s="179"/>
-      <c r="Q36" s="179"/>
-      <c r="R36" s="179"/>
+      <c r="P36" s="185"/>
+      <c r="Q36" s="185"/>
+      <c r="R36" s="185"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -44946,9 +45013,9 @@
       <c r="H37" s="61"/>
       <c r="I37" s="39"/>
       <c r="O37" s="39"/>
-      <c r="P37" s="186"/>
-      <c r="Q37" s="179"/>
-      <c r="R37" s="179"/>
+      <c r="P37" s="189"/>
+      <c r="Q37" s="185"/>
+      <c r="R37" s="185"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -44966,9 +45033,9 @@
       <c r="H38" s="61"/>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="179"/>
-      <c r="Q38" s="179"/>
-      <c r="R38" s="179"/>
+      <c r="P38" s="185"/>
+      <c r="Q38" s="185"/>
+      <c r="R38" s="185"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -44986,9 +45053,9 @@
       <c r="H39" s="61"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="179"/>
-      <c r="Q39" s="179"/>
-      <c r="R39" s="179"/>
+      <c r="P39" s="185"/>
+      <c r="Q39" s="185"/>
+      <c r="R39" s="185"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -45006,9 +45073,9 @@
       <c r="H40" s="62"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="179"/>
-      <c r="Q40" s="179"/>
-      <c r="R40" s="179"/>
+      <c r="P40" s="185"/>
+      <c r="Q40" s="185"/>
+      <c r="R40" s="185"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -45026,9 +45093,9 @@
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="179"/>
-      <c r="Q41" s="179"/>
-      <c r="R41" s="179"/>
+      <c r="P41" s="185"/>
+      <c r="Q41" s="185"/>
+      <c r="R41" s="185"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -47983,11 +48050,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="P38:R38"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="M2:N2"/>
@@ -48001,6 +48063,11 @@
     <mergeCell ref="M23:N23"/>
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="J29:K29"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="P38:R38"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
@@ -48020,8 +48087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF62C77-56E1-46D1-8A04-9C8B0CAA13F7}">
   <dimension ref="A1:Z153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -48098,15 +48165,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="187" t="s">
+      <c r="J2" s="186" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="188"/>
+      <c r="K2" s="187"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="187" t="s">
+      <c r="M2" s="186" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="188"/>
+      <c r="N2" s="187"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -48316,15 +48383,15 @@
         <v>2.5249999999999999</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="187" t="s">
+      <c r="J7" s="186" t="s">
         <v>286</v>
       </c>
-      <c r="K7" s="188"/>
+      <c r="K7" s="187"/>
       <c r="L7" s="136"/>
-      <c r="M7" s="187" t="s">
+      <c r="M7" s="186" t="s">
         <v>287</v>
       </c>
-      <c r="N7" s="188"/>
+      <c r="N7" s="187"/>
       <c r="O7" s="39"/>
       <c r="P7" s="39"/>
       <c r="Q7" s="39"/>
@@ -48522,15 +48589,15 @@
         <v>1.8055555555555554E-2</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="187" t="s">
+      <c r="J12" s="186" t="s">
         <v>288</v>
       </c>
-      <c r="K12" s="188"/>
+      <c r="K12" s="187"/>
       <c r="L12" s="136"/>
-      <c r="M12" s="187" t="s">
+      <c r="M12" s="186" t="s">
         <v>289</v>
       </c>
-      <c r="N12" s="188"/>
+      <c r="N12" s="187"/>
       <c r="O12" s="39"/>
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
@@ -48737,15 +48804,15 @@
         <v>0.30902777777777779</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="187" t="s">
+      <c r="J17" s="186" t="s">
         <v>290</v>
       </c>
-      <c r="K17" s="188"/>
+      <c r="K17" s="187"/>
       <c r="L17" s="136"/>
-      <c r="M17" s="187" t="s">
+      <c r="M17" s="186" t="s">
         <v>291</v>
       </c>
-      <c r="N17" s="188"/>
+      <c r="N17" s="187"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
@@ -48787,8 +48854,12 @@
         <v>0.79513888888888884</v>
       </c>
       <c r="L18" s="137"/>
-      <c r="M18" s="131"/>
-      <c r="N18" s="72"/>
+      <c r="M18" s="168" t="s">
+        <v>555</v>
+      </c>
+      <c r="N18" s="72">
+        <v>0.65</v>
+      </c>
       <c r="O18" s="39"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="39"/>
@@ -48824,14 +48895,18 @@
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="114" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K19" s="60">
         <v>0.28749999999999998</v>
       </c>
       <c r="L19" s="137"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="60"/>
+      <c r="M19" s="114" t="s">
+        <v>610</v>
+      </c>
+      <c r="N19" s="60">
+        <v>0.27500000000000002</v>
+      </c>
       <c r="O19" s="39"/>
       <c r="P19" s="39"/>
       <c r="Q19" s="39"/>
@@ -48957,15 +49032,15 @@
         <v>2.0166666666666666</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="187" t="s">
+      <c r="J22" s="186" t="s">
         <v>292</v>
       </c>
-      <c r="K22" s="188"/>
+      <c r="K22" s="187"/>
       <c r="L22" s="136"/>
-      <c r="M22" s="187" t="s">
+      <c r="M22" s="186" t="s">
         <v>293</v>
       </c>
-      <c r="N22" s="188"/>
+      <c r="N22" s="187"/>
       <c r="O22" s="39"/>
       <c r="P22" s="63" t="s">
         <v>32</v>
@@ -49005,7 +49080,7 @@
         <v>2006</v>
       </c>
       <c r="E23" s="152" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="F23" s="74" t="s">
         <v>191</v>
@@ -49017,8 +49092,12 @@
         <v>0.5229166666666667</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="168"/>
-      <c r="K23" s="72"/>
+      <c r="J23" s="168" t="s">
+        <v>555</v>
+      </c>
+      <c r="K23" s="72">
+        <v>0.81319444444444444</v>
+      </c>
       <c r="L23" s="137"/>
       <c r="M23" s="131"/>
       <c r="N23" s="72"/>
@@ -49055,13 +49134,13 @@
         <v>22</v>
       </c>
       <c r="C24" s="54" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D24" s="54">
         <v>2008</v>
       </c>
       <c r="E24" s="153" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="F24" s="69" t="s">
         <v>423</v>
@@ -49113,7 +49192,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="73" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D25" s="73">
         <v>2025</v>
@@ -49122,10 +49201,10 @@
         <v>440</v>
       </c>
       <c r="F25" s="74" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G25" s="74" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H25" s="75">
         <v>9.0277777777777769E-3</v>
@@ -49173,7 +49252,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="54" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D26" s="54">
         <v>2007</v>
@@ -49182,13 +49261,13 @@
         <v>440</v>
       </c>
       <c r="F26" s="69" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G26" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="60" t="s">
-        <v>13</v>
+        <v>65</v>
+      </c>
+      <c r="H26" s="60">
+        <v>1.0625</v>
       </c>
       <c r="I26" s="39"/>
       <c r="O26" s="39"/>
@@ -49227,22 +49306,34 @@
       <c r="B27" s="70">
         <v>25</v>
       </c>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="75"/>
+      <c r="C27" s="73" t="s">
+        <v>615</v>
+      </c>
+      <c r="D27" s="73">
+        <v>2010</v>
+      </c>
+      <c r="E27" s="152" t="s">
+        <v>440</v>
+      </c>
+      <c r="F27" s="74" t="s">
+        <v>616</v>
+      </c>
+      <c r="G27" s="74" t="s">
+        <v>618</v>
+      </c>
+      <c r="H27" s="75">
+        <v>2.3708333333333331</v>
+      </c>
       <c r="I27" s="39"/>
-      <c r="J27" s="187" t="s">
+      <c r="J27" s="186" t="s">
         <v>294</v>
       </c>
-      <c r="K27" s="188"/>
+      <c r="K27" s="187"/>
       <c r="L27" s="136"/>
-      <c r="M27" s="187" t="s">
+      <c r="M27" s="186" t="s">
         <v>295</v>
       </c>
-      <c r="N27" s="188"/>
+      <c r="N27" s="187"/>
       <c r="O27" s="39"/>
       <c r="P27" s="94" t="s">
         <v>37</v>
@@ -49277,12 +49368,24 @@
       <c r="B28" s="78">
         <v>26</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="60"/>
+      <c r="C28" s="54" t="s">
+        <v>619</v>
+      </c>
+      <c r="D28" s="54">
+        <v>2025</v>
+      </c>
+      <c r="E28" s="153" t="s">
+        <v>440</v>
+      </c>
+      <c r="F28" s="69" t="s">
+        <v>618</v>
+      </c>
+      <c r="G28" s="69" t="s">
+        <v>620</v>
+      </c>
+      <c r="H28" s="60">
+        <v>2.2124999999999999</v>
+      </c>
       <c r="I28" s="39"/>
       <c r="J28" s="168"/>
       <c r="K28" s="72"/>
@@ -49307,7 +49410,7 @@
       </c>
       <c r="T28" s="39"/>
       <c r="U28" s="99" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="V28" s="146"/>
       <c r="W28" s="147">
@@ -49323,12 +49426,24 @@
       <c r="B29" s="70">
         <v>27</v>
       </c>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="75"/>
+      <c r="C29" s="73" t="s">
+        <v>622</v>
+      </c>
+      <c r="D29" s="73">
+        <v>2025</v>
+      </c>
+      <c r="E29" s="152" t="s">
+        <v>440</v>
+      </c>
+      <c r="F29" s="74" t="s">
+        <v>223</v>
+      </c>
+      <c r="G29" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" s="75">
+        <v>0.35</v>
+      </c>
       <c r="I29" s="39"/>
       <c r="J29" s="114"/>
       <c r="K29" s="60"/>
@@ -49339,17 +49454,29 @@
       <c r="P29" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="64"/>
+      <c r="Q29" s="64">
+        <f>SUM(W29:X29)</f>
+        <v>2.7791666666666668</v>
+      </c>
+      <c r="R29" s="64">
+        <f>SUM(N18:N19)</f>
+        <v>0.92500000000000004</v>
+      </c>
       <c r="S29" s="90">
         <f>Q29+R29</f>
-        <v>0</v>
+        <v>3.7041666666666666</v>
       </c>
       <c r="T29" s="39"/>
-      <c r="U29" s="98"/>
+      <c r="U29" s="98" t="s">
+        <v>617</v>
+      </c>
       <c r="V29" s="146"/>
-      <c r="W29" s="111"/>
-      <c r="X29" s="147"/>
+      <c r="W29" s="111">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="X29" s="147">
+        <v>1.9458333333333333</v>
+      </c>
       <c r="Y29" s="147"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -49357,12 +49484,24 @@
       <c r="B30" s="78">
         <v>28</v>
       </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="153"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="60"/>
+      <c r="C30" s="54" t="s">
+        <v>623</v>
+      </c>
+      <c r="D30" s="54">
+        <v>2025</v>
+      </c>
+      <c r="E30" s="153" t="s">
+        <v>440</v>
+      </c>
+      <c r="F30" s="69" t="s">
+        <v>228</v>
+      </c>
+      <c r="G30" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="60" t="s">
+        <v>13</v>
+      </c>
       <c r="I30" s="39"/>
       <c r="J30" s="135"/>
       <c r="K30" s="77"/>
@@ -49380,10 +49519,16 @@
         <v>0</v>
       </c>
       <c r="T30" s="39"/>
-      <c r="U30" s="99"/>
+      <c r="U30" s="99" t="s">
+        <v>624</v>
+      </c>
       <c r="V30" s="146"/>
-      <c r="W30" s="147"/>
-      <c r="X30" s="147"/>
+      <c r="W30" s="147">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="X30" s="147">
+        <v>0.93333333333333335</v>
+      </c>
       <c r="Y30" s="147"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -49504,15 +49649,15 @@
       </c>
       <c r="Q34" s="126">
         <f>SUM(Q22:Q33)</f>
-        <v>17.763194444444444</v>
+        <v>20.542361111111113</v>
       </c>
       <c r="R34" s="126">
         <f>SUM(R22:R33)</f>
-        <v>5.2729166666666671</v>
+        <v>6.197916666666667</v>
       </c>
       <c r="S34" s="127">
         <f>SUM(S22:S33)</f>
-        <v>23.036111111111115</v>
+        <v>26.740277777777781</v>
       </c>
       <c r="T34" s="39"/>
       <c r="U34" s="39"/>
@@ -49550,9 +49695,9 @@
       <c r="H36" s="61"/>
       <c r="I36" s="39"/>
       <c r="O36" s="39"/>
-      <c r="P36" s="179"/>
-      <c r="Q36" s="179"/>
-      <c r="R36" s="179"/>
+      <c r="P36" s="185"/>
+      <c r="Q36" s="185"/>
+      <c r="R36" s="185"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -49570,9 +49715,9 @@
       <c r="H37" s="61"/>
       <c r="I37" s="39"/>
       <c r="O37" s="39"/>
-      <c r="P37" s="186"/>
-      <c r="Q37" s="179"/>
-      <c r="R37" s="179"/>
+      <c r="P37" s="189"/>
+      <c r="Q37" s="185"/>
+      <c r="R37" s="185"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -49590,9 +49735,9 @@
       <c r="H38" s="61"/>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="179"/>
-      <c r="Q38" s="179"/>
-      <c r="R38" s="179"/>
+      <c r="P38" s="185"/>
+      <c r="Q38" s="185"/>
+      <c r="R38" s="185"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -49610,9 +49755,9 @@
       <c r="H39" s="61"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="179"/>
-      <c r="Q39" s="179"/>
-      <c r="R39" s="179"/>
+      <c r="P39" s="185"/>
+      <c r="Q39" s="185"/>
+      <c r="R39" s="185"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -49630,9 +49775,9 @@
       <c r="H40" s="62"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="179"/>
-      <c r="Q40" s="179"/>
-      <c r="R40" s="179"/>
+      <c r="P40" s="185"/>
+      <c r="Q40" s="185"/>
+      <c r="R40" s="185"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -49650,9 +49795,9 @@
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="179"/>
-      <c r="Q41" s="179"/>
-      <c r="R41" s="179"/>
+      <c r="P41" s="185"/>
+      <c r="Q41" s="185"/>
+      <c r="R41" s="185"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -51539,7 +51684,7 @@
       </c>
       <c r="R117" s="44">
         <f>COUNTIF(D1:D57,Q117)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S117" s="39"/>
       <c r="T117" s="39"/>
@@ -51989,7 +52134,7 @@
       </c>
       <c r="R132" s="46">
         <f>COUNTIF(D3:D59,Q132)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S132" s="39"/>
       <c r="T132" s="39"/>
@@ -52529,7 +52674,7 @@
       </c>
       <c r="R150" s="42">
         <f>SUM(R118:R149)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S150" s="39"/>
       <c r="T150" s="39"/>
@@ -52614,14 +52759,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M12:N12"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="J27:K27"/>
@@ -52632,6 +52769,14 @@
     <mergeCell ref="P38:R38"/>
     <mergeCell ref="P39:R39"/>
     <mergeCell ref="P40:R40"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="M12:N12"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
@@ -52641,7 +52786,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <ignoredErrors>
-    <ignoredError sqref="Q24:Q25" formulaRange="1"/>
+    <ignoredError sqref="Q24:Q25 Q28" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId4"/>
 </worksheet>

--- a/spreadsheets/Games.xlsx
+++ b/spreadsheets/Games.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ucer0.github.io\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF61BC02-FD6F-484E-8E1E-25ABB4050DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AAEC41-E7E3-49EB-9084-E891F650D612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -5596,6 +5596,9 @@
                 <c:pt idx="7">
                   <c:v>2.7791666666666668</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9208333333333334</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5705,6 +5708,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.81319444444444444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -48087,8 +48093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF62C77-56E1-46D1-8A04-9C8B0CAA13F7}">
   <dimension ref="A1:Z153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -49512,11 +49518,17 @@
       <c r="P30" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="Q30" s="81"/>
-      <c r="R30" s="81"/>
+      <c r="Q30" s="81">
+        <f>SUM(H28:H29,W30:X30)</f>
+        <v>3.9208333333333334</v>
+      </c>
+      <c r="R30" s="81">
+        <f>SUM(K23)</f>
+        <v>0.81319444444444444</v>
+      </c>
       <c r="S30" s="97">
         <f>Q30+R30</f>
-        <v>0</v>
+        <v>4.7340277777777775</v>
       </c>
       <c r="T30" s="39"/>
       <c r="U30" s="99" t="s">
@@ -49649,15 +49661,15 @@
       </c>
       <c r="Q34" s="126">
         <f>SUM(Q22:Q33)</f>
-        <v>20.542361111111113</v>
+        <v>24.463194444444447</v>
       </c>
       <c r="R34" s="126">
         <f>SUM(R22:R33)</f>
-        <v>6.197916666666667</v>
+        <v>7.0111111111111111</v>
       </c>
       <c r="S34" s="127">
         <f>SUM(S22:S33)</f>
-        <v>26.740277777777781</v>
+        <v>31.47430555555556</v>
       </c>
       <c r="T34" s="39"/>
       <c r="U34" s="39"/>
@@ -52786,7 +52798,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <ignoredErrors>
-    <ignoredError sqref="Q24:Q25 Q28" formulaRange="1"/>
+    <ignoredError sqref="Q24:Q25 Q28 Q30" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId4"/>
 </worksheet>

--- a/spreadsheets/Games.xlsx
+++ b/spreadsheets/Games.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ucer0.github.io\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AAEC41-E7E3-49EB-9084-E891F650D612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEDA00C-34B4-4D42-95C6-2B0AA712964C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="636">
   <si>
     <t>Nier: Automata</t>
   </si>
@@ -2595,6 +2595,50 @@
         <family val="2"/>
       </rPr>
       <t>, TfZ (ingame 54h 53m), Silksong (46h 52m, 100%)</t>
+    </r>
+  </si>
+  <si>
+    <t>11-oct.</t>
+  </si>
+  <si>
+    <t>Ghost Trick: Phantom Detective</t>
+  </si>
+  <si>
+    <t>Nuclear Nightmare</t>
+  </si>
+  <si>
+    <t>YAPYAP Demo</t>
+  </si>
+  <si>
+    <t>15-oct.</t>
+  </si>
+  <si>
+    <t>An Untitled Story</t>
+  </si>
+  <si>
+    <t>18-oct.</t>
+  </si>
+  <si>
+    <t>Digimon Story: Time Stranger</t>
+  </si>
+  <si>
+    <t>Picross e3</t>
+  </si>
+  <si>
+    <t>6-nov.</t>
+  </si>
+  <si>
+    <r>
+      <t>TitSR (32h 34m), DTS (31h 10m)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Ubuntu"/>
+        <family val="2"/>
+      </rPr>
+      <t>, TitSR (54h 15m ingame), GT (12h 18m), AUS (7h 23m ingame, 82%, All Abilities, Gold, Bosses, 69/95 hearts, 73 deaths, 352 saves)</t>
     </r>
   </si>
 </sst>
@@ -3023,7 +3067,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3529,6 +3573,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3559,6 +3606,9 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
@@ -3577,7 +3627,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3589,8 +3639,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5218,7 +5271,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
@@ -5254,7 +5307,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -5263,7 +5316,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -5272,7 +5325,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1</c:v>
@@ -5599,6 +5652,9 @@
                 <c:pt idx="8">
                   <c:v>3.9208333333333334</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5854166666666667</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5711,6 +5767,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.81319444444444444</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91319444444444431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17470,17 +17529,17 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="169">
+      <c r="B2" s="170">
         <v>2019</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
       <c r="E2" s="67"/>
-      <c r="F2" s="175" t="s">
+      <c r="F2" s="176" t="s">
         <v>261</v>
       </c>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
       <c r="I2" s="35"/>
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
@@ -17511,18 +17570,18 @@
         <v>77</v>
       </c>
       <c r="E3" s="68"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="6"/>
       <c r="N3" s="29"/>
-      <c r="O3" s="174"/>
-      <c r="P3" s="174"/>
-      <c r="Q3" s="174"/>
+      <c r="O3" s="175"/>
+      <c r="P3" s="175"/>
+      <c r="Q3" s="175"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
@@ -17544,18 +17603,18 @@
         <v>2004</v>
       </c>
       <c r="E4" s="26"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="175"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="176"/>
+      <c r="H4" s="176"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="30"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="174"/>
-      <c r="P4" s="174"/>
-      <c r="Q4" s="174"/>
+      <c r="O4" s="175"/>
+      <c r="P4" s="175"/>
+      <c r="Q4" s="175"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
@@ -17577,18 +17636,18 @@
         <v>2017</v>
       </c>
       <c r="E5" s="26"/>
-      <c r="F5" s="175"/>
-      <c r="G5" s="175"/>
-      <c r="H5" s="175"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="176"/>
+      <c r="H5" s="176"/>
       <c r="I5" s="6"/>
       <c r="J5" s="30"/>
       <c r="K5" s="30"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="174"/>
-      <c r="P5" s="174"/>
-      <c r="Q5" s="174"/>
+      <c r="O5" s="175"/>
+      <c r="P5" s="175"/>
+      <c r="Q5" s="175"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
@@ -17610,18 +17669,18 @@
         <v>2017</v>
       </c>
       <c r="E6" s="26"/>
-      <c r="F6" s="175"/>
-      <c r="G6" s="175"/>
-      <c r="H6" s="175"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="176"/>
+      <c r="H6" s="176"/>
       <c r="I6" s="6"/>
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="174"/>
-      <c r="P6" s="174"/>
-      <c r="Q6" s="174"/>
+      <c r="O6" s="175"/>
+      <c r="P6" s="175"/>
+      <c r="Q6" s="175"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
@@ -17643,18 +17702,18 @@
         <v>2017</v>
       </c>
       <c r="E7" s="26"/>
-      <c r="F7" s="175"/>
-      <c r="G7" s="175"/>
-      <c r="H7" s="175"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="176"/>
       <c r="I7" s="6"/>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="174"/>
-      <c r="P7" s="174"/>
-      <c r="Q7" s="174"/>
+      <c r="O7" s="175"/>
+      <c r="P7" s="175"/>
+      <c r="Q7" s="175"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
@@ -17676,18 +17735,18 @@
         <v>2017</v>
       </c>
       <c r="E8" s="26"/>
-      <c r="F8" s="175"/>
-      <c r="G8" s="175"/>
-      <c r="H8" s="175"/>
+      <c r="F8" s="176"/>
+      <c r="G8" s="176"/>
+      <c r="H8" s="176"/>
       <c r="I8" s="6"/>
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="174"/>
-      <c r="P8" s="174"/>
-      <c r="Q8" s="174"/>
+      <c r="O8" s="175"/>
+      <c r="P8" s="175"/>
+      <c r="Q8" s="175"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
@@ -17709,18 +17768,18 @@
         <v>2016</v>
       </c>
       <c r="E9" s="26"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="175"/>
+      <c r="F9" s="176"/>
+      <c r="G9" s="176"/>
+      <c r="H9" s="176"/>
       <c r="I9" s="6"/>
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="174"/>
-      <c r="P9" s="174"/>
-      <c r="Q9" s="174"/>
+      <c r="O9" s="175"/>
+      <c r="P9" s="175"/>
+      <c r="Q9" s="175"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
@@ -17742,18 +17801,18 @@
         <v>2017</v>
       </c>
       <c r="E10" s="26"/>
-      <c r="F10" s="175"/>
-      <c r="G10" s="175"/>
-      <c r="H10" s="175"/>
+      <c r="F10" s="176"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="176"/>
       <c r="I10" s="6"/>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="7"/>
-      <c r="O10" s="174"/>
-      <c r="P10" s="174"/>
-      <c r="Q10" s="174"/>
+      <c r="O10" s="175"/>
+      <c r="P10" s="175"/>
+      <c r="Q10" s="175"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
@@ -17775,18 +17834,18 @@
         <v>2016</v>
       </c>
       <c r="E11" s="26"/>
-      <c r="F11" s="175"/>
-      <c r="G11" s="175"/>
-      <c r="H11" s="175"/>
+      <c r="F11" s="176"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="176"/>
       <c r="I11" s="6"/>
       <c r="J11" s="30"/>
       <c r="K11" s="30"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="174"/>
-      <c r="P11" s="174"/>
-      <c r="Q11" s="174"/>
+      <c r="O11" s="175"/>
+      <c r="P11" s="175"/>
+      <c r="Q11" s="175"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
@@ -17808,18 +17867,18 @@
         <v>2017</v>
       </c>
       <c r="E12" s="26"/>
-      <c r="F12" s="175"/>
-      <c r="G12" s="175"/>
-      <c r="H12" s="175"/>
+      <c r="F12" s="176"/>
+      <c r="G12" s="176"/>
+      <c r="H12" s="176"/>
       <c r="I12" s="6"/>
       <c r="J12" s="30"/>
       <c r="K12" s="30"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="174"/>
-      <c r="P12" s="174"/>
-      <c r="Q12" s="174"/>
+      <c r="O12" s="175"/>
+      <c r="P12" s="175"/>
+      <c r="Q12" s="175"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
@@ -17841,18 +17900,18 @@
         <v>2009</v>
       </c>
       <c r="E13" s="26"/>
-      <c r="F13" s="175"/>
-      <c r="G13" s="175"/>
-      <c r="H13" s="175"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="176"/>
       <c r="I13" s="6"/>
       <c r="J13" s="30"/>
       <c r="K13" s="30"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="174"/>
-      <c r="P13" s="174"/>
-      <c r="Q13" s="174"/>
+      <c r="O13" s="175"/>
+      <c r="P13" s="175"/>
+      <c r="Q13" s="175"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
@@ -17874,18 +17933,18 @@
         <v>2019</v>
       </c>
       <c r="E14" s="26"/>
-      <c r="F14" s="175"/>
-      <c r="G14" s="175"/>
-      <c r="H14" s="175"/>
+      <c r="F14" s="176"/>
+      <c r="G14" s="176"/>
+      <c r="H14" s="176"/>
       <c r="I14" s="6"/>
       <c r="J14" s="30"/>
       <c r="K14" s="30"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="174"/>
-      <c r="P14" s="174"/>
-      <c r="Q14" s="174"/>
+      <c r="O14" s="175"/>
+      <c r="P14" s="175"/>
+      <c r="Q14" s="175"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
@@ -17907,18 +17966,18 @@
         <v>2019</v>
       </c>
       <c r="E15" s="26"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="175"/>
+      <c r="F15" s="176"/>
+      <c r="G15" s="176"/>
+      <c r="H15" s="176"/>
       <c r="I15" s="6"/>
       <c r="J15" s="30"/>
       <c r="K15" s="30"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="174"/>
-      <c r="P15" s="174"/>
-      <c r="Q15" s="174"/>
+      <c r="O15" s="175"/>
+      <c r="P15" s="175"/>
+      <c r="Q15" s="175"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
@@ -17943,9 +18002,9 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="174"/>
-      <c r="P16" s="174"/>
-      <c r="Q16" s="174"/>
+      <c r="O16" s="175"/>
+      <c r="P16" s="175"/>
+      <c r="Q16" s="175"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
@@ -17956,9 +18015,9 @@
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
-      <c r="B17" s="171"/>
-      <c r="C17" s="171"/>
-      <c r="D17" s="171"/>
+      <c r="B17" s="172"/>
+      <c r="C17" s="172"/>
+      <c r="D17" s="172"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7"/>
@@ -17983,9 +18042,9 @@
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
-      <c r="B18" s="171"/>
-      <c r="C18" s="171"/>
-      <c r="D18" s="171"/>
+      <c r="B18" s="172"/>
+      <c r="C18" s="172"/>
+      <c r="D18" s="172"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="7"/>
@@ -17995,8 +18054,8 @@
       <c r="K18" s="30"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="172"/>
-      <c r="O18" s="173"/>
+      <c r="N18" s="173"/>
+      <c r="O18" s="174"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
@@ -18010,9 +18069,9 @@
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
-      <c r="B19" s="171"/>
-      <c r="C19" s="171"/>
-      <c r="D19" s="171"/>
+      <c r="B19" s="172"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="172"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7"/>
@@ -18022,8 +18081,8 @@
       <c r="K19" s="30"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="173"/>
-      <c r="O19" s="173"/>
+      <c r="N19" s="174"/>
+      <c r="O19" s="174"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
@@ -18049,8 +18108,8 @@
       <c r="K20" s="30"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="173"/>
-      <c r="O20" s="173"/>
+      <c r="N20" s="174"/>
+      <c r="O20" s="174"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
@@ -18076,8 +18135,8 @@
       <c r="K21" s="30"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="173"/>
-      <c r="O21" s="173"/>
+      <c r="N21" s="174"/>
+      <c r="O21" s="174"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
@@ -18103,8 +18162,8 @@
       <c r="K22" s="30"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-      <c r="N22" s="173"/>
-      <c r="O22" s="173"/>
+      <c r="N22" s="174"/>
+      <c r="O22" s="174"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
@@ -18590,7 +18649,7 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:Y159"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -19288,8 +19347,8 @@
         <v>11</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="177"/>
-      <c r="K17" s="178"/>
+      <c r="J17" s="178"/>
+      <c r="K17" s="179"/>
       <c r="L17" s="6"/>
       <c r="M17" s="39"/>
       <c r="N17" s="39"/>
@@ -19327,8 +19386,8 @@
         <v>1</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="176"/>
-      <c r="K18" s="176"/>
+      <c r="J18" s="177"/>
+      <c r="K18" s="177"/>
       <c r="L18" s="6"/>
       <c r="M18" s="39"/>
       <c r="N18" s="39"/>
@@ -23377,7 +23436,7 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:AZ296"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -23553,7 +23612,7 @@
         <v>4.197916666666667</v>
       </c>
       <c r="I3" s="6"/>
-      <c r="J3" s="182" t="s">
+      <c r="J3" s="184" t="s">
         <v>118</v>
       </c>
       <c r="K3" s="80" t="s">
@@ -23627,7 +23686,7 @@
         <v>0.30138888888888887</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="183"/>
+      <c r="J4" s="185"/>
       <c r="K4" s="54" t="s">
         <v>127</v>
       </c>
@@ -23699,7 +23758,7 @@
         <v>0.2076388888888889</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="183"/>
+      <c r="J5" s="185"/>
       <c r="K5" s="73" t="s">
         <v>132</v>
       </c>
@@ -23771,7 +23830,7 @@
         <v>1.2437499999999999</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="183"/>
+      <c r="J6" s="185"/>
       <c r="K6" s="54" t="s">
         <v>129</v>
       </c>
@@ -23843,7 +23902,7 @@
         <v>0.27916666666666667</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="183"/>
+      <c r="J7" s="185"/>
       <c r="K7" s="73" t="s">
         <v>136</v>
       </c>
@@ -23915,7 +23974,7 @@
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="183"/>
+      <c r="J8" s="185"/>
       <c r="K8" s="54" t="s">
         <v>137</v>
       </c>
@@ -23987,7 +24046,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="182" t="s">
+      <c r="J9" s="184" t="s">
         <v>119</v>
       </c>
       <c r="K9" s="71" t="s">
@@ -24061,7 +24120,7 @@
         <v>0.19027777777777777</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="183"/>
+      <c r="J10" s="185"/>
       <c r="K10" s="54" t="s">
         <v>127</v>
       </c>
@@ -24133,7 +24192,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="183"/>
+      <c r="J11" s="185"/>
       <c r="K11" s="73" t="s">
         <v>132</v>
       </c>
@@ -24205,7 +24264,7 @@
         <v>1.7097222222222221</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="183"/>
+      <c r="J12" s="185"/>
       <c r="K12" s="54" t="s">
         <v>129</v>
       </c>
@@ -24277,7 +24336,7 @@
         <v>0.15972222222222224</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="183"/>
+      <c r="J13" s="185"/>
       <c r="K13" s="73" t="s">
         <v>141</v>
       </c>
@@ -24349,7 +24408,7 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="182" t="s">
+      <c r="J14" s="184" t="s">
         <v>120</v>
       </c>
       <c r="K14" s="10" t="s">
@@ -24423,7 +24482,7 @@
         <v>0.59652777777777777</v>
       </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="183"/>
+      <c r="J15" s="185"/>
       <c r="K15" s="73" t="s">
         <v>127</v>
       </c>
@@ -24495,7 +24554,7 @@
         <v>13</v>
       </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="183"/>
+      <c r="J16" s="185"/>
       <c r="K16" s="54" t="s">
         <v>132</v>
       </c>
@@ -24567,7 +24626,7 @@
         <v>13</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="183"/>
+      <c r="J17" s="185"/>
       <c r="K17" s="73" t="s">
         <v>129</v>
       </c>
@@ -24639,7 +24698,7 @@
         <v>0.24583333333333335</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="183"/>
+      <c r="J18" s="185"/>
       <c r="K18" s="54" t="s">
         <v>144</v>
       </c>
@@ -24711,7 +24770,7 @@
         <v>0.49513888888888885</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="184"/>
+      <c r="J19" s="186"/>
       <c r="K19" s="76" t="s">
         <v>150</v>
       </c>
@@ -24783,7 +24842,7 @@
         <v>0.20972222222222223</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="J20" s="182" t="s">
+      <c r="J20" s="184" t="s">
         <v>143</v>
       </c>
       <c r="K20" s="10" t="s">
@@ -24857,7 +24916,7 @@
         <v>0.25486111111111109</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="184"/>
+      <c r="J21" s="186"/>
       <c r="K21" s="76" t="s">
         <v>141</v>
       </c>
@@ -24939,7 +24998,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="183" t="s">
+      <c r="J22" s="185" t="s">
         <v>161</v>
       </c>
       <c r="K22" s="54" t="s">
@@ -25025,7 +25084,7 @@
         <v>0.26944444444444443</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="183"/>
+      <c r="J23" s="185"/>
       <c r="K23" s="80" t="s">
         <v>169</v>
       </c>
@@ -25109,7 +25168,7 @@
         <v>0.3263888888888889</v>
       </c>
       <c r="I24" s="39"/>
-      <c r="J24" s="183"/>
+      <c r="J24" s="185"/>
       <c r="K24" s="54" t="s">
         <v>163</v>
       </c>
@@ -25193,7 +25252,7 @@
         <v>0.32847222222222222</v>
       </c>
       <c r="I25" s="39"/>
-      <c r="J25" s="183"/>
+      <c r="J25" s="185"/>
       <c r="K25" s="73" t="s">
         <v>141</v>
       </c>
@@ -25277,7 +25336,7 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="I26" s="39"/>
-      <c r="J26" s="184"/>
+      <c r="J26" s="186"/>
       <c r="K26" s="11" t="s">
         <v>162</v>
       </c>
@@ -25361,7 +25420,7 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="I27" s="39"/>
-      <c r="J27" s="182" t="s">
+      <c r="J27" s="184" t="s">
         <v>171</v>
       </c>
       <c r="K27" s="73" t="s">
@@ -25447,7 +25506,7 @@
         <v>0.22291666666666665</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="183"/>
+      <c r="J28" s="185"/>
       <c r="K28" s="101" t="s">
         <v>163</v>
       </c>
@@ -25531,7 +25590,7 @@
         <v>0.13194444444444445</v>
       </c>
       <c r="I29" s="39"/>
-      <c r="J29" s="183"/>
+      <c r="J29" s="185"/>
       <c r="K29" s="73" t="s">
         <v>29</v>
       </c>
@@ -25615,7 +25674,7 @@
         <v>13</v>
       </c>
       <c r="I30" s="39"/>
-      <c r="J30" s="183"/>
+      <c r="J30" s="185"/>
       <c r="K30" s="101" t="s">
         <v>136</v>
       </c>
@@ -25699,7 +25758,7 @@
         <v>0.43888888888888888</v>
       </c>
       <c r="I31" s="39"/>
-      <c r="J31" s="184"/>
+      <c r="J31" s="186"/>
       <c r="K31" s="73" t="s">
         <v>141</v>
       </c>
@@ -25783,7 +25842,7 @@
         <v>0.42083333333333334</v>
       </c>
       <c r="I32" s="39"/>
-      <c r="J32" s="182" t="s">
+      <c r="J32" s="184" t="s">
         <v>184</v>
       </c>
       <c r="K32" s="107" t="s">
@@ -25869,7 +25928,7 @@
         <v>2.7097222222222221</v>
       </c>
       <c r="I33" s="39"/>
-      <c r="J33" s="183"/>
+      <c r="J33" s="185"/>
       <c r="K33" s="73" t="s">
         <v>179</v>
       </c>
@@ -25955,7 +26014,7 @@
         <v>13</v>
       </c>
       <c r="I34" s="39"/>
-      <c r="J34" s="183"/>
+      <c r="J34" s="185"/>
       <c r="K34" s="54" t="s">
         <v>199</v>
       </c>
@@ -26038,7 +26097,7 @@
         <v>0.11041666666666666</v>
       </c>
       <c r="I35" s="39"/>
-      <c r="J35" s="183"/>
+      <c r="J35" s="185"/>
       <c r="K35" s="80" t="s">
         <v>198</v>
       </c>
@@ -26110,7 +26169,7 @@
         <v>0.37083333333333335</v>
       </c>
       <c r="I36" s="39"/>
-      <c r="J36" s="183"/>
+      <c r="J36" s="185"/>
       <c r="K36" s="54" t="s">
         <v>141</v>
       </c>
@@ -26118,9 +26177,9 @@
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="M36" s="39"/>
-      <c r="N36" s="185"/>
-      <c r="O36" s="185"/>
-      <c r="P36" s="185"/>
+      <c r="N36" s="180"/>
+      <c r="O36" s="180"/>
+      <c r="P36" s="180"/>
       <c r="Q36" s="111"/>
       <c r="R36" s="16"/>
       <c r="S36" s="16"/>
@@ -26182,7 +26241,7 @@
         <v>0.80694444444444446</v>
       </c>
       <c r="I37" s="39"/>
-      <c r="J37" s="183"/>
+      <c r="J37" s="185"/>
       <c r="K37" s="80" t="s">
         <v>196</v>
       </c>
@@ -26190,9 +26249,9 @@
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="M37" s="39"/>
-      <c r="N37" s="185"/>
-      <c r="O37" s="185"/>
-      <c r="P37" s="185"/>
+      <c r="N37" s="180"/>
+      <c r="O37" s="180"/>
+      <c r="P37" s="180"/>
       <c r="Q37" s="111"/>
       <c r="R37" s="16"/>
       <c r="S37" s="16"/>
@@ -26254,7 +26313,7 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="I38" s="39"/>
-      <c r="J38" s="184"/>
+      <c r="J38" s="186"/>
       <c r="K38" s="11" t="s">
         <v>202</v>
       </c>
@@ -26262,9 +26321,9 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="M38" s="39"/>
-      <c r="N38" s="185"/>
-      <c r="O38" s="185"/>
-      <c r="P38" s="185"/>
+      <c r="N38" s="180"/>
+      <c r="O38" s="180"/>
+      <c r="P38" s="180"/>
       <c r="Q38" s="111"/>
       <c r="R38" s="16"/>
       <c r="S38" s="16"/>
@@ -26312,7 +26371,7 @@
       <c r="G39" s="30"/>
       <c r="H39" s="61"/>
       <c r="I39" s="39"/>
-      <c r="J39" s="182" t="s">
+      <c r="J39" s="184" t="s">
         <v>209</v>
       </c>
       <c r="K39" s="116" t="s">
@@ -26322,9 +26381,9 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="M39" s="39"/>
-      <c r="N39" s="185"/>
-      <c r="O39" s="185"/>
-      <c r="P39" s="185"/>
+      <c r="N39" s="180"/>
+      <c r="O39" s="180"/>
+      <c r="P39" s="180"/>
       <c r="Q39" s="124"/>
       <c r="R39" s="16"/>
       <c r="S39" s="16"/>
@@ -26372,7 +26431,7 @@
       <c r="G40" s="39"/>
       <c r="H40" s="62"/>
       <c r="I40" s="39"/>
-      <c r="J40" s="183"/>
+      <c r="J40" s="185"/>
       <c r="K40" s="113" t="s">
         <v>210</v>
       </c>
@@ -26380,9 +26439,9 @@
         <v>0.3666666666666667</v>
       </c>
       <c r="M40" s="39"/>
-      <c r="N40" s="185"/>
-      <c r="O40" s="185"/>
-      <c r="P40" s="185"/>
+      <c r="N40" s="180"/>
+      <c r="O40" s="180"/>
+      <c r="P40" s="180"/>
       <c r="Q40" s="124"/>
       <c r="R40" s="16"/>
       <c r="S40" s="16"/>
@@ -26429,7 +26488,7 @@
       <c r="G41" s="30"/>
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
-      <c r="J41" s="183"/>
+      <c r="J41" s="185"/>
       <c r="K41" s="112" t="s">
         <v>179</v>
       </c>
@@ -26437,9 +26496,9 @@
         <v>0.53333333333333333</v>
       </c>
       <c r="M41" s="39"/>
-      <c r="N41" s="185"/>
-      <c r="O41" s="185"/>
-      <c r="P41" s="185"/>
+      <c r="N41" s="180"/>
+      <c r="O41" s="180"/>
+      <c r="P41" s="180"/>
       <c r="Q41" s="124"/>
       <c r="R41" s="16"/>
       <c r="S41" s="16"/>
@@ -26487,7 +26546,7 @@
       <c r="G42" s="30"/>
       <c r="H42" s="61"/>
       <c r="I42" s="39"/>
-      <c r="J42" s="183"/>
+      <c r="J42" s="185"/>
       <c r="K42" s="114" t="s">
         <v>136</v>
       </c>
@@ -26545,7 +26604,7 @@
       <c r="G43" s="39"/>
       <c r="H43" s="62"/>
       <c r="I43" s="39"/>
-      <c r="J43" s="183"/>
+      <c r="J43" s="185"/>
       <c r="K43" s="112" t="s">
         <v>212</v>
       </c>
@@ -26603,7 +26662,7 @@
       <c r="G44" s="39"/>
       <c r="H44" s="62"/>
       <c r="I44" s="39"/>
-      <c r="J44" s="183"/>
+      <c r="J44" s="185"/>
       <c r="K44" s="113" t="s">
         <v>213</v>
       </c>
@@ -26661,7 +26720,7 @@
       <c r="G45" s="39"/>
       <c r="H45" s="62"/>
       <c r="I45" s="39"/>
-      <c r="J45" s="184"/>
+      <c r="J45" s="186"/>
       <c r="K45" s="115" t="s">
         <v>141</v>
       </c>
@@ -26719,7 +26778,7 @@
       <c r="G46" s="39"/>
       <c r="H46" s="62"/>
       <c r="I46" s="39"/>
-      <c r="J46" s="179" t="s">
+      <c r="J46" s="181" t="s">
         <v>217</v>
       </c>
       <c r="K46" s="119" t="s">
@@ -26779,7 +26838,7 @@
       <c r="G47" s="39"/>
       <c r="H47" s="62"/>
       <c r="I47" s="39"/>
-      <c r="J47" s="180"/>
+      <c r="J47" s="182"/>
       <c r="K47" s="80" t="s">
         <v>179</v>
       </c>
@@ -26837,7 +26896,7 @@
       <c r="G48" s="39"/>
       <c r="H48" s="62"/>
       <c r="I48" s="39"/>
-      <c r="J48" s="180"/>
+      <c r="J48" s="182"/>
       <c r="K48" s="101" t="s">
         <v>136</v>
       </c>
@@ -26895,7 +26954,7 @@
       <c r="G49" s="39"/>
       <c r="H49" s="62"/>
       <c r="I49" s="39"/>
-      <c r="J49" s="181"/>
+      <c r="J49" s="183"/>
       <c r="K49" s="120" t="s">
         <v>213</v>
       </c>
@@ -26953,7 +27012,7 @@
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
       <c r="I50" s="39"/>
-      <c r="J50" s="179" t="s">
+      <c r="J50" s="181" t="s">
         <v>232</v>
       </c>
       <c r="K50" s="121" t="s">
@@ -27013,7 +27072,7 @@
       <c r="G51" s="39"/>
       <c r="H51" s="39"/>
       <c r="I51" s="39"/>
-      <c r="J51" s="180"/>
+      <c r="J51" s="182"/>
       <c r="K51" s="122" t="s">
         <v>179</v>
       </c>
@@ -27071,7 +27130,7 @@
       <c r="G52" s="39"/>
       <c r="H52" s="39"/>
       <c r="I52" s="39"/>
-      <c r="J52" s="180"/>
+      <c r="J52" s="182"/>
       <c r="K52" s="114" t="s">
         <v>235</v>
       </c>
@@ -27129,7 +27188,7 @@
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
       <c r="I53" s="39"/>
-      <c r="J53" s="181"/>
+      <c r="J53" s="183"/>
       <c r="K53" s="115" t="s">
         <v>211</v>
       </c>
@@ -27187,7 +27246,7 @@
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
       <c r="I54" s="39"/>
-      <c r="J54" s="179" t="s">
+      <c r="J54" s="181" t="s">
         <v>243</v>
       </c>
       <c r="K54" s="121" t="s">
@@ -27247,7 +27306,7 @@
       <c r="G55" s="39"/>
       <c r="H55" s="39"/>
       <c r="I55" s="39"/>
-      <c r="J55" s="180"/>
+      <c r="J55" s="182"/>
       <c r="K55" s="122" t="s">
         <v>242</v>
       </c>
@@ -27305,7 +27364,7 @@
       <c r="G56" s="39"/>
       <c r="H56" s="39"/>
       <c r="I56" s="39"/>
-      <c r="J56" s="180"/>
+      <c r="J56" s="182"/>
       <c r="K56" s="114" t="s">
         <v>29</v>
       </c>
@@ -27363,7 +27422,7 @@
       <c r="G57" s="39"/>
       <c r="H57" s="39"/>
       <c r="I57" s="39"/>
-      <c r="J57" s="181"/>
+      <c r="J57" s="183"/>
       <c r="K57" s="115" t="s">
         <v>199</v>
       </c>
@@ -27421,7 +27480,7 @@
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
       <c r="I58" s="39"/>
-      <c r="J58" s="179" t="s">
+      <c r="J58" s="181" t="s">
         <v>246</v>
       </c>
       <c r="K58" s="121" t="s">
@@ -27481,7 +27540,7 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
       <c r="I59" s="39"/>
-      <c r="J59" s="180"/>
+      <c r="J59" s="182"/>
       <c r="K59" s="122" t="s">
         <v>235</v>
       </c>
@@ -27539,7 +27598,7 @@
       <c r="G60" s="39"/>
       <c r="H60" s="39"/>
       <c r="I60" s="39"/>
-      <c r="J60" s="180"/>
+      <c r="J60" s="182"/>
       <c r="K60" s="114" t="s">
         <v>242</v>
       </c>
@@ -27597,7 +27656,7 @@
       <c r="G61" s="39"/>
       <c r="H61" s="39"/>
       <c r="I61" s="39"/>
-      <c r="J61" s="180"/>
+      <c r="J61" s="182"/>
       <c r="K61" s="122" t="s">
         <v>245</v>
       </c>
@@ -27655,7 +27714,7 @@
       <c r="G62" s="39"/>
       <c r="H62" s="39"/>
       <c r="I62" s="39"/>
-      <c r="J62" s="180"/>
+      <c r="J62" s="182"/>
       <c r="K62" s="114" t="s">
         <v>29</v>
       </c>
@@ -27713,7 +27772,7 @@
       <c r="G63" s="39"/>
       <c r="H63" s="39"/>
       <c r="I63" s="39"/>
-      <c r="J63" s="181"/>
+      <c r="J63" s="183"/>
       <c r="K63" s="115" t="s">
         <v>199</v>
       </c>
@@ -33462,12 +33521,6 @@
     <sortCondition ref="K33"/>
   </sortState>
   <mergeCells count="18">
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="N39:P39"/>
     <mergeCell ref="J58:J63"/>
     <mergeCell ref="J54:J57"/>
     <mergeCell ref="J50:J53"/>
@@ -33480,6 +33533,12 @@
     <mergeCell ref="J32:J38"/>
     <mergeCell ref="J27:J31"/>
     <mergeCell ref="J14:J19"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="N39:P39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -33571,15 +33630,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="186" t="s">
+      <c r="J2" s="188" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="188"/>
+      <c r="K2" s="190"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="188" t="s">
+      <c r="M2" s="190" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="187"/>
+      <c r="N2" s="189"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -33879,15 +33938,15 @@
         <v>0.20416666666666669</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="186" t="s">
+      <c r="J9" s="188" t="s">
         <v>286</v>
       </c>
-      <c r="K9" s="188"/>
+      <c r="K9" s="190"/>
       <c r="L9" s="136"/>
-      <c r="M9" s="188" t="s">
+      <c r="M9" s="190" t="s">
         <v>287</v>
       </c>
-      <c r="N9" s="187"/>
+      <c r="N9" s="189"/>
       <c r="O9" s="39"/>
       <c r="P9" s="39"/>
       <c r="Q9" s="39"/>
@@ -34094,15 +34153,15 @@
         <v>0.15208333333333332</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="186" t="s">
+      <c r="J14" s="188" t="s">
         <v>288</v>
       </c>
-      <c r="K14" s="187"/>
+      <c r="K14" s="189"/>
       <c r="L14" s="136"/>
-      <c r="M14" s="186" t="s">
+      <c r="M14" s="188" t="s">
         <v>289</v>
       </c>
-      <c r="N14" s="187"/>
+      <c r="N14" s="189"/>
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
@@ -34406,15 +34465,15 @@
         <v>0.35138888888888892</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="186" t="s">
+      <c r="J21" s="188" t="s">
         <v>290</v>
       </c>
-      <c r="K21" s="187"/>
+      <c r="K21" s="189"/>
       <c r="L21" s="136"/>
-      <c r="M21" s="186" t="s">
+      <c r="M21" s="188" t="s">
         <v>291</v>
       </c>
-      <c r="N21" s="187"/>
+      <c r="N21" s="189"/>
       <c r="O21" s="39"/>
       <c r="P21" s="89" t="s">
         <v>31</v>
@@ -34796,15 +34855,15 @@
         <v>0.11805555555555557</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="186" t="s">
+      <c r="J28" s="188" t="s">
         <v>292</v>
       </c>
-      <c r="K28" s="187"/>
+      <c r="K28" s="189"/>
       <c r="L28" s="136"/>
-      <c r="M28" s="186" t="s">
+      <c r="M28" s="188" t="s">
         <v>293</v>
       </c>
-      <c r="N28" s="187"/>
+      <c r="N28" s="189"/>
       <c r="O28" s="39"/>
       <c r="P28" s="93" t="s">
         <v>38</v>
@@ -35151,15 +35210,15 @@
       <c r="G35" s="30"/>
       <c r="H35" s="61"/>
       <c r="I35" s="39"/>
-      <c r="J35" s="186" t="s">
+      <c r="J35" s="188" t="s">
         <v>294</v>
       </c>
-      <c r="K35" s="187"/>
+      <c r="K35" s="189"/>
       <c r="L35" s="136"/>
-      <c r="M35" s="186" t="s">
+      <c r="M35" s="188" t="s">
         <v>295</v>
       </c>
-      <c r="N35" s="187"/>
+      <c r="N35" s="189"/>
       <c r="O35" s="39"/>
       <c r="P35" s="39"/>
       <c r="Q35" s="39"/>
@@ -35194,9 +35253,9 @@
         <v>4.9305555555555554E-2</v>
       </c>
       <c r="O36" s="39"/>
-      <c r="P36" s="185"/>
-      <c r="Q36" s="185"/>
-      <c r="R36" s="185"/>
+      <c r="P36" s="180"/>
+      <c r="Q36" s="180"/>
+      <c r="R36" s="180"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -35227,9 +35286,9 @@
         <v>0.18472222222222223</v>
       </c>
       <c r="O37" s="39"/>
-      <c r="P37" s="189"/>
-      <c r="Q37" s="189"/>
-      <c r="R37" s="189"/>
+      <c r="P37" s="187"/>
+      <c r="Q37" s="187"/>
+      <c r="R37" s="187"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -35260,9 +35319,9 @@
         <v>0.21249999999999999</v>
       </c>
       <c r="O38" s="39"/>
-      <c r="P38" s="185"/>
-      <c r="Q38" s="185"/>
-      <c r="R38" s="185"/>
+      <c r="P38" s="180"/>
+      <c r="Q38" s="180"/>
+      <c r="R38" s="180"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -35293,9 +35352,9 @@
         <v>0.26527777777777778</v>
       </c>
       <c r="O39" s="39"/>
-      <c r="P39" s="185"/>
-      <c r="Q39" s="185"/>
-      <c r="R39" s="185"/>
+      <c r="P39" s="180"/>
+      <c r="Q39" s="180"/>
+      <c r="R39" s="180"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -35326,9 +35385,9 @@
         <v>0.75347222222222221</v>
       </c>
       <c r="O40" s="39"/>
-      <c r="P40" s="185"/>
-      <c r="Q40" s="185"/>
-      <c r="R40" s="185"/>
+      <c r="P40" s="180"/>
+      <c r="Q40" s="180"/>
+      <c r="R40" s="180"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -35354,9 +35413,9 @@
         <v>1.0513888888888889</v>
       </c>
       <c r="O41" s="39"/>
-      <c r="P41" s="185"/>
-      <c r="Q41" s="185"/>
-      <c r="R41" s="185"/>
+      <c r="P41" s="180"/>
+      <c r="Q41" s="180"/>
+      <c r="R41" s="180"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -38321,12 +38380,6 @@
     <sortCondition ref="J9"/>
   </sortState>
   <mergeCells count="18">
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
     <mergeCell ref="M35:N35"/>
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="M21:N21"/>
@@ -38339,6 +38392,12 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="J35:K35"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J116" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -38355,7 +38414,7 @@
   <dimension ref="A1:Z153"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U36" sqref="U36"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -38431,15 +38490,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="186" t="s">
+      <c r="J2" s="188" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="188"/>
+      <c r="K2" s="190"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="188" t="s">
+      <c r="M2" s="190" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="187"/>
+      <c r="N2" s="189"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -38769,15 +38828,15 @@
         <v>1.1847222222222222</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="186" t="s">
+      <c r="J10" s="188" t="s">
         <v>286</v>
       </c>
-      <c r="K10" s="187"/>
+      <c r="K10" s="189"/>
       <c r="L10" s="136"/>
-      <c r="M10" s="186" t="s">
+      <c r="M10" s="188" t="s">
         <v>287</v>
       </c>
-      <c r="N10" s="187"/>
+      <c r="N10" s="189"/>
       <c r="O10" s="39"/>
       <c r="P10" s="39"/>
       <c r="Q10" s="39"/>
@@ -39074,15 +39133,15 @@
         <v>6.063194444444445</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="186" t="s">
+      <c r="J17" s="188" t="s">
         <v>288</v>
       </c>
-      <c r="K17" s="187"/>
+      <c r="K17" s="189"/>
       <c r="L17" s="136"/>
-      <c r="M17" s="186" t="s">
+      <c r="M17" s="188" t="s">
         <v>289</v>
       </c>
-      <c r="N17" s="187"/>
+      <c r="N17" s="189"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
@@ -39304,15 +39363,15 @@
         <v>0.50555555555555554</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="186" t="s">
+      <c r="J22" s="188" t="s">
         <v>290</v>
       </c>
-      <c r="K22" s="187"/>
+      <c r="K22" s="189"/>
       <c r="L22" s="136"/>
-      <c r="M22" s="186" t="s">
+      <c r="M22" s="188" t="s">
         <v>291</v>
       </c>
-      <c r="N22" s="187"/>
+      <c r="N22" s="189"/>
       <c r="O22" s="39"/>
       <c r="P22" s="63" t="s">
         <v>32</v>
@@ -39663,15 +39722,15 @@
         <v>2.6388888888888889E-2</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="186" t="s">
+      <c r="J28" s="188" t="s">
         <v>292</v>
       </c>
-      <c r="K28" s="187"/>
+      <c r="K28" s="189"/>
       <c r="L28" s="136"/>
-      <c r="M28" s="186" t="s">
+      <c r="M28" s="188" t="s">
         <v>293</v>
       </c>
-      <c r="N28" s="187"/>
+      <c r="N28" s="189"/>
       <c r="O28" s="39"/>
       <c r="P28" s="93" t="s">
         <v>38</v>
@@ -40037,15 +40096,15 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="I34" s="39"/>
-      <c r="J34" s="186" t="s">
+      <c r="J34" s="188" t="s">
         <v>294</v>
       </c>
-      <c r="K34" s="187"/>
+      <c r="K34" s="189"/>
       <c r="L34" s="136"/>
-      <c r="M34" s="186" t="s">
+      <c r="M34" s="188" t="s">
         <v>295</v>
       </c>
-      <c r="N34" s="187"/>
+      <c r="N34" s="189"/>
       <c r="O34" s="39"/>
       <c r="P34" s="125" t="s">
         <v>77</v>
@@ -40152,9 +40211,9 @@
         <v>0.36944444444444446</v>
       </c>
       <c r="O36" s="39"/>
-      <c r="P36" s="185"/>
-      <c r="Q36" s="185"/>
-      <c r="R36" s="185"/>
+      <c r="P36" s="180"/>
+      <c r="Q36" s="180"/>
+      <c r="R36" s="180"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -40199,9 +40258,9 @@
         <v>7.9166666666666663E-2</v>
       </c>
       <c r="O37" s="39"/>
-      <c r="P37" s="189"/>
-      <c r="Q37" s="185"/>
-      <c r="R37" s="185"/>
+      <c r="P37" s="187"/>
+      <c r="Q37" s="180"/>
+      <c r="R37" s="180"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -40233,9 +40292,9 @@
       </c>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="185"/>
-      <c r="Q38" s="185"/>
-      <c r="R38" s="185"/>
+      <c r="P38" s="180"/>
+      <c r="Q38" s="180"/>
+      <c r="R38" s="180"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -40253,9 +40312,9 @@
       <c r="H39" s="138"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="185"/>
-      <c r="Q39" s="185"/>
-      <c r="R39" s="185"/>
+      <c r="P39" s="180"/>
+      <c r="Q39" s="180"/>
+      <c r="R39" s="180"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -40273,9 +40332,9 @@
       <c r="H40" s="61"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="185"/>
-      <c r="Q40" s="185"/>
-      <c r="R40" s="185"/>
+      <c r="P40" s="180"/>
+      <c r="Q40" s="180"/>
+      <c r="R40" s="180"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -40293,9 +40352,9 @@
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="185"/>
-      <c r="Q41" s="185"/>
-      <c r="R41" s="185"/>
+      <c r="P41" s="180"/>
+      <c r="Q41" s="180"/>
+      <c r="R41" s="180"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -43247,24 +43306,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M17:N17"/>
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
@@ -43286,7 +43345,7 @@
   <dimension ref="A1:Z153"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -43363,15 +43422,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="186" t="s">
+      <c r="J2" s="188" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="187"/>
+      <c r="K2" s="189"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="186" t="s">
+      <c r="M2" s="188" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="187"/>
+      <c r="N2" s="189"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -43577,15 +43636,15 @@
         <v>0.33749999999999997</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="186" t="s">
+      <c r="J7" s="188" t="s">
         <v>286</v>
       </c>
-      <c r="K7" s="187"/>
+      <c r="K7" s="189"/>
       <c r="L7" s="136"/>
-      <c r="M7" s="186" t="s">
+      <c r="M7" s="188" t="s">
         <v>287</v>
       </c>
-      <c r="N7" s="187"/>
+      <c r="N7" s="189"/>
       <c r="O7" s="39"/>
       <c r="P7" s="39"/>
       <c r="Q7" s="39"/>
@@ -43792,15 +43851,15 @@
         <v>0.48819444444444443</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="186" t="s">
+      <c r="J12" s="188" t="s">
         <v>288</v>
       </c>
-      <c r="K12" s="187"/>
+      <c r="K12" s="189"/>
       <c r="L12" s="136"/>
-      <c r="M12" s="186" t="s">
+      <c r="M12" s="188" t="s">
         <v>289</v>
       </c>
-      <c r="N12" s="187"/>
+      <c r="N12" s="189"/>
       <c r="O12" s="39"/>
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
@@ -44050,15 +44109,15 @@
         <v>2.6659722222222224</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="186" t="s">
+      <c r="J18" s="188" t="s">
         <v>290</v>
       </c>
-      <c r="K18" s="187"/>
+      <c r="K18" s="189"/>
       <c r="L18" s="136"/>
-      <c r="M18" s="186" t="s">
+      <c r="M18" s="188" t="s">
         <v>291</v>
       </c>
-      <c r="N18" s="187"/>
+      <c r="N18" s="189"/>
       <c r="O18" s="39"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="39"/>
@@ -44295,15 +44354,15 @@
         <v>1.8131944444444446</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="186" t="s">
+      <c r="J23" s="188" t="s">
         <v>292</v>
       </c>
-      <c r="K23" s="187"/>
+      <c r="K23" s="189"/>
       <c r="L23" s="136"/>
-      <c r="M23" s="186" t="s">
+      <c r="M23" s="188" t="s">
         <v>293</v>
       </c>
-      <c r="N23" s="187"/>
+      <c r="N23" s="189"/>
       <c r="O23" s="39"/>
       <c r="P23" s="94" t="s">
         <v>33</v>
@@ -44659,15 +44718,15 @@
         <v>0.11527777777777778</v>
       </c>
       <c r="I29" s="39"/>
-      <c r="J29" s="186" t="s">
+      <c r="J29" s="188" t="s">
         <v>294</v>
       </c>
-      <c r="K29" s="187"/>
+      <c r="K29" s="189"/>
       <c r="L29" s="136"/>
-      <c r="M29" s="186" t="s">
+      <c r="M29" s="188" t="s">
         <v>295</v>
       </c>
-      <c r="N29" s="187"/>
+      <c r="N29" s="189"/>
       <c r="O29" s="39"/>
       <c r="P29" s="94" t="s">
         <v>39</v>
@@ -44999,9 +45058,9 @@
       <c r="H36" s="61"/>
       <c r="I36" s="39"/>
       <c r="O36" s="39"/>
-      <c r="P36" s="185"/>
-      <c r="Q36" s="185"/>
-      <c r="R36" s="185"/>
+      <c r="P36" s="180"/>
+      <c r="Q36" s="180"/>
+      <c r="R36" s="180"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -45019,9 +45078,9 @@
       <c r="H37" s="61"/>
       <c r="I37" s="39"/>
       <c r="O37" s="39"/>
-      <c r="P37" s="189"/>
-      <c r="Q37" s="185"/>
-      <c r="R37" s="185"/>
+      <c r="P37" s="187"/>
+      <c r="Q37" s="180"/>
+      <c r="R37" s="180"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -45039,9 +45098,9 @@
       <c r="H38" s="61"/>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="185"/>
-      <c r="Q38" s="185"/>
-      <c r="R38" s="185"/>
+      <c r="P38" s="180"/>
+      <c r="Q38" s="180"/>
+      <c r="R38" s="180"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -45059,9 +45118,9 @@
       <c r="H39" s="61"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="185"/>
-      <c r="Q39" s="185"/>
-      <c r="R39" s="185"/>
+      <c r="P39" s="180"/>
+      <c r="Q39" s="180"/>
+      <c r="R39" s="180"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -45079,9 +45138,9 @@
       <c r="H40" s="62"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="185"/>
-      <c r="Q40" s="185"/>
-      <c r="R40" s="185"/>
+      <c r="P40" s="180"/>
+      <c r="Q40" s="180"/>
+      <c r="R40" s="180"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -45099,9 +45158,9 @@
       <c r="H41" s="61"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="185"/>
-      <c r="Q41" s="185"/>
-      <c r="R41" s="185"/>
+      <c r="P41" s="180"/>
+      <c r="Q41" s="180"/>
+      <c r="R41" s="180"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -48056,6 +48115,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="P38:R38"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="M2:N2"/>
@@ -48069,11 +48133,6 @@
     <mergeCell ref="M23:N23"/>
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="J29:K29"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="P38:R38"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
@@ -48093,8 +48152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF62C77-56E1-46D1-8A04-9C8B0CAA13F7}">
   <dimension ref="A1:Z153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -48171,15 +48230,15 @@
         <v>20</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="186" t="s">
+      <c r="J2" s="188" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="187"/>
+      <c r="K2" s="189"/>
       <c r="L2" s="136"/>
-      <c r="M2" s="186" t="s">
+      <c r="M2" s="188" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="187"/>
+      <c r="N2" s="189"/>
       <c r="O2" s="39"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="39"/>
@@ -48389,15 +48448,15 @@
         <v>2.5249999999999999</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="186" t="s">
+      <c r="J7" s="188" t="s">
         <v>286</v>
       </c>
-      <c r="K7" s="187"/>
+      <c r="K7" s="189"/>
       <c r="L7" s="136"/>
-      <c r="M7" s="186" t="s">
+      <c r="M7" s="188" t="s">
         <v>287</v>
       </c>
-      <c r="N7" s="187"/>
+      <c r="N7" s="189"/>
       <c r="O7" s="39"/>
       <c r="P7" s="39"/>
       <c r="Q7" s="39"/>
@@ -48595,15 +48654,15 @@
         <v>1.8055555555555554E-2</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="186" t="s">
+      <c r="J12" s="188" t="s">
         <v>288</v>
       </c>
-      <c r="K12" s="187"/>
+      <c r="K12" s="189"/>
       <c r="L12" s="136"/>
-      <c r="M12" s="186" t="s">
+      <c r="M12" s="188" t="s">
         <v>289</v>
       </c>
-      <c r="N12" s="187"/>
+      <c r="N12" s="189"/>
       <c r="O12" s="39"/>
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
@@ -48810,15 +48869,15 @@
         <v>0.30902777777777779</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="186" t="s">
+      <c r="J17" s="188" t="s">
         <v>290</v>
       </c>
-      <c r="K17" s="187"/>
+      <c r="K17" s="189"/>
       <c r="L17" s="136"/>
-      <c r="M17" s="186" t="s">
+      <c r="M17" s="188" t="s">
         <v>291</v>
       </c>
-      <c r="N17" s="187"/>
+      <c r="N17" s="189"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
@@ -49038,15 +49097,15 @@
         <v>2.0166666666666666</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="186" t="s">
+      <c r="J22" s="188" t="s">
         <v>292</v>
       </c>
-      <c r="K22" s="187"/>
+      <c r="K22" s="189"/>
       <c r="L22" s="136"/>
-      <c r="M22" s="186" t="s">
+      <c r="M22" s="191" t="s">
         <v>293</v>
       </c>
-      <c r="N22" s="187"/>
+      <c r="N22" s="192"/>
       <c r="O22" s="39"/>
       <c r="P22" s="63" t="s">
         <v>32</v>
@@ -49104,9 +49163,13 @@
       <c r="K23" s="72">
         <v>0.81319444444444444</v>
       </c>
-      <c r="L23" s="137"/>
-      <c r="M23" s="131"/>
-      <c r="N23" s="72"/>
+      <c r="L23" s="140"/>
+      <c r="M23" s="121" t="s">
+        <v>555</v>
+      </c>
+      <c r="N23" s="59">
+        <v>0.38611111111111113</v>
+      </c>
       <c r="O23" s="39"/>
       <c r="P23" s="94" t="s">
         <v>33</v>
@@ -49161,8 +49224,12 @@
       <c r="J24" s="114"/>
       <c r="K24" s="60"/>
       <c r="L24" s="137"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="60"/>
+      <c r="M24" s="141" t="s">
+        <v>29</v>
+      </c>
+      <c r="N24" s="75">
+        <v>0.27847222222222223</v>
+      </c>
       <c r="O24" s="39"/>
       <c r="P24" s="93" t="s">
         <v>34</v>
@@ -49219,8 +49286,12 @@
       <c r="J25" s="135"/>
       <c r="K25" s="77"/>
       <c r="L25" s="163"/>
-      <c r="M25" s="135"/>
-      <c r="N25" s="77"/>
+      <c r="M25" s="101" t="s">
+        <v>627</v>
+      </c>
+      <c r="N25" s="60">
+        <v>0.12708333333333333</v>
+      </c>
       <c r="O25" s="39"/>
       <c r="P25" s="94" t="s">
         <v>35</v>
@@ -49276,6 +49347,12 @@
         <v>1.0625</v>
       </c>
       <c r="I26" s="39"/>
+      <c r="M26" s="169" t="s">
+        <v>579</v>
+      </c>
+      <c r="N26" s="75">
+        <v>7.9861111111111105E-2</v>
+      </c>
       <c r="O26" s="39"/>
       <c r="P26" s="93" t="s">
         <v>36</v>
@@ -49331,15 +49408,12 @@
         <v>2.3708333333333331</v>
       </c>
       <c r="I27" s="39"/>
-      <c r="J27" s="186" t="s">
-        <v>294</v>
-      </c>
-      <c r="K27" s="187"/>
-      <c r="L27" s="136"/>
-      <c r="M27" s="186" t="s">
-        <v>295</v>
-      </c>
-      <c r="N27" s="187"/>
+      <c r="M27" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="N27" s="102">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="O27" s="39"/>
       <c r="P27" s="94" t="s">
         <v>37</v>
@@ -49393,11 +49467,6 @@
         <v>2.2124999999999999</v>
       </c>
       <c r="I28" s="39"/>
-      <c r="J28" s="168"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="137"/>
-      <c r="M28" s="131"/>
-      <c r="N28" s="72"/>
       <c r="O28" s="39"/>
       <c r="P28" s="93" t="s">
         <v>38</v>
@@ -49451,11 +49520,15 @@
         <v>0.35</v>
       </c>
       <c r="I29" s="39"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="137"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="60"/>
+      <c r="J29" s="188" t="s">
+        <v>294</v>
+      </c>
+      <c r="K29" s="189"/>
+      <c r="L29" s="136"/>
+      <c r="M29" s="188" t="s">
+        <v>295</v>
+      </c>
+      <c r="N29" s="189"/>
       <c r="O29" s="39"/>
       <c r="P29" s="94" t="s">
         <v>39</v>
@@ -49503,17 +49576,17 @@
         <v>228</v>
       </c>
       <c r="G30" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="60" t="s">
-        <v>13</v>
+        <v>625</v>
+      </c>
+      <c r="H30" s="60">
+        <v>2.2833333333333332</v>
       </c>
       <c r="I30" s="39"/>
-      <c r="J30" s="135"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="163"/>
-      <c r="M30" s="135"/>
-      <c r="N30" s="77"/>
+      <c r="J30" s="168"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="137"/>
+      <c r="M30" s="131"/>
+      <c r="N30" s="72"/>
       <c r="O30" s="39"/>
       <c r="P30" s="93" t="s">
         <v>40</v>
@@ -49548,52 +49621,88 @@
       <c r="B31" s="70">
         <v>29</v>
       </c>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="152"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="75"/>
+      <c r="C31" s="73" t="s">
+        <v>626</v>
+      </c>
+      <c r="D31" s="73">
+        <v>2010</v>
+      </c>
+      <c r="E31" s="152" t="s">
+        <v>440</v>
+      </c>
+      <c r="F31" s="74" t="s">
+        <v>234</v>
+      </c>
+      <c r="G31" s="74" t="s">
+        <v>629</v>
+      </c>
+      <c r="H31" s="75">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="I31" s="39"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="61"/>
+      <c r="J31" s="114"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="137"/>
+      <c r="M31" s="101"/>
+      <c r="N31" s="60"/>
       <c r="O31" s="39"/>
       <c r="P31" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="Q31" s="64"/>
-      <c r="R31" s="64"/>
+      <c r="Q31" s="64">
+        <f>SUM(H31:H32,W31:X31)</f>
+        <v>3.5854166666666667</v>
+      </c>
+      <c r="R31" s="64">
+        <f>SUM(N23:N27)</f>
+        <v>0.91319444444444431</v>
+      </c>
       <c r="S31" s="90">
         <f>Q31+R31</f>
-        <v>0</v>
+        <v>4.4986111111111109</v>
       </c>
       <c r="T31" s="39"/>
-      <c r="U31" s="98"/>
+      <c r="U31" s="98" t="s">
+        <v>635</v>
+      </c>
       <c r="V31" s="146"/>
-      <c r="W31" s="147"/>
-      <c r="X31" s="147"/>
+      <c r="W31" s="147">
+        <v>1.35</v>
+      </c>
+      <c r="X31" s="147">
+        <v>1.2986111111111112</v>
+      </c>
       <c r="Y31" s="147"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="39"/>
-      <c r="B32" s="123">
+      <c r="B32" s="78">
         <v>30</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="154"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="102"/>
+      <c r="C32" s="54" t="s">
+        <v>630</v>
+      </c>
+      <c r="D32" s="54">
+        <v>2007</v>
+      </c>
+      <c r="E32" s="153" t="s">
+        <v>440</v>
+      </c>
+      <c r="F32" s="69" t="s">
+        <v>543</v>
+      </c>
+      <c r="G32" s="69" t="s">
+        <v>631</v>
+      </c>
+      <c r="H32" s="60">
+        <v>0.39513888888888887</v>
+      </c>
       <c r="I32" s="39"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="61"/>
+      <c r="J32" s="135"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="163"/>
+      <c r="M32" s="135"/>
+      <c r="N32" s="77"/>
       <c r="O32" s="39"/>
       <c r="P32" s="93" t="s">
         <v>42</v>
@@ -49613,13 +49722,27 @@
     </row>
     <row r="33" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="61"/>
+      <c r="B33" s="70">
+        <v>31</v>
+      </c>
+      <c r="C33" s="73" t="s">
+        <v>632</v>
+      </c>
+      <c r="D33" s="73">
+        <v>2025</v>
+      </c>
+      <c r="E33" s="152" t="s">
+        <v>440</v>
+      </c>
+      <c r="F33" s="74" t="s">
+        <v>545</v>
+      </c>
+      <c r="G33" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="75" t="s">
+        <v>13</v>
+      </c>
       <c r="I33" s="39"/>
       <c r="J33" s="6"/>
       <c r="K33" s="61"/>
@@ -49645,13 +49768,27 @@
     </row>
     <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="155"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="61"/>
+      <c r="B34" s="78">
+        <v>32</v>
+      </c>
+      <c r="C34" s="54" t="s">
+        <v>633</v>
+      </c>
+      <c r="D34" s="54">
+        <v>2013</v>
+      </c>
+      <c r="E34" s="153" t="s">
+        <v>439</v>
+      </c>
+      <c r="F34" s="69" t="s">
+        <v>304</v>
+      </c>
+      <c r="G34" s="69" t="s">
+        <v>634</v>
+      </c>
+      <c r="H34" s="60">
+        <v>0.50138888888888888</v>
+      </c>
       <c r="I34" s="39"/>
       <c r="M34" s="6"/>
       <c r="N34" s="61"/>
@@ -49661,15 +49798,15 @@
       </c>
       <c r="Q34" s="126">
         <f>SUM(Q22:Q33)</f>
-        <v>24.463194444444447</v>
+        <v>28.048611111111114</v>
       </c>
       <c r="R34" s="126">
         <f>SUM(R22:R33)</f>
-        <v>7.0111111111111111</v>
+        <v>7.9243055555555557</v>
       </c>
       <c r="S34" s="127">
         <f>SUM(S22:S33)</f>
-        <v>31.47430555555556</v>
+        <v>35.97291666666667</v>
       </c>
       <c r="T34" s="39"/>
       <c r="U34" s="39"/>
@@ -49678,13 +49815,15 @@
     </row>
     <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="155"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="61"/>
+      <c r="B35" s="70">
+        <v>33</v>
+      </c>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="75"/>
       <c r="I35" s="39"/>
       <c r="O35" s="39"/>
       <c r="P35" s="39"/>
@@ -49698,18 +49837,20 @@
     </row>
     <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="39"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="155"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="61"/>
+      <c r="B36" s="78">
+        <v>34</v>
+      </c>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="153"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="60"/>
       <c r="I36" s="39"/>
       <c r="O36" s="39"/>
-      <c r="P36" s="185"/>
-      <c r="Q36" s="185"/>
-      <c r="R36" s="185"/>
+      <c r="P36" s="180"/>
+      <c r="Q36" s="180"/>
+      <c r="R36" s="180"/>
       <c r="S36" s="111"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
@@ -49718,18 +49859,20 @@
     </row>
     <row r="37" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="155"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="61"/>
+      <c r="B37" s="70">
+        <v>35</v>
+      </c>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="152"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="75"/>
       <c r="I37" s="39"/>
       <c r="O37" s="39"/>
-      <c r="P37" s="189"/>
-      <c r="Q37" s="185"/>
-      <c r="R37" s="185"/>
+      <c r="P37" s="187"/>
+      <c r="Q37" s="180"/>
+      <c r="R37" s="180"/>
       <c r="S37" s="111"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
@@ -49738,18 +49881,20 @@
     </row>
     <row r="38" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="39"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="155"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="61"/>
+      <c r="B38" s="78">
+        <v>36</v>
+      </c>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="153"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="60"/>
       <c r="I38" s="39"/>
       <c r="O38" s="39"/>
-      <c r="P38" s="185"/>
-      <c r="Q38" s="185"/>
-      <c r="R38" s="185"/>
+      <c r="P38" s="180"/>
+      <c r="Q38" s="180"/>
+      <c r="R38" s="180"/>
       <c r="S38" s="111"/>
       <c r="T38" s="16"/>
       <c r="U38" s="16"/>
@@ -49758,18 +49903,20 @@
     </row>
     <row r="39" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="39"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="155"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="61"/>
+      <c r="B39" s="70">
+        <v>37</v>
+      </c>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="152"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="75"/>
       <c r="I39" s="39"/>
       <c r="O39" s="39"/>
-      <c r="P39" s="185"/>
-      <c r="Q39" s="185"/>
-      <c r="R39" s="185"/>
+      <c r="P39" s="180"/>
+      <c r="Q39" s="180"/>
+      <c r="R39" s="180"/>
       <c r="S39" s="124"/>
       <c r="T39" s="16"/>
       <c r="U39" s="16"/>
@@ -49778,18 +49925,20 @@
     </row>
     <row r="40" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="39"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="62"/>
+      <c r="B40" s="78">
+        <v>38</v>
+      </c>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="153"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="60"/>
       <c r="I40" s="39"/>
       <c r="O40" s="39"/>
-      <c r="P40" s="185"/>
-      <c r="Q40" s="185"/>
-      <c r="R40" s="185"/>
+      <c r="P40" s="180"/>
+      <c r="Q40" s="180"/>
+      <c r="R40" s="180"/>
       <c r="S40" s="124"/>
       <c r="T40" s="16"/>
       <c r="U40" s="16"/>
@@ -49798,18 +49947,20 @@
     </row>
     <row r="41" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="39"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="155"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="61"/>
+      <c r="B41" s="70">
+        <v>39</v>
+      </c>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="152"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="74"/>
+      <c r="H41" s="75"/>
       <c r="I41" s="39"/>
       <c r="O41" s="39"/>
-      <c r="P41" s="185"/>
-      <c r="Q41" s="185"/>
-      <c r="R41" s="185"/>
+      <c r="P41" s="180"/>
+      <c r="Q41" s="180"/>
+      <c r="R41" s="180"/>
       <c r="S41" s="124"/>
       <c r="T41" s="16"/>
       <c r="U41" s="16"/>
@@ -49818,13 +49969,15 @@
     </row>
     <row r="42" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="39"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="155"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="61"/>
+      <c r="B42" s="123">
+        <v>40</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="154"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="102"/>
       <c r="I42" s="39"/>
       <c r="O42" s="39"/>
       <c r="P42" s="39"/>
@@ -51696,7 +51849,7 @@
       </c>
       <c r="R117" s="44">
         <f>COUNTIF(D1:D57,Q117)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S117" s="39"/>
       <c r="T117" s="39"/>
@@ -52056,7 +52209,7 @@
       </c>
       <c r="R129" s="46">
         <f>COUNTIF(D3:D59,Q129)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S129" s="39"/>
       <c r="T129" s="39"/>
@@ -52146,7 +52299,7 @@
       </c>
       <c r="R132" s="46">
         <f>COUNTIF(D3:D59,Q132)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S132" s="39"/>
       <c r="T132" s="39"/>
@@ -52236,7 +52389,7 @@
       </c>
       <c r="R135" s="46">
         <f>COUNTIF(D3:D59,Q135)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S135" s="39"/>
       <c r="T135" s="39"/>
@@ -52686,7 +52839,7 @@
       </c>
       <c r="R150" s="42">
         <f>SUM(R118:R149)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="S150" s="39"/>
       <c r="T150" s="39"/>
@@ -52771,16 +52924,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="J2:K2"/>
@@ -52789,6 +52932,16 @@
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="M12:N12"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
@@ -52798,7 +52951,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <ignoredErrors>
-    <ignoredError sqref="Q24:Q25 Q28 Q30" formulaRange="1"/>
+    <ignoredError sqref="Q24:Q25 Q28 Q30:Q31" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId4"/>
 </worksheet>

--- a/spreadsheets/Games.xlsx
+++ b/spreadsheets/Games.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\ucer0.github.io\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEDA00C-34B4-4D42-95C6-2B0AA712964C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476BEF1E-2F0A-44D9-8995-77307386D8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="641">
   <si>
     <t>Nier: Automata</t>
   </si>
@@ -2640,6 +2640,21 @@
       </rPr>
       <t>, TitSR (54h 15m ingame), GT (12h 18m), AUS (7h 23m ingame, 82%, All Abilities, Gold, Bosses, 69/95 hearts, 73 deaths, 352 saves)</t>
     </r>
+  </si>
+  <si>
+    <t>17-nov.</t>
+  </si>
+  <si>
+    <t>Sylvie RPG: 7 Elf Apocalypse</t>
+  </si>
+  <si>
+    <t>The MISSING: J.J. Macfield and the Island of Memories</t>
+  </si>
+  <si>
+    <t>Nepheshel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DTS (26h 26m), Nepheshel (15h 45m)</t>
   </si>
 </sst>
 </file>
@@ -5274,7 +5289,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -5292,7 +5307,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
@@ -5340,7 +5355,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -5655,6 +5670,9 @@
                 <c:pt idx="9">
                   <c:v>3.5854166666666667</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6361111111111115</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5770,6 +5788,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.91319444444444431</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.92152777777777772</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -48153,7 +48174,7 @@
   <dimension ref="A1:Z153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+      <selection activeCell="P36" sqref="P36:R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -49243,7 +49264,7 @@
         <v>0.61250000000000004</v>
       </c>
       <c r="S24" s="97">
-        <f t="shared" si="0"/>
+        <f>Q24+R24</f>
         <v>2.8090277777777777</v>
       </c>
       <c r="T24" s="39"/>
@@ -49582,8 +49603,12 @@
         <v>2.2833333333333332</v>
       </c>
       <c r="I30" s="39"/>
-      <c r="J30" s="168"/>
-      <c r="K30" s="72"/>
+      <c r="J30" s="168" t="s">
+        <v>555</v>
+      </c>
+      <c r="K30" s="72">
+        <v>0.58750000000000002</v>
+      </c>
       <c r="L30" s="137"/>
       <c r="M30" s="131"/>
       <c r="N30" s="72"/>
@@ -49640,8 +49665,12 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="I31" s="39"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="60"/>
+      <c r="J31" s="114" t="s">
+        <v>303</v>
+      </c>
+      <c r="K31" s="60">
+        <v>0.33402777777777776</v>
+      </c>
       <c r="L31" s="137"/>
       <c r="M31" s="101"/>
       <c r="N31" s="60"/>
@@ -49707,17 +49736,29 @@
       <c r="P32" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="Q32" s="81"/>
-      <c r="R32" s="81"/>
+      <c r="Q32" s="81">
+        <f>SUM(W32:X32,H34:H36)</f>
+        <v>2.6361111111111115</v>
+      </c>
+      <c r="R32" s="81">
+        <f>SUM(K30:K31)</f>
+        <v>0.92152777777777772</v>
+      </c>
       <c r="S32" s="97">
         <f>Q32+R32</f>
-        <v>0</v>
+        <v>3.5576388888888895</v>
       </c>
       <c r="T32" s="39"/>
-      <c r="U32" s="99"/>
+      <c r="U32" s="99" t="s">
+        <v>640</v>
+      </c>
       <c r="V32" s="146"/>
-      <c r="W32" s="147"/>
-      <c r="X32" s="147"/>
+      <c r="W32" s="147">
+        <v>1.101388888888889</v>
+      </c>
+      <c r="X32" s="147">
+        <v>0.65625</v>
+      </c>
       <c r="Y32" s="147"/>
     </row>
     <row r="33" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -49738,10 +49779,10 @@
         <v>545</v>
       </c>
       <c r="G33" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="75" t="s">
-        <v>13</v>
+        <v>636</v>
+      </c>
+      <c r="H33" s="75">
+        <v>2.4</v>
       </c>
       <c r="I33" s="39"/>
       <c r="J33" s="6"/>
@@ -49798,15 +49839,15 @@
       </c>
       <c r="Q34" s="126">
         <f>SUM(Q22:Q33)</f>
-        <v>28.048611111111114</v>
+        <v>30.684722222222227</v>
       </c>
       <c r="R34" s="126">
         <f>SUM(R22:R33)</f>
-        <v>7.9243055555555557</v>
+        <v>8.8458333333333332</v>
       </c>
       <c r="S34" s="127">
         <f>SUM(S22:S33)</f>
-        <v>35.97291666666667</v>
+        <v>39.530555555555559</v>
       </c>
       <c r="T34" s="39"/>
       <c r="U34" s="39"/>
@@ -49818,12 +49859,24 @@
       <c r="B35" s="70">
         <v>33</v>
       </c>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="152"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="75"/>
+      <c r="C35" s="73" t="s">
+        <v>637</v>
+      </c>
+      <c r="D35" s="73">
+        <v>2024</v>
+      </c>
+      <c r="E35" s="152" t="s">
+        <v>440</v>
+      </c>
+      <c r="F35" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="G35" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="H35" s="75">
+        <v>0.15763888888888888</v>
+      </c>
       <c r="I35" s="39"/>
       <c r="O35" s="39"/>
       <c r="P35" s="39"/>
@@ -49840,12 +49893,24 @@
       <c r="B36" s="78">
         <v>34</v>
       </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="153"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="60"/>
+      <c r="C36" s="54" t="s">
+        <v>638</v>
+      </c>
+      <c r="D36" s="54">
+        <v>2018</v>
+      </c>
+      <c r="E36" s="153" t="s">
+        <v>440</v>
+      </c>
+      <c r="F36" s="69" t="s">
+        <v>364</v>
+      </c>
+      <c r="G36" s="69" t="s">
+        <v>467</v>
+      </c>
+      <c r="H36" s="60">
+        <v>0.21944444444444444</v>
+      </c>
       <c r="I36" s="39"/>
       <c r="O36" s="39"/>
       <c r="P36" s="180"/>
@@ -49862,12 +49927,24 @@
       <c r="B37" s="70">
         <v>35</v>
       </c>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="152"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="75"/>
+      <c r="C37" s="73" t="s">
+        <v>639</v>
+      </c>
+      <c r="D37" s="73">
+        <v>2002</v>
+      </c>
+      <c r="E37" s="152" t="s">
+        <v>440</v>
+      </c>
+      <c r="F37" s="74" t="s">
+        <v>468</v>
+      </c>
+      <c r="G37" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="75" t="s">
+        <v>13</v>
+      </c>
       <c r="I37" s="39"/>
       <c r="O37" s="39"/>
       <c r="P37" s="187"/>
@@ -51804,9 +51881,7 @@
       <c r="G116" s="39"/>
       <c r="H116" s="62"/>
       <c r="I116" s="39"/>
-      <c r="J116" s="129" t="s">
-        <v>205</v>
-      </c>
+      <c r="J116" s="129"/>
       <c r="K116" s="111"/>
       <c r="L116" s="111"/>
       <c r="M116" s="111"/>
@@ -51835,9 +51910,7 @@
       <c r="G117" s="39"/>
       <c r="H117" s="62"/>
       <c r="I117" s="39"/>
-      <c r="J117" s="129" t="s">
-        <v>206</v>
-      </c>
+      <c r="J117" s="129"/>
       <c r="K117" s="111"/>
       <c r="L117" s="111"/>
       <c r="M117" s="111"/>
@@ -51879,7 +51952,7 @@
       </c>
       <c r="R118" s="46">
         <f>COUNTIF(D2:D58,Q118)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S118" s="39"/>
       <c r="T118" s="39"/>
@@ -52059,7 +52132,7 @@
       </c>
       <c r="R124" s="46">
         <f>COUNTIF(D3:D59,Q124)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S124" s="39"/>
       <c r="T124" s="39"/>
@@ -52539,7 +52612,7 @@
       </c>
       <c r="R140" s="46">
         <f>COUNTIF(D3:D59,Q140)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S140" s="39"/>
       <c r="T140" s="39"/>
@@ -52838,8 +52911,8 @@
         <v>123</v>
       </c>
       <c r="R150" s="42">
-        <f>SUM(R118:R149)</f>
-        <v>22</v>
+        <f>SUM(R117:R149)</f>
+        <v>35</v>
       </c>
       <c r="S150" s="39"/>
       <c r="T150" s="39"/>
@@ -52944,15 +53017,11 @@
     <mergeCell ref="P40:R40"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="J116" r:id="rId1" xr:uid="{83A9A6CC-BE59-42CD-B5C7-E41BC1FC3BF1}"/>
-    <hyperlink ref="J117" r:id="rId2" xr:uid="{0EC0C9DF-1A56-47C5-8914-17F3F952D3F7}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="Q24:Q25 Q28 Q30:Q31" formulaRange="1"/>
+    <ignoredError sqref="Q24:Q25 Q28 Q30:Q32" formulaRange="1"/>
   </ignoredErrors>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>